--- a/OPiUP_kursovoy_mine.xlsx
+++ b/OPiUP_kursovoy_mine.xlsx
@@ -13,8 +13,8 @@
   </sheets>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="Michael Pozhigan - Личное представление" guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
     <customWorkbookView name="Siarhei_Kutsankou - Личное представление" guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="670" activeSheetId="1"/>
-    <customWorkbookView name="Michael Pozhigan - Личное представление" guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2059,7 +2059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2198,226 +2198,238 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2724,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150:E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2756,17 +2768,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
@@ -2863,16 +2875,16 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
     </row>
     <row r="6" spans="1:22" ht="19.5" thickBot="1">
       <c r="L6" s="2" t="s">
@@ -3017,7 +3029,7 @@
       </c>
       <c r="D10" s="2">
         <f>8/G34</f>
-        <v>0.47058823529411764</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>406</v>
@@ -3316,16 +3328,16 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
       <c r="R22" s="2" t="s">
         <v>381</v>
       </c>
@@ -3344,26 +3356,26 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="45" customHeight="1">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="81" t="s">
+      <c r="G23" s="74"/>
+      <c r="H23" s="143" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -3384,34 +3396,34 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
+      <c r="A24" s="142"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
       <c r="F24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="82"/>
-      <c r="K24" s="91" t="s">
+      <c r="H24" s="144"/>
+      <c r="K24" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="90" t="s">
+      <c r="L24" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="90" t="s">
+      <c r="M24" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="N24" s="90" t="s">
+      <c r="N24" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="90" t="s">
+      <c r="O24" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="91"/>
+      <c r="P24" s="127"/>
       <c r="R24" s="2" t="s">
         <v>383</v>
       </c>
@@ -3459,12 +3471,12 @@
         <f>F25/G25</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K25" s="91"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="127"/>
       <c r="V25" s="2">
         <f>SUM(V7:V24)</f>
         <v>31.3</v>
@@ -3500,10 +3512,10 @@
         <f t="array" ref="H26">F26/G26</f>
         <v>0.97411475243506507</v>
       </c>
-      <c r="K26" s="92">
+      <c r="K26" s="128">
         <v>1</v>
       </c>
-      <c r="L26" s="92">
+      <c r="L26" s="128">
         <v>2</v>
       </c>
       <c r="M26" s="66">
@@ -3513,10 +3525,10 @@
         <f t="array" ref="N26">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O26" s="91" t="s">
+      <c r="O26" s="127" t="s">
         <v>398</v>
       </c>
-      <c r="P26" s="91"/>
+      <c r="P26" s="127"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="4">
@@ -3548,8 +3560,8 @@
         <f t="array" ref="H27">F27/G27</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
       <c r="M27" s="66">
         <v>2</v>
       </c>
@@ -3557,10 +3569,10 @@
         <f t="array" ref="N27">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O27" s="91" t="s">
+      <c r="O27" s="127" t="s">
         <v>399</v>
       </c>
-      <c r="P27" s="91"/>
+      <c r="P27" s="127"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="4">
@@ -3605,10 +3617,10 @@
         <f t="array" ref="N28">$C$46/L28</f>
         <v>12</v>
       </c>
-      <c r="O28" s="91" t="s">
+      <c r="O28" s="127" t="s">
         <v>400</v>
       </c>
-      <c r="P28" s="91"/>
+      <c r="P28" s="127"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="4">
@@ -3653,10 +3665,10 @@
         <f t="array" ref="N29">$C$46/L29</f>
         <v>12</v>
       </c>
-      <c r="O29" s="91" t="s">
+      <c r="O29" s="127" t="s">
         <v>400</v>
       </c>
-      <c r="P29" s="91"/>
+      <c r="P29" s="127"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="4">
@@ -3688,10 +3700,10 @@
         <f t="array" ref="H30">F30/G30</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K30" s="92">
+      <c r="K30" s="128">
         <v>4</v>
       </c>
-      <c r="L30" s="92">
+      <c r="L30" s="128">
         <v>3</v>
       </c>
       <c r="M30" s="67">
@@ -3701,10 +3713,10 @@
         <f>$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O30" s="94">
+      <c r="O30" s="138">
         <v>1.4</v>
       </c>
-      <c r="P30" s="94"/>
+      <c r="P30" s="138"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="4">
@@ -3736,8 +3748,8 @@
         <f t="array" ref="H31">F31/G31</f>
         <v>0.97567833951762528</v>
       </c>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
       <c r="M31" s="66">
         <v>6</v>
       </c>
@@ -3745,10 +3757,10 @@
         <f t="array" ref="N31">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O31" s="91">
+      <c r="O31" s="127">
         <v>2.5</v>
       </c>
-      <c r="P31" s="91"/>
+      <c r="P31" s="127"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="4">
@@ -3774,14 +3786,14 @@
         <v>1.031967474489796</v>
       </c>
       <c r="G32" s="60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="9">
         <f t="array" ref="H32">F32/G32</f>
-        <v>0.51598373724489799</v>
-      </c>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
+        <v>1.031967474489796</v>
+      </c>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
       <c r="M32" s="66">
         <v>7</v>
       </c>
@@ -3789,10 +3801,10 @@
         <f t="array" ref="N32">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O32" s="91">
+      <c r="O32" s="127">
         <v>3.6</v>
       </c>
-      <c r="P32" s="91"/>
+      <c r="P32" s="127"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="4">
@@ -3837,10 +3849,10 @@
         <f t="array" ref="N33">$C$46/L33</f>
         <v>12</v>
       </c>
-      <c r="O33" s="91" t="s">
+      <c r="O33" s="127" t="s">
         <v>400</v>
       </c>
-      <c r="P33" s="91"/>
+      <c r="P33" s="127"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
@@ -3859,7 +3871,7 @@
       </c>
       <c r="G34" s="4">
         <f>SUM(G25:G32)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" s="9"/>
       <c r="K34" s="66">
@@ -3875,16 +3887,16 @@
         <f t="array" ref="N34">$C$46/L34</f>
         <v>12</v>
       </c>
-      <c r="O34" s="91" t="s">
+      <c r="O34" s="127" t="s">
         <v>400</v>
       </c>
-      <c r="P34" s="91"/>
+      <c r="P34" s="127"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="K35" s="92">
+      <c r="K35" s="128">
         <v>7</v>
       </c>
-      <c r="L35" s="92">
+      <c r="L35" s="128">
         <v>2</v>
       </c>
       <c r="M35" s="66">
@@ -3894,17 +3906,17 @@
         <f t="array" ref="N35">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O35" s="91" t="s">
+      <c r="O35" s="127" t="s">
         <v>398</v>
       </c>
-      <c r="P35" s="91"/>
+      <c r="P35" s="127"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
       <c r="M36" s="66">
         <v>11</v>
       </c>
@@ -3912,16 +3924,16 @@
         <f t="array" ref="N36">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O36" s="91" t="s">
+      <c r="O36" s="127" t="s">
         <v>399</v>
       </c>
-      <c r="P36" s="91"/>
+      <c r="P36" s="127"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="K37" s="92">
+      <c r="K37" s="128">
         <v>8</v>
       </c>
-      <c r="L37" s="92">
+      <c r="L37" s="128">
         <v>2</v>
       </c>
       <c r="M37" s="66">
@@ -3931,10 +3943,10 @@
         <f t="array" ref="N37">$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O37" s="91" t="s">
+      <c r="O37" s="127" t="s">
         <v>398</v>
       </c>
-      <c r="P37" s="91"/>
+      <c r="P37" s="127"/>
     </row>
     <row r="38" spans="1:16">
       <c r="B38" s="2" t="s">
@@ -3942,10 +3954,10 @@
       </c>
       <c r="C38" s="10">
         <f>F34/G34</f>
-        <v>0.9123990505293027</v>
-      </c>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
+        <v>0.96942399118738409</v>
+      </c>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
       <c r="M38" s="66">
         <v>13</v>
       </c>
@@ -3953,10 +3965,10 @@
         <f>$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O38" s="91" t="s">
+      <c r="O38" s="127" t="s">
         <v>399</v>
       </c>
-      <c r="P38" s="91"/>
+      <c r="P38" s="127"/>
     </row>
     <row r="39" spans="1:16">
       <c r="K39" s="66">
@@ -3972,10 +3984,10 @@
         <f>$C$46/L39</f>
         <v>12</v>
       </c>
-      <c r="O39" s="91" t="s">
+      <c r="O39" s="127" t="s">
         <v>400</v>
       </c>
-      <c r="P39" s="91"/>
+      <c r="P39" s="127"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
@@ -4025,7 +4037,7 @@
       </c>
       <c r="C50" s="2">
         <f>G34*F42</f>
-        <v>11.899999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>52</v>
@@ -4042,7 +4054,7 @@
       </c>
       <c r="C54" s="2">
         <f>2*C50+3.14*F54</f>
-        <v>25.055999999999997</v>
+        <v>23.97</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>52</v>
@@ -4051,7 +4063,7 @@
         <v>34</v>
       </c>
       <c r="F54" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>52</v>
@@ -4078,7 +4090,7 @@
       </c>
       <c r="F57" s="2">
         <f t="array" ref="F57">C54/(C46*F42)</f>
-        <v>2.9828571428571431</v>
+        <v>2.8535714285714291</v>
       </c>
       <c r="G57" s="2">
         <v>3</v>
@@ -4095,14 +4107,14 @@
       </c>
       <c r="C61" s="11">
         <f t="array" ref="C61">(2*G34-1)*E17</f>
-        <v>52.763290845886445</v>
+        <v>49.565515643105442</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F61" s="11">
         <f t="array" ref="F61">C61/2</f>
-        <v>26.381645422943222</v>
+        <v>24.782757821552721</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4116,7 +4128,7 @@
       </c>
       <c r="C65" s="2">
         <f t="array" ref="C65">G34</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>49</v>
@@ -4133,7 +4145,7 @@
       </c>
       <c r="C69" s="2">
         <f t="array" ref="C69">G34-1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>49</v>
@@ -4178,14 +4190,14 @@
       </c>
       <c r="C77" s="11">
         <f t="array" ref="C77">C65+C69+C73</f>
-        <v>42.200288538065024</v>
+        <v>40.200288538065024</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E77" s="2">
         <f>FLOOR(C77, 1)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4199,7 +4211,7 @@
       </c>
       <c r="C81" s="2">
         <f>E77*SUM(B25:B32)/(2*60)</f>
-        <v>8.6800000000000015</v>
+        <v>8.2666666666666675</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>50</v>
@@ -4216,7 +4228,7 @@
       </c>
       <c r="C85" s="12">
         <f>E77*0.85*H239</f>
-        <v>1334.9244127523136</v>
+        <v>1271.3460742982318</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>62</v>
@@ -4279,7 +4291,7 @@
       </c>
       <c r="C97" s="11">
         <f>0.736*C99</f>
-        <v>1.6916208979591836</v>
+        <v>1.6183011224489796</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>75</v>
@@ -4291,7 +4303,7 @@
       </c>
       <c r="C99" s="13">
         <f>1.2*0.16*C54*((C42*G99/36)+(C93/270))</f>
-        <v>2.2983979591836734</v>
+        <v>2.1987786989795919</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>74</v>
@@ -4307,74 +4319,74 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="83" t="s">
+      <c r="A102" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B102" s="83"/>
-      <c r="C102" s="83"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="83"/>
-      <c r="H102" s="83"/>
+      <c r="B102" s="72"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="B104" s="121" t="s">
+      <c r="B104" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="121"/>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="121"/>
-      <c r="G104" s="121"/>
-      <c r="H104" s="121"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
+      <c r="F104" s="101"/>
+      <c r="G104" s="101"/>
+      <c r="H104" s="101"/>
       <c r="J104" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A106" s="86" t="s">
+      <c r="A106" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="86"/>
+      <c r="B106" s="99"/>
       <c r="C106" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="86" t="s">
+      <c r="D106" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86" t="s">
+      <c r="E106" s="99"/>
+      <c r="F106" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="G106" s="86"/>
-      <c r="H106" s="86" t="s">
+      <c r="G106" s="99"/>
+      <c r="H106" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="I106" s="86"/>
-      <c r="J106" s="86" t="s">
+      <c r="I106" s="99"/>
+      <c r="J106" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="K106" s="86"/>
+      <c r="K106" s="99"/>
     </row>
     <row r="107" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A107" s="87"/>
-      <c r="B107" s="87"/>
+      <c r="A107" s="86"/>
+      <c r="B107" s="86"/>
       <c r="C107" s="48"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="87"/>
-      <c r="G107" s="87"/>
-      <c r="H107" s="87"/>
-      <c r="I107" s="87"/>
-      <c r="J107" s="87"/>
-      <c r="K107" s="87"/>
+      <c r="F107" s="147"/>
+      <c r="G107" s="147"/>
+      <c r="H107" s="147"/>
+      <c r="I107" s="147"/>
+      <c r="J107" s="147"/>
+      <c r="K107" s="147"/>
     </row>
     <row r="108" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A108" s="88" t="s">
+      <c r="A108" s="85" t="s">
         <v>469</v>
       </c>
-      <c r="B108" s="88"/>
+      <c r="B108" s="85"/>
       <c r="C108" s="49" t="s">
         <v>471</v>
       </c>
@@ -4384,45 +4396,45 @@
       <c r="E108" s="1">
         <v>700</v>
       </c>
-      <c r="F108" s="87">
+      <c r="F108" s="147">
         <v>1</v>
       </c>
-      <c r="G108" s="87"/>
-      <c r="H108" s="87">
+      <c r="G108" s="147"/>
+      <c r="H108" s="147">
         <v>4</v>
       </c>
-      <c r="I108" s="87"/>
-      <c r="J108" s="87">
+      <c r="I108" s="147"/>
+      <c r="J108" s="147">
         <f>D108*E108*F108*H108/1000000</f>
         <v>3.36</v>
       </c>
-      <c r="K108" s="87"/>
+      <c r="K108" s="147"/>
     </row>
     <row r="109" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A109" s="88" t="s">
+      <c r="A109" s="85" t="s">
         <v>470</v>
       </c>
-      <c r="B109" s="88"/>
+      <c r="B109" s="85"/>
       <c r="C109" s="15"/>
-      <c r="D109" s="1">
-        <v>25256</v>
+      <c r="D109" s="65">
+        <v>23970</v>
       </c>
       <c r="E109" s="1">
         <v>100</v>
       </c>
-      <c r="F109" s="87">
+      <c r="F109" s="147">
         <v>1</v>
       </c>
-      <c r="G109" s="87"/>
-      <c r="H109" s="128">
+      <c r="G109" s="147"/>
+      <c r="H109" s="148">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I109" s="128"/>
-      <c r="J109" s="87">
+      <c r="I109" s="148"/>
+      <c r="J109" s="147">
         <f>D109*E109*F109*H109/1000000</f>
-        <v>2.9044400000000001</v>
-      </c>
-      <c r="K109" s="87"/>
+        <v>2.7565499999999998</v>
+      </c>
+      <c r="K109" s="147"/>
     </row>
     <row r="110" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
       <c r="A110" s="47" t="s">
@@ -4438,56 +4450,55 @@
       <c r="E110" s="47">
         <v>700</v>
       </c>
-      <c r="F110" s="47">
+      <c r="F110" s="65">
         <v>15</v>
       </c>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47">
+      <c r="G110" s="65"/>
+      <c r="H110" s="65">
         <v>4</v>
       </c>
-      <c r="I110" s="47"/>
-      <c r="J110" s="69">
+      <c r="I110" s="65"/>
+      <c r="J110" s="149">
         <f>D110*E110*F110*H110/1000000</f>
         <v>50.4</v>
       </c>
-      <c r="K110" s="70"/>
+      <c r="K110" s="150"/>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="88"/>
-      <c r="B111" s="88"/>
+      <c r="A111" s="85"/>
+      <c r="B111" s="85"/>
       <c r="C111" s="15"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="87"/>
-      <c r="G111" s="87"/>
-      <c r="H111" s="88"/>
-      <c r="I111" s="88"/>
-      <c r="J111" s="87">
+      <c r="F111" s="147"/>
+      <c r="G111" s="147"/>
+      <c r="H111" s="151"/>
+      <c r="I111" s="151"/>
+      <c r="J111" s="147">
         <f>D111*E111*F111*H111/1000000</f>
         <v>0</v>
       </c>
-      <c r="K111" s="87"/>
+      <c r="K111" s="147"/>
     </row>
     <row r="112" spans="1:13" s="17" customFormat="1">
-      <c r="A112" s="104" t="s">
+      <c r="A112" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="105"/>
+      <c r="B112" s="126"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
-      <c r="F112" s="106">
-        <f>SUM(F107:G111)</f>
+      <c r="F112" s="152">
         <v>17</v>
       </c>
-      <c r="G112" s="106"/>
-      <c r="H112" s="106"/>
-      <c r="I112" s="106"/>
-      <c r="J112" s="106">
+      <c r="G112" s="152"/>
+      <c r="H112" s="152"/>
+      <c r="I112" s="152"/>
+      <c r="J112" s="152">
         <f t="array" ref="J112">SUM(J108:J111)</f>
-        <v>56.664439999999999</v>
-      </c>
-      <c r="K112" s="106"/>
+        <v>56.516549999999995</v>
+      </c>
+      <c r="K112" s="152"/>
       <c r="M112" s="17" t="s">
         <v>422</v>
       </c>
@@ -4509,108 +4520,108 @@
       <c r="L114" s="8"/>
     </row>
     <row r="115" spans="1:12">
-      <c r="B115" s="121" t="s">
+      <c r="B115" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="121"/>
-      <c r="D115" s="121"/>
-      <c r="E115" s="121"/>
-      <c r="F115" s="121"/>
-      <c r="G115" s="121"/>
-      <c r="H115" s="121"/>
+      <c r="C115" s="101"/>
+      <c r="D115" s="101"/>
+      <c r="E115" s="101"/>
+      <c r="F115" s="101"/>
+      <c r="G115" s="101"/>
+      <c r="H115" s="101"/>
     </row>
     <row r="117" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A117" s="86" t="s">
+      <c r="A117" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="B117" s="86"/>
-      <c r="C117" s="86" t="s">
+      <c r="B117" s="99"/>
+      <c r="C117" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="D117" s="86"/>
-      <c r="E117" s="86" t="s">
+      <c r="D117" s="99"/>
+      <c r="E117" s="99" t="s">
         <v>460</v>
       </c>
-      <c r="F117" s="86"/>
+      <c r="F117" s="99"/>
       <c r="L117" s="16"/>
     </row>
     <row r="118" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A118" s="86" t="s">
+      <c r="A118" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="86"/>
-      <c r="C118" s="86" t="s">
+      <c r="B118" s="99"/>
+      <c r="C118" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="D118" s="86"/>
-      <c r="E118" s="69">
+      <c r="D118" s="99"/>
+      <c r="E118" s="73">
         <f>J112</f>
-        <v>56.664439999999999</v>
-      </c>
-      <c r="F118" s="70"/>
+        <v>56.516549999999995</v>
+      </c>
+      <c r="F118" s="74"/>
     </row>
     <row r="119" spans="1:12" ht="30" customHeight="1">
-      <c r="A119" s="86" t="s">
+      <c r="A119" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="86"/>
-      <c r="C119" s="86" t="s">
+      <c r="B119" s="99"/>
+      <c r="C119" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="D119" s="86"/>
-      <c r="E119" s="69">
+      <c r="D119" s="99"/>
+      <c r="E119" s="73">
         <f t="array" ref="E119">0.3*E118</f>
-        <v>16.999331999999999</v>
-      </c>
-      <c r="F119" s="70"/>
+        <v>16.954964999999998</v>
+      </c>
+      <c r="F119" s="74"/>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="124" t="s">
+      <c r="A120" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="86"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="69">
+      <c r="B120" s="99"/>
+      <c r="C120" s="99"/>
+      <c r="D120" s="99"/>
+      <c r="E120" s="73">
         <f t="array" ref="E120">SUM(E118:F119)</f>
-        <v>73.663771999999994</v>
-      </c>
-      <c r="F120" s="70"/>
+        <v>73.471514999999997</v>
+      </c>
+      <c r="F120" s="74"/>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="103" t="s">
+      <c r="A123" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="B123" s="83"/>
-      <c r="C123" s="83"/>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="83"/>
-      <c r="I123" s="83"/>
+      <c r="B123" s="72"/>
+      <c r="C123" s="72"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
     </row>
     <row r="125" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A125" s="86" t="s">
+      <c r="A125" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B125" s="86"/>
-      <c r="C125" s="86" t="s">
+      <c r="B125" s="99"/>
+      <c r="C125" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="D125" s="86" t="s">
+      <c r="D125" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="E125" s="86" t="s">
+      <c r="E125" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="F125" s="86"/>
+      <c r="F125" s="99"/>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="86"/>
-      <c r="B126" s="86"/>
-      <c r="C126" s="86"/>
-      <c r="D126" s="86"/>
+      <c r="A126" s="99"/>
+      <c r="B126" s="99"/>
+      <c r="C126" s="99"/>
+      <c r="D126" s="99"/>
       <c r="E126" s="1" t="s">
         <v>108</v>
       </c>
@@ -4619,10 +4630,10 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="68" t="s">
+      <c r="A127" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="B127" s="68"/>
+      <c r="B127" s="92"/>
       <c r="C127" s="15" t="s">
         <v>356</v>
       </c>
@@ -4631,18 +4642,18 @@
       </c>
       <c r="E127" s="9">
         <f t="array" ref="E127">C97</f>
-        <v>1.6916208979591836</v>
+        <v>1.6183011224489796</v>
       </c>
       <c r="F127" s="9">
         <f>D127*E127</f>
-        <v>1.6916208979591836</v>
+        <v>1.6183011224489796</v>
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="68" t="s">
+      <c r="A128" s="92" t="s">
         <v>401</v>
       </c>
-      <c r="B128" s="68"/>
+      <c r="B128" s="92"/>
       <c r="C128" s="15" t="s">
         <v>402</v>
       </c>
@@ -4658,10 +4669,10 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="111" t="s">
+      <c r="A129" s="109" t="s">
         <v>403</v>
       </c>
-      <c r="B129" s="113"/>
+      <c r="B129" s="110"/>
       <c r="C129" s="15" t="s">
         <v>404</v>
       </c>
@@ -4677,10 +4688,10 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="125" t="s">
+      <c r="A130" s="111" t="s">
         <v>425</v>
       </c>
-      <c r="B130" s="126"/>
+      <c r="B130" s="112"/>
       <c r="C130" s="15" t="s">
         <v>426</v>
       </c>
@@ -4696,10 +4707,10 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="125" t="s">
+      <c r="A131" s="111" t="s">
         <v>423</v>
       </c>
-      <c r="B131" s="126"/>
+      <c r="B131" s="112"/>
       <c r="C131" s="15" t="s">
         <v>424</v>
       </c>
@@ -4715,10 +4726,10 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="84" t="s">
+      <c r="A132" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="127"/>
+      <c r="B132" s="114"/>
       <c r="C132" s="4"/>
       <c r="D132" s="20">
         <f>SUM(D127:D131)</f>
@@ -4727,223 +4738,223 @@
       <c r="E132" s="20"/>
       <c r="F132" s="21">
         <f>SUM(F127:F131)</f>
-        <v>1.6916208979591836</v>
+        <v>1.6183011224489796</v>
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="83" t="s">
+      <c r="A135" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B135" s="83"/>
-      <c r="C135" s="83"/>
-      <c r="D135" s="83"/>
-      <c r="E135" s="83"/>
-      <c r="F135" s="83"/>
-      <c r="G135" s="83"/>
-      <c r="H135" s="83"/>
+      <c r="B135" s="72"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="72"/>
+      <c r="G135" s="72"/>
+      <c r="H135" s="72"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="B137" s="83" t="s">
+      <c r="B137" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C137" s="83"/>
-      <c r="D137" s="83"/>
-      <c r="E137" s="83"/>
-      <c r="F137" s="83"/>
-      <c r="G137" s="83"/>
-      <c r="H137" s="83"/>
-      <c r="I137" s="83"/>
+      <c r="C137" s="72"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="72"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="72"/>
+      <c r="H137" s="72"/>
+      <c r="I137" s="72"/>
     </row>
     <row r="139" spans="1:12" ht="45" customHeight="1">
-      <c r="A139" s="86" t="s">
+      <c r="A139" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B139" s="86"/>
-      <c r="C139" s="86" t="s">
+      <c r="B139" s="99"/>
+      <c r="C139" s="99" t="s">
         <v>461</v>
       </c>
-      <c r="D139" s="86"/>
-      <c r="E139" s="86" t="s">
+      <c r="D139" s="99"/>
+      <c r="E139" s="99" t="s">
         <v>462</v>
       </c>
-      <c r="F139" s="86"/>
-      <c r="G139" s="86" t="s">
+      <c r="F139" s="99"/>
+      <c r="G139" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="H139" s="86"/>
-      <c r="I139" s="86" t="s">
+      <c r="H139" s="99"/>
+      <c r="I139" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="J139" s="86"/>
-      <c r="K139" s="86" t="s">
+      <c r="J139" s="99"/>
+      <c r="K139" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="L139" s="86"/>
+      <c r="L139" s="99"/>
     </row>
     <row r="140" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A140" s="88" t="s">
+      <c r="A140" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="B140" s="88"/>
-      <c r="C140" s="87">
+      <c r="B140" s="85"/>
+      <c r="C140" s="86">
         <v>170</v>
       </c>
-      <c r="D140" s="87"/>
-      <c r="E140" s="107">
+      <c r="D140" s="86"/>
+      <c r="E140" s="88">
         <f t="array" ref="E140">E118</f>
-        <v>56.664439999999999</v>
-      </c>
-      <c r="F140" s="108"/>
-      <c r="G140" s="107">
+        <v>56.516549999999995</v>
+      </c>
+      <c r="F140" s="89"/>
+      <c r="G140" s="88">
         <f t="array" ref="G140">C140*E140</f>
-        <v>9632.9547999999995</v>
-      </c>
-      <c r="H140" s="108"/>
-      <c r="I140" s="107">
+        <v>9607.8134999999984</v>
+      </c>
+      <c r="H140" s="89"/>
+      <c r="I140" s="88">
         <v>2.7</v>
       </c>
-      <c r="J140" s="108"/>
-      <c r="K140" s="107">
+      <c r="J140" s="89"/>
+      <c r="K140" s="88">
         <f>G140*I140/(100)</f>
-        <v>260.08977959999999</v>
-      </c>
-      <c r="L140" s="108"/>
+        <v>259.41096449999998</v>
+      </c>
+      <c r="L140" s="89"/>
     </row>
     <row r="141" spans="1:12" ht="30" customHeight="1">
-      <c r="A141" s="88" t="s">
+      <c r="A141" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B141" s="88"/>
-      <c r="C141" s="87">
+      <c r="B141" s="85"/>
+      <c r="C141" s="86">
         <v>250</v>
       </c>
-      <c r="D141" s="87"/>
-      <c r="E141" s="107">
+      <c r="D141" s="86"/>
+      <c r="E141" s="88">
         <f t="array" ref="E141">E119</f>
-        <v>16.999331999999999</v>
-      </c>
-      <c r="F141" s="108"/>
-      <c r="G141" s="107">
+        <v>16.954964999999998</v>
+      </c>
+      <c r="F141" s="89"/>
+      <c r="G141" s="88">
         <f t="array" ref="G141">C141*E141</f>
-        <v>4249.8329999999996</v>
-      </c>
-      <c r="H141" s="108"/>
-      <c r="I141" s="107">
+        <v>4238.7412499999991</v>
+      </c>
+      <c r="H141" s="89"/>
+      <c r="I141" s="88">
         <v>3.1</v>
       </c>
-      <c r="J141" s="108"/>
-      <c r="K141" s="107">
+      <c r="J141" s="89"/>
+      <c r="K141" s="88">
         <f>G141*I141/(100)</f>
-        <v>131.744823</v>
-      </c>
-      <c r="L141" s="108"/>
+        <v>131.40097874999998</v>
+      </c>
+      <c r="L141" s="89"/>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="102" t="s">
+      <c r="A142" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B142" s="87"/>
-      <c r="C142" s="69"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="129">
+      <c r="B142" s="86"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="90">
         <f t="array" ref="E142">SUM(E140:E141)</f>
-        <v>73.663771999999994</v>
-      </c>
-      <c r="F142" s="130"/>
-      <c r="G142" s="131">
+        <v>73.471514999999997</v>
+      </c>
+      <c r="F142" s="91"/>
+      <c r="G142" s="104">
         <f>SUM(G140:G141)</f>
-        <v>13882.787799999998</v>
-      </c>
-      <c r="H142" s="132"/>
+        <v>13846.554749999998</v>
+      </c>
+      <c r="H142" s="105"/>
       <c r="I142" s="22"/>
       <c r="J142" s="23"/>
-      <c r="K142" s="129">
+      <c r="K142" s="90">
         <f t="array" ref="K142">SUM(K140:K141)</f>
-        <v>391.83460259999998</v>
-      </c>
-      <c r="L142" s="130"/>
+        <v>390.81194324999996</v>
+      </c>
+      <c r="L142" s="91"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="B145" s="83" t="s">
+      <c r="B145" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="C145" s="83"/>
-      <c r="D145" s="83"/>
-      <c r="E145" s="83"/>
-      <c r="F145" s="83"/>
-      <c r="G145" s="83"/>
-      <c r="H145" s="83"/>
-      <c r="I145" s="83"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
       <c r="K145" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A147" s="86" t="s">
+      <c r="A147" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="B147" s="86"/>
-      <c r="C147" s="86" t="s">
+      <c r="B147" s="99"/>
+      <c r="C147" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="D147" s="86" t="s">
+      <c r="D147" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="E147" s="86"/>
-      <c r="F147" s="86" t="s">
+      <c r="E147" s="99"/>
+      <c r="F147" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="G147" s="86"/>
-      <c r="H147" s="98" t="s">
+      <c r="G147" s="99"/>
+      <c r="H147" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="I147" s="99"/>
-      <c r="J147" s="86" t="s">
+      <c r="I147" s="132"/>
+      <c r="J147" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="K147" s="86"/>
-      <c r="L147" s="98" t="s">
+      <c r="K147" s="99"/>
+      <c r="L147" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="M147" s="99"/>
-      <c r="N147" s="86" t="s">
+      <c r="M147" s="132"/>
+      <c r="N147" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="O147" s="86"/>
+      <c r="O147" s="99"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="86"/>
-      <c r="B148" s="86"/>
-      <c r="C148" s="86"/>
-      <c r="D148" s="86"/>
-      <c r="E148" s="86"/>
+      <c r="A148" s="99"/>
+      <c r="B148" s="99"/>
+      <c r="C148" s="99"/>
+      <c r="D148" s="99"/>
+      <c r="E148" s="99"/>
       <c r="F148" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G148" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H148" s="100"/>
-      <c r="I148" s="101"/>
-      <c r="J148" s="86"/>
-      <c r="K148" s="86"/>
-      <c r="L148" s="100"/>
-      <c r="M148" s="101"/>
-      <c r="N148" s="86"/>
-      <c r="O148" s="86"/>
+      <c r="H148" s="133"/>
+      <c r="I148" s="134"/>
+      <c r="J148" s="99"/>
+      <c r="K148" s="99"/>
+      <c r="L148" s="133"/>
+      <c r="M148" s="134"/>
+      <c r="N148" s="99"/>
+      <c r="O148" s="99"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="87" t="s">
+      <c r="A149" s="86" t="s">
         <v>472</v>
       </c>
-      <c r="B149" s="87"/>
+      <c r="B149" s="86"/>
       <c r="C149" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="D149" s="87">
+      <c r="D149" s="86">
         <v>15</v>
       </c>
-      <c r="E149" s="87"/>
+      <c r="E149" s="86"/>
       <c r="F149" s="14">
         <v>360</v>
       </c>
@@ -4951,38 +4962,38 @@
         <f>D149*F149</f>
         <v>5400</v>
       </c>
-      <c r="H149" s="122">
+      <c r="H149" s="83">
         <f>0.1*G149</f>
         <v>540</v>
       </c>
-      <c r="I149" s="123"/>
-      <c r="J149" s="122">
+      <c r="I149" s="84"/>
+      <c r="J149" s="83">
         <f>G149+H149</f>
         <v>5940</v>
       </c>
-      <c r="K149" s="123"/>
-      <c r="L149" s="122">
+      <c r="K149" s="84"/>
+      <c r="L149" s="83">
         <v>7.7</v>
       </c>
-      <c r="M149" s="123"/>
-      <c r="N149" s="145">
+      <c r="M149" s="84"/>
+      <c r="N149" s="81">
         <f>L149*J149/(100)</f>
         <v>457.38</v>
       </c>
-      <c r="O149" s="146"/>
+      <c r="O149" s="82"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="88" t="s">
+      <c r="A150" s="85" t="s">
         <v>473</v>
       </c>
-      <c r="B150" s="88"/>
+      <c r="B150" s="85"/>
       <c r="C150" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D150" s="87">
+      <c r="D150" s="86">
         <v>1</v>
       </c>
-      <c r="E150" s="87"/>
+      <c r="E150" s="86"/>
       <c r="F150" s="14">
         <v>360</v>
       </c>
@@ -4990,38 +5001,38 @@
         <f>D150*F150</f>
         <v>360</v>
       </c>
-      <c r="H150" s="122">
+      <c r="H150" s="83">
         <f>0.1*G150</f>
         <v>36</v>
       </c>
-      <c r="I150" s="123"/>
-      <c r="J150" s="122">
+      <c r="I150" s="84"/>
+      <c r="J150" s="83">
         <f>G150+H150</f>
         <v>396</v>
       </c>
-      <c r="K150" s="123"/>
-      <c r="L150" s="122">
+      <c r="K150" s="84"/>
+      <c r="L150" s="83">
         <v>7.7</v>
       </c>
-      <c r="M150" s="123"/>
-      <c r="N150" s="145">
+      <c r="M150" s="84"/>
+      <c r="N150" s="81">
         <f>L150*J150/(100)</f>
         <v>30.492000000000004</v>
       </c>
-      <c r="O150" s="146"/>
+      <c r="O150" s="82"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="88" t="s">
+      <c r="A151" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="B151" s="88"/>
+      <c r="B151" s="85"/>
       <c r="C151" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D151" s="87">
+      <c r="D151" s="86">
         <v>0</v>
       </c>
-      <c r="E151" s="87"/>
+      <c r="E151" s="86"/>
       <c r="F151" s="14">
         <v>0</v>
       </c>
@@ -5029,38 +5040,38 @@
         <f>D151*F151</f>
         <v>0</v>
       </c>
-      <c r="H151" s="122">
+      <c r="H151" s="83">
         <f>0.1*G151</f>
         <v>0</v>
       </c>
-      <c r="I151" s="123"/>
-      <c r="J151" s="122">
+      <c r="I151" s="84"/>
+      <c r="J151" s="83">
         <f>G151+H151</f>
         <v>0</v>
       </c>
-      <c r="K151" s="123"/>
-      <c r="L151" s="122">
+      <c r="K151" s="84"/>
+      <c r="L151" s="83">
         <v>0</v>
       </c>
-      <c r="M151" s="123"/>
-      <c r="N151" s="145">
+      <c r="M151" s="84"/>
+      <c r="N151" s="81">
         <f>L151*J151/(100)</f>
         <v>0</v>
       </c>
-      <c r="O151" s="146"/>
+      <c r="O151" s="82"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="88" t="s">
+      <c r="A152" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="B152" s="88"/>
+      <c r="B152" s="85"/>
       <c r="C152" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D152" s="87">
+      <c r="D152" s="86">
         <v>0</v>
       </c>
-      <c r="E152" s="87"/>
+      <c r="E152" s="86"/>
       <c r="F152" s="14">
         <v>0</v>
       </c>
@@ -5068,38 +5079,38 @@
         <f>D152*F152</f>
         <v>0</v>
       </c>
-      <c r="H152" s="122">
+      <c r="H152" s="83">
         <f>0.1*G152</f>
         <v>0</v>
       </c>
-      <c r="I152" s="123"/>
-      <c r="J152" s="122">
+      <c r="I152" s="84"/>
+      <c r="J152" s="83">
         <f>G152+H152</f>
         <v>0</v>
       </c>
-      <c r="K152" s="123"/>
-      <c r="L152" s="122">
+      <c r="K152" s="84"/>
+      <c r="L152" s="83">
         <v>0</v>
       </c>
-      <c r="M152" s="123"/>
-      <c r="N152" s="145">
+      <c r="M152" s="84"/>
+      <c r="N152" s="81">
         <f>L152*J152/(100)</f>
         <v>0</v>
       </c>
-      <c r="O152" s="146"/>
+      <c r="O152" s="82"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="88" t="s">
+      <c r="A153" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="B153" s="88"/>
+      <c r="B153" s="85"/>
       <c r="C153" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D153" s="87">
+      <c r="D153" s="86">
         <v>1</v>
       </c>
-      <c r="E153" s="87"/>
+      <c r="E153" s="86"/>
       <c r="F153" s="14">
         <v>3800</v>
       </c>
@@ -5107,59 +5118,59 @@
         <f>D153*F153</f>
         <v>3800</v>
       </c>
-      <c r="H153" s="122">
+      <c r="H153" s="83">
         <f>0.1*G153</f>
         <v>380</v>
       </c>
-      <c r="I153" s="123"/>
-      <c r="J153" s="122">
+      <c r="I153" s="84"/>
+      <c r="J153" s="83">
         <f>G153+H153</f>
         <v>4180</v>
       </c>
-      <c r="K153" s="123"/>
-      <c r="L153" s="122">
+      <c r="K153" s="84"/>
+      <c r="L153" s="83">
         <v>15.2</v>
       </c>
-      <c r="M153" s="123"/>
-      <c r="N153" s="145">
+      <c r="M153" s="84"/>
+      <c r="N153" s="81">
         <f>L153*J153/(100)</f>
         <v>635.36</v>
       </c>
-      <c r="O153" s="146"/>
+      <c r="O153" s="82"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="89" t="s">
+      <c r="A154" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="89"/>
+      <c r="B154" s="145"/>
       <c r="C154" s="24"/>
-      <c r="D154" s="133">
+      <c r="D154" s="106">
         <f>SUM(D149:E153)</f>
         <v>17</v>
       </c>
-      <c r="E154" s="134"/>
+      <c r="E154" s="107"/>
       <c r="F154" s="24"/>
       <c r="G154" s="25">
         <f>SUM(G149:G153)</f>
         <v>9560</v>
       </c>
-      <c r="H154" s="135">
+      <c r="H154" s="95">
         <f>SUM(H149:I153)</f>
         <v>956</v>
       </c>
-      <c r="I154" s="136"/>
-      <c r="J154" s="135">
+      <c r="I154" s="96"/>
+      <c r="J154" s="95">
         <f>SUM(J149:K153)</f>
         <v>10516</v>
       </c>
-      <c r="K154" s="136"/>
-      <c r="L154" s="139"/>
-      <c r="M154" s="140"/>
-      <c r="N154" s="135">
+      <c r="K154" s="96"/>
+      <c r="L154" s="97"/>
+      <c r="M154" s="98"/>
+      <c r="N154" s="95">
         <f>SUM(N149:O153)</f>
         <v>1123.232</v>
       </c>
-      <c r="O154" s="136"/>
+      <c r="O154" s="96"/>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="3"/>
@@ -5167,232 +5178,232 @@
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="B157" s="83" t="s">
+      <c r="B157" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="C157" s="83"/>
-      <c r="D157" s="83"/>
-      <c r="E157" s="83"/>
-      <c r="F157" s="83"/>
-      <c r="G157" s="83"/>
-      <c r="H157" s="83"/>
-      <c r="I157" s="83"/>
-      <c r="J157" s="83"/>
+      <c r="C157" s="72"/>
+      <c r="D157" s="72"/>
+      <c r="E157" s="72"/>
+      <c r="F157" s="72"/>
+      <c r="G157" s="72"/>
+      <c r="H157" s="72"/>
+      <c r="I157" s="72"/>
+      <c r="J157" s="72"/>
       <c r="K157" s="3"/>
     </row>
     <row r="159" spans="1:15" ht="37.5">
-      <c r="A159" s="76" t="s">
+      <c r="A159" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="B159" s="76"/>
-      <c r="C159" s="76"/>
+      <c r="B159" s="87"/>
+      <c r="C159" s="87"/>
       <c r="D159" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E159" s="76" t="s">
+      <c r="E159" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="F159" s="76"/>
+      <c r="F159" s="87"/>
       <c r="G159" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="H159" s="76" t="s">
+      <c r="H159" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="I159" s="76"/>
+      <c r="I159" s="87"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="76" t="s">
+      <c r="A160" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B160" s="76"/>
-      <c r="C160" s="76"/>
+      <c r="B160" s="87"/>
+      <c r="C160" s="87"/>
       <c r="D160" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E160" s="107">
+      <c r="E160" s="88">
         <f t="array" ref="E160">G142</f>
-        <v>13882.787799999998</v>
-      </c>
-      <c r="F160" s="108"/>
+        <v>13846.554749999998</v>
+      </c>
+      <c r="F160" s="89"/>
       <c r="G160" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="H160" s="107">
+      <c r="H160" s="88">
         <f>K142</f>
-        <v>391.83460259999998</v>
-      </c>
-      <c r="I160" s="108"/>
+        <v>390.81194324999996</v>
+      </c>
+      <c r="I160" s="89"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="76" t="s">
+      <c r="A161" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="B161" s="76"/>
-      <c r="C161" s="76"/>
+      <c r="B161" s="87"/>
+      <c r="C161" s="87"/>
       <c r="D161" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E161" s="107">
+      <c r="E161" s="88">
         <f t="array" ref="E161">J154</f>
         <v>10516</v>
       </c>
-      <c r="F161" s="108"/>
+      <c r="F161" s="89"/>
       <c r="G161" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="H161" s="107">
+      <c r="H161" s="88">
         <f>N154</f>
         <v>1123.232</v>
       </c>
-      <c r="I161" s="108"/>
+      <c r="I161" s="89"/>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="76" t="s">
+      <c r="A162" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B162" s="76"/>
-      <c r="C162" s="76"/>
+      <c r="B162" s="87"/>
+      <c r="C162" s="87"/>
       <c r="D162" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E162" s="107">
+      <c r="E162" s="88">
         <f>45*F132</f>
-        <v>76.122940408163259</v>
-      </c>
-      <c r="F162" s="108"/>
+        <v>72.823550510204086</v>
+      </c>
+      <c r="F162" s="89"/>
       <c r="G162" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H162" s="107">
+      <c r="H162" s="88">
         <f>E162*G162/(100)</f>
-        <v>6.2420811134693874</v>
-      </c>
-      <c r="I162" s="108"/>
+        <v>5.9715311418367341</v>
+      </c>
+      <c r="I162" s="89"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="142" t="s">
+      <c r="A163" s="75" t="s">
         <v>357</v>
       </c>
-      <c r="B163" s="143"/>
-      <c r="C163" s="144"/>
+      <c r="B163" s="76"/>
+      <c r="C163" s="77"/>
       <c r="D163" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E163" s="107">
+      <c r="E163" s="88">
         <f t="array" ref="E163">J154*0.1</f>
         <v>1051.6000000000001</v>
       </c>
-      <c r="F163" s="108"/>
+      <c r="F163" s="89"/>
       <c r="G163" s="4">
         <v>4.5</v>
       </c>
-      <c r="H163" s="107">
+      <c r="H163" s="88">
         <f>E163*G163/(100)</f>
         <v>47.32200000000001</v>
       </c>
-      <c r="I163" s="108"/>
+      <c r="I163" s="89"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="142" t="s">
+      <c r="A164" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="B164" s="143"/>
-      <c r="C164" s="144"/>
+      <c r="B164" s="76"/>
+      <c r="C164" s="77"/>
       <c r="D164" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E164" s="107">
+      <c r="E164" s="88">
         <f t="array" ref="E164">0.02*G154</f>
         <v>191.20000000000002</v>
       </c>
-      <c r="F164" s="108"/>
+      <c r="F164" s="89"/>
       <c r="G164" s="4">
         <v>11.5</v>
       </c>
-      <c r="H164" s="107">
+      <c r="H164" s="88">
         <f>E164*G164/(100)</f>
         <v>21.988000000000003</v>
       </c>
-      <c r="I164" s="108"/>
+      <c r="I164" s="89"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="76" t="s">
+      <c r="A165" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="76"/>
-      <c r="C165" s="76"/>
+      <c r="B165" s="87"/>
+      <c r="C165" s="87"/>
       <c r="D165" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E165" s="107">
+      <c r="E165" s="88">
         <f t="array" ref="E165">1.5*E161/100+15.4*G34</f>
-        <v>419.54</v>
-      </c>
-      <c r="F165" s="108"/>
+        <v>404.14</v>
+      </c>
+      <c r="F165" s="89"/>
       <c r="G165" s="4">
         <f>18.5</f>
         <v>18.5</v>
       </c>
-      <c r="H165" s="107">
+      <c r="H165" s="88">
         <f>E165*G165/(100)</f>
-        <v>77.614900000000006</v>
-      </c>
-      <c r="I165" s="108"/>
+        <v>74.765900000000002</v>
+      </c>
+      <c r="I165" s="89"/>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="84" t="s">
+      <c r="A166" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B166" s="68"/>
-      <c r="C166" s="68"/>
+      <c r="B166" s="92"/>
+      <c r="C166" s="92"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="129">
+      <c r="E166" s="90">
         <f t="array" ref="E166">SUM(E160:E165)</f>
-        <v>26137.250740408163</v>
-      </c>
-      <c r="F166" s="130"/>
+        <v>26082.3183005102</v>
+      </c>
+      <c r="F166" s="91"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="129">
+      <c r="H166" s="90">
         <f t="array" ref="H166">SUM(H160:H165)</f>
-        <v>1668.2335837134694</v>
-      </c>
-      <c r="I166" s="130"/>
+        <v>1664.091374391837</v>
+      </c>
+      <c r="I166" s="91"/>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="83" t="s">
+      <c r="A169" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="83"/>
-      <c r="C169" s="83"/>
-      <c r="D169" s="83"/>
-      <c r="E169" s="83"/>
-      <c r="F169" s="83"/>
-      <c r="G169" s="83"/>
-      <c r="H169" s="83"/>
-      <c r="I169" s="83"/>
-      <c r="J169" s="83"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="72"/>
+      <c r="E169" s="72"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="72"/>
+      <c r="H169" s="72"/>
+      <c r="I169" s="72"/>
+      <c r="J169" s="72"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="B171" s="83" t="s">
+      <c r="B171" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="C171" s="83"/>
-      <c r="D171" s="83"/>
-      <c r="E171" s="83"/>
-      <c r="F171" s="83"/>
-      <c r="G171" s="83"/>
-      <c r="H171" s="83"/>
-      <c r="I171" s="83"/>
-      <c r="J171" s="83"/>
+      <c r="C171" s="72"/>
+      <c r="D171" s="72"/>
+      <c r="E171" s="72"/>
+      <c r="F171" s="72"/>
+      <c r="G171" s="72"/>
+      <c r="H171" s="72"/>
+      <c r="I171" s="72"/>
+      <c r="J171" s="72"/>
     </row>
     <row r="173" spans="1:10">
-      <c r="B173" s="83" t="s">
+      <c r="B173" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="C173" s="83"/>
-      <c r="D173" s="83"/>
-      <c r="E173" s="83"/>
+      <c r="C173" s="72"/>
+      <c r="D173" s="72"/>
+      <c r="E173" s="72"/>
     </row>
     <row r="175" spans="1:10">
       <c r="C175" s="2" t="s">
@@ -5400,15 +5411,15 @@
       </c>
       <c r="D175" s="2">
         <f t="array" ref="D175">G34</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="2:13">
-      <c r="B177" s="83" t="s">
+      <c r="B177" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C177" s="83"/>
-      <c r="D177" s="83"/>
+      <c r="C177" s="72"/>
+      <c r="D177" s="72"/>
     </row>
     <row r="179" spans="2:13">
       <c r="C179" s="2" t="s">
@@ -5416,7 +5427,7 @@
       </c>
       <c r="D179" s="2">
         <f>G34*K2/(1-I179)</f>
-        <v>37.777777777777779</v>
+        <v>35.555555555555557</v>
       </c>
       <c r="E179" s="2">
         <v>34</v>
@@ -5429,37 +5440,37 @@
       </c>
     </row>
     <row r="181" spans="2:13">
-      <c r="B181" s="83" t="s">
+      <c r="B181" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="C181" s="83"/>
-      <c r="D181" s="83"/>
-      <c r="E181" s="83"/>
-      <c r="F181" s="83"/>
-      <c r="G181" s="83"/>
-      <c r="H181" s="83"/>
-      <c r="I181" s="83"/>
-      <c r="J181" s="83"/>
-      <c r="M181" s="121" t="s">
+      <c r="C181" s="72"/>
+      <c r="D181" s="72"/>
+      <c r="E181" s="72"/>
+      <c r="F181" s="72"/>
+      <c r="G181" s="72"/>
+      <c r="H181" s="72"/>
+      <c r="I181" s="72"/>
+      <c r="J181" s="72"/>
+      <c r="M181" s="101" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="182" spans="2:13">
-      <c r="M182" s="121"/>
+      <c r="M182" s="101"/>
     </row>
     <row r="183" spans="2:13">
-      <c r="C183" s="83" t="s">
+      <c r="C183" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D183" s="83"/>
-      <c r="E183" s="83"/>
-      <c r="F183" s="83"/>
-      <c r="G183" s="83"/>
-      <c r="H183" s="83"/>
-      <c r="M183" s="121"/>
+      <c r="D183" s="72"/>
+      <c r="E183" s="72"/>
+      <c r="F183" s="72"/>
+      <c r="G183" s="72"/>
+      <c r="H183" s="72"/>
+      <c r="M183" s="101"/>
     </row>
     <row r="184" spans="2:13">
-      <c r="M184" s="121"/>
+      <c r="M184" s="101"/>
     </row>
     <row r="185" spans="2:13">
       <c r="D185" s="2" t="s">
@@ -5475,10 +5486,10 @@
       <c r="H185" s="2">
         <v>1</v>
       </c>
-      <c r="M185" s="121"/>
+      <c r="M185" s="101"/>
     </row>
     <row r="186" spans="2:13">
-      <c r="M186" s="121"/>
+      <c r="M186" s="101"/>
     </row>
     <row r="187" spans="2:13">
       <c r="D187" s="2" t="s">
@@ -5497,27 +5508,27 @@
       <c r="I187" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M187" s="121"/>
+      <c r="M187" s="101"/>
     </row>
     <row r="188" spans="2:13">
-      <c r="M188" s="121"/>
+      <c r="M188" s="101"/>
     </row>
     <row r="189" spans="2:13">
-      <c r="C189" s="83" t="s">
+      <c r="C189" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="D189" s="83"/>
-      <c r="E189" s="83"/>
-      <c r="F189" s="83"/>
-      <c r="G189" s="83"/>
-      <c r="H189" s="83"/>
+      <c r="D189" s="72"/>
+      <c r="E189" s="72"/>
+      <c r="F189" s="72"/>
+      <c r="G189" s="72"/>
+      <c r="H189" s="72"/>
       <c r="K189" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="M189" s="121"/>
+      <c r="M189" s="101"/>
     </row>
     <row r="190" spans="2:13">
-      <c r="M190" s="121"/>
+      <c r="M190" s="101"/>
     </row>
     <row r="191" spans="2:13">
       <c r="D191" s="2" t="s">
@@ -5542,7 +5553,7 @@
       <c r="K191" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M191" s="121"/>
+      <c r="M191" s="101"/>
     </row>
     <row r="192" spans="2:13">
       <c r="G192" s="2" t="s">
@@ -5551,7 +5562,7 @@
       <c r="H192" s="2">
         <v>8</v>
       </c>
-      <c r="M192" s="121"/>
+      <c r="M192" s="101"/>
     </row>
     <row r="193" spans="3:13">
       <c r="G193" s="2" t="s">
@@ -5570,7 +5581,7 @@
       <c r="K193" s="2">
         <v>0.9</v>
       </c>
-      <c r="M193" s="121"/>
+      <c r="M193" s="101"/>
     </row>
     <row r="194" spans="3:13">
       <c r="G194" s="2" t="s">
@@ -5579,21 +5590,21 @@
       <c r="H194" s="2">
         <v>1</v>
       </c>
-      <c r="M194" s="121"/>
+      <c r="M194" s="101"/>
     </row>
     <row r="195" spans="3:13">
-      <c r="C195" s="83" t="s">
+      <c r="C195" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="D195" s="83"/>
-      <c r="E195" s="83"/>
-      <c r="F195" s="83"/>
-      <c r="G195" s="83"/>
-      <c r="H195" s="83"/>
-      <c r="M195" s="121"/>
+      <c r="D195" s="72"/>
+      <c r="E195" s="72"/>
+      <c r="F195" s="72"/>
+      <c r="G195" s="72"/>
+      <c r="H195" s="72"/>
+      <c r="M195" s="101"/>
     </row>
     <row r="196" spans="3:13">
-      <c r="M196" s="121"/>
+      <c r="M196" s="101"/>
     </row>
     <row r="197" spans="3:13">
       <c r="D197" s="2" t="s">
@@ -5618,7 +5629,7 @@
       <c r="K197" s="2">
         <v>3</v>
       </c>
-      <c r="M197" s="121"/>
+      <c r="M197" s="101"/>
     </row>
     <row r="198" spans="3:13">
       <c r="G198" s="2" t="s">
@@ -5627,39 +5638,39 @@
       <c r="H198" s="2">
         <v>2</v>
       </c>
-      <c r="M198" s="121"/>
+      <c r="M198" s="101"/>
     </row>
     <row r="199" spans="3:13">
-      <c r="M199" s="121"/>
+      <c r="M199" s="101"/>
     </row>
     <row r="200" spans="3:13">
-      <c r="C200" s="85" t="s">
+      <c r="C200" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="D200" s="85"/>
-      <c r="E200" s="85"/>
-      <c r="F200" s="85"/>
-      <c r="G200" s="85"/>
-      <c r="H200" s="85"/>
-      <c r="M200" s="121"/>
+      <c r="D200" s="140"/>
+      <c r="E200" s="140"/>
+      <c r="F200" s="140"/>
+      <c r="G200" s="140"/>
+      <c r="H200" s="140"/>
+      <c r="M200" s="101"/>
     </row>
     <row r="201" spans="3:13">
-      <c r="C201" s="85"/>
-      <c r="D201" s="85"/>
-      <c r="E201" s="85"/>
-      <c r="F201" s="85"/>
-      <c r="G201" s="85"/>
-      <c r="H201" s="85"/>
-      <c r="M201" s="121"/>
+      <c r="C201" s="140"/>
+      <c r="D201" s="140"/>
+      <c r="E201" s="140"/>
+      <c r="F201" s="140"/>
+      <c r="G201" s="140"/>
+      <c r="H201" s="140"/>
+      <c r="M201" s="101"/>
     </row>
     <row r="202" spans="3:13">
-      <c r="M202" s="121"/>
+      <c r="M202" s="101"/>
     </row>
     <row r="203" spans="3:13">
       <c r="G203" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M203" s="121"/>
+      <c r="M203" s="101"/>
     </row>
     <row r="204" spans="3:13">
       <c r="D204" s="2" t="s">
@@ -5671,7 +5682,7 @@
       <c r="K204" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M204" s="121"/>
+      <c r="M204" s="101"/>
     </row>
     <row r="205" spans="3:13">
       <c r="D205" s="2" t="s">
@@ -5683,7 +5694,7 @@
       <c r="K205" s="2">
         <v>2</v>
       </c>
-      <c r="M205" s="121"/>
+      <c r="M205" s="101"/>
     </row>
     <row r="206" spans="3:13">
       <c r="D206" s="2" t="s">
@@ -5695,7 +5706,7 @@
       <c r="K206" s="2">
         <v>2</v>
       </c>
-      <c r="M206" s="121"/>
+      <c r="M206" s="101"/>
     </row>
     <row r="207" spans="3:13">
       <c r="D207" s="2" t="s">
@@ -5710,7 +5721,7 @@
       <c r="K207" s="2">
         <v>2</v>
       </c>
-      <c r="M207" s="121"/>
+      <c r="M207" s="101"/>
     </row>
     <row r="208" spans="3:13">
       <c r="D208" s="2" t="s">
@@ -5722,747 +5733,747 @@
       <c r="G208" s="2">
         <v>1</v>
       </c>
-      <c r="M208" s="121"/>
+      <c r="M208" s="101"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="B210" s="83" t="s">
+      <c r="B210" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="C210" s="83"/>
-      <c r="D210" s="83"/>
-      <c r="E210" s="83"/>
-      <c r="F210" s="83"/>
-      <c r="G210" s="83"/>
-      <c r="H210" s="83"/>
-      <c r="I210" s="83"/>
+      <c r="C210" s="72"/>
+      <c r="D210" s="72"/>
+      <c r="E210" s="72"/>
+      <c r="F210" s="72"/>
+      <c r="G210" s="72"/>
+      <c r="H210" s="72"/>
+      <c r="I210" s="72"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="141" t="s">
+      <c r="A212" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="B212" s="141"/>
-      <c r="C212" s="141"/>
-      <c r="D212" s="141"/>
+      <c r="B212" s="100"/>
+      <c r="C212" s="100"/>
+      <c r="D212" s="100"/>
       <c r="E212" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F212" s="86" t="s">
+      <c r="F212" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="G212" s="86"/>
+      <c r="G212" s="99"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="68" t="s">
+      <c r="A213" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="B213" s="68"/>
-      <c r="C213" s="68"/>
-      <c r="D213" s="68"/>
+      <c r="B213" s="92"/>
+      <c r="C213" s="92"/>
+      <c r="D213" s="92"/>
       <c r="E213" s="4">
         <f t="array" ref="E213">E179</f>
         <v>34</v>
       </c>
-      <c r="F213" s="107">
+      <c r="F213" s="88">
         <f>100*E213/E219</f>
         <v>79.069767441860463</v>
       </c>
-      <c r="G213" s="108"/>
+      <c r="G213" s="89"/>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="137" t="s">
+      <c r="A214" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="B214" s="137"/>
-      <c r="C214" s="137"/>
-      <c r="D214" s="137"/>
+      <c r="B214" s="93"/>
+      <c r="C214" s="93"/>
+      <c r="D214" s="93"/>
       <c r="E214" s="29"/>
       <c r="F214" s="30"/>
       <c r="G214" s="31"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="138" t="s">
+      <c r="A215" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="B215" s="138"/>
-      <c r="C215" s="138"/>
-      <c r="D215" s="138"/>
+      <c r="B215" s="94"/>
+      <c r="C215" s="94"/>
+      <c r="D215" s="94"/>
       <c r="E215" s="32"/>
       <c r="F215" s="33"/>
       <c r="G215" s="34"/>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="68" t="s">
+      <c r="A216" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="B216" s="68"/>
-      <c r="C216" s="68"/>
-      <c r="D216" s="68"/>
+      <c r="B216" s="92"/>
+      <c r="C216" s="92"/>
+      <c r="D216" s="92"/>
       <c r="E216" s="4">
         <v>2</v>
       </c>
-      <c r="F216" s="107">
+      <c r="F216" s="88">
         <f t="array" ref="F216">E216*$F$219/$E$219</f>
         <v>4.6511627906976747</v>
       </c>
-      <c r="G216" s="108"/>
+      <c r="G216" s="89"/>
       <c r="H216" s="8">
         <f>F216+F217</f>
         <v>18.604651162790699</v>
       </c>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="68" t="s">
+      <c r="A217" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="B217" s="68"/>
-      <c r="C217" s="68"/>
-      <c r="D217" s="68"/>
+      <c r="B217" s="92"/>
+      <c r="C217" s="92"/>
+      <c r="D217" s="92"/>
       <c r="E217" s="4">
         <v>6</v>
       </c>
-      <c r="F217" s="107">
+      <c r="F217" s="88">
         <f t="array" ref="F217">E217*$F$219/$E$219</f>
         <v>13.953488372093023</v>
       </c>
-      <c r="G217" s="108"/>
+      <c r="G217" s="89"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="68" t="s">
+      <c r="A218" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="B218" s="68"/>
-      <c r="C218" s="68"/>
-      <c r="D218" s="68"/>
+      <c r="B218" s="92"/>
+      <c r="C218" s="92"/>
+      <c r="D218" s="92"/>
       <c r="E218" s="4">
         <v>1</v>
       </c>
-      <c r="F218" s="107">
+      <c r="F218" s="88">
         <f t="array" ref="F218">E218*$F$219/$E$219</f>
         <v>2.3255813953488373</v>
       </c>
-      <c r="G218" s="108"/>
+      <c r="G218" s="89"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="109" t="s">
+      <c r="A219" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B219" s="109"/>
-      <c r="C219" s="109"/>
-      <c r="D219" s="109"/>
+      <c r="B219" s="123"/>
+      <c r="C219" s="123"/>
+      <c r="D219" s="123"/>
       <c r="E219" s="4">
         <f t="array" ref="E219">E213+SUM(E216:E218)</f>
         <v>43</v>
       </c>
-      <c r="F219" s="107">
+      <c r="F219" s="88">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="G219" s="108"/>
+      <c r="G219" s="89"/>
       <c r="I219" s="2" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="83" t="s">
+      <c r="A222" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="83"/>
-      <c r="C222" s="83"/>
-      <c r="D222" s="83"/>
-      <c r="E222" s="83"/>
-      <c r="F222" s="83"/>
-      <c r="G222" s="83"/>
-      <c r="H222" s="83"/>
-      <c r="I222" s="83"/>
+      <c r="B222" s="72"/>
+      <c r="C222" s="72"/>
+      <c r="D222" s="72"/>
+      <c r="E222" s="72"/>
+      <c r="F222" s="72"/>
+      <c r="G222" s="72"/>
+      <c r="H222" s="72"/>
+      <c r="I222" s="72"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="86" t="s">
+      <c r="A224" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="B224" s="86"/>
-      <c r="C224" s="86"/>
-      <c r="D224" s="86"/>
+      <c r="B224" s="99"/>
+      <c r="C224" s="99"/>
+      <c r="D224" s="99"/>
       <c r="E224" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F224" s="86" t="s">
+      <c r="F224" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="G224" s="86"/>
-      <c r="H224" s="86" t="s">
+      <c r="G224" s="99"/>
+      <c r="H224" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="I224" s="86"/>
+      <c r="I224" s="99"/>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="76" t="s">
+      <c r="A225" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="B225" s="76"/>
-      <c r="C225" s="76"/>
-      <c r="D225" s="76"/>
+      <c r="B225" s="87"/>
+      <c r="C225" s="87"/>
+      <c r="D225" s="87"/>
       <c r="E225" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F225" s="73">
+      <c r="F225" s="102">
         <f>H225*$M$2</f>
         <v>11456.1789804</v>
       </c>
-      <c r="G225" s="74"/>
-      <c r="H225" s="77">
+      <c r="G225" s="103"/>
+      <c r="H225" s="68">
         <f>I266</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="I225" s="78"/>
+      <c r="I225" s="69"/>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="76" t="s">
+      <c r="A226" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="B226" s="76"/>
-      <c r="C226" s="76"/>
-      <c r="D226" s="76"/>
+      <c r="B226" s="87"/>
+      <c r="C226" s="87"/>
+      <c r="D226" s="87"/>
       <c r="E226" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F226" s="73">
+      <c r="F226" s="102">
         <f t="array" ref="F226">H226*$M$2</f>
         <v>425437.42500000005</v>
       </c>
-      <c r="G226" s="74"/>
-      <c r="H226" s="77">
+      <c r="G226" s="103"/>
+      <c r="H226" s="68">
         <f>H292</f>
         <v>32.865000000000002</v>
       </c>
-      <c r="I226" s="78"/>
+      <c r="I226" s="69"/>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="76" t="s">
+      <c r="A227" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="B227" s="76"/>
-      <c r="C227" s="76"/>
-      <c r="D227" s="76"/>
+      <c r="B227" s="87"/>
+      <c r="C227" s="87"/>
+      <c r="D227" s="87"/>
       <c r="E227" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F227" s="73">
+      <c r="F227" s="102">
         <f t="array" ref="F227">H227*$M$2</f>
         <v>6243.2375775</v>
       </c>
-      <c r="G227" s="74"/>
-      <c r="H227" s="77">
+      <c r="G227" s="103"/>
+      <c r="H227" s="68">
         <f>H309</f>
         <v>0.48228949999999998</v>
       </c>
-      <c r="I227" s="78"/>
+      <c r="I227" s="69"/>
       <c r="M227" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="76" t="s">
+      <c r="A228" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="B228" s="76"/>
-      <c r="C228" s="76"/>
-      <c r="D228" s="76"/>
+      <c r="B228" s="87"/>
+      <c r="C228" s="87"/>
+      <c r="D228" s="87"/>
       <c r="E228" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F228" s="73">
+      <c r="F228" s="102">
         <f t="array" ref="F228">H228*$M$2</f>
         <v>1872.9712732499997</v>
       </c>
-      <c r="G228" s="74"/>
-      <c r="H228" s="77">
+      <c r="G228" s="103"/>
+      <c r="H228" s="68">
         <f t="array" ref="H228">D315</f>
         <v>0.14468684999999998</v>
       </c>
-      <c r="I228" s="78"/>
+      <c r="I228" s="69"/>
       <c r="N228" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="76" t="s">
+      <c r="A229" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="B229" s="76"/>
-      <c r="C229" s="76"/>
-      <c r="D229" s="76"/>
+      <c r="B229" s="87"/>
+      <c r="C229" s="87"/>
+      <c r="D229" s="87"/>
       <c r="E229" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F229" s="73">
+      <c r="F229" s="102">
         <f>H229*$M$2</f>
         <v>14609.175931349999</v>
       </c>
-      <c r="G229" s="74"/>
-      <c r="H229" s="77">
+      <c r="G229" s="103"/>
+      <c r="H229" s="68">
         <f>D322</f>
         <v>1.1285574299999999</v>
       </c>
-      <c r="I229" s="78"/>
+      <c r="I229" s="69"/>
       <c r="N229" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="76" t="s">
+      <c r="A230" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="B230" s="76"/>
-      <c r="C230" s="76"/>
-      <c r="D230" s="76"/>
+      <c r="B230" s="87"/>
+      <c r="C230" s="87"/>
+      <c r="D230" s="87"/>
       <c r="E230" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F230" s="73">
+      <c r="F230" s="102">
         <f>H230*$M$2</f>
         <v>7953.8846737350004</v>
       </c>
-      <c r="G230" s="74"/>
-      <c r="H230" s="77">
+      <c r="G230" s="103"/>
+      <c r="H230" s="68">
         <f>C349</f>
         <v>0.61443682300000002</v>
       </c>
-      <c r="I230" s="78"/>
+      <c r="I230" s="69"/>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="76" t="s">
+      <c r="A231" s="87" t="s">
         <v>437</v>
       </c>
-      <c r="B231" s="76"/>
-      <c r="C231" s="76"/>
-      <c r="D231" s="76"/>
+      <c r="B231" s="87"/>
+      <c r="C231" s="87"/>
+      <c r="D231" s="87"/>
       <c r="E231" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F231" s="73">
+      <c r="F231" s="102">
         <f t="shared" ref="F231:F238" si="2">H231*$M$2</f>
         <v>1136.269239105</v>
       </c>
-      <c r="G231" s="74"/>
-      <c r="H231" s="77">
+      <c r="G231" s="103"/>
+      <c r="H231" s="68">
         <f>C354</f>
         <v>8.7776689000000005E-2</v>
       </c>
-      <c r="I231" s="78"/>
+      <c r="I231" s="69"/>
       <c r="N231" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="76" t="s">
+      <c r="A232" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="B232" s="76"/>
-      <c r="C232" s="76"/>
-      <c r="D232" s="76"/>
+      <c r="B232" s="87"/>
+      <c r="C232" s="87"/>
+      <c r="D232" s="87"/>
       <c r="E232" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F232" s="73">
+      <c r="F232" s="102">
         <f>C359</f>
-        <v>6.8058446392230421</v>
-      </c>
-      <c r="G232" s="74"/>
-      <c r="H232" s="77">
+        <v>6.9746159662903446</v>
+      </c>
+      <c r="G232" s="103"/>
+      <c r="H232" s="68">
         <f>F232/$M$2</f>
-        <v>5.2575084119142854E-4</v>
-      </c>
-      <c r="I232" s="78"/>
+        <v>5.387884099104167E-4</v>
+      </c>
+      <c r="I232" s="69"/>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="76" t="s">
+      <c r="A233" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="B233" s="76"/>
-      <c r="C233" s="76"/>
-      <c r="D233" s="76"/>
+      <c r="B233" s="87"/>
+      <c r="C233" s="87"/>
+      <c r="D233" s="87"/>
       <c r="E233" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F233" s="73">
+      <c r="F233" s="102">
         <f t="shared" si="2"/>
         <v>624.32375775000003</v>
       </c>
-      <c r="G233" s="74"/>
-      <c r="H233" s="77">
+      <c r="G233" s="103"/>
+      <c r="H233" s="68">
         <f>C370</f>
         <v>4.822895E-2</v>
       </c>
-      <c r="I233" s="78"/>
+      <c r="I233" s="69"/>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="76" t="s">
+      <c r="A234" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="B234" s="76"/>
-      <c r="C234" s="76"/>
-      <c r="D234" s="76"/>
+      <c r="B234" s="87"/>
+      <c r="C234" s="87"/>
+      <c r="D234" s="87"/>
       <c r="E234" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F234" s="73">
+      <c r="F234" s="102">
         <f t="shared" si="2"/>
         <v>936.48563662499987</v>
       </c>
-      <c r="G234" s="74"/>
-      <c r="H234" s="77">
+      <c r="G234" s="103"/>
+      <c r="H234" s="68">
         <f>C375</f>
         <v>7.2343424999999989E-2</v>
       </c>
-      <c r="I234" s="78"/>
+      <c r="I234" s="69"/>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="76" t="s">
+      <c r="A235" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="B235" s="76"/>
-      <c r="C235" s="76"/>
-      <c r="D235" s="76"/>
+      <c r="B235" s="87"/>
+      <c r="C235" s="87"/>
+      <c r="D235" s="87"/>
       <c r="E235" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F235" s="73">
+      <c r="F235" s="102">
         <f t="shared" si="2"/>
-        <v>1668.2335837134697</v>
-      </c>
-      <c r="G235" s="74"/>
-      <c r="H235" s="77">
+        <v>1664.091374391837</v>
+      </c>
+      <c r="G235" s="103"/>
+      <c r="H235" s="68">
         <f>C380</f>
-        <v>0.12887088325326146</v>
-      </c>
-      <c r="I235" s="78"/>
+        <v>0.12855089798314692</v>
+      </c>
+      <c r="I235" s="69"/>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="76" t="s">
+      <c r="A236" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="B236" s="76"/>
-      <c r="C236" s="76"/>
-      <c r="D236" s="76"/>
+      <c r="B236" s="87"/>
+      <c r="C236" s="87"/>
+      <c r="D236" s="87"/>
       <c r="E236" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F236" s="73">
+      <c r="F236" s="102">
         <f t="shared" si="2"/>
         <v>4994.5900620000002</v>
       </c>
-      <c r="G236" s="74"/>
-      <c r="H236" s="77">
+      <c r="G236" s="103"/>
+      <c r="H236" s="68">
         <f>C384</f>
         <v>0.3858316</v>
       </c>
-      <c r="I236" s="78"/>
+      <c r="I236" s="69"/>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="76" t="s">
+      <c r="A237" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="B237" s="76"/>
-      <c r="C237" s="76"/>
-      <c r="D237" s="76"/>
+      <c r="B237" s="87"/>
+      <c r="C237" s="87"/>
+      <c r="D237" s="87"/>
       <c r="E237" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F237" s="73">
+      <c r="F237" s="102">
         <f t="shared" si="2"/>
         <v>3745.9425464999995</v>
       </c>
-      <c r="G237" s="74"/>
-      <c r="H237" s="77">
+      <c r="G237" s="103"/>
+      <c r="H237" s="68">
         <f>C389</f>
         <v>0.28937369999999996</v>
       </c>
-      <c r="I237" s="78"/>
+      <c r="I237" s="69"/>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="76" t="s">
+      <c r="A238" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="B238" s="76"/>
-      <c r="C238" s="76"/>
-      <c r="D238" s="76"/>
+      <c r="B238" s="87"/>
+      <c r="C238" s="87"/>
+      <c r="D238" s="87"/>
       <c r="E238" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F238" s="73">
+      <c r="F238" s="102">
         <f t="shared" si="2"/>
-        <v>3364.7986687459747</v>
-      </c>
-      <c r="G238" s="74"/>
-      <c r="H238" s="77">
+        <v>3364.7708546800127</v>
+      </c>
+      <c r="G238" s="103"/>
+      <c r="H238" s="68">
         <f>C394</f>
-        <v>0.25993037224766125</v>
-      </c>
-      <c r="I238" s="78"/>
+        <v>0.25992822361375145</v>
+      </c>
+      <c r="I238" s="69"/>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="75" t="s">
+      <c r="A239" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="B239" s="75"/>
-      <c r="C239" s="75"/>
-      <c r="D239" s="75"/>
+      <c r="B239" s="124"/>
+      <c r="C239" s="124"/>
+      <c r="D239" s="124"/>
       <c r="E239" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F239" s="73">
+      <c r="F239" s="102">
         <f>SUM(F225:F238)</f>
-        <v>484050.32277531357</v>
-      </c>
-      <c r="G239" s="74"/>
-      <c r="H239" s="77">
+        <v>484046.32152325311</v>
+      </c>
+      <c r="G239" s="103"/>
+      <c r="H239" s="68">
         <f t="array" ref="H239">SUM(H225:H238)</f>
-        <v>37.392840693342123</v>
-      </c>
-      <c r="I239" s="78"/>
+        <v>37.392531597006816</v>
+      </c>
+      <c r="I239" s="69"/>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="76" t="s">
+      <c r="A240" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="B240" s="76"/>
-      <c r="C240" s="76"/>
-      <c r="D240" s="76"/>
+      <c r="B240" s="87"/>
+      <c r="C240" s="87"/>
+      <c r="D240" s="87"/>
       <c r="E240" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F240" s="73">
+      <c r="F240" s="102">
         <f>C398*$M$2</f>
-        <v>4840.5032277531373</v>
-      </c>
-      <c r="G240" s="74"/>
-      <c r="H240" s="77">
+        <v>4840.4632152325321</v>
+      </c>
+      <c r="G240" s="103"/>
+      <c r="H240" s="68">
         <f>C398</f>
-        <v>0.37392840693342122</v>
-      </c>
-      <c r="I240" s="78"/>
+        <v>0.37392531597006817</v>
+      </c>
+      <c r="I240" s="69"/>
     </row>
     <row r="241" spans="1:12">
-      <c r="A241" s="75" t="s">
+      <c r="A241" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="B241" s="75"/>
-      <c r="C241" s="75"/>
-      <c r="D241" s="75"/>
+      <c r="B241" s="124"/>
+      <c r="C241" s="124"/>
+      <c r="D241" s="124"/>
       <c r="E241" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F241" s="73">
+      <c r="F241" s="102">
         <f>SUM(F239:F240)</f>
-        <v>488890.82600306673</v>
-      </c>
-      <c r="G241" s="74"/>
-      <c r="H241" s="77">
+        <v>488886.78473848564</v>
+      </c>
+      <c r="G241" s="103"/>
+      <c r="H241" s="68">
         <f>SUM(H239:H240)</f>
-        <v>37.766769100275546</v>
-      </c>
-      <c r="I241" s="78"/>
+        <v>37.766456912976885</v>
+      </c>
+      <c r="I241" s="69"/>
     </row>
     <row r="242" spans="1:12">
-      <c r="A242" s="76" t="s">
+      <c r="A242" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="B242" s="76"/>
-      <c r="C242" s="76"/>
-      <c r="D242" s="76"/>
+      <c r="B242" s="87"/>
+      <c r="C242" s="87"/>
+      <c r="D242" s="87"/>
       <c r="E242" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F242" s="73">
+      <c r="F242" s="102">
         <f>H242*M2</f>
-        <v>246865.66461541006</v>
-      </c>
-      <c r="G242" s="74"/>
-      <c r="H242" s="77">
+        <v>246863.62397685918</v>
+      </c>
+      <c r="G242" s="103"/>
+      <c r="H242" s="68">
         <f>C402</f>
-        <v>19.070348753604485</v>
-      </c>
-      <c r="I242" s="78"/>
+        <v>19.070191114473477</v>
+      </c>
+      <c r="I242" s="69"/>
     </row>
     <row r="243" spans="1:12">
-      <c r="A243" s="76" t="s">
+      <c r="A243" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="B243" s="76"/>
-      <c r="C243" s="76"/>
-      <c r="D243" s="76"/>
+      <c r="B243" s="87"/>
+      <c r="C243" s="87"/>
+      <c r="D243" s="87"/>
       <c r="E243" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F243" s="73">
+      <c r="F243" s="102">
         <f>SUM(F241:F242)</f>
-        <v>735756.49061847676</v>
-      </c>
-      <c r="G243" s="74"/>
-      <c r="H243" s="77">
+        <v>735750.40871534485</v>
+      </c>
+      <c r="G243" s="103"/>
+      <c r="H243" s="68">
         <f>SUM(H241:H242)</f>
-        <v>56.837117853880031</v>
-      </c>
-      <c r="I243" s="78"/>
+        <v>56.836648027450366</v>
+      </c>
+      <c r="I243" s="69"/>
     </row>
     <row r="244" spans="1:12">
-      <c r="A244" s="142" t="s">
+      <c r="A244" s="75" t="s">
         <v>442</v>
       </c>
-      <c r="B244" s="143"/>
-      <c r="C244" s="143"/>
-      <c r="D244" s="144"/>
+      <c r="B244" s="76"/>
+      <c r="C244" s="76"/>
+      <c r="D244" s="77"/>
       <c r="E244" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F244" s="73">
+      <c r="F244" s="102">
         <f>H244*M2</f>
-        <v>18989.666508877697</v>
-      </c>
-      <c r="G244" s="74"/>
-      <c r="H244" s="77">
+        <v>18989.509536681475</v>
+      </c>
+      <c r="G244" s="103"/>
+      <c r="H244" s="68">
         <f>C406</f>
-        <v>1.466949904123422</v>
-      </c>
-      <c r="I244" s="78"/>
+        <v>1.4669377780364214</v>
+      </c>
+      <c r="I244" s="69"/>
     </row>
     <row r="245" spans="1:12">
-      <c r="A245" s="147" t="s">
+      <c r="A245" s="78" t="s">
         <v>443</v>
       </c>
-      <c r="B245" s="71"/>
-      <c r="C245" s="71"/>
-      <c r="D245" s="148"/>
+      <c r="B245" s="79"/>
+      <c r="C245" s="79"/>
+      <c r="D245" s="80"/>
       <c r="E245" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F245" s="73">
+      <c r="F245" s="102">
         <f>H245*M2</f>
-        <v>15501.76857867567</v>
-      </c>
-      <c r="G245" s="74"/>
-      <c r="H245" s="77">
+        <v>15501.640438107328</v>
+      </c>
+      <c r="G245" s="103"/>
+      <c r="H245" s="68">
         <f>C410</f>
-        <v>1.1975101258150382</v>
-      </c>
-      <c r="I245" s="78"/>
+        <v>1.1975002269685073</v>
+      </c>
+      <c r="I245" s="69"/>
     </row>
     <row r="246" spans="1:12" s="17" customFormat="1">
-      <c r="A246" s="71" t="s">
+      <c r="A246" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="B246" s="71"/>
-      <c r="C246" s="71"/>
-      <c r="D246" s="71"/>
+      <c r="B246" s="79"/>
+      <c r="C246" s="79"/>
+      <c r="D246" s="79"/>
       <c r="E246" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F246" s="72">
+      <c r="F246" s="146">
         <f>C419</f>
-        <v>735759.15507850668</v>
-      </c>
-      <c r="G246" s="72"/>
-      <c r="H246" s="77">
+        <v>735753.07315334992</v>
+      </c>
+      <c r="G246" s="146"/>
+      <c r="H246" s="68">
         <f>F246/$M$2</f>
-        <v>56.837323683160037</v>
-      </c>
-      <c r="I246" s="78"/>
+        <v>56.836853855028963</v>
+      </c>
+      <c r="I246" s="69"/>
     </row>
     <row r="247" spans="1:12">
-      <c r="A247" s="76" t="s">
+      <c r="A247" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="B247" s="76"/>
-      <c r="C247" s="76"/>
-      <c r="D247" s="76"/>
+      <c r="B247" s="87"/>
+      <c r="C247" s="87"/>
+      <c r="D247" s="87"/>
       <c r="E247" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F247" s="73">
+      <c r="F247" s="102">
         <f>H247*$M$2</f>
-        <v>133307.45889232145</v>
-      </c>
-      <c r="G247" s="74"/>
-      <c r="H247" s="77">
+        <v>133306.35694750395</v>
+      </c>
+      <c r="G247" s="103"/>
+      <c r="H247" s="68">
         <f>C423</f>
-        <v>10.297988326946422</v>
-      </c>
-      <c r="I247" s="78"/>
+        <v>10.297903201815679</v>
+      </c>
+      <c r="I247" s="69"/>
     </row>
     <row r="248" spans="1:12">
-      <c r="A248" s="76" t="s">
+      <c r="A248" s="87" t="s">
         <v>448</v>
       </c>
-      <c r="B248" s="76"/>
-      <c r="C248" s="76"/>
-      <c r="D248" s="76"/>
+      <c r="B248" s="87"/>
+      <c r="C248" s="87"/>
+      <c r="D248" s="87"/>
       <c r="E248" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F248" s="73">
+      <c r="F248" s="102">
         <f>H248*$M$2</f>
-        <v>902787.73549855454</v>
-      </c>
-      <c r="G248" s="74"/>
-      <c r="H248" s="77">
+        <v>902780.27288337401</v>
+      </c>
+      <c r="G248" s="103"/>
+      <c r="H248" s="68">
         <f>C428</f>
-        <v>69.740265391931601</v>
-      </c>
-      <c r="I248" s="78"/>
+        <v>69.739688905629507</v>
+      </c>
+      <c r="I248" s="69"/>
     </row>
     <row r="251" spans="1:12">
-      <c r="B251" s="83" t="s">
+      <c r="B251" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="C251" s="83"/>
-      <c r="D251" s="83"/>
-      <c r="E251" s="83"/>
-      <c r="F251" s="83"/>
-      <c r="G251" s="83"/>
-      <c r="H251" s="83"/>
-      <c r="I251" s="83"/>
-      <c r="J251" s="83"/>
-      <c r="K251" s="83"/>
-      <c r="L251" s="83"/>
+      <c r="C251" s="72"/>
+      <c r="D251" s="72"/>
+      <c r="E251" s="72"/>
+      <c r="F251" s="72"/>
+      <c r="G251" s="72"/>
+      <c r="H251" s="72"/>
+      <c r="I251" s="72"/>
+      <c r="J251" s="72"/>
+      <c r="K251" s="72"/>
+      <c r="L251" s="72"/>
     </row>
     <row r="253" spans="1:12">
-      <c r="B253" s="83" t="s">
+      <c r="B253" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="C253" s="83"/>
-      <c r="D253" s="83"/>
-      <c r="E253" s="83"/>
+      <c r="C253" s="72"/>
+      <c r="D253" s="72"/>
+      <c r="E253" s="72"/>
     </row>
     <row r="255" spans="1:12" ht="46.5" customHeight="1">
-      <c r="A255" s="86" t="s">
+      <c r="A255" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="B255" s="86"/>
+      <c r="B255" s="99"/>
       <c r="C255" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D255" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E255" s="86" t="s">
+      <c r="E255" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="F255" s="86"/>
-      <c r="G255" s="86" t="s">
+      <c r="F255" s="99"/>
+      <c r="G255" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="H255" s="86"/>
-      <c r="I255" s="86" t="s">
+      <c r="H255" s="99"/>
+      <c r="I255" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="J255" s="86"/>
+      <c r="J255" s="99"/>
     </row>
     <row r="256" spans="1:12">
-      <c r="A256" s="68" t="str">
+      <c r="A256" s="92" t="str">
         <f t="shared" ref="A256:A261" si="3">L7</f>
         <v>Провод</v>
       </c>
-      <c r="B256" s="68"/>
+      <c r="B256" s="92"/>
       <c r="C256" s="4" t="str">
         <f>M7</f>
         <v>НВ-020-61</v>
@@ -6470,28 +6481,28 @@
       <c r="D256" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E256" s="69">
+      <c r="E256" s="73">
         <f t="shared" ref="E256:E261" si="4">N7</f>
         <v>0.5</v>
       </c>
-      <c r="F256" s="70"/>
-      <c r="G256" s="69">
+      <c r="F256" s="74"/>
+      <c r="G256" s="73">
         <f t="shared" ref="G256:G261" si="5">O7</f>
         <v>1.4550000000000001</v>
       </c>
-      <c r="H256" s="70"/>
-      <c r="I256" s="77">
+      <c r="H256" s="74"/>
+      <c r="I256" s="68">
         <f t="array" ref="I256">E256*G256</f>
         <v>0.72750000000000004</v>
       </c>
-      <c r="J256" s="78"/>
+      <c r="J256" s="69"/>
     </row>
     <row r="257" spans="1:12">
-      <c r="A257" s="68" t="str">
+      <c r="A257" s="92" t="str">
         <f t="shared" si="3"/>
         <v>Флюс</v>
       </c>
-      <c r="B257" s="68"/>
+      <c r="B257" s="92"/>
       <c r="C257" s="4" t="str">
         <f>M8</f>
         <v>ФКСН</v>
@@ -6499,28 +6510,28 @@
       <c r="D257" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E257" s="69">
+      <c r="E257" s="73">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F257" s="70"/>
-      <c r="G257" s="69">
+      <c r="F257" s="74"/>
+      <c r="G257" s="73">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="H257" s="70"/>
-      <c r="I257" s="77">
+      <c r="H257" s="74"/>
+      <c r="I257" s="68">
         <f t="array" ref="I257">E257*G257</f>
         <v>3.5E-4</v>
       </c>
-      <c r="J257" s="78"/>
+      <c r="J257" s="69"/>
     </row>
     <row r="258" spans="1:12">
-      <c r="A258" s="68" t="str">
+      <c r="A258" s="92" t="str">
         <f t="shared" si="3"/>
         <v>олово</v>
       </c>
-      <c r="B258" s="68"/>
+      <c r="B258" s="92"/>
       <c r="C258" s="4" t="str">
         <f>M9</f>
         <v>-</v>
@@ -6528,28 +6539,28 @@
       <c r="D258" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E258" s="69">
+      <c r="E258" s="73">
         <f t="shared" si="4"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F258" s="70"/>
-      <c r="G258" s="69">
+      <c r="F258" s="74"/>
+      <c r="G258" s="73">
         <f t="shared" si="5"/>
         <v>4.45</v>
       </c>
-      <c r="H258" s="70"/>
-      <c r="I258" s="77">
+      <c r="H258" s="74"/>
+      <c r="I258" s="68">
         <f t="array" ref="I258">E258*G258</f>
         <v>1.3350000000000001E-2</v>
       </c>
-      <c r="J258" s="78"/>
+      <c r="J258" s="69"/>
     </row>
     <row r="259" spans="1:12">
-      <c r="A259" s="68" t="str">
+      <c r="A259" s="92" t="str">
         <f t="shared" si="3"/>
         <v>припой</v>
       </c>
-      <c r="B259" s="68"/>
+      <c r="B259" s="92"/>
       <c r="C259" s="4" t="str">
         <f>M10</f>
         <v>ПОС-61</v>
@@ -6557,28 +6568,28 @@
       <c r="D259" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E259" s="69">
+      <c r="E259" s="73">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="F259" s="70"/>
-      <c r="G259" s="69">
+      <c r="F259" s="74"/>
+      <c r="G259" s="73">
         <f t="shared" si="5"/>
         <v>1.3620000000000001</v>
       </c>
-      <c r="H259" s="70"/>
-      <c r="I259" s="77">
+      <c r="H259" s="74"/>
+      <c r="I259" s="68">
         <f t="array" ref="I259">E259*G259</f>
         <v>0.10896000000000002</v>
       </c>
-      <c r="J259" s="78"/>
+      <c r="J259" s="69"/>
     </row>
     <row r="260" spans="1:12">
-      <c r="A260" s="68" t="str">
+      <c r="A260" s="92" t="str">
         <f t="shared" si="3"/>
         <v>Спирт этиловый</v>
       </c>
-      <c r="B260" s="68"/>
+      <c r="B260" s="92"/>
       <c r="C260" s="4" t="str">
         <f>M11</f>
         <v>ГОСТ 18300-72</v>
@@ -6586,178 +6597,178 @@
       <c r="D260" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E260" s="69">
+      <c r="E260" s="73">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F260" s="70"/>
-      <c r="G260" s="69">
+      <c r="F260" s="74"/>
+      <c r="G260" s="73">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="H260" s="70"/>
-      <c r="I260" s="77">
+      <c r="H260" s="74"/>
+      <c r="I260" s="68">
         <f t="array" ref="I260">E260*G260</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J260" s="78"/>
+      <c r="J260" s="69"/>
     </row>
     <row r="261" spans="1:12">
-      <c r="A261" s="68">
+      <c r="A261" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B261" s="68"/>
+      <c r="B261" s="92"/>
       <c r="C261" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E261" s="69">
+      <c r="E261" s="73">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F261" s="70"/>
-      <c r="G261" s="69">
+      <c r="F261" s="74"/>
+      <c r="G261" s="73">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H261" s="70"/>
-      <c r="I261" s="77">
+      <c r="H261" s="74"/>
+      <c r="I261" s="68">
         <f t="array" ref="I261">E261*G261</f>
         <v>0</v>
       </c>
-      <c r="J261" s="78"/>
+      <c r="J261" s="69"/>
     </row>
     <row r="262" spans="1:12">
-      <c r="A262" s="84" t="s">
+      <c r="A262" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B262" s="84"/>
+      <c r="B262" s="113"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
       <c r="E262" s="35"/>
       <c r="F262" s="36"/>
       <c r="G262" s="35"/>
       <c r="H262" s="36"/>
-      <c r="I262" s="119">
+      <c r="I262" s="70">
         <f>SUM(I256:I261)</f>
         <v>0.85136000000000001</v>
       </c>
-      <c r="J262" s="120"/>
+      <c r="J262" s="71"/>
     </row>
     <row r="263" spans="1:12">
-      <c r="A263" s="76" t="s">
+      <c r="A263" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="B263" s="76"/>
+      <c r="B263" s="87"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="37"/>
       <c r="F263" s="38"/>
       <c r="G263" s="37"/>
       <c r="H263" s="38"/>
-      <c r="I263" s="77">
+      <c r="I263" s="68">
         <f>0.05*I262</f>
         <v>4.2568000000000002E-2</v>
       </c>
-      <c r="J263" s="78"/>
+      <c r="J263" s="69"/>
     </row>
     <row r="264" spans="1:12">
-      <c r="A264" s="84" t="s">
+      <c r="A264" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="B264" s="84"/>
+      <c r="B264" s="113"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
       <c r="E264" s="35"/>
       <c r="F264" s="36"/>
       <c r="G264" s="35"/>
       <c r="H264" s="36"/>
-      <c r="I264" s="119">
+      <c r="I264" s="70">
         <f>SUM(I262:I263)</f>
         <v>0.89392800000000006</v>
       </c>
-      <c r="J264" s="120"/>
+      <c r="J264" s="71"/>
     </row>
     <row r="265" spans="1:12">
-      <c r="A265" s="76" t="s">
+      <c r="A265" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="B265" s="76"/>
+      <c r="B265" s="87"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="37"/>
       <c r="F265" s="38"/>
       <c r="G265" s="37"/>
       <c r="H265" s="38"/>
-      <c r="I265" s="77">
+      <c r="I265" s="68">
         <f>0.01*I264</f>
         <v>8.9392800000000008E-3</v>
       </c>
-      <c r="J265" s="78"/>
+      <c r="J265" s="69"/>
     </row>
     <row r="266" spans="1:12">
-      <c r="A266" s="75" t="s">
+      <c r="A266" s="124" t="s">
         <v>397</v>
       </c>
-      <c r="B266" s="75"/>
+      <c r="B266" s="124"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
       <c r="E266" s="35"/>
       <c r="F266" s="36"/>
       <c r="G266" s="35"/>
       <c r="H266" s="36"/>
-      <c r="I266" s="119">
+      <c r="I266" s="70">
         <f t="array" ref="I266">I264-I265</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="J266" s="120"/>
+      <c r="J266" s="71"/>
     </row>
     <row r="269" spans="1:12">
-      <c r="B269" s="83" t="s">
+      <c r="B269" s="72" t="s">
         <v>433</v>
       </c>
-      <c r="C269" s="83"/>
-      <c r="D269" s="83"/>
-      <c r="E269" s="83"/>
-      <c r="F269" s="83"/>
-      <c r="G269" s="83"/>
-      <c r="H269" s="83"/>
-      <c r="I269" s="83"/>
-      <c r="J269" s="83"/>
-      <c r="K269" s="83"/>
-      <c r="L269" s="83"/>
+      <c r="C269" s="72"/>
+      <c r="D269" s="72"/>
+      <c r="E269" s="72"/>
+      <c r="F269" s="72"/>
+      <c r="G269" s="72"/>
+      <c r="H269" s="72"/>
+      <c r="I269" s="72"/>
+      <c r="J269" s="72"/>
+      <c r="K269" s="72"/>
+      <c r="L269" s="72"/>
     </row>
     <row r="271" spans="1:12" ht="45" customHeight="1">
-      <c r="A271" s="86" t="s">
+      <c r="A271" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="B271" s="86"/>
-      <c r="C271" s="86"/>
+      <c r="B271" s="99"/>
+      <c r="C271" s="99"/>
       <c r="D271" s="14" t="s">
         <v>221</v>
       </c>
       <c r="E271" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F271" s="86" t="s">
+      <c r="F271" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="G271" s="86"/>
+      <c r="G271" s="99"/>
       <c r="H271" s="14" t="s">
         <v>234</v>
       </c>
       <c r="I271" s="39"/>
     </row>
     <row r="272" spans="1:12">
-      <c r="A272" s="68" t="str">
+      <c r="A272" s="92" t="str">
         <f>R7</f>
         <v>Трансформатор</v>
       </c>
-      <c r="B272" s="68"/>
-      <c r="C272" s="68"/>
+      <c r="B272" s="92"/>
+      <c r="C272" s="92"/>
       <c r="D272" s="4" t="s">
         <v>235</v>
       </c>
@@ -6776,12 +6787,12 @@
       </c>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="68" t="str">
+      <c r="A273" s="92" t="str">
         <f t="shared" ref="A273:A281" si="6">R8</f>
         <v>Реле</v>
       </c>
-      <c r="B273" s="68"/>
-      <c r="C273" s="68"/>
+      <c r="B273" s="92"/>
+      <c r="C273" s="92"/>
       <c r="D273" s="4" t="s">
         <v>235</v>
       </c>
@@ -6800,12 +6811,12 @@
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="68" t="str">
+      <c r="A274" s="92" t="str">
         <f t="shared" si="6"/>
         <v>Вилка</v>
       </c>
-      <c r="B274" s="68"/>
-      <c r="C274" s="68"/>
+      <c r="B274" s="92"/>
+      <c r="C274" s="92"/>
       <c r="D274" s="4" t="s">
         <v>235</v>
       </c>
@@ -6824,12 +6835,12 @@
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="68" t="str">
+      <c r="A275" s="92" t="str">
         <f t="shared" si="6"/>
         <v>Транзистор</v>
       </c>
-      <c r="B275" s="68"/>
-      <c r="C275" s="68"/>
+      <c r="B275" s="92"/>
+      <c r="C275" s="92"/>
       <c r="D275" s="4" t="s">
         <v>235</v>
       </c>
@@ -6848,12 +6859,12 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="68" t="str">
+      <c r="A276" s="92" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B276" s="68"/>
-      <c r="C276" s="68"/>
+      <c r="B276" s="92"/>
+      <c r="C276" s="92"/>
       <c r="D276" s="4" t="s">
         <v>235</v>
       </c>
@@ -6872,12 +6883,12 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="68" t="str">
+      <c r="A277" s="92" t="str">
         <f t="shared" si="6"/>
         <v>Печатная плата</v>
       </c>
-      <c r="B277" s="68"/>
-      <c r="C277" s="68"/>
+      <c r="B277" s="92"/>
+      <c r="C277" s="92"/>
       <c r="D277" s="4" t="s">
         <v>235</v>
       </c>
@@ -6896,12 +6907,12 @@
       </c>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="68" t="str">
+      <c r="A278" s="92" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B278" s="68"/>
-      <c r="C278" s="68"/>
+      <c r="B278" s="92"/>
+      <c r="C278" s="92"/>
       <c r="D278" s="4" t="s">
         <v>235</v>
       </c>
@@ -6920,12 +6931,12 @@
       </c>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="68" t="str">
+      <c r="A279" s="92" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B279" s="68"/>
-      <c r="C279" s="68"/>
+      <c r="B279" s="92"/>
+      <c r="C279" s="92"/>
       <c r="D279" s="4" t="s">
         <v>235</v>
       </c>
@@ -6944,12 +6955,12 @@
       </c>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="68" t="str">
+      <c r="A280" s="92" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B280" s="68"/>
-      <c r="C280" s="68"/>
+      <c r="B280" s="92"/>
+      <c r="C280" s="92"/>
       <c r="D280" s="4" t="s">
         <v>235</v>
       </c>
@@ -6968,12 +6979,12 @@
       </c>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="68" t="str">
+      <c r="A281" s="92" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B281" s="68"/>
-      <c r="C281" s="68"/>
+      <c r="B281" s="92"/>
+      <c r="C281" s="92"/>
       <c r="D281" s="4" t="s">
         <v>235</v>
       </c>
@@ -6992,12 +7003,12 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="68" t="str">
+      <c r="A282" s="92" t="str">
         <f t="shared" ref="A282:A289" si="9">R17</f>
         <v>Радиолампа</v>
       </c>
-      <c r="B282" s="68"/>
-      <c r="C282" s="68"/>
+      <c r="B282" s="92"/>
+      <c r="C282" s="92"/>
       <c r="D282" s="4" t="s">
         <v>235</v>
       </c>
@@ -7016,12 +7027,12 @@
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="68" t="str">
+      <c r="A283" s="92" t="str">
         <f t="shared" si="9"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B283" s="68"/>
-      <c r="C283" s="68"/>
+      <c r="B283" s="92"/>
+      <c r="C283" s="92"/>
       <c r="D283" s="4" t="s">
         <v>235</v>
       </c>
@@ -7040,12 +7051,12 @@
       </c>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="68" t="str">
+      <c r="A284" s="92" t="str">
         <f t="shared" si="9"/>
         <v>Дриод</v>
       </c>
-      <c r="B284" s="68"/>
-      <c r="C284" s="68"/>
+      <c r="B284" s="92"/>
+      <c r="C284" s="92"/>
       <c r="D284" s="4" t="s">
         <v>235</v>
       </c>
@@ -7064,12 +7075,12 @@
       </c>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="68" t="str">
+      <c r="A285" s="92" t="str">
         <f t="shared" si="9"/>
         <v>Дроссель</v>
       </c>
-      <c r="B285" s="68"/>
-      <c r="C285" s="68"/>
+      <c r="B285" s="92"/>
+      <c r="C285" s="92"/>
       <c r="D285" s="4" t="s">
         <v>235</v>
       </c>
@@ -7088,12 +7099,12 @@
       </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" s="68" t="str">
+      <c r="A286" s="92" t="str">
         <f t="shared" si="9"/>
         <v>Фильтр</v>
       </c>
-      <c r="B286" s="68"/>
-      <c r="C286" s="68"/>
+      <c r="B286" s="92"/>
+      <c r="C286" s="92"/>
       <c r="D286" s="4" t="s">
         <v>235</v>
       </c>
@@ -7112,12 +7123,12 @@
       </c>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287" s="68" t="str">
+      <c r="A287" s="92" t="str">
         <f t="shared" si="9"/>
         <v>Панель ламповая</v>
       </c>
-      <c r="B287" s="68"/>
-      <c r="C287" s="68"/>
+      <c r="B287" s="92"/>
+      <c r="C287" s="92"/>
       <c r="D287" s="4" t="s">
         <v>235</v>
       </c>
@@ -7136,12 +7147,12 @@
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="68" t="str">
+      <c r="A288" s="92" t="str">
         <f t="shared" si="9"/>
         <v>заклепка гетинаксовая</v>
       </c>
-      <c r="B288" s="68"/>
-      <c r="C288" s="68"/>
+      <c r="B288" s="92"/>
+      <c r="C288" s="92"/>
       <c r="D288" s="4" t="s">
         <v>235</v>
       </c>
@@ -7160,12 +7171,12 @@
       </c>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="68" t="str">
+      <c r="A289" s="92" t="str">
         <f t="shared" si="9"/>
         <v>Плата</v>
       </c>
-      <c r="B289" s="68"/>
-      <c r="C289" s="68"/>
+      <c r="B289" s="92"/>
+      <c r="C289" s="92"/>
       <c r="D289" s="4" t="s">
         <v>235</v>
       </c>
@@ -7184,11 +7195,11 @@
       </c>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="84" t="s">
+      <c r="A290" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B290" s="84"/>
-      <c r="C290" s="84"/>
+      <c r="B290" s="113"/>
+      <c r="C290" s="113"/>
       <c r="D290" s="20"/>
       <c r="E290" s="20"/>
       <c r="F290" s="35"/>
@@ -7199,11 +7210,11 @@
       </c>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="76" t="s">
+      <c r="A291" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="B291" s="76"/>
-      <c r="C291" s="76"/>
+      <c r="B291" s="87"/>
+      <c r="C291" s="87"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="37"/>
@@ -7214,11 +7225,11 @@
       </c>
     </row>
     <row r="292" spans="1:10">
-      <c r="A292" s="84" t="s">
+      <c r="A292" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="B292" s="84"/>
-      <c r="C292" s="84"/>
+      <c r="B292" s="113"/>
+      <c r="C292" s="113"/>
       <c r="D292" s="20"/>
       <c r="E292" s="20"/>
       <c r="F292" s="35"/>
@@ -7230,45 +7241,45 @@
       <c r="I292" s="40"/>
     </row>
     <row r="295" spans="1:10">
-      <c r="B295" s="83" t="s">
+      <c r="B295" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="C295" s="83"/>
-      <c r="D295" s="83"/>
-      <c r="E295" s="83"/>
-      <c r="F295" s="83"/>
-      <c r="G295" s="83"/>
-      <c r="H295" s="83"/>
-      <c r="I295" s="83"/>
-      <c r="J295" s="83"/>
+      <c r="C295" s="72"/>
+      <c r="D295" s="72"/>
+      <c r="E295" s="72"/>
+      <c r="F295" s="72"/>
+      <c r="G295" s="72"/>
+      <c r="H295" s="72"/>
+      <c r="I295" s="72"/>
+      <c r="J295" s="72"/>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="86" t="s">
+      <c r="A297" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="B297" s="86"/>
-      <c r="C297" s="86"/>
+      <c r="B297" s="99"/>
+      <c r="C297" s="99"/>
       <c r="D297" s="14" t="s">
         <v>239</v>
       </c>
       <c r="E297" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F297" s="86" t="s">
+      <c r="F297" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="G297" s="86"/>
-      <c r="H297" s="86" t="s">
+      <c r="G297" s="99"/>
+      <c r="H297" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="I297" s="86"/>
+      <c r="I297" s="99"/>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="88">
+      <c r="A298" s="85">
         <v>1</v>
       </c>
-      <c r="B298" s="88"/>
-      <c r="C298" s="88"/>
+      <c r="B298" s="85"/>
+      <c r="C298" s="85"/>
       <c r="D298" s="4">
         <v>3</v>
       </c>
@@ -7276,22 +7287,22 @@
         <f>B25</f>
         <v>1.55</v>
       </c>
-      <c r="F298" s="69">
+      <c r="F298" s="73">
         <v>0.89100000000000001</v>
       </c>
-      <c r="G298" s="70"/>
-      <c r="H298" s="77">
+      <c r="G298" s="74"/>
+      <c r="H298" s="68">
         <f>E298*F298/60</f>
         <v>2.3017500000000003E-2</v>
       </c>
-      <c r="I298" s="78"/>
+      <c r="I298" s="69"/>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="88">
+      <c r="A299" s="85">
         <v>2</v>
       </c>
-      <c r="B299" s="88"/>
-      <c r="C299" s="88"/>
+      <c r="B299" s="85"/>
+      <c r="C299" s="85"/>
       <c r="D299" s="4">
         <v>3</v>
       </c>
@@ -7299,22 +7310,22 @@
         <f t="shared" ref="E299:E306" si="10">B26</f>
         <v>6.23</v>
       </c>
-      <c r="F299" s="69">
+      <c r="F299" s="73">
         <v>0.89100000000000001</v>
       </c>
-      <c r="G299" s="70"/>
-      <c r="H299" s="77">
+      <c r="G299" s="74"/>
+      <c r="H299" s="68">
         <f t="array" ref="H299">E299*F299/60</f>
         <v>9.2515500000000001E-2</v>
       </c>
-      <c r="I299" s="78"/>
+      <c r="I299" s="69"/>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="88">
+      <c r="A300" s="85">
         <v>3</v>
       </c>
-      <c r="B300" s="88"/>
-      <c r="C300" s="88"/>
+      <c r="B300" s="85"/>
+      <c r="C300" s="85"/>
       <c r="D300" s="4">
         <v>3</v>
       </c>
@@ -7326,18 +7337,18 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="G300" s="46"/>
-      <c r="H300" s="77">
+      <c r="H300" s="68">
         <f t="array" ref="H300">E300*F300/60</f>
         <v>2.2571999999999998E-2</v>
       </c>
-      <c r="I300" s="78"/>
+      <c r="I300" s="69"/>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="88">
+      <c r="A301" s="85">
         <v>4</v>
       </c>
-      <c r="B301" s="88"/>
-      <c r="C301" s="88"/>
+      <c r="B301" s="85"/>
+      <c r="C301" s="85"/>
       <c r="D301" s="4">
         <v>3</v>
       </c>
@@ -7349,18 +7360,18 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="G301" s="46"/>
-      <c r="H301" s="77">
+      <c r="H301" s="68">
         <f t="array" ref="H301">E301*F301/60</f>
         <v>6.9052500000000003E-2</v>
       </c>
-      <c r="I301" s="78"/>
+      <c r="I301" s="69"/>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="88">
+      <c r="A302" s="85">
         <v>5</v>
       </c>
-      <c r="B302" s="88"/>
-      <c r="C302" s="88"/>
+      <c r="B302" s="85"/>
+      <c r="C302" s="85"/>
       <c r="D302" s="4">
         <v>3</v>
       </c>
@@ -7372,18 +7383,18 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="G302" s="46"/>
-      <c r="H302" s="77">
+      <c r="H302" s="68">
         <f t="array" ref="H302">E302*F302/60</f>
         <v>4.4549999999999999E-2</v>
       </c>
-      <c r="I302" s="78"/>
+      <c r="I302" s="69"/>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="88">
+      <c r="A303" s="85">
         <v>6</v>
       </c>
-      <c r="B303" s="88"/>
-      <c r="C303" s="88"/>
+      <c r="B303" s="85"/>
+      <c r="C303" s="85"/>
       <c r="D303" s="4">
         <v>3</v>
       </c>
@@ -7395,18 +7406,18 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="G303" s="46"/>
-      <c r="H303" s="77">
+      <c r="H303" s="68">
         <f t="array" ref="H303">E303*F303/60</f>
         <v>2.2571999999999998E-2</v>
       </c>
-      <c r="I303" s="78"/>
+      <c r="I303" s="69"/>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="88">
+      <c r="A304" s="85">
         <v>7</v>
       </c>
-      <c r="B304" s="88"/>
-      <c r="C304" s="88"/>
+      <c r="B304" s="85"/>
+      <c r="C304" s="85"/>
       <c r="D304" s="4">
         <v>3</v>
       </c>
@@ -7418,18 +7429,18 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="G304" s="46"/>
-      <c r="H304" s="77">
+      <c r="H304" s="68">
         <f t="array" ref="H304">E304*F304/60</f>
         <v>6.9498000000000004E-2</v>
       </c>
-      <c r="I304" s="78"/>
+      <c r="I304" s="69"/>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="88">
+      <c r="A305" s="85">
         <v>8</v>
       </c>
-      <c r="B305" s="88"/>
-      <c r="C305" s="88"/>
+      <c r="B305" s="85"/>
+      <c r="C305" s="85"/>
       <c r="D305" s="4">
         <v>3</v>
       </c>
@@ -7437,22 +7448,22 @@
         <f t="shared" si="10"/>
         <v>1.65</v>
       </c>
-      <c r="F305" s="69">
+      <c r="F305" s="73">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G305" s="70"/>
-      <c r="H305" s="77">
+      <c r="G305" s="74"/>
+      <c r="H305" s="68">
         <f t="array" ref="H305">E305*F305/60</f>
         <v>7.1499999999999992E-4</v>
       </c>
-      <c r="I305" s="78"/>
+      <c r="I305" s="69"/>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="111">
+      <c r="A306" s="109">
         <v>9</v>
       </c>
-      <c r="B306" s="112"/>
-      <c r="C306" s="113"/>
+      <c r="B306" s="122"/>
+      <c r="C306" s="110"/>
       <c r="D306" s="4">
         <v>3</v>
       </c>
@@ -7460,76 +7471,76 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F306" s="69">
+      <c r="F306" s="73">
         <v>0</v>
       </c>
-      <c r="G306" s="70"/>
-      <c r="H306" s="77">
+      <c r="G306" s="74"/>
+      <c r="H306" s="68">
         <f t="array" ref="H306">E306*F306/60</f>
         <v>0</v>
       </c>
-      <c r="I306" s="78"/>
+      <c r="I306" s="69"/>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="110" t="s">
+      <c r="A307" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="B307" s="110"/>
-      <c r="C307" s="110"/>
+      <c r="B307" s="121"/>
+      <c r="C307" s="121"/>
       <c r="D307" s="20"/>
       <c r="E307" s="20"/>
       <c r="F307" s="35"/>
       <c r="G307" s="36"/>
-      <c r="H307" s="119">
+      <c r="H307" s="70">
         <f>SUM(H298:H306)</f>
         <v>0.34449249999999998</v>
       </c>
-      <c r="I307" s="120"/>
+      <c r="I307" s="71"/>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="76" t="s">
+      <c r="A308" s="87" t="s">
         <v>434</v>
       </c>
-      <c r="B308" s="76"/>
-      <c r="C308" s="76"/>
+      <c r="B308" s="87"/>
+      <c r="C308" s="87"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="37"/>
       <c r="G308" s="38"/>
-      <c r="H308" s="77">
+      <c r="H308" s="68">
         <f>0.4*H307</f>
         <v>0.137797</v>
       </c>
-      <c r="I308" s="78"/>
+      <c r="I308" s="69"/>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="110" t="s">
+      <c r="A309" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="B309" s="110"/>
-      <c r="C309" s="110"/>
+      <c r="B309" s="121"/>
+      <c r="C309" s="121"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="37"/>
       <c r="G309" s="38"/>
-      <c r="H309" s="119">
+      <c r="H309" s="70">
         <f t="array" ref="H309">SUM(H307:H308)</f>
         <v>0.48228949999999998</v>
       </c>
-      <c r="I309" s="120"/>
+      <c r="I309" s="71"/>
     </row>
     <row r="313" spans="1:10">
-      <c r="B313" s="83" t="s">
+      <c r="B313" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="C313" s="83"/>
-      <c r="D313" s="83"/>
-      <c r="E313" s="83"/>
-      <c r="F313" s="83"/>
-      <c r="G313" s="83"/>
-      <c r="H313" s="83"/>
-      <c r="I313" s="83"/>
-      <c r="J313" s="83"/>
+      <c r="C313" s="72"/>
+      <c r="D313" s="72"/>
+      <c r="E313" s="72"/>
+      <c r="F313" s="72"/>
+      <c r="G313" s="72"/>
+      <c r="H313" s="72"/>
+      <c r="I313" s="72"/>
+      <c r="J313" s="72"/>
     </row>
     <row r="315" spans="1:10">
       <c r="C315" s="2" t="s">
@@ -7547,17 +7558,17 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="B318" s="83" t="s">
+      <c r="B318" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="C318" s="83"/>
-      <c r="D318" s="83"/>
-      <c r="E318" s="83"/>
-      <c r="F318" s="83"/>
-      <c r="G318" s="83"/>
-      <c r="H318" s="83"/>
-      <c r="I318" s="83"/>
-      <c r="J318" s="83"/>
+      <c r="C318" s="72"/>
+      <c r="D318" s="72"/>
+      <c r="E318" s="72"/>
+      <c r="F318" s="72"/>
+      <c r="G318" s="72"/>
+      <c r="H318" s="72"/>
+      <c r="I318" s="72"/>
+      <c r="J318" s="72"/>
     </row>
     <row r="320" spans="1:10">
       <c r="B320" s="2" t="s">
@@ -7677,17 +7688,17 @@
       <c r="D344" s="11"/>
     </row>
     <row r="347" spans="2:10">
-      <c r="B347" s="83" t="s">
+      <c r="B347" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="C347" s="83"/>
-      <c r="D347" s="83"/>
-      <c r="E347" s="83"/>
-      <c r="F347" s="83"/>
-      <c r="G347" s="83"/>
-      <c r="H347" s="83"/>
-      <c r="I347" s="83"/>
-      <c r="J347" s="83"/>
+      <c r="C347" s="72"/>
+      <c r="D347" s="72"/>
+      <c r="E347" s="72"/>
+      <c r="F347" s="72"/>
+      <c r="G347" s="72"/>
+      <c r="H347" s="72"/>
+      <c r="I347" s="72"/>
+      <c r="J347" s="72"/>
     </row>
     <row r="349" spans="2:10">
       <c r="B349" s="2" t="s">
@@ -7708,17 +7719,17 @@
       </c>
     </row>
     <row r="352" spans="2:10">
-      <c r="B352" s="83" t="s">
+      <c r="B352" s="72" t="s">
         <v>436</v>
       </c>
-      <c r="C352" s="83"/>
-      <c r="D352" s="83"/>
-      <c r="E352" s="83"/>
-      <c r="F352" s="83"/>
-      <c r="G352" s="83"/>
-      <c r="H352" s="83"/>
-      <c r="I352" s="83"/>
-      <c r="J352" s="83"/>
+      <c r="C352" s="72"/>
+      <c r="D352" s="72"/>
+      <c r="E352" s="72"/>
+      <c r="F352" s="72"/>
+      <c r="G352" s="72"/>
+      <c r="H352" s="72"/>
+      <c r="I352" s="72"/>
+      <c r="J352" s="72"/>
     </row>
     <row r="354" spans="2:10">
       <c r="B354" s="2" t="s">
@@ -7739,17 +7750,17 @@
       </c>
     </row>
     <row r="357" spans="2:10">
-      <c r="B357" s="83" t="s">
+      <c r="B357" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="C357" s="83"/>
-      <c r="D357" s="83"/>
-      <c r="E357" s="83"/>
-      <c r="F357" s="83"/>
-      <c r="G357" s="83"/>
-      <c r="H357" s="83"/>
-      <c r="I357" s="83"/>
-      <c r="J357" s="83"/>
+      <c r="C357" s="72"/>
+      <c r="D357" s="72"/>
+      <c r="E357" s="72"/>
+      <c r="F357" s="72"/>
+      <c r="G357" s="72"/>
+      <c r="H357" s="72"/>
+      <c r="I357" s="72"/>
+      <c r="J357" s="72"/>
     </row>
     <row r="359" spans="2:10">
       <c r="B359" s="2" t="s">
@@ -7757,7 +7768,7 @@
       </c>
       <c r="C359" s="41">
         <f>F132*G359*G360*K2*G361*G362*G363*G364/(G365)</f>
-        <v>6.8058446392230421</v>
+        <v>6.9746159662903446</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>9</v>
@@ -7809,7 +7820,7 @@
       </c>
       <c r="G363" s="42">
         <f>AVERAGE(H25:H32)</f>
-        <v>0.90551236918773204</v>
+        <v>0.97001033634334421</v>
       </c>
     </row>
     <row r="364" spans="2:10">
@@ -7829,17 +7840,17 @@
       </c>
     </row>
     <row r="368" spans="2:10">
-      <c r="B368" s="83" t="s">
+      <c r="B368" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="C368" s="83"/>
-      <c r="D368" s="83"/>
-      <c r="E368" s="83"/>
-      <c r="F368" s="83"/>
-      <c r="G368" s="83"/>
-      <c r="H368" s="83"/>
-      <c r="I368" s="83"/>
-      <c r="J368" s="83"/>
+      <c r="C368" s="72"/>
+      <c r="D368" s="72"/>
+      <c r="E368" s="72"/>
+      <c r="F368" s="72"/>
+      <c r="G368" s="72"/>
+      <c r="H368" s="72"/>
+      <c r="I368" s="72"/>
+      <c r="J368" s="72"/>
     </row>
     <row r="370" spans="2:12">
       <c r="B370" s="2" t="s">
@@ -7860,17 +7871,17 @@
       </c>
     </row>
     <row r="373" spans="2:12">
-      <c r="B373" s="83" t="s">
+      <c r="B373" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="C373" s="83"/>
-      <c r="D373" s="83"/>
-      <c r="E373" s="83"/>
-      <c r="F373" s="83"/>
-      <c r="G373" s="83"/>
-      <c r="H373" s="83"/>
-      <c r="I373" s="83"/>
-      <c r="J373" s="83"/>
+      <c r="C373" s="72"/>
+      <c r="D373" s="72"/>
+      <c r="E373" s="72"/>
+      <c r="F373" s="72"/>
+      <c r="G373" s="72"/>
+      <c r="H373" s="72"/>
+      <c r="I373" s="72"/>
+      <c r="J373" s="72"/>
     </row>
     <row r="375" spans="2:12">
       <c r="B375" s="2" t="s">
@@ -7898,17 +7909,17 @@
       </c>
     </row>
     <row r="378" spans="2:12">
-      <c r="B378" s="83" t="s">
+      <c r="B378" s="72" t="s">
         <v>438</v>
       </c>
-      <c r="C378" s="83"/>
-      <c r="D378" s="83"/>
-      <c r="E378" s="83"/>
-      <c r="F378" s="83"/>
-      <c r="G378" s="83"/>
-      <c r="H378" s="83"/>
-      <c r="I378" s="83"/>
-      <c r="J378" s="83"/>
+      <c r="C378" s="72"/>
+      <c r="D378" s="72"/>
+      <c r="E378" s="72"/>
+      <c r="F378" s="72"/>
+      <c r="G378" s="72"/>
+      <c r="H378" s="72"/>
+      <c r="I378" s="72"/>
+      <c r="J378" s="72"/>
     </row>
     <row r="379" spans="2:12">
       <c r="L379" s="2" t="s">
@@ -7921,21 +7932,21 @@
       </c>
       <c r="C380" s="41">
         <f>H166/$M$2</f>
-        <v>0.12887088325326146</v>
+        <v>0.12855089798314692</v>
       </c>
     </row>
     <row r="382" spans="2:12">
-      <c r="B382" s="83" t="s">
+      <c r="B382" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="C382" s="83"/>
-      <c r="D382" s="83"/>
-      <c r="E382" s="83"/>
-      <c r="F382" s="83"/>
-      <c r="G382" s="83"/>
-      <c r="H382" s="83"/>
-      <c r="I382" s="83"/>
-      <c r="J382" s="83"/>
+      <c r="C382" s="72"/>
+      <c r="D382" s="72"/>
+      <c r="E382" s="72"/>
+      <c r="F382" s="72"/>
+      <c r="G382" s="72"/>
+      <c r="H382" s="72"/>
+      <c r="I382" s="72"/>
+      <c r="J382" s="72"/>
     </row>
     <row r="384" spans="2:12">
       <c r="B384" s="2" t="s">
@@ -7959,17 +7970,17 @@
       </c>
     </row>
     <row r="387" spans="2:10">
-      <c r="B387" s="83" t="s">
+      <c r="B387" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="C387" s="83"/>
-      <c r="D387" s="83"/>
-      <c r="E387" s="83"/>
-      <c r="F387" s="83"/>
-      <c r="G387" s="83"/>
-      <c r="H387" s="83"/>
-      <c r="I387" s="83"/>
-      <c r="J387" s="83"/>
+      <c r="C387" s="72"/>
+      <c r="D387" s="72"/>
+      <c r="E387" s="72"/>
+      <c r="F387" s="72"/>
+      <c r="G387" s="72"/>
+      <c r="H387" s="72"/>
+      <c r="I387" s="72"/>
+      <c r="J387" s="72"/>
     </row>
     <row r="389" spans="2:10">
       <c r="B389" s="2" t="s">
@@ -7993,17 +8004,17 @@
       </c>
     </row>
     <row r="392" spans="2:10">
-      <c r="B392" s="83" t="s">
+      <c r="B392" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="C392" s="83"/>
-      <c r="D392" s="83"/>
-      <c r="E392" s="83"/>
-      <c r="F392" s="83"/>
-      <c r="G392" s="83"/>
-      <c r="H392" s="83"/>
-      <c r="I392" s="83"/>
-      <c r="J392" s="83"/>
+      <c r="C392" s="72"/>
+      <c r="D392" s="72"/>
+      <c r="E392" s="72"/>
+      <c r="F392" s="72"/>
+      <c r="G392" s="72"/>
+      <c r="H392" s="72"/>
+      <c r="I392" s="72"/>
+      <c r="J392" s="72"/>
     </row>
     <row r="394" spans="2:10">
       <c r="B394" s="2" t="s">
@@ -8011,11 +8022,11 @@
       </c>
       <c r="C394" s="41">
         <f>SUM(H225:H237)*G394/100</f>
-        <v>0.25993037224766125</v>
+        <v>0.25992822361375145</v>
       </c>
       <c r="D394" s="41">
         <f>SUM(H225:H237)</f>
-        <v>37.132910321094464</v>
+        <v>37.132603373393067</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>283</v>
@@ -8028,17 +8039,17 @@
       </c>
     </row>
     <row r="396" spans="2:10">
-      <c r="B396" s="83" t="s">
+      <c r="B396" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="C396" s="83"/>
-      <c r="D396" s="83"/>
-      <c r="E396" s="83"/>
-      <c r="F396" s="83"/>
-      <c r="G396" s="83"/>
-      <c r="H396" s="83"/>
-      <c r="I396" s="83"/>
-      <c r="J396" s="83"/>
+      <c r="C396" s="72"/>
+      <c r="D396" s="72"/>
+      <c r="E396" s="72"/>
+      <c r="F396" s="72"/>
+      <c r="G396" s="72"/>
+      <c r="H396" s="72"/>
+      <c r="I396" s="72"/>
+      <c r="J396" s="72"/>
     </row>
     <row r="398" spans="2:10">
       <c r="B398" s="2" t="s">
@@ -8046,7 +8057,7 @@
       </c>
       <c r="C398" s="41">
         <f>H239*G398/100</f>
-        <v>0.37392840693342122</v>
+        <v>0.37392531597006817</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>286</v>
@@ -8062,17 +8073,17 @@
       </c>
     </row>
     <row r="400" spans="2:10">
-      <c r="B400" s="83" t="s">
+      <c r="B400" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="C400" s="83"/>
-      <c r="D400" s="83"/>
-      <c r="E400" s="83"/>
-      <c r="F400" s="83"/>
-      <c r="G400" s="83"/>
-      <c r="H400" s="83"/>
-      <c r="I400" s="83"/>
-      <c r="J400" s="83"/>
+      <c r="C400" s="72"/>
+      <c r="D400" s="72"/>
+      <c r="E400" s="72"/>
+      <c r="F400" s="72"/>
+      <c r="G400" s="72"/>
+      <c r="H400" s="72"/>
+      <c r="I400" s="72"/>
+      <c r="J400" s="72"/>
     </row>
     <row r="402" spans="2:10">
       <c r="B402" s="2" t="s">
@@ -8080,7 +8091,7 @@
       </c>
       <c r="C402" s="41">
         <f>(H241+C398)*G402/100</f>
-        <v>19.070348753604485</v>
+        <v>19.070191114473477</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>287</v>
@@ -8096,17 +8107,17 @@
       </c>
     </row>
     <row r="404" spans="2:10">
-      <c r="B404" s="83" t="s">
+      <c r="B404" s="72" t="s">
         <v>415</v>
       </c>
-      <c r="C404" s="83"/>
-      <c r="D404" s="83"/>
-      <c r="E404" s="83"/>
-      <c r="F404" s="83"/>
-      <c r="G404" s="83"/>
-      <c r="H404" s="83"/>
-      <c r="I404" s="83"/>
-      <c r="J404" s="83"/>
+      <c r="C404" s="72"/>
+      <c r="D404" s="72"/>
+      <c r="E404" s="72"/>
+      <c r="F404" s="72"/>
+      <c r="G404" s="72"/>
+      <c r="H404" s="72"/>
+      <c r="I404" s="72"/>
+      <c r="J404" s="72"/>
     </row>
     <row r="406" spans="2:10">
       <c r="B406" s="2" t="s">
@@ -8114,7 +8125,7 @@
       </c>
       <c r="C406" s="41">
         <f>(C414*G406)/(100-G406)</f>
-        <v>1.466949904123422</v>
+        <v>1.4669377780364214</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>417</v>
@@ -8127,17 +8138,17 @@
       </c>
     </row>
     <row r="408" spans="2:10">
-      <c r="B408" s="83" t="s">
+      <c r="B408" s="72" t="s">
         <v>418</v>
       </c>
-      <c r="C408" s="83"/>
-      <c r="D408" s="83"/>
-      <c r="E408" s="83"/>
-      <c r="F408" s="83"/>
-      <c r="G408" s="83"/>
-      <c r="H408" s="83"/>
-      <c r="I408" s="83"/>
-      <c r="J408" s="83"/>
+      <c r="C408" s="72"/>
+      <c r="D408" s="72"/>
+      <c r="E408" s="72"/>
+      <c r="F408" s="72"/>
+      <c r="G408" s="72"/>
+      <c r="H408" s="72"/>
+      <c r="I408" s="72"/>
+      <c r="J408" s="72"/>
     </row>
     <row r="410" spans="2:10">
       <c r="B410" s="2" t="s">
@@ -8145,7 +8156,7 @@
       </c>
       <c r="C410" s="41">
         <f>((C414+C406)*G410)/(100-G410)</f>
-        <v>1.1975101258150382</v>
+        <v>1.1975002269685073</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>419</v>
@@ -8158,17 +8169,17 @@
       </c>
     </row>
     <row r="412" spans="2:10" s="17" customFormat="1">
-      <c r="B412" s="114" t="s">
+      <c r="B412" s="118" t="s">
         <v>289</v>
       </c>
-      <c r="C412" s="114"/>
-      <c r="D412" s="114"/>
-      <c r="E412" s="114"/>
-      <c r="F412" s="114"/>
-      <c r="G412" s="114"/>
-      <c r="H412" s="114"/>
-      <c r="I412" s="114"/>
-      <c r="J412" s="114"/>
+      <c r="C412" s="118"/>
+      <c r="D412" s="118"/>
+      <c r="E412" s="118"/>
+      <c r="F412" s="118"/>
+      <c r="G412" s="118"/>
+      <c r="H412" s="118"/>
+      <c r="I412" s="118"/>
+      <c r="J412" s="118"/>
     </row>
     <row r="414" spans="2:10">
       <c r="B414" s="2" t="s">
@@ -8176,21 +8187,21 @@
       </c>
       <c r="C414" s="41">
         <f>(H241+C398)+C402</f>
-        <v>57.211046260813454</v>
+        <v>57.210573343420435</v>
       </c>
     </row>
     <row r="417" spans="1:10">
-      <c r="B417" s="115" t="s">
+      <c r="B417" s="120" t="s">
         <v>440</v>
       </c>
-      <c r="C417" s="115"/>
-      <c r="D417" s="115"/>
-      <c r="E417" s="115"/>
-      <c r="F417" s="115"/>
-      <c r="G417" s="115"/>
-      <c r="H417" s="115"/>
-      <c r="I417" s="115"/>
-      <c r="J417" s="115"/>
+      <c r="C417" s="120"/>
+      <c r="D417" s="120"/>
+      <c r="E417" s="120"/>
+      <c r="F417" s="120"/>
+      <c r="G417" s="120"/>
+      <c r="H417" s="120"/>
+      <c r="I417" s="120"/>
+      <c r="J417" s="120"/>
     </row>
     <row r="419" spans="1:10">
       <c r="B419" s="2" t="s">
@@ -8198,21 +8209,21 @@
       </c>
       <c r="C419" s="41">
         <f>F243+C406+C410</f>
-        <v>735759.15507850668</v>
+        <v>735753.07315334992</v>
       </c>
     </row>
     <row r="421" spans="1:10">
-      <c r="B421" s="83" t="s">
+      <c r="B421" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="C421" s="83"/>
-      <c r="D421" s="83"/>
-      <c r="E421" s="83"/>
-      <c r="F421" s="83"/>
-      <c r="G421" s="83"/>
-      <c r="H421" s="83"/>
-      <c r="I421" s="83"/>
-      <c r="J421" s="83"/>
+      <c r="C421" s="72"/>
+      <c r="D421" s="72"/>
+      <c r="E421" s="72"/>
+      <c r="F421" s="72"/>
+      <c r="G421" s="72"/>
+      <c r="H421" s="72"/>
+      <c r="I421" s="72"/>
+      <c r="J421" s="72"/>
     </row>
     <row r="423" spans="1:10">
       <c r="B423" s="2" t="s">
@@ -8220,7 +8231,7 @@
       </c>
       <c r="C423" s="41">
         <f>C414*G423/100</f>
-        <v>10.297988326946422</v>
+        <v>10.297903201815679</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>290</v>
@@ -8238,7 +8249,7 @@
       </c>
       <c r="C425" s="2">
         <f>C414*G425/100</f>
-        <v>2.2312308041717248</v>
+        <v>2.2312123603933971</v>
       </c>
       <c r="G425" s="2">
         <v>3.9</v>
@@ -8248,17 +8259,17 @@
       </c>
     </row>
     <row r="426" spans="1:10">
-      <c r="B426" s="83" t="s">
+      <c r="B426" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="C426" s="83"/>
-      <c r="D426" s="83"/>
-      <c r="E426" s="83"/>
-      <c r="F426" s="83"/>
-      <c r="G426" s="83"/>
-      <c r="H426" s="83"/>
-      <c r="I426" s="83"/>
-      <c r="J426" s="83"/>
+      <c r="C426" s="72"/>
+      <c r="D426" s="72"/>
+      <c r="E426" s="72"/>
+      <c r="F426" s="72"/>
+      <c r="G426" s="72"/>
+      <c r="H426" s="72"/>
+      <c r="I426" s="72"/>
+      <c r="J426" s="72"/>
     </row>
     <row r="427" spans="1:10">
       <c r="B427" s="3"/>
@@ -8277,34 +8288,34 @@
       </c>
       <c r="C428" s="41">
         <f>C414+C423+C425</f>
-        <v>69.740265391931601</v>
+        <v>69.739688905629507</v>
       </c>
     </row>
     <row r="430" spans="1:10">
-      <c r="A430" s="83" t="s">
+      <c r="A430" s="72" t="s">
         <v>292</v>
       </c>
-      <c r="B430" s="83"/>
-      <c r="C430" s="83"/>
-      <c r="D430" s="83"/>
-      <c r="E430" s="83"/>
-      <c r="F430" s="83"/>
-      <c r="G430" s="83"/>
-      <c r="H430" s="83"/>
-      <c r="I430" s="83"/>
+      <c r="B430" s="72"/>
+      <c r="C430" s="72"/>
+      <c r="D430" s="72"/>
+      <c r="E430" s="72"/>
+      <c r="F430" s="72"/>
+      <c r="G430" s="72"/>
+      <c r="H430" s="72"/>
+      <c r="I430" s="72"/>
     </row>
     <row r="432" spans="1:10">
-      <c r="B432" s="97" t="s">
+      <c r="B432" s="119" t="s">
         <v>409</v>
       </c>
-      <c r="C432" s="83"/>
-      <c r="D432" s="83"/>
-      <c r="E432" s="83"/>
-      <c r="F432" s="83"/>
-      <c r="G432" s="83"/>
-      <c r="H432" s="83"/>
-      <c r="I432" s="83"/>
-      <c r="J432" s="83"/>
+      <c r="C432" s="72"/>
+      <c r="D432" s="72"/>
+      <c r="E432" s="72"/>
+      <c r="F432" s="72"/>
+      <c r="G432" s="72"/>
+      <c r="H432" s="72"/>
+      <c r="I432" s="72"/>
+      <c r="J432" s="72"/>
     </row>
     <row r="433" spans="2:10">
       <c r="B433" s="44"/>
@@ -8318,21 +8329,21 @@
       </c>
       <c r="E434" s="41">
         <f>0.5*E166</f>
-        <v>13068.625370204081</v>
+        <v>13041.1591502551</v>
       </c>
     </row>
     <row r="436" spans="2:10">
-      <c r="B436" s="83" t="s">
+      <c r="B436" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="C436" s="83"/>
-      <c r="D436" s="83"/>
-      <c r="E436" s="83"/>
-      <c r="F436" s="83"/>
-      <c r="G436" s="83"/>
-      <c r="H436" s="83"/>
-      <c r="I436" s="83"/>
-      <c r="J436" s="83"/>
+      <c r="C436" s="72"/>
+      <c r="D436" s="72"/>
+      <c r="E436" s="72"/>
+      <c r="F436" s="72"/>
+      <c r="G436" s="72"/>
+      <c r="H436" s="72"/>
+      <c r="I436" s="72"/>
+      <c r="J436" s="72"/>
     </row>
     <row r="438" spans="2:10">
       <c r="C438" s="2" t="s">
@@ -8340,7 +8351,7 @@
       </c>
       <c r="D438" s="41">
         <f>H241*M2</f>
-        <v>488890.82600306696</v>
+        <v>488886.78473848576</v>
       </c>
       <c r="E438" s="11"/>
       <c r="J438" s="2" t="s">
@@ -8348,17 +8359,17 @@
       </c>
     </row>
     <row r="440" spans="2:10">
-      <c r="B440" s="83" t="s">
+      <c r="B440" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="C440" s="83"/>
-      <c r="D440" s="83"/>
-      <c r="E440" s="83"/>
-      <c r="F440" s="83"/>
-      <c r="G440" s="83"/>
-      <c r="H440" s="83"/>
-      <c r="I440" s="83"/>
-      <c r="J440" s="83"/>
+      <c r="C440" s="72"/>
+      <c r="D440" s="72"/>
+      <c r="E440" s="72"/>
+      <c r="F440" s="72"/>
+      <c r="G440" s="72"/>
+      <c r="H440" s="72"/>
+      <c r="I440" s="72"/>
+      <c r="J440" s="72"/>
     </row>
     <row r="442" spans="2:10">
       <c r="C442" s="2" t="s">
@@ -8366,25 +8377,25 @@
       </c>
       <c r="D442" s="41">
         <f>H248*M2</f>
-        <v>902787.73549855454</v>
+        <v>902780.27288337401</v>
       </c>
       <c r="E442" s="11">
         <f>H248</f>
-        <v>69.740265391931601</v>
+        <v>69.739688905629507</v>
       </c>
     </row>
     <row r="444" spans="2:10">
-      <c r="B444" s="83" t="s">
+      <c r="B444" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="C444" s="83"/>
-      <c r="D444" s="83"/>
-      <c r="E444" s="83"/>
-      <c r="F444" s="83"/>
-      <c r="G444" s="83"/>
-      <c r="H444" s="83"/>
-      <c r="I444" s="83"/>
-      <c r="J444" s="83"/>
+      <c r="C444" s="72"/>
+      <c r="D444" s="72"/>
+      <c r="E444" s="72"/>
+      <c r="F444" s="72"/>
+      <c r="G444" s="72"/>
+      <c r="H444" s="72"/>
+      <c r="I444" s="72"/>
+      <c r="J444" s="72"/>
     </row>
     <row r="446" spans="2:10">
       <c r="C446" s="2" t="s">
@@ -8392,21 +8403,21 @@
       </c>
       <c r="D446" s="41">
         <f t="array" ref="D446">D438/D442</f>
-        <v>0.54153463408880098</v>
+        <v>0.54153463408880087</v>
       </c>
     </row>
     <row r="448" spans="2:10">
-      <c r="B448" s="83" t="s">
+      <c r="B448" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="C448" s="83"/>
-      <c r="D448" s="83"/>
-      <c r="E448" s="83"/>
-      <c r="F448" s="83"/>
-      <c r="G448" s="83"/>
-      <c r="H448" s="83"/>
-      <c r="I448" s="83"/>
-      <c r="J448" s="83"/>
+      <c r="C448" s="72"/>
+      <c r="D448" s="72"/>
+      <c r="E448" s="72"/>
+      <c r="F448" s="72"/>
+      <c r="G448" s="72"/>
+      <c r="H448" s="72"/>
+      <c r="I448" s="72"/>
+      <c r="J448" s="72"/>
     </row>
     <row r="450" spans="2:10">
       <c r="C450" s="2" t="s">
@@ -8414,7 +8425,7 @@
       </c>
       <c r="D450" s="41">
         <f>D442-D438-C423*M2-C425*M2</f>
-        <v>251706.16784316316</v>
+        <v>251704.0871920918</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>411</v>
@@ -8424,7 +8435,7 @@
       </c>
       <c r="I450" s="41">
         <f>C410</f>
-        <v>1.1975101258150382</v>
+        <v>1.1975002269685073</v>
       </c>
     </row>
     <row r="451" spans="2:10">
@@ -8433,7 +8444,7 @@
       </c>
       <c r="I451" s="41">
         <f>C406</f>
-        <v>1.466949904123422</v>
+        <v>1.4669377780364214</v>
       </c>
     </row>
     <row r="452" spans="2:10">
@@ -8447,7 +8458,7 @@
       </c>
       <c r="D454" s="41">
         <f t="array" ref="D454">0.15*D450</f>
-        <v>37755.925176474469</v>
+        <v>37755.613078813767</v>
       </c>
     </row>
     <row r="456" spans="2:10">
@@ -8461,21 +8472,21 @@
       </c>
       <c r="D458" s="41">
         <f>D450+D454</f>
-        <v>289462.09301963763</v>
+        <v>289459.70027090557</v>
       </c>
     </row>
     <row r="461" spans="2:10">
-      <c r="B461" s="83" t="s">
+      <c r="B461" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="C461" s="83"/>
-      <c r="D461" s="83"/>
-      <c r="E461" s="83"/>
-      <c r="F461" s="83"/>
-      <c r="G461" s="83"/>
-      <c r="H461" s="83"/>
-      <c r="I461" s="83"/>
-      <c r="J461" s="83"/>
+      <c r="C461" s="72"/>
+      <c r="D461" s="72"/>
+      <c r="E461" s="72"/>
+      <c r="F461" s="72"/>
+      <c r="G461" s="72"/>
+      <c r="H461" s="72"/>
+      <c r="I461" s="72"/>
+      <c r="J461" s="72"/>
     </row>
     <row r="463" spans="2:10">
       <c r="C463" s="2" t="s">
@@ -8483,7 +8494,7 @@
       </c>
       <c r="D463" s="41">
         <f>D458</f>
-        <v>289462.09301963763</v>
+        <v>289459.70027090557</v>
       </c>
       <c r="G463" s="2" t="s">
         <v>304</v>
@@ -8501,17 +8512,17 @@
       </c>
     </row>
     <row r="466" spans="2:10">
-      <c r="B466" s="83" t="s">
+      <c r="B466" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="C466" s="83"/>
-      <c r="D466" s="83"/>
-      <c r="E466" s="83"/>
-      <c r="F466" s="83"/>
-      <c r="G466" s="83"/>
-      <c r="H466" s="83"/>
-      <c r="I466" s="83"/>
-      <c r="J466" s="83"/>
+      <c r="C466" s="72"/>
+      <c r="D466" s="72"/>
+      <c r="E466" s="72"/>
+      <c r="F466" s="72"/>
+      <c r="G466" s="72"/>
+      <c r="H466" s="72"/>
+      <c r="I466" s="72"/>
+      <c r="J466" s="72"/>
     </row>
     <row r="468" spans="2:10">
       <c r="C468" s="2" t="s">
@@ -8519,11 +8530,11 @@
       </c>
       <c r="D468" s="41">
         <f>E166-H166</f>
-        <v>24469.017156694692</v>
+        <v>24418.226926118365</v>
       </c>
       <c r="E468" s="8">
         <f>H166</f>
-        <v>1668.2335837134694</v>
+        <v>1664.091374391837</v>
       </c>
     </row>
     <row r="470" spans="2:10">
@@ -8532,7 +8543,7 @@
       </c>
       <c r="D470" s="41">
         <f>(D468*H470)/(12*100)</f>
-        <v>20.390847630578911</v>
+        <v>20.348522438431971</v>
       </c>
       <c r="G470" s="2" t="s">
         <v>309</v>
@@ -8545,17 +8556,17 @@
       </c>
     </row>
     <row r="472" spans="2:10">
-      <c r="B472" s="83" t="s">
+      <c r="B472" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="C472" s="83"/>
-      <c r="D472" s="83"/>
-      <c r="E472" s="83"/>
-      <c r="F472" s="83"/>
-      <c r="G472" s="83"/>
-      <c r="H472" s="83"/>
-      <c r="I472" s="83"/>
-      <c r="J472" s="83"/>
+      <c r="C472" s="72"/>
+      <c r="D472" s="72"/>
+      <c r="E472" s="72"/>
+      <c r="F472" s="72"/>
+      <c r="G472" s="72"/>
+      <c r="H472" s="72"/>
+      <c r="I472" s="72"/>
+      <c r="J472" s="72"/>
     </row>
     <row r="473" spans="2:10">
       <c r="B473" s="3"/>
@@ -8574,21 +8585,21 @@
       </c>
       <c r="D474" s="41">
         <f>E434*H470/(1200)</f>
-        <v>10.890521141836734</v>
+        <v>10.867632625212583</v>
       </c>
     </row>
     <row r="476" spans="2:10">
-      <c r="B476" s="83" t="s">
+      <c r="B476" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="C476" s="83"/>
-      <c r="D476" s="83"/>
-      <c r="E476" s="83"/>
-      <c r="F476" s="83"/>
-      <c r="G476" s="83"/>
-      <c r="H476" s="83"/>
-      <c r="I476" s="83"/>
-      <c r="J476" s="83"/>
+      <c r="C476" s="72"/>
+      <c r="D476" s="72"/>
+      <c r="E476" s="72"/>
+      <c r="F476" s="72"/>
+      <c r="G476" s="72"/>
+      <c r="H476" s="72"/>
+      <c r="I476" s="72"/>
+      <c r="J476" s="72"/>
     </row>
     <row r="478" spans="2:10">
       <c r="C478" s="2" t="s">
@@ -8596,21 +8607,21 @@
       </c>
       <c r="D478" s="41">
         <f>D474+D470</f>
-        <v>31.281368772415647</v>
+        <v>31.216155063644553</v>
       </c>
     </row>
     <row r="480" spans="2:10">
-      <c r="B480" s="83" t="s">
+      <c r="B480" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="C480" s="83"/>
-      <c r="D480" s="83"/>
-      <c r="E480" s="83"/>
-      <c r="F480" s="83"/>
-      <c r="G480" s="83"/>
-      <c r="H480" s="83"/>
-      <c r="I480" s="83"/>
-      <c r="J480" s="83"/>
+      <c r="C480" s="72"/>
+      <c r="D480" s="72"/>
+      <c r="E480" s="72"/>
+      <c r="F480" s="72"/>
+      <c r="G480" s="72"/>
+      <c r="H480" s="72"/>
+      <c r="I480" s="72"/>
+      <c r="J480" s="72"/>
     </row>
     <row r="482" spans="2:10">
       <c r="C482" s="2" t="s">
@@ -8618,7 +8629,7 @@
       </c>
       <c r="D482" s="41">
         <f>D463-D470-H482-H483</f>
-        <v>289441.70217200706</v>
+        <v>289439.35174846713</v>
       </c>
       <c r="G482" s="2" t="s">
         <v>312</v>
@@ -8636,17 +8647,17 @@
       </c>
     </row>
     <row r="486" spans="2:10">
-      <c r="B486" s="83" t="s">
+      <c r="B486" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="C486" s="83"/>
-      <c r="D486" s="83"/>
-      <c r="E486" s="83"/>
-      <c r="F486" s="83"/>
-      <c r="G486" s="83"/>
-      <c r="H486" s="83"/>
-      <c r="I486" s="83"/>
-      <c r="J486" s="83"/>
+      <c r="C486" s="72"/>
+      <c r="D486" s="72"/>
+      <c r="E486" s="72"/>
+      <c r="F486" s="72"/>
+      <c r="G486" s="72"/>
+      <c r="H486" s="72"/>
+      <c r="I486" s="72"/>
+      <c r="J486" s="72"/>
     </row>
     <row r="488" spans="2:10">
       <c r="C488" s="2" t="s">
@@ -8654,7 +8665,7 @@
       </c>
       <c r="D488" s="41">
         <f>D482*H488/100</f>
-        <v>69466.008521281692</v>
+        <v>69465.444419632113</v>
       </c>
       <c r="G488" s="2" t="s">
         <v>283</v>
@@ -8667,17 +8678,17 @@
       </c>
     </row>
     <row r="491" spans="2:10">
-      <c r="B491" s="83" t="s">
+      <c r="B491" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="C491" s="83"/>
-      <c r="D491" s="83"/>
-      <c r="E491" s="83"/>
-      <c r="F491" s="83"/>
-      <c r="G491" s="83"/>
-      <c r="H491" s="83"/>
-      <c r="I491" s="83"/>
-      <c r="J491" s="83"/>
+      <c r="C491" s="72"/>
+      <c r="D491" s="72"/>
+      <c r="E491" s="72"/>
+      <c r="F491" s="72"/>
+      <c r="G491" s="72"/>
+      <c r="H491" s="72"/>
+      <c r="I491" s="72"/>
+      <c r="J491" s="72"/>
     </row>
     <row r="493" spans="2:10">
       <c r="C493" s="2" t="s">
@@ -8685,7 +8696,7 @@
       </c>
       <c r="D493" s="41">
         <f>(D463-D478-D488-H482-H483)*H493/100</f>
-        <v>10998.240156479174</v>
+        <v>10998.151984810489</v>
       </c>
       <c r="G493" s="2" t="s">
         <v>317</v>
@@ -8698,17 +8709,17 @@
       </c>
     </row>
     <row r="496" spans="2:10">
-      <c r="B496" s="83" t="s">
+      <c r="B496" s="72" t="s">
         <v>318</v>
       </c>
-      <c r="C496" s="83"/>
-      <c r="D496" s="83"/>
-      <c r="E496" s="83"/>
-      <c r="F496" s="83"/>
-      <c r="G496" s="83"/>
-      <c r="H496" s="83"/>
-      <c r="I496" s="83"/>
-      <c r="J496" s="83"/>
+      <c r="C496" s="72"/>
+      <c r="D496" s="72"/>
+      <c r="E496" s="72"/>
+      <c r="F496" s="72"/>
+      <c r="G496" s="72"/>
+      <c r="H496" s="72"/>
+      <c r="I496" s="72"/>
+      <c r="J496" s="72"/>
     </row>
     <row r="498" spans="2:10">
       <c r="C498" s="2" t="s">
@@ -8716,21 +8727,21 @@
       </c>
       <c r="D498" s="41">
         <f>D463-D478-D488-D493</f>
-        <v>208966.5629731043</v>
+        <v>208964.88771139932</v>
       </c>
     </row>
     <row r="500" spans="2:10">
-      <c r="B500" s="83" t="s">
+      <c r="B500" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="C500" s="83"/>
-      <c r="D500" s="83"/>
-      <c r="E500" s="83"/>
-      <c r="F500" s="83"/>
-      <c r="G500" s="83"/>
-      <c r="H500" s="83"/>
-      <c r="I500" s="83"/>
-      <c r="J500" s="83"/>
+      <c r="C500" s="72"/>
+      <c r="D500" s="72"/>
+      <c r="E500" s="72"/>
+      <c r="F500" s="72"/>
+      <c r="G500" s="72"/>
+      <c r="H500" s="72"/>
+      <c r="I500" s="72"/>
+      <c r="J500" s="72"/>
     </row>
     <row r="502" spans="2:10">
       <c r="C502" s="2" t="s">
@@ -8743,17 +8754,17 @@
       <c r="E502" s="41"/>
     </row>
     <row r="504" spans="2:10">
-      <c r="B504" s="83" t="s">
+      <c r="B504" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="C504" s="83"/>
-      <c r="D504" s="83"/>
-      <c r="E504" s="83"/>
-      <c r="F504" s="83"/>
-      <c r="G504" s="83"/>
-      <c r="H504" s="83"/>
-      <c r="I504" s="83"/>
-      <c r="J504" s="83"/>
+      <c r="C504" s="72"/>
+      <c r="D504" s="72"/>
+      <c r="E504" s="72"/>
+      <c r="F504" s="72"/>
+      <c r="G504" s="72"/>
+      <c r="H504" s="72"/>
+      <c r="I504" s="72"/>
+      <c r="J504" s="72"/>
     </row>
     <row r="506" spans="2:10">
       <c r="C506" s="2" t="s">
@@ -8761,21 +8772,21 @@
       </c>
       <c r="D506" s="41">
         <f>D498*100/(E166+E434)</f>
-        <v>532.99806994120775</v>
+        <v>534.11634478139092</v>
       </c>
     </row>
     <row r="509" spans="2:10">
-      <c r="B509" s="83" t="s">
+      <c r="B509" s="72" t="s">
         <v>325</v>
       </c>
-      <c r="C509" s="83"/>
-      <c r="D509" s="83"/>
-      <c r="E509" s="83"/>
-      <c r="F509" s="83"/>
-      <c r="G509" s="83"/>
-      <c r="H509" s="83"/>
-      <c r="I509" s="83"/>
-      <c r="J509" s="83"/>
+      <c r="C509" s="72"/>
+      <c r="D509" s="72"/>
+      <c r="E509" s="72"/>
+      <c r="F509" s="72"/>
+      <c r="G509" s="72"/>
+      <c r="H509" s="72"/>
+      <c r="I509" s="72"/>
+      <c r="J509" s="72"/>
     </row>
     <row r="511" spans="2:10">
       <c r="C511" s="2" t="s">
@@ -8783,20 +8794,20 @@
       </c>
       <c r="D511" s="41">
         <f>D442/E166</f>
-        <v>34.540271448781169</v>
+        <v>34.612731218210563</v>
       </c>
       <c r="E511" s="41">
         <f>D442</f>
-        <v>902787.73549855454</v>
+        <v>902780.27288337401</v>
       </c>
     </row>
     <row r="514" spans="1:6">
-      <c r="A514" s="76" t="s">
+      <c r="A514" s="87" t="s">
         <v>327</v>
       </c>
-      <c r="B514" s="76"/>
-      <c r="C514" s="76"/>
-      <c r="D514" s="76"/>
+      <c r="B514" s="87"/>
+      <c r="C514" s="87"/>
+      <c r="D514" s="87"/>
       <c r="E514" s="26" t="s">
         <v>221</v>
       </c>
@@ -8805,12 +8816,12 @@
       </c>
     </row>
     <row r="515" spans="1:6">
-      <c r="A515" s="68" t="s">
+      <c r="A515" s="92" t="s">
         <v>329</v>
       </c>
-      <c r="B515" s="68"/>
-      <c r="C515" s="68"/>
-      <c r="D515" s="68"/>
+      <c r="B515" s="92"/>
+      <c r="C515" s="92"/>
+      <c r="D515" s="92"/>
       <c r="E515" s="4" t="s">
         <v>235</v>
       </c>
@@ -8820,147 +8831,147 @@
       </c>
     </row>
     <row r="516" spans="1:6">
-      <c r="A516" s="68" t="s">
+      <c r="A516" s="92" t="s">
         <v>330</v>
       </c>
-      <c r="B516" s="68"/>
-      <c r="C516" s="68"/>
-      <c r="D516" s="68"/>
+      <c r="B516" s="92"/>
+      <c r="C516" s="92"/>
+      <c r="D516" s="92"/>
       <c r="E516" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F516" s="59">
         <f>D442</f>
-        <v>902787.73549855454</v>
+        <v>902780.27288337401</v>
       </c>
     </row>
     <row r="517" spans="1:6">
-      <c r="A517" s="76" t="s">
+      <c r="A517" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="B517" s="76"/>
-      <c r="C517" s="76"/>
-      <c r="D517" s="76"/>
+      <c r="B517" s="87"/>
+      <c r="C517" s="87"/>
+      <c r="D517" s="87"/>
       <c r="E517" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F517" s="59">
         <f t="array" ref="F517">F241</f>
-        <v>488890.82600306673</v>
+        <v>488886.78473848564</v>
       </c>
     </row>
     <row r="518" spans="1:6">
-      <c r="A518" s="76" t="s">
+      <c r="A518" s="87" t="s">
         <v>332</v>
       </c>
-      <c r="B518" s="76"/>
-      <c r="C518" s="76"/>
-      <c r="D518" s="76"/>
+      <c r="B518" s="87"/>
+      <c r="C518" s="87"/>
+      <c r="D518" s="87"/>
       <c r="E518" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F518" s="59">
         <f t="array" ref="F518">D446</f>
-        <v>0.54153463408880098</v>
+        <v>0.54153463408880087</v>
       </c>
     </row>
     <row r="519" spans="1:6">
-      <c r="A519" s="76" t="s">
+      <c r="A519" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="B519" s="76"/>
-      <c r="C519" s="76"/>
-      <c r="D519" s="76"/>
+      <c r="B519" s="87"/>
+      <c r="C519" s="87"/>
+      <c r="D519" s="87"/>
       <c r="E519" s="4" t="s">
         <v>350</v>
       </c>
       <c r="F519" s="59">
         <f t="array" ref="F519">H241</f>
-        <v>37.766769100275546</v>
+        <v>37.766456912976885</v>
       </c>
     </row>
     <row r="520" spans="1:6">
-      <c r="A520" s="76" t="s">
+      <c r="A520" s="87" t="s">
         <v>334</v>
       </c>
-      <c r="B520" s="76"/>
-      <c r="C520" s="76"/>
-      <c r="D520" s="76"/>
+      <c r="B520" s="87"/>
+      <c r="C520" s="87"/>
+      <c r="D520" s="87"/>
       <c r="E520" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F520" s="59">
         <f t="array" ref="F520">H243</f>
-        <v>56.837117853880031</v>
+        <v>56.836648027450366</v>
       </c>
     </row>
     <row r="521" spans="1:6">
-      <c r="A521" s="76" t="s">
+      <c r="A521" s="87" t="s">
         <v>335</v>
       </c>
-      <c r="B521" s="76"/>
-      <c r="C521" s="76"/>
-      <c r="D521" s="76"/>
+      <c r="B521" s="87"/>
+      <c r="C521" s="87"/>
+      <c r="D521" s="87"/>
       <c r="E521" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F521" s="59">
         <f t="array" ref="F521">H248</f>
-        <v>69.740265391931601</v>
+        <v>69.739688905629507</v>
       </c>
     </row>
     <row r="522" spans="1:6">
-      <c r="A522" s="76" t="s">
+      <c r="A522" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="B522" s="76"/>
-      <c r="C522" s="76"/>
-      <c r="D522" s="76"/>
+      <c r="B522" s="87"/>
+      <c r="C522" s="87"/>
+      <c r="D522" s="87"/>
       <c r="E522" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F522" s="59">
         <f t="array" ref="F522">D458</f>
-        <v>289462.09301963763</v>
+        <v>289459.70027090557</v>
       </c>
     </row>
     <row r="523" spans="1:6">
-      <c r="A523" s="76" t="s">
+      <c r="A523" s="87" t="s">
         <v>336</v>
       </c>
-      <c r="B523" s="76"/>
-      <c r="C523" s="76"/>
-      <c r="D523" s="76"/>
+      <c r="B523" s="87"/>
+      <c r="C523" s="87"/>
+      <c r="D523" s="87"/>
       <c r="E523" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F523" s="59">
         <f t="array" ref="F523">D498</f>
-        <v>208966.5629731043</v>
+        <v>208964.88771139932</v>
       </c>
     </row>
     <row r="524" spans="1:6">
-      <c r="A524" s="76" t="s">
+      <c r="A524" s="87" t="s">
         <v>337</v>
       </c>
-      <c r="B524" s="76"/>
-      <c r="C524" s="76"/>
-      <c r="D524" s="76"/>
+      <c r="B524" s="87"/>
+      <c r="C524" s="87"/>
+      <c r="D524" s="87"/>
       <c r="E524" s="4" t="s">
         <v>260</v>
       </c>
       <c r="F524" s="59">
         <f>D506</f>
-        <v>532.99806994120775</v>
+        <v>534.11634478139092</v>
       </c>
     </row>
     <row r="525" spans="1:6">
-      <c r="A525" s="76" t="s">
+      <c r="A525" s="87" t="s">
         <v>338</v>
       </c>
-      <c r="B525" s="76"/>
-      <c r="C525" s="76"/>
-      <c r="D525" s="76"/>
+      <c r="B525" s="87"/>
+      <c r="C525" s="87"/>
+      <c r="D525" s="87"/>
       <c r="E525" s="4" t="s">
         <v>260</v>
       </c>
@@ -8970,27 +8981,27 @@
       </c>
     </row>
     <row r="526" spans="1:6">
-      <c r="A526" s="76" t="s">
+      <c r="A526" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="B526" s="76"/>
-      <c r="C526" s="76"/>
-      <c r="D526" s="76"/>
+      <c r="B526" s="87"/>
+      <c r="C526" s="87"/>
+      <c r="D526" s="87"/>
       <c r="E526" s="4" t="s">
         <v>351</v>
       </c>
       <c r="F526" s="59">
         <f t="array" ref="F526">D511</f>
-        <v>34.540271448781169</v>
+        <v>34.612731218210563</v>
       </c>
     </row>
     <row r="527" spans="1:6">
-      <c r="A527" s="76" t="s">
+      <c r="A527" s="87" t="s">
         <v>465</v>
       </c>
-      <c r="B527" s="76"/>
-      <c r="C527" s="76"/>
-      <c r="D527" s="76"/>
+      <c r="B527" s="87"/>
+      <c r="C527" s="87"/>
+      <c r="D527" s="87"/>
       <c r="E527" s="4" t="s">
         <v>352</v>
       </c>
@@ -9000,12 +9011,12 @@
       </c>
     </row>
     <row r="528" spans="1:6">
-      <c r="A528" s="76" t="s">
+      <c r="A528" s="87" t="s">
         <v>464</v>
       </c>
-      <c r="B528" s="76"/>
-      <c r="C528" s="76"/>
-      <c r="D528" s="76"/>
+      <c r="B528" s="87"/>
+      <c r="C528" s="87"/>
+      <c r="D528" s="87"/>
       <c r="E528" s="4" t="s">
         <v>352</v>
       </c>
@@ -9015,42 +9026,42 @@
       </c>
     </row>
     <row r="529" spans="1:6">
-      <c r="A529" s="76" t="s">
+      <c r="A529" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="B529" s="76"/>
-      <c r="C529" s="76"/>
-      <c r="D529" s="76"/>
+      <c r="B529" s="87"/>
+      <c r="C529" s="87"/>
+      <c r="D529" s="87"/>
       <c r="E529" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F529" s="59">
         <f t="array" ref="F529">F516/F528</f>
-        <v>26552.580455839838</v>
+        <v>26552.36096715806</v>
       </c>
     </row>
     <row r="530" spans="1:6">
-      <c r="A530" s="76" t="s">
+      <c r="A530" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="B530" s="76"/>
-      <c r="C530" s="76"/>
-      <c r="D530" s="76"/>
+      <c r="B530" s="87"/>
+      <c r="C530" s="87"/>
+      <c r="D530" s="87"/>
       <c r="E530" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F530" s="59">
         <f t="array" ref="F530">F516/F527</f>
-        <v>20995.063616245454</v>
+        <v>20994.89006705521</v>
       </c>
     </row>
     <row r="531" spans="1:6">
-      <c r="A531" s="76" t="s">
+      <c r="A531" s="87" t="s">
         <v>341</v>
       </c>
-      <c r="B531" s="76"/>
-      <c r="C531" s="76"/>
-      <c r="D531" s="76"/>
+      <c r="B531" s="87"/>
+      <c r="C531" s="87"/>
+      <c r="D531" s="87"/>
       <c r="E531" s="4" t="s">
         <v>62</v>
       </c>
@@ -9060,12 +9071,12 @@
       </c>
     </row>
     <row r="532" spans="1:6">
-      <c r="A532" s="76" t="s">
+      <c r="A532" s="87" t="s">
         <v>342</v>
       </c>
-      <c r="B532" s="76"/>
-      <c r="C532" s="76"/>
-      <c r="D532" s="76"/>
+      <c r="B532" s="87"/>
+      <c r="C532" s="87"/>
+      <c r="D532" s="87"/>
       <c r="E532" s="4" t="s">
         <v>62</v>
       </c>
@@ -9075,87 +9086,87 @@
       </c>
     </row>
     <row r="533" spans="1:6">
-      <c r="A533" s="76" t="s">
+      <c r="A533" s="87" t="s">
         <v>343</v>
       </c>
-      <c r="B533" s="76"/>
-      <c r="C533" s="76"/>
-      <c r="D533" s="76"/>
+      <c r="B533" s="87"/>
+      <c r="C533" s="87"/>
+      <c r="D533" s="87"/>
       <c r="E533" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F533" s="59">
         <f t="array" ref="F533">C423</f>
-        <v>10.297988326946422</v>
+        <v>10.297903201815679</v>
       </c>
     </row>
     <row r="534" spans="1:6">
-      <c r="A534" s="76" t="s">
+      <c r="A534" s="87" t="s">
         <v>344</v>
       </c>
-      <c r="B534" s="76"/>
-      <c r="C534" s="76"/>
-      <c r="D534" s="76"/>
+      <c r="B534" s="87"/>
+      <c r="C534" s="87"/>
+      <c r="D534" s="87"/>
       <c r="E534" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F534" s="59">
         <f t="array" ref="F534">D488</f>
-        <v>69466.008521281692</v>
+        <v>69465.444419632113</v>
       </c>
     </row>
     <row r="535" spans="1:6">
-      <c r="A535" s="76" t="s">
+      <c r="A535" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="B535" s="76"/>
-      <c r="C535" s="76"/>
-      <c r="D535" s="76"/>
+      <c r="B535" s="87"/>
+      <c r="C535" s="87"/>
+      <c r="D535" s="87"/>
       <c r="E535" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F535" s="59">
         <f t="array" ref="F535">D470</f>
-        <v>20.390847630578911</v>
+        <v>20.348522438431971</v>
       </c>
     </row>
     <row r="536" spans="1:6">
-      <c r="A536" s="76" t="s">
+      <c r="A536" s="87" t="s">
         <v>346</v>
       </c>
-      <c r="B536" s="76"/>
-      <c r="C536" s="76"/>
-      <c r="D536" s="76"/>
+      <c r="B536" s="87"/>
+      <c r="C536" s="87"/>
+      <c r="D536" s="87"/>
       <c r="E536" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F536" s="59">
         <f t="array" ref="F536">E166</f>
-        <v>26137.250740408163</v>
+        <v>26082.3183005102</v>
       </c>
     </row>
     <row r="537" spans="1:6">
-      <c r="A537" s="76" t="s">
+      <c r="A537" s="87" t="s">
         <v>347</v>
       </c>
-      <c r="B537" s="76"/>
-      <c r="C537" s="76"/>
-      <c r="D537" s="76"/>
+      <c r="B537" s="87"/>
+      <c r="C537" s="87"/>
+      <c r="D537" s="87"/>
       <c r="E537" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F537" s="59">
         <f t="array" ref="F537">E434</f>
-        <v>13068.625370204081</v>
+        <v>13041.1591502551</v>
       </c>
     </row>
     <row r="538" spans="1:6">
-      <c r="A538" s="76" t="s">
+      <c r="A538" s="87" t="s">
         <v>348</v>
       </c>
-      <c r="B538" s="76"/>
-      <c r="C538" s="76"/>
-      <c r="D538" s="76"/>
+      <c r="B538" s="87"/>
+      <c r="C538" s="87"/>
+      <c r="D538" s="87"/>
       <c r="E538" s="4" t="s">
         <v>62</v>
       </c>
@@ -9165,12 +9176,12 @@
       </c>
     </row>
     <row r="539" spans="1:6">
-      <c r="A539" s="76" t="s">
+      <c r="A539" s="87" t="s">
         <v>349</v>
       </c>
-      <c r="B539" s="76"/>
-      <c r="C539" s="76"/>
-      <c r="D539" s="76"/>
+      <c r="B539" s="87"/>
+      <c r="C539" s="87"/>
+      <c r="D539" s="87"/>
       <c r="E539" s="4" t="s">
         <v>62</v>
       </c>
@@ -9182,18 +9193,437 @@
   </sheetData>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
-      <selection activeCell="C359" sqref="C359"/>
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
+      <selection activeCell="F217" sqref="F217:G217"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
-      <selection activeCell="F217" sqref="F217:G217"/>
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
+      <selection activeCell="C359" sqref="C359"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="443">
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="B269:L269"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A169:J169"/>
+    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="B295:J295"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="C195:H195"/>
+    <mergeCell ref="C200:H201"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="L147:M148"/>
+    <mergeCell ref="N147:O148"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B145:I145"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="A147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:E148"/>
+    <mergeCell ref="H147:I148"/>
+    <mergeCell ref="J147:K148"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="F241:G241"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="B251:L251"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="G255:H255"/>
+    <mergeCell ref="I255:J255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="G256:H256"/>
+    <mergeCell ref="G257:H257"/>
+    <mergeCell ref="G258:H258"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="G260:H260"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="F247:G247"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A222:I222"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="F234:G234"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="H297:I297"/>
+    <mergeCell ref="G261:H261"/>
+    <mergeCell ref="I256:J256"/>
+    <mergeCell ref="I257:J257"/>
+    <mergeCell ref="I258:J258"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="F231:G231"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="B472:J472"/>
+    <mergeCell ref="B476:J476"/>
+    <mergeCell ref="A516:D516"/>
+    <mergeCell ref="A517:D517"/>
+    <mergeCell ref="A518:D518"/>
+    <mergeCell ref="A519:D519"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="B313:J313"/>
+    <mergeCell ref="B318:J318"/>
+    <mergeCell ref="B347:J347"/>
+    <mergeCell ref="B352:J352"/>
+    <mergeCell ref="B357:J357"/>
+    <mergeCell ref="B368:J368"/>
+    <mergeCell ref="B373:J373"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A520:D520"/>
+    <mergeCell ref="A521:D521"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A523:D523"/>
+    <mergeCell ref="B480:J480"/>
+    <mergeCell ref="B486:J486"/>
+    <mergeCell ref="B491:J491"/>
+    <mergeCell ref="B496:J496"/>
+    <mergeCell ref="B500:J500"/>
+    <mergeCell ref="B504:J504"/>
+    <mergeCell ref="B509:J509"/>
+    <mergeCell ref="A514:D514"/>
+    <mergeCell ref="B436:J436"/>
+    <mergeCell ref="B440:J440"/>
+    <mergeCell ref="B444:J444"/>
+    <mergeCell ref="B448:J448"/>
+    <mergeCell ref="B461:J461"/>
+    <mergeCell ref="B466:J466"/>
+    <mergeCell ref="B378:J378"/>
+    <mergeCell ref="B382:J382"/>
+    <mergeCell ref="B387:J387"/>
+    <mergeCell ref="B392:J392"/>
+    <mergeCell ref="B396:J396"/>
+    <mergeCell ref="B400:J400"/>
+    <mergeCell ref="B412:J412"/>
+    <mergeCell ref="B421:J421"/>
+    <mergeCell ref="A430:I430"/>
+    <mergeCell ref="B432:J432"/>
+    <mergeCell ref="B404:J404"/>
+    <mergeCell ref="B408:J408"/>
+    <mergeCell ref="B426:J426"/>
+    <mergeCell ref="B417:J417"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A539:D539"/>
+    <mergeCell ref="A530:D530"/>
+    <mergeCell ref="A531:D531"/>
+    <mergeCell ref="A532:D532"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A534:D534"/>
+    <mergeCell ref="A535:D535"/>
+    <mergeCell ref="A536:D536"/>
+    <mergeCell ref="A537:D537"/>
+    <mergeCell ref="A538:D538"/>
+    <mergeCell ref="A524:D524"/>
+    <mergeCell ref="A525:D525"/>
+    <mergeCell ref="A526:D526"/>
+    <mergeCell ref="A527:D527"/>
+    <mergeCell ref="A528:D528"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A515:D515"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I266:J266"/>
+    <mergeCell ref="I263:J263"/>
+    <mergeCell ref="I265:J265"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="A125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B137:I137"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="B253:E253"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="F248:G248"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="M181:M208"/>
+    <mergeCell ref="B181:J181"/>
+    <mergeCell ref="B171:J171"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="L149:M149"/>
     <mergeCell ref="H308:I308"/>
     <mergeCell ref="H307:I307"/>
     <mergeCell ref="H309:I309"/>
@@ -9218,425 +9648,6 @@
     <mergeCell ref="I260:J260"/>
     <mergeCell ref="I261:J261"/>
     <mergeCell ref="I262:J262"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="M181:M208"/>
-    <mergeCell ref="B181:J181"/>
-    <mergeCell ref="B171:J171"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="B253:E253"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="B137:I137"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="A125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A539:D539"/>
-    <mergeCell ref="A530:D530"/>
-    <mergeCell ref="A531:D531"/>
-    <mergeCell ref="A532:D532"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A534:D534"/>
-    <mergeCell ref="A535:D535"/>
-    <mergeCell ref="A536:D536"/>
-    <mergeCell ref="A537:D537"/>
-    <mergeCell ref="A538:D538"/>
-    <mergeCell ref="A524:D524"/>
-    <mergeCell ref="A525:D525"/>
-    <mergeCell ref="A526:D526"/>
-    <mergeCell ref="A527:D527"/>
-    <mergeCell ref="A528:D528"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A515:D515"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I266:J266"/>
-    <mergeCell ref="I263:J263"/>
-    <mergeCell ref="I265:J265"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B104:H104"/>
-    <mergeCell ref="B436:J436"/>
-    <mergeCell ref="B440:J440"/>
-    <mergeCell ref="B444:J444"/>
-    <mergeCell ref="B448:J448"/>
-    <mergeCell ref="B461:J461"/>
-    <mergeCell ref="B466:J466"/>
-    <mergeCell ref="B378:J378"/>
-    <mergeCell ref="B382:J382"/>
-    <mergeCell ref="B387:J387"/>
-    <mergeCell ref="B392:J392"/>
-    <mergeCell ref="B396:J396"/>
-    <mergeCell ref="B400:J400"/>
-    <mergeCell ref="B412:J412"/>
-    <mergeCell ref="B421:J421"/>
-    <mergeCell ref="A430:I430"/>
-    <mergeCell ref="B432:J432"/>
-    <mergeCell ref="B404:J404"/>
-    <mergeCell ref="B408:J408"/>
-    <mergeCell ref="B426:J426"/>
-    <mergeCell ref="B417:J417"/>
-    <mergeCell ref="A520:D520"/>
-    <mergeCell ref="A521:D521"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A523:D523"/>
-    <mergeCell ref="B480:J480"/>
-    <mergeCell ref="B486:J486"/>
-    <mergeCell ref="B491:J491"/>
-    <mergeCell ref="B496:J496"/>
-    <mergeCell ref="B500:J500"/>
-    <mergeCell ref="B504:J504"/>
-    <mergeCell ref="B509:J509"/>
-    <mergeCell ref="A514:D514"/>
-    <mergeCell ref="B472:J472"/>
-    <mergeCell ref="B476:J476"/>
-    <mergeCell ref="A516:D516"/>
-    <mergeCell ref="A517:D517"/>
-    <mergeCell ref="A518:D518"/>
-    <mergeCell ref="A519:D519"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="B313:J313"/>
-    <mergeCell ref="B318:J318"/>
-    <mergeCell ref="B347:J347"/>
-    <mergeCell ref="B352:J352"/>
-    <mergeCell ref="B357:J357"/>
-    <mergeCell ref="B368:J368"/>
-    <mergeCell ref="B373:J373"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A222:I222"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="F234:G234"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="H297:I297"/>
-    <mergeCell ref="G261:H261"/>
-    <mergeCell ref="I256:J256"/>
-    <mergeCell ref="I257:J257"/>
-    <mergeCell ref="I258:J258"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="F231:G231"/>
-    <mergeCell ref="F232:G232"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="F241:G241"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="B251:L251"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="G255:H255"/>
-    <mergeCell ref="I255:J255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="G256:H256"/>
-    <mergeCell ref="G257:H257"/>
-    <mergeCell ref="G258:H258"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="G260:H260"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="L147:M148"/>
-    <mergeCell ref="N147:O148"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B145:I145"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="A147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:E148"/>
-    <mergeCell ref="H147:I148"/>
-    <mergeCell ref="J147:K148"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="C195:H195"/>
-    <mergeCell ref="C200:H201"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="B295:J295"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A169:J169"/>
-    <mergeCell ref="B173:E173"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="F246:G246"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="F242:G242"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A242:D242"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A248:D248"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="B269:L269"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A274:C274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId3"/>
@@ -9657,11 +9668,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9679,10 +9690,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/OPiUP_kursovoy_mine.xlsx
+++ b/OPiUP_kursovoy_mine.xlsx
@@ -13,8 +13,8 @@
   </sheets>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="Siarhei_Kutsankou - Личное представление" guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="670" activeSheetId="1"/>
     <customWorkbookView name="Michael Pozhigan - Личное представление" guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
-    <customWorkbookView name="Siarhei_Kutsankou - Личное представление" guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="670" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2059,7 +2059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2198,24 +2198,217 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2226,210 +2419,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2736,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150:E150"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2768,17 +2771,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
@@ -2875,16 +2878,16 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
     </row>
     <row r="6" spans="1:22" ht="19.5" thickBot="1">
       <c r="L6" s="2" t="s">
@@ -3328,16 +3331,16 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
       <c r="R22" s="2" t="s">
         <v>381</v>
       </c>
@@ -3356,26 +3359,26 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="45" customHeight="1">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="143" t="s">
+      <c r="C23" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="143" t="s">
+      <c r="D23" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="143" t="s">
+      <c r="E23" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="143" t="s">
+      <c r="G23" s="70"/>
+      <c r="H23" s="80" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -3396,34 +3399,34 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1">
-      <c r="A24" s="142"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="144"/>
-      <c r="K24" s="127" t="s">
+      <c r="H24" s="81"/>
+      <c r="K24" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="137" t="s">
+      <c r="L24" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="137" t="s">
+      <c r="M24" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="N24" s="137" t="s">
+      <c r="N24" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="137" t="s">
+      <c r="O24" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="127"/>
+      <c r="P24" s="91"/>
       <c r="R24" s="2" t="s">
         <v>383</v>
       </c>
@@ -3471,12 +3474,12 @@
         <f>F25/G25</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K25" s="127"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
       <c r="V25" s="2">
         <f>SUM(V7:V24)</f>
         <v>31.3</v>
@@ -3512,10 +3515,10 @@
         <f t="array" ref="H26">F26/G26</f>
         <v>0.97411475243506507</v>
       </c>
-      <c r="K26" s="128">
+      <c r="K26" s="92">
         <v>1</v>
       </c>
-      <c r="L26" s="128">
+      <c r="L26" s="92">
         <v>2</v>
       </c>
       <c r="M26" s="66">
@@ -3525,10 +3528,10 @@
         <f t="array" ref="N26">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O26" s="127" t="s">
+      <c r="O26" s="91" t="s">
         <v>398</v>
       </c>
-      <c r="P26" s="127"/>
+      <c r="P26" s="91"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="4">
@@ -3560,8 +3563,8 @@
         <f t="array" ref="H27">F27/G27</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
       <c r="M27" s="66">
         <v>2</v>
       </c>
@@ -3569,10 +3572,10 @@
         <f t="array" ref="N27">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O27" s="127" t="s">
+      <c r="O27" s="91" t="s">
         <v>399</v>
       </c>
-      <c r="P27" s="127"/>
+      <c r="P27" s="91"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="4">
@@ -3617,10 +3620,10 @@
         <f t="array" ref="N28">$C$46/L28</f>
         <v>12</v>
       </c>
-      <c r="O28" s="127" t="s">
+      <c r="O28" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="P28" s="127"/>
+      <c r="P28" s="91"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="4">
@@ -3665,10 +3668,10 @@
         <f t="array" ref="N29">$C$46/L29</f>
         <v>12</v>
       </c>
-      <c r="O29" s="127" t="s">
+      <c r="O29" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="P29" s="127"/>
+      <c r="P29" s="91"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="4">
@@ -3700,10 +3703,10 @@
         <f t="array" ref="H30">F30/G30</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K30" s="128">
+      <c r="K30" s="92">
         <v>4</v>
       </c>
-      <c r="L30" s="128">
+      <c r="L30" s="92">
         <v>3</v>
       </c>
       <c r="M30" s="67">
@@ -3713,10 +3716,10 @@
         <f>$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O30" s="138">
+      <c r="O30" s="94">
         <v>1.4</v>
       </c>
-      <c r="P30" s="138"/>
+      <c r="P30" s="94"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="4">
@@ -3748,8 +3751,8 @@
         <f t="array" ref="H31">F31/G31</f>
         <v>0.97567833951762528</v>
       </c>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
       <c r="M31" s="66">
         <v>6</v>
       </c>
@@ -3757,10 +3760,10 @@
         <f t="array" ref="N31">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O31" s="127">
+      <c r="O31" s="91">
         <v>2.5</v>
       </c>
-      <c r="P31" s="127"/>
+      <c r="P31" s="91"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="4">
@@ -3792,8 +3795,8 @@
         <f t="array" ref="H32">F32/G32</f>
         <v>1.031967474489796</v>
       </c>
-      <c r="K32" s="129"/>
-      <c r="L32" s="129"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
       <c r="M32" s="66">
         <v>7</v>
       </c>
@@ -3801,10 +3804,10 @@
         <f t="array" ref="N32">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O32" s="127">
+      <c r="O32" s="91">
         <v>3.6</v>
       </c>
-      <c r="P32" s="127"/>
+      <c r="P32" s="91"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="4">
@@ -3849,10 +3852,10 @@
         <f t="array" ref="N33">$C$46/L33</f>
         <v>12</v>
       </c>
-      <c r="O33" s="127" t="s">
+      <c r="O33" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="P33" s="127"/>
+      <c r="P33" s="91"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
@@ -3887,16 +3890,16 @@
         <f t="array" ref="N34">$C$46/L34</f>
         <v>12</v>
       </c>
-      <c r="O34" s="127" t="s">
+      <c r="O34" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="P34" s="127"/>
+      <c r="P34" s="91"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="K35" s="128">
+      <c r="K35" s="92">
         <v>7</v>
       </c>
-      <c r="L35" s="128">
+      <c r="L35" s="92">
         <v>2</v>
       </c>
       <c r="M35" s="66">
@@ -3906,17 +3909,17 @@
         <f t="array" ref="N35">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O35" s="127" t="s">
+      <c r="O35" s="91" t="s">
         <v>398</v>
       </c>
-      <c r="P35" s="127"/>
+      <c r="P35" s="91"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="129"/>
-      <c r="L36" s="129"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
       <c r="M36" s="66">
         <v>11</v>
       </c>
@@ -3924,16 +3927,16 @@
         <f t="array" ref="N36">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O36" s="127" t="s">
+      <c r="O36" s="91" t="s">
         <v>399</v>
       </c>
-      <c r="P36" s="127"/>
+      <c r="P36" s="91"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="K37" s="128">
+      <c r="K37" s="92">
         <v>8</v>
       </c>
-      <c r="L37" s="128">
+      <c r="L37" s="92">
         <v>2</v>
       </c>
       <c r="M37" s="66">
@@ -3943,10 +3946,10 @@
         <f t="array" ref="N37">$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O37" s="127" t="s">
+      <c r="O37" s="91" t="s">
         <v>398</v>
       </c>
-      <c r="P37" s="127"/>
+      <c r="P37" s="91"/>
     </row>
     <row r="38" spans="1:16">
       <c r="B38" s="2" t="s">
@@ -3956,8 +3959,8 @@
         <f>F34/G34</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
       <c r="M38" s="66">
         <v>13</v>
       </c>
@@ -3965,10 +3968,10 @@
         <f>$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O38" s="127" t="s">
+      <c r="O38" s="91" t="s">
         <v>399</v>
       </c>
-      <c r="P38" s="127"/>
+      <c r="P38" s="91"/>
     </row>
     <row r="39" spans="1:16">
       <c r="K39" s="66">
@@ -3984,10 +3987,10 @@
         <f>$C$46/L39</f>
         <v>12</v>
       </c>
-      <c r="O39" s="127" t="s">
+      <c r="O39" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="P39" s="127"/>
+      <c r="P39" s="91"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
@@ -4228,7 +4231,7 @@
       </c>
       <c r="C85" s="12">
         <f>E77*0.85*H239</f>
-        <v>1271.3460742982318</v>
+        <v>1270.8573025463929</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>62</v>
@@ -4319,74 +4322,74 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="72" t="s">
+      <c r="A102" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B102" s="72"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
+      <c r="B102" s="75"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="75"/>
+      <c r="H102" s="75"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="B104" s="101" t="s">
+      <c r="B104" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="101"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="101"/>
-      <c r="H104" s="101"/>
+      <c r="C104" s="122"/>
+      <c r="D104" s="122"/>
+      <c r="E104" s="122"/>
+      <c r="F104" s="122"/>
+      <c r="G104" s="122"/>
+      <c r="H104" s="122"/>
       <c r="J104" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A106" s="99" t="s">
+      <c r="A106" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="99"/>
+      <c r="B106" s="82"/>
       <c r="C106" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="99" t="s">
+      <c r="D106" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="99"/>
-      <c r="F106" s="99" t="s">
+      <c r="E106" s="82"/>
+      <c r="F106" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="G106" s="99"/>
-      <c r="H106" s="99" t="s">
+      <c r="G106" s="82"/>
+      <c r="H106" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="I106" s="99"/>
-      <c r="J106" s="99" t="s">
+      <c r="I106" s="82"/>
+      <c r="J106" s="82" t="s">
         <v>459</v>
       </c>
-      <c r="K106" s="99"/>
+      <c r="K106" s="82"/>
     </row>
     <row r="107" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A107" s="86"/>
-      <c r="B107" s="86"/>
+      <c r="A107" s="83"/>
+      <c r="B107" s="83"/>
       <c r="C107" s="48"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="147"/>
-      <c r="G107" s="147"/>
-      <c r="H107" s="147"/>
-      <c r="I107" s="147"/>
-      <c r="J107" s="147"/>
-      <c r="K107" s="147"/>
+      <c r="F107" s="107"/>
+      <c r="G107" s="107"/>
+      <c r="H107" s="107"/>
+      <c r="I107" s="107"/>
+      <c r="J107" s="107"/>
+      <c r="K107" s="107"/>
     </row>
     <row r="108" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A108" s="85" t="s">
+      <c r="A108" s="84" t="s">
         <v>469</v>
       </c>
-      <c r="B108" s="85"/>
+      <c r="B108" s="84"/>
       <c r="C108" s="49" t="s">
         <v>471</v>
       </c>
@@ -4396,45 +4399,45 @@
       <c r="E108" s="1">
         <v>700</v>
       </c>
-      <c r="F108" s="147">
+      <c r="F108" s="107">
         <v>1</v>
       </c>
-      <c r="G108" s="147"/>
-      <c r="H108" s="147">
+      <c r="G108" s="107"/>
+      <c r="H108" s="107">
         <v>4</v>
       </c>
-      <c r="I108" s="147"/>
-      <c r="J108" s="147">
+      <c r="I108" s="107"/>
+      <c r="J108" s="107">
         <f>D108*E108*F108*H108/1000000</f>
         <v>3.36</v>
       </c>
-      <c r="K108" s="147"/>
+      <c r="K108" s="107"/>
     </row>
     <row r="109" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A109" s="85" t="s">
+      <c r="A109" s="84" t="s">
         <v>470</v>
       </c>
-      <c r="B109" s="85"/>
+      <c r="B109" s="84"/>
       <c r="C109" s="15"/>
       <c r="D109" s="65">
         <v>23970</v>
       </c>
       <c r="E109" s="1">
-        <v>100</v>
-      </c>
-      <c r="F109" s="147">
+        <v>600</v>
+      </c>
+      <c r="F109" s="107">
         <v>1</v>
       </c>
-      <c r="G109" s="147"/>
-      <c r="H109" s="148">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I109" s="148"/>
-      <c r="J109" s="147">
+      <c r="G109" s="107"/>
+      <c r="H109" s="131">
+        <v>2.5</v>
+      </c>
+      <c r="I109" s="131"/>
+      <c r="J109" s="107">
         <f>D109*E109*F109*H109/1000000</f>
-        <v>2.7565499999999998</v>
-      </c>
-      <c r="K109" s="147"/>
+        <v>35.954999999999998</v>
+      </c>
+      <c r="K109" s="107"/>
     </row>
     <row r="110" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
       <c r="A110" s="47" t="s">
@@ -4451,54 +4454,54 @@
         <v>700</v>
       </c>
       <c r="F110" s="65">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G110" s="65"/>
       <c r="H110" s="65">
         <v>4</v>
       </c>
       <c r="I110" s="65"/>
-      <c r="J110" s="149">
+      <c r="J110" s="127">
         <f>D110*E110*F110*H110/1000000</f>
-        <v>50.4</v>
-      </c>
-      <c r="K110" s="150"/>
+        <v>53.76</v>
+      </c>
+      <c r="K110" s="128"/>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="85"/>
-      <c r="B111" s="85"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="84"/>
       <c r="C111" s="15"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="147"/>
-      <c r="G111" s="147"/>
-      <c r="H111" s="151"/>
-      <c r="I111" s="151"/>
-      <c r="J111" s="147">
+      <c r="F111" s="107"/>
+      <c r="G111" s="107"/>
+      <c r="H111" s="132"/>
+      <c r="I111" s="132"/>
+      <c r="J111" s="107">
         <f>D111*E111*F111*H111/1000000</f>
         <v>0</v>
       </c>
-      <c r="K111" s="147"/>
+      <c r="K111" s="107"/>
     </row>
     <row r="112" spans="1:13" s="17" customFormat="1">
-      <c r="A112" s="125" t="s">
+      <c r="A112" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="126"/>
+      <c r="B112" s="105"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
-      <c r="F112" s="152">
-        <v>17</v>
-      </c>
-      <c r="G112" s="152"/>
-      <c r="H112" s="152"/>
-      <c r="I112" s="152"/>
-      <c r="J112" s="152">
+      <c r="F112" s="106">
+        <v>18</v>
+      </c>
+      <c r="G112" s="106"/>
+      <c r="H112" s="106"/>
+      <c r="I112" s="106"/>
+      <c r="J112" s="106">
         <f t="array" ref="J112">SUM(J108:J111)</f>
-        <v>56.516549999999995</v>
-      </c>
-      <c r="K112" s="152"/>
+        <v>93.074999999999989</v>
+      </c>
+      <c r="K112" s="106"/>
       <c r="M112" s="17" t="s">
         <v>422</v>
       </c>
@@ -4520,108 +4523,108 @@
       <c r="L114" s="8"/>
     </row>
     <row r="115" spans="1:12">
-      <c r="B115" s="101" t="s">
+      <c r="B115" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="101"/>
-      <c r="D115" s="101"/>
-      <c r="E115" s="101"/>
-      <c r="F115" s="101"/>
-      <c r="G115" s="101"/>
-      <c r="H115" s="101"/>
+      <c r="C115" s="122"/>
+      <c r="D115" s="122"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="122"/>
+      <c r="G115" s="122"/>
+      <c r="H115" s="122"/>
     </row>
     <row r="117" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A117" s="99" t="s">
+      <c r="A117" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B117" s="99"/>
-      <c r="C117" s="99" t="s">
+      <c r="B117" s="82"/>
+      <c r="C117" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="D117" s="99"/>
-      <c r="E117" s="99" t="s">
+      <c r="D117" s="82"/>
+      <c r="E117" s="82" t="s">
         <v>460</v>
       </c>
-      <c r="F117" s="99"/>
+      <c r="F117" s="82"/>
       <c r="L117" s="16"/>
     </row>
     <row r="118" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A118" s="99" t="s">
+      <c r="A118" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="99"/>
-      <c r="C118" s="99" t="s">
+      <c r="B118" s="82"/>
+      <c r="C118" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D118" s="99"/>
-      <c r="E118" s="73">
+      <c r="D118" s="82"/>
+      <c r="E118" s="69">
         <f>J112</f>
-        <v>56.516549999999995</v>
-      </c>
-      <c r="F118" s="74"/>
+        <v>93.074999999999989</v>
+      </c>
+      <c r="F118" s="70"/>
     </row>
     <row r="119" spans="1:12" ht="30" customHeight="1">
-      <c r="A119" s="99" t="s">
+      <c r="A119" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="99"/>
-      <c r="C119" s="99" t="s">
+      <c r="B119" s="82"/>
+      <c r="C119" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D119" s="99"/>
-      <c r="E119" s="73">
+      <c r="D119" s="82"/>
+      <c r="E119" s="69">
         <f t="array" ref="E119">0.3*E118</f>
-        <v>16.954964999999998</v>
-      </c>
-      <c r="F119" s="74"/>
+        <v>27.922499999999996</v>
+      </c>
+      <c r="F119" s="70"/>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="108" t="s">
+      <c r="A120" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="99"/>
-      <c r="C120" s="99"/>
-      <c r="D120" s="99"/>
-      <c r="E120" s="73">
+      <c r="B120" s="82"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="69">
         <f t="array" ref="E120">SUM(E118:F119)</f>
-        <v>73.471514999999997</v>
-      </c>
-      <c r="F120" s="74"/>
+        <v>120.99749999999999</v>
+      </c>
+      <c r="F120" s="70"/>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="136" t="s">
+      <c r="A123" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="B123" s="72"/>
-      <c r="C123" s="72"/>
-      <c r="D123" s="72"/>
-      <c r="E123" s="72"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="72"/>
-      <c r="H123" s="72"/>
-      <c r="I123" s="72"/>
+      <c r="B123" s="75"/>
+      <c r="C123" s="75"/>
+      <c r="D123" s="75"/>
+      <c r="E123" s="75"/>
+      <c r="F123" s="75"/>
+      <c r="G123" s="75"/>
+      <c r="H123" s="75"/>
+      <c r="I123" s="75"/>
     </row>
     <row r="125" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A125" s="99" t="s">
+      <c r="A125" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="B125" s="99"/>
-      <c r="C125" s="99" t="s">
+      <c r="B125" s="82"/>
+      <c r="C125" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D125" s="99" t="s">
+      <c r="D125" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="E125" s="99" t="s">
+      <c r="E125" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="F125" s="99"/>
+      <c r="F125" s="82"/>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="99"/>
-      <c r="B126" s="99"/>
-      <c r="C126" s="99"/>
-      <c r="D126" s="99"/>
+      <c r="A126" s="82"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="82"/>
       <c r="E126" s="1" t="s">
         <v>108</v>
       </c>
@@ -4630,10 +4633,10 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="92" t="s">
+      <c r="A127" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B127" s="92"/>
+      <c r="B127" s="68"/>
       <c r="C127" s="15" t="s">
         <v>356</v>
       </c>
@@ -4650,10 +4653,10 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="92" t="s">
+      <c r="A128" s="68" t="s">
         <v>401</v>
       </c>
-      <c r="B128" s="92"/>
+      <c r="B128" s="68"/>
       <c r="C128" s="15" t="s">
         <v>402</v>
       </c>
@@ -4669,10 +4672,10 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="109" t="s">
+      <c r="A129" s="112" t="s">
         <v>403</v>
       </c>
-      <c r="B129" s="110"/>
+      <c r="B129" s="114"/>
       <c r="C129" s="15" t="s">
         <v>404</v>
       </c>
@@ -4688,10 +4691,10 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="111" t="s">
+      <c r="A130" s="124" t="s">
         <v>425</v>
       </c>
-      <c r="B130" s="112"/>
+      <c r="B130" s="125"/>
       <c r="C130" s="15" t="s">
         <v>426</v>
       </c>
@@ -4707,10 +4710,10 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="111" t="s">
+      <c r="A131" s="124" t="s">
         <v>423</v>
       </c>
-      <c r="B131" s="112"/>
+      <c r="B131" s="125"/>
       <c r="C131" s="15" t="s">
         <v>424</v>
       </c>
@@ -4726,10 +4729,10 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="113" t="s">
+      <c r="A132" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="114"/>
+      <c r="B132" s="126"/>
       <c r="C132" s="4"/>
       <c r="D132" s="20">
         <f>SUM(D127:D131)</f>
@@ -4742,72 +4745,72 @@
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="72" t="s">
+      <c r="A135" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="B135" s="72"/>
-      <c r="C135" s="72"/>
-      <c r="D135" s="72"/>
-      <c r="E135" s="72"/>
-      <c r="F135" s="72"/>
-      <c r="G135" s="72"/>
-      <c r="H135" s="72"/>
+      <c r="B135" s="75"/>
+      <c r="C135" s="75"/>
+      <c r="D135" s="75"/>
+      <c r="E135" s="75"/>
+      <c r="F135" s="75"/>
+      <c r="G135" s="75"/>
+      <c r="H135" s="75"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="B137" s="72" t="s">
+      <c r="B137" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="C137" s="72"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="72"/>
-      <c r="F137" s="72"/>
-      <c r="G137" s="72"/>
-      <c r="H137" s="72"/>
-      <c r="I137" s="72"/>
+      <c r="C137" s="75"/>
+      <c r="D137" s="75"/>
+      <c r="E137" s="75"/>
+      <c r="F137" s="75"/>
+      <c r="G137" s="75"/>
+      <c r="H137" s="75"/>
+      <c r="I137" s="75"/>
     </row>
     <row r="139" spans="1:12" ht="45" customHeight="1">
-      <c r="A139" s="99" t="s">
+      <c r="A139" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="B139" s="99"/>
-      <c r="C139" s="99" t="s">
+      <c r="B139" s="82"/>
+      <c r="C139" s="82" t="s">
         <v>461</v>
       </c>
-      <c r="D139" s="99"/>
-      <c r="E139" s="99" t="s">
+      <c r="D139" s="82"/>
+      <c r="E139" s="82" t="s">
         <v>462</v>
       </c>
-      <c r="F139" s="99"/>
-      <c r="G139" s="99" t="s">
+      <c r="F139" s="82"/>
+      <c r="G139" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="H139" s="99"/>
-      <c r="I139" s="99" t="s">
+      <c r="H139" s="82"/>
+      <c r="I139" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="J139" s="99"/>
-      <c r="K139" s="99" t="s">
+      <c r="J139" s="82"/>
+      <c r="K139" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="L139" s="99"/>
+      <c r="L139" s="82"/>
     </row>
     <row r="140" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A140" s="85" t="s">
+      <c r="A140" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B140" s="85"/>
-      <c r="C140" s="86">
+      <c r="B140" s="84"/>
+      <c r="C140" s="83">
         <v>170</v>
       </c>
-      <c r="D140" s="86"/>
+      <c r="D140" s="83"/>
       <c r="E140" s="88">
         <f t="array" ref="E140">E118</f>
-        <v>56.516549999999995</v>
+        <v>93.074999999999989</v>
       </c>
       <c r="F140" s="89"/>
       <c r="G140" s="88">
         <f t="array" ref="G140">C140*E140</f>
-        <v>9607.8134999999984</v>
+        <v>15822.749999999998</v>
       </c>
       <c r="H140" s="89"/>
       <c r="I140" s="88">
@@ -4816,27 +4819,27 @@
       <c r="J140" s="89"/>
       <c r="K140" s="88">
         <f>G140*I140/(100)</f>
-        <v>259.41096449999998</v>
+        <v>427.21424999999994</v>
       </c>
       <c r="L140" s="89"/>
     </row>
     <row r="141" spans="1:12" ht="30" customHeight="1">
-      <c r="A141" s="85" t="s">
+      <c r="A141" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B141" s="85"/>
-      <c r="C141" s="86">
+      <c r="B141" s="84"/>
+      <c r="C141" s="83">
         <v>250</v>
       </c>
-      <c r="D141" s="86"/>
+      <c r="D141" s="83"/>
       <c r="E141" s="88">
         <f t="array" ref="E141">E119</f>
-        <v>16.954964999999998</v>
+        <v>27.922499999999996</v>
       </c>
       <c r="F141" s="89"/>
       <c r="G141" s="88">
         <f t="array" ref="G141">C141*E141</f>
-        <v>4238.7412499999991</v>
+        <v>6980.6249999999991</v>
       </c>
       <c r="H141" s="89"/>
       <c r="I141" s="88">
@@ -4845,155 +4848,155 @@
       <c r="J141" s="89"/>
       <c r="K141" s="88">
         <f>G141*I141/(100)</f>
-        <v>131.40097874999998</v>
+        <v>216.39937499999996</v>
       </c>
       <c r="L141" s="89"/>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="135" t="s">
+      <c r="A142" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B142" s="86"/>
-      <c r="C142" s="73"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="90">
+      <c r="B142" s="83"/>
+      <c r="C142" s="69"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="133">
         <f t="array" ref="E142">SUM(E140:E141)</f>
-        <v>73.471514999999997</v>
-      </c>
-      <c r="F142" s="91"/>
-      <c r="G142" s="104">
+        <v>120.99749999999999</v>
+      </c>
+      <c r="F142" s="134"/>
+      <c r="G142" s="135">
         <f>SUM(G140:G141)</f>
-        <v>13846.554749999998</v>
-      </c>
-      <c r="H142" s="105"/>
+        <v>22803.374999999996</v>
+      </c>
+      <c r="H142" s="136"/>
       <c r="I142" s="22"/>
       <c r="J142" s="23"/>
-      <c r="K142" s="90">
+      <c r="K142" s="133">
         <f t="array" ref="K142">SUM(K140:K141)</f>
-        <v>390.81194324999996</v>
-      </c>
-      <c r="L142" s="91"/>
+        <v>643.61362499999996</v>
+      </c>
+      <c r="L142" s="134"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="B145" s="72" t="s">
+      <c r="B145" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="C145" s="72"/>
-      <c r="D145" s="72"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="72"/>
+      <c r="C145" s="75"/>
+      <c r="D145" s="75"/>
+      <c r="E145" s="75"/>
+      <c r="F145" s="75"/>
+      <c r="G145" s="75"/>
+      <c r="H145" s="75"/>
+      <c r="I145" s="75"/>
       <c r="K145" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A147" s="99" t="s">
+      <c r="A147" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="B147" s="99"/>
-      <c r="C147" s="99" t="s">
+      <c r="B147" s="82"/>
+      <c r="C147" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D147" s="99" t="s">
+      <c r="D147" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E147" s="99"/>
-      <c r="F147" s="99" t="s">
+      <c r="E147" s="82"/>
+      <c r="F147" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="G147" s="99"/>
-      <c r="H147" s="131" t="s">
+      <c r="G147" s="82"/>
+      <c r="H147" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="I147" s="132"/>
-      <c r="J147" s="99" t="s">
+      <c r="I147" s="99"/>
+      <c r="J147" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="K147" s="99"/>
-      <c r="L147" s="131" t="s">
+      <c r="K147" s="82"/>
+      <c r="L147" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="M147" s="132"/>
-      <c r="N147" s="99" t="s">
+      <c r="M147" s="99"/>
+      <c r="N147" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="O147" s="99"/>
+      <c r="O147" s="82"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="99"/>
-      <c r="B148" s="99"/>
-      <c r="C148" s="99"/>
-      <c r="D148" s="99"/>
-      <c r="E148" s="99"/>
+      <c r="A148" s="82"/>
+      <c r="B148" s="82"/>
+      <c r="C148" s="82"/>
+      <c r="D148" s="82"/>
+      <c r="E148" s="82"/>
       <c r="F148" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G148" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H148" s="133"/>
-      <c r="I148" s="134"/>
-      <c r="J148" s="99"/>
-      <c r="K148" s="99"/>
-      <c r="L148" s="133"/>
-      <c r="M148" s="134"/>
-      <c r="N148" s="99"/>
-      <c r="O148" s="99"/>
+      <c r="H148" s="100"/>
+      <c r="I148" s="101"/>
+      <c r="J148" s="82"/>
+      <c r="K148" s="82"/>
+      <c r="L148" s="100"/>
+      <c r="M148" s="101"/>
+      <c r="N148" s="82"/>
+      <c r="O148" s="82"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="86" t="s">
+      <c r="A149" s="83" t="s">
         <v>472</v>
       </c>
-      <c r="B149" s="86"/>
+      <c r="B149" s="83"/>
       <c r="C149" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="D149" s="86">
-        <v>15</v>
-      </c>
-      <c r="E149" s="86"/>
+      <c r="D149" s="83">
+        <v>16</v>
+      </c>
+      <c r="E149" s="83"/>
       <c r="F149" s="14">
         <v>360</v>
       </c>
       <c r="G149" s="14">
         <f>D149*F149</f>
-        <v>5400</v>
-      </c>
-      <c r="H149" s="83">
+        <v>5760</v>
+      </c>
+      <c r="H149" s="129">
         <f>0.1*G149</f>
-        <v>540</v>
-      </c>
-      <c r="I149" s="84"/>
-      <c r="J149" s="83">
+        <v>576</v>
+      </c>
+      <c r="I149" s="130"/>
+      <c r="J149" s="129">
         <f>G149+H149</f>
-        <v>5940</v>
-      </c>
-      <c r="K149" s="84"/>
-      <c r="L149" s="83">
+        <v>6336</v>
+      </c>
+      <c r="K149" s="130"/>
+      <c r="L149" s="129">
         <v>7.7</v>
       </c>
-      <c r="M149" s="84"/>
-      <c r="N149" s="81">
+      <c r="M149" s="130"/>
+      <c r="N149" s="149">
         <f>L149*J149/(100)</f>
-        <v>457.38</v>
-      </c>
-      <c r="O149" s="82"/>
+        <v>487.87200000000007</v>
+      </c>
+      <c r="O149" s="150"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="85" t="s">
+      <c r="A150" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="B150" s="85"/>
+      <c r="B150" s="84"/>
       <c r="C150" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D150" s="86">
+      <c r="D150" s="83">
         <v>1</v>
       </c>
-      <c r="E150" s="86"/>
+      <c r="E150" s="83"/>
       <c r="F150" s="14">
         <v>360</v>
       </c>
@@ -5001,38 +5004,38 @@
         <f>D150*F150</f>
         <v>360</v>
       </c>
-      <c r="H150" s="83">
+      <c r="H150" s="129">
         <f>0.1*G150</f>
         <v>36</v>
       </c>
-      <c r="I150" s="84"/>
-      <c r="J150" s="83">
+      <c r="I150" s="130"/>
+      <c r="J150" s="129">
         <f>G150+H150</f>
         <v>396</v>
       </c>
-      <c r="K150" s="84"/>
-      <c r="L150" s="83">
+      <c r="K150" s="130"/>
+      <c r="L150" s="129">
         <v>7.7</v>
       </c>
-      <c r="M150" s="84"/>
-      <c r="N150" s="81">
+      <c r="M150" s="130"/>
+      <c r="N150" s="149">
         <f>L150*J150/(100)</f>
         <v>30.492000000000004</v>
       </c>
-      <c r="O150" s="82"/>
+      <c r="O150" s="150"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="85" t="s">
+      <c r="A151" s="84" t="s">
         <v>420</v>
       </c>
-      <c r="B151" s="85"/>
+      <c r="B151" s="84"/>
       <c r="C151" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D151" s="86">
+      <c r="D151" s="83">
         <v>0</v>
       </c>
-      <c r="E151" s="86"/>
+      <c r="E151" s="83"/>
       <c r="F151" s="14">
         <v>0</v>
       </c>
@@ -5040,38 +5043,38 @@
         <f>D151*F151</f>
         <v>0</v>
       </c>
-      <c r="H151" s="83">
+      <c r="H151" s="129">
         <f>0.1*G151</f>
         <v>0</v>
       </c>
-      <c r="I151" s="84"/>
-      <c r="J151" s="83">
+      <c r="I151" s="130"/>
+      <c r="J151" s="129">
         <f>G151+H151</f>
         <v>0</v>
       </c>
-      <c r="K151" s="84"/>
-      <c r="L151" s="83">
+      <c r="K151" s="130"/>
+      <c r="L151" s="129">
         <v>0</v>
       </c>
-      <c r="M151" s="84"/>
-      <c r="N151" s="81">
+      <c r="M151" s="130"/>
+      <c r="N151" s="149">
         <f>L151*J151/(100)</f>
         <v>0</v>
       </c>
-      <c r="O151" s="82"/>
+      <c r="O151" s="150"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="85" t="s">
+      <c r="A152" s="84" t="s">
         <v>420</v>
       </c>
-      <c r="B152" s="85"/>
+      <c r="B152" s="84"/>
       <c r="C152" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D152" s="86">
+      <c r="D152" s="83">
         <v>0</v>
       </c>
-      <c r="E152" s="86"/>
+      <c r="E152" s="83"/>
       <c r="F152" s="14">
         <v>0</v>
       </c>
@@ -5079,98 +5082,98 @@
         <f>D152*F152</f>
         <v>0</v>
       </c>
-      <c r="H152" s="83">
+      <c r="H152" s="129">
         <f>0.1*G152</f>
         <v>0</v>
       </c>
-      <c r="I152" s="84"/>
-      <c r="J152" s="83">
+      <c r="I152" s="130"/>
+      <c r="J152" s="129">
         <f>G152+H152</f>
         <v>0</v>
       </c>
-      <c r="K152" s="84"/>
-      <c r="L152" s="83">
+      <c r="K152" s="130"/>
+      <c r="L152" s="129">
         <v>0</v>
       </c>
-      <c r="M152" s="84"/>
-      <c r="N152" s="81">
+      <c r="M152" s="130"/>
+      <c r="N152" s="149">
         <f>L152*J152/(100)</f>
         <v>0</v>
       </c>
-      <c r="O152" s="82"/>
+      <c r="O152" s="150"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="85" t="s">
+      <c r="A153" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B153" s="85"/>
+      <c r="B153" s="84"/>
       <c r="C153" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D153" s="86">
+      <c r="D153" s="83">
         <v>1</v>
       </c>
-      <c r="E153" s="86"/>
-      <c r="F153" s="14">
-        <v>3800</v>
+      <c r="E153" s="83"/>
+      <c r="F153" s="153">
+        <v>1142</v>
       </c>
       <c r="G153" s="14">
         <f>D153*F153</f>
-        <v>3800</v>
-      </c>
-      <c r="H153" s="83">
+        <v>1142</v>
+      </c>
+      <c r="H153" s="129">
         <f>0.1*G153</f>
-        <v>380</v>
-      </c>
-      <c r="I153" s="84"/>
-      <c r="J153" s="83">
+        <v>114.2</v>
+      </c>
+      <c r="I153" s="130"/>
+      <c r="J153" s="129">
         <f>G153+H153</f>
-        <v>4180</v>
-      </c>
-      <c r="K153" s="84"/>
-      <c r="L153" s="83">
+        <v>1256.2</v>
+      </c>
+      <c r="K153" s="130"/>
+      <c r="L153" s="129">
         <v>15.2</v>
       </c>
-      <c r="M153" s="84"/>
-      <c r="N153" s="81">
+      <c r="M153" s="130"/>
+      <c r="N153" s="149">
         <f>L153*J153/(100)</f>
-        <v>635.36</v>
-      </c>
-      <c r="O153" s="82"/>
+        <v>190.94240000000002</v>
+      </c>
+      <c r="O153" s="150"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="145" t="s">
+      <c r="A154" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="145"/>
+      <c r="B154" s="86"/>
       <c r="C154" s="24"/>
-      <c r="D154" s="106">
+      <c r="D154" s="137">
         <f>SUM(D149:E153)</f>
-        <v>17</v>
-      </c>
-      <c r="E154" s="107"/>
+        <v>18</v>
+      </c>
+      <c r="E154" s="138"/>
       <c r="F154" s="24"/>
       <c r="G154" s="25">
         <f>SUM(G149:G153)</f>
-        <v>9560</v>
-      </c>
-      <c r="H154" s="95">
+        <v>7262</v>
+      </c>
+      <c r="H154" s="139">
         <f>SUM(H149:I153)</f>
-        <v>956</v>
-      </c>
-      <c r="I154" s="96"/>
-      <c r="J154" s="95">
+        <v>726.2</v>
+      </c>
+      <c r="I154" s="140"/>
+      <c r="J154" s="139">
         <f>SUM(J149:K153)</f>
-        <v>10516</v>
-      </c>
-      <c r="K154" s="96"/>
-      <c r="L154" s="97"/>
-      <c r="M154" s="98"/>
-      <c r="N154" s="95">
+        <v>7988.2</v>
+      </c>
+      <c r="K154" s="140"/>
+      <c r="L154" s="143"/>
+      <c r="M154" s="144"/>
+      <c r="N154" s="139">
         <f>SUM(N149:O153)</f>
-        <v>1123.232</v>
-      </c>
-      <c r="O154" s="96"/>
+        <v>709.30640000000005</v>
+      </c>
+      <c r="O154" s="140"/>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="3"/>
@@ -5178,52 +5181,52 @@
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="B157" s="72" t="s">
+      <c r="B157" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="C157" s="72"/>
-      <c r="D157" s="72"/>
-      <c r="E157" s="72"/>
-      <c r="F157" s="72"/>
-      <c r="G157" s="72"/>
-      <c r="H157" s="72"/>
-      <c r="I157" s="72"/>
-      <c r="J157" s="72"/>
+      <c r="C157" s="75"/>
+      <c r="D157" s="75"/>
+      <c r="E157" s="75"/>
+      <c r="F157" s="75"/>
+      <c r="G157" s="75"/>
+      <c r="H157" s="75"/>
+      <c r="I157" s="75"/>
+      <c r="J157" s="75"/>
       <c r="K157" s="3"/>
     </row>
     <row r="159" spans="1:15" ht="37.5">
-      <c r="A159" s="87" t="s">
+      <c r="A159" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="B159" s="87"/>
-      <c r="C159" s="87"/>
+      <c r="B159" s="71"/>
+      <c r="C159" s="71"/>
       <c r="D159" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E159" s="87" t="s">
+      <c r="E159" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="F159" s="87"/>
+      <c r="F159" s="71"/>
       <c r="G159" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="H159" s="87" t="s">
+      <c r="H159" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="I159" s="87"/>
+      <c r="I159" s="71"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="87" t="s">
+      <c r="A160" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="B160" s="87"/>
-      <c r="C160" s="87"/>
+      <c r="B160" s="71"/>
+      <c r="C160" s="71"/>
       <c r="D160" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E160" s="88">
         <f t="array" ref="E160">G142</f>
-        <v>13846.554749999998</v>
+        <v>22803.374999999996</v>
       </c>
       <c r="F160" s="89"/>
       <c r="G160" s="27" t="s">
@@ -5231,22 +5234,22 @@
       </c>
       <c r="H160" s="88">
         <f>K142</f>
-        <v>390.81194324999996</v>
+        <v>643.61362499999996</v>
       </c>
       <c r="I160" s="89"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="87" t="s">
+      <c r="A161" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="B161" s="87"/>
-      <c r="C161" s="87"/>
+      <c r="B161" s="71"/>
+      <c r="C161" s="71"/>
       <c r="D161" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E161" s="88">
         <f t="array" ref="E161">J154</f>
-        <v>10516</v>
+        <v>7988.2</v>
       </c>
       <c r="F161" s="89"/>
       <c r="G161" s="27" t="s">
@@ -5254,16 +5257,16 @@
       </c>
       <c r="H161" s="88">
         <f>N154</f>
-        <v>1123.232</v>
+        <v>709.30640000000005</v>
       </c>
       <c r="I161" s="89"/>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="87" t="s">
+      <c r="A162" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="B162" s="87"/>
-      <c r="C162" s="87"/>
+      <c r="B162" s="71"/>
+      <c r="C162" s="71"/>
       <c r="D162" s="4" t="s">
         <v>136</v>
       </c>
@@ -5282,17 +5285,17 @@
       <c r="I162" s="89"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="75" t="s">
+      <c r="A163" s="146" t="s">
         <v>357</v>
       </c>
-      <c r="B163" s="76"/>
-      <c r="C163" s="77"/>
+      <c r="B163" s="147"/>
+      <c r="C163" s="148"/>
       <c r="D163" s="4" t="s">
         <v>358</v>
       </c>
       <c r="E163" s="88">
         <f t="array" ref="E163">J154*0.1</f>
-        <v>1051.6000000000001</v>
+        <v>798.82</v>
       </c>
       <c r="F163" s="89"/>
       <c r="G163" s="4">
@@ -5300,22 +5303,22 @@
       </c>
       <c r="H163" s="88">
         <f>E163*G163/(100)</f>
-        <v>47.32200000000001</v>
+        <v>35.946899999999999</v>
       </c>
       <c r="I163" s="89"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="75" t="s">
+      <c r="A164" s="146" t="s">
         <v>359</v>
       </c>
-      <c r="B164" s="76"/>
-      <c r="C164" s="77"/>
+      <c r="B164" s="147"/>
+      <c r="C164" s="148"/>
       <c r="D164" s="4" t="s">
         <v>360</v>
       </c>
       <c r="E164" s="88">
         <f t="array" ref="E164">0.02*G154</f>
-        <v>191.20000000000002</v>
+        <v>145.24</v>
       </c>
       <c r="F164" s="89"/>
       <c r="G164" s="4">
@@ -5323,22 +5326,22 @@
       </c>
       <c r="H164" s="88">
         <f>E164*G164/(100)</f>
-        <v>21.988000000000003</v>
+        <v>16.702600000000004</v>
       </c>
       <c r="I164" s="89"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="87" t="s">
+      <c r="A165" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="87"/>
-      <c r="C165" s="87"/>
+      <c r="B165" s="71"/>
+      <c r="C165" s="71"/>
       <c r="D165" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E165" s="88">
         <f t="array" ref="E165">1.5*E161/100+15.4*G34</f>
-        <v>404.14</v>
+        <v>366.22300000000001</v>
       </c>
       <c r="F165" s="89"/>
       <c r="G165" s="4">
@@ -5347,63 +5350,63 @@
       </c>
       <c r="H165" s="88">
         <f>E165*G165/(100)</f>
-        <v>74.765900000000002</v>
+        <v>67.751255</v>
       </c>
       <c r="I165" s="89"/>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="113" t="s">
+      <c r="A166" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B166" s="92"/>
-      <c r="C166" s="92"/>
+      <c r="B166" s="68"/>
+      <c r="C166" s="68"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="90">
+      <c r="E166" s="133">
         <f t="array" ref="E166">SUM(E160:E165)</f>
-        <v>26082.3183005102</v>
-      </c>
-      <c r="F166" s="91"/>
+        <v>32174.681550510206</v>
+      </c>
+      <c r="F166" s="134"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="90">
+      <c r="H166" s="133">
         <f t="array" ref="H166">SUM(H160:H165)</f>
-        <v>1664.091374391837</v>
-      </c>
-      <c r="I166" s="91"/>
+        <v>1479.2923111418365</v>
+      </c>
+      <c r="I166" s="134"/>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="72" t="s">
+      <c r="A169" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="72"/>
-      <c r="C169" s="72"/>
-      <c r="D169" s="72"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="72"/>
-      <c r="G169" s="72"/>
-      <c r="H169" s="72"/>
-      <c r="I169" s="72"/>
-      <c r="J169" s="72"/>
+      <c r="B169" s="75"/>
+      <c r="C169" s="75"/>
+      <c r="D169" s="75"/>
+      <c r="E169" s="75"/>
+      <c r="F169" s="75"/>
+      <c r="G169" s="75"/>
+      <c r="H169" s="75"/>
+      <c r="I169" s="75"/>
+      <c r="J169" s="75"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="B171" s="72" t="s">
+      <c r="B171" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="C171" s="72"/>
-      <c r="D171" s="72"/>
-      <c r="E171" s="72"/>
-      <c r="F171" s="72"/>
-      <c r="G171" s="72"/>
-      <c r="H171" s="72"/>
-      <c r="I171" s="72"/>
-      <c r="J171" s="72"/>
+      <c r="C171" s="75"/>
+      <c r="D171" s="75"/>
+      <c r="E171" s="75"/>
+      <c r="F171" s="75"/>
+      <c r="G171" s="75"/>
+      <c r="H171" s="75"/>
+      <c r="I171" s="75"/>
+      <c r="J171" s="75"/>
     </row>
     <row r="173" spans="1:10">
-      <c r="B173" s="72" t="s">
+      <c r="B173" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="C173" s="72"/>
-      <c r="D173" s="72"/>
-      <c r="E173" s="72"/>
+      <c r="C173" s="75"/>
+      <c r="D173" s="75"/>
+      <c r="E173" s="75"/>
     </row>
     <row r="175" spans="1:10">
       <c r="C175" s="2" t="s">
@@ -5415,11 +5418,11 @@
       </c>
     </row>
     <row r="177" spans="2:13">
-      <c r="B177" s="72" t="s">
+      <c r="B177" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="C177" s="72"/>
-      <c r="D177" s="72"/>
+      <c r="C177" s="75"/>
+      <c r="D177" s="75"/>
     </row>
     <row r="179" spans="2:13">
       <c r="C179" s="2" t="s">
@@ -5440,37 +5443,37 @@
       </c>
     </row>
     <row r="181" spans="2:13">
-      <c r="B181" s="72" t="s">
+      <c r="B181" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="C181" s="72"/>
-      <c r="D181" s="72"/>
-      <c r="E181" s="72"/>
-      <c r="F181" s="72"/>
-      <c r="G181" s="72"/>
-      <c r="H181" s="72"/>
-      <c r="I181" s="72"/>
-      <c r="J181" s="72"/>
-      <c r="M181" s="101" t="s">
+      <c r="C181" s="75"/>
+      <c r="D181" s="75"/>
+      <c r="E181" s="75"/>
+      <c r="F181" s="75"/>
+      <c r="G181" s="75"/>
+      <c r="H181" s="75"/>
+      <c r="I181" s="75"/>
+      <c r="J181" s="75"/>
+      <c r="M181" s="122" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="182" spans="2:13">
-      <c r="M182" s="101"/>
+      <c r="M182" s="122"/>
     </row>
     <row r="183" spans="2:13">
-      <c r="C183" s="72" t="s">
+      <c r="C183" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="D183" s="72"/>
-      <c r="E183" s="72"/>
-      <c r="F183" s="72"/>
-      <c r="G183" s="72"/>
-      <c r="H183" s="72"/>
-      <c r="M183" s="101"/>
+      <c r="D183" s="75"/>
+      <c r="E183" s="75"/>
+      <c r="F183" s="75"/>
+      <c r="G183" s="75"/>
+      <c r="H183" s="75"/>
+      <c r="M183" s="122"/>
     </row>
     <row r="184" spans="2:13">
-      <c r="M184" s="101"/>
+      <c r="M184" s="122"/>
     </row>
     <row r="185" spans="2:13">
       <c r="D185" s="2" t="s">
@@ -5486,10 +5489,10 @@
       <c r="H185" s="2">
         <v>1</v>
       </c>
-      <c r="M185" s="101"/>
+      <c r="M185" s="122"/>
     </row>
     <row r="186" spans="2:13">
-      <c r="M186" s="101"/>
+      <c r="M186" s="122"/>
     </row>
     <row r="187" spans="2:13">
       <c r="D187" s="2" t="s">
@@ -5508,27 +5511,27 @@
       <c r="I187" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M187" s="101"/>
+      <c r="M187" s="122"/>
     </row>
     <row r="188" spans="2:13">
-      <c r="M188" s="101"/>
+      <c r="M188" s="122"/>
     </row>
     <row r="189" spans="2:13">
-      <c r="C189" s="72" t="s">
+      <c r="C189" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="D189" s="72"/>
-      <c r="E189" s="72"/>
-      <c r="F189" s="72"/>
-      <c r="G189" s="72"/>
-      <c r="H189" s="72"/>
+      <c r="D189" s="75"/>
+      <c r="E189" s="75"/>
+      <c r="F189" s="75"/>
+      <c r="G189" s="75"/>
+      <c r="H189" s="75"/>
       <c r="K189" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="M189" s="101"/>
+      <c r="M189" s="122"/>
     </row>
     <row r="190" spans="2:13">
-      <c r="M190" s="101"/>
+      <c r="M190" s="122"/>
     </row>
     <row r="191" spans="2:13">
       <c r="D191" s="2" t="s">
@@ -5553,7 +5556,7 @@
       <c r="K191" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M191" s="101"/>
+      <c r="M191" s="122"/>
     </row>
     <row r="192" spans="2:13">
       <c r="G192" s="2" t="s">
@@ -5562,7 +5565,7 @@
       <c r="H192" s="2">
         <v>8</v>
       </c>
-      <c r="M192" s="101"/>
+      <c r="M192" s="122"/>
     </row>
     <row r="193" spans="3:13">
       <c r="G193" s="2" t="s">
@@ -5581,7 +5584,7 @@
       <c r="K193" s="2">
         <v>0.9</v>
       </c>
-      <c r="M193" s="101"/>
+      <c r="M193" s="122"/>
     </row>
     <row r="194" spans="3:13">
       <c r="G194" s="2" t="s">
@@ -5590,21 +5593,21 @@
       <c r="H194" s="2">
         <v>1</v>
       </c>
-      <c r="M194" s="101"/>
+      <c r="M194" s="122"/>
     </row>
     <row r="195" spans="3:13">
-      <c r="C195" s="72" t="s">
+      <c r="C195" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="D195" s="72"/>
-      <c r="E195" s="72"/>
-      <c r="F195" s="72"/>
-      <c r="G195" s="72"/>
-      <c r="H195" s="72"/>
-      <c r="M195" s="101"/>
+      <c r="D195" s="75"/>
+      <c r="E195" s="75"/>
+      <c r="F195" s="75"/>
+      <c r="G195" s="75"/>
+      <c r="H195" s="75"/>
+      <c r="M195" s="122"/>
     </row>
     <row r="196" spans="3:13">
-      <c r="M196" s="101"/>
+      <c r="M196" s="122"/>
     </row>
     <row r="197" spans="3:13">
       <c r="D197" s="2" t="s">
@@ -5629,7 +5632,7 @@
       <c r="K197" s="2">
         <v>3</v>
       </c>
-      <c r="M197" s="101"/>
+      <c r="M197" s="122"/>
     </row>
     <row r="198" spans="3:13">
       <c r="G198" s="2" t="s">
@@ -5638,39 +5641,39 @@
       <c r="H198" s="2">
         <v>2</v>
       </c>
-      <c r="M198" s="101"/>
+      <c r="M198" s="122"/>
     </row>
     <row r="199" spans="3:13">
-      <c r="M199" s="101"/>
+      <c r="M199" s="122"/>
     </row>
     <row r="200" spans="3:13">
-      <c r="C200" s="140" t="s">
+      <c r="C200" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="D200" s="140"/>
-      <c r="E200" s="140"/>
-      <c r="F200" s="140"/>
-      <c r="G200" s="140"/>
-      <c r="H200" s="140"/>
-      <c r="M200" s="101"/>
+      <c r="D200" s="87"/>
+      <c r="E200" s="87"/>
+      <c r="F200" s="87"/>
+      <c r="G200" s="87"/>
+      <c r="H200" s="87"/>
+      <c r="M200" s="122"/>
     </row>
     <row r="201" spans="3:13">
-      <c r="C201" s="140"/>
-      <c r="D201" s="140"/>
-      <c r="E201" s="140"/>
-      <c r="F201" s="140"/>
-      <c r="G201" s="140"/>
-      <c r="H201" s="140"/>
-      <c r="M201" s="101"/>
+      <c r="C201" s="87"/>
+      <c r="D201" s="87"/>
+      <c r="E201" s="87"/>
+      <c r="F201" s="87"/>
+      <c r="G201" s="87"/>
+      <c r="H201" s="87"/>
+      <c r="M201" s="122"/>
     </row>
     <row r="202" spans="3:13">
-      <c r="M202" s="101"/>
+      <c r="M202" s="122"/>
     </row>
     <row r="203" spans="3:13">
       <c r="G203" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M203" s="101"/>
+      <c r="M203" s="122"/>
     </row>
     <row r="204" spans="3:13">
       <c r="D204" s="2" t="s">
@@ -5682,7 +5685,7 @@
       <c r="K204" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M204" s="101"/>
+      <c r="M204" s="122"/>
     </row>
     <row r="205" spans="3:13">
       <c r="D205" s="2" t="s">
@@ -5694,7 +5697,7 @@
       <c r="K205" s="2">
         <v>2</v>
       </c>
-      <c r="M205" s="101"/>
+      <c r="M205" s="122"/>
     </row>
     <row r="206" spans="3:13">
       <c r="D206" s="2" t="s">
@@ -5706,7 +5709,7 @@
       <c r="K206" s="2">
         <v>2</v>
       </c>
-      <c r="M206" s="101"/>
+      <c r="M206" s="122"/>
     </row>
     <row r="207" spans="3:13">
       <c r="D207" s="2" t="s">
@@ -5721,7 +5724,7 @@
       <c r="K207" s="2">
         <v>2</v>
       </c>
-      <c r="M207" s="101"/>
+      <c r="M207" s="122"/>
     </row>
     <row r="208" spans="3:13">
       <c r="D208" s="2" t="s">
@@ -5733,42 +5736,42 @@
       <c r="G208" s="2">
         <v>1</v>
       </c>
-      <c r="M208" s="101"/>
+      <c r="M208" s="122"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="B210" s="72" t="s">
+      <c r="B210" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="C210" s="72"/>
-      <c r="D210" s="72"/>
-      <c r="E210" s="72"/>
-      <c r="F210" s="72"/>
-      <c r="G210" s="72"/>
-      <c r="H210" s="72"/>
-      <c r="I210" s="72"/>
+      <c r="C210" s="75"/>
+      <c r="D210" s="75"/>
+      <c r="E210" s="75"/>
+      <c r="F210" s="75"/>
+      <c r="G210" s="75"/>
+      <c r="H210" s="75"/>
+      <c r="I210" s="75"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="100" t="s">
+      <c r="A212" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="B212" s="100"/>
-      <c r="C212" s="100"/>
-      <c r="D212" s="100"/>
+      <c r="B212" s="145"/>
+      <c r="C212" s="145"/>
+      <c r="D212" s="145"/>
       <c r="E212" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F212" s="99" t="s">
+      <c r="F212" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="G212" s="99"/>
+      <c r="G212" s="82"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="92" t="s">
+      <c r="A213" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="B213" s="92"/>
-      <c r="C213" s="92"/>
-      <c r="D213" s="92"/>
+      <c r="B213" s="68"/>
+      <c r="C213" s="68"/>
+      <c r="D213" s="68"/>
       <c r="E213" s="4">
         <f t="array" ref="E213">E179</f>
         <v>34</v>
@@ -5780,34 +5783,34 @@
       <c r="G213" s="89"/>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="93" t="s">
+      <c r="A214" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="B214" s="93"/>
-      <c r="C214" s="93"/>
-      <c r="D214" s="93"/>
+      <c r="B214" s="141"/>
+      <c r="C214" s="141"/>
+      <c r="D214" s="141"/>
       <c r="E214" s="29"/>
       <c r="F214" s="30"/>
       <c r="G214" s="31"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="94" t="s">
+      <c r="A215" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="B215" s="94"/>
-      <c r="C215" s="94"/>
-      <c r="D215" s="94"/>
+      <c r="B215" s="142"/>
+      <c r="C215" s="142"/>
+      <c r="D215" s="142"/>
       <c r="E215" s="32"/>
       <c r="F215" s="33"/>
       <c r="G215" s="34"/>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="92" t="s">
+      <c r="A216" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="B216" s="92"/>
-      <c r="C216" s="92"/>
-      <c r="D216" s="92"/>
+      <c r="B216" s="68"/>
+      <c r="C216" s="68"/>
+      <c r="D216" s="68"/>
       <c r="E216" s="4">
         <v>2</v>
       </c>
@@ -5822,12 +5825,12 @@
       </c>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="92" t="s">
+      <c r="A217" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="B217" s="92"/>
-      <c r="C217" s="92"/>
-      <c r="D217" s="92"/>
+      <c r="B217" s="68"/>
+      <c r="C217" s="68"/>
+      <c r="D217" s="68"/>
       <c r="E217" s="4">
         <v>6</v>
       </c>
@@ -5838,12 +5841,12 @@
       <c r="G217" s="89"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="92" t="s">
+      <c r="A218" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B218" s="92"/>
-      <c r="C218" s="92"/>
-      <c r="D218" s="92"/>
+      <c r="B218" s="68"/>
+      <c r="C218" s="68"/>
+      <c r="D218" s="68"/>
       <c r="E218" s="4">
         <v>1</v>
       </c>
@@ -5854,12 +5857,12 @@
       <c r="G218" s="89"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="123" t="s">
+      <c r="A219" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B219" s="123"/>
-      <c r="C219" s="123"/>
-      <c r="D219" s="123"/>
+      <c r="B219" s="110"/>
+      <c r="C219" s="110"/>
+      <c r="D219" s="110"/>
       <c r="E219" s="4">
         <f t="array" ref="E219">E213+SUM(E216:E218)</f>
         <v>43</v>
@@ -5874,606 +5877,606 @@
       </c>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="72" t="s">
+      <c r="A222" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="72"/>
-      <c r="C222" s="72"/>
-      <c r="D222" s="72"/>
-      <c r="E222" s="72"/>
-      <c r="F222" s="72"/>
-      <c r="G222" s="72"/>
-      <c r="H222" s="72"/>
-      <c r="I222" s="72"/>
+      <c r="B222" s="75"/>
+      <c r="C222" s="75"/>
+      <c r="D222" s="75"/>
+      <c r="E222" s="75"/>
+      <c r="F222" s="75"/>
+      <c r="G222" s="75"/>
+      <c r="H222" s="75"/>
+      <c r="I222" s="75"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="99" t="s">
+      <c r="A224" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="B224" s="99"/>
-      <c r="C224" s="99"/>
-      <c r="D224" s="99"/>
+      <c r="B224" s="82"/>
+      <c r="C224" s="82"/>
+      <c r="D224" s="82"/>
       <c r="E224" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F224" s="99" t="s">
+      <c r="F224" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="G224" s="99"/>
-      <c r="H224" s="99" t="s">
+      <c r="G224" s="82"/>
+      <c r="H224" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="I224" s="99"/>
+      <c r="I224" s="82"/>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="87" t="s">
+      <c r="A225" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="B225" s="87"/>
-      <c r="C225" s="87"/>
-      <c r="D225" s="87"/>
+      <c r="B225" s="71"/>
+      <c r="C225" s="71"/>
+      <c r="D225" s="71"/>
       <c r="E225" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F225" s="102">
+      <c r="F225" s="73">
         <f>H225*$M$2</f>
         <v>11456.1789804</v>
       </c>
-      <c r="G225" s="103"/>
-      <c r="H225" s="68">
+      <c r="G225" s="74"/>
+      <c r="H225" s="76">
         <f>I266</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="I225" s="69"/>
+      <c r="I225" s="77"/>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="87" t="s">
+      <c r="A226" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="B226" s="87"/>
-      <c r="C226" s="87"/>
-      <c r="D226" s="87"/>
+      <c r="B226" s="71"/>
+      <c r="C226" s="71"/>
+      <c r="D226" s="71"/>
       <c r="E226" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F226" s="102">
+      <c r="F226" s="73">
         <f t="array" ref="F226">H226*$M$2</f>
         <v>425437.42500000005</v>
       </c>
-      <c r="G226" s="103"/>
-      <c r="H226" s="68">
+      <c r="G226" s="74"/>
+      <c r="H226" s="76">
         <f>H292</f>
         <v>32.865000000000002</v>
       </c>
-      <c r="I226" s="69"/>
+      <c r="I226" s="77"/>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="87" t="s">
+      <c r="A227" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="B227" s="87"/>
-      <c r="C227" s="87"/>
-      <c r="D227" s="87"/>
+      <c r="B227" s="71"/>
+      <c r="C227" s="71"/>
+      <c r="D227" s="71"/>
       <c r="E227" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F227" s="102">
+      <c r="F227" s="73">
         <f t="array" ref="F227">H227*$M$2</f>
         <v>6243.2375775</v>
       </c>
-      <c r="G227" s="103"/>
-      <c r="H227" s="68">
+      <c r="G227" s="74"/>
+      <c r="H227" s="76">
         <f>H309</f>
         <v>0.48228949999999998</v>
       </c>
-      <c r="I227" s="69"/>
+      <c r="I227" s="77"/>
       <c r="M227" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="87" t="s">
+      <c r="A228" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="B228" s="87"/>
-      <c r="C228" s="87"/>
-      <c r="D228" s="87"/>
+      <c r="B228" s="71"/>
+      <c r="C228" s="71"/>
+      <c r="D228" s="71"/>
       <c r="E228" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F228" s="102">
+      <c r="F228" s="73">
         <f t="array" ref="F228">H228*$M$2</f>
         <v>1872.9712732499997</v>
       </c>
-      <c r="G228" s="103"/>
-      <c r="H228" s="68">
+      <c r="G228" s="74"/>
+      <c r="H228" s="76">
         <f t="array" ref="H228">D315</f>
         <v>0.14468684999999998</v>
       </c>
-      <c r="I228" s="69"/>
+      <c r="I228" s="77"/>
       <c r="N228" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="87" t="s">
+      <c r="A229" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="B229" s="87"/>
-      <c r="C229" s="87"/>
-      <c r="D229" s="87"/>
+      <c r="B229" s="71"/>
+      <c r="C229" s="71"/>
+      <c r="D229" s="71"/>
       <c r="E229" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F229" s="102">
+      <c r="F229" s="73">
         <f>H229*$M$2</f>
         <v>14609.175931349999</v>
       </c>
-      <c r="G229" s="103"/>
-      <c r="H229" s="68">
+      <c r="G229" s="74"/>
+      <c r="H229" s="76">
         <f>D322</f>
         <v>1.1285574299999999</v>
       </c>
-      <c r="I229" s="69"/>
+      <c r="I229" s="77"/>
       <c r="N229" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="87" t="s">
+      <c r="A230" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="B230" s="87"/>
-      <c r="C230" s="87"/>
-      <c r="D230" s="87"/>
+      <c r="B230" s="71"/>
+      <c r="C230" s="71"/>
+      <c r="D230" s="71"/>
       <c r="E230" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F230" s="102">
+      <c r="F230" s="73">
         <f>H230*$M$2</f>
         <v>7953.8846737350004</v>
       </c>
-      <c r="G230" s="103"/>
-      <c r="H230" s="68">
+      <c r="G230" s="74"/>
+      <c r="H230" s="76">
         <f>C349</f>
         <v>0.61443682300000002</v>
       </c>
-      <c r="I230" s="69"/>
+      <c r="I230" s="77"/>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="87" t="s">
+      <c r="A231" s="71" t="s">
         <v>437</v>
       </c>
-      <c r="B231" s="87"/>
-      <c r="C231" s="87"/>
-      <c r="D231" s="87"/>
+      <c r="B231" s="71"/>
+      <c r="C231" s="71"/>
+      <c r="D231" s="71"/>
       <c r="E231" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F231" s="102">
+      <c r="F231" s="73">
         <f t="shared" ref="F231:F238" si="2">H231*$M$2</f>
         <v>1136.269239105</v>
       </c>
-      <c r="G231" s="103"/>
-      <c r="H231" s="68">
+      <c r="G231" s="74"/>
+      <c r="H231" s="76">
         <f>C354</f>
         <v>8.7776689000000005E-2</v>
       </c>
-      <c r="I231" s="69"/>
+      <c r="I231" s="77"/>
       <c r="N231" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="87" t="s">
+      <c r="A232" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="B232" s="87"/>
-      <c r="C232" s="87"/>
-      <c r="D232" s="87"/>
+      <c r="B232" s="71"/>
+      <c r="C232" s="71"/>
+      <c r="D232" s="71"/>
       <c r="E232" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F232" s="102">
+      <c r="F232" s="73">
         <f>C359</f>
         <v>6.9746159662903446</v>
       </c>
-      <c r="G232" s="103"/>
-      <c r="H232" s="68">
+      <c r="G232" s="74"/>
+      <c r="H232" s="76">
         <f>F232/$M$2</f>
         <v>5.387884099104167E-4</v>
       </c>
-      <c r="I232" s="69"/>
+      <c r="I232" s="77"/>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="87" t="s">
+      <c r="A233" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="B233" s="87"/>
-      <c r="C233" s="87"/>
-      <c r="D233" s="87"/>
+      <c r="B233" s="71"/>
+      <c r="C233" s="71"/>
+      <c r="D233" s="71"/>
       <c r="E233" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F233" s="102">
+      <c r="F233" s="73">
         <f t="shared" si="2"/>
         <v>624.32375775000003</v>
       </c>
-      <c r="G233" s="103"/>
-      <c r="H233" s="68">
+      <c r="G233" s="74"/>
+      <c r="H233" s="76">
         <f>C370</f>
         <v>4.822895E-2</v>
       </c>
-      <c r="I233" s="69"/>
+      <c r="I233" s="77"/>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="87" t="s">
+      <c r="A234" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="B234" s="87"/>
-      <c r="C234" s="87"/>
-      <c r="D234" s="87"/>
+      <c r="B234" s="71"/>
+      <c r="C234" s="71"/>
+      <c r="D234" s="71"/>
       <c r="E234" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F234" s="102">
+      <c r="F234" s="73">
         <f t="shared" si="2"/>
         <v>936.48563662499987</v>
       </c>
-      <c r="G234" s="103"/>
-      <c r="H234" s="68">
+      <c r="G234" s="74"/>
+      <c r="H234" s="76">
         <f>C375</f>
         <v>7.2343424999999989E-2</v>
       </c>
-      <c r="I234" s="69"/>
+      <c r="I234" s="77"/>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="87" t="s">
+      <c r="A235" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="B235" s="87"/>
-      <c r="C235" s="87"/>
-      <c r="D235" s="87"/>
+      <c r="B235" s="71"/>
+      <c r="C235" s="71"/>
+      <c r="D235" s="71"/>
       <c r="E235" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F235" s="102">
+      <c r="F235" s="73">
         <f t="shared" si="2"/>
-        <v>1664.091374391837</v>
-      </c>
-      <c r="G235" s="103"/>
-      <c r="H235" s="68">
+        <v>1479.2923111418365</v>
+      </c>
+      <c r="G235" s="74"/>
+      <c r="H235" s="76">
         <f>C380</f>
-        <v>0.12855089798314692</v>
-      </c>
-      <c r="I235" s="69"/>
+        <v>0.11427518819172164</v>
+      </c>
+      <c r="I235" s="77"/>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="87" t="s">
+      <c r="A236" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="B236" s="87"/>
-      <c r="C236" s="87"/>
-      <c r="D236" s="87"/>
+      <c r="B236" s="71"/>
+      <c r="C236" s="71"/>
+      <c r="D236" s="71"/>
       <c r="E236" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F236" s="102">
+      <c r="F236" s="73">
         <f t="shared" si="2"/>
         <v>4994.5900620000002</v>
       </c>
-      <c r="G236" s="103"/>
-      <c r="H236" s="68">
+      <c r="G236" s="74"/>
+      <c r="H236" s="76">
         <f>C384</f>
         <v>0.3858316</v>
       </c>
-      <c r="I236" s="69"/>
+      <c r="I236" s="77"/>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="87" t="s">
+      <c r="A237" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="B237" s="87"/>
-      <c r="C237" s="87"/>
-      <c r="D237" s="87"/>
+      <c r="B237" s="71"/>
+      <c r="C237" s="71"/>
+      <c r="D237" s="71"/>
       <c r="E237" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F237" s="102">
+      <c r="F237" s="73">
         <f t="shared" si="2"/>
         <v>3745.9425464999995</v>
       </c>
-      <c r="G237" s="103"/>
-      <c r="H237" s="68">
+      <c r="G237" s="74"/>
+      <c r="H237" s="76">
         <f>C389</f>
         <v>0.28937369999999996</v>
       </c>
-      <c r="I237" s="69"/>
+      <c r="I237" s="77"/>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="87" t="s">
+      <c r="A238" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="B238" s="87"/>
-      <c r="C238" s="87"/>
-      <c r="D238" s="87"/>
+      <c r="B238" s="71"/>
+      <c r="C238" s="71"/>
+      <c r="D238" s="71"/>
       <c r="E238" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F238" s="102">
+      <c r="F238" s="73">
         <f t="shared" si="2"/>
-        <v>3364.7708546800127</v>
-      </c>
-      <c r="G238" s="103"/>
-      <c r="H238" s="68">
+        <v>3363.4772612372626</v>
+      </c>
+      <c r="G238" s="74"/>
+      <c r="H238" s="76">
         <f>C394</f>
-        <v>0.25992822361375145</v>
-      </c>
-      <c r="I238" s="69"/>
+        <v>0.25982829364521148</v>
+      </c>
+      <c r="I238" s="77"/>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="124" t="s">
+      <c r="A239" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="B239" s="124"/>
-      <c r="C239" s="124"/>
-      <c r="D239" s="124"/>
+      <c r="B239" s="72"/>
+      <c r="C239" s="72"/>
+      <c r="D239" s="72"/>
       <c r="E239" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F239" s="102">
+      <c r="F239" s="73">
         <f>SUM(F225:F238)</f>
-        <v>484046.32152325311</v>
-      </c>
-      <c r="G239" s="103"/>
-      <c r="H239" s="68">
+        <v>483860.22886656038</v>
+      </c>
+      <c r="G239" s="74"/>
+      <c r="H239" s="76">
         <f t="array" ref="H239">SUM(H225:H238)</f>
-        <v>37.392531597006816</v>
-      </c>
-      <c r="I239" s="69"/>
+        <v>37.378155957246854</v>
+      </c>
+      <c r="I239" s="77"/>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="87" t="s">
+      <c r="A240" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="B240" s="87"/>
-      <c r="C240" s="87"/>
-      <c r="D240" s="87"/>
+      <c r="B240" s="71"/>
+      <c r="C240" s="71"/>
+      <c r="D240" s="71"/>
       <c r="E240" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F240" s="102">
+      <c r="F240" s="73">
         <f>C398*$M$2</f>
-        <v>4840.4632152325321</v>
-      </c>
-      <c r="G240" s="103"/>
-      <c r="H240" s="68">
+        <v>4838.6022886656056</v>
+      </c>
+      <c r="G240" s="74"/>
+      <c r="H240" s="76">
         <f>C398</f>
-        <v>0.37392531597006817</v>
-      </c>
-      <c r="I240" s="69"/>
+        <v>0.37378155957246856</v>
+      </c>
+      <c r="I240" s="77"/>
     </row>
     <row r="241" spans="1:12">
-      <c r="A241" s="124" t="s">
+      <c r="A241" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="B241" s="124"/>
-      <c r="C241" s="124"/>
-      <c r="D241" s="124"/>
+      <c r="B241" s="72"/>
+      <c r="C241" s="72"/>
+      <c r="D241" s="72"/>
       <c r="E241" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F241" s="102">
+      <c r="F241" s="73">
         <f>SUM(F239:F240)</f>
-        <v>488886.78473848564</v>
-      </c>
-      <c r="G241" s="103"/>
-      <c r="H241" s="68">
+        <v>488698.83115522598</v>
+      </c>
+      <c r="G241" s="74"/>
+      <c r="H241" s="76">
         <f>SUM(H239:H240)</f>
-        <v>37.766456912976885</v>
-      </c>
-      <c r="I241" s="69"/>
+        <v>37.751937516819325</v>
+      </c>
+      <c r="I241" s="77"/>
     </row>
     <row r="242" spans="1:12">
-      <c r="A242" s="87" t="s">
+      <c r="A242" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="B242" s="87"/>
-      <c r="C242" s="87"/>
-      <c r="D242" s="87"/>
+      <c r="B242" s="71"/>
+      <c r="C242" s="71"/>
+      <c r="D242" s="71"/>
       <c r="E242" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F242" s="102">
+      <c r="F242" s="73">
         <f>H242*M2</f>
-        <v>246863.62397685918</v>
-      </c>
-      <c r="G242" s="103"/>
-      <c r="H242" s="68">
+        <v>246768.71672194591</v>
+      </c>
+      <c r="G242" s="74"/>
+      <c r="H242" s="76">
         <f>C402</f>
-        <v>19.070191114473477</v>
-      </c>
-      <c r="I242" s="69"/>
+        <v>19.062859538195898</v>
+      </c>
+      <c r="I242" s="77"/>
     </row>
     <row r="243" spans="1:12">
-      <c r="A243" s="87" t="s">
+      <c r="A243" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="B243" s="87"/>
-      <c r="C243" s="87"/>
-      <c r="D243" s="87"/>
+      <c r="B243" s="71"/>
+      <c r="C243" s="71"/>
+      <c r="D243" s="71"/>
       <c r="E243" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F243" s="102">
+      <c r="F243" s="73">
         <f>SUM(F241:F242)</f>
-        <v>735750.40871534485</v>
-      </c>
-      <c r="G243" s="103"/>
-      <c r="H243" s="68">
+        <v>735467.54787717189</v>
+      </c>
+      <c r="G243" s="74"/>
+      <c r="H243" s="76">
         <f>SUM(H241:H242)</f>
-        <v>56.836648027450366</v>
-      </c>
-      <c r="I243" s="69"/>
+        <v>56.814797055015219</v>
+      </c>
+      <c r="I243" s="77"/>
     </row>
     <row r="244" spans="1:12">
-      <c r="A244" s="75" t="s">
+      <c r="A244" s="146" t="s">
         <v>442</v>
       </c>
-      <c r="B244" s="76"/>
-      <c r="C244" s="76"/>
-      <c r="D244" s="77"/>
+      <c r="B244" s="147"/>
+      <c r="C244" s="147"/>
+      <c r="D244" s="148"/>
       <c r="E244" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F244" s="102">
+      <c r="F244" s="73">
         <f>H244*M2</f>
-        <v>18989.509536681475</v>
-      </c>
-      <c r="G244" s="103"/>
-      <c r="H244" s="68">
+        <v>18982.208978611223</v>
+      </c>
+      <c r="G244" s="74"/>
+      <c r="H244" s="76">
         <f>C406</f>
-        <v>1.4669377780364214</v>
-      </c>
-      <c r="I244" s="69"/>
+        <v>1.4663738106304538</v>
+      </c>
+      <c r="I244" s="77"/>
     </row>
     <row r="245" spans="1:12">
-      <c r="A245" s="78" t="s">
+      <c r="A245" s="151" t="s">
         <v>443</v>
       </c>
-      <c r="B245" s="79"/>
-      <c r="C245" s="79"/>
-      <c r="D245" s="80"/>
+      <c r="B245" s="108"/>
+      <c r="C245" s="108"/>
+      <c r="D245" s="152"/>
       <c r="E245" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F245" s="102">
+      <c r="F245" s="73">
         <f>H245*M2</f>
-        <v>15501.640438107328</v>
-      </c>
-      <c r="G245" s="103"/>
-      <c r="H245" s="68">
+        <v>15495.680798866304</v>
+      </c>
+      <c r="G245" s="74"/>
+      <c r="H245" s="76">
         <f>C410</f>
-        <v>1.1975002269685073</v>
-      </c>
-      <c r="I245" s="69"/>
+        <v>1.1970398454126152</v>
+      </c>
+      <c r="I245" s="77"/>
     </row>
     <row r="246" spans="1:12" s="17" customFormat="1">
-      <c r="A246" s="79" t="s">
+      <c r="A246" s="108" t="s">
         <v>446</v>
       </c>
-      <c r="B246" s="79"/>
-      <c r="C246" s="79"/>
-      <c r="D246" s="79"/>
+      <c r="B246" s="108"/>
+      <c r="C246" s="108"/>
+      <c r="D246" s="108"/>
       <c r="E246" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F246" s="146">
+      <c r="F246" s="109">
         <f>C419</f>
-        <v>735753.07315334992</v>
-      </c>
-      <c r="G246" s="146"/>
-      <c r="H246" s="68">
+        <v>735470.21129082795</v>
+      </c>
+      <c r="G246" s="109"/>
+      <c r="H246" s="76">
         <f>F246/$M$2</f>
-        <v>56.836853855028963</v>
-      </c>
-      <c r="I246" s="69"/>
+        <v>56.815002803462953</v>
+      </c>
+      <c r="I246" s="77"/>
     </row>
     <row r="247" spans="1:12">
-      <c r="A247" s="87" t="s">
+      <c r="A247" s="71" t="s">
         <v>447</v>
       </c>
-      <c r="B247" s="87"/>
-      <c r="C247" s="87"/>
-      <c r="D247" s="87"/>
+      <c r="B247" s="71"/>
+      <c r="C247" s="71"/>
+      <c r="D247" s="71"/>
       <c r="E247" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F247" s="102">
+      <c r="F247" s="73">
         <f>H247*$M$2</f>
-        <v>133306.35694750395</v>
-      </c>
-      <c r="G247" s="103"/>
-      <c r="H247" s="68">
+        <v>133255.10702985077</v>
+      </c>
+      <c r="G247" s="74"/>
+      <c r="H247" s="76">
         <f>C423</f>
-        <v>10.297903201815679</v>
-      </c>
-      <c r="I247" s="69"/>
+        <v>10.293944150625784</v>
+      </c>
+      <c r="I247" s="77"/>
     </row>
     <row r="248" spans="1:12">
-      <c r="A248" s="87" t="s">
+      <c r="A248" s="71" t="s">
         <v>448</v>
       </c>
-      <c r="B248" s="87"/>
-      <c r="C248" s="87"/>
-      <c r="D248" s="87"/>
+      <c r="B248" s="71"/>
+      <c r="C248" s="71"/>
+      <c r="D248" s="71"/>
       <c r="E248" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F248" s="102">
+      <c r="F248" s="73">
         <f>H248*$M$2</f>
-        <v>902780.27288337401</v>
-      </c>
-      <c r="G248" s="103"/>
-      <c r="H248" s="68">
+        <v>902433.19705215609</v>
+      </c>
+      <c r="G248" s="74"/>
+      <c r="H248" s="76">
         <f>C428</f>
-        <v>69.739688905629507</v>
-      </c>
-      <c r="I248" s="69"/>
+        <v>69.712877331182398</v>
+      </c>
+      <c r="I248" s="77"/>
     </row>
     <row r="251" spans="1:12">
-      <c r="B251" s="72" t="s">
+      <c r="B251" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="C251" s="72"/>
-      <c r="D251" s="72"/>
-      <c r="E251" s="72"/>
-      <c r="F251" s="72"/>
-      <c r="G251" s="72"/>
-      <c r="H251" s="72"/>
-      <c r="I251" s="72"/>
-      <c r="J251" s="72"/>
-      <c r="K251" s="72"/>
-      <c r="L251" s="72"/>
+      <c r="C251" s="75"/>
+      <c r="D251" s="75"/>
+      <c r="E251" s="75"/>
+      <c r="F251" s="75"/>
+      <c r="G251" s="75"/>
+      <c r="H251" s="75"/>
+      <c r="I251" s="75"/>
+      <c r="J251" s="75"/>
+      <c r="K251" s="75"/>
+      <c r="L251" s="75"/>
     </row>
     <row r="253" spans="1:12">
-      <c r="B253" s="72" t="s">
+      <c r="B253" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="C253" s="72"/>
-      <c r="D253" s="72"/>
-      <c r="E253" s="72"/>
+      <c r="C253" s="75"/>
+      <c r="D253" s="75"/>
+      <c r="E253" s="75"/>
     </row>
     <row r="255" spans="1:12" ht="46.5" customHeight="1">
-      <c r="A255" s="99" t="s">
+      <c r="A255" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="B255" s="99"/>
+      <c r="B255" s="82"/>
       <c r="C255" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D255" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E255" s="99" t="s">
+      <c r="E255" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="F255" s="99"/>
-      <c r="G255" s="99" t="s">
+      <c r="F255" s="82"/>
+      <c r="G255" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="H255" s="99"/>
-      <c r="I255" s="99" t="s">
+      <c r="H255" s="82"/>
+      <c r="I255" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="J255" s="99"/>
+      <c r="J255" s="82"/>
     </row>
     <row r="256" spans="1:12">
-      <c r="A256" s="92" t="str">
+      <c r="A256" s="68" t="str">
         <f t="shared" ref="A256:A261" si="3">L7</f>
         <v>Провод</v>
       </c>
-      <c r="B256" s="92"/>
+      <c r="B256" s="68"/>
       <c r="C256" s="4" t="str">
         <f>M7</f>
         <v>НВ-020-61</v>
@@ -6481,28 +6484,28 @@
       <c r="D256" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E256" s="73">
+      <c r="E256" s="69">
         <f t="shared" ref="E256:E261" si="4">N7</f>
         <v>0.5</v>
       </c>
-      <c r="F256" s="74"/>
-      <c r="G256" s="73">
+      <c r="F256" s="70"/>
+      <c r="G256" s="69">
         <f t="shared" ref="G256:G261" si="5">O7</f>
         <v>1.4550000000000001</v>
       </c>
-      <c r="H256" s="74"/>
-      <c r="I256" s="68">
+      <c r="H256" s="70"/>
+      <c r="I256" s="76">
         <f t="array" ref="I256">E256*G256</f>
         <v>0.72750000000000004</v>
       </c>
-      <c r="J256" s="69"/>
+      <c r="J256" s="77"/>
     </row>
     <row r="257" spans="1:12">
-      <c r="A257" s="92" t="str">
+      <c r="A257" s="68" t="str">
         <f t="shared" si="3"/>
         <v>Флюс</v>
       </c>
-      <c r="B257" s="92"/>
+      <c r="B257" s="68"/>
       <c r="C257" s="4" t="str">
         <f>M8</f>
         <v>ФКСН</v>
@@ -6510,28 +6513,28 @@
       <c r="D257" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E257" s="73">
+      <c r="E257" s="69">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F257" s="74"/>
-      <c r="G257" s="73">
+      <c r="F257" s="70"/>
+      <c r="G257" s="69">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="H257" s="74"/>
-      <c r="I257" s="68">
+      <c r="H257" s="70"/>
+      <c r="I257" s="76">
         <f t="array" ref="I257">E257*G257</f>
         <v>3.5E-4</v>
       </c>
-      <c r="J257" s="69"/>
+      <c r="J257" s="77"/>
     </row>
     <row r="258" spans="1:12">
-      <c r="A258" s="92" t="str">
+      <c r="A258" s="68" t="str">
         <f t="shared" si="3"/>
         <v>олово</v>
       </c>
-      <c r="B258" s="92"/>
+      <c r="B258" s="68"/>
       <c r="C258" s="4" t="str">
         <f>M9</f>
         <v>-</v>
@@ -6539,28 +6542,28 @@
       <c r="D258" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E258" s="73">
+      <c r="E258" s="69">
         <f t="shared" si="4"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F258" s="74"/>
-      <c r="G258" s="73">
+      <c r="F258" s="70"/>
+      <c r="G258" s="69">
         <f t="shared" si="5"/>
         <v>4.45</v>
       </c>
-      <c r="H258" s="74"/>
-      <c r="I258" s="68">
+      <c r="H258" s="70"/>
+      <c r="I258" s="76">
         <f t="array" ref="I258">E258*G258</f>
         <v>1.3350000000000001E-2</v>
       </c>
-      <c r="J258" s="69"/>
+      <c r="J258" s="77"/>
     </row>
     <row r="259" spans="1:12">
-      <c r="A259" s="92" t="str">
+      <c r="A259" s="68" t="str">
         <f t="shared" si="3"/>
         <v>припой</v>
       </c>
-      <c r="B259" s="92"/>
+      <c r="B259" s="68"/>
       <c r="C259" s="4" t="str">
         <f>M10</f>
         <v>ПОС-61</v>
@@ -6568,28 +6571,28 @@
       <c r="D259" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E259" s="73">
+      <c r="E259" s="69">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="F259" s="74"/>
-      <c r="G259" s="73">
+      <c r="F259" s="70"/>
+      <c r="G259" s="69">
         <f t="shared" si="5"/>
         <v>1.3620000000000001</v>
       </c>
-      <c r="H259" s="74"/>
-      <c r="I259" s="68">
+      <c r="H259" s="70"/>
+      <c r="I259" s="76">
         <f t="array" ref="I259">E259*G259</f>
         <v>0.10896000000000002</v>
       </c>
-      <c r="J259" s="69"/>
+      <c r="J259" s="77"/>
     </row>
     <row r="260" spans="1:12">
-      <c r="A260" s="92" t="str">
+      <c r="A260" s="68" t="str">
         <f t="shared" si="3"/>
         <v>Спирт этиловый</v>
       </c>
-      <c r="B260" s="92"/>
+      <c r="B260" s="68"/>
       <c r="C260" s="4" t="str">
         <f>M11</f>
         <v>ГОСТ 18300-72</v>
@@ -6597,178 +6600,178 @@
       <c r="D260" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E260" s="73">
+      <c r="E260" s="69">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F260" s="74"/>
-      <c r="G260" s="73">
+      <c r="F260" s="70"/>
+      <c r="G260" s="69">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="H260" s="74"/>
-      <c r="I260" s="68">
+      <c r="H260" s="70"/>
+      <c r="I260" s="76">
         <f t="array" ref="I260">E260*G260</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J260" s="69"/>
+      <c r="J260" s="77"/>
     </row>
     <row r="261" spans="1:12">
-      <c r="A261" s="92">
+      <c r="A261" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B261" s="92"/>
+      <c r="B261" s="68"/>
       <c r="C261" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E261" s="73">
+      <c r="E261" s="69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F261" s="74"/>
-      <c r="G261" s="73">
+      <c r="F261" s="70"/>
+      <c r="G261" s="69">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H261" s="74"/>
-      <c r="I261" s="68">
+      <c r="H261" s="70"/>
+      <c r="I261" s="76">
         <f t="array" ref="I261">E261*G261</f>
         <v>0</v>
       </c>
-      <c r="J261" s="69"/>
+      <c r="J261" s="77"/>
     </row>
     <row r="262" spans="1:12">
-      <c r="A262" s="113" t="s">
+      <c r="A262" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B262" s="113"/>
+      <c r="B262" s="85"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
       <c r="E262" s="35"/>
       <c r="F262" s="36"/>
       <c r="G262" s="35"/>
       <c r="H262" s="36"/>
-      <c r="I262" s="70">
+      <c r="I262" s="120">
         <f>SUM(I256:I261)</f>
         <v>0.85136000000000001</v>
       </c>
-      <c r="J262" s="71"/>
+      <c r="J262" s="121"/>
     </row>
     <row r="263" spans="1:12">
-      <c r="A263" s="87" t="s">
+      <c r="A263" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="B263" s="87"/>
+      <c r="B263" s="71"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="37"/>
       <c r="F263" s="38"/>
       <c r="G263" s="37"/>
       <c r="H263" s="38"/>
-      <c r="I263" s="68">
+      <c r="I263" s="76">
         <f>0.05*I262</f>
         <v>4.2568000000000002E-2</v>
       </c>
-      <c r="J263" s="69"/>
+      <c r="J263" s="77"/>
     </row>
     <row r="264" spans="1:12">
-      <c r="A264" s="113" t="s">
+      <c r="A264" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="B264" s="113"/>
+      <c r="B264" s="85"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
       <c r="E264" s="35"/>
       <c r="F264" s="36"/>
       <c r="G264" s="35"/>
       <c r="H264" s="36"/>
-      <c r="I264" s="70">
+      <c r="I264" s="120">
         <f>SUM(I262:I263)</f>
         <v>0.89392800000000006</v>
       </c>
-      <c r="J264" s="71"/>
+      <c r="J264" s="121"/>
     </row>
     <row r="265" spans="1:12">
-      <c r="A265" s="87" t="s">
+      <c r="A265" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="B265" s="87"/>
+      <c r="B265" s="71"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="37"/>
       <c r="F265" s="38"/>
       <c r="G265" s="37"/>
       <c r="H265" s="38"/>
-      <c r="I265" s="68">
+      <c r="I265" s="76">
         <f>0.01*I264</f>
         <v>8.9392800000000008E-3</v>
       </c>
-      <c r="J265" s="69"/>
+      <c r="J265" s="77"/>
     </row>
     <row r="266" spans="1:12">
-      <c r="A266" s="124" t="s">
+      <c r="A266" s="72" t="s">
         <v>397</v>
       </c>
-      <c r="B266" s="124"/>
+      <c r="B266" s="72"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
       <c r="E266" s="35"/>
       <c r="F266" s="36"/>
       <c r="G266" s="35"/>
       <c r="H266" s="36"/>
-      <c r="I266" s="70">
+      <c r="I266" s="120">
         <f t="array" ref="I266">I264-I265</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="J266" s="71"/>
+      <c r="J266" s="121"/>
     </row>
     <row r="269" spans="1:12">
-      <c r="B269" s="72" t="s">
+      <c r="B269" s="75" t="s">
         <v>433</v>
       </c>
-      <c r="C269" s="72"/>
-      <c r="D269" s="72"/>
-      <c r="E269" s="72"/>
-      <c r="F269" s="72"/>
-      <c r="G269" s="72"/>
-      <c r="H269" s="72"/>
-      <c r="I269" s="72"/>
-      <c r="J269" s="72"/>
-      <c r="K269" s="72"/>
-      <c r="L269" s="72"/>
+      <c r="C269" s="75"/>
+      <c r="D269" s="75"/>
+      <c r="E269" s="75"/>
+      <c r="F269" s="75"/>
+      <c r="G269" s="75"/>
+      <c r="H269" s="75"/>
+      <c r="I269" s="75"/>
+      <c r="J269" s="75"/>
+      <c r="K269" s="75"/>
+      <c r="L269" s="75"/>
     </row>
     <row r="271" spans="1:12" ht="45" customHeight="1">
-      <c r="A271" s="99" t="s">
+      <c r="A271" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="B271" s="99"/>
-      <c r="C271" s="99"/>
+      <c r="B271" s="82"/>
+      <c r="C271" s="82"/>
       <c r="D271" s="14" t="s">
         <v>221</v>
       </c>
       <c r="E271" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F271" s="99" t="s">
+      <c r="F271" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="G271" s="99"/>
+      <c r="G271" s="82"/>
       <c r="H271" s="14" t="s">
         <v>234</v>
       </c>
       <c r="I271" s="39"/>
     </row>
     <row r="272" spans="1:12">
-      <c r="A272" s="92" t="str">
+      <c r="A272" s="68" t="str">
         <f>R7</f>
         <v>Трансформатор</v>
       </c>
-      <c r="B272" s="92"/>
-      <c r="C272" s="92"/>
+      <c r="B272" s="68"/>
+      <c r="C272" s="68"/>
       <c r="D272" s="4" t="s">
         <v>235</v>
       </c>
@@ -6787,12 +6790,12 @@
       </c>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="92" t="str">
+      <c r="A273" s="68" t="str">
         <f t="shared" ref="A273:A281" si="6">R8</f>
         <v>Реле</v>
       </c>
-      <c r="B273" s="92"/>
-      <c r="C273" s="92"/>
+      <c r="B273" s="68"/>
+      <c r="C273" s="68"/>
       <c r="D273" s="4" t="s">
         <v>235</v>
       </c>
@@ -6811,12 +6814,12 @@
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="92" t="str">
+      <c r="A274" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Вилка</v>
       </c>
-      <c r="B274" s="92"/>
-      <c r="C274" s="92"/>
+      <c r="B274" s="68"/>
+      <c r="C274" s="68"/>
       <c r="D274" s="4" t="s">
         <v>235</v>
       </c>
@@ -6835,12 +6838,12 @@
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="92" t="str">
+      <c r="A275" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Транзистор</v>
       </c>
-      <c r="B275" s="92"/>
-      <c r="C275" s="92"/>
+      <c r="B275" s="68"/>
+      <c r="C275" s="68"/>
       <c r="D275" s="4" t="s">
         <v>235</v>
       </c>
@@ -6859,12 +6862,12 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="92" t="str">
+      <c r="A276" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B276" s="92"/>
-      <c r="C276" s="92"/>
+      <c r="B276" s="68"/>
+      <c r="C276" s="68"/>
       <c r="D276" s="4" t="s">
         <v>235</v>
       </c>
@@ -6883,12 +6886,12 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="92" t="str">
+      <c r="A277" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Печатная плата</v>
       </c>
-      <c r="B277" s="92"/>
-      <c r="C277" s="92"/>
+      <c r="B277" s="68"/>
+      <c r="C277" s="68"/>
       <c r="D277" s="4" t="s">
         <v>235</v>
       </c>
@@ -6907,12 +6910,12 @@
       </c>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="92" t="str">
+      <c r="A278" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B278" s="92"/>
-      <c r="C278" s="92"/>
+      <c r="B278" s="68"/>
+      <c r="C278" s="68"/>
       <c r="D278" s="4" t="s">
         <v>235</v>
       </c>
@@ -6931,12 +6934,12 @@
       </c>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="92" t="str">
+      <c r="A279" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B279" s="92"/>
-      <c r="C279" s="92"/>
+      <c r="B279" s="68"/>
+      <c r="C279" s="68"/>
       <c r="D279" s="4" t="s">
         <v>235</v>
       </c>
@@ -6955,12 +6958,12 @@
       </c>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="92" t="str">
+      <c r="A280" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B280" s="92"/>
-      <c r="C280" s="92"/>
+      <c r="B280" s="68"/>
+      <c r="C280" s="68"/>
       <c r="D280" s="4" t="s">
         <v>235</v>
       </c>
@@ -6979,12 +6982,12 @@
       </c>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="92" t="str">
+      <c r="A281" s="68" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B281" s="92"/>
-      <c r="C281" s="92"/>
+      <c r="B281" s="68"/>
+      <c r="C281" s="68"/>
       <c r="D281" s="4" t="s">
         <v>235</v>
       </c>
@@ -7003,12 +7006,12 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="92" t="str">
+      <c r="A282" s="68" t="str">
         <f t="shared" ref="A282:A289" si="9">R17</f>
         <v>Радиолампа</v>
       </c>
-      <c r="B282" s="92"/>
-      <c r="C282" s="92"/>
+      <c r="B282" s="68"/>
+      <c r="C282" s="68"/>
       <c r="D282" s="4" t="s">
         <v>235</v>
       </c>
@@ -7027,12 +7030,12 @@
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="92" t="str">
+      <c r="A283" s="68" t="str">
         <f t="shared" si="9"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B283" s="92"/>
-      <c r="C283" s="92"/>
+      <c r="B283" s="68"/>
+      <c r="C283" s="68"/>
       <c r="D283" s="4" t="s">
         <v>235</v>
       </c>
@@ -7051,12 +7054,12 @@
       </c>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="92" t="str">
+      <c r="A284" s="68" t="str">
         <f t="shared" si="9"/>
         <v>Дриод</v>
       </c>
-      <c r="B284" s="92"/>
-      <c r="C284" s="92"/>
+      <c r="B284" s="68"/>
+      <c r="C284" s="68"/>
       <c r="D284" s="4" t="s">
         <v>235</v>
       </c>
@@ -7075,12 +7078,12 @@
       </c>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="92" t="str">
+      <c r="A285" s="68" t="str">
         <f t="shared" si="9"/>
         <v>Дроссель</v>
       </c>
-      <c r="B285" s="92"/>
-      <c r="C285" s="92"/>
+      <c r="B285" s="68"/>
+      <c r="C285" s="68"/>
       <c r="D285" s="4" t="s">
         <v>235</v>
       </c>
@@ -7099,12 +7102,12 @@
       </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" s="92" t="str">
+      <c r="A286" s="68" t="str">
         <f t="shared" si="9"/>
         <v>Фильтр</v>
       </c>
-      <c r="B286" s="92"/>
-      <c r="C286" s="92"/>
+      <c r="B286" s="68"/>
+      <c r="C286" s="68"/>
       <c r="D286" s="4" t="s">
         <v>235</v>
       </c>
@@ -7123,12 +7126,12 @@
       </c>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287" s="92" t="str">
+      <c r="A287" s="68" t="str">
         <f t="shared" si="9"/>
         <v>Панель ламповая</v>
       </c>
-      <c r="B287" s="92"/>
-      <c r="C287" s="92"/>
+      <c r="B287" s="68"/>
+      <c r="C287" s="68"/>
       <c r="D287" s="4" t="s">
         <v>235</v>
       </c>
@@ -7147,12 +7150,12 @@
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="92" t="str">
+      <c r="A288" s="68" t="str">
         <f t="shared" si="9"/>
         <v>заклепка гетинаксовая</v>
       </c>
-      <c r="B288" s="92"/>
-      <c r="C288" s="92"/>
+      <c r="B288" s="68"/>
+      <c r="C288" s="68"/>
       <c r="D288" s="4" t="s">
         <v>235</v>
       </c>
@@ -7171,12 +7174,12 @@
       </c>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="92" t="str">
+      <c r="A289" s="68" t="str">
         <f t="shared" si="9"/>
         <v>Плата</v>
       </c>
-      <c r="B289" s="92"/>
-      <c r="C289" s="92"/>
+      <c r="B289" s="68"/>
+      <c r="C289" s="68"/>
       <c r="D289" s="4" t="s">
         <v>235</v>
       </c>
@@ -7195,11 +7198,11 @@
       </c>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="113" t="s">
+      <c r="A290" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B290" s="113"/>
-      <c r="C290" s="113"/>
+      <c r="B290" s="85"/>
+      <c r="C290" s="85"/>
       <c r="D290" s="20"/>
       <c r="E290" s="20"/>
       <c r="F290" s="35"/>
@@ -7210,11 +7213,11 @@
       </c>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="87" t="s">
+      <c r="A291" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="B291" s="87"/>
-      <c r="C291" s="87"/>
+      <c r="B291" s="71"/>
+      <c r="C291" s="71"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="37"/>
@@ -7225,11 +7228,11 @@
       </c>
     </row>
     <row r="292" spans="1:10">
-      <c r="A292" s="113" t="s">
+      <c r="A292" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="B292" s="113"/>
-      <c r="C292" s="113"/>
+      <c r="B292" s="85"/>
+      <c r="C292" s="85"/>
       <c r="D292" s="20"/>
       <c r="E292" s="20"/>
       <c r="F292" s="35"/>
@@ -7241,45 +7244,45 @@
       <c r="I292" s="40"/>
     </row>
     <row r="295" spans="1:10">
-      <c r="B295" s="72" t="s">
+      <c r="B295" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="C295" s="72"/>
-      <c r="D295" s="72"/>
-      <c r="E295" s="72"/>
-      <c r="F295" s="72"/>
-      <c r="G295" s="72"/>
-      <c r="H295" s="72"/>
-      <c r="I295" s="72"/>
-      <c r="J295" s="72"/>
+      <c r="C295" s="75"/>
+      <c r="D295" s="75"/>
+      <c r="E295" s="75"/>
+      <c r="F295" s="75"/>
+      <c r="G295" s="75"/>
+      <c r="H295" s="75"/>
+      <c r="I295" s="75"/>
+      <c r="J295" s="75"/>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="99" t="s">
+      <c r="A297" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="B297" s="99"/>
-      <c r="C297" s="99"/>
+      <c r="B297" s="82"/>
+      <c r="C297" s="82"/>
       <c r="D297" s="14" t="s">
         <v>239</v>
       </c>
       <c r="E297" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F297" s="99" t="s">
+      <c r="F297" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="G297" s="99"/>
-      <c r="H297" s="99" t="s">
+      <c r="G297" s="82"/>
+      <c r="H297" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="I297" s="99"/>
+      <c r="I297" s="82"/>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="85">
+      <c r="A298" s="84">
         <v>1</v>
       </c>
-      <c r="B298" s="85"/>
-      <c r="C298" s="85"/>
+      <c r="B298" s="84"/>
+      <c r="C298" s="84"/>
       <c r="D298" s="4">
         <v>3</v>
       </c>
@@ -7287,22 +7290,22 @@
         <f>B25</f>
         <v>1.55</v>
       </c>
-      <c r="F298" s="73">
+      <c r="F298" s="69">
         <v>0.89100000000000001</v>
       </c>
-      <c r="G298" s="74"/>
-      <c r="H298" s="68">
+      <c r="G298" s="70"/>
+      <c r="H298" s="76">
         <f>E298*F298/60</f>
         <v>2.3017500000000003E-2</v>
       </c>
-      <c r="I298" s="69"/>
+      <c r="I298" s="77"/>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="85">
+      <c r="A299" s="84">
         <v>2</v>
       </c>
-      <c r="B299" s="85"/>
-      <c r="C299" s="85"/>
+      <c r="B299" s="84"/>
+      <c r="C299" s="84"/>
       <c r="D299" s="4">
         <v>3</v>
       </c>
@@ -7310,22 +7313,22 @@
         <f t="shared" ref="E299:E306" si="10">B26</f>
         <v>6.23</v>
       </c>
-      <c r="F299" s="73">
+      <c r="F299" s="69">
         <v>0.89100000000000001</v>
       </c>
-      <c r="G299" s="74"/>
-      <c r="H299" s="68">
+      <c r="G299" s="70"/>
+      <c r="H299" s="76">
         <f t="array" ref="H299">E299*F299/60</f>
         <v>9.2515500000000001E-2</v>
       </c>
-      <c r="I299" s="69"/>
+      <c r="I299" s="77"/>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="85">
+      <c r="A300" s="84">
         <v>3</v>
       </c>
-      <c r="B300" s="85"/>
-      <c r="C300" s="85"/>
+      <c r="B300" s="84"/>
+      <c r="C300" s="84"/>
       <c r="D300" s="4">
         <v>3</v>
       </c>
@@ -7337,18 +7340,18 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="G300" s="46"/>
-      <c r="H300" s="68">
+      <c r="H300" s="76">
         <f t="array" ref="H300">E300*F300/60</f>
         <v>2.2571999999999998E-2</v>
       </c>
-      <c r="I300" s="69"/>
+      <c r="I300" s="77"/>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="85">
+      <c r="A301" s="84">
         <v>4</v>
       </c>
-      <c r="B301" s="85"/>
-      <c r="C301" s="85"/>
+      <c r="B301" s="84"/>
+      <c r="C301" s="84"/>
       <c r="D301" s="4">
         <v>3</v>
       </c>
@@ -7360,18 +7363,18 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="G301" s="46"/>
-      <c r="H301" s="68">
+      <c r="H301" s="76">
         <f t="array" ref="H301">E301*F301/60</f>
         <v>6.9052500000000003E-2</v>
       </c>
-      <c r="I301" s="69"/>
+      <c r="I301" s="77"/>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="85">
+      <c r="A302" s="84">
         <v>5</v>
       </c>
-      <c r="B302" s="85"/>
-      <c r="C302" s="85"/>
+      <c r="B302" s="84"/>
+      <c r="C302" s="84"/>
       <c r="D302" s="4">
         <v>3</v>
       </c>
@@ -7383,18 +7386,18 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="G302" s="46"/>
-      <c r="H302" s="68">
+      <c r="H302" s="76">
         <f t="array" ref="H302">E302*F302/60</f>
         <v>4.4549999999999999E-2</v>
       </c>
-      <c r="I302" s="69"/>
+      <c r="I302" s="77"/>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="85">
+      <c r="A303" s="84">
         <v>6</v>
       </c>
-      <c r="B303" s="85"/>
-      <c r="C303" s="85"/>
+      <c r="B303" s="84"/>
+      <c r="C303" s="84"/>
       <c r="D303" s="4">
         <v>3</v>
       </c>
@@ -7406,18 +7409,18 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="G303" s="46"/>
-      <c r="H303" s="68">
+      <c r="H303" s="76">
         <f t="array" ref="H303">E303*F303/60</f>
         <v>2.2571999999999998E-2</v>
       </c>
-      <c r="I303" s="69"/>
+      <c r="I303" s="77"/>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="85">
+      <c r="A304" s="84">
         <v>7</v>
       </c>
-      <c r="B304" s="85"/>
-      <c r="C304" s="85"/>
+      <c r="B304" s="84"/>
+      <c r="C304" s="84"/>
       <c r="D304" s="4">
         <v>3</v>
       </c>
@@ -7429,18 +7432,18 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="G304" s="46"/>
-      <c r="H304" s="68">
+      <c r="H304" s="76">
         <f t="array" ref="H304">E304*F304/60</f>
         <v>6.9498000000000004E-2</v>
       </c>
-      <c r="I304" s="69"/>
+      <c r="I304" s="77"/>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="85">
+      <c r="A305" s="84">
         <v>8</v>
       </c>
-      <c r="B305" s="85"/>
-      <c r="C305" s="85"/>
+      <c r="B305" s="84"/>
+      <c r="C305" s="84"/>
       <c r="D305" s="4">
         <v>3</v>
       </c>
@@ -7448,22 +7451,22 @@
         <f t="shared" si="10"/>
         <v>1.65</v>
       </c>
-      <c r="F305" s="73">
+      <c r="F305" s="69">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G305" s="74"/>
-      <c r="H305" s="68">
+      <c r="G305" s="70"/>
+      <c r="H305" s="76">
         <f t="array" ref="H305">E305*F305/60</f>
         <v>7.1499999999999992E-4</v>
       </c>
-      <c r="I305" s="69"/>
+      <c r="I305" s="77"/>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="109">
+      <c r="A306" s="112">
         <v>9</v>
       </c>
-      <c r="B306" s="122"/>
-      <c r="C306" s="110"/>
+      <c r="B306" s="113"/>
+      <c r="C306" s="114"/>
       <c r="D306" s="4">
         <v>3</v>
       </c>
@@ -7471,76 +7474,76 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F306" s="73">
+      <c r="F306" s="69">
         <v>0</v>
       </c>
-      <c r="G306" s="74"/>
-      <c r="H306" s="68">
+      <c r="G306" s="70"/>
+      <c r="H306" s="76">
         <f t="array" ref="H306">E306*F306/60</f>
         <v>0</v>
       </c>
-      <c r="I306" s="69"/>
+      <c r="I306" s="77"/>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="121" t="s">
+      <c r="A307" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B307" s="121"/>
-      <c r="C307" s="121"/>
+      <c r="B307" s="111"/>
+      <c r="C307" s="111"/>
       <c r="D307" s="20"/>
       <c r="E307" s="20"/>
       <c r="F307" s="35"/>
       <c r="G307" s="36"/>
-      <c r="H307" s="70">
+      <c r="H307" s="120">
         <f>SUM(H298:H306)</f>
         <v>0.34449249999999998</v>
       </c>
-      <c r="I307" s="71"/>
+      <c r="I307" s="121"/>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="87" t="s">
+      <c r="A308" s="71" t="s">
         <v>434</v>
       </c>
-      <c r="B308" s="87"/>
-      <c r="C308" s="87"/>
+      <c r="B308" s="71"/>
+      <c r="C308" s="71"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="37"/>
       <c r="G308" s="38"/>
-      <c r="H308" s="68">
+      <c r="H308" s="76">
         <f>0.4*H307</f>
         <v>0.137797</v>
       </c>
-      <c r="I308" s="69"/>
+      <c r="I308" s="77"/>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="121" t="s">
+      <c r="A309" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="B309" s="121"/>
-      <c r="C309" s="121"/>
+      <c r="B309" s="111"/>
+      <c r="C309" s="111"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="37"/>
       <c r="G309" s="38"/>
-      <c r="H309" s="70">
+      <c r="H309" s="120">
         <f t="array" ref="H309">SUM(H307:H308)</f>
         <v>0.48228949999999998</v>
       </c>
-      <c r="I309" s="71"/>
+      <c r="I309" s="121"/>
     </row>
     <row r="313" spans="1:10">
-      <c r="B313" s="72" t="s">
+      <c r="B313" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="C313" s="72"/>
-      <c r="D313" s="72"/>
-      <c r="E313" s="72"/>
-      <c r="F313" s="72"/>
-      <c r="G313" s="72"/>
-      <c r="H313" s="72"/>
-      <c r="I313" s="72"/>
-      <c r="J313" s="72"/>
+      <c r="C313" s="75"/>
+      <c r="D313" s="75"/>
+      <c r="E313" s="75"/>
+      <c r="F313" s="75"/>
+      <c r="G313" s="75"/>
+      <c r="H313" s="75"/>
+      <c r="I313" s="75"/>
+      <c r="J313" s="75"/>
     </row>
     <row r="315" spans="1:10">
       <c r="C315" s="2" t="s">
@@ -7558,17 +7561,17 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="B318" s="72" t="s">
+      <c r="B318" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="C318" s="72"/>
-      <c r="D318" s="72"/>
-      <c r="E318" s="72"/>
-      <c r="F318" s="72"/>
-      <c r="G318" s="72"/>
-      <c r="H318" s="72"/>
-      <c r="I318" s="72"/>
-      <c r="J318" s="72"/>
+      <c r="C318" s="75"/>
+      <c r="D318" s="75"/>
+      <c r="E318" s="75"/>
+      <c r="F318" s="75"/>
+      <c r="G318" s="75"/>
+      <c r="H318" s="75"/>
+      <c r="I318" s="75"/>
+      <c r="J318" s="75"/>
     </row>
     <row r="320" spans="1:10">
       <c r="B320" s="2" t="s">
@@ -7688,17 +7691,17 @@
       <c r="D344" s="11"/>
     </row>
     <row r="347" spans="2:10">
-      <c r="B347" s="72" t="s">
+      <c r="B347" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="C347" s="72"/>
-      <c r="D347" s="72"/>
-      <c r="E347" s="72"/>
-      <c r="F347" s="72"/>
-      <c r="G347" s="72"/>
-      <c r="H347" s="72"/>
-      <c r="I347" s="72"/>
-      <c r="J347" s="72"/>
+      <c r="C347" s="75"/>
+      <c r="D347" s="75"/>
+      <c r="E347" s="75"/>
+      <c r="F347" s="75"/>
+      <c r="G347" s="75"/>
+      <c r="H347" s="75"/>
+      <c r="I347" s="75"/>
+      <c r="J347" s="75"/>
     </row>
     <row r="349" spans="2:10">
       <c r="B349" s="2" t="s">
@@ -7719,17 +7722,17 @@
       </c>
     </row>
     <row r="352" spans="2:10">
-      <c r="B352" s="72" t="s">
+      <c r="B352" s="75" t="s">
         <v>436</v>
       </c>
-      <c r="C352" s="72"/>
-      <c r="D352" s="72"/>
-      <c r="E352" s="72"/>
-      <c r="F352" s="72"/>
-      <c r="G352" s="72"/>
-      <c r="H352" s="72"/>
-      <c r="I352" s="72"/>
-      <c r="J352" s="72"/>
+      <c r="C352" s="75"/>
+      <c r="D352" s="75"/>
+      <c r="E352" s="75"/>
+      <c r="F352" s="75"/>
+      <c r="G352" s="75"/>
+      <c r="H352" s="75"/>
+      <c r="I352" s="75"/>
+      <c r="J352" s="75"/>
     </row>
     <row r="354" spans="2:10">
       <c r="B354" s="2" t="s">
@@ -7750,17 +7753,17 @@
       </c>
     </row>
     <row r="357" spans="2:10">
-      <c r="B357" s="72" t="s">
+      <c r="B357" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="C357" s="72"/>
-      <c r="D357" s="72"/>
-      <c r="E357" s="72"/>
-      <c r="F357" s="72"/>
-      <c r="G357" s="72"/>
-      <c r="H357" s="72"/>
-      <c r="I357" s="72"/>
-      <c r="J357" s="72"/>
+      <c r="C357" s="75"/>
+      <c r="D357" s="75"/>
+      <c r="E357" s="75"/>
+      <c r="F357" s="75"/>
+      <c r="G357" s="75"/>
+      <c r="H357" s="75"/>
+      <c r="I357" s="75"/>
+      <c r="J357" s="75"/>
     </row>
     <row r="359" spans="2:10">
       <c r="B359" s="2" t="s">
@@ -7840,17 +7843,17 @@
       </c>
     </row>
     <row r="368" spans="2:10">
-      <c r="B368" s="72" t="s">
+      <c r="B368" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="C368" s="72"/>
-      <c r="D368" s="72"/>
-      <c r="E368" s="72"/>
-      <c r="F368" s="72"/>
-      <c r="G368" s="72"/>
-      <c r="H368" s="72"/>
-      <c r="I368" s="72"/>
-      <c r="J368" s="72"/>
+      <c r="C368" s="75"/>
+      <c r="D368" s="75"/>
+      <c r="E368" s="75"/>
+      <c r="F368" s="75"/>
+      <c r="G368" s="75"/>
+      <c r="H368" s="75"/>
+      <c r="I368" s="75"/>
+      <c r="J368" s="75"/>
     </row>
     <row r="370" spans="2:12">
       <c r="B370" s="2" t="s">
@@ -7871,17 +7874,17 @@
       </c>
     </row>
     <row r="373" spans="2:12">
-      <c r="B373" s="72" t="s">
+      <c r="B373" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="C373" s="72"/>
-      <c r="D373" s="72"/>
-      <c r="E373" s="72"/>
-      <c r="F373" s="72"/>
-      <c r="G373" s="72"/>
-      <c r="H373" s="72"/>
-      <c r="I373" s="72"/>
-      <c r="J373" s="72"/>
+      <c r="C373" s="75"/>
+      <c r="D373" s="75"/>
+      <c r="E373" s="75"/>
+      <c r="F373" s="75"/>
+      <c r="G373" s="75"/>
+      <c r="H373" s="75"/>
+      <c r="I373" s="75"/>
+      <c r="J373" s="75"/>
     </row>
     <row r="375" spans="2:12">
       <c r="B375" s="2" t="s">
@@ -7909,17 +7912,17 @@
       </c>
     </row>
     <row r="378" spans="2:12">
-      <c r="B378" s="72" t="s">
+      <c r="B378" s="75" t="s">
         <v>438</v>
       </c>
-      <c r="C378" s="72"/>
-      <c r="D378" s="72"/>
-      <c r="E378" s="72"/>
-      <c r="F378" s="72"/>
-      <c r="G378" s="72"/>
-      <c r="H378" s="72"/>
-      <c r="I378" s="72"/>
-      <c r="J378" s="72"/>
+      <c r="C378" s="75"/>
+      <c r="D378" s="75"/>
+      <c r="E378" s="75"/>
+      <c r="F378" s="75"/>
+      <c r="G378" s="75"/>
+      <c r="H378" s="75"/>
+      <c r="I378" s="75"/>
+      <c r="J378" s="75"/>
     </row>
     <row r="379" spans="2:12">
       <c r="L379" s="2" t="s">
@@ -7932,21 +7935,21 @@
       </c>
       <c r="C380" s="41">
         <f>H166/$M$2</f>
-        <v>0.12855089798314692</v>
+        <v>0.11427518819172164</v>
       </c>
     </row>
     <row r="382" spans="2:12">
-      <c r="B382" s="72" t="s">
+      <c r="B382" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="C382" s="72"/>
-      <c r="D382" s="72"/>
-      <c r="E382" s="72"/>
-      <c r="F382" s="72"/>
-      <c r="G382" s="72"/>
-      <c r="H382" s="72"/>
-      <c r="I382" s="72"/>
-      <c r="J382" s="72"/>
+      <c r="C382" s="75"/>
+      <c r="D382" s="75"/>
+      <c r="E382" s="75"/>
+      <c r="F382" s="75"/>
+      <c r="G382" s="75"/>
+      <c r="H382" s="75"/>
+      <c r="I382" s="75"/>
+      <c r="J382" s="75"/>
     </row>
     <row r="384" spans="2:12">
       <c r="B384" s="2" t="s">
@@ -7970,17 +7973,17 @@
       </c>
     </row>
     <row r="387" spans="2:10">
-      <c r="B387" s="72" t="s">
+      <c r="B387" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="C387" s="72"/>
-      <c r="D387" s="72"/>
-      <c r="E387" s="72"/>
-      <c r="F387" s="72"/>
-      <c r="G387" s="72"/>
-      <c r="H387" s="72"/>
-      <c r="I387" s="72"/>
-      <c r="J387" s="72"/>
+      <c r="C387" s="75"/>
+      <c r="D387" s="75"/>
+      <c r="E387" s="75"/>
+      <c r="F387" s="75"/>
+      <c r="G387" s="75"/>
+      <c r="H387" s="75"/>
+      <c r="I387" s="75"/>
+      <c r="J387" s="75"/>
     </row>
     <row r="389" spans="2:10">
       <c r="B389" s="2" t="s">
@@ -8004,17 +8007,17 @@
       </c>
     </row>
     <row r="392" spans="2:10">
-      <c r="B392" s="72" t="s">
+      <c r="B392" s="75" t="s">
         <v>368</v>
       </c>
-      <c r="C392" s="72"/>
-      <c r="D392" s="72"/>
-      <c r="E392" s="72"/>
-      <c r="F392" s="72"/>
-      <c r="G392" s="72"/>
-      <c r="H392" s="72"/>
-      <c r="I392" s="72"/>
-      <c r="J392" s="72"/>
+      <c r="C392" s="75"/>
+      <c r="D392" s="75"/>
+      <c r="E392" s="75"/>
+      <c r="F392" s="75"/>
+      <c r="G392" s="75"/>
+      <c r="H392" s="75"/>
+      <c r="I392" s="75"/>
+      <c r="J392" s="75"/>
     </row>
     <row r="394" spans="2:10">
       <c r="B394" s="2" t="s">
@@ -8022,11 +8025,11 @@
       </c>
       <c r="C394" s="41">
         <f>SUM(H225:H237)*G394/100</f>
-        <v>0.25992822361375145</v>
+        <v>0.25982829364521148</v>
       </c>
       <c r="D394" s="41">
         <f>SUM(H225:H237)</f>
-        <v>37.132603373393067</v>
+        <v>37.11832766360164</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>283</v>
@@ -8039,17 +8042,17 @@
       </c>
     </row>
     <row r="396" spans="2:10">
-      <c r="B396" s="72" t="s">
+      <c r="B396" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="C396" s="72"/>
-      <c r="D396" s="72"/>
-      <c r="E396" s="72"/>
-      <c r="F396" s="72"/>
-      <c r="G396" s="72"/>
-      <c r="H396" s="72"/>
-      <c r="I396" s="72"/>
-      <c r="J396" s="72"/>
+      <c r="C396" s="75"/>
+      <c r="D396" s="75"/>
+      <c r="E396" s="75"/>
+      <c r="F396" s="75"/>
+      <c r="G396" s="75"/>
+      <c r="H396" s="75"/>
+      <c r="I396" s="75"/>
+      <c r="J396" s="75"/>
     </row>
     <row r="398" spans="2:10">
       <c r="B398" s="2" t="s">
@@ -8057,7 +8060,7 @@
       </c>
       <c r="C398" s="41">
         <f>H239*G398/100</f>
-        <v>0.37392531597006817</v>
+        <v>0.37378155957246856</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>286</v>
@@ -8073,17 +8076,17 @@
       </c>
     </row>
     <row r="400" spans="2:10">
-      <c r="B400" s="72" t="s">
+      <c r="B400" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="C400" s="72"/>
-      <c r="D400" s="72"/>
-      <c r="E400" s="72"/>
-      <c r="F400" s="72"/>
-      <c r="G400" s="72"/>
-      <c r="H400" s="72"/>
-      <c r="I400" s="72"/>
-      <c r="J400" s="72"/>
+      <c r="C400" s="75"/>
+      <c r="D400" s="75"/>
+      <c r="E400" s="75"/>
+      <c r="F400" s="75"/>
+      <c r="G400" s="75"/>
+      <c r="H400" s="75"/>
+      <c r="I400" s="75"/>
+      <c r="J400" s="75"/>
     </row>
     <row r="402" spans="2:10">
       <c r="B402" s="2" t="s">
@@ -8091,7 +8094,7 @@
       </c>
       <c r="C402" s="41">
         <f>(H241+C398)*G402/100</f>
-        <v>19.070191114473477</v>
+        <v>19.062859538195898</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>287</v>
@@ -8107,17 +8110,17 @@
       </c>
     </row>
     <row r="404" spans="2:10">
-      <c r="B404" s="72" t="s">
+      <c r="B404" s="75" t="s">
         <v>415</v>
       </c>
-      <c r="C404" s="72"/>
-      <c r="D404" s="72"/>
-      <c r="E404" s="72"/>
-      <c r="F404" s="72"/>
-      <c r="G404" s="72"/>
-      <c r="H404" s="72"/>
-      <c r="I404" s="72"/>
-      <c r="J404" s="72"/>
+      <c r="C404" s="75"/>
+      <c r="D404" s="75"/>
+      <c r="E404" s="75"/>
+      <c r="F404" s="75"/>
+      <c r="G404" s="75"/>
+      <c r="H404" s="75"/>
+      <c r="I404" s="75"/>
+      <c r="J404" s="75"/>
     </row>
     <row r="406" spans="2:10">
       <c r="B406" s="2" t="s">
@@ -8125,7 +8128,7 @@
       </c>
       <c r="C406" s="41">
         <f>(C414*G406)/(100-G406)</f>
-        <v>1.4669377780364214</v>
+        <v>1.4663738106304538</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>417</v>
@@ -8138,17 +8141,17 @@
       </c>
     </row>
     <row r="408" spans="2:10">
-      <c r="B408" s="72" t="s">
+      <c r="B408" s="75" t="s">
         <v>418</v>
       </c>
-      <c r="C408" s="72"/>
-      <c r="D408" s="72"/>
-      <c r="E408" s="72"/>
-      <c r="F408" s="72"/>
-      <c r="G408" s="72"/>
-      <c r="H408" s="72"/>
-      <c r="I408" s="72"/>
-      <c r="J408" s="72"/>
+      <c r="C408" s="75"/>
+      <c r="D408" s="75"/>
+      <c r="E408" s="75"/>
+      <c r="F408" s="75"/>
+      <c r="G408" s="75"/>
+      <c r="H408" s="75"/>
+      <c r="I408" s="75"/>
+      <c r="J408" s="75"/>
     </row>
     <row r="410" spans="2:10">
       <c r="B410" s="2" t="s">
@@ -8156,7 +8159,7 @@
       </c>
       <c r="C410" s="41">
         <f>((C414+C406)*G410)/(100-G410)</f>
-        <v>1.1975002269685073</v>
+        <v>1.1970398454126152</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>419</v>
@@ -8169,17 +8172,17 @@
       </c>
     </row>
     <row r="412" spans="2:10" s="17" customFormat="1">
-      <c r="B412" s="118" t="s">
+      <c r="B412" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="C412" s="118"/>
-      <c r="D412" s="118"/>
-      <c r="E412" s="118"/>
-      <c r="F412" s="118"/>
-      <c r="G412" s="118"/>
-      <c r="H412" s="118"/>
-      <c r="I412" s="118"/>
-      <c r="J412" s="118"/>
+      <c r="C412" s="115"/>
+      <c r="D412" s="115"/>
+      <c r="E412" s="115"/>
+      <c r="F412" s="115"/>
+      <c r="G412" s="115"/>
+      <c r="H412" s="115"/>
+      <c r="I412" s="115"/>
+      <c r="J412" s="115"/>
     </row>
     <row r="414" spans="2:10">
       <c r="B414" s="2" t="s">
@@ -8187,21 +8190,21 @@
       </c>
       <c r="C414" s="41">
         <f>(H241+C398)+C402</f>
-        <v>57.210573343420435</v>
+        <v>57.188578614587698</v>
       </c>
     </row>
     <row r="417" spans="1:10">
-      <c r="B417" s="120" t="s">
+      <c r="B417" s="116" t="s">
         <v>440</v>
       </c>
-      <c r="C417" s="120"/>
-      <c r="D417" s="120"/>
-      <c r="E417" s="120"/>
-      <c r="F417" s="120"/>
-      <c r="G417" s="120"/>
-      <c r="H417" s="120"/>
-      <c r="I417" s="120"/>
-      <c r="J417" s="120"/>
+      <c r="C417" s="116"/>
+      <c r="D417" s="116"/>
+      <c r="E417" s="116"/>
+      <c r="F417" s="116"/>
+      <c r="G417" s="116"/>
+      <c r="H417" s="116"/>
+      <c r="I417" s="116"/>
+      <c r="J417" s="116"/>
     </row>
     <row r="419" spans="1:10">
       <c r="B419" s="2" t="s">
@@ -8209,21 +8212,21 @@
       </c>
       <c r="C419" s="41">
         <f>F243+C406+C410</f>
-        <v>735753.07315334992</v>
+        <v>735470.21129082795</v>
       </c>
     </row>
     <row r="421" spans="1:10">
-      <c r="B421" s="72" t="s">
+      <c r="B421" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="C421" s="72"/>
-      <c r="D421" s="72"/>
-      <c r="E421" s="72"/>
-      <c r="F421" s="72"/>
-      <c r="G421" s="72"/>
-      <c r="H421" s="72"/>
-      <c r="I421" s="72"/>
-      <c r="J421" s="72"/>
+      <c r="C421" s="75"/>
+      <c r="D421" s="75"/>
+      <c r="E421" s="75"/>
+      <c r="F421" s="75"/>
+      <c r="G421" s="75"/>
+      <c r="H421" s="75"/>
+      <c r="I421" s="75"/>
+      <c r="J421" s="75"/>
     </row>
     <row r="423" spans="1:10">
       <c r="B423" s="2" t="s">
@@ -8231,7 +8234,7 @@
       </c>
       <c r="C423" s="41">
         <f>C414*G423/100</f>
-        <v>10.297903201815679</v>
+        <v>10.293944150625784</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>290</v>
@@ -8249,7 +8252,7 @@
       </c>
       <c r="C425" s="2">
         <f>C414*G425/100</f>
-        <v>2.2312123603933971</v>
+        <v>2.2303545659689199</v>
       </c>
       <c r="G425" s="2">
         <v>3.9</v>
@@ -8259,17 +8262,17 @@
       </c>
     </row>
     <row r="426" spans="1:10">
-      <c r="B426" s="72" t="s">
+      <c r="B426" s="75" t="s">
         <v>449</v>
       </c>
-      <c r="C426" s="72"/>
-      <c r="D426" s="72"/>
-      <c r="E426" s="72"/>
-      <c r="F426" s="72"/>
-      <c r="G426" s="72"/>
-      <c r="H426" s="72"/>
-      <c r="I426" s="72"/>
-      <c r="J426" s="72"/>
+      <c r="C426" s="75"/>
+      <c r="D426" s="75"/>
+      <c r="E426" s="75"/>
+      <c r="F426" s="75"/>
+      <c r="G426" s="75"/>
+      <c r="H426" s="75"/>
+      <c r="I426" s="75"/>
+      <c r="J426" s="75"/>
     </row>
     <row r="427" spans="1:10">
       <c r="B427" s="3"/>
@@ -8288,34 +8291,34 @@
       </c>
       <c r="C428" s="41">
         <f>C414+C423+C425</f>
-        <v>69.739688905629507</v>
+        <v>69.712877331182398</v>
       </c>
     </row>
     <row r="430" spans="1:10">
-      <c r="A430" s="72" t="s">
+      <c r="A430" s="75" t="s">
         <v>292</v>
       </c>
-      <c r="B430" s="72"/>
-      <c r="C430" s="72"/>
-      <c r="D430" s="72"/>
-      <c r="E430" s="72"/>
-      <c r="F430" s="72"/>
-      <c r="G430" s="72"/>
-      <c r="H430" s="72"/>
-      <c r="I430" s="72"/>
+      <c r="B430" s="75"/>
+      <c r="C430" s="75"/>
+      <c r="D430" s="75"/>
+      <c r="E430" s="75"/>
+      <c r="F430" s="75"/>
+      <c r="G430" s="75"/>
+      <c r="H430" s="75"/>
+      <c r="I430" s="75"/>
     </row>
     <row r="432" spans="1:10">
-      <c r="B432" s="119" t="s">
+      <c r="B432" s="97" t="s">
         <v>409</v>
       </c>
-      <c r="C432" s="72"/>
-      <c r="D432" s="72"/>
-      <c r="E432" s="72"/>
-      <c r="F432" s="72"/>
-      <c r="G432" s="72"/>
-      <c r="H432" s="72"/>
-      <c r="I432" s="72"/>
-      <c r="J432" s="72"/>
+      <c r="C432" s="75"/>
+      <c r="D432" s="75"/>
+      <c r="E432" s="75"/>
+      <c r="F432" s="75"/>
+      <c r="G432" s="75"/>
+      <c r="H432" s="75"/>
+      <c r="I432" s="75"/>
+      <c r="J432" s="75"/>
     </row>
     <row r="433" spans="2:10">
       <c r="B433" s="44"/>
@@ -8329,21 +8332,21 @@
       </c>
       <c r="E434" s="41">
         <f>0.5*E166</f>
-        <v>13041.1591502551</v>
+        <v>16087.340775255103</v>
       </c>
     </row>
     <row r="436" spans="2:10">
-      <c r="B436" s="72" t="s">
+      <c r="B436" s="75" t="s">
         <v>293</v>
       </c>
-      <c r="C436" s="72"/>
-      <c r="D436" s="72"/>
-      <c r="E436" s="72"/>
-      <c r="F436" s="72"/>
-      <c r="G436" s="72"/>
-      <c r="H436" s="72"/>
-      <c r="I436" s="72"/>
-      <c r="J436" s="72"/>
+      <c r="C436" s="75"/>
+      <c r="D436" s="75"/>
+      <c r="E436" s="75"/>
+      <c r="F436" s="75"/>
+      <c r="G436" s="75"/>
+      <c r="H436" s="75"/>
+      <c r="I436" s="75"/>
+      <c r="J436" s="75"/>
     </row>
     <row r="438" spans="2:10">
       <c r="C438" s="2" t="s">
@@ -8351,7 +8354,7 @@
       </c>
       <c r="D438" s="41">
         <f>H241*M2</f>
-        <v>488886.78473848576</v>
+        <v>488698.83115522616</v>
       </c>
       <c r="E438" s="11"/>
       <c r="J438" s="2" t="s">
@@ -8359,17 +8362,17 @@
       </c>
     </row>
     <row r="440" spans="2:10">
-      <c r="B440" s="72" t="s">
+      <c r="B440" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="C440" s="72"/>
-      <c r="D440" s="72"/>
-      <c r="E440" s="72"/>
-      <c r="F440" s="72"/>
-      <c r="G440" s="72"/>
-      <c r="H440" s="72"/>
-      <c r="I440" s="72"/>
-      <c r="J440" s="72"/>
+      <c r="C440" s="75"/>
+      <c r="D440" s="75"/>
+      <c r="E440" s="75"/>
+      <c r="F440" s="75"/>
+      <c r="G440" s="75"/>
+      <c r="H440" s="75"/>
+      <c r="I440" s="75"/>
+      <c r="J440" s="75"/>
     </row>
     <row r="442" spans="2:10">
       <c r="C442" s="2" t="s">
@@ -8377,25 +8380,25 @@
       </c>
       <c r="D442" s="41">
         <f>H248*M2</f>
-        <v>902780.27288337401</v>
+        <v>902433.19705215609</v>
       </c>
       <c r="E442" s="11">
         <f>H248</f>
-        <v>69.739688905629507</v>
+        <v>69.712877331182398</v>
       </c>
     </row>
     <row r="444" spans="2:10">
-      <c r="B444" s="72" t="s">
+      <c r="B444" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="C444" s="72"/>
-      <c r="D444" s="72"/>
-      <c r="E444" s="72"/>
-      <c r="F444" s="72"/>
-      <c r="G444" s="72"/>
-      <c r="H444" s="72"/>
-      <c r="I444" s="72"/>
-      <c r="J444" s="72"/>
+      <c r="C444" s="75"/>
+      <c r="D444" s="75"/>
+      <c r="E444" s="75"/>
+      <c r="F444" s="75"/>
+      <c r="G444" s="75"/>
+      <c r="H444" s="75"/>
+      <c r="I444" s="75"/>
+      <c r="J444" s="75"/>
     </row>
     <row r="446" spans="2:10">
       <c r="C446" s="2" t="s">
@@ -8403,21 +8406,21 @@
       </c>
       <c r="D446" s="41">
         <f t="array" ref="D446">D438/D442</f>
-        <v>0.54153463408880087</v>
+        <v>0.54153463408880098</v>
       </c>
     </row>
     <row r="448" spans="2:10">
-      <c r="B448" s="72" t="s">
+      <c r="B448" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="C448" s="72"/>
-      <c r="D448" s="72"/>
-      <c r="E448" s="72"/>
-      <c r="F448" s="72"/>
-      <c r="G448" s="72"/>
-      <c r="H448" s="72"/>
-      <c r="I448" s="72"/>
-      <c r="J448" s="72"/>
+      <c r="C448" s="75"/>
+      <c r="D448" s="75"/>
+      <c r="E448" s="75"/>
+      <c r="F448" s="75"/>
+      <c r="G448" s="75"/>
+      <c r="H448" s="75"/>
+      <c r="I448" s="75"/>
+      <c r="J448" s="75"/>
     </row>
     <row r="450" spans="2:10">
       <c r="C450" s="2" t="s">
@@ -8425,7 +8428,7 @@
       </c>
       <c r="D450" s="41">
         <f>D442-D438-C423*M2-C425*M2</f>
-        <v>251704.0871920918</v>
+        <v>251607.31901061151</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>411</v>
@@ -8435,7 +8438,7 @@
       </c>
       <c r="I450" s="41">
         <f>C410</f>
-        <v>1.1975002269685073</v>
+        <v>1.1970398454126152</v>
       </c>
     </row>
     <row r="451" spans="2:10">
@@ -8444,7 +8447,7 @@
       </c>
       <c r="I451" s="41">
         <f>C406</f>
-        <v>1.4669377780364214</v>
+        <v>1.4663738106304538</v>
       </c>
     </row>
     <row r="452" spans="2:10">
@@ -8458,7 +8461,7 @@
       </c>
       <c r="D454" s="41">
         <f t="array" ref="D454">0.15*D450</f>
-        <v>37755.613078813767</v>
+        <v>37741.097851591723</v>
       </c>
     </row>
     <row r="456" spans="2:10">
@@ -8472,21 +8475,21 @@
       </c>
       <c r="D458" s="41">
         <f>D450+D454</f>
-        <v>289459.70027090557</v>
+        <v>289348.41686220322</v>
       </c>
     </row>
     <row r="461" spans="2:10">
-      <c r="B461" s="72" t="s">
+      <c r="B461" s="75" t="s">
         <v>450</v>
       </c>
-      <c r="C461" s="72"/>
-      <c r="D461" s="72"/>
-      <c r="E461" s="72"/>
-      <c r="F461" s="72"/>
-      <c r="G461" s="72"/>
-      <c r="H461" s="72"/>
-      <c r="I461" s="72"/>
-      <c r="J461" s="72"/>
+      <c r="C461" s="75"/>
+      <c r="D461" s="75"/>
+      <c r="E461" s="75"/>
+      <c r="F461" s="75"/>
+      <c r="G461" s="75"/>
+      <c r="H461" s="75"/>
+      <c r="I461" s="75"/>
+      <c r="J461" s="75"/>
     </row>
     <row r="463" spans="2:10">
       <c r="C463" s="2" t="s">
@@ -8494,7 +8497,7 @@
       </c>
       <c r="D463" s="41">
         <f>D458</f>
-        <v>289459.70027090557</v>
+        <v>289348.41686220322</v>
       </c>
       <c r="G463" s="2" t="s">
         <v>304</v>
@@ -8512,17 +8515,17 @@
       </c>
     </row>
     <row r="466" spans="2:10">
-      <c r="B466" s="72" t="s">
+      <c r="B466" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="C466" s="72"/>
-      <c r="D466" s="72"/>
-      <c r="E466" s="72"/>
-      <c r="F466" s="72"/>
-      <c r="G466" s="72"/>
-      <c r="H466" s="72"/>
-      <c r="I466" s="72"/>
-      <c r="J466" s="72"/>
+      <c r="C466" s="75"/>
+      <c r="D466" s="75"/>
+      <c r="E466" s="75"/>
+      <c r="F466" s="75"/>
+      <c r="G466" s="75"/>
+      <c r="H466" s="75"/>
+      <c r="I466" s="75"/>
+      <c r="J466" s="75"/>
     </row>
     <row r="468" spans="2:10">
       <c r="C468" s="2" t="s">
@@ -8530,11 +8533,11 @@
       </c>
       <c r="D468" s="41">
         <f>E166-H166</f>
-        <v>24418.226926118365</v>
+        <v>30695.389239368371</v>
       </c>
       <c r="E468" s="8">
         <f>H166</f>
-        <v>1664.091374391837</v>
+        <v>1479.2923111418365</v>
       </c>
     </row>
     <row r="470" spans="2:10">
@@ -8543,7 +8546,7 @@
       </c>
       <c r="D470" s="41">
         <f>(D468*H470)/(12*100)</f>
-        <v>20.348522438431971</v>
+        <v>25.579491032806974</v>
       </c>
       <c r="G470" s="2" t="s">
         <v>309</v>
@@ -8556,17 +8559,17 @@
       </c>
     </row>
     <row r="472" spans="2:10">
-      <c r="B472" s="72" t="s">
+      <c r="B472" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="C472" s="72"/>
-      <c r="D472" s="72"/>
-      <c r="E472" s="72"/>
-      <c r="F472" s="72"/>
-      <c r="G472" s="72"/>
-      <c r="H472" s="72"/>
-      <c r="I472" s="72"/>
-      <c r="J472" s="72"/>
+      <c r="C472" s="75"/>
+      <c r="D472" s="75"/>
+      <c r="E472" s="75"/>
+      <c r="F472" s="75"/>
+      <c r="G472" s="75"/>
+      <c r="H472" s="75"/>
+      <c r="I472" s="75"/>
+      <c r="J472" s="75"/>
     </row>
     <row r="473" spans="2:10">
       <c r="B473" s="3"/>
@@ -8585,21 +8588,21 @@
       </c>
       <c r="D474" s="41">
         <f>E434*H470/(1200)</f>
-        <v>10.867632625212583</v>
+        <v>13.406117312712587</v>
       </c>
     </row>
     <row r="476" spans="2:10">
-      <c r="B476" s="72" t="s">
+      <c r="B476" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="C476" s="72"/>
-      <c r="D476" s="72"/>
-      <c r="E476" s="72"/>
-      <c r="F476" s="72"/>
-      <c r="G476" s="72"/>
-      <c r="H476" s="72"/>
-      <c r="I476" s="72"/>
-      <c r="J476" s="72"/>
+      <c r="C476" s="75"/>
+      <c r="D476" s="75"/>
+      <c r="E476" s="75"/>
+      <c r="F476" s="75"/>
+      <c r="G476" s="75"/>
+      <c r="H476" s="75"/>
+      <c r="I476" s="75"/>
+      <c r="J476" s="75"/>
     </row>
     <row r="478" spans="2:10">
       <c r="C478" s="2" t="s">
@@ -8607,21 +8610,21 @@
       </c>
       <c r="D478" s="41">
         <f>D474+D470</f>
-        <v>31.216155063644553</v>
+        <v>38.985608345519559</v>
       </c>
     </row>
     <row r="480" spans="2:10">
-      <c r="B480" s="72" t="s">
+      <c r="B480" s="75" t="s">
         <v>311</v>
       </c>
-      <c r="C480" s="72"/>
-      <c r="D480" s="72"/>
-      <c r="E480" s="72"/>
-      <c r="F480" s="72"/>
-      <c r="G480" s="72"/>
-      <c r="H480" s="72"/>
-      <c r="I480" s="72"/>
-      <c r="J480" s="72"/>
+      <c r="C480" s="75"/>
+      <c r="D480" s="75"/>
+      <c r="E480" s="75"/>
+      <c r="F480" s="75"/>
+      <c r="G480" s="75"/>
+      <c r="H480" s="75"/>
+      <c r="I480" s="75"/>
+      <c r="J480" s="75"/>
     </row>
     <row r="482" spans="2:10">
       <c r="C482" s="2" t="s">
@@ -8629,7 +8632,7 @@
       </c>
       <c r="D482" s="41">
         <f>D463-D470-H482-H483</f>
-        <v>289439.35174846713</v>
+        <v>289322.8373711704</v>
       </c>
       <c r="G482" s="2" t="s">
         <v>312</v>
@@ -8647,17 +8650,17 @@
       </c>
     </row>
     <row r="486" spans="2:10">
-      <c r="B486" s="72" t="s">
+      <c r="B486" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="C486" s="72"/>
-      <c r="D486" s="72"/>
-      <c r="E486" s="72"/>
-      <c r="F486" s="72"/>
-      <c r="G486" s="72"/>
-      <c r="H486" s="72"/>
-      <c r="I486" s="72"/>
-      <c r="J486" s="72"/>
+      <c r="C486" s="75"/>
+      <c r="D486" s="75"/>
+      <c r="E486" s="75"/>
+      <c r="F486" s="75"/>
+      <c r="G486" s="75"/>
+      <c r="H486" s="75"/>
+      <c r="I486" s="75"/>
+      <c r="J486" s="75"/>
     </row>
     <row r="488" spans="2:10">
       <c r="C488" s="2" t="s">
@@ -8665,7 +8668,7 @@
       </c>
       <c r="D488" s="41">
         <f>D482*H488/100</f>
-        <v>69465.444419632113</v>
+        <v>69437.480969080891</v>
       </c>
       <c r="G488" s="2" t="s">
         <v>283</v>
@@ -8678,17 +8681,17 @@
       </c>
     </row>
     <row r="491" spans="2:10">
-      <c r="B491" s="72" t="s">
+      <c r="B491" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="C491" s="72"/>
-      <c r="D491" s="72"/>
-      <c r="E491" s="72"/>
-      <c r="F491" s="72"/>
-      <c r="G491" s="72"/>
-      <c r="H491" s="72"/>
-      <c r="I491" s="72"/>
-      <c r="J491" s="72"/>
+      <c r="C491" s="75"/>
+      <c r="D491" s="75"/>
+      <c r="E491" s="75"/>
+      <c r="F491" s="75"/>
+      <c r="G491" s="75"/>
+      <c r="H491" s="75"/>
+      <c r="I491" s="75"/>
+      <c r="J491" s="75"/>
     </row>
     <row r="493" spans="2:10">
       <c r="C493" s="2" t="s">
@@ -8696,7 +8699,7 @@
       </c>
       <c r="D493" s="41">
         <f>(D463-D478-D488-H482-H483)*H493/100</f>
-        <v>10998.151984810489</v>
+        <v>10993.59751423884</v>
       </c>
       <c r="G493" s="2" t="s">
         <v>317</v>
@@ -8709,17 +8712,17 @@
       </c>
     </row>
     <row r="496" spans="2:10">
-      <c r="B496" s="72" t="s">
+      <c r="B496" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="C496" s="72"/>
-      <c r="D496" s="72"/>
-      <c r="E496" s="72"/>
-      <c r="F496" s="72"/>
-      <c r="G496" s="72"/>
-      <c r="H496" s="72"/>
-      <c r="I496" s="72"/>
-      <c r="J496" s="72"/>
+      <c r="C496" s="75"/>
+      <c r="D496" s="75"/>
+      <c r="E496" s="75"/>
+      <c r="F496" s="75"/>
+      <c r="G496" s="75"/>
+      <c r="H496" s="75"/>
+      <c r="I496" s="75"/>
+      <c r="J496" s="75"/>
     </row>
     <row r="498" spans="2:10">
       <c r="C498" s="2" t="s">
@@ -8727,21 +8730,21 @@
       </c>
       <c r="D498" s="41">
         <f>D463-D478-D488-D493</f>
-        <v>208964.88771139932</v>
+        <v>208878.35277053795</v>
       </c>
     </row>
     <row r="500" spans="2:10">
-      <c r="B500" s="72" t="s">
+      <c r="B500" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="C500" s="72"/>
-      <c r="D500" s="72"/>
-      <c r="E500" s="72"/>
-      <c r="F500" s="72"/>
-      <c r="G500" s="72"/>
-      <c r="H500" s="72"/>
-      <c r="I500" s="72"/>
-      <c r="J500" s="72"/>
+      <c r="C500" s="75"/>
+      <c r="D500" s="75"/>
+      <c r="E500" s="75"/>
+      <c r="F500" s="75"/>
+      <c r="G500" s="75"/>
+      <c r="H500" s="75"/>
+      <c r="I500" s="75"/>
+      <c r="J500" s="75"/>
     </row>
     <row r="502" spans="2:10">
       <c r="C502" s="2" t="s">
@@ -8754,17 +8757,17 @@
       <c r="E502" s="41"/>
     </row>
     <row r="504" spans="2:10">
-      <c r="B504" s="72" t="s">
+      <c r="B504" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="C504" s="72"/>
-      <c r="D504" s="72"/>
-      <c r="E504" s="72"/>
-      <c r="F504" s="72"/>
-      <c r="G504" s="72"/>
-      <c r="H504" s="72"/>
-      <c r="I504" s="72"/>
-      <c r="J504" s="72"/>
+      <c r="C504" s="75"/>
+      <c r="D504" s="75"/>
+      <c r="E504" s="75"/>
+      <c r="F504" s="75"/>
+      <c r="G504" s="75"/>
+      <c r="H504" s="75"/>
+      <c r="I504" s="75"/>
+      <c r="J504" s="75"/>
     </row>
     <row r="506" spans="2:10">
       <c r="C506" s="2" t="s">
@@ -8772,21 +8775,21 @@
       </c>
       <c r="D506" s="41">
         <f>D498*100/(E166+E434)</f>
-        <v>534.11634478139092</v>
+        <v>432.8006633468932</v>
       </c>
     </row>
     <row r="509" spans="2:10">
-      <c r="B509" s="72" t="s">
+      <c r="B509" s="75" t="s">
         <v>325</v>
       </c>
-      <c r="C509" s="72"/>
-      <c r="D509" s="72"/>
-      <c r="E509" s="72"/>
-      <c r="F509" s="72"/>
-      <c r="G509" s="72"/>
-      <c r="H509" s="72"/>
-      <c r="I509" s="72"/>
-      <c r="J509" s="72"/>
+      <c r="C509" s="75"/>
+      <c r="D509" s="75"/>
+      <c r="E509" s="75"/>
+      <c r="F509" s="75"/>
+      <c r="G509" s="75"/>
+      <c r="H509" s="75"/>
+      <c r="I509" s="75"/>
+      <c r="J509" s="75"/>
     </row>
     <row r="511" spans="2:10">
       <c r="C511" s="2" t="s">
@@ -8794,20 +8797,20 @@
       </c>
       <c r="D511" s="41">
         <f>D442/E166</f>
-        <v>34.612731218210563</v>
+        <v>28.047929414171495</v>
       </c>
       <c r="E511" s="41">
         <f>D442</f>
-        <v>902780.27288337401</v>
+        <v>902433.19705215609</v>
       </c>
     </row>
     <row r="514" spans="1:6">
-      <c r="A514" s="87" t="s">
+      <c r="A514" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="B514" s="87"/>
-      <c r="C514" s="87"/>
-      <c r="D514" s="87"/>
+      <c r="B514" s="71"/>
+      <c r="C514" s="71"/>
+      <c r="D514" s="71"/>
       <c r="E514" s="26" t="s">
         <v>221</v>
       </c>
@@ -8816,12 +8819,12 @@
       </c>
     </row>
     <row r="515" spans="1:6">
-      <c r="A515" s="92" t="s">
+      <c r="A515" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="B515" s="92"/>
-      <c r="C515" s="92"/>
-      <c r="D515" s="92"/>
+      <c r="B515" s="68"/>
+      <c r="C515" s="68"/>
+      <c r="D515" s="68"/>
       <c r="E515" s="4" t="s">
         <v>235</v>
       </c>
@@ -8831,147 +8834,147 @@
       </c>
     </row>
     <row r="516" spans="1:6">
-      <c r="A516" s="92" t="s">
+      <c r="A516" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="B516" s="92"/>
-      <c r="C516" s="92"/>
-      <c r="D516" s="92"/>
+      <c r="B516" s="68"/>
+      <c r="C516" s="68"/>
+      <c r="D516" s="68"/>
       <c r="E516" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F516" s="59">
         <f>D442</f>
-        <v>902780.27288337401</v>
+        <v>902433.19705215609</v>
       </c>
     </row>
     <row r="517" spans="1:6">
-      <c r="A517" s="87" t="s">
+      <c r="A517" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="B517" s="87"/>
-      <c r="C517" s="87"/>
-      <c r="D517" s="87"/>
+      <c r="B517" s="71"/>
+      <c r="C517" s="71"/>
+      <c r="D517" s="71"/>
       <c r="E517" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F517" s="59">
         <f t="array" ref="F517">F241</f>
-        <v>488886.78473848564</v>
+        <v>488698.83115522598</v>
       </c>
     </row>
     <row r="518" spans="1:6">
-      <c r="A518" s="87" t="s">
+      <c r="A518" s="71" t="s">
         <v>332</v>
       </c>
-      <c r="B518" s="87"/>
-      <c r="C518" s="87"/>
-      <c r="D518" s="87"/>
+      <c r="B518" s="71"/>
+      <c r="C518" s="71"/>
+      <c r="D518" s="71"/>
       <c r="E518" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F518" s="59">
         <f t="array" ref="F518">D446</f>
-        <v>0.54153463408880087</v>
+        <v>0.54153463408880098</v>
       </c>
     </row>
     <row r="519" spans="1:6">
-      <c r="A519" s="87" t="s">
+      <c r="A519" s="71" t="s">
         <v>333</v>
       </c>
-      <c r="B519" s="87"/>
-      <c r="C519" s="87"/>
-      <c r="D519" s="87"/>
+      <c r="B519" s="71"/>
+      <c r="C519" s="71"/>
+      <c r="D519" s="71"/>
       <c r="E519" s="4" t="s">
         <v>350</v>
       </c>
       <c r="F519" s="59">
         <f t="array" ref="F519">H241</f>
-        <v>37.766456912976885</v>
+        <v>37.751937516819325</v>
       </c>
     </row>
     <row r="520" spans="1:6">
-      <c r="A520" s="87" t="s">
+      <c r="A520" s="71" t="s">
         <v>334</v>
       </c>
-      <c r="B520" s="87"/>
-      <c r="C520" s="87"/>
-      <c r="D520" s="87"/>
+      <c r="B520" s="71"/>
+      <c r="C520" s="71"/>
+      <c r="D520" s="71"/>
       <c r="E520" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F520" s="59">
         <f t="array" ref="F520">H243</f>
-        <v>56.836648027450366</v>
+        <v>56.814797055015219</v>
       </c>
     </row>
     <row r="521" spans="1:6">
-      <c r="A521" s="87" t="s">
+      <c r="A521" s="71" t="s">
         <v>335</v>
       </c>
-      <c r="B521" s="87"/>
-      <c r="C521" s="87"/>
-      <c r="D521" s="87"/>
+      <c r="B521" s="71"/>
+      <c r="C521" s="71"/>
+      <c r="D521" s="71"/>
       <c r="E521" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F521" s="59">
         <f t="array" ref="F521">H248</f>
-        <v>69.739688905629507</v>
+        <v>69.712877331182398</v>
       </c>
     </row>
     <row r="522" spans="1:6">
-      <c r="A522" s="87" t="s">
+      <c r="A522" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="B522" s="87"/>
-      <c r="C522" s="87"/>
-      <c r="D522" s="87"/>
+      <c r="B522" s="71"/>
+      <c r="C522" s="71"/>
+      <c r="D522" s="71"/>
       <c r="E522" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F522" s="59">
         <f t="array" ref="F522">D458</f>
-        <v>289459.70027090557</v>
+        <v>289348.41686220322</v>
       </c>
     </row>
     <row r="523" spans="1:6">
-      <c r="A523" s="87" t="s">
+      <c r="A523" s="71" t="s">
         <v>336</v>
       </c>
-      <c r="B523" s="87"/>
-      <c r="C523" s="87"/>
-      <c r="D523" s="87"/>
+      <c r="B523" s="71"/>
+      <c r="C523" s="71"/>
+      <c r="D523" s="71"/>
       <c r="E523" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F523" s="59">
         <f t="array" ref="F523">D498</f>
-        <v>208964.88771139932</v>
+        <v>208878.35277053795</v>
       </c>
     </row>
     <row r="524" spans="1:6">
-      <c r="A524" s="87" t="s">
+      <c r="A524" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="B524" s="87"/>
-      <c r="C524" s="87"/>
-      <c r="D524" s="87"/>
+      <c r="B524" s="71"/>
+      <c r="C524" s="71"/>
+      <c r="D524" s="71"/>
       <c r="E524" s="4" t="s">
         <v>260</v>
       </c>
       <c r="F524" s="59">
         <f>D506</f>
-        <v>534.11634478139092</v>
+        <v>432.8006633468932</v>
       </c>
     </row>
     <row r="525" spans="1:6">
-      <c r="A525" s="87" t="s">
+      <c r="A525" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="B525" s="87"/>
-      <c r="C525" s="87"/>
-      <c r="D525" s="87"/>
+      <c r="B525" s="71"/>
+      <c r="C525" s="71"/>
+      <c r="D525" s="71"/>
       <c r="E525" s="4" t="s">
         <v>260</v>
       </c>
@@ -8981,27 +8984,27 @@
       </c>
     </row>
     <row r="526" spans="1:6">
-      <c r="A526" s="87" t="s">
+      <c r="A526" s="71" t="s">
         <v>339</v>
       </c>
-      <c r="B526" s="87"/>
-      <c r="C526" s="87"/>
-      <c r="D526" s="87"/>
+      <c r="B526" s="71"/>
+      <c r="C526" s="71"/>
+      <c r="D526" s="71"/>
       <c r="E526" s="4" t="s">
         <v>351</v>
       </c>
       <c r="F526" s="59">
         <f t="array" ref="F526">D511</f>
-        <v>34.612731218210563</v>
+        <v>28.047929414171495</v>
       </c>
     </row>
     <row r="527" spans="1:6">
-      <c r="A527" s="87" t="s">
+      <c r="A527" s="71" t="s">
         <v>465</v>
       </c>
-      <c r="B527" s="87"/>
-      <c r="C527" s="87"/>
-      <c r="D527" s="87"/>
+      <c r="B527" s="71"/>
+      <c r="C527" s="71"/>
+      <c r="D527" s="71"/>
       <c r="E527" s="4" t="s">
         <v>352</v>
       </c>
@@ -9011,12 +9014,12 @@
       </c>
     </row>
     <row r="528" spans="1:6">
-      <c r="A528" s="87" t="s">
+      <c r="A528" s="71" t="s">
         <v>464</v>
       </c>
-      <c r="B528" s="87"/>
-      <c r="C528" s="87"/>
-      <c r="D528" s="87"/>
+      <c r="B528" s="71"/>
+      <c r="C528" s="71"/>
+      <c r="D528" s="71"/>
       <c r="E528" s="4" t="s">
         <v>352</v>
       </c>
@@ -9026,42 +9029,42 @@
       </c>
     </row>
     <row r="529" spans="1:6">
-      <c r="A529" s="87" t="s">
+      <c r="A529" s="71" t="s">
         <v>353</v>
       </c>
-      <c r="B529" s="87"/>
-      <c r="C529" s="87"/>
-      <c r="D529" s="87"/>
+      <c r="B529" s="71"/>
+      <c r="C529" s="71"/>
+      <c r="D529" s="71"/>
       <c r="E529" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F529" s="59">
         <f t="array" ref="F529">F516/F528</f>
-        <v>26552.36096715806</v>
+        <v>26542.152854475178</v>
       </c>
     </row>
     <row r="530" spans="1:6">
-      <c r="A530" s="87" t="s">
+      <c r="A530" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="B530" s="87"/>
-      <c r="C530" s="87"/>
-      <c r="D530" s="87"/>
+      <c r="B530" s="71"/>
+      <c r="C530" s="71"/>
+      <c r="D530" s="71"/>
       <c r="E530" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F530" s="59">
         <f t="array" ref="F530">F516/F527</f>
-        <v>20994.89006705521</v>
+        <v>20986.818536096653</v>
       </c>
     </row>
     <row r="531" spans="1:6">
-      <c r="A531" s="87" t="s">
+      <c r="A531" s="71" t="s">
         <v>341</v>
       </c>
-      <c r="B531" s="87"/>
-      <c r="C531" s="87"/>
-      <c r="D531" s="87"/>
+      <c r="B531" s="71"/>
+      <c r="C531" s="71"/>
+      <c r="D531" s="71"/>
       <c r="E531" s="4" t="s">
         <v>62</v>
       </c>
@@ -9071,12 +9074,12 @@
       </c>
     </row>
     <row r="532" spans="1:6">
-      <c r="A532" s="87" t="s">
+      <c r="A532" s="71" t="s">
         <v>342</v>
       </c>
-      <c r="B532" s="87"/>
-      <c r="C532" s="87"/>
-      <c r="D532" s="87"/>
+      <c r="B532" s="71"/>
+      <c r="C532" s="71"/>
+      <c r="D532" s="71"/>
       <c r="E532" s="4" t="s">
         <v>62</v>
       </c>
@@ -9086,87 +9089,87 @@
       </c>
     </row>
     <row r="533" spans="1:6">
-      <c r="A533" s="87" t="s">
+      <c r="A533" s="71" t="s">
         <v>343</v>
       </c>
-      <c r="B533" s="87"/>
-      <c r="C533" s="87"/>
-      <c r="D533" s="87"/>
+      <c r="B533" s="71"/>
+      <c r="C533" s="71"/>
+      <c r="D533" s="71"/>
       <c r="E533" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F533" s="59">
         <f t="array" ref="F533">C423</f>
-        <v>10.297903201815679</v>
+        <v>10.293944150625784</v>
       </c>
     </row>
     <row r="534" spans="1:6">
-      <c r="A534" s="87" t="s">
+      <c r="A534" s="71" t="s">
         <v>344</v>
       </c>
-      <c r="B534" s="87"/>
-      <c r="C534" s="87"/>
-      <c r="D534" s="87"/>
+      <c r="B534" s="71"/>
+      <c r="C534" s="71"/>
+      <c r="D534" s="71"/>
       <c r="E534" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F534" s="59">
         <f t="array" ref="F534">D488</f>
-        <v>69465.444419632113</v>
+        <v>69437.480969080891</v>
       </c>
     </row>
     <row r="535" spans="1:6">
-      <c r="A535" s="87" t="s">
+      <c r="A535" s="71" t="s">
         <v>345</v>
       </c>
-      <c r="B535" s="87"/>
-      <c r="C535" s="87"/>
-      <c r="D535" s="87"/>
+      <c r="B535" s="71"/>
+      <c r="C535" s="71"/>
+      <c r="D535" s="71"/>
       <c r="E535" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F535" s="59">
         <f t="array" ref="F535">D470</f>
-        <v>20.348522438431971</v>
+        <v>25.579491032806974</v>
       </c>
     </row>
     <row r="536" spans="1:6">
-      <c r="A536" s="87" t="s">
+      <c r="A536" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="B536" s="87"/>
-      <c r="C536" s="87"/>
-      <c r="D536" s="87"/>
+      <c r="B536" s="71"/>
+      <c r="C536" s="71"/>
+      <c r="D536" s="71"/>
       <c r="E536" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F536" s="59">
         <f t="array" ref="F536">E166</f>
-        <v>26082.3183005102</v>
+        <v>32174.681550510206</v>
       </c>
     </row>
     <row r="537" spans="1:6">
-      <c r="A537" s="87" t="s">
+      <c r="A537" s="71" t="s">
         <v>347</v>
       </c>
-      <c r="B537" s="87"/>
-      <c r="C537" s="87"/>
-      <c r="D537" s="87"/>
+      <c r="B537" s="71"/>
+      <c r="C537" s="71"/>
+      <c r="D537" s="71"/>
       <c r="E537" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F537" s="59">
         <f t="array" ref="F537">E434</f>
-        <v>13041.1591502551</v>
+        <v>16087.340775255103</v>
       </c>
     </row>
     <row r="538" spans="1:6">
-      <c r="A538" s="87" t="s">
+      <c r="A538" s="71" t="s">
         <v>348</v>
       </c>
-      <c r="B538" s="87"/>
-      <c r="C538" s="87"/>
-      <c r="D538" s="87"/>
+      <c r="B538" s="71"/>
+      <c r="C538" s="71"/>
+      <c r="D538" s="71"/>
       <c r="E538" s="4" t="s">
         <v>62</v>
       </c>
@@ -9176,12 +9179,12 @@
       </c>
     </row>
     <row r="539" spans="1:6">
-      <c r="A539" s="87" t="s">
+      <c r="A539" s="71" t="s">
         <v>349</v>
       </c>
-      <c r="B539" s="87"/>
-      <c r="C539" s="87"/>
-      <c r="D539" s="87"/>
+      <c r="B539" s="71"/>
+      <c r="C539" s="71"/>
+      <c r="D539" s="71"/>
       <c r="E539" s="4" t="s">
         <v>62</v>
       </c>
@@ -9193,117 +9196,291 @@
   </sheetData>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
-      <selection activeCell="F217" sqref="F217:G217"/>
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
+      <selection activeCell="C359" sqref="C359"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
-      <selection activeCell="C359" sqref="C359"/>
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
+      <selection activeCell="F217" sqref="F217:G217"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="443">
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A242:D242"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A248:D248"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="B269:L269"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A169:J169"/>
-    <mergeCell ref="B173:E173"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="B295:J295"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="C195:H195"/>
-    <mergeCell ref="C200:H201"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H308:I308"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="H309:I309"/>
+    <mergeCell ref="C183:H183"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="H302:I302"/>
+    <mergeCell ref="H303:I303"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="H306:I306"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="I259:J259"/>
+    <mergeCell ref="I260:J260"/>
+    <mergeCell ref="I261:J261"/>
+    <mergeCell ref="I262:J262"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="M181:M208"/>
+    <mergeCell ref="B181:J181"/>
+    <mergeCell ref="B171:J171"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="F248:G248"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B137:I137"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="B426:J426"/>
+    <mergeCell ref="B417:J417"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A539:D539"/>
+    <mergeCell ref="A530:D530"/>
+    <mergeCell ref="A531:D531"/>
+    <mergeCell ref="A532:D532"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A534:D534"/>
+    <mergeCell ref="A535:D535"/>
+    <mergeCell ref="A536:D536"/>
+    <mergeCell ref="A537:D537"/>
+    <mergeCell ref="A538:D538"/>
+    <mergeCell ref="A524:D524"/>
+    <mergeCell ref="A525:D525"/>
+    <mergeCell ref="A526:D526"/>
+    <mergeCell ref="A527:D527"/>
+    <mergeCell ref="A528:D528"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A515:D515"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I266:J266"/>
+    <mergeCell ref="I263:J263"/>
+    <mergeCell ref="I265:J265"/>
+    <mergeCell ref="A520:D520"/>
+    <mergeCell ref="A521:D521"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A523:D523"/>
+    <mergeCell ref="B480:J480"/>
+    <mergeCell ref="B486:J486"/>
+    <mergeCell ref="B491:J491"/>
+    <mergeCell ref="B496:J496"/>
+    <mergeCell ref="B500:J500"/>
+    <mergeCell ref="B504:J504"/>
+    <mergeCell ref="B509:J509"/>
+    <mergeCell ref="A514:D514"/>
+    <mergeCell ref="A517:D517"/>
+    <mergeCell ref="A518:D518"/>
+    <mergeCell ref="A519:D519"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="B313:J313"/>
+    <mergeCell ref="B318:J318"/>
+    <mergeCell ref="B347:J347"/>
+    <mergeCell ref="B352:J352"/>
+    <mergeCell ref="B357:J357"/>
+    <mergeCell ref="B368:J368"/>
+    <mergeCell ref="B373:J373"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="B436:J436"/>
+    <mergeCell ref="B440:J440"/>
+    <mergeCell ref="B444:J444"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="F231:G231"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="B472:J472"/>
+    <mergeCell ref="B476:J476"/>
+    <mergeCell ref="A516:D516"/>
+    <mergeCell ref="B448:J448"/>
+    <mergeCell ref="B461:J461"/>
+    <mergeCell ref="B466:J466"/>
+    <mergeCell ref="B378:J378"/>
+    <mergeCell ref="B382:J382"/>
+    <mergeCell ref="B387:J387"/>
+    <mergeCell ref="B392:J392"/>
+    <mergeCell ref="B396:J396"/>
+    <mergeCell ref="B400:J400"/>
+    <mergeCell ref="B412:J412"/>
+    <mergeCell ref="B421:J421"/>
+    <mergeCell ref="A430:I430"/>
+    <mergeCell ref="B432:J432"/>
+    <mergeCell ref="B404:J404"/>
+    <mergeCell ref="B408:J408"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="H297:I297"/>
+    <mergeCell ref="G261:H261"/>
+    <mergeCell ref="I256:J256"/>
+    <mergeCell ref="I257:J257"/>
+    <mergeCell ref="I258:J258"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="F241:G241"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="B251:L251"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B104:H104"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="L147:M148"/>
@@ -9328,181 +9505,99 @@
     <mergeCell ref="C139:D139"/>
     <mergeCell ref="A140:B140"/>
     <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="B295:J295"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="G258:H258"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="G260:H260"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H238:I238"/>
     <mergeCell ref="A225:D225"/>
     <mergeCell ref="F225:G225"/>
     <mergeCell ref="F226:G226"/>
     <mergeCell ref="F227:G227"/>
     <mergeCell ref="A230:D230"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="F246:G246"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="F241:G241"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="B251:L251"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="G255:H255"/>
-    <mergeCell ref="I255:J255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="G256:H256"/>
-    <mergeCell ref="G257:H257"/>
-    <mergeCell ref="G258:H258"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="G260:H260"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="F242:G242"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="F234:G234"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A169:J169"/>
+    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="C195:H195"/>
+    <mergeCell ref="C200:H201"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="A224:D224"/>
     <mergeCell ref="A216:D216"/>
     <mergeCell ref="A217:D217"/>
     <mergeCell ref="A218:D218"/>
     <mergeCell ref="A219:D219"/>
     <mergeCell ref="A222:I222"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="F234:G234"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="H297:I297"/>
-    <mergeCell ref="G261:H261"/>
-    <mergeCell ref="I256:J256"/>
-    <mergeCell ref="I257:J257"/>
-    <mergeCell ref="I258:J258"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="F231:G231"/>
-    <mergeCell ref="F232:G232"/>
-    <mergeCell ref="B472:J472"/>
-    <mergeCell ref="B476:J476"/>
-    <mergeCell ref="A516:D516"/>
-    <mergeCell ref="A517:D517"/>
-    <mergeCell ref="A518:D518"/>
-    <mergeCell ref="A519:D519"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="B313:J313"/>
-    <mergeCell ref="B318:J318"/>
-    <mergeCell ref="B347:J347"/>
-    <mergeCell ref="B352:J352"/>
-    <mergeCell ref="B357:J357"/>
-    <mergeCell ref="B368:J368"/>
-    <mergeCell ref="B373:J373"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A520:D520"/>
-    <mergeCell ref="A521:D521"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A523:D523"/>
-    <mergeCell ref="B480:J480"/>
-    <mergeCell ref="B486:J486"/>
-    <mergeCell ref="B491:J491"/>
-    <mergeCell ref="B496:J496"/>
-    <mergeCell ref="B500:J500"/>
-    <mergeCell ref="B504:J504"/>
-    <mergeCell ref="B509:J509"/>
-    <mergeCell ref="A514:D514"/>
-    <mergeCell ref="B436:J436"/>
-    <mergeCell ref="B440:J440"/>
-    <mergeCell ref="B444:J444"/>
-    <mergeCell ref="B448:J448"/>
-    <mergeCell ref="B461:J461"/>
-    <mergeCell ref="B466:J466"/>
-    <mergeCell ref="B378:J378"/>
-    <mergeCell ref="B382:J382"/>
-    <mergeCell ref="B387:J387"/>
-    <mergeCell ref="B392:J392"/>
-    <mergeCell ref="B396:J396"/>
-    <mergeCell ref="B400:J400"/>
-    <mergeCell ref="B412:J412"/>
-    <mergeCell ref="B421:J421"/>
-    <mergeCell ref="A430:I430"/>
-    <mergeCell ref="B432:J432"/>
-    <mergeCell ref="B404:J404"/>
-    <mergeCell ref="B408:J408"/>
-    <mergeCell ref="B426:J426"/>
-    <mergeCell ref="B417:J417"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A539:D539"/>
-    <mergeCell ref="A530:D530"/>
-    <mergeCell ref="A531:D531"/>
-    <mergeCell ref="A532:D532"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A534:D534"/>
-    <mergeCell ref="A535:D535"/>
-    <mergeCell ref="A536:D536"/>
-    <mergeCell ref="A537:D537"/>
-    <mergeCell ref="A538:D538"/>
-    <mergeCell ref="A524:D524"/>
-    <mergeCell ref="A525:D525"/>
-    <mergeCell ref="A526:D526"/>
-    <mergeCell ref="A527:D527"/>
-    <mergeCell ref="A528:D528"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A515:D515"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I266:J266"/>
-    <mergeCell ref="I263:J263"/>
-    <mergeCell ref="I265:J265"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A112:B112"/>
     <mergeCell ref="A120:B120"/>
     <mergeCell ref="A128:B128"/>
     <mergeCell ref="A129:B129"/>
@@ -9516,138 +9611,46 @@
     <mergeCell ref="E125:F125"/>
     <mergeCell ref="A125:B126"/>
     <mergeCell ref="C125:C126"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B137:I137"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="B269:L269"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="G255:H255"/>
+    <mergeCell ref="I255:J255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="G256:H256"/>
+    <mergeCell ref="G257:H257"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="F247:G247"/>
+    <mergeCell ref="F243:G243"/>
     <mergeCell ref="B253:E253"/>
     <mergeCell ref="H248:I248"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="M181:M208"/>
-    <mergeCell ref="B181:J181"/>
-    <mergeCell ref="B171:J171"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="H308:I308"/>
-    <mergeCell ref="H307:I307"/>
-    <mergeCell ref="H309:I309"/>
-    <mergeCell ref="C183:H183"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="H300:I300"/>
-    <mergeCell ref="H301:I301"/>
-    <mergeCell ref="H302:I302"/>
-    <mergeCell ref="H303:I303"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="H306:I306"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="H246:I246"/>
-    <mergeCell ref="I259:J259"/>
-    <mergeCell ref="I260:J260"/>
-    <mergeCell ref="I261:J261"/>
-    <mergeCell ref="I262:J262"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A274:C274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId3"/>
@@ -9668,11 +9671,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9690,10 +9693,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/OPiUP_kursovoy_mine.xlsx
+++ b/OPiUP_kursovoy_mine.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="Michael Pozhigan - Личное представление" guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
     <customWorkbookView name="Siarhei_Kutsankou - Личное представление" guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="670" activeSheetId="1"/>
-    <customWorkbookView name="Michael Pozhigan - Личное представление" guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="493">
   <si>
     <t>Нормы времени на технологический процесс, мин</t>
   </si>
@@ -1569,6 +1569,9 @@
   </si>
   <si>
     <t>Рвпк</t>
+  </si>
+  <si>
+    <t>Ц п</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2135,12 +2138,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2198,32 +2195,223 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2236,117 +2424,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2357,83 +2440,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2739,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E428" sqref="E428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2771,21 +2779,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="65">
+      <c r="K1" s="63">
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -2823,13 +2831,13 @@
       <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="65">
+      <c r="K2" s="63">
         <v>2</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="61">
+      <c r="M2" s="59">
         <v>12945</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -2837,57 +2845,57 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="19.5" thickBot="1">
-      <c r="A3" s="62">
+      <c r="A3" s="60">
         <v>1.55</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="61">
         <v>6.23</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="61">
         <v>1.52</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="61">
         <v>4.6500000000000004</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="61">
         <v>3</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="61">
         <v>1.52</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="61">
         <v>4.68</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="61">
         <v>1.65</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="62">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="63">
         <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="59">
         <v>0.98</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
     </row>
     <row r="6" spans="1:22" ht="19.5" thickBot="1">
       <c r="L6" s="2" t="s">
@@ -2941,10 +2949,10 @@
         <f t="shared" ref="P7:P11" si="0">N7*O7</f>
         <v>0.72750000000000004</v>
       </c>
-      <c r="R7" s="50" t="s">
+      <c r="R7" s="48" t="s">
         <v>480</v>
       </c>
-      <c r="S7" s="51" t="s">
+      <c r="S7" s="49" t="s">
         <v>489</v>
       </c>
       <c r="T7" s="2">
@@ -2962,7 +2970,7 @@
       <c r="L8" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="48" t="s">
         <v>477</v>
       </c>
       <c r="N8" s="2">
@@ -2975,10 +2983,10 @@
         <f t="shared" si="0"/>
         <v>3.5E-4</v>
       </c>
-      <c r="R8" s="50" t="s">
+      <c r="R8" s="48" t="s">
         <v>481</v>
       </c>
-      <c r="S8" s="58" t="s">
+      <c r="S8" s="56" t="s">
         <v>490</v>
       </c>
       <c r="T8" s="2">
@@ -3009,10 +3017,10 @@
         <f t="shared" si="0"/>
         <v>1.3350000000000001E-2</v>
       </c>
-      <c r="R9" s="52" t="s">
+      <c r="R9" s="50" t="s">
         <v>482</v>
       </c>
-      <c r="S9" s="53" t="s">
+      <c r="S9" s="51" t="s">
         <v>483</v>
       </c>
       <c r="T9" s="2">
@@ -3040,7 +3048,7 @@
       <c r="L10" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="49" t="s">
         <v>226</v>
       </c>
       <c r="N10" s="2">
@@ -3053,10 +3061,10 @@
         <f t="shared" si="0"/>
         <v>0.10896000000000002</v>
       </c>
-      <c r="R10" s="54" t="s">
+      <c r="R10" s="52" t="s">
         <v>484</v>
       </c>
-      <c r="S10" s="53" t="s">
+      <c r="S10" s="51" t="s">
         <v>485</v>
       </c>
       <c r="T10" s="2">
@@ -3087,10 +3095,10 @@
         <f t="shared" si="0"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="R11" s="55" t="s">
+      <c r="R11" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="S11" s="56" t="s">
+      <c r="S11" s="54" t="s">
         <v>486</v>
       </c>
       <c r="T11" s="2">
@@ -3108,10 +3116,10 @@
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="57" t="s">
+      <c r="R12" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="S12" s="56" t="s">
+      <c r="S12" s="54" t="s">
         <v>488</v>
       </c>
       <c r="T12" s="2">
@@ -3331,16 +3339,16 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="R22" s="2" t="s">
         <v>381</v>
       </c>
@@ -3359,26 +3367,26 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="45" customHeight="1">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="80" t="s">
+      <c r="G23" s="76"/>
+      <c r="H23" s="147" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -3399,34 +3407,34 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
+      <c r="A24" s="146"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
       <c r="F24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="81"/>
-      <c r="K24" s="91" t="s">
+      <c r="H24" s="148"/>
+      <c r="K24" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="90" t="s">
+      <c r="L24" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="90" t="s">
+      <c r="M24" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="N24" s="90" t="s">
+      <c r="N24" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="90" t="s">
+      <c r="O24" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="91"/>
+      <c r="P24" s="128"/>
       <c r="R24" s="2" t="s">
         <v>383</v>
       </c>
@@ -3467,19 +3475,19 @@
         <f t="array" ref="F25">D25/E25</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="58">
         <v>1</v>
       </c>
       <c r="H25" s="9">
         <f>F25/G25</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K25" s="91"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
       <c r="V25" s="2">
         <f>SUM(V7:V24)</f>
         <v>31.3</v>
@@ -3508,30 +3516,30 @@
         <f t="array" ref="F26">D26/E26</f>
         <v>3.8964590097402603</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="58">
         <v>4</v>
       </c>
       <c r="H26" s="9">
         <f t="array" ref="H26">F26/G26</f>
         <v>0.97411475243506507</v>
       </c>
-      <c r="K26" s="92">
+      <c r="K26" s="129">
         <v>1</v>
       </c>
-      <c r="L26" s="92">
+      <c r="L26" s="129">
         <v>2</v>
       </c>
-      <c r="M26" s="66">
+      <c r="M26" s="64">
         <v>1</v>
       </c>
-      <c r="N26" s="66">
+      <c r="N26" s="64">
         <f t="array" ref="N26">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O26" s="91" t="s">
+      <c r="O26" s="128" t="s">
         <v>398</v>
       </c>
-      <c r="P26" s="91"/>
+      <c r="P26" s="128"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="4">
@@ -3556,26 +3564,26 @@
         <f t="array" ref="F27">D27/E27</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="58">
         <v>1</v>
       </c>
       <c r="H27" s="9">
         <f t="array" ref="H27">F27/G27</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="66">
+      <c r="K27" s="130"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="64">
         <v>2</v>
       </c>
-      <c r="N27" s="66">
+      <c r="N27" s="64">
         <f t="array" ref="N27">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O27" s="91" t="s">
+      <c r="O27" s="128" t="s">
         <v>399</v>
       </c>
-      <c r="P27" s="91"/>
+      <c r="P27" s="128"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="4">
@@ -3600,30 +3608,30 @@
         <f t="array" ref="F28">D28/E28</f>
         <v>2.9082719735621523</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="58">
         <v>3</v>
       </c>
       <c r="H28" s="9">
         <f t="array" ref="H28">F28/G28</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K28" s="66">
+      <c r="K28" s="64">
         <v>2</v>
       </c>
-      <c r="L28" s="66">
+      <c r="L28" s="64">
         <v>1</v>
       </c>
-      <c r="M28" s="66" t="s">
+      <c r="M28" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="N28" s="66">
+      <c r="N28" s="64">
         <f t="array" ref="N28">$C$46/L28</f>
         <v>12</v>
       </c>
-      <c r="O28" s="91" t="s">
+      <c r="O28" s="128" t="s">
         <v>400</v>
       </c>
-      <c r="P28" s="91"/>
+      <c r="P28" s="128"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="4">
@@ -3648,30 +3656,30 @@
         <f t="array" ref="F29">D29/E29</f>
         <v>1.8763044990723563</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="58">
         <v>2</v>
       </c>
       <c r="H29" s="9">
         <f t="array" ref="H29">F29/G29</f>
         <v>0.93815224953617815</v>
       </c>
-      <c r="K29" s="66">
+      <c r="K29" s="64">
         <v>3</v>
       </c>
-      <c r="L29" s="66">
+      <c r="L29" s="64">
         <v>1</v>
       </c>
-      <c r="M29" s="66">
+      <c r="M29" s="64">
         <v>4</v>
       </c>
-      <c r="N29" s="66">
+      <c r="N29" s="64">
         <f t="array" ref="N29">$C$46/L29</f>
         <v>12</v>
       </c>
-      <c r="O29" s="91" t="s">
+      <c r="O29" s="128" t="s">
         <v>400</v>
       </c>
-      <c r="P29" s="91"/>
+      <c r="P29" s="128"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="4">
@@ -3696,30 +3704,30 @@
         <f t="array" ref="F30">D30/E30</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="58">
         <v>1</v>
       </c>
       <c r="H30" s="9">
         <f t="array" ref="H30">F30/G30</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K30" s="92">
+      <c r="K30" s="129">
         <v>4</v>
       </c>
-      <c r="L30" s="92">
+      <c r="L30" s="129">
         <v>3</v>
       </c>
-      <c r="M30" s="67">
+      <c r="M30" s="65">
         <v>5</v>
       </c>
-      <c r="N30" s="67">
+      <c r="N30" s="65">
         <f>$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O30" s="94">
+      <c r="O30" s="139">
         <v>1.4</v>
       </c>
-      <c r="P30" s="94"/>
+      <c r="P30" s="139"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="4">
@@ -3744,26 +3752,26 @@
         <f t="array" ref="F31">D31/E31</f>
         <v>2.9270350185528757</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="58">
         <v>3</v>
       </c>
       <c r="H31" s="9">
         <f t="array" ref="H31">F31/G31</f>
         <v>0.97567833951762528</v>
       </c>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="66">
+      <c r="K31" s="140"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="64">
         <v>6</v>
       </c>
-      <c r="N31" s="66">
+      <c r="N31" s="64">
         <f t="array" ref="N31">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O31" s="91">
+      <c r="O31" s="128">
         <v>2.5</v>
       </c>
-      <c r="P31" s="91"/>
+      <c r="P31" s="128"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="4">
@@ -3788,26 +3796,26 @@
         <f t="array" ref="F32">D32/E32</f>
         <v>1.031967474489796</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="58">
         <v>1</v>
       </c>
       <c r="H32" s="9">
         <f t="array" ref="H32">F32/G32</f>
         <v>1.031967474489796</v>
       </c>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="66">
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="64">
         <v>7</v>
       </c>
-      <c r="N32" s="66">
+      <c r="N32" s="64">
         <f t="array" ref="N32">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O32" s="91">
+      <c r="O32" s="128">
         <v>3.6</v>
       </c>
-      <c r="P32" s="91"/>
+      <c r="P32" s="128"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="4">
@@ -3832,30 +3840,30 @@
         <f t="array" ref="F33">D33/E33</f>
         <v>0</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="58">
         <v>0</v>
       </c>
       <c r="H33" s="9" t="e">
         <f t="array" ref="H33">F33/G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="66">
+      <c r="K33" s="64">
         <v>5</v>
       </c>
-      <c r="L33" s="66">
+      <c r="L33" s="64">
         <v>1</v>
       </c>
-      <c r="M33" s="66">
+      <c r="M33" s="64">
         <v>8</v>
       </c>
-      <c r="N33" s="66">
+      <c r="N33" s="64">
         <f t="array" ref="N33">$C$46/L33</f>
         <v>12</v>
       </c>
-      <c r="O33" s="91" t="s">
+      <c r="O33" s="128" t="s">
         <v>400</v>
       </c>
-      <c r="P33" s="91"/>
+      <c r="P33" s="128"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
@@ -3877,79 +3885,79 @@
         <v>16</v>
       </c>
       <c r="H34" s="9"/>
-      <c r="K34" s="66">
+      <c r="K34" s="64">
         <v>6</v>
       </c>
-      <c r="L34" s="66">
+      <c r="L34" s="64">
         <v>1</v>
       </c>
-      <c r="M34" s="66">
+      <c r="M34" s="64">
         <v>9</v>
       </c>
-      <c r="N34" s="66">
+      <c r="N34" s="64">
         <f t="array" ref="N34">$C$46/L34</f>
         <v>12</v>
       </c>
-      <c r="O34" s="91" t="s">
+      <c r="O34" s="128" t="s">
         <v>400</v>
       </c>
-      <c r="P34" s="91"/>
+      <c r="P34" s="128"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="K35" s="92">
+      <c r="K35" s="129">
         <v>7</v>
       </c>
-      <c r="L35" s="92">
+      <c r="L35" s="129">
         <v>2</v>
       </c>
-      <c r="M35" s="66">
+      <c r="M35" s="64">
         <v>10</v>
       </c>
-      <c r="N35" s="66">
+      <c r="N35" s="64">
         <f t="array" ref="N35">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O35" s="91" t="s">
+      <c r="O35" s="128" t="s">
         <v>398</v>
       </c>
-      <c r="P35" s="91"/>
+      <c r="P35" s="128"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="66">
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="64">
         <v>11</v>
       </c>
-      <c r="N36" s="66">
+      <c r="N36" s="64">
         <f t="array" ref="N36">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O36" s="91" t="s">
+      <c r="O36" s="128" t="s">
         <v>399</v>
       </c>
-      <c r="P36" s="91"/>
+      <c r="P36" s="128"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="K37" s="92">
+      <c r="K37" s="129">
         <v>8</v>
       </c>
-      <c r="L37" s="92">
+      <c r="L37" s="129">
         <v>2</v>
       </c>
-      <c r="M37" s="66">
+      <c r="M37" s="64">
         <v>12</v>
       </c>
-      <c r="N37" s="66">
+      <c r="N37" s="64">
         <f t="array" ref="N37">$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O37" s="91" t="s">
+      <c r="O37" s="128" t="s">
         <v>398</v>
       </c>
-      <c r="P37" s="91"/>
+      <c r="P37" s="128"/>
     </row>
     <row r="38" spans="1:16">
       <c r="B38" s="2" t="s">
@@ -3959,38 +3967,38 @@
         <f>F34/G34</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="66">
+      <c r="K38" s="130"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="64">
         <v>13</v>
       </c>
-      <c r="N38" s="66">
+      <c r="N38" s="64">
         <f>$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O38" s="91" t="s">
+      <c r="O38" s="128" t="s">
         <v>399</v>
       </c>
-      <c r="P38" s="91"/>
+      <c r="P38" s="128"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="K39" s="66">
+      <c r="K39" s="64">
         <v>9</v>
       </c>
-      <c r="L39" s="66">
+      <c r="L39" s="64">
         <v>1</v>
       </c>
-      <c r="M39" s="66">
+      <c r="M39" s="64">
         <v>14</v>
       </c>
-      <c r="N39" s="66">
+      <c r="N39" s="64">
         <f>$C$46/L39</f>
         <v>12</v>
       </c>
-      <c r="O39" s="91" t="s">
+      <c r="O39" s="128" t="s">
         <v>400</v>
       </c>
-      <c r="P39" s="91"/>
+      <c r="P39" s="128"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
@@ -4231,7 +4239,7 @@
       </c>
       <c r="C85" s="12">
         <f>E77*0.85*H239</f>
-        <v>1270.8573025463929</v>
+        <v>1232.2872804125859</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>62</v>
@@ -4314,7 +4322,7 @@
       <c r="F99" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G99" s="61">
+      <c r="G99" s="59">
         <v>5</v>
       </c>
       <c r="H99" s="2" t="s">
@@ -4322,75 +4330,75 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="75" t="s">
+      <c r="A102" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="B102" s="75"/>
-      <c r="C102" s="75"/>
-      <c r="D102" s="75"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="75"/>
-      <c r="H102" s="75"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="B104" s="122" t="s">
+      <c r="B104" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="122"/>
-      <c r="D104" s="122"/>
-      <c r="E104" s="122"/>
-      <c r="F104" s="122"/>
-      <c r="G104" s="122"/>
-      <c r="H104" s="122"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
+      <c r="F104" s="101"/>
+      <c r="G104" s="101"/>
+      <c r="H104" s="101"/>
       <c r="J104" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="82"/>
+      <c r="B106" s="98"/>
       <c r="C106" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="82" t="s">
+      <c r="D106" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82" t="s">
+      <c r="E106" s="98"/>
+      <c r="F106" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="G106" s="82"/>
-      <c r="H106" s="82" t="s">
+      <c r="G106" s="98"/>
+      <c r="H106" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="I106" s="82"/>
-      <c r="J106" s="82" t="s">
+      <c r="I106" s="98"/>
+      <c r="J106" s="98" t="s">
         <v>459</v>
       </c>
-      <c r="K106" s="82"/>
+      <c r="K106" s="98"/>
     </row>
     <row r="107" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A107" s="83"/>
-      <c r="B107" s="83"/>
-      <c r="C107" s="48"/>
+      <c r="A107" s="88"/>
+      <c r="B107" s="88"/>
+      <c r="C107" s="46"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="107"/>
-      <c r="G107" s="107"/>
-      <c r="H107" s="107"/>
-      <c r="I107" s="107"/>
-      <c r="J107" s="107"/>
-      <c r="K107" s="107"/>
+      <c r="F107" s="112"/>
+      <c r="G107" s="112"/>
+      <c r="H107" s="112"/>
+      <c r="I107" s="112"/>
+      <c r="J107" s="112"/>
+      <c r="K107" s="112"/>
     </row>
     <row r="108" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A108" s="84" t="s">
+      <c r="A108" s="87" t="s">
         <v>469</v>
       </c>
-      <c r="B108" s="84"/>
-      <c r="C108" s="49" t="s">
+      <c r="B108" s="87"/>
+      <c r="C108" s="47" t="s">
         <v>471</v>
       </c>
       <c r="D108" s="1">
@@ -4399,109 +4407,109 @@
       <c r="E108" s="1">
         <v>700</v>
       </c>
-      <c r="F108" s="107">
+      <c r="F108" s="112">
         <v>1</v>
       </c>
-      <c r="G108" s="107"/>
-      <c r="H108" s="107">
+      <c r="G108" s="112"/>
+      <c r="H108" s="112">
         <v>4</v>
       </c>
-      <c r="I108" s="107"/>
-      <c r="J108" s="107">
+      <c r="I108" s="112"/>
+      <c r="J108" s="112">
         <f>D108*E108*F108*H108/1000000</f>
         <v>3.36</v>
       </c>
-      <c r="K108" s="107"/>
+      <c r="K108" s="112"/>
     </row>
     <row r="109" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="87" t="s">
         <v>470</v>
       </c>
-      <c r="B109" s="84"/>
+      <c r="B109" s="87"/>
       <c r="C109" s="15"/>
-      <c r="D109" s="65">
+      <c r="D109" s="63">
         <v>23970</v>
       </c>
       <c r="E109" s="1">
         <v>600</v>
       </c>
-      <c r="F109" s="107">
+      <c r="F109" s="112">
         <v>1</v>
       </c>
-      <c r="G109" s="107"/>
-      <c r="H109" s="131">
+      <c r="G109" s="112"/>
+      <c r="H109" s="113">
         <v>2.5</v>
       </c>
-      <c r="I109" s="131"/>
-      <c r="J109" s="107">
+      <c r="I109" s="113"/>
+      <c r="J109" s="112">
         <f>D109*E109*F109*H109/1000000</f>
         <v>35.954999999999998</v>
       </c>
-      <c r="K109" s="107"/>
+      <c r="K109" s="112"/>
     </row>
     <row r="110" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A110" s="47" t="s">
+      <c r="A110" s="45" t="s">
         <v>468</v>
       </c>
-      <c r="B110" s="47"/>
-      <c r="C110" s="48" t="s">
+      <c r="B110" s="45"/>
+      <c r="C110" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="D110" s="47">
+      <c r="D110" s="45">
         <v>1200</v>
       </c>
-      <c r="E110" s="47">
+      <c r="E110" s="45">
         <v>700</v>
       </c>
-      <c r="F110" s="65">
+      <c r="F110" s="63">
         <v>16</v>
       </c>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65">
+      <c r="G110" s="63"/>
+      <c r="H110" s="63">
         <v>4</v>
       </c>
-      <c r="I110" s="65"/>
-      <c r="J110" s="127">
+      <c r="I110" s="63"/>
+      <c r="J110" s="110">
         <f>D110*E110*F110*H110/1000000</f>
         <v>53.76</v>
       </c>
-      <c r="K110" s="128"/>
+      <c r="K110" s="111"/>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="84"/>
-      <c r="B111" s="84"/>
+      <c r="A111" s="87"/>
+      <c r="B111" s="87"/>
       <c r="C111" s="15"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="107"/>
-      <c r="G111" s="107"/>
-      <c r="H111" s="132"/>
-      <c r="I111" s="132"/>
-      <c r="J111" s="107">
+      <c r="F111" s="112"/>
+      <c r="G111" s="112"/>
+      <c r="H111" s="114"/>
+      <c r="I111" s="114"/>
+      <c r="J111" s="112">
         <f>D111*E111*F111*H111/1000000</f>
         <v>0</v>
       </c>
-      <c r="K111" s="107"/>
+      <c r="K111" s="112"/>
     </row>
     <row r="112" spans="1:13" s="17" customFormat="1">
-      <c r="A112" s="104" t="s">
+      <c r="A112" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="105"/>
+      <c r="B112" s="150"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
-      <c r="F112" s="106">
+      <c r="F112" s="127">
         <v>18</v>
       </c>
-      <c r="G112" s="106"/>
-      <c r="H112" s="106"/>
-      <c r="I112" s="106"/>
-      <c r="J112" s="106">
+      <c r="G112" s="127"/>
+      <c r="H112" s="127"/>
+      <c r="I112" s="127"/>
+      <c r="J112" s="127">
         <f t="array" ref="J112">SUM(J108:J111)</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="K112" s="106"/>
+      <c r="K112" s="127"/>
       <c r="M112" s="17" t="s">
         <v>422</v>
       </c>
@@ -4523,108 +4531,108 @@
       <c r="L114" s="8"/>
     </row>
     <row r="115" spans="1:12">
-      <c r="B115" s="122" t="s">
+      <c r="B115" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="122"/>
-      <c r="D115" s="122"/>
-      <c r="E115" s="122"/>
-      <c r="F115" s="122"/>
-      <c r="G115" s="122"/>
-      <c r="H115" s="122"/>
+      <c r="C115" s="101"/>
+      <c r="D115" s="101"/>
+      <c r="E115" s="101"/>
+      <c r="F115" s="101"/>
+      <c r="G115" s="101"/>
+      <c r="H115" s="101"/>
     </row>
     <row r="117" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A117" s="82" t="s">
+      <c r="A117" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="B117" s="82"/>
-      <c r="C117" s="82" t="s">
+      <c r="B117" s="98"/>
+      <c r="C117" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="D117" s="82"/>
-      <c r="E117" s="82" t="s">
+      <c r="D117" s="98"/>
+      <c r="E117" s="98" t="s">
         <v>460</v>
       </c>
-      <c r="F117" s="82"/>
+      <c r="F117" s="98"/>
       <c r="L117" s="16"/>
     </row>
     <row r="118" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A118" s="82" t="s">
+      <c r="A118" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="82"/>
-      <c r="C118" s="82" t="s">
+      <c r="B118" s="98"/>
+      <c r="C118" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="D118" s="82"/>
-      <c r="E118" s="69">
+      <c r="D118" s="98"/>
+      <c r="E118" s="75">
         <f>J112</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="F118" s="70"/>
+      <c r="F118" s="76"/>
     </row>
     <row r="119" spans="1:12" ht="30" customHeight="1">
-      <c r="A119" s="82" t="s">
+      <c r="A119" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="82"/>
-      <c r="C119" s="82" t="s">
+      <c r="B119" s="98"/>
+      <c r="C119" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="D119" s="82"/>
-      <c r="E119" s="69">
+      <c r="D119" s="98"/>
+      <c r="E119" s="75">
         <f t="array" ref="E119">0.3*E118</f>
         <v>27.922499999999996</v>
       </c>
-      <c r="F119" s="70"/>
+      <c r="F119" s="76"/>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="123" t="s">
+      <c r="A120" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="82"/>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="69">
+      <c r="B120" s="98"/>
+      <c r="C120" s="98"/>
+      <c r="D120" s="98"/>
+      <c r="E120" s="75">
         <f t="array" ref="E120">SUM(E118:F119)</f>
         <v>120.99749999999999</v>
       </c>
-      <c r="F120" s="70"/>
+      <c r="F120" s="76"/>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="103" t="s">
+      <c r="A123" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="B123" s="75"/>
-      <c r="C123" s="75"/>
-      <c r="D123" s="75"/>
-      <c r="E123" s="75"/>
-      <c r="F123" s="75"/>
-      <c r="G123" s="75"/>
-      <c r="H123" s="75"/>
-      <c r="I123" s="75"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="74"/>
+      <c r="H123" s="74"/>
+      <c r="I123" s="74"/>
     </row>
     <row r="125" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A125" s="82" t="s">
+      <c r="A125" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="B125" s="82"/>
-      <c r="C125" s="82" t="s">
+      <c r="B125" s="98"/>
+      <c r="C125" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="D125" s="82" t="s">
+      <c r="D125" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="E125" s="82" t="s">
+      <c r="E125" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="F125" s="82"/>
+      <c r="F125" s="98"/>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="82"/>
-      <c r="B126" s="82"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="82"/>
+      <c r="A126" s="98"/>
+      <c r="B126" s="98"/>
+      <c r="C126" s="98"/>
+      <c r="D126" s="98"/>
       <c r="E126" s="1" t="s">
         <v>108</v>
       </c>
@@ -4633,10 +4641,10 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="68" t="s">
+      <c r="A127" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="B127" s="68"/>
+      <c r="B127" s="108"/>
       <c r="C127" s="15" t="s">
         <v>356</v>
       </c>
@@ -4653,10 +4661,10 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="68" t="s">
+      <c r="A128" s="108" t="s">
         <v>401</v>
       </c>
-      <c r="B128" s="68"/>
+      <c r="B128" s="108"/>
       <c r="C128" s="15" t="s">
         <v>402</v>
       </c>
@@ -4672,10 +4680,10 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="112" t="s">
+      <c r="A129" s="120" t="s">
         <v>403</v>
       </c>
-      <c r="B129" s="114"/>
+      <c r="B129" s="122"/>
       <c r="C129" s="15" t="s">
         <v>404</v>
       </c>
@@ -4691,10 +4699,10 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="124" t="s">
+      <c r="A130" s="152" t="s">
         <v>425</v>
       </c>
-      <c r="B130" s="125"/>
+      <c r="B130" s="153"/>
       <c r="C130" s="15" t="s">
         <v>426</v>
       </c>
@@ -4710,10 +4718,10 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="124" t="s">
+      <c r="A131" s="152" t="s">
         <v>423</v>
       </c>
-      <c r="B131" s="125"/>
+      <c r="B131" s="153"/>
       <c r="C131" s="15" t="s">
         <v>424</v>
       </c>
@@ -4729,10 +4737,10 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="85" t="s">
+      <c r="A132" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="126"/>
+      <c r="B132" s="154"/>
       <c r="C132" s="4"/>
       <c r="D132" s="20">
         <f>SUM(D127:D131)</f>
@@ -4745,219 +4753,219 @@
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="75" t="s">
+      <c r="A135" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="B135" s="75"/>
-      <c r="C135" s="75"/>
-      <c r="D135" s="75"/>
-      <c r="E135" s="75"/>
-      <c r="F135" s="75"/>
-      <c r="G135" s="75"/>
-      <c r="H135" s="75"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="74"/>
+      <c r="E135" s="74"/>
+      <c r="F135" s="74"/>
+      <c r="G135" s="74"/>
+      <c r="H135" s="74"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="B137" s="75" t="s">
+      <c r="B137" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C137" s="75"/>
-      <c r="D137" s="75"/>
-      <c r="E137" s="75"/>
-      <c r="F137" s="75"/>
-      <c r="G137" s="75"/>
-      <c r="H137" s="75"/>
-      <c r="I137" s="75"/>
+      <c r="C137" s="74"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="74"/>
+      <c r="G137" s="74"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="74"/>
     </row>
     <row r="139" spans="1:12" ht="45" customHeight="1">
-      <c r="A139" s="82" t="s">
+      <c r="A139" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="B139" s="82"/>
-      <c r="C139" s="82" t="s">
+      <c r="B139" s="98"/>
+      <c r="C139" s="98" t="s">
         <v>461</v>
       </c>
-      <c r="D139" s="82"/>
-      <c r="E139" s="82" t="s">
+      <c r="D139" s="98"/>
+      <c r="E139" s="98" t="s">
         <v>462</v>
       </c>
-      <c r="F139" s="82"/>
-      <c r="G139" s="82" t="s">
+      <c r="F139" s="98"/>
+      <c r="G139" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="H139" s="82"/>
-      <c r="I139" s="82" t="s">
+      <c r="H139" s="98"/>
+      <c r="I139" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="J139" s="82"/>
-      <c r="K139" s="82" t="s">
+      <c r="J139" s="98"/>
+      <c r="K139" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="L139" s="82"/>
+      <c r="L139" s="98"/>
     </row>
     <row r="140" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A140" s="84" t="s">
+      <c r="A140" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="B140" s="84"/>
-      <c r="C140" s="83">
+      <c r="B140" s="87"/>
+      <c r="C140" s="88">
         <v>170</v>
       </c>
-      <c r="D140" s="83"/>
-      <c r="E140" s="88">
+      <c r="D140" s="88"/>
+      <c r="E140" s="89">
         <f t="array" ref="E140">E118</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="F140" s="89"/>
-      <c r="G140" s="88">
+      <c r="F140" s="90"/>
+      <c r="G140" s="89">
         <f t="array" ref="G140">C140*E140</f>
         <v>15822.749999999998</v>
       </c>
-      <c r="H140" s="89"/>
-      <c r="I140" s="88">
+      <c r="H140" s="90"/>
+      <c r="I140" s="89">
         <v>2.7</v>
       </c>
-      <c r="J140" s="89"/>
-      <c r="K140" s="88">
+      <c r="J140" s="90"/>
+      <c r="K140" s="89">
         <f>G140*I140/(100)</f>
         <v>427.21424999999994</v>
       </c>
-      <c r="L140" s="89"/>
+      <c r="L140" s="90"/>
     </row>
     <row r="141" spans="1:12" ht="30" customHeight="1">
-      <c r="A141" s="84" t="s">
+      <c r="A141" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="B141" s="84"/>
-      <c r="C141" s="83">
+      <c r="B141" s="87"/>
+      <c r="C141" s="88">
         <v>250</v>
       </c>
-      <c r="D141" s="83"/>
-      <c r="E141" s="88">
+      <c r="D141" s="88"/>
+      <c r="E141" s="89">
         <f t="array" ref="E141">E119</f>
         <v>27.922499999999996</v>
       </c>
-      <c r="F141" s="89"/>
-      <c r="G141" s="88">
+      <c r="F141" s="90"/>
+      <c r="G141" s="89">
         <f t="array" ref="G141">C141*E141</f>
         <v>6980.6249999999991</v>
       </c>
-      <c r="H141" s="89"/>
-      <c r="I141" s="88">
+      <c r="H141" s="90"/>
+      <c r="I141" s="89">
         <v>3.1</v>
       </c>
-      <c r="J141" s="89"/>
-      <c r="K141" s="88">
+      <c r="J141" s="90"/>
+      <c r="K141" s="89">
         <f>G141*I141/(100)</f>
         <v>216.39937499999996</v>
       </c>
-      <c r="L141" s="89"/>
+      <c r="L141" s="90"/>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="102" t="s">
+      <c r="A142" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B142" s="83"/>
-      <c r="C142" s="69"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="133">
+      <c r="B142" s="88"/>
+      <c r="C142" s="75"/>
+      <c r="D142" s="76"/>
+      <c r="E142" s="91">
         <f t="array" ref="E142">SUM(E140:E141)</f>
         <v>120.99749999999999</v>
       </c>
-      <c r="F142" s="134"/>
-      <c r="G142" s="135">
+      <c r="F142" s="92"/>
+      <c r="G142" s="104">
         <f>SUM(G140:G141)</f>
         <v>22803.374999999996</v>
       </c>
-      <c r="H142" s="136"/>
+      <c r="H142" s="105"/>
       <c r="I142" s="22"/>
       <c r="J142" s="23"/>
-      <c r="K142" s="133">
+      <c r="K142" s="91">
         <f t="array" ref="K142">SUM(K140:K141)</f>
         <v>643.61362499999996</v>
       </c>
-      <c r="L142" s="134"/>
+      <c r="L142" s="92"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="B145" s="75" t="s">
+      <c r="B145" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C145" s="75"/>
-      <c r="D145" s="75"/>
-      <c r="E145" s="75"/>
-      <c r="F145" s="75"/>
-      <c r="G145" s="75"/>
-      <c r="H145" s="75"/>
-      <c r="I145" s="75"/>
+      <c r="C145" s="74"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="74"/>
+      <c r="F145" s="74"/>
+      <c r="G145" s="74"/>
+      <c r="H145" s="74"/>
+      <c r="I145" s="74"/>
       <c r="K145" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A147" s="82" t="s">
+      <c r="A147" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="B147" s="82"/>
-      <c r="C147" s="82" t="s">
+      <c r="B147" s="98"/>
+      <c r="C147" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="D147" s="82" t="s">
+      <c r="D147" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="E147" s="82"/>
-      <c r="F147" s="82" t="s">
+      <c r="E147" s="98"/>
+      <c r="F147" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="G147" s="82"/>
-      <c r="H147" s="98" t="s">
+      <c r="G147" s="98"/>
+      <c r="H147" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="I147" s="99"/>
-      <c r="J147" s="82" t="s">
+      <c r="I147" s="133"/>
+      <c r="J147" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="K147" s="82"/>
-      <c r="L147" s="98" t="s">
+      <c r="K147" s="98"/>
+      <c r="L147" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="M147" s="99"/>
-      <c r="N147" s="82" t="s">
+      <c r="M147" s="133"/>
+      <c r="N147" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="O147" s="82"/>
+      <c r="O147" s="98"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="82"/>
-      <c r="B148" s="82"/>
-      <c r="C148" s="82"/>
-      <c r="D148" s="82"/>
-      <c r="E148" s="82"/>
+      <c r="A148" s="98"/>
+      <c r="B148" s="98"/>
+      <c r="C148" s="98"/>
+      <c r="D148" s="98"/>
+      <c r="E148" s="98"/>
       <c r="F148" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G148" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H148" s="100"/>
-      <c r="I148" s="101"/>
-      <c r="J148" s="82"/>
-      <c r="K148" s="82"/>
-      <c r="L148" s="100"/>
-      <c r="M148" s="101"/>
-      <c r="N148" s="82"/>
-      <c r="O148" s="82"/>
+      <c r="H148" s="134"/>
+      <c r="I148" s="135"/>
+      <c r="J148" s="98"/>
+      <c r="K148" s="98"/>
+      <c r="L148" s="134"/>
+      <c r="M148" s="135"/>
+      <c r="N148" s="98"/>
+      <c r="O148" s="98"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="83" t="s">
+      <c r="A149" s="88" t="s">
         <v>472</v>
       </c>
-      <c r="B149" s="83"/>
+      <c r="B149" s="88"/>
       <c r="C149" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="D149" s="83">
+      <c r="D149" s="88">
         <v>16</v>
       </c>
-      <c r="E149" s="83"/>
+      <c r="E149" s="88"/>
       <c r="F149" s="14">
         <v>360</v>
       </c>
@@ -4965,38 +4973,38 @@
         <f>D149*F149</f>
         <v>5760</v>
       </c>
-      <c r="H149" s="129">
+      <c r="H149" s="85">
         <f>0.1*G149</f>
         <v>576</v>
       </c>
-      <c r="I149" s="130"/>
-      <c r="J149" s="129">
+      <c r="I149" s="86"/>
+      <c r="J149" s="85">
         <f>G149+H149</f>
         <v>6336</v>
       </c>
-      <c r="K149" s="130"/>
-      <c r="L149" s="129">
+      <c r="K149" s="86"/>
+      <c r="L149" s="85">
         <v>7.7</v>
       </c>
-      <c r="M149" s="130"/>
-      <c r="N149" s="149">
+      <c r="M149" s="86"/>
+      <c r="N149" s="83">
         <f>L149*J149/(100)</f>
         <v>487.87200000000007</v>
       </c>
-      <c r="O149" s="150"/>
+      <c r="O149" s="84"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="84" t="s">
+      <c r="A150" s="87" t="s">
         <v>473</v>
       </c>
-      <c r="B150" s="84"/>
+      <c r="B150" s="87"/>
       <c r="C150" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D150" s="83">
+      <c r="D150" s="88">
         <v>1</v>
       </c>
-      <c r="E150" s="83"/>
+      <c r="E150" s="88"/>
       <c r="F150" s="14">
         <v>360</v>
       </c>
@@ -5004,38 +5012,38 @@
         <f>D150*F150</f>
         <v>360</v>
       </c>
-      <c r="H150" s="129">
+      <c r="H150" s="85">
         <f>0.1*G150</f>
         <v>36</v>
       </c>
-      <c r="I150" s="130"/>
-      <c r="J150" s="129">
+      <c r="I150" s="86"/>
+      <c r="J150" s="85">
         <f>G150+H150</f>
         <v>396</v>
       </c>
-      <c r="K150" s="130"/>
-      <c r="L150" s="129">
+      <c r="K150" s="86"/>
+      <c r="L150" s="85">
         <v>7.7</v>
       </c>
-      <c r="M150" s="130"/>
-      <c r="N150" s="149">
+      <c r="M150" s="86"/>
+      <c r="N150" s="83">
         <f>L150*J150/(100)</f>
         <v>30.492000000000004</v>
       </c>
-      <c r="O150" s="150"/>
+      <c r="O150" s="84"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="84" t="s">
+      <c r="A151" s="87" t="s">
         <v>420</v>
       </c>
-      <c r="B151" s="84"/>
+      <c r="B151" s="87"/>
       <c r="C151" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D151" s="83">
+      <c r="D151" s="88">
         <v>0</v>
       </c>
-      <c r="E151" s="83"/>
+      <c r="E151" s="88"/>
       <c r="F151" s="14">
         <v>0</v>
       </c>
@@ -5043,38 +5051,38 @@
         <f>D151*F151</f>
         <v>0</v>
       </c>
-      <c r="H151" s="129">
+      <c r="H151" s="85">
         <f>0.1*G151</f>
         <v>0</v>
       </c>
-      <c r="I151" s="130"/>
-      <c r="J151" s="129">
+      <c r="I151" s="86"/>
+      <c r="J151" s="85">
         <f>G151+H151</f>
         <v>0</v>
       </c>
-      <c r="K151" s="130"/>
-      <c r="L151" s="129">
+      <c r="K151" s="86"/>
+      <c r="L151" s="85">
         <v>0</v>
       </c>
-      <c r="M151" s="130"/>
-      <c r="N151" s="149">
+      <c r="M151" s="86"/>
+      <c r="N151" s="83">
         <f>L151*J151/(100)</f>
         <v>0</v>
       </c>
-      <c r="O151" s="150"/>
+      <c r="O151" s="84"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="84" t="s">
+      <c r="A152" s="87" t="s">
         <v>420</v>
       </c>
-      <c r="B152" s="84"/>
+      <c r="B152" s="87"/>
       <c r="C152" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D152" s="83">
+      <c r="D152" s="88">
         <v>0</v>
       </c>
-      <c r="E152" s="83"/>
+      <c r="E152" s="88"/>
       <c r="F152" s="14">
         <v>0</v>
       </c>
@@ -5082,98 +5090,98 @@
         <f>D152*F152</f>
         <v>0</v>
       </c>
-      <c r="H152" s="129">
+      <c r="H152" s="85">
         <f>0.1*G152</f>
         <v>0</v>
       </c>
-      <c r="I152" s="130"/>
-      <c r="J152" s="129">
+      <c r="I152" s="86"/>
+      <c r="J152" s="85">
         <f>G152+H152</f>
         <v>0</v>
       </c>
-      <c r="K152" s="130"/>
-      <c r="L152" s="129">
+      <c r="K152" s="86"/>
+      <c r="L152" s="85">
         <v>0</v>
       </c>
-      <c r="M152" s="130"/>
-      <c r="N152" s="149">
+      <c r="M152" s="86"/>
+      <c r="N152" s="83">
         <f>L152*J152/(100)</f>
         <v>0</v>
       </c>
-      <c r="O152" s="150"/>
+      <c r="O152" s="84"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="84" t="s">
+      <c r="A153" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="B153" s="84"/>
+      <c r="B153" s="87"/>
       <c r="C153" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D153" s="83">
+      <c r="D153" s="88">
         <v>1</v>
       </c>
-      <c r="E153" s="83"/>
-      <c r="F153" s="153">
+      <c r="E153" s="88"/>
+      <c r="F153" s="69">
         <v>1142</v>
       </c>
       <c r="G153" s="14">
         <f>D153*F153</f>
         <v>1142</v>
       </c>
-      <c r="H153" s="129">
+      <c r="H153" s="85">
         <f>0.1*G153</f>
         <v>114.2</v>
       </c>
-      <c r="I153" s="130"/>
-      <c r="J153" s="129">
+      <c r="I153" s="86"/>
+      <c r="J153" s="85">
         <f>G153+H153</f>
         <v>1256.2</v>
       </c>
-      <c r="K153" s="130"/>
-      <c r="L153" s="129">
+      <c r="K153" s="86"/>
+      <c r="L153" s="85">
         <v>15.2</v>
       </c>
-      <c r="M153" s="130"/>
-      <c r="N153" s="149">
+      <c r="M153" s="86"/>
+      <c r="N153" s="83">
         <f>L153*J153/(100)</f>
         <v>190.94240000000002</v>
       </c>
-      <c r="O153" s="150"/>
+      <c r="O153" s="84"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="86" t="s">
+      <c r="A154" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="86"/>
+      <c r="B154" s="142"/>
       <c r="C154" s="24"/>
-      <c r="D154" s="137">
+      <c r="D154" s="106">
         <f>SUM(D149:E153)</f>
         <v>18</v>
       </c>
-      <c r="E154" s="138"/>
+      <c r="E154" s="107"/>
       <c r="F154" s="24"/>
       <c r="G154" s="25">
         <f>SUM(G149:G153)</f>
         <v>7262</v>
       </c>
-      <c r="H154" s="139">
+      <c r="H154" s="94">
         <f>SUM(H149:I153)</f>
         <v>726.2</v>
       </c>
-      <c r="I154" s="140"/>
-      <c r="J154" s="139">
+      <c r="I154" s="95"/>
+      <c r="J154" s="94">
         <f>SUM(J149:K153)</f>
         <v>7988.2</v>
       </c>
-      <c r="K154" s="140"/>
-      <c r="L154" s="143"/>
-      <c r="M154" s="144"/>
-      <c r="N154" s="139">
+      <c r="K154" s="95"/>
+      <c r="L154" s="96"/>
+      <c r="M154" s="97"/>
+      <c r="N154" s="94">
         <f>SUM(N149:O153)</f>
         <v>709.30640000000005</v>
       </c>
-      <c r="O154" s="140"/>
+      <c r="O154" s="95"/>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="3"/>
@@ -5181,232 +5189,232 @@
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="B157" s="75" t="s">
+      <c r="B157" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="C157" s="75"/>
-      <c r="D157" s="75"/>
-      <c r="E157" s="75"/>
-      <c r="F157" s="75"/>
-      <c r="G157" s="75"/>
-      <c r="H157" s="75"/>
-      <c r="I157" s="75"/>
-      <c r="J157" s="75"/>
+      <c r="C157" s="74"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="74"/>
+      <c r="F157" s="74"/>
+      <c r="G157" s="74"/>
+      <c r="H157" s="74"/>
+      <c r="I157" s="74"/>
+      <c r="J157" s="74"/>
       <c r="K157" s="3"/>
     </row>
     <row r="159" spans="1:15" ht="37.5">
-      <c r="A159" s="71" t="s">
+      <c r="A159" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="B159" s="71"/>
-      <c r="C159" s="71"/>
+      <c r="B159" s="99"/>
+      <c r="C159" s="99"/>
       <c r="D159" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E159" s="71" t="s">
+      <c r="E159" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="F159" s="71"/>
+      <c r="F159" s="99"/>
       <c r="G159" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="H159" s="71" t="s">
+      <c r="H159" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="I159" s="71"/>
+      <c r="I159" s="99"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="71" t="s">
+      <c r="A160" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="B160" s="71"/>
-      <c r="C160" s="71"/>
+      <c r="B160" s="99"/>
+      <c r="C160" s="99"/>
       <c r="D160" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E160" s="88">
+      <c r="E160" s="89">
         <f t="array" ref="E160">G142</f>
         <v>22803.374999999996</v>
       </c>
-      <c r="F160" s="89"/>
+      <c r="F160" s="90"/>
       <c r="G160" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="H160" s="88">
+      <c r="H160" s="89">
         <f>K142</f>
         <v>643.61362499999996</v>
       </c>
-      <c r="I160" s="89"/>
+      <c r="I160" s="90"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="71" t="s">
+      <c r="A161" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="B161" s="71"/>
-      <c r="C161" s="71"/>
+      <c r="B161" s="99"/>
+      <c r="C161" s="99"/>
       <c r="D161" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E161" s="88">
+      <c r="E161" s="89">
         <f t="array" ref="E161">J154</f>
         <v>7988.2</v>
       </c>
-      <c r="F161" s="89"/>
+      <c r="F161" s="90"/>
       <c r="G161" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="H161" s="88">
+      <c r="H161" s="89">
         <f>N154</f>
         <v>709.30640000000005</v>
       </c>
-      <c r="I161" s="89"/>
+      <c r="I161" s="90"/>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="71" t="s">
+      <c r="A162" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="B162" s="71"/>
-      <c r="C162" s="71"/>
+      <c r="B162" s="99"/>
+      <c r="C162" s="99"/>
       <c r="D162" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E162" s="88">
+      <c r="E162" s="89">
         <f>45*F132</f>
         <v>72.823550510204086</v>
       </c>
-      <c r="F162" s="89"/>
+      <c r="F162" s="90"/>
       <c r="G162" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H162" s="88">
+      <c r="H162" s="89">
         <f>E162*G162/(100)</f>
         <v>5.9715311418367341</v>
       </c>
-      <c r="I162" s="89"/>
+      <c r="I162" s="90"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="146" t="s">
+      <c r="A163" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="B163" s="147"/>
-      <c r="C163" s="148"/>
+      <c r="B163" s="78"/>
+      <c r="C163" s="79"/>
       <c r="D163" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E163" s="88">
+      <c r="E163" s="89">
         <f t="array" ref="E163">J154*0.1</f>
         <v>798.82</v>
       </c>
-      <c r="F163" s="89"/>
+      <c r="F163" s="90"/>
       <c r="G163" s="4">
         <v>4.5</v>
       </c>
-      <c r="H163" s="88">
+      <c r="H163" s="89">
         <f>E163*G163/(100)</f>
         <v>35.946899999999999</v>
       </c>
-      <c r="I163" s="89"/>
+      <c r="I163" s="90"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="146" t="s">
+      <c r="A164" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="B164" s="147"/>
-      <c r="C164" s="148"/>
+      <c r="B164" s="78"/>
+      <c r="C164" s="79"/>
       <c r="D164" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E164" s="88">
+      <c r="E164" s="89">
         <f t="array" ref="E164">0.02*G154</f>
         <v>145.24</v>
       </c>
-      <c r="F164" s="89"/>
+      <c r="F164" s="90"/>
       <c r="G164" s="4">
         <v>11.5</v>
       </c>
-      <c r="H164" s="88">
+      <c r="H164" s="89">
         <f>E164*G164/(100)</f>
         <v>16.702600000000004</v>
       </c>
-      <c r="I164" s="89"/>
+      <c r="I164" s="90"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="71" t="s">
+      <c r="A165" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="71"/>
-      <c r="C165" s="71"/>
+      <c r="B165" s="99"/>
+      <c r="C165" s="99"/>
       <c r="D165" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E165" s="88">
+      <c r="E165" s="89">
         <f t="array" ref="E165">1.5*E161/100+15.4*G34</f>
         <v>366.22300000000001</v>
       </c>
-      <c r="F165" s="89"/>
+      <c r="F165" s="90"/>
       <c r="G165" s="4">
         <f>18.5</f>
         <v>18.5</v>
       </c>
-      <c r="H165" s="88">
+      <c r="H165" s="89">
         <f>E165*G165/(100)</f>
         <v>67.751255</v>
       </c>
-      <c r="I165" s="89"/>
+      <c r="I165" s="90"/>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="85" t="s">
+      <c r="A166" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B166" s="68"/>
-      <c r="C166" s="68"/>
+      <c r="B166" s="108"/>
+      <c r="C166" s="108"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="133">
+      <c r="E166" s="91">
         <f t="array" ref="E166">SUM(E160:E165)</f>
         <v>32174.681550510206</v>
       </c>
-      <c r="F166" s="134"/>
+      <c r="F166" s="92"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="133">
+      <c r="H166" s="91">
         <f t="array" ref="H166">SUM(H160:H165)</f>
         <v>1479.2923111418365</v>
       </c>
-      <c r="I166" s="134"/>
+      <c r="I166" s="92"/>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="75" t="s">
+      <c r="A169" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="75"/>
-      <c r="C169" s="75"/>
-      <c r="D169" s="75"/>
-      <c r="E169" s="75"/>
-      <c r="F169" s="75"/>
-      <c r="G169" s="75"/>
-      <c r="H169" s="75"/>
-      <c r="I169" s="75"/>
-      <c r="J169" s="75"/>
+      <c r="B169" s="74"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="74"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="74"/>
+      <c r="I169" s="74"/>
+      <c r="J169" s="74"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="B171" s="75" t="s">
+      <c r="B171" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="C171" s="75"/>
-      <c r="D171" s="75"/>
-      <c r="E171" s="75"/>
-      <c r="F171" s="75"/>
-      <c r="G171" s="75"/>
-      <c r="H171" s="75"/>
-      <c r="I171" s="75"/>
-      <c r="J171" s="75"/>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="74"/>
+      <c r="F171" s="74"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="74"/>
+      <c r="I171" s="74"/>
+      <c r="J171" s="74"/>
     </row>
     <row r="173" spans="1:10">
-      <c r="B173" s="75" t="s">
+      <c r="B173" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C173" s="75"/>
-      <c r="D173" s="75"/>
-      <c r="E173" s="75"/>
+      <c r="C173" s="74"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
     </row>
     <row r="175" spans="1:10">
       <c r="C175" s="2" t="s">
@@ -5418,11 +5426,11 @@
       </c>
     </row>
     <row r="177" spans="2:13">
-      <c r="B177" s="75" t="s">
+      <c r="B177" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="C177" s="75"/>
-      <c r="D177" s="75"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="74"/>
     </row>
     <row r="179" spans="2:13">
       <c r="C179" s="2" t="s">
@@ -5443,37 +5451,37 @@
       </c>
     </row>
     <row r="181" spans="2:13">
-      <c r="B181" s="75" t="s">
+      <c r="B181" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="C181" s="75"/>
-      <c r="D181" s="75"/>
-      <c r="E181" s="75"/>
-      <c r="F181" s="75"/>
-      <c r="G181" s="75"/>
-      <c r="H181" s="75"/>
-      <c r="I181" s="75"/>
-      <c r="J181" s="75"/>
-      <c r="M181" s="122" t="s">
+      <c r="C181" s="74"/>
+      <c r="D181" s="74"/>
+      <c r="E181" s="74"/>
+      <c r="F181" s="74"/>
+      <c r="G181" s="74"/>
+      <c r="H181" s="74"/>
+      <c r="I181" s="74"/>
+      <c r="J181" s="74"/>
+      <c r="M181" s="101" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="182" spans="2:13">
-      <c r="M182" s="122"/>
+      <c r="M182" s="101"/>
     </row>
     <row r="183" spans="2:13">
-      <c r="C183" s="75" t="s">
+      <c r="C183" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="D183" s="75"/>
-      <c r="E183" s="75"/>
-      <c r="F183" s="75"/>
-      <c r="G183" s="75"/>
-      <c r="H183" s="75"/>
-      <c r="M183" s="122"/>
+      <c r="D183" s="74"/>
+      <c r="E183" s="74"/>
+      <c r="F183" s="74"/>
+      <c r="G183" s="74"/>
+      <c r="H183" s="74"/>
+      <c r="M183" s="101"/>
     </row>
     <row r="184" spans="2:13">
-      <c r="M184" s="122"/>
+      <c r="M184" s="101"/>
     </row>
     <row r="185" spans="2:13">
       <c r="D185" s="2" t="s">
@@ -5489,10 +5497,10 @@
       <c r="H185" s="2">
         <v>1</v>
       </c>
-      <c r="M185" s="122"/>
+      <c r="M185" s="101"/>
     </row>
     <row r="186" spans="2:13">
-      <c r="M186" s="122"/>
+      <c r="M186" s="101"/>
     </row>
     <row r="187" spans="2:13">
       <c r="D187" s="2" t="s">
@@ -5511,27 +5519,27 @@
       <c r="I187" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M187" s="122"/>
+      <c r="M187" s="101"/>
     </row>
     <row r="188" spans="2:13">
-      <c r="M188" s="122"/>
+      <c r="M188" s="101"/>
     </row>
     <row r="189" spans="2:13">
-      <c r="C189" s="75" t="s">
+      <c r="C189" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="D189" s="75"/>
-      <c r="E189" s="75"/>
-      <c r="F189" s="75"/>
-      <c r="G189" s="75"/>
-      <c r="H189" s="75"/>
+      <c r="D189" s="74"/>
+      <c r="E189" s="74"/>
+      <c r="F189" s="74"/>
+      <c r="G189" s="74"/>
+      <c r="H189" s="74"/>
       <c r="K189" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="M189" s="122"/>
+      <c r="M189" s="101"/>
     </row>
     <row r="190" spans="2:13">
-      <c r="M190" s="122"/>
+      <c r="M190" s="101"/>
     </row>
     <row r="191" spans="2:13">
       <c r="D191" s="2" t="s">
@@ -5556,7 +5564,7 @@
       <c r="K191" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M191" s="122"/>
+      <c r="M191" s="101"/>
     </row>
     <row r="192" spans="2:13">
       <c r="G192" s="2" t="s">
@@ -5565,7 +5573,7 @@
       <c r="H192" s="2">
         <v>8</v>
       </c>
-      <c r="M192" s="122"/>
+      <c r="M192" s="101"/>
     </row>
     <row r="193" spans="3:13">
       <c r="G193" s="2" t="s">
@@ -5584,7 +5592,7 @@
       <c r="K193" s="2">
         <v>0.9</v>
       </c>
-      <c r="M193" s="122"/>
+      <c r="M193" s="101"/>
     </row>
     <row r="194" spans="3:13">
       <c r="G194" s="2" t="s">
@@ -5593,21 +5601,21 @@
       <c r="H194" s="2">
         <v>1</v>
       </c>
-      <c r="M194" s="122"/>
+      <c r="M194" s="101"/>
     </row>
     <row r="195" spans="3:13">
-      <c r="C195" s="75" t="s">
+      <c r="C195" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="D195" s="75"/>
-      <c r="E195" s="75"/>
-      <c r="F195" s="75"/>
-      <c r="G195" s="75"/>
-      <c r="H195" s="75"/>
-      <c r="M195" s="122"/>
+      <c r="D195" s="74"/>
+      <c r="E195" s="74"/>
+      <c r="F195" s="74"/>
+      <c r="G195" s="74"/>
+      <c r="H195" s="74"/>
+      <c r="M195" s="101"/>
     </row>
     <row r="196" spans="3:13">
-      <c r="M196" s="122"/>
+      <c r="M196" s="101"/>
     </row>
     <row r="197" spans="3:13">
       <c r="D197" s="2" t="s">
@@ -5632,7 +5640,7 @@
       <c r="K197" s="2">
         <v>3</v>
       </c>
-      <c r="M197" s="122"/>
+      <c r="M197" s="101"/>
     </row>
     <row r="198" spans="3:13">
       <c r="G198" s="2" t="s">
@@ -5641,39 +5649,39 @@
       <c r="H198" s="2">
         <v>2</v>
       </c>
-      <c r="M198" s="122"/>
+      <c r="M198" s="101"/>
     </row>
     <row r="199" spans="3:13">
-      <c r="M199" s="122"/>
+      <c r="M199" s="101"/>
     </row>
     <row r="200" spans="3:13">
-      <c r="C200" s="87" t="s">
+      <c r="C200" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="D200" s="87"/>
-      <c r="E200" s="87"/>
-      <c r="F200" s="87"/>
-      <c r="G200" s="87"/>
-      <c r="H200" s="87"/>
-      <c r="M200" s="122"/>
+      <c r="D200" s="143"/>
+      <c r="E200" s="143"/>
+      <c r="F200" s="143"/>
+      <c r="G200" s="143"/>
+      <c r="H200" s="143"/>
+      <c r="M200" s="101"/>
     </row>
     <row r="201" spans="3:13">
-      <c r="C201" s="87"/>
-      <c r="D201" s="87"/>
-      <c r="E201" s="87"/>
-      <c r="F201" s="87"/>
-      <c r="G201" s="87"/>
-      <c r="H201" s="87"/>
-      <c r="M201" s="122"/>
+      <c r="C201" s="143"/>
+      <c r="D201" s="143"/>
+      <c r="E201" s="143"/>
+      <c r="F201" s="143"/>
+      <c r="G201" s="143"/>
+      <c r="H201" s="143"/>
+      <c r="M201" s="101"/>
     </row>
     <row r="202" spans="3:13">
-      <c r="M202" s="122"/>
+      <c r="M202" s="101"/>
     </row>
     <row r="203" spans="3:13">
       <c r="G203" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M203" s="122"/>
+      <c r="M203" s="101"/>
     </row>
     <row r="204" spans="3:13">
       <c r="D204" s="2" t="s">
@@ -5685,7 +5693,7 @@
       <c r="K204" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M204" s="122"/>
+      <c r="M204" s="101"/>
     </row>
     <row r="205" spans="3:13">
       <c r="D205" s="2" t="s">
@@ -5697,7 +5705,7 @@
       <c r="K205" s="2">
         <v>2</v>
       </c>
-      <c r="M205" s="122"/>
+      <c r="M205" s="101"/>
     </row>
     <row r="206" spans="3:13">
       <c r="D206" s="2" t="s">
@@ -5709,7 +5717,7 @@
       <c r="K206" s="2">
         <v>2</v>
       </c>
-      <c r="M206" s="122"/>
+      <c r="M206" s="101"/>
     </row>
     <row r="207" spans="3:13">
       <c r="D207" s="2" t="s">
@@ -5724,7 +5732,7 @@
       <c r="K207" s="2">
         <v>2</v>
       </c>
-      <c r="M207" s="122"/>
+      <c r="M207" s="101"/>
     </row>
     <row r="208" spans="3:13">
       <c r="D208" s="2" t="s">
@@ -5736,747 +5744,747 @@
       <c r="G208" s="2">
         <v>1</v>
       </c>
-      <c r="M208" s="122"/>
+      <c r="M208" s="101"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="B210" s="75" t="s">
+      <c r="B210" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C210" s="75"/>
-      <c r="D210" s="75"/>
-      <c r="E210" s="75"/>
-      <c r="F210" s="75"/>
-      <c r="G210" s="75"/>
-      <c r="H210" s="75"/>
-      <c r="I210" s="75"/>
+      <c r="C210" s="74"/>
+      <c r="D210" s="74"/>
+      <c r="E210" s="74"/>
+      <c r="F210" s="74"/>
+      <c r="G210" s="74"/>
+      <c r="H210" s="74"/>
+      <c r="I210" s="74"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="145" t="s">
+      <c r="A212" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="B212" s="145"/>
-      <c r="C212" s="145"/>
-      <c r="D212" s="145"/>
+      <c r="B212" s="100"/>
+      <c r="C212" s="100"/>
+      <c r="D212" s="100"/>
       <c r="E212" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F212" s="82" t="s">
+      <c r="F212" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="G212" s="82"/>
+      <c r="G212" s="98"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="68" t="s">
+      <c r="A213" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B213" s="68"/>
-      <c r="C213" s="68"/>
-      <c r="D213" s="68"/>
+      <c r="B213" s="108"/>
+      <c r="C213" s="108"/>
+      <c r="D213" s="108"/>
       <c r="E213" s="4">
         <f t="array" ref="E213">E179</f>
         <v>34</v>
       </c>
-      <c r="F213" s="88">
+      <c r="F213" s="89">
         <f>100*E213/E219</f>
         <v>79.069767441860463</v>
       </c>
-      <c r="G213" s="89"/>
+      <c r="G213" s="90"/>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="141" t="s">
+      <c r="A214" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="B214" s="141"/>
-      <c r="C214" s="141"/>
-      <c r="D214" s="141"/>
+      <c r="B214" s="109"/>
+      <c r="C214" s="109"/>
+      <c r="D214" s="109"/>
       <c r="E214" s="29"/>
       <c r="F214" s="30"/>
       <c r="G214" s="31"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="142" t="s">
+      <c r="A215" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="B215" s="142"/>
-      <c r="C215" s="142"/>
-      <c r="D215" s="142"/>
+      <c r="B215" s="93"/>
+      <c r="C215" s="93"/>
+      <c r="D215" s="93"/>
       <c r="E215" s="32"/>
       <c r="F215" s="33"/>
       <c r="G215" s="34"/>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="68" t="s">
+      <c r="A216" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="B216" s="68"/>
-      <c r="C216" s="68"/>
-      <c r="D216" s="68"/>
+      <c r="B216" s="108"/>
+      <c r="C216" s="108"/>
+      <c r="D216" s="108"/>
       <c r="E216" s="4">
         <v>2</v>
       </c>
-      <c r="F216" s="88">
+      <c r="F216" s="89">
         <f t="array" ref="F216">E216*$F$219/$E$219</f>
         <v>4.6511627906976747</v>
       </c>
-      <c r="G216" s="89"/>
+      <c r="G216" s="90"/>
       <c r="H216" s="8">
         <f>F216+F217</f>
         <v>18.604651162790699</v>
       </c>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="68" t="s">
+      <c r="A217" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="B217" s="68"/>
-      <c r="C217" s="68"/>
-      <c r="D217" s="68"/>
+      <c r="B217" s="108"/>
+      <c r="C217" s="108"/>
+      <c r="D217" s="108"/>
       <c r="E217" s="4">
         <v>6</v>
       </c>
-      <c r="F217" s="88">
+      <c r="F217" s="89">
         <f t="array" ref="F217">E217*$F$219/$E$219</f>
         <v>13.953488372093023</v>
       </c>
-      <c r="G217" s="89"/>
+      <c r="G217" s="90"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="68" t="s">
+      <c r="A218" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="B218" s="68"/>
-      <c r="C218" s="68"/>
-      <c r="D218" s="68"/>
+      <c r="B218" s="108"/>
+      <c r="C218" s="108"/>
+      <c r="D218" s="108"/>
       <c r="E218" s="4">
         <v>1</v>
       </c>
-      <c r="F218" s="88">
+      <c r="F218" s="89">
         <f t="array" ref="F218">E218*$F$219/$E$219</f>
         <v>2.3255813953488373</v>
       </c>
-      <c r="G218" s="89"/>
+      <c r="G218" s="90"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="110" t="s">
+      <c r="A219" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="B219" s="110"/>
-      <c r="C219" s="110"/>
-      <c r="D219" s="110"/>
+      <c r="B219" s="144"/>
+      <c r="C219" s="144"/>
+      <c r="D219" s="144"/>
       <c r="E219" s="4">
         <f t="array" ref="E219">E213+SUM(E216:E218)</f>
         <v>43</v>
       </c>
-      <c r="F219" s="88">
+      <c r="F219" s="89">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="G219" s="89"/>
+      <c r="G219" s="90"/>
       <c r="I219" s="2" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="75" t="s">
+      <c r="A222" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="75"/>
-      <c r="C222" s="75"/>
-      <c r="D222" s="75"/>
-      <c r="E222" s="75"/>
-      <c r="F222" s="75"/>
-      <c r="G222" s="75"/>
-      <c r="H222" s="75"/>
-      <c r="I222" s="75"/>
+      <c r="B222" s="74"/>
+      <c r="C222" s="74"/>
+      <c r="D222" s="74"/>
+      <c r="E222" s="74"/>
+      <c r="F222" s="74"/>
+      <c r="G222" s="74"/>
+      <c r="H222" s="74"/>
+      <c r="I222" s="74"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="82" t="s">
+      <c r="A224" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="B224" s="82"/>
-      <c r="C224" s="82"/>
-      <c r="D224" s="82"/>
+      <c r="B224" s="98"/>
+      <c r="C224" s="98"/>
+      <c r="D224" s="98"/>
       <c r="E224" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F224" s="82" t="s">
+      <c r="F224" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="G224" s="82"/>
-      <c r="H224" s="82" t="s">
+      <c r="G224" s="98"/>
+      <c r="H224" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="I224" s="82"/>
+      <c r="I224" s="98"/>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="71" t="s">
+      <c r="A225" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="B225" s="71"/>
-      <c r="C225" s="71"/>
-      <c r="D225" s="71"/>
+      <c r="B225" s="99"/>
+      <c r="C225" s="99"/>
+      <c r="D225" s="99"/>
       <c r="E225" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F225" s="73">
+      <c r="F225" s="102">
         <f>H225*$M$2</f>
         <v>11456.1789804</v>
       </c>
-      <c r="G225" s="74"/>
-      <c r="H225" s="76">
+      <c r="G225" s="103"/>
+      <c r="H225" s="70">
         <f>I266</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="I225" s="77"/>
+      <c r="I225" s="71"/>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="71" t="s">
+      <c r="A226" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="B226" s="71"/>
-      <c r="C226" s="71"/>
-      <c r="D226" s="71"/>
+      <c r="B226" s="99"/>
+      <c r="C226" s="99"/>
+      <c r="D226" s="99"/>
       <c r="E226" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F226" s="73">
+      <c r="F226" s="102">
         <f t="array" ref="F226">H226*$M$2</f>
         <v>425437.42500000005</v>
       </c>
-      <c r="G226" s="74"/>
-      <c r="H226" s="76">
+      <c r="G226" s="103"/>
+      <c r="H226" s="70">
         <f>H292</f>
         <v>32.865000000000002</v>
       </c>
-      <c r="I226" s="77"/>
+      <c r="I226" s="71"/>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="71" t="s">
+      <c r="A227" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B227" s="71"/>
-      <c r="C227" s="71"/>
-      <c r="D227" s="71"/>
+      <c r="B227" s="99"/>
+      <c r="C227" s="99"/>
+      <c r="D227" s="99"/>
       <c r="E227" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F227" s="73">
+      <c r="F227" s="102">
         <f t="array" ref="F227">H227*$M$2</f>
-        <v>6243.2375775</v>
-      </c>
-      <c r="G227" s="74"/>
-      <c r="H227" s="76">
+        <v>6247.3605599999992</v>
+      </c>
+      <c r="G227" s="103"/>
+      <c r="H227" s="70">
         <f>H309</f>
-        <v>0.48228949999999998</v>
-      </c>
-      <c r="I227" s="77"/>
+        <v>0.48260799999999993</v>
+      </c>
+      <c r="I227" s="71"/>
       <c r="M227" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="71" t="s">
+      <c r="A228" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="B228" s="71"/>
-      <c r="C228" s="71"/>
-      <c r="D228" s="71"/>
+      <c r="B228" s="99"/>
+      <c r="C228" s="99"/>
+      <c r="D228" s="99"/>
       <c r="E228" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F228" s="73">
+      <c r="F228" s="102">
         <f t="array" ref="F228">H228*$M$2</f>
-        <v>1872.9712732499997</v>
-      </c>
-      <c r="G228" s="74"/>
-      <c r="H228" s="76">
+        <v>1874.2081679999997</v>
+      </c>
+      <c r="G228" s="103"/>
+      <c r="H228" s="70">
         <f t="array" ref="H228">D315</f>
-        <v>0.14468684999999998</v>
-      </c>
-      <c r="I228" s="77"/>
+        <v>0.14478239999999998</v>
+      </c>
+      <c r="I228" s="71"/>
       <c r="N228" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="71" t="s">
+      <c r="A229" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="B229" s="71"/>
-      <c r="C229" s="71"/>
-      <c r="D229" s="71"/>
+      <c r="B229" s="99"/>
+      <c r="C229" s="99"/>
+      <c r="D229" s="99"/>
       <c r="E229" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F229" s="73">
+      <c r="F229" s="102">
         <f>H229*$M$2</f>
-        <v>14609.175931349999</v>
-      </c>
-      <c r="G229" s="74"/>
-      <c r="H229" s="76">
+        <v>4182.60789492</v>
+      </c>
+      <c r="G229" s="103"/>
+      <c r="H229" s="70">
         <f>D322</f>
-        <v>1.1285574299999999</v>
-      </c>
-      <c r="I229" s="77"/>
+        <v>0.32310605599999997</v>
+      </c>
+      <c r="I229" s="71"/>
       <c r="N229" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="71" t="s">
+      <c r="A230" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="B230" s="71"/>
-      <c r="C230" s="71"/>
-      <c r="D230" s="71"/>
+      <c r="B230" s="99"/>
+      <c r="C230" s="99"/>
+      <c r="D230" s="99"/>
       <c r="E230" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F230" s="73">
+      <c r="F230" s="102">
         <f>H230*$M$2</f>
-        <v>7953.8846737350004</v>
-      </c>
-      <c r="G230" s="74"/>
-      <c r="H230" s="76">
+        <v>4306.4618180219995</v>
+      </c>
+      <c r="G230" s="103"/>
+      <c r="H230" s="70">
         <f>C349</f>
-        <v>0.61443682300000002</v>
-      </c>
-      <c r="I230" s="77"/>
+        <v>0.33267375959999995</v>
+      </c>
+      <c r="I230" s="71"/>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="71" t="s">
+      <c r="A231" s="99" t="s">
         <v>437</v>
       </c>
-      <c r="B231" s="71"/>
-      <c r="C231" s="71"/>
-      <c r="D231" s="71"/>
+      <c r="B231" s="99"/>
+      <c r="C231" s="99"/>
+      <c r="D231" s="99"/>
       <c r="E231" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F231" s="73">
+      <c r="F231" s="102">
         <f t="shared" ref="F231:F238" si="2">H231*$M$2</f>
-        <v>1136.269239105</v>
-      </c>
-      <c r="G231" s="74"/>
-      <c r="H231" s="76">
+        <v>615.20883114599997</v>
+      </c>
+      <c r="G231" s="103"/>
+      <c r="H231" s="70">
         <f>C354</f>
-        <v>8.7776689000000005E-2</v>
-      </c>
-      <c r="I231" s="77"/>
+        <v>4.7524822799999998E-2</v>
+      </c>
+      <c r="I231" s="71"/>
       <c r="N231" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="71" t="s">
+      <c r="A232" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="B232" s="71"/>
-      <c r="C232" s="71"/>
-      <c r="D232" s="71"/>
+      <c r="B232" s="99"/>
+      <c r="C232" s="99"/>
+      <c r="D232" s="99"/>
       <c r="E232" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F232" s="73">
+      <c r="F232" s="102">
         <f>C359</f>
         <v>6.9746159662903446</v>
       </c>
-      <c r="G232" s="74"/>
-      <c r="H232" s="76">
+      <c r="G232" s="103"/>
+      <c r="H232" s="70">
         <f>F232/$M$2</f>
         <v>5.387884099104167E-4</v>
       </c>
-      <c r="I232" s="77"/>
+      <c r="I232" s="71"/>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="71" t="s">
+      <c r="A233" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="B233" s="71"/>
-      <c r="C233" s="71"/>
-      <c r="D233" s="71"/>
+      <c r="B233" s="99"/>
+      <c r="C233" s="99"/>
+      <c r="D233" s="99"/>
       <c r="E233" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F233" s="73">
+      <c r="F233" s="102">
         <f t="shared" si="2"/>
-        <v>624.32375775000003</v>
-      </c>
-      <c r="G233" s="74"/>
-      <c r="H233" s="76">
+        <v>624.73605599999985</v>
+      </c>
+      <c r="G233" s="103"/>
+      <c r="H233" s="70">
         <f>C370</f>
-        <v>4.822895E-2</v>
-      </c>
-      <c r="I233" s="77"/>
+        <v>4.8260799999999993E-2</v>
+      </c>
+      <c r="I233" s="71"/>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="71" t="s">
+      <c r="A234" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="B234" s="71"/>
-      <c r="C234" s="71"/>
-      <c r="D234" s="71"/>
+      <c r="B234" s="99"/>
+      <c r="C234" s="99"/>
+      <c r="D234" s="99"/>
       <c r="E234" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F234" s="73">
+      <c r="F234" s="102">
         <f t="shared" si="2"/>
-        <v>936.48563662499987</v>
-      </c>
-      <c r="G234" s="74"/>
-      <c r="H234" s="76">
+        <v>937.10408399999983</v>
+      </c>
+      <c r="G234" s="103"/>
+      <c r="H234" s="70">
         <f>C375</f>
-        <v>7.2343424999999989E-2</v>
-      </c>
-      <c r="I234" s="77"/>
+        <v>7.2391199999999989E-2</v>
+      </c>
+      <c r="I234" s="71"/>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="71" t="s">
+      <c r="A235" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="B235" s="71"/>
-      <c r="C235" s="71"/>
-      <c r="D235" s="71"/>
+      <c r="B235" s="99"/>
+      <c r="C235" s="99"/>
+      <c r="D235" s="99"/>
       <c r="E235" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F235" s="73">
+      <c r="F235" s="102">
         <f t="shared" si="2"/>
         <v>1479.2923111418365</v>
       </c>
-      <c r="G235" s="74"/>
-      <c r="H235" s="76">
+      <c r="G235" s="103"/>
+      <c r="H235" s="70">
         <f>C380</f>
         <v>0.11427518819172164</v>
       </c>
-      <c r="I235" s="77"/>
+      <c r="I235" s="71"/>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="71" t="s">
+      <c r="A236" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="B236" s="71"/>
-      <c r="C236" s="71"/>
-      <c r="D236" s="71"/>
+      <c r="B236" s="99"/>
+      <c r="C236" s="99"/>
+      <c r="D236" s="99"/>
       <c r="E236" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F236" s="73">
+      <c r="F236" s="102">
         <f t="shared" si="2"/>
-        <v>4994.5900620000002</v>
-      </c>
-      <c r="G236" s="74"/>
-      <c r="H236" s="76">
+        <v>4997.8884479999988</v>
+      </c>
+      <c r="G236" s="103"/>
+      <c r="H236" s="70">
         <f>C384</f>
-        <v>0.3858316</v>
-      </c>
-      <c r="I236" s="77"/>
+        <v>0.38608639999999994</v>
+      </c>
+      <c r="I236" s="71"/>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="71" t="s">
+      <c r="A237" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="B237" s="71"/>
-      <c r="C237" s="71"/>
-      <c r="D237" s="71"/>
+      <c r="B237" s="99"/>
+      <c r="C237" s="99"/>
+      <c r="D237" s="99"/>
       <c r="E237" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F237" s="73">
+      <c r="F237" s="102">
         <f t="shared" si="2"/>
-        <v>3745.9425464999995</v>
-      </c>
-      <c r="G237" s="74"/>
-      <c r="H237" s="76">
+        <v>3748.4163359999993</v>
+      </c>
+      <c r="G237" s="103"/>
+      <c r="H237" s="70">
         <f>C389</f>
-        <v>0.28937369999999996</v>
-      </c>
-      <c r="I237" s="77"/>
+        <v>0.28956479999999996</v>
+      </c>
+      <c r="I237" s="71"/>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="71" t="s">
+      <c r="A238" s="99" t="s">
         <v>279</v>
       </c>
-      <c r="B238" s="71"/>
-      <c r="C238" s="71"/>
-      <c r="D238" s="71"/>
+      <c r="B238" s="99"/>
+      <c r="C238" s="99"/>
+      <c r="D238" s="99"/>
       <c r="E238" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F238" s="73">
+      <c r="F238" s="102">
         <f t="shared" si="2"/>
-        <v>3363.4772612372626</v>
-      </c>
-      <c r="G238" s="74"/>
-      <c r="H238" s="76">
+        <v>3261.3970417251721</v>
+      </c>
+      <c r="G238" s="103"/>
+      <c r="H238" s="70">
         <f>C394</f>
-        <v>0.25982829364521148</v>
-      </c>
-      <c r="I238" s="77"/>
+        <v>0.25194260654501138</v>
+      </c>
+      <c r="I238" s="71"/>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="72" t="s">
+      <c r="A239" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="B239" s="72"/>
-      <c r="C239" s="72"/>
-      <c r="D239" s="72"/>
+      <c r="B239" s="141"/>
+      <c r="C239" s="141"/>
+      <c r="D239" s="141"/>
       <c r="E239" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F239" s="73">
+      <c r="F239" s="102">
         <f>SUM(F225:F238)</f>
-        <v>483860.22886656038</v>
-      </c>
-      <c r="G239" s="74"/>
-      <c r="H239" s="76">
+        <v>469175.26014532137</v>
+      </c>
+      <c r="G239" s="103"/>
+      <c r="H239" s="70">
         <f t="array" ref="H239">SUM(H225:H238)</f>
-        <v>37.378155957246854</v>
-      </c>
-      <c r="I239" s="77"/>
+        <v>36.243743541546642</v>
+      </c>
+      <c r="I239" s="71"/>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="71" t="s">
+      <c r="A240" s="99" t="s">
         <v>280</v>
       </c>
-      <c r="B240" s="71"/>
-      <c r="C240" s="71"/>
-      <c r="D240" s="71"/>
+      <c r="B240" s="99"/>
+      <c r="C240" s="99"/>
+      <c r="D240" s="99"/>
       <c r="E240" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F240" s="73">
+      <c r="F240" s="102">
         <f>C398*$M$2</f>
-        <v>4838.6022886656056</v>
-      </c>
-      <c r="G240" s="74"/>
-      <c r="H240" s="76">
+        <v>4691.7526014532132</v>
+      </c>
+      <c r="G240" s="103"/>
+      <c r="H240" s="70">
         <f>C398</f>
-        <v>0.37378155957246856</v>
-      </c>
-      <c r="I240" s="77"/>
+        <v>0.36243743541546641</v>
+      </c>
+      <c r="I240" s="71"/>
     </row>
     <row r="241" spans="1:12">
-      <c r="A241" s="72" t="s">
+      <c r="A241" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="B241" s="72"/>
-      <c r="C241" s="72"/>
-      <c r="D241" s="72"/>
+      <c r="B241" s="141"/>
+      <c r="C241" s="141"/>
+      <c r="D241" s="141"/>
       <c r="E241" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F241" s="73">
+      <c r="F241" s="102">
         <f>SUM(F239:F240)</f>
-        <v>488698.83115522598</v>
-      </c>
-      <c r="G241" s="74"/>
-      <c r="H241" s="76">
+        <v>473867.01274677459</v>
+      </c>
+      <c r="G241" s="103"/>
+      <c r="H241" s="70">
         <f>SUM(H239:H240)</f>
-        <v>37.751937516819325</v>
-      </c>
-      <c r="I241" s="77"/>
+        <v>36.606180976962108</v>
+      </c>
+      <c r="I241" s="71"/>
     </row>
     <row r="242" spans="1:12">
-      <c r="A242" s="71" t="s">
+      <c r="A242" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="B242" s="71"/>
-      <c r="C242" s="71"/>
-      <c r="D242" s="71"/>
+      <c r="B242" s="99"/>
+      <c r="C242" s="99"/>
+      <c r="D242" s="99"/>
       <c r="E242" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F242" s="73">
+      <c r="F242" s="102">
         <f>H242*M2</f>
-        <v>246768.71672194591</v>
-      </c>
-      <c r="G242" s="74"/>
-      <c r="H242" s="76">
+        <v>239279.38267411385</v>
+      </c>
+      <c r="G242" s="103"/>
+      <c r="H242" s="70">
         <f>C402</f>
-        <v>19.062859538195898</v>
-      </c>
-      <c r="I242" s="77"/>
+        <v>18.484309206188787</v>
+      </c>
+      <c r="I242" s="71"/>
     </row>
     <row r="243" spans="1:12">
-      <c r="A243" s="71" t="s">
+      <c r="A243" s="99" t="s">
         <v>282</v>
       </c>
-      <c r="B243" s="71"/>
-      <c r="C243" s="71"/>
-      <c r="D243" s="71"/>
+      <c r="B243" s="99"/>
+      <c r="C243" s="99"/>
+      <c r="D243" s="99"/>
       <c r="E243" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F243" s="73">
+      <c r="F243" s="102">
         <f>SUM(F241:F242)</f>
-        <v>735467.54787717189</v>
-      </c>
-      <c r="G243" s="74"/>
-      <c r="H243" s="76">
+        <v>713146.39542088844</v>
+      </c>
+      <c r="G243" s="103"/>
+      <c r="H243" s="70">
         <f>SUM(H241:H242)</f>
-        <v>56.814797055015219</v>
-      </c>
-      <c r="I243" s="77"/>
+        <v>55.090490183150891</v>
+      </c>
+      <c r="I243" s="71"/>
     </row>
     <row r="244" spans="1:12">
-      <c r="A244" s="146" t="s">
+      <c r="A244" s="77" t="s">
         <v>442</v>
       </c>
-      <c r="B244" s="147"/>
-      <c r="C244" s="147"/>
-      <c r="D244" s="148"/>
+      <c r="B244" s="78"/>
+      <c r="C244" s="78"/>
+      <c r="D244" s="79"/>
       <c r="E244" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F244" s="73">
+      <c r="F244" s="102">
         <f>H244*M2</f>
-        <v>18982.208978611223</v>
-      </c>
-      <c r="G244" s="74"/>
-      <c r="H244" s="76">
+        <v>18406.106359547219</v>
+      </c>
+      <c r="G244" s="103"/>
+      <c r="H244" s="70">
         <f>C406</f>
-        <v>1.4663738106304538</v>
-      </c>
-      <c r="I244" s="77"/>
+        <v>1.4218699389375991</v>
+      </c>
+      <c r="I244" s="71"/>
     </row>
     <row r="245" spans="1:12">
-      <c r="A245" s="151" t="s">
+      <c r="A245" s="80" t="s">
         <v>443</v>
       </c>
-      <c r="B245" s="108"/>
-      <c r="C245" s="108"/>
-      <c r="D245" s="152"/>
+      <c r="B245" s="81"/>
+      <c r="C245" s="81"/>
+      <c r="D245" s="82"/>
       <c r="E245" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F245" s="73">
+      <c r="F245" s="102">
         <f>H245*M2</f>
-        <v>15495.680798866304</v>
-      </c>
-      <c r="G245" s="74"/>
-      <c r="H245" s="76">
+        <v>15025.392946569158</v>
+      </c>
+      <c r="G245" s="103"/>
+      <c r="H245" s="70">
         <f>C410</f>
-        <v>1.1970398454126152</v>
-      </c>
-      <c r="I245" s="77"/>
+        <v>1.1607101542347746</v>
+      </c>
+      <c r="I245" s="71"/>
     </row>
     <row r="246" spans="1:12" s="17" customFormat="1">
-      <c r="A246" s="108" t="s">
+      <c r="A246" s="81" t="s">
         <v>446</v>
       </c>
-      <c r="B246" s="108"/>
-      <c r="C246" s="108"/>
-      <c r="D246" s="108"/>
+      <c r="B246" s="81"/>
+      <c r="C246" s="81"/>
+      <c r="D246" s="81"/>
       <c r="E246" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F246" s="109">
+      <c r="F246" s="125">
         <f>C419</f>
-        <v>735470.21129082795</v>
-      </c>
-      <c r="G246" s="109"/>
-      <c r="H246" s="76">
+        <v>713148.97800098162</v>
+      </c>
+      <c r="G246" s="125"/>
+      <c r="H246" s="70">
         <f>F246/$M$2</f>
-        <v>56.815002803462953</v>
-      </c>
-      <c r="I246" s="77"/>
+        <v>55.090689687213718</v>
+      </c>
+      <c r="I246" s="71"/>
     </row>
     <row r="247" spans="1:12">
-      <c r="A247" s="71" t="s">
+      <c r="A247" s="99" t="s">
         <v>447</v>
       </c>
-      <c r="B247" s="71"/>
-      <c r="C247" s="71"/>
-      <c r="D247" s="71"/>
+      <c r="B247" s="99"/>
+      <c r="C247" s="99"/>
+      <c r="D247" s="99"/>
       <c r="E247" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F247" s="73">
+      <c r="F247" s="102">
         <f>H247*$M$2</f>
-        <v>133255.10702985077</v>
-      </c>
-      <c r="G247" s="74"/>
-      <c r="H247" s="76">
+        <v>129210.86664402149</v>
+      </c>
+      <c r="G247" s="103"/>
+      <c r="H247" s="70">
         <f>C423</f>
-        <v>10.293944150625784</v>
-      </c>
-      <c r="I247" s="77"/>
+        <v>9.9815269713419461</v>
+      </c>
+      <c r="I247" s="71"/>
     </row>
     <row r="248" spans="1:12">
-      <c r="A248" s="71" t="s">
+      <c r="A248" s="99" t="s">
         <v>448</v>
       </c>
-      <c r="B248" s="71"/>
-      <c r="C248" s="71"/>
-      <c r="D248" s="71"/>
+      <c r="B248" s="99"/>
+      <c r="C248" s="99"/>
+      <c r="D248" s="99"/>
       <c r="E248" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F248" s="73">
+      <c r="F248" s="102">
         <f>H248*$M$2</f>
-        <v>902433.19705215609</v>
-      </c>
-      <c r="G248" s="74"/>
-      <c r="H248" s="76">
+        <v>875044.70243923436</v>
+      </c>
+      <c r="G248" s="103"/>
+      <c r="H248" s="70">
         <f>C428</f>
-        <v>69.712877331182398</v>
-      </c>
-      <c r="I248" s="77"/>
+        <v>67.597118767032399</v>
+      </c>
+      <c r="I248" s="71"/>
     </row>
     <row r="251" spans="1:12">
-      <c r="B251" s="75" t="s">
+      <c r="B251" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="C251" s="75"/>
-      <c r="D251" s="75"/>
-      <c r="E251" s="75"/>
-      <c r="F251" s="75"/>
-      <c r="G251" s="75"/>
-      <c r="H251" s="75"/>
-      <c r="I251" s="75"/>
-      <c r="J251" s="75"/>
-      <c r="K251" s="75"/>
-      <c r="L251" s="75"/>
+      <c r="C251" s="74"/>
+      <c r="D251" s="74"/>
+      <c r="E251" s="74"/>
+      <c r="F251" s="74"/>
+      <c r="G251" s="74"/>
+      <c r="H251" s="74"/>
+      <c r="I251" s="74"/>
+      <c r="J251" s="74"/>
+      <c r="K251" s="74"/>
+      <c r="L251" s="74"/>
     </row>
     <row r="253" spans="1:12">
-      <c r="B253" s="75" t="s">
+      <c r="B253" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="C253" s="75"/>
-      <c r="D253" s="75"/>
-      <c r="E253" s="75"/>
+      <c r="C253" s="74"/>
+      <c r="D253" s="74"/>
+      <c r="E253" s="74"/>
     </row>
     <row r="255" spans="1:12" ht="46.5" customHeight="1">
-      <c r="A255" s="82" t="s">
+      <c r="A255" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="B255" s="82"/>
+      <c r="B255" s="98"/>
       <c r="C255" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D255" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E255" s="82" t="s">
+      <c r="E255" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="F255" s="82"/>
-      <c r="G255" s="82" t="s">
+      <c r="F255" s="98"/>
+      <c r="G255" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="H255" s="82"/>
-      <c r="I255" s="82" t="s">
+      <c r="H255" s="98"/>
+      <c r="I255" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="J255" s="82"/>
+      <c r="J255" s="98"/>
     </row>
     <row r="256" spans="1:12">
-      <c r="A256" s="68" t="str">
+      <c r="A256" s="108" t="str">
         <f t="shared" ref="A256:A261" si="3">L7</f>
         <v>Провод</v>
       </c>
-      <c r="B256" s="68"/>
+      <c r="B256" s="108"/>
       <c r="C256" s="4" t="str">
         <f>M7</f>
         <v>НВ-020-61</v>
@@ -6484,28 +6492,28 @@
       <c r="D256" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E256" s="69">
+      <c r="E256" s="75">
         <f t="shared" ref="E256:E261" si="4">N7</f>
         <v>0.5</v>
       </c>
-      <c r="F256" s="70"/>
-      <c r="G256" s="69">
+      <c r="F256" s="76"/>
+      <c r="G256" s="75">
         <f t="shared" ref="G256:G261" si="5">O7</f>
         <v>1.4550000000000001</v>
       </c>
-      <c r="H256" s="70"/>
-      <c r="I256" s="76">
+      <c r="H256" s="76"/>
+      <c r="I256" s="70">
         <f t="array" ref="I256">E256*G256</f>
         <v>0.72750000000000004</v>
       </c>
-      <c r="J256" s="77"/>
+      <c r="J256" s="71"/>
     </row>
     <row r="257" spans="1:12">
-      <c r="A257" s="68" t="str">
+      <c r="A257" s="108" t="str">
         <f t="shared" si="3"/>
         <v>Флюс</v>
       </c>
-      <c r="B257" s="68"/>
+      <c r="B257" s="108"/>
       <c r="C257" s="4" t="str">
         <f>M8</f>
         <v>ФКСН</v>
@@ -6513,28 +6521,28 @@
       <c r="D257" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E257" s="69">
+      <c r="E257" s="75">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F257" s="70"/>
-      <c r="G257" s="69">
+      <c r="F257" s="76"/>
+      <c r="G257" s="75">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="H257" s="70"/>
-      <c r="I257" s="76">
+      <c r="H257" s="76"/>
+      <c r="I257" s="70">
         <f t="array" ref="I257">E257*G257</f>
         <v>3.5E-4</v>
       </c>
-      <c r="J257" s="77"/>
+      <c r="J257" s="71"/>
     </row>
     <row r="258" spans="1:12">
-      <c r="A258" s="68" t="str">
+      <c r="A258" s="108" t="str">
         <f t="shared" si="3"/>
         <v>олово</v>
       </c>
-      <c r="B258" s="68"/>
+      <c r="B258" s="108"/>
       <c r="C258" s="4" t="str">
         <f>M9</f>
         <v>-</v>
@@ -6542,28 +6550,28 @@
       <c r="D258" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E258" s="69">
+      <c r="E258" s="75">
         <f t="shared" si="4"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F258" s="70"/>
-      <c r="G258" s="69">
+      <c r="F258" s="76"/>
+      <c r="G258" s="75">
         <f t="shared" si="5"/>
         <v>4.45</v>
       </c>
-      <c r="H258" s="70"/>
-      <c r="I258" s="76">
+      <c r="H258" s="76"/>
+      <c r="I258" s="70">
         <f t="array" ref="I258">E258*G258</f>
         <v>1.3350000000000001E-2</v>
       </c>
-      <c r="J258" s="77"/>
+      <c r="J258" s="71"/>
     </row>
     <row r="259" spans="1:12">
-      <c r="A259" s="68" t="str">
+      <c r="A259" s="108" t="str">
         <f t="shared" si="3"/>
         <v>припой</v>
       </c>
-      <c r="B259" s="68"/>
+      <c r="B259" s="108"/>
       <c r="C259" s="4" t="str">
         <f>M10</f>
         <v>ПОС-61</v>
@@ -6571,28 +6579,28 @@
       <c r="D259" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E259" s="69">
+      <c r="E259" s="75">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="F259" s="70"/>
-      <c r="G259" s="69">
+      <c r="F259" s="76"/>
+      <c r="G259" s="75">
         <f t="shared" si="5"/>
         <v>1.3620000000000001</v>
       </c>
-      <c r="H259" s="70"/>
-      <c r="I259" s="76">
+      <c r="H259" s="76"/>
+      <c r="I259" s="70">
         <f t="array" ref="I259">E259*G259</f>
         <v>0.10896000000000002</v>
       </c>
-      <c r="J259" s="77"/>
+      <c r="J259" s="71"/>
     </row>
     <row r="260" spans="1:12">
-      <c r="A260" s="68" t="str">
+      <c r="A260" s="108" t="str">
         <f t="shared" si="3"/>
         <v>Спирт этиловый</v>
       </c>
-      <c r="B260" s="68"/>
+      <c r="B260" s="108"/>
       <c r="C260" s="4" t="str">
         <f>M11</f>
         <v>ГОСТ 18300-72</v>
@@ -6600,178 +6608,178 @@
       <c r="D260" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E260" s="69">
+      <c r="E260" s="75">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F260" s="70"/>
-      <c r="G260" s="69">
+      <c r="F260" s="76"/>
+      <c r="G260" s="75">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="H260" s="70"/>
-      <c r="I260" s="76">
+      <c r="H260" s="76"/>
+      <c r="I260" s="70">
         <f t="array" ref="I260">E260*G260</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J260" s="77"/>
+      <c r="J260" s="71"/>
     </row>
     <row r="261" spans="1:12">
-      <c r="A261" s="68">
+      <c r="A261" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B261" s="68"/>
+      <c r="B261" s="108"/>
       <c r="C261" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E261" s="69">
+      <c r="E261" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F261" s="70"/>
-      <c r="G261" s="69">
+      <c r="F261" s="76"/>
+      <c r="G261" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H261" s="70"/>
-      <c r="I261" s="76">
+      <c r="H261" s="76"/>
+      <c r="I261" s="70">
         <f t="array" ref="I261">E261*G261</f>
         <v>0</v>
       </c>
-      <c r="J261" s="77"/>
+      <c r="J261" s="71"/>
     </row>
     <row r="262" spans="1:12">
-      <c r="A262" s="85" t="s">
+      <c r="A262" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B262" s="85"/>
+      <c r="B262" s="126"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
       <c r="E262" s="35"/>
       <c r="F262" s="36"/>
       <c r="G262" s="35"/>
       <c r="H262" s="36"/>
-      <c r="I262" s="120">
+      <c r="I262" s="72">
         <f>SUM(I256:I261)</f>
         <v>0.85136000000000001</v>
       </c>
-      <c r="J262" s="121"/>
+      <c r="J262" s="73"/>
     </row>
     <row r="263" spans="1:12">
-      <c r="A263" s="71" t="s">
+      <c r="A263" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="B263" s="71"/>
+      <c r="B263" s="99"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="37"/>
       <c r="F263" s="38"/>
       <c r="G263" s="37"/>
       <c r="H263" s="38"/>
-      <c r="I263" s="76">
+      <c r="I263" s="70">
         <f>0.05*I262</f>
         <v>4.2568000000000002E-2</v>
       </c>
-      <c r="J263" s="77"/>
+      <c r="J263" s="71"/>
     </row>
     <row r="264" spans="1:12">
-      <c r="A264" s="85" t="s">
+      <c r="A264" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="B264" s="85"/>
+      <c r="B264" s="126"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
       <c r="E264" s="35"/>
       <c r="F264" s="36"/>
       <c r="G264" s="35"/>
       <c r="H264" s="36"/>
-      <c r="I264" s="120">
+      <c r="I264" s="72">
         <f>SUM(I262:I263)</f>
         <v>0.89392800000000006</v>
       </c>
-      <c r="J264" s="121"/>
+      <c r="J264" s="73"/>
     </row>
     <row r="265" spans="1:12">
-      <c r="A265" s="71" t="s">
+      <c r="A265" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="B265" s="71"/>
+      <c r="B265" s="99"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="37"/>
       <c r="F265" s="38"/>
       <c r="G265" s="37"/>
       <c r="H265" s="38"/>
-      <c r="I265" s="76">
+      <c r="I265" s="70">
         <f>0.01*I264</f>
         <v>8.9392800000000008E-3</v>
       </c>
-      <c r="J265" s="77"/>
+      <c r="J265" s="71"/>
     </row>
     <row r="266" spans="1:12">
-      <c r="A266" s="72" t="s">
+      <c r="A266" s="141" t="s">
         <v>397</v>
       </c>
-      <c r="B266" s="72"/>
+      <c r="B266" s="141"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
       <c r="E266" s="35"/>
       <c r="F266" s="36"/>
       <c r="G266" s="35"/>
       <c r="H266" s="36"/>
-      <c r="I266" s="120">
+      <c r="I266" s="72">
         <f t="array" ref="I266">I264-I265</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="J266" s="121"/>
+      <c r="J266" s="73"/>
     </row>
     <row r="269" spans="1:12">
-      <c r="B269" s="75" t="s">
+      <c r="B269" s="74" t="s">
         <v>433</v>
       </c>
-      <c r="C269" s="75"/>
-      <c r="D269" s="75"/>
-      <c r="E269" s="75"/>
-      <c r="F269" s="75"/>
-      <c r="G269" s="75"/>
-      <c r="H269" s="75"/>
-      <c r="I269" s="75"/>
-      <c r="J269" s="75"/>
-      <c r="K269" s="75"/>
-      <c r="L269" s="75"/>
+      <c r="C269" s="74"/>
+      <c r="D269" s="74"/>
+      <c r="E269" s="74"/>
+      <c r="F269" s="74"/>
+      <c r="G269" s="74"/>
+      <c r="H269" s="74"/>
+      <c r="I269" s="74"/>
+      <c r="J269" s="74"/>
+      <c r="K269" s="74"/>
+      <c r="L269" s="74"/>
     </row>
     <row r="271" spans="1:12" ht="45" customHeight="1">
-      <c r="A271" s="82" t="s">
+      <c r="A271" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="B271" s="82"/>
-      <c r="C271" s="82"/>
+      <c r="B271" s="98"/>
+      <c r="C271" s="98"/>
       <c r="D271" s="14" t="s">
         <v>221</v>
       </c>
       <c r="E271" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F271" s="82" t="s">
+      <c r="F271" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="G271" s="82"/>
+      <c r="G271" s="98"/>
       <c r="H271" s="14" t="s">
         <v>234</v>
       </c>
       <c r="I271" s="39"/>
     </row>
     <row r="272" spans="1:12">
-      <c r="A272" s="68" t="str">
+      <c r="A272" s="108" t="str">
         <f>R7</f>
         <v>Трансформатор</v>
       </c>
-      <c r="B272" s="68"/>
-      <c r="C272" s="68"/>
+      <c r="B272" s="108"/>
+      <c r="C272" s="108"/>
       <c r="D272" s="4" t="s">
         <v>235</v>
       </c>
@@ -6790,12 +6798,12 @@
       </c>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="68" t="str">
+      <c r="A273" s="108" t="str">
         <f t="shared" ref="A273:A281" si="6">R8</f>
         <v>Реле</v>
       </c>
-      <c r="B273" s="68"/>
-      <c r="C273" s="68"/>
+      <c r="B273" s="108"/>
+      <c r="C273" s="108"/>
       <c r="D273" s="4" t="s">
         <v>235</v>
       </c>
@@ -6814,12 +6822,12 @@
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="68" t="str">
+      <c r="A274" s="108" t="str">
         <f t="shared" si="6"/>
         <v>Вилка</v>
       </c>
-      <c r="B274" s="68"/>
-      <c r="C274" s="68"/>
+      <c r="B274" s="108"/>
+      <c r="C274" s="108"/>
       <c r="D274" s="4" t="s">
         <v>235</v>
       </c>
@@ -6838,12 +6846,12 @@
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="68" t="str">
+      <c r="A275" s="108" t="str">
         <f t="shared" si="6"/>
         <v>Транзистор</v>
       </c>
-      <c r="B275" s="68"/>
-      <c r="C275" s="68"/>
+      <c r="B275" s="108"/>
+      <c r="C275" s="108"/>
       <c r="D275" s="4" t="s">
         <v>235</v>
       </c>
@@ -6862,12 +6870,12 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="68" t="str">
+      <c r="A276" s="108" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B276" s="68"/>
-      <c r="C276" s="68"/>
+      <c r="B276" s="108"/>
+      <c r="C276" s="108"/>
       <c r="D276" s="4" t="s">
         <v>235</v>
       </c>
@@ -6886,12 +6894,12 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="68" t="str">
+      <c r="A277" s="108" t="str">
         <f t="shared" si="6"/>
         <v>Печатная плата</v>
       </c>
-      <c r="B277" s="68"/>
-      <c r="C277" s="68"/>
+      <c r="B277" s="108"/>
+      <c r="C277" s="108"/>
       <c r="D277" s="4" t="s">
         <v>235</v>
       </c>
@@ -6910,12 +6918,12 @@
       </c>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="68" t="str">
+      <c r="A278" s="108" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B278" s="68"/>
-      <c r="C278" s="68"/>
+      <c r="B278" s="108"/>
+      <c r="C278" s="108"/>
       <c r="D278" s="4" t="s">
         <v>235</v>
       </c>
@@ -6934,12 +6942,12 @@
       </c>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="68" t="str">
+      <c r="A279" s="108" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B279" s="68"/>
-      <c r="C279" s="68"/>
+      <c r="B279" s="108"/>
+      <c r="C279" s="108"/>
       <c r="D279" s="4" t="s">
         <v>235</v>
       </c>
@@ -6958,12 +6966,12 @@
       </c>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="68" t="str">
+      <c r="A280" s="108" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B280" s="68"/>
-      <c r="C280" s="68"/>
+      <c r="B280" s="108"/>
+      <c r="C280" s="108"/>
       <c r="D280" s="4" t="s">
         <v>235</v>
       </c>
@@ -6982,12 +6990,12 @@
       </c>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="68" t="str">
+      <c r="A281" s="108" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B281" s="68"/>
-      <c r="C281" s="68"/>
+      <c r="B281" s="108"/>
+      <c r="C281" s="108"/>
       <c r="D281" s="4" t="s">
         <v>235</v>
       </c>
@@ -7006,12 +7014,12 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="68" t="str">
+      <c r="A282" s="108" t="str">
         <f t="shared" ref="A282:A289" si="9">R17</f>
         <v>Радиолампа</v>
       </c>
-      <c r="B282" s="68"/>
-      <c r="C282" s="68"/>
+      <c r="B282" s="108"/>
+      <c r="C282" s="108"/>
       <c r="D282" s="4" t="s">
         <v>235</v>
       </c>
@@ -7030,12 +7038,12 @@
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="68" t="str">
+      <c r="A283" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B283" s="68"/>
-      <c r="C283" s="68"/>
+      <c r="B283" s="108"/>
+      <c r="C283" s="108"/>
       <c r="D283" s="4" t="s">
         <v>235</v>
       </c>
@@ -7054,12 +7062,12 @@
       </c>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="68" t="str">
+      <c r="A284" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Дриод</v>
       </c>
-      <c r="B284" s="68"/>
-      <c r="C284" s="68"/>
+      <c r="B284" s="108"/>
+      <c r="C284" s="108"/>
       <c r="D284" s="4" t="s">
         <v>235</v>
       </c>
@@ -7078,12 +7086,12 @@
       </c>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="68" t="str">
+      <c r="A285" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Дроссель</v>
       </c>
-      <c r="B285" s="68"/>
-      <c r="C285" s="68"/>
+      <c r="B285" s="108"/>
+      <c r="C285" s="108"/>
       <c r="D285" s="4" t="s">
         <v>235</v>
       </c>
@@ -7102,12 +7110,12 @@
       </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" s="68" t="str">
+      <c r="A286" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Фильтр</v>
       </c>
-      <c r="B286" s="68"/>
-      <c r="C286" s="68"/>
+      <c r="B286" s="108"/>
+      <c r="C286" s="108"/>
       <c r="D286" s="4" t="s">
         <v>235</v>
       </c>
@@ -7126,12 +7134,12 @@
       </c>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287" s="68" t="str">
+      <c r="A287" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Панель ламповая</v>
       </c>
-      <c r="B287" s="68"/>
-      <c r="C287" s="68"/>
+      <c r="B287" s="108"/>
+      <c r="C287" s="108"/>
       <c r="D287" s="4" t="s">
         <v>235</v>
       </c>
@@ -7150,12 +7158,12 @@
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="68" t="str">
+      <c r="A288" s="108" t="str">
         <f t="shared" si="9"/>
         <v>заклепка гетинаксовая</v>
       </c>
-      <c r="B288" s="68"/>
-      <c r="C288" s="68"/>
+      <c r="B288" s="108"/>
+      <c r="C288" s="108"/>
       <c r="D288" s="4" t="s">
         <v>235</v>
       </c>
@@ -7174,12 +7182,12 @@
       </c>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="68" t="str">
+      <c r="A289" s="108" t="str">
         <f t="shared" si="9"/>
         <v>Плата</v>
       </c>
-      <c r="B289" s="68"/>
-      <c r="C289" s="68"/>
+      <c r="B289" s="108"/>
+      <c r="C289" s="108"/>
       <c r="D289" s="4" t="s">
         <v>235</v>
       </c>
@@ -7198,11 +7206,11 @@
       </c>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="85" t="s">
+      <c r="A290" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B290" s="85"/>
-      <c r="C290" s="85"/>
+      <c r="B290" s="126"/>
+      <c r="C290" s="126"/>
       <c r="D290" s="20"/>
       <c r="E290" s="20"/>
       <c r="F290" s="35"/>
@@ -7213,11 +7221,11 @@
       </c>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="71" t="s">
+      <c r="A291" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="B291" s="71"/>
-      <c r="C291" s="71"/>
+      <c r="B291" s="99"/>
+      <c r="C291" s="99"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="37"/>
@@ -7228,11 +7236,11 @@
       </c>
     </row>
     <row r="292" spans="1:10">
-      <c r="A292" s="85" t="s">
+      <c r="A292" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="B292" s="85"/>
-      <c r="C292" s="85"/>
+      <c r="B292" s="126"/>
+      <c r="C292" s="126"/>
       <c r="D292" s="20"/>
       <c r="E292" s="20"/>
       <c r="F292" s="35"/>
@@ -7244,229 +7252,261 @@
       <c r="I292" s="40"/>
     </row>
     <row r="295" spans="1:10">
-      <c r="B295" s="75" t="s">
+      <c r="B295" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="C295" s="75"/>
-      <c r="D295" s="75"/>
-      <c r="E295" s="75"/>
-      <c r="F295" s="75"/>
-      <c r="G295" s="75"/>
-      <c r="H295" s="75"/>
-      <c r="I295" s="75"/>
-      <c r="J295" s="75"/>
+      <c r="C295" s="74"/>
+      <c r="D295" s="74"/>
+      <c r="E295" s="74"/>
+      <c r="F295" s="74"/>
+      <c r="G295" s="74"/>
+      <c r="H295" s="74"/>
+      <c r="I295" s="74"/>
+      <c r="J295" s="74"/>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="82" t="s">
+      <c r="A297" s="98" t="s">
         <v>238</v>
       </c>
-      <c r="B297" s="82"/>
-      <c r="C297" s="82"/>
+      <c r="B297" s="98"/>
+      <c r="C297" s="98"/>
       <c r="D297" s="14" t="s">
         <v>239</v>
       </c>
       <c r="E297" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F297" s="82" t="s">
+      <c r="F297" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="G297" s="82"/>
-      <c r="H297" s="82" t="s">
+      <c r="G297" s="98"/>
+      <c r="H297" s="98" t="s">
         <v>242</v>
       </c>
-      <c r="I297" s="82"/>
+      <c r="I297" s="98"/>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="84">
+      <c r="A298" s="87">
         <v>1</v>
       </c>
-      <c r="B298" s="84"/>
-      <c r="C298" s="84"/>
+      <c r="B298" s="87"/>
+      <c r="C298" s="87"/>
       <c r="D298" s="4">
         <v>3</v>
       </c>
-      <c r="E298" s="1">
+      <c r="E298" s="66">
         <f>B25</f>
         <v>1.55</v>
       </c>
-      <c r="F298" s="69">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="G298" s="70"/>
-      <c r="H298" s="76">
+      <c r="F298" s="110">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G298" s="111"/>
+      <c r="H298" s="70">
         <f>E298*F298/60</f>
-        <v>2.3017500000000003E-2</v>
-      </c>
-      <c r="I298" s="77"/>
+        <v>2.1544999999999998E-2</v>
+      </c>
+      <c r="I298" s="71"/>
+      <c r="J298" s="2">
+        <f>H298*12945</f>
+        <v>278.90002499999997</v>
+      </c>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="84">
+      <c r="A299" s="87">
         <v>2</v>
       </c>
-      <c r="B299" s="84"/>
-      <c r="C299" s="84"/>
+      <c r="B299" s="87"/>
+      <c r="C299" s="87"/>
       <c r="D299" s="4">
         <v>3</v>
       </c>
-      <c r="E299" s="1">
+      <c r="E299" s="66">
         <f t="shared" ref="E299:E306" si="10">B26</f>
         <v>6.23</v>
       </c>
-      <c r="F299" s="69">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="G299" s="70"/>
-      <c r="H299" s="76">
-        <f t="array" ref="H299">E299*F299/60</f>
-        <v>9.2515500000000001E-2</v>
-      </c>
-      <c r="I299" s="77"/>
+      <c r="F299" s="110">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G299" s="111"/>
+      <c r="H299" s="70">
+        <f>E299*F299/60</f>
+        <v>8.6597000000000007E-2</v>
+      </c>
+      <c r="I299" s="71"/>
+      <c r="J299" s="2">
+        <f t="shared" ref="J299:J305" si="11">H299*12945</f>
+        <v>1120.9981650000002</v>
+      </c>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="84">
+      <c r="A300" s="87">
         <v>3</v>
       </c>
-      <c r="B300" s="84"/>
-      <c r="C300" s="84"/>
+      <c r="B300" s="87"/>
+      <c r="C300" s="87"/>
       <c r="D300" s="4">
         <v>3</v>
       </c>
-      <c r="E300" s="1">
+      <c r="E300" s="66">
         <f t="shared" si="10"/>
         <v>1.52</v>
       </c>
-      <c r="F300" s="45">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="G300" s="46"/>
-      <c r="H300" s="76">
-        <f t="array" ref="H300">E300*F300/60</f>
-        <v>2.2571999999999998E-2</v>
-      </c>
-      <c r="I300" s="77"/>
+      <c r="F300" s="67">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G300" s="68"/>
+      <c r="H300" s="70">
+        <f>E300*F300/60</f>
+        <v>2.1127999999999997E-2</v>
+      </c>
+      <c r="I300" s="71"/>
+      <c r="J300" s="2">
+        <f t="shared" si="11"/>
+        <v>273.50195999999994</v>
+      </c>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="84">
+      <c r="A301" s="87">
         <v>4</v>
       </c>
-      <c r="B301" s="84"/>
-      <c r="C301" s="84"/>
+      <c r="B301" s="87"/>
+      <c r="C301" s="87"/>
       <c r="D301" s="4">
         <v>3</v>
       </c>
-      <c r="E301" s="1">
+      <c r="E301" s="66">
         <f t="shared" si="10"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="F301" s="45">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="G301" s="46"/>
-      <c r="H301" s="76">
-        <f t="array" ref="H301">E301*F301/60</f>
-        <v>6.9052500000000003E-2</v>
-      </c>
-      <c r="I301" s="77"/>
+      <c r="F301" s="67">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G301" s="68"/>
+      <c r="H301" s="70">
+        <f>E301*F301/60</f>
+        <v>6.4635000000000012E-2</v>
+      </c>
+      <c r="I301" s="71"/>
+      <c r="J301" s="2">
+        <f t="shared" si="11"/>
+        <v>836.7000750000002</v>
+      </c>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="84">
+      <c r="A302" s="87">
         <v>5</v>
       </c>
-      <c r="B302" s="84"/>
-      <c r="C302" s="84"/>
+      <c r="B302" s="87"/>
+      <c r="C302" s="87"/>
       <c r="D302" s="4">
         <v>3</v>
       </c>
-      <c r="E302" s="1">
+      <c r="E302" s="66">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="F302" s="45">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="G302" s="46"/>
-      <c r="H302" s="76">
-        <f t="array" ref="H302">E302*F302/60</f>
-        <v>4.4549999999999999E-2</v>
-      </c>
-      <c r="I302" s="77"/>
+      <c r="F302" s="67">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G302" s="68"/>
+      <c r="H302" s="70">
+        <f>E302*F302/60</f>
+        <v>4.1699999999999994E-2</v>
+      </c>
+      <c r="I302" s="71"/>
+      <c r="J302" s="2">
+        <f t="shared" si="11"/>
+        <v>539.80649999999991</v>
+      </c>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="84">
+      <c r="A303" s="87">
         <v>6</v>
       </c>
-      <c r="B303" s="84"/>
-      <c r="C303" s="84"/>
+      <c r="B303" s="87"/>
+      <c r="C303" s="87"/>
       <c r="D303" s="4">
         <v>3</v>
       </c>
-      <c r="E303" s="1">
+      <c r="E303" s="66">
         <f t="shared" si="10"/>
         <v>1.52</v>
       </c>
-      <c r="F303" s="45">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="G303" s="46"/>
-      <c r="H303" s="76">
-        <f t="array" ref="H303">E303*F303/60</f>
-        <v>2.2571999999999998E-2</v>
-      </c>
-      <c r="I303" s="77"/>
+      <c r="F303" s="67">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G303" s="68"/>
+      <c r="H303" s="70">
+        <f>E303*F303/60</f>
+        <v>2.1127999999999997E-2</v>
+      </c>
+      <c r="I303" s="71"/>
+      <c r="J303" s="2">
+        <f t="shared" si="11"/>
+        <v>273.50195999999994</v>
+      </c>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="84">
+      <c r="A304" s="87">
         <v>7</v>
       </c>
-      <c r="B304" s="84"/>
-      <c r="C304" s="84"/>
+      <c r="B304" s="87"/>
+      <c r="C304" s="87"/>
       <c r="D304" s="4">
         <v>3</v>
       </c>
-      <c r="E304" s="1">
+      <c r="E304" s="66">
         <f t="shared" si="10"/>
         <v>4.68</v>
       </c>
-      <c r="F304" s="45">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="G304" s="46"/>
-      <c r="H304" s="76">
-        <f t="array" ref="H304">E304*F304/60</f>
-        <v>6.9498000000000004E-2</v>
-      </c>
-      <c r="I304" s="77"/>
+      <c r="F304" s="67">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G304" s="68"/>
+      <c r="H304" s="70">
+        <f>E304*F304/60</f>
+        <v>6.5051999999999985E-2</v>
+      </c>
+      <c r="I304" s="71"/>
+      <c r="J304" s="2">
+        <f t="shared" si="11"/>
+        <v>842.09813999999983</v>
+      </c>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="84">
+      <c r="A305" s="87">
         <v>8</v>
       </c>
-      <c r="B305" s="84"/>
-      <c r="C305" s="84"/>
+      <c r="B305" s="87"/>
+      <c r="C305" s="87"/>
       <c r="D305" s="4">
         <v>3</v>
       </c>
-      <c r="E305" s="1">
+      <c r="E305" s="66">
         <f t="shared" si="10"/>
         <v>1.65</v>
       </c>
-      <c r="F305" s="69">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G305" s="70"/>
-      <c r="H305" s="76">
-        <f t="array" ref="H305">E305*F305/60</f>
-        <v>7.1499999999999992E-4</v>
-      </c>
-      <c r="I305" s="77"/>
+      <c r="F305" s="110">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G305" s="111"/>
+      <c r="H305" s="70">
+        <f>E305*F305/60</f>
+        <v>2.2934999999999997E-2</v>
+      </c>
+      <c r="I305" s="71"/>
+      <c r="J305" s="2">
+        <f t="shared" si="11"/>
+        <v>296.89357499999994</v>
+      </c>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="112">
+      <c r="A306" s="120">
         <v>9</v>
       </c>
-      <c r="B306" s="113"/>
-      <c r="C306" s="114"/>
+      <c r="B306" s="121"/>
+      <c r="C306" s="122"/>
       <c r="D306" s="4">
         <v>3</v>
       </c>
@@ -7474,76 +7514,88 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F306" s="69">
+      <c r="F306" s="75">
         <v>0</v>
       </c>
-      <c r="G306" s="70"/>
-      <c r="H306" s="76">
+      <c r="G306" s="76"/>
+      <c r="H306" s="70">
         <f t="array" ref="H306">E306*F306/60</f>
         <v>0</v>
       </c>
-      <c r="I306" s="77"/>
+      <c r="I306" s="71"/>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="111" t="s">
+      <c r="A307" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B307" s="111"/>
-      <c r="C307" s="111"/>
+      <c r="B307" s="119"/>
+      <c r="C307" s="119"/>
       <c r="D307" s="20"/>
       <c r="E307" s="20"/>
       <c r="F307" s="35"/>
       <c r="G307" s="36"/>
-      <c r="H307" s="120">
+      <c r="H307" s="72">
         <f>SUM(H298:H306)</f>
-        <v>0.34449249999999998</v>
-      </c>
-      <c r="I307" s="121"/>
+        <v>0.34471999999999997</v>
+      </c>
+      <c r="I307" s="73"/>
+      <c r="J307" s="2">
+        <f>H307*12945</f>
+        <v>4462.4003999999995</v>
+      </c>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="71" t="s">
+      <c r="A308" s="99" t="s">
         <v>434</v>
       </c>
-      <c r="B308" s="71"/>
-      <c r="C308" s="71"/>
+      <c r="B308" s="99"/>
+      <c r="C308" s="99"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="37"/>
       <c r="G308" s="38"/>
-      <c r="H308" s="76">
+      <c r="H308" s="70">
         <f>0.4*H307</f>
-        <v>0.137797</v>
-      </c>
-      <c r="I308" s="77"/>
+        <v>0.13788799999999998</v>
+      </c>
+      <c r="I308" s="71"/>
+      <c r="J308" s="2">
+        <f>H308*12945</f>
+        <v>1784.9601599999999</v>
+      </c>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="111" t="s">
+      <c r="A309" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="B309" s="111"/>
-      <c r="C309" s="111"/>
+      <c r="B309" s="119"/>
+      <c r="C309" s="119"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="37"/>
       <c r="G309" s="38"/>
-      <c r="H309" s="120">
+      <c r="H309" s="72">
         <f t="array" ref="H309">SUM(H307:H308)</f>
-        <v>0.48228949999999998</v>
-      </c>
-      <c r="I309" s="121"/>
+        <v>0.48260799999999993</v>
+      </c>
+      <c r="I309" s="73"/>
+      <c r="J309" s="2">
+        <f>H309*12945</f>
+        <v>6247.3605599999992</v>
+      </c>
     </row>
     <row r="313" spans="1:10">
-      <c r="B313" s="75" t="s">
+      <c r="B313" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="C313" s="75"/>
-      <c r="D313" s="75"/>
-      <c r="E313" s="75"/>
-      <c r="F313" s="75"/>
-      <c r="G313" s="75"/>
-      <c r="H313" s="75"/>
-      <c r="I313" s="75"/>
-      <c r="J313" s="75"/>
+      <c r="C313" s="74"/>
+      <c r="D313" s="74"/>
+      <c r="E313" s="74"/>
+      <c r="F313" s="74"/>
+      <c r="G313" s="74"/>
+      <c r="H313" s="74"/>
+      <c r="I313" s="74"/>
+      <c r="J313" s="74"/>
     </row>
     <row r="315" spans="1:10">
       <c r="C315" s="2" t="s">
@@ -7551,7 +7603,11 @@
       </c>
       <c r="D315" s="11">
         <f>H309*G315</f>
-        <v>0.14468684999999998</v>
+        <v>0.14478239999999998</v>
+      </c>
+      <c r="E315" s="2">
+        <f>D315*12945</f>
+        <v>1874.2081679999997</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>246</v>
@@ -7561,17 +7617,17 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="B318" s="75" t="s">
+      <c r="B318" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="C318" s="75"/>
-      <c r="D318" s="75"/>
-      <c r="E318" s="75"/>
-      <c r="F318" s="75"/>
-      <c r="G318" s="75"/>
-      <c r="H318" s="75"/>
-      <c r="I318" s="75"/>
-      <c r="J318" s="75"/>
+      <c r="C318" s="74"/>
+      <c r="D318" s="74"/>
+      <c r="E318" s="74"/>
+      <c r="F318" s="74"/>
+      <c r="G318" s="74"/>
+      <c r="H318" s="74"/>
+      <c r="I318" s="74"/>
+      <c r="J318" s="74"/>
     </row>
     <row r="320" spans="1:10">
       <c r="B320" s="2" t="s">
@@ -7584,13 +7640,17 @@
       </c>
       <c r="D322" s="11">
         <f>(H309+D315)*H322</f>
-        <v>1.1285574299999999</v>
+        <v>0.32310605599999997</v>
+      </c>
+      <c r="E322" s="2">
+        <f>D322*12945</f>
+        <v>4182.60789492</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H322" s="2">
-        <v>1.8</v>
+      <c r="H322" s="59">
+        <v>0.51500000000000001</v>
       </c>
       <c r="K322" s="4" t="s">
         <v>364</v>
@@ -7691,17 +7751,17 @@
       <c r="D344" s="11"/>
     </row>
     <row r="347" spans="2:10">
-      <c r="B347" s="75" t="s">
+      <c r="B347" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="C347" s="75"/>
-      <c r="D347" s="75"/>
-      <c r="E347" s="75"/>
-      <c r="F347" s="75"/>
-      <c r="G347" s="75"/>
-      <c r="H347" s="75"/>
-      <c r="I347" s="75"/>
-      <c r="J347" s="75"/>
+      <c r="C347" s="74"/>
+      <c r="D347" s="74"/>
+      <c r="E347" s="74"/>
+      <c r="F347" s="74"/>
+      <c r="G347" s="74"/>
+      <c r="H347" s="74"/>
+      <c r="I347" s="74"/>
+      <c r="J347" s="74"/>
     </row>
     <row r="349" spans="2:10">
       <c r="B349" s="2" t="s">
@@ -7709,7 +7769,11 @@
       </c>
       <c r="C349" s="41">
         <f>SUM(H227:H229)*G349/100</f>
-        <v>0.61443682300000002</v>
+        <v>0.33267375959999995</v>
+      </c>
+      <c r="D349" s="2">
+        <f>C349*12945</f>
+        <v>4306.4618180219995</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>259</v>
@@ -7722,17 +7786,17 @@
       </c>
     </row>
     <row r="352" spans="2:10">
-      <c r="B352" s="75" t="s">
+      <c r="B352" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="C352" s="75"/>
-      <c r="D352" s="75"/>
-      <c r="E352" s="75"/>
-      <c r="F352" s="75"/>
-      <c r="G352" s="75"/>
-      <c r="H352" s="75"/>
-      <c r="I352" s="75"/>
-      <c r="J352" s="75"/>
+      <c r="C352" s="74"/>
+      <c r="D352" s="74"/>
+      <c r="E352" s="74"/>
+      <c r="F352" s="74"/>
+      <c r="G352" s="74"/>
+      <c r="H352" s="74"/>
+      <c r="I352" s="74"/>
+      <c r="J352" s="74"/>
     </row>
     <row r="354" spans="2:10">
       <c r="B354" s="2" t="s">
@@ -7740,7 +7804,11 @@
       </c>
       <c r="C354" s="41">
         <f>SUM(H227:H229)*G354/100</f>
-        <v>8.7776689000000005E-2</v>
+        <v>4.7524822799999998E-2</v>
+      </c>
+      <c r="D354" s="2">
+        <f>C354*12945</f>
+        <v>615.20883114599997</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>261</v>
@@ -7753,17 +7821,17 @@
       </c>
     </row>
     <row r="357" spans="2:10">
-      <c r="B357" s="75" t="s">
+      <c r="B357" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="C357" s="75"/>
-      <c r="D357" s="75"/>
-      <c r="E357" s="75"/>
-      <c r="F357" s="75"/>
-      <c r="G357" s="75"/>
-      <c r="H357" s="75"/>
-      <c r="I357" s="75"/>
-      <c r="J357" s="75"/>
+      <c r="C357" s="74"/>
+      <c r="D357" s="74"/>
+      <c r="E357" s="74"/>
+      <c r="F357" s="74"/>
+      <c r="G357" s="74"/>
+      <c r="H357" s="74"/>
+      <c r="I357" s="74"/>
+      <c r="J357" s="74"/>
     </row>
     <row r="359" spans="2:10">
       <c r="B359" s="2" t="s">
@@ -7843,17 +7911,17 @@
       </c>
     </row>
     <row r="368" spans="2:10">
-      <c r="B368" s="75" t="s">
+      <c r="B368" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="C368" s="75"/>
-      <c r="D368" s="75"/>
-      <c r="E368" s="75"/>
-      <c r="F368" s="75"/>
-      <c r="G368" s="75"/>
-      <c r="H368" s="75"/>
-      <c r="I368" s="75"/>
-      <c r="J368" s="75"/>
+      <c r="C368" s="74"/>
+      <c r="D368" s="74"/>
+      <c r="E368" s="74"/>
+      <c r="F368" s="74"/>
+      <c r="G368" s="74"/>
+      <c r="H368" s="74"/>
+      <c r="I368" s="74"/>
+      <c r="J368" s="74"/>
     </row>
     <row r="370" spans="2:12">
       <c r="B370" s="2" t="s">
@@ -7861,7 +7929,7 @@
       </c>
       <c r="C370" s="41">
         <f>H227*G370/100</f>
-        <v>4.822895E-2</v>
+        <v>4.8260799999999993E-2</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>270</v>
@@ -7874,17 +7942,17 @@
       </c>
     </row>
     <row r="373" spans="2:12">
-      <c r="B373" s="75" t="s">
+      <c r="B373" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="C373" s="75"/>
-      <c r="D373" s="75"/>
-      <c r="E373" s="75"/>
-      <c r="F373" s="75"/>
-      <c r="G373" s="75"/>
-      <c r="H373" s="75"/>
-      <c r="I373" s="75"/>
-      <c r="J373" s="75"/>
+      <c r="C373" s="74"/>
+      <c r="D373" s="74"/>
+      <c r="E373" s="74"/>
+      <c r="F373" s="74"/>
+      <c r="G373" s="74"/>
+      <c r="H373" s="74"/>
+      <c r="I373" s="74"/>
+      <c r="J373" s="74"/>
     </row>
     <row r="375" spans="2:12">
       <c r="B375" s="2" t="s">
@@ -7892,11 +7960,11 @@
       </c>
       <c r="C375" s="41">
         <f>H227*G375/100</f>
-        <v>7.2343424999999989E-2</v>
+        <v>7.2391199999999989E-2</v>
       </c>
       <c r="D375" s="2">
         <f>H227*G375/100</f>
-        <v>7.2343424999999989E-2</v>
+        <v>7.2391199999999989E-2</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>273</v>
@@ -7912,17 +7980,17 @@
       </c>
     </row>
     <row r="378" spans="2:12">
-      <c r="B378" s="75" t="s">
+      <c r="B378" s="74" t="s">
         <v>438</v>
       </c>
-      <c r="C378" s="75"/>
-      <c r="D378" s="75"/>
-      <c r="E378" s="75"/>
-      <c r="F378" s="75"/>
-      <c r="G378" s="75"/>
-      <c r="H378" s="75"/>
-      <c r="I378" s="75"/>
-      <c r="J378" s="75"/>
+      <c r="C378" s="74"/>
+      <c r="D378" s="74"/>
+      <c r="E378" s="74"/>
+      <c r="F378" s="74"/>
+      <c r="G378" s="74"/>
+      <c r="H378" s="74"/>
+      <c r="I378" s="74"/>
+      <c r="J378" s="74"/>
     </row>
     <row r="379" spans="2:12">
       <c r="L379" s="2" t="s">
@@ -7937,19 +8005,23 @@
         <f>H166/$M$2</f>
         <v>0.11427518819172164</v>
       </c>
+      <c r="D380" s="2">
+        <f>$M$2</f>
+        <v>12945</v>
+      </c>
     </row>
     <row r="382" spans="2:12">
-      <c r="B382" s="75" t="s">
+      <c r="B382" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="C382" s="75"/>
-      <c r="D382" s="75"/>
-      <c r="E382" s="75"/>
-      <c r="F382" s="75"/>
-      <c r="G382" s="75"/>
-      <c r="H382" s="75"/>
-      <c r="I382" s="75"/>
-      <c r="J382" s="75"/>
+      <c r="C382" s="74"/>
+      <c r="D382" s="74"/>
+      <c r="E382" s="74"/>
+      <c r="F382" s="74"/>
+      <c r="G382" s="74"/>
+      <c r="H382" s="74"/>
+      <c r="I382" s="74"/>
+      <c r="J382" s="74"/>
     </row>
     <row r="384" spans="2:12">
       <c r="B384" s="2" t="s">
@@ -7957,7 +8029,11 @@
       </c>
       <c r="C384" s="41">
         <f>H227*G384/100</f>
-        <v>0.3858316</v>
+        <v>0.38608639999999994</v>
+      </c>
+      <c r="D384" s="2">
+        <f>C384*12945</f>
+        <v>4997.8884479999988</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>276</v>
@@ -7972,26 +8048,30 @@
         <v>455</v>
       </c>
     </row>
-    <row r="387" spans="2:10">
-      <c r="B387" s="75" t="s">
+    <row r="387" spans="2:12">
+      <c r="B387" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="C387" s="75"/>
-      <c r="D387" s="75"/>
-      <c r="E387" s="75"/>
-      <c r="F387" s="75"/>
-      <c r="G387" s="75"/>
-      <c r="H387" s="75"/>
-      <c r="I387" s="75"/>
-      <c r="J387" s="75"/>
-    </row>
-    <row r="389" spans="2:10">
+      <c r="C387" s="74"/>
+      <c r="D387" s="74"/>
+      <c r="E387" s="74"/>
+      <c r="F387" s="74"/>
+      <c r="G387" s="74"/>
+      <c r="H387" s="74"/>
+      <c r="I387" s="74"/>
+      <c r="J387" s="74"/>
+    </row>
+    <row r="389" spans="2:12">
       <c r="B389" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C389" s="41">
         <f>H227*G389/100</f>
-        <v>0.28937369999999996</v>
+        <v>0.28956479999999996</v>
+      </c>
+      <c r="D389" s="2">
+        <f>C389*12945</f>
+        <v>3748.4163359999993</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>278</v>
@@ -8006,30 +8086,30 @@
         <v>454</v>
       </c>
     </row>
-    <row r="392" spans="2:10">
-      <c r="B392" s="75" t="s">
+    <row r="392" spans="2:12">
+      <c r="B392" s="74" t="s">
         <v>368</v>
       </c>
-      <c r="C392" s="75"/>
-      <c r="D392" s="75"/>
-      <c r="E392" s="75"/>
-      <c r="F392" s="75"/>
-      <c r="G392" s="75"/>
-      <c r="H392" s="75"/>
-      <c r="I392" s="75"/>
-      <c r="J392" s="75"/>
-    </row>
-    <row r="394" spans="2:10">
+      <c r="C392" s="74"/>
+      <c r="D392" s="74"/>
+      <c r="E392" s="74"/>
+      <c r="F392" s="74"/>
+      <c r="G392" s="74"/>
+      <c r="H392" s="74"/>
+      <c r="I392" s="74"/>
+      <c r="J392" s="74"/>
+    </row>
+    <row r="394" spans="2:12">
       <c r="B394" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C394" s="41">
         <f>SUM(H225:H237)*G394/100</f>
-        <v>0.25982829364521148</v>
+        <v>0.25194260654501138</v>
       </c>
       <c r="D394" s="41">
         <f>SUM(H225:H237)</f>
-        <v>37.11832766360164</v>
+        <v>35.991800935001628</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>283</v>
@@ -8041,26 +8121,49 @@
         <v>453</v>
       </c>
     </row>
-    <row r="396" spans="2:10">
-      <c r="B396" s="75" t="s">
+    <row r="395" spans="2:12">
+      <c r="C395" s="2">
+        <f>C394*12945</f>
+        <v>3261.3970417251721</v>
+      </c>
+      <c r="D395" s="155">
+        <f>F239*0.01</f>
+        <v>4691.7526014532141</v>
+      </c>
+      <c r="G395" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="2:12">
+      <c r="B396" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="C396" s="75"/>
-      <c r="D396" s="75"/>
-      <c r="E396" s="75"/>
-      <c r="F396" s="75"/>
-      <c r="G396" s="75"/>
-      <c r="H396" s="75"/>
-      <c r="I396" s="75"/>
-      <c r="J396" s="75"/>
-    </row>
-    <row r="398" spans="2:10">
+      <c r="C396" s="74"/>
+      <c r="D396" s="74"/>
+      <c r="E396" s="74"/>
+      <c r="F396" s="74"/>
+      <c r="G396" s="74"/>
+      <c r="H396" s="74"/>
+      <c r="I396" s="74"/>
+      <c r="J396" s="74"/>
+      <c r="K396" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="L396" s="59">
+        <v>497560.31</v>
+      </c>
+    </row>
+    <row r="398" spans="2:12">
       <c r="B398" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C398" s="41">
         <f>H239*G398/100</f>
-        <v>0.37378155957246856</v>
+        <v>0.36243743541546641</v>
+      </c>
+      <c r="D398" s="59">
+        <f>F239*G398/100</f>
+        <v>4691.7526014532141</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>286</v>
@@ -8075,18 +8178,18 @@
         <v>452</v>
       </c>
     </row>
-    <row r="400" spans="2:10">
-      <c r="B400" s="75" t="s">
+    <row r="400" spans="2:12">
+      <c r="B400" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="C400" s="75"/>
-      <c r="D400" s="75"/>
-      <c r="E400" s="75"/>
-      <c r="F400" s="75"/>
-      <c r="G400" s="75"/>
-      <c r="H400" s="75"/>
-      <c r="I400" s="75"/>
-      <c r="J400" s="75"/>
+      <c r="C400" s="74"/>
+      <c r="D400" s="74"/>
+      <c r="E400" s="74"/>
+      <c r="F400" s="74"/>
+      <c r="G400" s="74"/>
+      <c r="H400" s="74"/>
+      <c r="I400" s="74"/>
+      <c r="J400" s="74"/>
     </row>
     <row r="402" spans="2:10">
       <c r="B402" s="2" t="s">
@@ -8094,7 +8197,15 @@
       </c>
       <c r="C402" s="41">
         <f>(H241+C398)*G402/100</f>
-        <v>19.062859538195898</v>
+        <v>18.484309206188787</v>
+      </c>
+      <c r="D402" s="156">
+        <f>F241*0.5</f>
+        <v>236933.5063733873</v>
+      </c>
+      <c r="E402" s="41">
+        <f>F241</f>
+        <v>473867.01274677459</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>287</v>
@@ -8110,17 +8221,17 @@
       </c>
     </row>
     <row r="404" spans="2:10">
-      <c r="B404" s="75" t="s">
+      <c r="B404" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="C404" s="75"/>
-      <c r="D404" s="75"/>
-      <c r="E404" s="75"/>
-      <c r="F404" s="75"/>
-      <c r="G404" s="75"/>
-      <c r="H404" s="75"/>
-      <c r="I404" s="75"/>
-      <c r="J404" s="75"/>
+      <c r="C404" s="74"/>
+      <c r="D404" s="74"/>
+      <c r="E404" s="74"/>
+      <c r="F404" s="74"/>
+      <c r="G404" s="74"/>
+      <c r="H404" s="74"/>
+      <c r="I404" s="74"/>
+      <c r="J404" s="74"/>
     </row>
     <row r="406" spans="2:10">
       <c r="B406" s="2" t="s">
@@ -8128,7 +8239,11 @@
       </c>
       <c r="C406" s="41">
         <f>(C414*G406)/(100-G406)</f>
-        <v>1.4663738106304538</v>
+        <v>1.4218699389375991</v>
+      </c>
+      <c r="E406" s="59">
+        <f>L396*2.5/97.5</f>
+        <v>12757.956666666665</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>417</v>
@@ -8141,17 +8256,17 @@
       </c>
     </row>
     <row r="408" spans="2:10">
-      <c r="B408" s="75" t="s">
+      <c r="B408" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="C408" s="75"/>
-      <c r="D408" s="75"/>
-      <c r="E408" s="75"/>
-      <c r="F408" s="75"/>
-      <c r="G408" s="75"/>
-      <c r="H408" s="75"/>
-      <c r="I408" s="75"/>
-      <c r="J408" s="75"/>
+      <c r="C408" s="74"/>
+      <c r="D408" s="74"/>
+      <c r="E408" s="74"/>
+      <c r="F408" s="74"/>
+      <c r="G408" s="74"/>
+      <c r="H408" s="74"/>
+      <c r="I408" s="74"/>
+      <c r="J408" s="74"/>
     </row>
     <row r="410" spans="2:10">
       <c r="B410" s="2" t="s">
@@ -8159,7 +8274,11 @@
       </c>
       <c r="C410" s="41">
         <f>((C414+C406)*G410)/(100-G410)</f>
-        <v>1.1970398454126152</v>
+        <v>1.1607101542347746</v>
+      </c>
+      <c r="E410" s="59">
+        <f>(L396+E406)*2/98</f>
+        <v>10414.658503401361</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>419</v>
@@ -8172,17 +8291,17 @@
       </c>
     </row>
     <row r="412" spans="2:10" s="17" customFormat="1">
-      <c r="B412" s="115" t="s">
+      <c r="B412" s="123" t="s">
         <v>289</v>
       </c>
-      <c r="C412" s="115"/>
-      <c r="D412" s="115"/>
-      <c r="E412" s="115"/>
-      <c r="F412" s="115"/>
-      <c r="G412" s="115"/>
-      <c r="H412" s="115"/>
-      <c r="I412" s="115"/>
-      <c r="J412" s="115"/>
+      <c r="C412" s="123"/>
+      <c r="D412" s="123"/>
+      <c r="E412" s="123"/>
+      <c r="F412" s="123"/>
+      <c r="G412" s="123"/>
+      <c r="H412" s="123"/>
+      <c r="I412" s="123"/>
+      <c r="J412" s="123"/>
     </row>
     <row r="414" spans="2:10">
       <c r="B414" s="2" t="s">
@@ -8190,21 +8309,21 @@
       </c>
       <c r="C414" s="41">
         <f>(H241+C398)+C402</f>
-        <v>57.188578614587698</v>
+        <v>55.452927618566363</v>
       </c>
     </row>
     <row r="417" spans="1:10">
-      <c r="B417" s="116" t="s">
+      <c r="B417" s="115" t="s">
         <v>440</v>
       </c>
-      <c r="C417" s="116"/>
-      <c r="D417" s="116"/>
-      <c r="E417" s="116"/>
-      <c r="F417" s="116"/>
-      <c r="G417" s="116"/>
-      <c r="H417" s="116"/>
-      <c r="I417" s="116"/>
-      <c r="J417" s="116"/>
+      <c r="C417" s="115"/>
+      <c r="D417" s="115"/>
+      <c r="E417" s="115"/>
+      <c r="F417" s="115"/>
+      <c r="G417" s="115"/>
+      <c r="H417" s="115"/>
+      <c r="I417" s="115"/>
+      <c r="J417" s="115"/>
     </row>
     <row r="419" spans="1:10">
       <c r="B419" s="2" t="s">
@@ -8212,21 +8331,25 @@
       </c>
       <c r="C419" s="41">
         <f>F243+C406+C410</f>
-        <v>735470.21129082795</v>
+        <v>713148.97800098162</v>
+      </c>
+      <c r="E419" s="59">
+        <f>L396+E406+E410</f>
+        <v>520732.92517006805</v>
       </c>
     </row>
     <row r="421" spans="1:10">
-      <c r="B421" s="75" t="s">
+      <c r="B421" s="74" t="s">
         <v>291</v>
       </c>
-      <c r="C421" s="75"/>
-      <c r="D421" s="75"/>
-      <c r="E421" s="75"/>
-      <c r="F421" s="75"/>
-      <c r="G421" s="75"/>
-      <c r="H421" s="75"/>
-      <c r="I421" s="75"/>
-      <c r="J421" s="75"/>
+      <c r="C421" s="74"/>
+      <c r="D421" s="74"/>
+      <c r="E421" s="74"/>
+      <c r="F421" s="74"/>
+      <c r="G421" s="74"/>
+      <c r="H421" s="74"/>
+      <c r="I421" s="74"/>
+      <c r="J421" s="74"/>
     </row>
     <row r="423" spans="1:10">
       <c r="B423" s="2" t="s">
@@ -8234,7 +8357,11 @@
       </c>
       <c r="C423" s="41">
         <f>C414*G423/100</f>
-        <v>10.293944150625784</v>
+        <v>9.9815269713419461</v>
+      </c>
+      <c r="E423" s="59">
+        <f>E419*0.2</f>
+        <v>104146.58503401361</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>290</v>
@@ -8252,7 +8379,7 @@
       </c>
       <c r="C425" s="2">
         <f>C414*G425/100</f>
-        <v>2.2303545659689199</v>
+        <v>2.1626641771240882</v>
       </c>
       <c r="G425" s="2">
         <v>3.9</v>
@@ -8262,17 +8389,17 @@
       </c>
     </row>
     <row r="426" spans="1:10">
-      <c r="B426" s="75" t="s">
+      <c r="B426" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="C426" s="75"/>
-      <c r="D426" s="75"/>
-      <c r="E426" s="75"/>
-      <c r="F426" s="75"/>
-      <c r="G426" s="75"/>
-      <c r="H426" s="75"/>
-      <c r="I426" s="75"/>
-      <c r="J426" s="75"/>
+      <c r="C426" s="74"/>
+      <c r="D426" s="74"/>
+      <c r="E426" s="74"/>
+      <c r="F426" s="74"/>
+      <c r="G426" s="74"/>
+      <c r="H426" s="74"/>
+      <c r="I426" s="74"/>
+      <c r="J426" s="74"/>
     </row>
     <row r="427" spans="1:10">
       <c r="B427" s="3"/>
@@ -8291,34 +8418,38 @@
       </c>
       <c r="C428" s="41">
         <f>C414+C423+C425</f>
-        <v>69.712877331182398</v>
+        <v>67.597118767032399</v>
+      </c>
+      <c r="E428" s="59">
+        <f>E419+E423</f>
+        <v>624879.51020408166</v>
       </c>
     </row>
     <row r="430" spans="1:10">
-      <c r="A430" s="75" t="s">
+      <c r="A430" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="B430" s="75"/>
-      <c r="C430" s="75"/>
-      <c r="D430" s="75"/>
-      <c r="E430" s="75"/>
-      <c r="F430" s="75"/>
-      <c r="G430" s="75"/>
-      <c r="H430" s="75"/>
-      <c r="I430" s="75"/>
+      <c r="B430" s="74"/>
+      <c r="C430" s="74"/>
+      <c r="D430" s="74"/>
+      <c r="E430" s="74"/>
+      <c r="F430" s="74"/>
+      <c r="G430" s="74"/>
+      <c r="H430" s="74"/>
+      <c r="I430" s="74"/>
     </row>
     <row r="432" spans="1:10">
-      <c r="B432" s="97" t="s">
+      <c r="B432" s="124" t="s">
         <v>409</v>
       </c>
-      <c r="C432" s="75"/>
-      <c r="D432" s="75"/>
-      <c r="E432" s="75"/>
-      <c r="F432" s="75"/>
-      <c r="G432" s="75"/>
-      <c r="H432" s="75"/>
-      <c r="I432" s="75"/>
-      <c r="J432" s="75"/>
+      <c r="C432" s="74"/>
+      <c r="D432" s="74"/>
+      <c r="E432" s="74"/>
+      <c r="F432" s="74"/>
+      <c r="G432" s="74"/>
+      <c r="H432" s="74"/>
+      <c r="I432" s="74"/>
+      <c r="J432" s="74"/>
     </row>
     <row r="433" spans="2:10">
       <c r="B433" s="44"/>
@@ -8336,17 +8467,17 @@
       </c>
     </row>
     <row r="436" spans="2:10">
-      <c r="B436" s="75" t="s">
+      <c r="B436" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="C436" s="75"/>
-      <c r="D436" s="75"/>
-      <c r="E436" s="75"/>
-      <c r="F436" s="75"/>
-      <c r="G436" s="75"/>
-      <c r="H436" s="75"/>
-      <c r="I436" s="75"/>
-      <c r="J436" s="75"/>
+      <c r="C436" s="74"/>
+      <c r="D436" s="74"/>
+      <c r="E436" s="74"/>
+      <c r="F436" s="74"/>
+      <c r="G436" s="74"/>
+      <c r="H436" s="74"/>
+      <c r="I436" s="74"/>
+      <c r="J436" s="74"/>
     </row>
     <row r="438" spans="2:10">
       <c r="C438" s="2" t="s">
@@ -8354,7 +8485,7 @@
       </c>
       <c r="D438" s="41">
         <f>H241*M2</f>
-        <v>488698.83115522616</v>
+        <v>473867.01274677448</v>
       </c>
       <c r="E438" s="11"/>
       <c r="J438" s="2" t="s">
@@ -8362,17 +8493,17 @@
       </c>
     </row>
     <row r="440" spans="2:10">
-      <c r="B440" s="75" t="s">
+      <c r="B440" s="74" t="s">
         <v>294</v>
       </c>
-      <c r="C440" s="75"/>
-      <c r="D440" s="75"/>
-      <c r="E440" s="75"/>
-      <c r="F440" s="75"/>
-      <c r="G440" s="75"/>
-      <c r="H440" s="75"/>
-      <c r="I440" s="75"/>
-      <c r="J440" s="75"/>
+      <c r="C440" s="74"/>
+      <c r="D440" s="74"/>
+      <c r="E440" s="74"/>
+      <c r="F440" s="74"/>
+      <c r="G440" s="74"/>
+      <c r="H440" s="74"/>
+      <c r="I440" s="74"/>
+      <c r="J440" s="74"/>
     </row>
     <row r="442" spans="2:10">
       <c r="C442" s="2" t="s">
@@ -8380,25 +8511,25 @@
       </c>
       <c r="D442" s="41">
         <f>H248*M2</f>
-        <v>902433.19705215609</v>
+        <v>875044.70243923436</v>
       </c>
       <c r="E442" s="11">
         <f>H248</f>
-        <v>69.712877331182398</v>
+        <v>67.597118767032399</v>
       </c>
     </row>
     <row r="444" spans="2:10">
-      <c r="B444" s="75" t="s">
+      <c r="B444" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="C444" s="75"/>
-      <c r="D444" s="75"/>
-      <c r="E444" s="75"/>
-      <c r="F444" s="75"/>
-      <c r="G444" s="75"/>
-      <c r="H444" s="75"/>
-      <c r="I444" s="75"/>
-      <c r="J444" s="75"/>
+      <c r="C444" s="74"/>
+      <c r="D444" s="74"/>
+      <c r="E444" s="74"/>
+      <c r="F444" s="74"/>
+      <c r="G444" s="74"/>
+      <c r="H444" s="74"/>
+      <c r="I444" s="74"/>
+      <c r="J444" s="74"/>
     </row>
     <row r="446" spans="2:10">
       <c r="C446" s="2" t="s">
@@ -8410,17 +8541,17 @@
       </c>
     </row>
     <row r="448" spans="2:10">
-      <c r="B448" s="75" t="s">
+      <c r="B448" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="C448" s="75"/>
-      <c r="D448" s="75"/>
-      <c r="E448" s="75"/>
-      <c r="F448" s="75"/>
-      <c r="G448" s="75"/>
-      <c r="H448" s="75"/>
-      <c r="I448" s="75"/>
-      <c r="J448" s="75"/>
+      <c r="C448" s="74"/>
+      <c r="D448" s="74"/>
+      <c r="E448" s="74"/>
+      <c r="F448" s="74"/>
+      <c r="G448" s="74"/>
+      <c r="H448" s="74"/>
+      <c r="I448" s="74"/>
+      <c r="J448" s="74"/>
     </row>
     <row r="450" spans="2:10">
       <c r="C450" s="2" t="s">
@@ -8428,7 +8559,7 @@
       </c>
       <c r="D450" s="41">
         <f>D442-D438-C423*M2-C425*M2</f>
-        <v>251607.31901061151</v>
+        <v>243971.1352755671</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>411</v>
@@ -8438,7 +8569,7 @@
       </c>
       <c r="I450" s="41">
         <f>C410</f>
-        <v>1.1970398454126152</v>
+        <v>1.1607101542347746</v>
       </c>
     </row>
     <row r="451" spans="2:10">
@@ -8447,7 +8578,7 @@
       </c>
       <c r="I451" s="41">
         <f>C406</f>
-        <v>1.4663738106304538</v>
+        <v>1.4218699389375991</v>
       </c>
     </row>
     <row r="452" spans="2:10">
@@ -8461,7 +8592,7 @@
       </c>
       <c r="D454" s="41">
         <f t="array" ref="D454">0.15*D450</f>
-        <v>37741.097851591723</v>
+        <v>36595.67029133506</v>
       </c>
     </row>
     <row r="456" spans="2:10">
@@ -8475,21 +8606,21 @@
       </c>
       <c r="D458" s="41">
         <f>D450+D454</f>
-        <v>289348.41686220322</v>
+        <v>280566.80556690216</v>
       </c>
     </row>
     <row r="461" spans="2:10">
-      <c r="B461" s="75" t="s">
+      <c r="B461" s="74" t="s">
         <v>450</v>
       </c>
-      <c r="C461" s="75"/>
-      <c r="D461" s="75"/>
-      <c r="E461" s="75"/>
-      <c r="F461" s="75"/>
-      <c r="G461" s="75"/>
-      <c r="H461" s="75"/>
-      <c r="I461" s="75"/>
-      <c r="J461" s="75"/>
+      <c r="C461" s="74"/>
+      <c r="D461" s="74"/>
+      <c r="E461" s="74"/>
+      <c r="F461" s="74"/>
+      <c r="G461" s="74"/>
+      <c r="H461" s="74"/>
+      <c r="I461" s="74"/>
+      <c r="J461" s="74"/>
     </row>
     <row r="463" spans="2:10">
       <c r="C463" s="2" t="s">
@@ -8497,7 +8628,7 @@
       </c>
       <c r="D463" s="41">
         <f>D458</f>
-        <v>289348.41686220322</v>
+        <v>280566.80556690216</v>
       </c>
       <c r="G463" s="2" t="s">
         <v>304</v>
@@ -8515,17 +8646,17 @@
       </c>
     </row>
     <row r="466" spans="2:10">
-      <c r="B466" s="75" t="s">
+      <c r="B466" s="74" t="s">
         <v>307</v>
       </c>
-      <c r="C466" s="75"/>
-      <c r="D466" s="75"/>
-      <c r="E466" s="75"/>
-      <c r="F466" s="75"/>
-      <c r="G466" s="75"/>
-      <c r="H466" s="75"/>
-      <c r="I466" s="75"/>
-      <c r="J466" s="75"/>
+      <c r="C466" s="74"/>
+      <c r="D466" s="74"/>
+      <c r="E466" s="74"/>
+      <c r="F466" s="74"/>
+      <c r="G466" s="74"/>
+      <c r="H466" s="74"/>
+      <c r="I466" s="74"/>
+      <c r="J466" s="74"/>
     </row>
     <row r="468" spans="2:10">
       <c r="C468" s="2" t="s">
@@ -8559,17 +8690,17 @@
       </c>
     </row>
     <row r="472" spans="2:10">
-      <c r="B472" s="75" t="s">
+      <c r="B472" s="74" t="s">
         <v>369</v>
       </c>
-      <c r="C472" s="75"/>
-      <c r="D472" s="75"/>
-      <c r="E472" s="75"/>
-      <c r="F472" s="75"/>
-      <c r="G472" s="75"/>
-      <c r="H472" s="75"/>
-      <c r="I472" s="75"/>
-      <c r="J472" s="75"/>
+      <c r="C472" s="74"/>
+      <c r="D472" s="74"/>
+      <c r="E472" s="74"/>
+      <c r="F472" s="74"/>
+      <c r="G472" s="74"/>
+      <c r="H472" s="74"/>
+      <c r="I472" s="74"/>
+      <c r="J472" s="74"/>
     </row>
     <row r="473" spans="2:10">
       <c r="B473" s="3"/>
@@ -8592,17 +8723,17 @@
       </c>
     </row>
     <row r="476" spans="2:10">
-      <c r="B476" s="75" t="s">
+      <c r="B476" s="74" t="s">
         <v>371</v>
       </c>
-      <c r="C476" s="75"/>
-      <c r="D476" s="75"/>
-      <c r="E476" s="75"/>
-      <c r="F476" s="75"/>
-      <c r="G476" s="75"/>
-      <c r="H476" s="75"/>
-      <c r="I476" s="75"/>
-      <c r="J476" s="75"/>
+      <c r="C476" s="74"/>
+      <c r="D476" s="74"/>
+      <c r="E476" s="74"/>
+      <c r="F476" s="74"/>
+      <c r="G476" s="74"/>
+      <c r="H476" s="74"/>
+      <c r="I476" s="74"/>
+      <c r="J476" s="74"/>
     </row>
     <row r="478" spans="2:10">
       <c r="C478" s="2" t="s">
@@ -8614,17 +8745,17 @@
       </c>
     </row>
     <row r="480" spans="2:10">
-      <c r="B480" s="75" t="s">
+      <c r="B480" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="C480" s="75"/>
-      <c r="D480" s="75"/>
-      <c r="E480" s="75"/>
-      <c r="F480" s="75"/>
-      <c r="G480" s="75"/>
-      <c r="H480" s="75"/>
-      <c r="I480" s="75"/>
-      <c r="J480" s="75"/>
+      <c r="C480" s="74"/>
+      <c r="D480" s="74"/>
+      <c r="E480" s="74"/>
+      <c r="F480" s="74"/>
+      <c r="G480" s="74"/>
+      <c r="H480" s="74"/>
+      <c r="I480" s="74"/>
+      <c r="J480" s="74"/>
     </row>
     <row r="482" spans="2:10">
       <c r="C482" s="2" t="s">
@@ -8632,7 +8763,7 @@
       </c>
       <c r="D482" s="41">
         <f>D463-D470-H482-H483</f>
-        <v>289322.8373711704</v>
+        <v>280541.22607586934</v>
       </c>
       <c r="G482" s="2" t="s">
         <v>312</v>
@@ -8650,17 +8781,17 @@
       </c>
     </row>
     <row r="486" spans="2:10">
-      <c r="B486" s="75" t="s">
+      <c r="B486" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="C486" s="75"/>
-      <c r="D486" s="75"/>
-      <c r="E486" s="75"/>
-      <c r="F486" s="75"/>
-      <c r="G486" s="75"/>
-      <c r="H486" s="75"/>
-      <c r="I486" s="75"/>
-      <c r="J486" s="75"/>
+      <c r="C486" s="74"/>
+      <c r="D486" s="74"/>
+      <c r="E486" s="74"/>
+      <c r="F486" s="74"/>
+      <c r="G486" s="74"/>
+      <c r="H486" s="74"/>
+      <c r="I486" s="74"/>
+      <c r="J486" s="74"/>
     </row>
     <row r="488" spans="2:10">
       <c r="C488" s="2" t="s">
@@ -8668,7 +8799,7 @@
       </c>
       <c r="D488" s="41">
         <f>D482*H488/100</f>
-        <v>69437.480969080891</v>
+        <v>67329.894258208646</v>
       </c>
       <c r="G488" s="2" t="s">
         <v>283</v>
@@ -8681,17 +8812,17 @@
       </c>
     </row>
     <row r="491" spans="2:10">
-      <c r="B491" s="75" t="s">
+      <c r="B491" s="74" t="s">
         <v>315</v>
       </c>
-      <c r="C491" s="75"/>
-      <c r="D491" s="75"/>
-      <c r="E491" s="75"/>
-      <c r="F491" s="75"/>
-      <c r="G491" s="75"/>
-      <c r="H491" s="75"/>
-      <c r="I491" s="75"/>
-      <c r="J491" s="75"/>
+      <c r="C491" s="74"/>
+      <c r="D491" s="74"/>
+      <c r="E491" s="74"/>
+      <c r="F491" s="74"/>
+      <c r="G491" s="74"/>
+      <c r="H491" s="74"/>
+      <c r="I491" s="74"/>
+      <c r="J491" s="74"/>
     </row>
     <row r="493" spans="2:10">
       <c r="C493" s="2" t="s">
@@ -8699,7 +8830,7 @@
       </c>
       <c r="D493" s="41">
         <f>(D463-D478-D488-H482-H483)*H493/100</f>
-        <v>10993.59751423884</v>
+        <v>10659.896285017398</v>
       </c>
       <c r="G493" s="2" t="s">
         <v>317</v>
@@ -8712,17 +8843,17 @@
       </c>
     </row>
     <row r="496" spans="2:10">
-      <c r="B496" s="75" t="s">
+      <c r="B496" s="74" t="s">
         <v>318</v>
       </c>
-      <c r="C496" s="75"/>
-      <c r="D496" s="75"/>
-      <c r="E496" s="75"/>
-      <c r="F496" s="75"/>
-      <c r="G496" s="75"/>
-      <c r="H496" s="75"/>
-      <c r="I496" s="75"/>
-      <c r="J496" s="75"/>
+      <c r="C496" s="74"/>
+      <c r="D496" s="74"/>
+      <c r="E496" s="74"/>
+      <c r="F496" s="74"/>
+      <c r="G496" s="74"/>
+      <c r="H496" s="74"/>
+      <c r="I496" s="74"/>
+      <c r="J496" s="74"/>
     </row>
     <row r="498" spans="2:10">
       <c r="C498" s="2" t="s">
@@ -8730,21 +8861,21 @@
       </c>
       <c r="D498" s="41">
         <f>D463-D478-D488-D493</f>
-        <v>208878.35277053795</v>
+        <v>202538.02941533059</v>
       </c>
     </row>
     <row r="500" spans="2:10">
-      <c r="B500" s="75" t="s">
+      <c r="B500" s="74" t="s">
         <v>322</v>
       </c>
-      <c r="C500" s="75"/>
-      <c r="D500" s="75"/>
-      <c r="E500" s="75"/>
-      <c r="F500" s="75"/>
-      <c r="G500" s="75"/>
-      <c r="H500" s="75"/>
-      <c r="I500" s="75"/>
-      <c r="J500" s="75"/>
+      <c r="C500" s="74"/>
+      <c r="D500" s="74"/>
+      <c r="E500" s="74"/>
+      <c r="F500" s="74"/>
+      <c r="G500" s="74"/>
+      <c r="H500" s="74"/>
+      <c r="I500" s="74"/>
+      <c r="J500" s="74"/>
     </row>
     <row r="502" spans="2:10">
       <c r="C502" s="2" t="s">
@@ -8752,22 +8883,22 @@
       </c>
       <c r="D502" s="2">
         <f>((F243-F241)/F241)*100</f>
-        <v>50.495049504950515</v>
+        <v>50.495049504950487</v>
       </c>
       <c r="E502" s="41"/>
     </row>
     <row r="504" spans="2:10">
-      <c r="B504" s="75" t="s">
+      <c r="B504" s="74" t="s">
         <v>321</v>
       </c>
-      <c r="C504" s="75"/>
-      <c r="D504" s="75"/>
-      <c r="E504" s="75"/>
-      <c r="F504" s="75"/>
-      <c r="G504" s="75"/>
-      <c r="H504" s="75"/>
-      <c r="I504" s="75"/>
-      <c r="J504" s="75"/>
+      <c r="C504" s="74"/>
+      <c r="D504" s="74"/>
+      <c r="E504" s="74"/>
+      <c r="F504" s="74"/>
+      <c r="G504" s="74"/>
+      <c r="H504" s="74"/>
+      <c r="I504" s="74"/>
+      <c r="J504" s="74"/>
     </row>
     <row r="506" spans="2:10">
       <c r="C506" s="2" t="s">
@@ -8775,21 +8906,21 @@
       </c>
       <c r="D506" s="41">
         <f>D498*100/(E166+E434)</f>
-        <v>432.8006633468932</v>
+        <v>419.66337019243184</v>
       </c>
     </row>
     <row r="509" spans="2:10">
-      <c r="B509" s="75" t="s">
+      <c r="B509" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="C509" s="75"/>
-      <c r="D509" s="75"/>
-      <c r="E509" s="75"/>
-      <c r="F509" s="75"/>
-      <c r="G509" s="75"/>
-      <c r="H509" s="75"/>
-      <c r="I509" s="75"/>
-      <c r="J509" s="75"/>
+      <c r="C509" s="74"/>
+      <c r="D509" s="74"/>
+      <c r="E509" s="74"/>
+      <c r="F509" s="74"/>
+      <c r="G509" s="74"/>
+      <c r="H509" s="74"/>
+      <c r="I509" s="74"/>
+      <c r="J509" s="74"/>
     </row>
     <row r="511" spans="2:10">
       <c r="C511" s="2" t="s">
@@ -8797,20 +8928,20 @@
       </c>
       <c r="D511" s="41">
         <f>D442/E166</f>
-        <v>28.047929414171495</v>
+        <v>27.196685725250276</v>
       </c>
       <c r="E511" s="41">
         <f>D442</f>
-        <v>902433.19705215609</v>
+        <v>875044.70243923436</v>
       </c>
     </row>
     <row r="514" spans="1:6">
-      <c r="A514" s="71" t="s">
+      <c r="A514" s="99" t="s">
         <v>327</v>
       </c>
-      <c r="B514" s="71"/>
-      <c r="C514" s="71"/>
-      <c r="D514" s="71"/>
+      <c r="B514" s="99"/>
+      <c r="C514" s="99"/>
+      <c r="D514" s="99"/>
       <c r="E514" s="26" t="s">
         <v>221</v>
       </c>
@@ -8819,395 +8950,814 @@
       </c>
     </row>
     <row r="515" spans="1:6">
-      <c r="A515" s="68" t="s">
+      <c r="A515" s="108" t="s">
         <v>329</v>
       </c>
-      <c r="B515" s="68"/>
-      <c r="C515" s="68"/>
-      <c r="D515" s="68"/>
+      <c r="B515" s="108"/>
+      <c r="C515" s="108"/>
+      <c r="D515" s="108"/>
       <c r="E515" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F515" s="59">
+      <c r="F515" s="57">
         <f t="array" ref="F515">M2</f>
         <v>12945</v>
       </c>
     </row>
     <row r="516" spans="1:6">
-      <c r="A516" s="68" t="s">
+      <c r="A516" s="108" t="s">
         <v>330</v>
       </c>
-      <c r="B516" s="68"/>
-      <c r="C516" s="68"/>
-      <c r="D516" s="68"/>
+      <c r="B516" s="108"/>
+      <c r="C516" s="108"/>
+      <c r="D516" s="108"/>
       <c r="E516" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F516" s="59">
+      <c r="F516" s="57">
         <f>D442</f>
-        <v>902433.19705215609</v>
+        <v>875044.70243923436</v>
       </c>
     </row>
     <row r="517" spans="1:6">
-      <c r="A517" s="71" t="s">
+      <c r="A517" s="99" t="s">
         <v>331</v>
       </c>
-      <c r="B517" s="71"/>
-      <c r="C517" s="71"/>
-      <c r="D517" s="71"/>
+      <c r="B517" s="99"/>
+      <c r="C517" s="99"/>
+      <c r="D517" s="99"/>
       <c r="E517" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F517" s="59">
+      <c r="F517" s="57">
         <f t="array" ref="F517">F241</f>
-        <v>488698.83115522598</v>
+        <v>473867.01274677459</v>
       </c>
     </row>
     <row r="518" spans="1:6">
-      <c r="A518" s="71" t="s">
+      <c r="A518" s="99" t="s">
         <v>332</v>
       </c>
-      <c r="B518" s="71"/>
-      <c r="C518" s="71"/>
-      <c r="D518" s="71"/>
+      <c r="B518" s="99"/>
+      <c r="C518" s="99"/>
+      <c r="D518" s="99"/>
       <c r="E518" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F518" s="59">
+      <c r="F518" s="57">
         <f t="array" ref="F518">D446</f>
         <v>0.54153463408880098</v>
       </c>
     </row>
     <row r="519" spans="1:6">
-      <c r="A519" s="71" t="s">
+      <c r="A519" s="99" t="s">
         <v>333</v>
       </c>
-      <c r="B519" s="71"/>
-      <c r="C519" s="71"/>
-      <c r="D519" s="71"/>
+      <c r="B519" s="99"/>
+      <c r="C519" s="99"/>
+      <c r="D519" s="99"/>
       <c r="E519" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F519" s="59">
+      <c r="F519" s="57">
         <f t="array" ref="F519">H241</f>
-        <v>37.751937516819325</v>
+        <v>36.606180976962108</v>
       </c>
     </row>
     <row r="520" spans="1:6">
-      <c r="A520" s="71" t="s">
+      <c r="A520" s="99" t="s">
         <v>334</v>
       </c>
-      <c r="B520" s="71"/>
-      <c r="C520" s="71"/>
-      <c r="D520" s="71"/>
+      <c r="B520" s="99"/>
+      <c r="C520" s="99"/>
+      <c r="D520" s="99"/>
       <c r="E520" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F520" s="59">
+      <c r="F520" s="57">
         <f t="array" ref="F520">H243</f>
-        <v>56.814797055015219</v>
+        <v>55.090490183150891</v>
       </c>
     </row>
     <row r="521" spans="1:6">
-      <c r="A521" s="71" t="s">
+      <c r="A521" s="99" t="s">
         <v>335</v>
       </c>
-      <c r="B521" s="71"/>
-      <c r="C521" s="71"/>
-      <c r="D521" s="71"/>
+      <c r="B521" s="99"/>
+      <c r="C521" s="99"/>
+      <c r="D521" s="99"/>
       <c r="E521" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F521" s="59">
+      <c r="F521" s="57">
         <f t="array" ref="F521">H248</f>
-        <v>69.712877331182398</v>
+        <v>67.597118767032399</v>
       </c>
     </row>
     <row r="522" spans="1:6">
-      <c r="A522" s="71" t="s">
+      <c r="A522" s="99" t="s">
         <v>355</v>
       </c>
-      <c r="B522" s="71"/>
-      <c r="C522" s="71"/>
-      <c r="D522" s="71"/>
+      <c r="B522" s="99"/>
+      <c r="C522" s="99"/>
+      <c r="D522" s="99"/>
       <c r="E522" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F522" s="59">
+      <c r="F522" s="57">
         <f t="array" ref="F522">D458</f>
-        <v>289348.41686220322</v>
+        <v>280566.80556690216</v>
       </c>
     </row>
     <row r="523" spans="1:6">
-      <c r="A523" s="71" t="s">
+      <c r="A523" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="B523" s="71"/>
-      <c r="C523" s="71"/>
-      <c r="D523" s="71"/>
+      <c r="B523" s="99"/>
+      <c r="C523" s="99"/>
+      <c r="D523" s="99"/>
       <c r="E523" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F523" s="59">
+      <c r="F523" s="57">
         <f t="array" ref="F523">D498</f>
-        <v>208878.35277053795</v>
+        <v>202538.02941533059</v>
       </c>
     </row>
     <row r="524" spans="1:6">
-      <c r="A524" s="71" t="s">
+      <c r="A524" s="99" t="s">
         <v>337</v>
       </c>
-      <c r="B524" s="71"/>
-      <c r="C524" s="71"/>
-      <c r="D524" s="71"/>
+      <c r="B524" s="99"/>
+      <c r="C524" s="99"/>
+      <c r="D524" s="99"/>
       <c r="E524" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F524" s="59">
+      <c r="F524" s="57">
         <f>D506</f>
-        <v>432.8006633468932</v>
+        <v>419.66337019243184</v>
       </c>
     </row>
     <row r="525" spans="1:6">
-      <c r="A525" s="71" t="s">
+      <c r="A525" s="99" t="s">
         <v>338</v>
       </c>
-      <c r="B525" s="71"/>
-      <c r="C525" s="71"/>
-      <c r="D525" s="71"/>
+      <c r="B525" s="99"/>
+      <c r="C525" s="99"/>
+      <c r="D525" s="99"/>
       <c r="E525" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F525" s="59">
+      <c r="F525" s="57">
         <f t="array" ref="F525">D502</f>
-        <v>50.495049504950515</v>
+        <v>50.495049504950487</v>
       </c>
     </row>
     <row r="526" spans="1:6">
-      <c r="A526" s="71" t="s">
+      <c r="A526" s="99" t="s">
         <v>339</v>
       </c>
-      <c r="B526" s="71"/>
-      <c r="C526" s="71"/>
-      <c r="D526" s="71"/>
+      <c r="B526" s="99"/>
+      <c r="C526" s="99"/>
+      <c r="D526" s="99"/>
       <c r="E526" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F526" s="59">
+      <c r="F526" s="57">
         <f t="array" ref="F526">D511</f>
-        <v>28.047929414171495</v>
+        <v>27.196685725250276</v>
       </c>
     </row>
     <row r="527" spans="1:6">
-      <c r="A527" s="71" t="s">
+      <c r="A527" s="99" t="s">
         <v>465</v>
       </c>
-      <c r="B527" s="71"/>
-      <c r="C527" s="71"/>
-      <c r="D527" s="71"/>
+      <c r="B527" s="99"/>
+      <c r="C527" s="99"/>
+      <c r="D527" s="99"/>
       <c r="E527" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F527" s="59">
+      <c r="F527" s="57">
         <f t="array" ref="F527">E219</f>
         <v>43</v>
       </c>
     </row>
     <row r="528" spans="1:6">
-      <c r="A528" s="71" t="s">
+      <c r="A528" s="99" t="s">
         <v>464</v>
       </c>
-      <c r="B528" s="71"/>
-      <c r="C528" s="71"/>
-      <c r="D528" s="71"/>
+      <c r="B528" s="99"/>
+      <c r="C528" s="99"/>
+      <c r="D528" s="99"/>
       <c r="E528" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="F528" s="59">
+      <c r="F528" s="57">
         <f t="array" ref="F528">E213</f>
         <v>34</v>
       </c>
     </row>
     <row r="529" spans="1:6">
-      <c r="A529" s="71" t="s">
+      <c r="A529" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="B529" s="71"/>
-      <c r="C529" s="71"/>
-      <c r="D529" s="71"/>
+      <c r="B529" s="99"/>
+      <c r="C529" s="99"/>
+      <c r="D529" s="99"/>
       <c r="E529" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F529" s="59">
+      <c r="F529" s="57">
         <f t="array" ref="F529">F516/F528</f>
-        <v>26542.152854475178</v>
+        <v>25736.608895271598</v>
       </c>
     </row>
     <row r="530" spans="1:6">
-      <c r="A530" s="71" t="s">
+      <c r="A530" s="99" t="s">
         <v>340</v>
       </c>
-      <c r="B530" s="71"/>
-      <c r="C530" s="71"/>
-      <c r="D530" s="71"/>
+      <c r="B530" s="99"/>
+      <c r="C530" s="99"/>
+      <c r="D530" s="99"/>
       <c r="E530" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F530" s="59">
+      <c r="F530" s="57">
         <f t="array" ref="F530">F516/F527</f>
-        <v>20986.818536096653</v>
+        <v>20349.876800912429</v>
       </c>
     </row>
     <row r="531" spans="1:6">
-      <c r="A531" s="71" t="s">
+      <c r="A531" s="99" t="s">
         <v>341</v>
       </c>
-      <c r="B531" s="71"/>
-      <c r="C531" s="71"/>
-      <c r="D531" s="71"/>
+      <c r="B531" s="99"/>
+      <c r="C531" s="99"/>
+      <c r="D531" s="99"/>
       <c r="E531" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F531" s="59">
+      <c r="F531" s="57">
         <f t="array" ref="F531">F230</f>
-        <v>7953.8846737350004</v>
+        <v>4306.4618180219995</v>
       </c>
     </row>
     <row r="532" spans="1:6">
-      <c r="A532" s="71" t="s">
+      <c r="A532" s="99" t="s">
         <v>342</v>
       </c>
-      <c r="B532" s="71"/>
-      <c r="C532" s="71"/>
-      <c r="D532" s="71"/>
+      <c r="B532" s="99"/>
+      <c r="C532" s="99"/>
+      <c r="D532" s="99"/>
       <c r="E532" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F532" s="59">
+      <c r="F532" s="57">
         <f t="array" ref="F532">F231</f>
-        <v>1136.269239105</v>
+        <v>615.20883114599997</v>
       </c>
     </row>
     <row r="533" spans="1:6">
-      <c r="A533" s="71" t="s">
+      <c r="A533" s="99" t="s">
         <v>343</v>
       </c>
-      <c r="B533" s="71"/>
-      <c r="C533" s="71"/>
-      <c r="D533" s="71"/>
+      <c r="B533" s="99"/>
+      <c r="C533" s="99"/>
+      <c r="D533" s="99"/>
       <c r="E533" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F533" s="59">
+      <c r="F533" s="57">
         <f t="array" ref="F533">C423</f>
-        <v>10.293944150625784</v>
+        <v>9.9815269713419461</v>
       </c>
     </row>
     <row r="534" spans="1:6">
-      <c r="A534" s="71" t="s">
+      <c r="A534" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="B534" s="71"/>
-      <c r="C534" s="71"/>
-      <c r="D534" s="71"/>
+      <c r="B534" s="99"/>
+      <c r="C534" s="99"/>
+      <c r="D534" s="99"/>
       <c r="E534" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F534" s="59">
+      <c r="F534" s="57">
         <f t="array" ref="F534">D488</f>
-        <v>69437.480969080891</v>
+        <v>67329.894258208646</v>
       </c>
     </row>
     <row r="535" spans="1:6">
-      <c r="A535" s="71" t="s">
+      <c r="A535" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="B535" s="71"/>
-      <c r="C535" s="71"/>
-      <c r="D535" s="71"/>
+      <c r="B535" s="99"/>
+      <c r="C535" s="99"/>
+      <c r="D535" s="99"/>
       <c r="E535" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F535" s="59">
+      <c r="F535" s="57">
         <f t="array" ref="F535">D470</f>
         <v>25.579491032806974</v>
       </c>
     </row>
     <row r="536" spans="1:6">
-      <c r="A536" s="71" t="s">
+      <c r="A536" s="99" t="s">
         <v>346</v>
       </c>
-      <c r="B536" s="71"/>
-      <c r="C536" s="71"/>
-      <c r="D536" s="71"/>
+      <c r="B536" s="99"/>
+      <c r="C536" s="99"/>
+      <c r="D536" s="99"/>
       <c r="E536" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F536" s="59">
+      <c r="F536" s="57">
         <f t="array" ref="F536">E166</f>
         <v>32174.681550510206</v>
       </c>
     </row>
     <row r="537" spans="1:6">
-      <c r="A537" s="71" t="s">
+      <c r="A537" s="99" t="s">
         <v>347</v>
       </c>
-      <c r="B537" s="71"/>
-      <c r="C537" s="71"/>
-      <c r="D537" s="71"/>
+      <c r="B537" s="99"/>
+      <c r="C537" s="99"/>
+      <c r="D537" s="99"/>
       <c r="E537" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F537" s="59">
+      <c r="F537" s="57">
         <f t="array" ref="F537">E434</f>
         <v>16087.340775255103</v>
       </c>
     </row>
     <row r="538" spans="1:6">
-      <c r="A538" s="71" t="s">
+      <c r="A538" s="99" t="s">
         <v>348</v>
       </c>
-      <c r="B538" s="71"/>
-      <c r="C538" s="71"/>
-      <c r="D538" s="71"/>
+      <c r="B538" s="99"/>
+      <c r="C538" s="99"/>
+      <c r="D538" s="99"/>
       <c r="E538" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F538" s="59">
+      <c r="F538" s="57">
         <f t="array" ref="F538">SUM(F227:F228)</f>
-        <v>8116.2088507499993</v>
+        <v>8121.5687279999984</v>
       </c>
     </row>
     <row r="539" spans="1:6">
-      <c r="A539" s="71" t="s">
+      <c r="A539" s="99" t="s">
         <v>349</v>
       </c>
-      <c r="B539" s="71"/>
-      <c r="C539" s="71"/>
-      <c r="D539" s="71"/>
+      <c r="B539" s="99"/>
+      <c r="C539" s="99"/>
+      <c r="D539" s="99"/>
       <c r="E539" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F539" s="59">
+      <c r="F539" s="57">
         <f t="array" ref="F539">F538/F527</f>
-        <v>188.74904304069767</v>
+        <v>188.87369134883718</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
-      <selection activeCell="C359" sqref="C359"/>
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
+      <selection activeCell="F217" sqref="F217:G217"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
-      <selection activeCell="F217" sqref="F217:G217"/>
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
+      <selection activeCell="C359" sqref="C359"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="443">
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="B269:L269"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="G255:H255"/>
+    <mergeCell ref="I255:J255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="G256:H256"/>
+    <mergeCell ref="G257:H257"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="F247:G247"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="B253:E253"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="A125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="C195:H195"/>
+    <mergeCell ref="C200:H201"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A222:I222"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="F234:G234"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A169:J169"/>
+    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="L147:M148"/>
+    <mergeCell ref="N147:O148"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B145:I145"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="A147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:E148"/>
+    <mergeCell ref="H147:I148"/>
+    <mergeCell ref="J147:K148"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="F241:G241"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="B251:L251"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="B295:J295"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="G258:H258"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="G260:H260"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="B472:J472"/>
+    <mergeCell ref="B476:J476"/>
+    <mergeCell ref="A516:D516"/>
+    <mergeCell ref="B448:J448"/>
+    <mergeCell ref="B461:J461"/>
+    <mergeCell ref="B466:J466"/>
+    <mergeCell ref="B378:J378"/>
+    <mergeCell ref="B382:J382"/>
+    <mergeCell ref="B387:J387"/>
+    <mergeCell ref="B392:J392"/>
+    <mergeCell ref="B396:J396"/>
+    <mergeCell ref="B400:J400"/>
+    <mergeCell ref="B412:J412"/>
+    <mergeCell ref="B421:J421"/>
+    <mergeCell ref="A430:I430"/>
+    <mergeCell ref="B432:J432"/>
+    <mergeCell ref="B404:J404"/>
+    <mergeCell ref="B408:J408"/>
+    <mergeCell ref="B436:J436"/>
+    <mergeCell ref="B440:J440"/>
+    <mergeCell ref="B444:J444"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="F231:G231"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="H297:I297"/>
+    <mergeCell ref="G261:H261"/>
+    <mergeCell ref="I256:J256"/>
+    <mergeCell ref="I257:J257"/>
+    <mergeCell ref="I258:J258"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="B313:J313"/>
+    <mergeCell ref="B318:J318"/>
+    <mergeCell ref="B347:J347"/>
+    <mergeCell ref="B352:J352"/>
+    <mergeCell ref="B357:J357"/>
+    <mergeCell ref="B368:J368"/>
+    <mergeCell ref="B373:J373"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A520:D520"/>
+    <mergeCell ref="A521:D521"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A523:D523"/>
+    <mergeCell ref="B480:J480"/>
+    <mergeCell ref="B486:J486"/>
+    <mergeCell ref="B491:J491"/>
+    <mergeCell ref="B496:J496"/>
+    <mergeCell ref="B500:J500"/>
+    <mergeCell ref="B504:J504"/>
+    <mergeCell ref="B509:J509"/>
+    <mergeCell ref="A514:D514"/>
+    <mergeCell ref="A517:D517"/>
+    <mergeCell ref="A518:D518"/>
+    <mergeCell ref="A519:D519"/>
+    <mergeCell ref="B426:J426"/>
+    <mergeCell ref="B417:J417"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A539:D539"/>
+    <mergeCell ref="A530:D530"/>
+    <mergeCell ref="A531:D531"/>
+    <mergeCell ref="A532:D532"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A534:D534"/>
+    <mergeCell ref="A535:D535"/>
+    <mergeCell ref="A536:D536"/>
+    <mergeCell ref="A537:D537"/>
+    <mergeCell ref="A538:D538"/>
+    <mergeCell ref="A524:D524"/>
+    <mergeCell ref="A525:D525"/>
+    <mergeCell ref="A526:D526"/>
+    <mergeCell ref="A527:D527"/>
+    <mergeCell ref="A528:D528"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A515:D515"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I266:J266"/>
+    <mergeCell ref="I263:J263"/>
+    <mergeCell ref="I265:J265"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B137:I137"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="F248:G248"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="M181:M208"/>
+    <mergeCell ref="B181:J181"/>
+    <mergeCell ref="B171:J171"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="L149:M149"/>
     <mergeCell ref="H308:I308"/>
     <mergeCell ref="H307:I307"/>
     <mergeCell ref="H309:I309"/>
@@ -9232,425 +9782,6 @@
     <mergeCell ref="I260:J260"/>
     <mergeCell ref="I261:J261"/>
     <mergeCell ref="I262:J262"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="M181:M208"/>
-    <mergeCell ref="B181:J181"/>
-    <mergeCell ref="B171:J171"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B137:I137"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="B426:J426"/>
-    <mergeCell ref="B417:J417"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A539:D539"/>
-    <mergeCell ref="A530:D530"/>
-    <mergeCell ref="A531:D531"/>
-    <mergeCell ref="A532:D532"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A534:D534"/>
-    <mergeCell ref="A535:D535"/>
-    <mergeCell ref="A536:D536"/>
-    <mergeCell ref="A537:D537"/>
-    <mergeCell ref="A538:D538"/>
-    <mergeCell ref="A524:D524"/>
-    <mergeCell ref="A525:D525"/>
-    <mergeCell ref="A526:D526"/>
-    <mergeCell ref="A527:D527"/>
-    <mergeCell ref="A528:D528"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A515:D515"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I266:J266"/>
-    <mergeCell ref="I263:J263"/>
-    <mergeCell ref="I265:J265"/>
-    <mergeCell ref="A520:D520"/>
-    <mergeCell ref="A521:D521"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A523:D523"/>
-    <mergeCell ref="B480:J480"/>
-    <mergeCell ref="B486:J486"/>
-    <mergeCell ref="B491:J491"/>
-    <mergeCell ref="B496:J496"/>
-    <mergeCell ref="B500:J500"/>
-    <mergeCell ref="B504:J504"/>
-    <mergeCell ref="B509:J509"/>
-    <mergeCell ref="A514:D514"/>
-    <mergeCell ref="A517:D517"/>
-    <mergeCell ref="A518:D518"/>
-    <mergeCell ref="A519:D519"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="B313:J313"/>
-    <mergeCell ref="B318:J318"/>
-    <mergeCell ref="B347:J347"/>
-    <mergeCell ref="B352:J352"/>
-    <mergeCell ref="B357:J357"/>
-    <mergeCell ref="B368:J368"/>
-    <mergeCell ref="B373:J373"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="B436:J436"/>
-    <mergeCell ref="B440:J440"/>
-    <mergeCell ref="B444:J444"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="F231:G231"/>
-    <mergeCell ref="F232:G232"/>
-    <mergeCell ref="B472:J472"/>
-    <mergeCell ref="B476:J476"/>
-    <mergeCell ref="A516:D516"/>
-    <mergeCell ref="B448:J448"/>
-    <mergeCell ref="B461:J461"/>
-    <mergeCell ref="B466:J466"/>
-    <mergeCell ref="B378:J378"/>
-    <mergeCell ref="B382:J382"/>
-    <mergeCell ref="B387:J387"/>
-    <mergeCell ref="B392:J392"/>
-    <mergeCell ref="B396:J396"/>
-    <mergeCell ref="B400:J400"/>
-    <mergeCell ref="B412:J412"/>
-    <mergeCell ref="B421:J421"/>
-    <mergeCell ref="A430:I430"/>
-    <mergeCell ref="B432:J432"/>
-    <mergeCell ref="B404:J404"/>
-    <mergeCell ref="B408:J408"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="H297:I297"/>
-    <mergeCell ref="G261:H261"/>
-    <mergeCell ref="I256:J256"/>
-    <mergeCell ref="I257:J257"/>
-    <mergeCell ref="I258:J258"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="F246:G246"/>
-    <mergeCell ref="F241:G241"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="B251:L251"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B104:H104"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="L147:M148"/>
-    <mergeCell ref="N147:O148"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B145:I145"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="A147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:E148"/>
-    <mergeCell ref="H147:I148"/>
-    <mergeCell ref="J147:K148"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="B295:J295"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="G258:H258"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="G260:H260"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="F234:G234"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A169:J169"/>
-    <mergeCell ref="B173:E173"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="C195:H195"/>
-    <mergeCell ref="C200:H201"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A222:I222"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="A125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A242:D242"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A248:D248"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="B269:L269"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="G255:H255"/>
-    <mergeCell ref="I255:J255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="G256:H256"/>
-    <mergeCell ref="G257:H257"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="F242:G242"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="B253:E253"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A274:C274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId3"/>
@@ -9671,11 +9802,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9693,10 +9824,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/OPiUP_kursovoy_mine.xlsx
+++ b/OPiUP_kursovoy_mine.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITY-9-Sem\Economics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="18960" windowHeight="7935"/>
   </bookViews>
@@ -11,10 +16,10 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Siarhei_Kutsankou - Личное представление" guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="670" activeSheetId="1"/>
     <customWorkbookView name="Michael Pozhigan - Личное представление" guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
-    <customWorkbookView name="Siarhei_Kutsankou - Личное представление" guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="670" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1577,7 +1582,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1586,7 +1591,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2207,24 +2212,219 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2235,217 +2435,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2461,9 +2466,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2501,9 +2506,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2535,9 +2540,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2569,9 +2575,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2744,14 +2751,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E428" sqref="E428"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
@@ -2778,18 +2785,18 @@
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
@@ -2800,7 +2807,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2844,7 +2851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="19.5" thickBot="1">
+    <row r="3" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="60">
         <v>1.55</v>
       </c>
@@ -2885,19 +2892,19 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="131" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-    </row>
-    <row r="6" spans="1:22" ht="19.5" thickBot="1">
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+    </row>
+    <row r="6" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L6" s="2" t="s">
         <v>57</v>
       </c>
@@ -2929,7 +2936,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="19.5" thickBot="1">
+    <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2966,7 +2973,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="19.5" thickBot="1">
+    <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L8" s="2" t="s">
         <v>476</v>
       </c>
@@ -3000,7 +3007,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="19.5" thickBot="1">
+    <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L9" s="2" t="s">
         <v>478</v>
       </c>
@@ -3034,7 +3041,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="20.25" thickTop="1" thickBot="1">
+    <row r="10" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -3078,7 +3085,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="19.5" thickBot="1">
+    <row r="11" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L11" s="2" t="s">
         <v>375</v>
       </c>
@@ -3112,7 +3119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="32.25" thickBot="1">
+    <row r="12" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -3133,7 +3140,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="19.5" thickTop="1">
+    <row r="13" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="P13" s="2">
         <f>SUM(P7:P12)</f>
         <v>0.85136000000000001</v>
@@ -3155,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R14" s="2" t="s">
         <v>61</v>
       </c>
@@ -3173,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -3201,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E16" s="2" t="s">
         <v>407</v>
       </c>
@@ -3222,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3253,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R18" s="2" t="s">
         <v>377</v>
       </c>
@@ -3271,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>405</v>
       </c>
@@ -3302,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R20" s="2" t="s">
         <v>379</v>
       </c>
@@ -3320,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R21" s="2" t="s">
         <v>380</v>
       </c>
@@ -3338,17 +3345,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="74" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
       <c r="R22" s="2" t="s">
         <v>381</v>
       </c>
@@ -3366,27 +3373,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="45" customHeight="1">
-      <c r="A23" s="145" t="s">
+    <row r="23" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="147" t="s">
+      <c r="C23" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="147" t="s">
+      <c r="D23" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="147" t="s">
+      <c r="E23" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="147" t="s">
+      <c r="G23" s="74"/>
+      <c r="H23" s="85" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -3406,35 +3413,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" customHeight="1">
-      <c r="A24" s="146"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="84"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
       <c r="F24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="148"/>
-      <c r="K24" s="128" t="s">
+      <c r="H24" s="86"/>
+      <c r="K24" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="138" t="s">
+      <c r="L24" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="138" t="s">
+      <c r="M24" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="N24" s="138" t="s">
+      <c r="N24" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="138" t="s">
+      <c r="O24" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="128"/>
+      <c r="P24" s="104"/>
       <c r="R24" s="2" t="s">
         <v>383</v>
       </c>
@@ -3452,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -3482,18 +3489,18 @@
         <f>F25/G25</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K25" s="128"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
       <c r="V25" s="2">
         <f>SUM(V7:V24)</f>
         <v>31.3</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -3523,10 +3530,10 @@
         <f t="array" ref="H26">F26/G26</f>
         <v>0.97411475243506507</v>
       </c>
-      <c r="K26" s="129">
+      <c r="K26" s="105">
         <v>1</v>
       </c>
-      <c r="L26" s="129">
+      <c r="L26" s="105">
         <v>2</v>
       </c>
       <c r="M26" s="64">
@@ -3536,12 +3543,12 @@
         <f t="array" ref="N26">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O26" s="128" t="s">
+      <c r="O26" s="104" t="s">
         <v>398</v>
       </c>
-      <c r="P26" s="128"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="P26" s="104"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -3571,8 +3578,8 @@
         <f t="array" ref="H27">F27/G27</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
       <c r="M27" s="64">
         <v>2</v>
       </c>
@@ -3580,12 +3587,12 @@
         <f t="array" ref="N27">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O27" s="128" t="s">
+      <c r="O27" s="104" t="s">
         <v>399</v>
       </c>
-      <c r="P27" s="128"/>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="P27" s="104"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>4</v>
       </c>
@@ -3628,12 +3635,12 @@
         <f t="array" ref="N28">$C$46/L28</f>
         <v>12</v>
       </c>
-      <c r="O28" s="128" t="s">
+      <c r="O28" s="104" t="s">
         <v>400</v>
       </c>
-      <c r="P28" s="128"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="P28" s="104"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -3676,12 +3683,12 @@
         <f t="array" ref="N29">$C$46/L29</f>
         <v>12</v>
       </c>
-      <c r="O29" s="128" t="s">
+      <c r="O29" s="104" t="s">
         <v>400</v>
       </c>
-      <c r="P29" s="128"/>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="P29" s="104"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>6</v>
       </c>
@@ -3711,10 +3718,10 @@
         <f t="array" ref="H30">F30/G30</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K30" s="129">
+      <c r="K30" s="105">
         <v>4</v>
       </c>
-      <c r="L30" s="129">
+      <c r="L30" s="105">
         <v>3</v>
       </c>
       <c r="M30" s="65">
@@ -3724,12 +3731,12 @@
         <f>$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O30" s="139">
+      <c r="O30" s="107">
         <v>1.4</v>
       </c>
-      <c r="P30" s="139"/>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="P30" s="107"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>7</v>
       </c>
@@ -3759,8 +3766,8 @@
         <f t="array" ref="H31">F31/G31</f>
         <v>0.97567833951762528</v>
       </c>
-      <c r="K31" s="140"/>
-      <c r="L31" s="140"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
       <c r="M31" s="64">
         <v>6</v>
       </c>
@@ -3768,12 +3775,12 @@
         <f t="array" ref="N31">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O31" s="128">
+      <c r="O31" s="104">
         <v>2.5</v>
       </c>
-      <c r="P31" s="128"/>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="P31" s="104"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>8</v>
       </c>
@@ -3803,8 +3810,8 @@
         <f t="array" ref="H32">F32/G32</f>
         <v>1.031967474489796</v>
       </c>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
       <c r="M32" s="64">
         <v>7</v>
       </c>
@@ -3812,12 +3819,12 @@
         <f t="array" ref="N32">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O32" s="128">
+      <c r="O32" s="104">
         <v>3.6</v>
       </c>
-      <c r="P32" s="128"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="P32" s="104"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>9</v>
       </c>
@@ -3860,12 +3867,12 @@
         <f t="array" ref="N33">$C$46/L33</f>
         <v>12</v>
       </c>
-      <c r="O33" s="128" t="s">
+      <c r="O33" s="104" t="s">
         <v>400</v>
       </c>
-      <c r="P33" s="128"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="P33" s="104"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -3898,16 +3905,16 @@
         <f t="array" ref="N34">$C$46/L34</f>
         <v>12</v>
       </c>
-      <c r="O34" s="128" t="s">
+      <c r="O34" s="104" t="s">
         <v>400</v>
       </c>
-      <c r="P34" s="128"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="K35" s="129">
+      <c r="P34" s="104"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K35" s="105">
         <v>7</v>
       </c>
-      <c r="L35" s="129">
+      <c r="L35" s="105">
         <v>2</v>
       </c>
       <c r="M35" s="64">
@@ -3917,17 +3924,17 @@
         <f t="array" ref="N35">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O35" s="128" t="s">
+      <c r="O35" s="104" t="s">
         <v>398</v>
       </c>
-      <c r="P35" s="128"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="P35" s="104"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
       <c r="M36" s="64">
         <v>11</v>
       </c>
@@ -3935,16 +3942,16 @@
         <f t="array" ref="N36">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O36" s="128" t="s">
+      <c r="O36" s="104" t="s">
         <v>399</v>
       </c>
-      <c r="P36" s="128"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="K37" s="129">
+      <c r="P36" s="104"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K37" s="105">
         <v>8</v>
       </c>
-      <c r="L37" s="129">
+      <c r="L37" s="105">
         <v>2</v>
       </c>
       <c r="M37" s="64">
@@ -3954,12 +3961,12 @@
         <f t="array" ref="N37">$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O37" s="128" t="s">
+      <c r="O37" s="104" t="s">
         <v>398</v>
       </c>
-      <c r="P37" s="128"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="P37" s="104"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
@@ -3967,8 +3974,8 @@
         <f>F34/G34</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
       <c r="M38" s="64">
         <v>13</v>
       </c>
@@ -3976,12 +3983,12 @@
         <f>$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O38" s="128" t="s">
+      <c r="O38" s="104" t="s">
         <v>399</v>
       </c>
-      <c r="P38" s="128"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="P38" s="104"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K39" s="64">
         <v>9</v>
       </c>
@@ -3995,17 +4002,17 @@
         <f>$C$46/L39</f>
         <v>12</v>
       </c>
-      <c r="O39" s="128" t="s">
+      <c r="O39" s="104" t="s">
         <v>400</v>
       </c>
-      <c r="P39" s="128"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="P39" s="104"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>25</v>
       </c>
@@ -4023,12 +4030,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>29</v>
       </c>
@@ -4037,12 +4044,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>31</v>
       </c>
@@ -4054,12 +4061,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>33</v>
       </c>
@@ -4080,7 +4087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>88</v>
       </c>
@@ -4092,7 +4099,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
@@ -4107,12 +4114,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>38</v>
       </c>
@@ -4128,12 +4135,12 @@
         <v>24.782757821552721</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>40</v>
       </c>
@@ -4145,12 +4152,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>42</v>
       </c>
@@ -4162,12 +4169,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>44</v>
       </c>
@@ -4190,12 +4197,12 @@
         <v>294.20454545454544</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>46</v>
       </c>
@@ -4211,12 +4218,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>48</v>
       </c>
@@ -4228,18 +4235,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C85" s="12">
         <f>E77*0.85*H239</f>
-        <v>1232.2872804125859</v>
+        <v>1232.2883383440637</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>62</v>
@@ -4248,12 +4255,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>64</v>
       </c>
@@ -4265,12 +4272,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
         <v>67</v>
       </c>
@@ -4291,12 +4298,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>72</v>
       </c>
@@ -4308,7 +4315,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
         <v>73</v>
       </c>
@@ -4329,75 +4336,75 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="74" t="s">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B102" s="74"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="B104" s="101" t="s">
+      <c r="B102" s="79"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B104" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="101"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="101"/>
-      <c r="H104" s="101"/>
+      <c r="C104" s="119"/>
+      <c r="D104" s="119"/>
+      <c r="E104" s="119"/>
+      <c r="F104" s="119"/>
+      <c r="G104" s="119"/>
+      <c r="H104" s="119"/>
       <c r="J104" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A106" s="98" t="s">
+    <row r="106" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="98"/>
+      <c r="B106" s="82"/>
       <c r="C106" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="98" t="s">
+      <c r="D106" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="98"/>
-      <c r="F106" s="98" t="s">
+      <c r="E106" s="82"/>
+      <c r="F106" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="G106" s="98"/>
-      <c r="H106" s="98" t="s">
+      <c r="G106" s="82"/>
+      <c r="H106" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="I106" s="98"/>
-      <c r="J106" s="98" t="s">
+      <c r="I106" s="82"/>
+      <c r="J106" s="82" t="s">
         <v>459</v>
       </c>
-      <c r="K106" s="98"/>
-    </row>
-    <row r="107" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A107" s="88"/>
-      <c r="B107" s="88"/>
+      <c r="K106" s="82"/>
+    </row>
+    <row r="107" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="87"/>
+      <c r="B107" s="87"/>
       <c r="C107" s="46"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="112"/>
-      <c r="G107" s="112"/>
-      <c r="H107" s="112"/>
-      <c r="I107" s="112"/>
-      <c r="J107" s="112"/>
-      <c r="K107" s="112"/>
-    </row>
-    <row r="108" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A108" s="87" t="s">
+      <c r="F107" s="118"/>
+      <c r="G107" s="118"/>
+      <c r="H107" s="118"/>
+      <c r="I107" s="118"/>
+      <c r="J107" s="118"/>
+      <c r="K107" s="118"/>
+    </row>
+    <row r="108" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="101" t="s">
         <v>469</v>
       </c>
-      <c r="B108" s="87"/>
+      <c r="B108" s="101"/>
       <c r="C108" s="47" t="s">
         <v>471</v>
       </c>
@@ -4407,25 +4414,25 @@
       <c r="E108" s="1">
         <v>700</v>
       </c>
-      <c r="F108" s="112">
+      <c r="F108" s="118">
         <v>1</v>
       </c>
-      <c r="G108" s="112"/>
-      <c r="H108" s="112">
+      <c r="G108" s="118"/>
+      <c r="H108" s="118">
         <v>4</v>
       </c>
-      <c r="I108" s="112"/>
-      <c r="J108" s="112">
+      <c r="I108" s="118"/>
+      <c r="J108" s="118">
         <f>D108*E108*F108*H108/1000000</f>
         <v>3.36</v>
       </c>
-      <c r="K108" s="112"/>
-    </row>
-    <row r="109" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A109" s="87" t="s">
+      <c r="K108" s="118"/>
+    </row>
+    <row r="109" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="101" t="s">
         <v>470</v>
       </c>
-      <c r="B109" s="87"/>
+      <c r="B109" s="101"/>
       <c r="C109" s="15"/>
       <c r="D109" s="63">
         <v>23970</v>
@@ -4433,21 +4440,21 @@
       <c r="E109" s="1">
         <v>600</v>
       </c>
-      <c r="F109" s="112">
+      <c r="F109" s="118">
         <v>1</v>
       </c>
-      <c r="G109" s="112"/>
-      <c r="H109" s="113">
+      <c r="G109" s="118"/>
+      <c r="H109" s="135">
         <v>2.5</v>
       </c>
-      <c r="I109" s="113"/>
-      <c r="J109" s="112">
+      <c r="I109" s="135"/>
+      <c r="J109" s="118">
         <f>D109*E109*F109*H109/1000000</f>
         <v>35.954999999999998</v>
       </c>
-      <c r="K109" s="112"/>
-    </row>
-    <row r="110" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
+      <c r="K109" s="118"/>
+    </row>
+    <row r="110" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="45" t="s">
         <v>468</v>
       </c>
@@ -4469,52 +4476,52 @@
         <v>4</v>
       </c>
       <c r="I110" s="63"/>
-      <c r="J110" s="110">
+      <c r="J110" s="131">
         <f>D110*E110*F110*H110/1000000</f>
         <v>53.76</v>
       </c>
-      <c r="K110" s="111"/>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="87"/>
-      <c r="B111" s="87"/>
+      <c r="K110" s="132"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="101"/>
+      <c r="B111" s="101"/>
       <c r="C111" s="15"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="112"/>
-      <c r="G111" s="112"/>
-      <c r="H111" s="114"/>
-      <c r="I111" s="114"/>
-      <c r="J111" s="112">
+      <c r="F111" s="118"/>
+      <c r="G111" s="118"/>
+      <c r="H111" s="136"/>
+      <c r="I111" s="136"/>
+      <c r="J111" s="118">
         <f>D111*E111*F111*H111/1000000</f>
         <v>0</v>
       </c>
-      <c r="K111" s="112"/>
-    </row>
-    <row r="112" spans="1:13" s="17" customFormat="1">
-      <c r="A112" s="149" t="s">
+      <c r="K111" s="118"/>
+    </row>
+    <row r="112" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="150"/>
+      <c r="B112" s="89"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
-      <c r="F112" s="127">
+      <c r="F112" s="117">
         <v>18</v>
       </c>
-      <c r="G112" s="127"/>
-      <c r="H112" s="127"/>
-      <c r="I112" s="127"/>
-      <c r="J112" s="127">
+      <c r="G112" s="117"/>
+      <c r="H112" s="117"/>
+      <c r="I112" s="117"/>
+      <c r="J112" s="117">
         <f t="array" ref="J112">SUM(J108:J111)</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="K112" s="127"/>
+      <c r="K112" s="117"/>
       <c r="M112" s="17" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
       <c r="C113" s="16"/>
@@ -4527,112 +4534,112 @@
       <c r="J113" s="16"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L114" s="8"/>
     </row>
-    <row r="115" spans="1:12">
-      <c r="B115" s="101" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B115" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="101"/>
-      <c r="D115" s="101"/>
-      <c r="E115" s="101"/>
-      <c r="F115" s="101"/>
-      <c r="G115" s="101"/>
-      <c r="H115" s="101"/>
-    </row>
-    <row r="117" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A117" s="98" t="s">
+      <c r="C115" s="119"/>
+      <c r="D115" s="119"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="119"/>
+      <c r="G115" s="119"/>
+      <c r="H115" s="119"/>
+    </row>
+    <row r="117" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="B117" s="98"/>
-      <c r="C117" s="98" t="s">
+      <c r="B117" s="82"/>
+      <c r="C117" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="D117" s="98"/>
-      <c r="E117" s="98" t="s">
+      <c r="D117" s="82"/>
+      <c r="E117" s="82" t="s">
         <v>460</v>
       </c>
-      <c r="F117" s="98"/>
+      <c r="F117" s="82"/>
       <c r="L117" s="16"/>
     </row>
-    <row r="118" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A118" s="98" t="s">
+    <row r="118" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="98"/>
-      <c r="C118" s="98" t="s">
+      <c r="B118" s="82"/>
+      <c r="C118" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D118" s="98"/>
-      <c r="E118" s="75">
+      <c r="D118" s="82"/>
+      <c r="E118" s="73">
         <f>J112</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="F118" s="76"/>
-    </row>
-    <row r="119" spans="1:12" ht="30" customHeight="1">
-      <c r="A119" s="98" t="s">
+      <c r="F118" s="74"/>
+    </row>
+    <row r="119" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="98"/>
-      <c r="C119" s="98" t="s">
+      <c r="B119" s="82"/>
+      <c r="C119" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D119" s="98"/>
-      <c r="E119" s="75">
+      <c r="D119" s="82"/>
+      <c r="E119" s="73">
         <f t="array" ref="E119">0.3*E118</f>
         <v>27.922499999999996</v>
       </c>
-      <c r="F119" s="76"/>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="A120" s="151" t="s">
+      <c r="F119" s="74"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="98"/>
-      <c r="C120" s="98"/>
-      <c r="D120" s="98"/>
-      <c r="E120" s="75">
+      <c r="B120" s="82"/>
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="73">
         <f t="array" ref="E120">SUM(E118:F119)</f>
         <v>120.99749999999999</v>
       </c>
-      <c r="F120" s="76"/>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="A123" s="137" t="s">
+      <c r="F120" s="74"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="B123" s="74"/>
-      <c r="C123" s="74"/>
-      <c r="D123" s="74"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="74"/>
-      <c r="H123" s="74"/>
-      <c r="I123" s="74"/>
-    </row>
-    <row r="125" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A125" s="98" t="s">
+      <c r="B123" s="79"/>
+      <c r="C123" s="79"/>
+      <c r="D123" s="79"/>
+      <c r="E123" s="79"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
+      <c r="H123" s="79"/>
+      <c r="I123" s="79"/>
+    </row>
+    <row r="125" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="B125" s="98"/>
-      <c r="C125" s="98" t="s">
+      <c r="B125" s="82"/>
+      <c r="C125" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D125" s="98" t="s">
+      <c r="D125" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="E125" s="98" t="s">
+      <c r="E125" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="F125" s="98"/>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="A126" s="98"/>
-      <c r="B126" s="98"/>
-      <c r="C126" s="98"/>
-      <c r="D126" s="98"/>
+      <c r="F125" s="82"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="82"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="82"/>
       <c r="E126" s="1" t="s">
         <v>108</v>
       </c>
@@ -4640,11 +4647,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
-      <c r="A127" s="108" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="B127" s="108"/>
+      <c r="B127" s="72"/>
       <c r="C127" s="15" t="s">
         <v>356</v>
       </c>
@@ -4660,11 +4667,11 @@
         <v>1.6183011224489796</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
-      <c r="A128" s="108" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="72" t="s">
         <v>401</v>
       </c>
-      <c r="B128" s="108"/>
+      <c r="B128" s="72"/>
       <c r="C128" s="15" t="s">
         <v>402</v>
       </c>
@@ -4679,11 +4686,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
-      <c r="A129" s="120" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="91" t="s">
         <v>403</v>
       </c>
-      <c r="B129" s="122"/>
+      <c r="B129" s="92"/>
       <c r="C129" s="15" t="s">
         <v>404</v>
       </c>
@@ -4698,11 +4705,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="152" t="s">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="93" t="s">
         <v>425</v>
       </c>
-      <c r="B130" s="153"/>
+      <c r="B130" s="94"/>
       <c r="C130" s="15" t="s">
         <v>426</v>
       </c>
@@ -4717,255 +4724,255 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="152" t="s">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="93" t="s">
         <v>423</v>
       </c>
-      <c r="B131" s="153"/>
+      <c r="B131" s="94"/>
       <c r="C131" s="15" t="s">
         <v>424</v>
       </c>
       <c r="D131" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" s="9">
         <v>0.05</v>
       </c>
       <c r="F131" s="9">
         <f>D131*E131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="126" t="s">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="154"/>
+      <c r="B132" s="96"/>
       <c r="C132" s="4"/>
       <c r="D132" s="20">
         <f>SUM(D127:D131)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" s="20"/>
       <c r="F132" s="21">
         <f>SUM(F127:F131)</f>
-        <v>1.6183011224489796</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" s="74" t="s">
+        <v>1.6683011224489797</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="B135" s="74"/>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="74"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="B137" s="74" t="s">
+      <c r="B135" s="79"/>
+      <c r="C135" s="79"/>
+      <c r="D135" s="79"/>
+      <c r="E135" s="79"/>
+      <c r="F135" s="79"/>
+      <c r="G135" s="79"/>
+      <c r="H135" s="79"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B137" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
-    </row>
-    <row r="139" spans="1:12" ht="45" customHeight="1">
-      <c r="A139" s="98" t="s">
+      <c r="C137" s="79"/>
+      <c r="D137" s="79"/>
+      <c r="E137" s="79"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="79"/>
+      <c r="H137" s="79"/>
+      <c r="I137" s="79"/>
+    </row>
+    <row r="139" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="B139" s="98"/>
-      <c r="C139" s="98" t="s">
+      <c r="B139" s="82"/>
+      <c r="C139" s="82" t="s">
         <v>461</v>
       </c>
-      <c r="D139" s="98"/>
-      <c r="E139" s="98" t="s">
+      <c r="D139" s="82"/>
+      <c r="E139" s="82" t="s">
         <v>462</v>
       </c>
-      <c r="F139" s="98"/>
-      <c r="G139" s="98" t="s">
+      <c r="F139" s="82"/>
+      <c r="G139" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="H139" s="98"/>
-      <c r="I139" s="98" t="s">
+      <c r="H139" s="82"/>
+      <c r="I139" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="J139" s="98"/>
-      <c r="K139" s="98" t="s">
+      <c r="J139" s="82"/>
+      <c r="K139" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="L139" s="98"/>
-    </row>
-    <row r="140" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A140" s="87" t="s">
+      <c r="L139" s="82"/>
+    </row>
+    <row r="140" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="B140" s="87"/>
-      <c r="C140" s="88">
+      <c r="B140" s="101"/>
+      <c r="C140" s="87">
         <v>170</v>
       </c>
-      <c r="D140" s="88"/>
-      <c r="E140" s="89">
+      <c r="D140" s="87"/>
+      <c r="E140" s="98">
         <f t="array" ref="E140">E118</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="F140" s="90"/>
-      <c r="G140" s="89">
+      <c r="F140" s="99"/>
+      <c r="G140" s="98">
         <f t="array" ref="G140">C140*E140</f>
         <v>15822.749999999998</v>
       </c>
-      <c r="H140" s="90"/>
-      <c r="I140" s="89">
+      <c r="H140" s="99"/>
+      <c r="I140" s="98">
         <v>2.7</v>
       </c>
-      <c r="J140" s="90"/>
-      <c r="K140" s="89">
+      <c r="J140" s="99"/>
+      <c r="K140" s="98">
         <f>G140*I140/(100)</f>
         <v>427.21424999999994</v>
       </c>
-      <c r="L140" s="90"/>
-    </row>
-    <row r="141" spans="1:12" ht="30" customHeight="1">
-      <c r="A141" s="87" t="s">
+      <c r="L140" s="99"/>
+    </row>
+    <row r="141" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="B141" s="87"/>
-      <c r="C141" s="88">
+      <c r="B141" s="101"/>
+      <c r="C141" s="87">
         <v>250</v>
       </c>
-      <c r="D141" s="88"/>
-      <c r="E141" s="89">
+      <c r="D141" s="87"/>
+      <c r="E141" s="98">
         <f t="array" ref="E141">E119</f>
         <v>27.922499999999996</v>
       </c>
-      <c r="F141" s="90"/>
-      <c r="G141" s="89">
+      <c r="F141" s="99"/>
+      <c r="G141" s="98">
         <f t="array" ref="G141">C141*E141</f>
         <v>6980.6249999999991</v>
       </c>
-      <c r="H141" s="90"/>
-      <c r="I141" s="89">
+      <c r="H141" s="99"/>
+      <c r="I141" s="98">
         <v>3.1</v>
       </c>
-      <c r="J141" s="90"/>
-      <c r="K141" s="89">
+      <c r="J141" s="99"/>
+      <c r="K141" s="98">
         <f>G141*I141/(100)</f>
         <v>216.39937499999996</v>
       </c>
-      <c r="L141" s="90"/>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="136" t="s">
+      <c r="L141" s="99"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B142" s="88"/>
-      <c r="C142" s="75"/>
-      <c r="D142" s="76"/>
-      <c r="E142" s="91">
+      <c r="B142" s="87"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="137">
         <f t="array" ref="E142">SUM(E140:E141)</f>
         <v>120.99749999999999</v>
       </c>
-      <c r="F142" s="92"/>
-      <c r="G142" s="104">
+      <c r="F142" s="138"/>
+      <c r="G142" s="139">
         <f>SUM(G140:G141)</f>
         <v>22803.374999999996</v>
       </c>
-      <c r="H142" s="105"/>
+      <c r="H142" s="140"/>
       <c r="I142" s="22"/>
       <c r="J142" s="23"/>
-      <c r="K142" s="91">
+      <c r="K142" s="137">
         <f t="array" ref="K142">SUM(K140:K141)</f>
         <v>643.61362499999996</v>
       </c>
-      <c r="L142" s="92"/>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="B145" s="74" t="s">
+      <c r="L142" s="138"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B145" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="C145" s="74"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="74"/>
-      <c r="F145" s="74"/>
-      <c r="G145" s="74"/>
-      <c r="H145" s="74"/>
-      <c r="I145" s="74"/>
+      <c r="C145" s="79"/>
+      <c r="D145" s="79"/>
+      <c r="E145" s="79"/>
+      <c r="F145" s="79"/>
+      <c r="G145" s="79"/>
+      <c r="H145" s="79"/>
+      <c r="I145" s="79"/>
       <c r="K145" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A147" s="98" t="s">
+    <row r="147" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="B147" s="98"/>
-      <c r="C147" s="98" t="s">
+      <c r="B147" s="82"/>
+      <c r="C147" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D147" s="98" t="s">
+      <c r="D147" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E147" s="98"/>
-      <c r="F147" s="98" t="s">
+      <c r="E147" s="82"/>
+      <c r="F147" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="G147" s="98"/>
-      <c r="H147" s="132" t="s">
+      <c r="G147" s="82"/>
+      <c r="H147" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="I147" s="133"/>
-      <c r="J147" s="98" t="s">
+      <c r="I147" s="112"/>
+      <c r="J147" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="K147" s="98"/>
-      <c r="L147" s="132" t="s">
+      <c r="K147" s="82"/>
+      <c r="L147" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="M147" s="133"/>
-      <c r="N147" s="98" t="s">
+      <c r="M147" s="112"/>
+      <c r="N147" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="O147" s="98"/>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="A148" s="98"/>
-      <c r="B148" s="98"/>
-      <c r="C148" s="98"/>
-      <c r="D148" s="98"/>
-      <c r="E148" s="98"/>
+      <c r="O147" s="82"/>
+    </row>
+    <row r="148" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A148" s="82"/>
+      <c r="B148" s="82"/>
+      <c r="C148" s="82"/>
+      <c r="D148" s="82"/>
+      <c r="E148" s="82"/>
       <c r="F148" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G148" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H148" s="134"/>
-      <c r="I148" s="135"/>
-      <c r="J148" s="98"/>
-      <c r="K148" s="98"/>
-      <c r="L148" s="134"/>
-      <c r="M148" s="135"/>
-      <c r="N148" s="98"/>
-      <c r="O148" s="98"/>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" s="88" t="s">
+      <c r="H148" s="113"/>
+      <c r="I148" s="114"/>
+      <c r="J148" s="82"/>
+      <c r="K148" s="82"/>
+      <c r="L148" s="113"/>
+      <c r="M148" s="114"/>
+      <c r="N148" s="82"/>
+      <c r="O148" s="82"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149" s="87" t="s">
         <v>472</v>
       </c>
-      <c r="B149" s="88"/>
+      <c r="B149" s="87"/>
       <c r="C149" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="D149" s="88">
+      <c r="D149" s="87">
         <v>16</v>
       </c>
-      <c r="E149" s="88"/>
+      <c r="E149" s="87"/>
       <c r="F149" s="14">
         <v>360</v>
       </c>
@@ -4973,38 +4980,38 @@
         <f>D149*F149</f>
         <v>5760</v>
       </c>
-      <c r="H149" s="85">
+      <c r="H149" s="133">
         <f>0.1*G149</f>
         <v>576</v>
       </c>
-      <c r="I149" s="86"/>
-      <c r="J149" s="85">
+      <c r="I149" s="134"/>
+      <c r="J149" s="133">
         <f>G149+H149</f>
         <v>6336</v>
       </c>
-      <c r="K149" s="86"/>
-      <c r="L149" s="85">
+      <c r="K149" s="134"/>
+      <c r="L149" s="133">
         <v>7.7</v>
       </c>
-      <c r="M149" s="86"/>
-      <c r="N149" s="83">
+      <c r="M149" s="134"/>
+      <c r="N149" s="153">
         <f>L149*J149/(100)</f>
         <v>487.87200000000007</v>
       </c>
-      <c r="O149" s="84"/>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" s="87" t="s">
+      <c r="O149" s="154"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A150" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="B150" s="87"/>
+      <c r="B150" s="101"/>
       <c r="C150" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D150" s="88">
+      <c r="D150" s="87">
         <v>1</v>
       </c>
-      <c r="E150" s="88"/>
+      <c r="E150" s="87"/>
       <c r="F150" s="14">
         <v>360</v>
       </c>
@@ -5012,38 +5019,38 @@
         <f>D150*F150</f>
         <v>360</v>
       </c>
-      <c r="H150" s="85">
+      <c r="H150" s="133">
         <f>0.1*G150</f>
         <v>36</v>
       </c>
-      <c r="I150" s="86"/>
-      <c r="J150" s="85">
+      <c r="I150" s="134"/>
+      <c r="J150" s="133">
         <f>G150+H150</f>
         <v>396</v>
       </c>
-      <c r="K150" s="86"/>
-      <c r="L150" s="85">
+      <c r="K150" s="134"/>
+      <c r="L150" s="133">
         <v>7.7</v>
       </c>
-      <c r="M150" s="86"/>
-      <c r="N150" s="83">
+      <c r="M150" s="134"/>
+      <c r="N150" s="153">
         <f>L150*J150/(100)</f>
         <v>30.492000000000004</v>
       </c>
-      <c r="O150" s="84"/>
-    </row>
-    <row r="151" spans="1:15">
-      <c r="A151" s="87" t="s">
+      <c r="O150" s="154"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A151" s="101" t="s">
         <v>420</v>
       </c>
-      <c r="B151" s="87"/>
+      <c r="B151" s="101"/>
       <c r="C151" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D151" s="88">
+      <c r="D151" s="87">
         <v>0</v>
       </c>
-      <c r="E151" s="88"/>
+      <c r="E151" s="87"/>
       <c r="F151" s="14">
         <v>0</v>
       </c>
@@ -5051,38 +5058,38 @@
         <f>D151*F151</f>
         <v>0</v>
       </c>
-      <c r="H151" s="85">
+      <c r="H151" s="133">
         <f>0.1*G151</f>
         <v>0</v>
       </c>
-      <c r="I151" s="86"/>
-      <c r="J151" s="85">
+      <c r="I151" s="134"/>
+      <c r="J151" s="133">
         <f>G151+H151</f>
         <v>0</v>
       </c>
-      <c r="K151" s="86"/>
-      <c r="L151" s="85">
+      <c r="K151" s="134"/>
+      <c r="L151" s="133">
         <v>0</v>
       </c>
-      <c r="M151" s="86"/>
-      <c r="N151" s="83">
+      <c r="M151" s="134"/>
+      <c r="N151" s="153">
         <f>L151*J151/(100)</f>
         <v>0</v>
       </c>
-      <c r="O151" s="84"/>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="A152" s="87" t="s">
+      <c r="O151" s="154"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152" s="101" t="s">
         <v>420</v>
       </c>
-      <c r="B152" s="87"/>
+      <c r="B152" s="101"/>
       <c r="C152" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D152" s="88">
+      <c r="D152" s="87">
         <v>0</v>
       </c>
-      <c r="E152" s="88"/>
+      <c r="E152" s="87"/>
       <c r="F152" s="14">
         <v>0</v>
       </c>
@@ -5090,38 +5097,38 @@
         <f>D152*F152</f>
         <v>0</v>
       </c>
-      <c r="H152" s="85">
+      <c r="H152" s="133">
         <f>0.1*G152</f>
         <v>0</v>
       </c>
-      <c r="I152" s="86"/>
-      <c r="J152" s="85">
+      <c r="I152" s="134"/>
+      <c r="J152" s="133">
         <f>G152+H152</f>
         <v>0</v>
       </c>
-      <c r="K152" s="86"/>
-      <c r="L152" s="85">
+      <c r="K152" s="134"/>
+      <c r="L152" s="133">
         <v>0</v>
       </c>
-      <c r="M152" s="86"/>
-      <c r="N152" s="83">
+      <c r="M152" s="134"/>
+      <c r="N152" s="153">
         <f>L152*J152/(100)</f>
         <v>0</v>
       </c>
-      <c r="O152" s="84"/>
-    </row>
-    <row r="153" spans="1:15">
-      <c r="A153" s="87" t="s">
+      <c r="O152" s="154"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A153" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="B153" s="87"/>
+      <c r="B153" s="101"/>
       <c r="C153" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D153" s="88">
+      <c r="D153" s="87">
         <v>1</v>
       </c>
-      <c r="E153" s="88"/>
+      <c r="E153" s="87"/>
       <c r="F153" s="69">
         <v>1142</v>
       </c>
@@ -5129,294 +5136,294 @@
         <f>D153*F153</f>
         <v>1142</v>
       </c>
-      <c r="H153" s="85">
+      <c r="H153" s="133">
         <f>0.1*G153</f>
         <v>114.2</v>
       </c>
-      <c r="I153" s="86"/>
-      <c r="J153" s="85">
+      <c r="I153" s="134"/>
+      <c r="J153" s="133">
         <f>G153+H153</f>
         <v>1256.2</v>
       </c>
-      <c r="K153" s="86"/>
-      <c r="L153" s="85">
+      <c r="K153" s="134"/>
+      <c r="L153" s="133">
         <v>15.2</v>
       </c>
-      <c r="M153" s="86"/>
-      <c r="N153" s="83">
+      <c r="M153" s="134"/>
+      <c r="N153" s="153">
         <f>L153*J153/(100)</f>
         <v>190.94240000000002</v>
       </c>
-      <c r="O153" s="84"/>
-    </row>
-    <row r="154" spans="1:15">
-      <c r="A154" s="142" t="s">
+      <c r="O153" s="154"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A154" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="142"/>
+      <c r="B154" s="102"/>
       <c r="C154" s="24"/>
-      <c r="D154" s="106">
+      <c r="D154" s="141">
         <f>SUM(D149:E153)</f>
         <v>18</v>
       </c>
-      <c r="E154" s="107"/>
+      <c r="E154" s="142"/>
       <c r="F154" s="24"/>
       <c r="G154" s="25">
         <f>SUM(G149:G153)</f>
         <v>7262</v>
       </c>
-      <c r="H154" s="94">
+      <c r="H154" s="143">
         <f>SUM(H149:I153)</f>
         <v>726.2</v>
       </c>
-      <c r="I154" s="95"/>
-      <c r="J154" s="94">
+      <c r="I154" s="144"/>
+      <c r="J154" s="143">
         <f>SUM(J149:K153)</f>
         <v>7988.2</v>
       </c>
-      <c r="K154" s="95"/>
-      <c r="L154" s="96"/>
-      <c r="M154" s="97"/>
-      <c r="N154" s="94">
+      <c r="K154" s="144"/>
+      <c r="L154" s="147"/>
+      <c r="M154" s="148"/>
+      <c r="N154" s="143">
         <f>SUM(N149:O153)</f>
         <v>709.30640000000005</v>
       </c>
-      <c r="O154" s="95"/>
-    </row>
-    <row r="156" spans="1:15">
+      <c r="O154" s="144"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:15">
-      <c r="B157" s="74" t="s">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B157" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="C157" s="74"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="74"/>
-      <c r="G157" s="74"/>
-      <c r="H157" s="74"/>
-      <c r="I157" s="74"/>
-      <c r="J157" s="74"/>
+      <c r="C157" s="79"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
+      <c r="F157" s="79"/>
+      <c r="G157" s="79"/>
+      <c r="H157" s="79"/>
+      <c r="I157" s="79"/>
+      <c r="J157" s="79"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="37.5">
-      <c r="A159" s="99" t="s">
+    <row r="159" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A159" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="B159" s="99"/>
-      <c r="C159" s="99"/>
+      <c r="B159" s="75"/>
+      <c r="C159" s="75"/>
       <c r="D159" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E159" s="99" t="s">
+      <c r="E159" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F159" s="99"/>
+      <c r="F159" s="75"/>
       <c r="G159" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="H159" s="99" t="s">
+      <c r="H159" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="I159" s="99"/>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="A160" s="99" t="s">
+      <c r="I159" s="75"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A160" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="B160" s="99"/>
-      <c r="C160" s="99"/>
+      <c r="B160" s="75"/>
+      <c r="C160" s="75"/>
       <c r="D160" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E160" s="89">
+      <c r="E160" s="98">
         <f t="array" ref="E160">G142</f>
         <v>22803.374999999996</v>
       </c>
-      <c r="F160" s="90"/>
+      <c r="F160" s="99"/>
       <c r="G160" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="H160" s="89">
+      <c r="H160" s="98">
         <f>K142</f>
         <v>643.61362499999996</v>
       </c>
-      <c r="I160" s="90"/>
-    </row>
-    <row r="161" spans="1:10">
-      <c r="A161" s="99" t="s">
+      <c r="I160" s="99"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="B161" s="99"/>
-      <c r="C161" s="99"/>
+      <c r="B161" s="75"/>
+      <c r="C161" s="75"/>
       <c r="D161" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E161" s="89">
+      <c r="E161" s="98">
         <f t="array" ref="E161">J154</f>
         <v>7988.2</v>
       </c>
-      <c r="F161" s="90"/>
+      <c r="F161" s="99"/>
       <c r="G161" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="H161" s="89">
+      <c r="H161" s="98">
         <f>N154</f>
         <v>709.30640000000005</v>
       </c>
-      <c r="I161" s="90"/>
-    </row>
-    <row r="162" spans="1:10">
-      <c r="A162" s="99" t="s">
+      <c r="I161" s="99"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B162" s="99"/>
-      <c r="C162" s="99"/>
+      <c r="B162" s="75"/>
+      <c r="C162" s="75"/>
       <c r="D162" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E162" s="89">
+      <c r="E162" s="98">
         <f>45*F132</f>
-        <v>72.823550510204086</v>
-      </c>
-      <c r="F162" s="90"/>
+        <v>75.073550510204086</v>
+      </c>
+      <c r="F162" s="99"/>
       <c r="G162" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H162" s="89">
+      <c r="H162" s="98">
         <f>E162*G162/(100)</f>
-        <v>5.9715311418367341</v>
-      </c>
-      <c r="I162" s="90"/>
-    </row>
-    <row r="163" spans="1:10">
-      <c r="A163" s="77" t="s">
+        <v>6.1560311418367348</v>
+      </c>
+      <c r="I162" s="99"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="150" t="s">
         <v>357</v>
       </c>
-      <c r="B163" s="78"/>
-      <c r="C163" s="79"/>
+      <c r="B163" s="151"/>
+      <c r="C163" s="152"/>
       <c r="D163" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E163" s="89">
+      <c r="E163" s="98">
         <f t="array" ref="E163">J154*0.1</f>
         <v>798.82</v>
       </c>
-      <c r="F163" s="90"/>
+      <c r="F163" s="99"/>
       <c r="G163" s="4">
         <v>4.5</v>
       </c>
-      <c r="H163" s="89">
+      <c r="H163" s="98">
         <f>E163*G163/(100)</f>
         <v>35.946899999999999</v>
       </c>
-      <c r="I163" s="90"/>
-    </row>
-    <row r="164" spans="1:10">
-      <c r="A164" s="77" t="s">
+      <c r="I163" s="99"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="150" t="s">
         <v>359</v>
       </c>
-      <c r="B164" s="78"/>
-      <c r="C164" s="79"/>
+      <c r="B164" s="151"/>
+      <c r="C164" s="152"/>
       <c r="D164" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E164" s="89">
+      <c r="E164" s="98">
         <f t="array" ref="E164">0.02*G154</f>
         <v>145.24</v>
       </c>
-      <c r="F164" s="90"/>
+      <c r="F164" s="99"/>
       <c r="G164" s="4">
         <v>11.5</v>
       </c>
-      <c r="H164" s="89">
+      <c r="H164" s="98">
         <f>E164*G164/(100)</f>
         <v>16.702600000000004</v>
       </c>
-      <c r="I164" s="90"/>
-    </row>
-    <row r="165" spans="1:10">
-      <c r="A165" s="99" t="s">
+      <c r="I164" s="99"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="99"/>
-      <c r="C165" s="99"/>
+      <c r="B165" s="75"/>
+      <c r="C165" s="75"/>
       <c r="D165" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E165" s="89">
+      <c r="E165" s="98">
         <f t="array" ref="E165">1.5*E161/100+15.4*G34</f>
         <v>366.22300000000001</v>
       </c>
-      <c r="F165" s="90"/>
+      <c r="F165" s="99"/>
       <c r="G165" s="4">
         <f>18.5</f>
         <v>18.5</v>
       </c>
-      <c r="H165" s="89">
+      <c r="H165" s="98">
         <f>E165*G165/(100)</f>
         <v>67.751255</v>
       </c>
-      <c r="I165" s="90"/>
-    </row>
-    <row r="166" spans="1:10">
-      <c r="A166" s="126" t="s">
+      <c r="I165" s="99"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B166" s="108"/>
-      <c r="C166" s="108"/>
+      <c r="B166" s="72"/>
+      <c r="C166" s="72"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="91">
+      <c r="E166" s="137">
         <f t="array" ref="E166">SUM(E160:E165)</f>
-        <v>32174.681550510206</v>
-      </c>
-      <c r="F166" s="92"/>
+        <v>32176.931550510206</v>
+      </c>
+      <c r="F166" s="138"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="91">
+      <c r="H166" s="137">
         <f t="array" ref="H166">SUM(H160:H165)</f>
-        <v>1479.2923111418365</v>
-      </c>
-      <c r="I166" s="92"/>
-    </row>
-    <row r="169" spans="1:10">
-      <c r="A169" s="74" t="s">
+        <v>1479.4768111418366</v>
+      </c>
+      <c r="I166" s="138"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="74"/>
-      <c r="C169" s="74"/>
-      <c r="D169" s="74"/>
-      <c r="E169" s="74"/>
-      <c r="F169" s="74"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="74"/>
-      <c r="I169" s="74"/>
-      <c r="J169" s="74"/>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="B171" s="74" t="s">
+      <c r="B169" s="79"/>
+      <c r="C169" s="79"/>
+      <c r="D169" s="79"/>
+      <c r="E169" s="79"/>
+      <c r="F169" s="79"/>
+      <c r="G169" s="79"/>
+      <c r="H169" s="79"/>
+      <c r="I169" s="79"/>
+      <c r="J169" s="79"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B171" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C171" s="74"/>
-      <c r="D171" s="74"/>
-      <c r="E171" s="74"/>
-      <c r="F171" s="74"/>
-      <c r="G171" s="74"/>
-      <c r="H171" s="74"/>
-      <c r="I171" s="74"/>
-      <c r="J171" s="74"/>
-    </row>
-    <row r="173" spans="1:10">
-      <c r="B173" s="74" t="s">
+      <c r="C171" s="79"/>
+      <c r="D171" s="79"/>
+      <c r="E171" s="79"/>
+      <c r="F171" s="79"/>
+      <c r="G171" s="79"/>
+      <c r="H171" s="79"/>
+      <c r="I171" s="79"/>
+      <c r="J171" s="79"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B173" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="C173" s="74"/>
-      <c r="D173" s="74"/>
-      <c r="E173" s="74"/>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="C173" s="79"/>
+      <c r="D173" s="79"/>
+      <c r="E173" s="79"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C175" s="2" t="s">
         <v>144</v>
       </c>
@@ -5425,14 +5432,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="2:13">
-      <c r="B177" s="74" t="s">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B177" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="C177" s="74"/>
-      <c r="D177" s="74"/>
-    </row>
-    <row r="179" spans="2:13">
+      <c r="C177" s="79"/>
+      <c r="D177" s="79"/>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C179" s="2" t="s">
         <v>142</v>
       </c>
@@ -5450,40 +5457,40 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="181" spans="2:13">
-      <c r="B181" s="74" t="s">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B181" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="C181" s="74"/>
-      <c r="D181" s="74"/>
-      <c r="E181" s="74"/>
-      <c r="F181" s="74"/>
-      <c r="G181" s="74"/>
-      <c r="H181" s="74"/>
-      <c r="I181" s="74"/>
-      <c r="J181" s="74"/>
-      <c r="M181" s="101" t="s">
+      <c r="C181" s="79"/>
+      <c r="D181" s="79"/>
+      <c r="E181" s="79"/>
+      <c r="F181" s="79"/>
+      <c r="G181" s="79"/>
+      <c r="H181" s="79"/>
+      <c r="I181" s="79"/>
+      <c r="J181" s="79"/>
+      <c r="M181" s="119" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="182" spans="2:13">
-      <c r="M182" s="101"/>
-    </row>
-    <row r="183" spans="2:13">
-      <c r="C183" s="74" t="s">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M182" s="119"/>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C183" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="D183" s="74"/>
-      <c r="E183" s="74"/>
-      <c r="F183" s="74"/>
-      <c r="G183" s="74"/>
-      <c r="H183" s="74"/>
-      <c r="M183" s="101"/>
-    </row>
-    <row r="184" spans="2:13">
-      <c r="M184" s="101"/>
-    </row>
-    <row r="185" spans="2:13">
+      <c r="D183" s="79"/>
+      <c r="E183" s="79"/>
+      <c r="F183" s="79"/>
+      <c r="G183" s="79"/>
+      <c r="H183" s="79"/>
+      <c r="M183" s="119"/>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M184" s="119"/>
+    </row>
+    <row r="185" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D185" s="2" t="s">
         <v>463</v>
       </c>
@@ -5497,12 +5504,12 @@
       <c r="H185" s="2">
         <v>1</v>
       </c>
-      <c r="M185" s="101"/>
-    </row>
-    <row r="186" spans="2:13">
-      <c r="M186" s="101"/>
-    </row>
-    <row r="187" spans="2:13">
+      <c r="M185" s="119"/>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M186" s="119"/>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D187" s="2" t="s">
         <v>147</v>
       </c>
@@ -5519,29 +5526,29 @@
       <c r="I187" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M187" s="101"/>
-    </row>
-    <row r="188" spans="2:13">
-      <c r="M188" s="101"/>
-    </row>
-    <row r="189" spans="2:13">
-      <c r="C189" s="74" t="s">
+      <c r="M187" s="119"/>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M188" s="119"/>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C189" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="D189" s="74"/>
-      <c r="E189" s="74"/>
-      <c r="F189" s="74"/>
-      <c r="G189" s="74"/>
-      <c r="H189" s="74"/>
+      <c r="D189" s="79"/>
+      <c r="E189" s="79"/>
+      <c r="F189" s="79"/>
+      <c r="G189" s="79"/>
+      <c r="H189" s="79"/>
       <c r="K189" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="M189" s="101"/>
-    </row>
-    <row r="190" spans="2:13">
-      <c r="M190" s="101"/>
-    </row>
-    <row r="191" spans="2:13">
+      <c r="M189" s="119"/>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M190" s="119"/>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D191" s="2" t="s">
         <v>154</v>
       </c>
@@ -5564,18 +5571,18 @@
       <c r="K191" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M191" s="101"/>
-    </row>
-    <row r="192" spans="2:13">
+      <c r="M191" s="119"/>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G192" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H192" s="2">
         <v>8</v>
       </c>
-      <c r="M192" s="101"/>
-    </row>
-    <row r="193" spans="3:13">
+      <c r="M192" s="119"/>
+    </row>
+    <row r="193" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G193" s="2" t="s">
         <v>151</v>
       </c>
@@ -5592,32 +5599,32 @@
       <c r="K193" s="2">
         <v>0.9</v>
       </c>
-      <c r="M193" s="101"/>
-    </row>
-    <row r="194" spans="3:13">
+      <c r="M193" s="119"/>
+    </row>
+    <row r="194" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G194" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H194" s="2">
         <v>1</v>
       </c>
-      <c r="M194" s="101"/>
-    </row>
-    <row r="195" spans="3:13">
-      <c r="C195" s="74" t="s">
+      <c r="M194" s="119"/>
+    </row>
+    <row r="195" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C195" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="D195" s="74"/>
-      <c r="E195" s="74"/>
-      <c r="F195" s="74"/>
-      <c r="G195" s="74"/>
-      <c r="H195" s="74"/>
-      <c r="M195" s="101"/>
-    </row>
-    <row r="196" spans="3:13">
-      <c r="M196" s="101"/>
-    </row>
-    <row r="197" spans="3:13">
+      <c r="D195" s="79"/>
+      <c r="E195" s="79"/>
+      <c r="F195" s="79"/>
+      <c r="G195" s="79"/>
+      <c r="H195" s="79"/>
+      <c r="M195" s="119"/>
+    </row>
+    <row r="196" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M196" s="119"/>
+    </row>
+    <row r="197" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D197" s="2" t="s">
         <v>157</v>
       </c>
@@ -5640,50 +5647,50 @@
       <c r="K197" s="2">
         <v>3</v>
       </c>
-      <c r="M197" s="101"/>
-    </row>
-    <row r="198" spans="3:13">
+      <c r="M197" s="119"/>
+    </row>
+    <row r="198" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G198" s="2" t="s">
         <v>156</v>
       </c>
       <c r="H198" s="2">
         <v>2</v>
       </c>
-      <c r="M198" s="101"/>
-    </row>
-    <row r="199" spans="3:13">
-      <c r="M199" s="101"/>
-    </row>
-    <row r="200" spans="3:13">
-      <c r="C200" s="143" t="s">
+      <c r="M198" s="119"/>
+    </row>
+    <row r="199" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M199" s="119"/>
+    </row>
+    <row r="200" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C200" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="D200" s="143"/>
-      <c r="E200" s="143"/>
-      <c r="F200" s="143"/>
-      <c r="G200" s="143"/>
-      <c r="H200" s="143"/>
-      <c r="M200" s="101"/>
-    </row>
-    <row r="201" spans="3:13">
-      <c r="C201" s="143"/>
-      <c r="D201" s="143"/>
-      <c r="E201" s="143"/>
-      <c r="F201" s="143"/>
-      <c r="G201" s="143"/>
-      <c r="H201" s="143"/>
-      <c r="M201" s="101"/>
-    </row>
-    <row r="202" spans="3:13">
-      <c r="M202" s="101"/>
-    </row>
-    <row r="203" spans="3:13">
+      <c r="D200" s="97"/>
+      <c r="E200" s="97"/>
+      <c r="F200" s="97"/>
+      <c r="G200" s="97"/>
+      <c r="H200" s="97"/>
+      <c r="M200" s="119"/>
+    </row>
+    <row r="201" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C201" s="97"/>
+      <c r="D201" s="97"/>
+      <c r="E201" s="97"/>
+      <c r="F201" s="97"/>
+      <c r="G201" s="97"/>
+      <c r="H201" s="97"/>
+      <c r="M201" s="119"/>
+    </row>
+    <row r="202" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M202" s="119"/>
+    </row>
+    <row r="203" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G203" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M203" s="101"/>
-    </row>
-    <row r="204" spans="3:13">
+      <c r="M203" s="119"/>
+    </row>
+    <row r="204" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D204" s="2" t="s">
         <v>159</v>
       </c>
@@ -5693,9 +5700,9 @@
       <c r="K204" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M204" s="101"/>
-    </row>
-    <row r="205" spans="3:13">
+      <c r="M204" s="119"/>
+    </row>
+    <row r="205" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D205" s="2" t="s">
         <v>160</v>
       </c>
@@ -5705,9 +5712,9 @@
       <c r="K205" s="2">
         <v>2</v>
       </c>
-      <c r="M205" s="101"/>
-    </row>
-    <row r="206" spans="3:13">
+      <c r="M205" s="119"/>
+    </row>
+    <row r="206" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D206" s="2" t="s">
         <v>161</v>
       </c>
@@ -5717,9 +5724,9 @@
       <c r="K206" s="2">
         <v>2</v>
       </c>
-      <c r="M206" s="101"/>
-    </row>
-    <row r="207" spans="3:13">
+      <c r="M206" s="119"/>
+    </row>
+    <row r="207" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D207" s="2" t="s">
         <v>162</v>
       </c>
@@ -5732,9 +5739,9 @@
       <c r="K207" s="2">
         <v>2</v>
       </c>
-      <c r="M207" s="101"/>
-    </row>
-    <row r="208" spans="3:13">
+      <c r="M207" s="119"/>
+    </row>
+    <row r="208" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D208" s="2" t="s">
         <v>164</v>
       </c>
@@ -5744,747 +5751,747 @@
       <c r="G208" s="2">
         <v>1</v>
       </c>
-      <c r="M208" s="101"/>
-    </row>
-    <row r="210" spans="1:9">
-      <c r="B210" s="74" t="s">
+      <c r="M208" s="119"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B210" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C210" s="74"/>
-      <c r="D210" s="74"/>
-      <c r="E210" s="74"/>
-      <c r="F210" s="74"/>
-      <c r="G210" s="74"/>
-      <c r="H210" s="74"/>
-      <c r="I210" s="74"/>
-    </row>
-    <row r="212" spans="1:9">
-      <c r="A212" s="100" t="s">
+      <c r="C210" s="79"/>
+      <c r="D210" s="79"/>
+      <c r="E210" s="79"/>
+      <c r="F210" s="79"/>
+      <c r="G210" s="79"/>
+      <c r="H210" s="79"/>
+      <c r="I210" s="79"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="B212" s="100"/>
-      <c r="C212" s="100"/>
-      <c r="D212" s="100"/>
+      <c r="B212" s="149"/>
+      <c r="C212" s="149"/>
+      <c r="D212" s="149"/>
       <c r="E212" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F212" s="98" t="s">
+      <c r="F212" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="G212" s="98"/>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="A213" s="108" t="s">
+      <c r="G212" s="82"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B213" s="108"/>
-      <c r="C213" s="108"/>
-      <c r="D213" s="108"/>
+      <c r="B213" s="72"/>
+      <c r="C213" s="72"/>
+      <c r="D213" s="72"/>
       <c r="E213" s="4">
         <f t="array" ref="E213">E179</f>
         <v>34</v>
       </c>
-      <c r="F213" s="89">
+      <c r="F213" s="98">
         <f>100*E213/E219</f>
         <v>79.069767441860463</v>
       </c>
-      <c r="G213" s="90"/>
-    </row>
-    <row r="214" spans="1:9">
-      <c r="A214" s="109" t="s">
+      <c r="G213" s="99"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" s="145" t="s">
         <v>171</v>
       </c>
-      <c r="B214" s="109"/>
-      <c r="C214" s="109"/>
-      <c r="D214" s="109"/>
+      <c r="B214" s="145"/>
+      <c r="C214" s="145"/>
+      <c r="D214" s="145"/>
       <c r="E214" s="29"/>
       <c r="F214" s="30"/>
       <c r="G214" s="31"/>
     </row>
-    <row r="215" spans="1:9">
-      <c r="A215" s="93" t="s">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" s="146" t="s">
         <v>172</v>
       </c>
-      <c r="B215" s="93"/>
-      <c r="C215" s="93"/>
-      <c r="D215" s="93"/>
+      <c r="B215" s="146"/>
+      <c r="C215" s="146"/>
+      <c r="D215" s="146"/>
       <c r="E215" s="32"/>
       <c r="F215" s="33"/>
       <c r="G215" s="34"/>
     </row>
-    <row r="216" spans="1:9">
-      <c r="A216" s="108" t="s">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="B216" s="108"/>
-      <c r="C216" s="108"/>
-      <c r="D216" s="108"/>
+      <c r="B216" s="72"/>
+      <c r="C216" s="72"/>
+      <c r="D216" s="72"/>
       <c r="E216" s="4">
         <v>2</v>
       </c>
-      <c r="F216" s="89">
+      <c r="F216" s="98">
         <f t="array" ref="F216">E216*$F$219/$E$219</f>
         <v>4.6511627906976747</v>
       </c>
-      <c r="G216" s="90"/>
+      <c r="G216" s="99"/>
       <c r="H216" s="8">
         <f>F216+F217</f>
         <v>18.604651162790699</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
-      <c r="A217" s="108" t="s">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="B217" s="108"/>
-      <c r="C217" s="108"/>
-      <c r="D217" s="108"/>
+      <c r="B217" s="72"/>
+      <c r="C217" s="72"/>
+      <c r="D217" s="72"/>
       <c r="E217" s="4">
         <v>6</v>
       </c>
-      <c r="F217" s="89">
+      <c r="F217" s="98">
         <f t="array" ref="F217">E217*$F$219/$E$219</f>
         <v>13.953488372093023</v>
       </c>
-      <c r="G217" s="90"/>
-    </row>
-    <row r="218" spans="1:9">
-      <c r="A218" s="108" t="s">
+      <c r="G217" s="99"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="B218" s="108"/>
-      <c r="C218" s="108"/>
-      <c r="D218" s="108"/>
+      <c r="B218" s="72"/>
+      <c r="C218" s="72"/>
+      <c r="D218" s="72"/>
       <c r="E218" s="4">
         <v>1</v>
       </c>
-      <c r="F218" s="89">
+      <c r="F218" s="98">
         <f t="array" ref="F218">E218*$F$219/$E$219</f>
         <v>2.3255813953488373</v>
       </c>
-      <c r="G218" s="90"/>
-    </row>
-    <row r="219" spans="1:9">
-      <c r="A219" s="144" t="s">
+      <c r="G218" s="99"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B219" s="144"/>
-      <c r="C219" s="144"/>
-      <c r="D219" s="144"/>
+      <c r="B219" s="100"/>
+      <c r="C219" s="100"/>
+      <c r="D219" s="100"/>
       <c r="E219" s="4">
         <f t="array" ref="E219">E213+SUM(E216:E218)</f>
         <v>43</v>
       </c>
-      <c r="F219" s="89">
+      <c r="F219" s="98">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="G219" s="90"/>
+      <c r="G219" s="99"/>
       <c r="I219" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
-      <c r="A222" s="74" t="s">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="74"/>
-      <c r="C222" s="74"/>
-      <c r="D222" s="74"/>
-      <c r="E222" s="74"/>
-      <c r="F222" s="74"/>
-      <c r="G222" s="74"/>
-      <c r="H222" s="74"/>
-      <c r="I222" s="74"/>
-    </row>
-    <row r="224" spans="1:9">
-      <c r="A224" s="98" t="s">
+      <c r="B222" s="79"/>
+      <c r="C222" s="79"/>
+      <c r="D222" s="79"/>
+      <c r="E222" s="79"/>
+      <c r="F222" s="79"/>
+      <c r="G222" s="79"/>
+      <c r="H222" s="79"/>
+      <c r="I222" s="79"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="B224" s="98"/>
-      <c r="C224" s="98"/>
-      <c r="D224" s="98"/>
+      <c r="B224" s="82"/>
+      <c r="C224" s="82"/>
+      <c r="D224" s="82"/>
       <c r="E224" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F224" s="98" t="s">
+      <c r="F224" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="G224" s="98"/>
-      <c r="H224" s="98" t="s">
+      <c r="G224" s="82"/>
+      <c r="H224" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="I224" s="98"/>
-    </row>
-    <row r="225" spans="1:14">
-      <c r="A225" s="99" t="s">
+      <c r="I224" s="82"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A225" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="B225" s="99"/>
-      <c r="C225" s="99"/>
-      <c r="D225" s="99"/>
+      <c r="B225" s="75"/>
+      <c r="C225" s="75"/>
+      <c r="D225" s="75"/>
       <c r="E225" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F225" s="102">
+      <c r="F225" s="77">
         <f>H225*$M$2</f>
         <v>11456.1789804</v>
       </c>
-      <c r="G225" s="103"/>
-      <c r="H225" s="70">
+      <c r="G225" s="78"/>
+      <c r="H225" s="80">
         <f>I266</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="I225" s="71"/>
-    </row>
-    <row r="226" spans="1:14">
-      <c r="A226" s="99" t="s">
+      <c r="I225" s="81"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A226" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="B226" s="99"/>
-      <c r="C226" s="99"/>
-      <c r="D226" s="99"/>
+      <c r="B226" s="75"/>
+      <c r="C226" s="75"/>
+      <c r="D226" s="75"/>
       <c r="E226" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F226" s="102">
+      <c r="F226" s="77">
         <f t="array" ref="F226">H226*$M$2</f>
         <v>425437.42500000005</v>
       </c>
-      <c r="G226" s="103"/>
-      <c r="H226" s="70">
+      <c r="G226" s="78"/>
+      <c r="H226" s="80">
         <f>H292</f>
         <v>32.865000000000002</v>
       </c>
-      <c r="I226" s="71"/>
-    </row>
-    <row r="227" spans="1:14">
-      <c r="A227" s="99" t="s">
+      <c r="I226" s="81"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A227" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="B227" s="99"/>
-      <c r="C227" s="99"/>
-      <c r="D227" s="99"/>
+      <c r="B227" s="75"/>
+      <c r="C227" s="75"/>
+      <c r="D227" s="75"/>
       <c r="E227" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F227" s="102">
+      <c r="F227" s="77">
         <f t="array" ref="F227">H227*$M$2</f>
         <v>6247.3605599999992</v>
       </c>
-      <c r="G227" s="103"/>
-      <c r="H227" s="70">
+      <c r="G227" s="78"/>
+      <c r="H227" s="80">
         <f>H309</f>
         <v>0.48260799999999993</v>
       </c>
-      <c r="I227" s="71"/>
+      <c r="I227" s="81"/>
       <c r="M227" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
-      <c r="A228" s="99" t="s">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A228" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="B228" s="99"/>
-      <c r="C228" s="99"/>
-      <c r="D228" s="99"/>
+      <c r="B228" s="75"/>
+      <c r="C228" s="75"/>
+      <c r="D228" s="75"/>
       <c r="E228" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F228" s="102">
+      <c r="F228" s="77">
         <f t="array" ref="F228">H228*$M$2</f>
         <v>1874.2081679999997</v>
       </c>
-      <c r="G228" s="103"/>
-      <c r="H228" s="70">
+      <c r="G228" s="78"/>
+      <c r="H228" s="80">
         <f t="array" ref="H228">D315</f>
         <v>0.14478239999999998</v>
       </c>
-      <c r="I228" s="71"/>
+      <c r="I228" s="81"/>
       <c r="N228" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
-      <c r="A229" s="99" t="s">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A229" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="B229" s="99"/>
-      <c r="C229" s="99"/>
-      <c r="D229" s="99"/>
+      <c r="B229" s="75"/>
+      <c r="C229" s="75"/>
+      <c r="D229" s="75"/>
       <c r="E229" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F229" s="102">
+      <c r="F229" s="77">
         <f>H229*$M$2</f>
         <v>4182.60789492</v>
       </c>
-      <c r="G229" s="103"/>
-      <c r="H229" s="70">
+      <c r="G229" s="78"/>
+      <c r="H229" s="80">
         <f>D322</f>
         <v>0.32310605599999997</v>
       </c>
-      <c r="I229" s="71"/>
+      <c r="I229" s="81"/>
       <c r="N229" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
-      <c r="A230" s="99" t="s">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A230" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="B230" s="99"/>
-      <c r="C230" s="99"/>
-      <c r="D230" s="99"/>
+      <c r="B230" s="75"/>
+      <c r="C230" s="75"/>
+      <c r="D230" s="75"/>
       <c r="E230" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F230" s="102">
+      <c r="F230" s="77">
         <f>H230*$M$2</f>
         <v>4306.4618180219995</v>
       </c>
-      <c r="G230" s="103"/>
-      <c r="H230" s="70">
+      <c r="G230" s="78"/>
+      <c r="H230" s="80">
         <f>C349</f>
         <v>0.33267375959999995</v>
       </c>
-      <c r="I230" s="71"/>
-    </row>
-    <row r="231" spans="1:14">
-      <c r="A231" s="99" t="s">
+      <c r="I230" s="81"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A231" s="75" t="s">
         <v>437</v>
       </c>
-      <c r="B231" s="99"/>
-      <c r="C231" s="99"/>
-      <c r="D231" s="99"/>
+      <c r="B231" s="75"/>
+      <c r="C231" s="75"/>
+      <c r="D231" s="75"/>
       <c r="E231" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F231" s="102">
+      <c r="F231" s="77">
         <f t="shared" ref="F231:F238" si="2">H231*$M$2</f>
         <v>615.20883114599997</v>
       </c>
-      <c r="G231" s="103"/>
-      <c r="H231" s="70">
+      <c r="G231" s="78"/>
+      <c r="H231" s="80">
         <f>C354</f>
         <v>4.7524822799999998E-2</v>
       </c>
-      <c r="I231" s="71"/>
+      <c r="I231" s="81"/>
       <c r="N231" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
-      <c r="A232" s="99" t="s">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A232" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="B232" s="99"/>
-      <c r="C232" s="99"/>
-      <c r="D232" s="99"/>
+      <c r="B232" s="75"/>
+      <c r="C232" s="75"/>
+      <c r="D232" s="75"/>
       <c r="E232" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F232" s="102">
+      <c r="F232" s="77">
         <f>C359</f>
-        <v>6.9746159662903446</v>
-      </c>
-      <c r="G232" s="103"/>
-      <c r="H232" s="70">
+        <v>7.1901078753528429</v>
+      </c>
+      <c r="G232" s="78"/>
+      <c r="H232" s="80">
         <f>F232/$M$2</f>
-        <v>5.387884099104167E-4</v>
-      </c>
-      <c r="I232" s="71"/>
-    </row>
-    <row r="233" spans="1:14">
-      <c r="A233" s="99" t="s">
+        <v>5.5543513907708325E-4</v>
+      </c>
+      <c r="I232" s="81"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A233" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="B233" s="99"/>
-      <c r="C233" s="99"/>
-      <c r="D233" s="99"/>
+      <c r="B233" s="75"/>
+      <c r="C233" s="75"/>
+      <c r="D233" s="75"/>
       <c r="E233" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F233" s="102">
+      <c r="F233" s="77">
         <f t="shared" si="2"/>
         <v>624.73605599999985</v>
       </c>
-      <c r="G233" s="103"/>
-      <c r="H233" s="70">
+      <c r="G233" s="78"/>
+      <c r="H233" s="80">
         <f>C370</f>
         <v>4.8260799999999993E-2</v>
       </c>
-      <c r="I233" s="71"/>
-    </row>
-    <row r="234" spans="1:14">
-      <c r="A234" s="99" t="s">
+      <c r="I233" s="81"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A234" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="B234" s="99"/>
-      <c r="C234" s="99"/>
-      <c r="D234" s="99"/>
+      <c r="B234" s="75"/>
+      <c r="C234" s="75"/>
+      <c r="D234" s="75"/>
       <c r="E234" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F234" s="102">
+      <c r="F234" s="77">
         <f t="shared" si="2"/>
         <v>937.10408399999983</v>
       </c>
-      <c r="G234" s="103"/>
-      <c r="H234" s="70">
+      <c r="G234" s="78"/>
+      <c r="H234" s="80">
         <f>C375</f>
         <v>7.2391199999999989E-2</v>
       </c>
-      <c r="I234" s="71"/>
-    </row>
-    <row r="235" spans="1:14">
-      <c r="A235" s="99" t="s">
+      <c r="I234" s="81"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A235" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="B235" s="99"/>
-      <c r="C235" s="99"/>
-      <c r="D235" s="99"/>
+      <c r="B235" s="75"/>
+      <c r="C235" s="75"/>
+      <c r="D235" s="75"/>
       <c r="E235" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F235" s="102">
+      <c r="F235" s="77">
         <f t="shared" si="2"/>
-        <v>1479.2923111418365</v>
-      </c>
-      <c r="G235" s="103"/>
-      <c r="H235" s="70">
+        <v>1479.4768111418366</v>
+      </c>
+      <c r="G235" s="78"/>
+      <c r="H235" s="80">
         <f>C380</f>
-        <v>0.11427518819172164</v>
-      </c>
-      <c r="I235" s="71"/>
-    </row>
-    <row r="236" spans="1:14">
-      <c r="A236" s="99" t="s">
+        <v>0.11428944079890588</v>
+      </c>
+      <c r="I235" s="81"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A236" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="B236" s="99"/>
-      <c r="C236" s="99"/>
-      <c r="D236" s="99"/>
+      <c r="B236" s="75"/>
+      <c r="C236" s="75"/>
+      <c r="D236" s="75"/>
       <c r="E236" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F236" s="102">
+      <c r="F236" s="77">
         <f t="shared" si="2"/>
         <v>4997.8884479999988</v>
       </c>
-      <c r="G236" s="103"/>
-      <c r="H236" s="70">
+      <c r="G236" s="78"/>
+      <c r="H236" s="80">
         <f>C384</f>
         <v>0.38608639999999994</v>
       </c>
-      <c r="I236" s="71"/>
-    </row>
-    <row r="237" spans="1:14">
-      <c r="A237" s="99" t="s">
+      <c r="I236" s="81"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A237" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="B237" s="99"/>
-      <c r="C237" s="99"/>
-      <c r="D237" s="99"/>
+      <c r="B237" s="75"/>
+      <c r="C237" s="75"/>
+      <c r="D237" s="75"/>
       <c r="E237" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F237" s="102">
+      <c r="F237" s="77">
         <f t="shared" si="2"/>
         <v>3748.4163359999993</v>
       </c>
-      <c r="G237" s="103"/>
-      <c r="H237" s="70">
+      <c r="G237" s="78"/>
+      <c r="H237" s="80">
         <f>C389</f>
         <v>0.28956479999999996</v>
       </c>
-      <c r="I237" s="71"/>
-    </row>
-    <row r="238" spans="1:14">
-      <c r="A238" s="99" t="s">
+      <c r="I237" s="81"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A238" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="B238" s="99"/>
-      <c r="C238" s="99"/>
-      <c r="D238" s="99"/>
+      <c r="B238" s="75"/>
+      <c r="C238" s="75"/>
+      <c r="D238" s="75"/>
       <c r="E238" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F238" s="102">
+      <c r="F238" s="77">
         <f t="shared" si="2"/>
-        <v>3261.3970417251721</v>
-      </c>
-      <c r="G238" s="103"/>
-      <c r="H238" s="70">
+        <v>3261.3998416685358</v>
+      </c>
+      <c r="G238" s="78"/>
+      <c r="H238" s="80">
         <f>C394</f>
-        <v>0.25194260654501138</v>
-      </c>
-      <c r="I238" s="71"/>
-    </row>
-    <row r="239" spans="1:14">
-      <c r="A239" s="141" t="s">
+        <v>0.25194282284036584</v>
+      </c>
+      <c r="I238" s="81"/>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A239" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B239" s="141"/>
-      <c r="C239" s="141"/>
-      <c r="D239" s="141"/>
+      <c r="B239" s="76"/>
+      <c r="C239" s="76"/>
+      <c r="D239" s="76"/>
       <c r="E239" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F239" s="102">
+      <c r="F239" s="77">
         <f>SUM(F225:F238)</f>
-        <v>469175.26014532137</v>
-      </c>
-      <c r="G239" s="103"/>
-      <c r="H239" s="70">
+        <v>469175.66293717374</v>
+      </c>
+      <c r="G239" s="78"/>
+      <c r="H239" s="80">
         <f t="array" ref="H239">SUM(H225:H238)</f>
-        <v>36.243743541546642</v>
-      </c>
-      <c r="I239" s="71"/>
-    </row>
-    <row r="240" spans="1:14">
-      <c r="A240" s="99" t="s">
+        <v>36.243774657178342</v>
+      </c>
+      <c r="I239" s="81"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A240" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="B240" s="99"/>
-      <c r="C240" s="99"/>
-      <c r="D240" s="99"/>
+      <c r="B240" s="75"/>
+      <c r="C240" s="75"/>
+      <c r="D240" s="75"/>
       <c r="E240" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F240" s="102">
+      <c r="F240" s="77">
         <f>C398*$M$2</f>
-        <v>4691.7526014532132</v>
-      </c>
-      <c r="G240" s="103"/>
-      <c r="H240" s="70">
+        <v>4691.7566293717364</v>
+      </c>
+      <c r="G240" s="78"/>
+      <c r="H240" s="80">
         <f>C398</f>
-        <v>0.36243743541546641</v>
-      </c>
-      <c r="I240" s="71"/>
-    </row>
-    <row r="241" spans="1:12">
-      <c r="A241" s="141" t="s">
+        <v>0.3624377465717834</v>
+      </c>
+      <c r="I240" s="81"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A241" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B241" s="141"/>
-      <c r="C241" s="141"/>
-      <c r="D241" s="141"/>
+      <c r="B241" s="76"/>
+      <c r="C241" s="76"/>
+      <c r="D241" s="76"/>
       <c r="E241" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F241" s="102">
+      <c r="F241" s="77">
         <f>SUM(F239:F240)</f>
-        <v>473867.01274677459</v>
-      </c>
-      <c r="G241" s="103"/>
-      <c r="H241" s="70">
+        <v>473867.41956654546</v>
+      </c>
+      <c r="G241" s="78"/>
+      <c r="H241" s="80">
         <f>SUM(H239:H240)</f>
-        <v>36.606180976962108</v>
-      </c>
-      <c r="I241" s="71"/>
-    </row>
-    <row r="242" spans="1:12">
-      <c r="A242" s="99" t="s">
+        <v>36.606212403750128</v>
+      </c>
+      <c r="I241" s="81"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A242" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="B242" s="99"/>
-      <c r="C242" s="99"/>
-      <c r="D242" s="99"/>
+      <c r="B242" s="75"/>
+      <c r="C242" s="75"/>
+      <c r="D242" s="75"/>
       <c r="E242" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F242" s="102">
+      <c r="F242" s="77">
         <f>H242*M2</f>
-        <v>239279.38267411385</v>
-      </c>
-      <c r="G242" s="103"/>
-      <c r="H242" s="70">
+        <v>239279.58809795859</v>
+      </c>
+      <c r="G242" s="78"/>
+      <c r="H242" s="80">
         <f>C402</f>
-        <v>18.484309206188787</v>
-      </c>
-      <c r="I242" s="71"/>
-    </row>
-    <row r="243" spans="1:12">
-      <c r="A243" s="99" t="s">
+        <v>18.484325075160957</v>
+      </c>
+      <c r="I242" s="81"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A243" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="B243" s="99"/>
-      <c r="C243" s="99"/>
-      <c r="D243" s="99"/>
+      <c r="B243" s="75"/>
+      <c r="C243" s="75"/>
+      <c r="D243" s="75"/>
       <c r="E243" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F243" s="102">
+      <c r="F243" s="77">
         <f>SUM(F241:F242)</f>
-        <v>713146.39542088844</v>
-      </c>
-      <c r="G243" s="103"/>
-      <c r="H243" s="70">
+        <v>713147.007664504</v>
+      </c>
+      <c r="G243" s="78"/>
+      <c r="H243" s="80">
         <f>SUM(H241:H242)</f>
-        <v>55.090490183150891</v>
-      </c>
-      <c r="I243" s="71"/>
-    </row>
-    <row r="244" spans="1:12">
-      <c r="A244" s="77" t="s">
+        <v>55.090537478911088</v>
+      </c>
+      <c r="I243" s="81"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A244" s="150" t="s">
         <v>442</v>
       </c>
-      <c r="B244" s="78"/>
-      <c r="C244" s="78"/>
-      <c r="D244" s="79"/>
+      <c r="B244" s="151"/>
+      <c r="C244" s="151"/>
+      <c r="D244" s="152"/>
       <c r="E244" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F244" s="102">
+      <c r="F244" s="77">
         <f>H244*M2</f>
-        <v>18406.106359547219</v>
-      </c>
-      <c r="G244" s="103"/>
-      <c r="H244" s="70">
+        <v>18406.12216138143</v>
+      </c>
+      <c r="G244" s="78"/>
+      <c r="H244" s="80">
         <f>C406</f>
-        <v>1.4218699389375991</v>
-      </c>
-      <c r="I244" s="71"/>
-    </row>
-    <row r="245" spans="1:12">
-      <c r="A245" s="80" t="s">
+        <v>1.421871159627766</v>
+      </c>
+      <c r="I244" s="81"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A245" s="155" t="s">
         <v>443</v>
       </c>
-      <c r="B245" s="81"/>
-      <c r="C245" s="81"/>
-      <c r="D245" s="82"/>
+      <c r="B245" s="120"/>
+      <c r="C245" s="120"/>
+      <c r="D245" s="156"/>
       <c r="E245" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F245" s="102">
+      <c r="F245" s="77">
         <f>H245*M2</f>
-        <v>15025.392946569158</v>
-      </c>
-      <c r="G245" s="103"/>
-      <c r="H245" s="70">
+        <v>15025.405846025657</v>
+      </c>
+      <c r="G245" s="78"/>
+      <c r="H245" s="80">
         <f>C410</f>
-        <v>1.1607101542347746</v>
-      </c>
-      <c r="I245" s="71"/>
-    </row>
-    <row r="246" spans="1:12" s="17" customFormat="1">
-      <c r="A246" s="81" t="s">
+        <v>1.1607111507165435</v>
+      </c>
+      <c r="I245" s="81"/>
+    </row>
+    <row r="246" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="120" t="s">
         <v>446</v>
       </c>
-      <c r="B246" s="81"/>
-      <c r="C246" s="81"/>
-      <c r="D246" s="81"/>
+      <c r="B246" s="120"/>
+      <c r="C246" s="120"/>
+      <c r="D246" s="120"/>
       <c r="E246" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F246" s="125">
+      <c r="F246" s="121">
         <f>C419</f>
-        <v>713148.97800098162</v>
-      </c>
-      <c r="G246" s="125"/>
-      <c r="H246" s="70">
+        <v>713149.5902468143</v>
+      </c>
+      <c r="G246" s="121"/>
+      <c r="H246" s="80">
         <f>F246/$M$2</f>
-        <v>55.090689687213718</v>
-      </c>
-      <c r="I246" s="71"/>
-    </row>
-    <row r="247" spans="1:12">
-      <c r="A247" s="99" t="s">
+        <v>55.090736983145177</v>
+      </c>
+      <c r="I246" s="81"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A247" s="75" t="s">
         <v>447</v>
       </c>
-      <c r="B247" s="99"/>
-      <c r="C247" s="99"/>
-      <c r="D247" s="99"/>
+      <c r="B247" s="75"/>
+      <c r="C247" s="75"/>
+      <c r="D247" s="75"/>
       <c r="E247" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F247" s="102">
+      <c r="F247" s="77">
         <f>H247*$M$2</f>
-        <v>129210.86664402149</v>
-      </c>
-      <c r="G247" s="103"/>
-      <c r="H247" s="70">
+        <v>129210.97757289764</v>
+      </c>
+      <c r="G247" s="78"/>
+      <c r="H247" s="80">
         <f>C423</f>
-        <v>9.9815269713419461</v>
-      </c>
-      <c r="I247" s="71"/>
-    </row>
-    <row r="248" spans="1:12">
-      <c r="A248" s="99" t="s">
+        <v>9.9815355405869166</v>
+      </c>
+      <c r="I247" s="81"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A248" s="75" t="s">
         <v>448</v>
       </c>
-      <c r="B248" s="99"/>
-      <c r="C248" s="99"/>
-      <c r="D248" s="99"/>
+      <c r="B248" s="75"/>
+      <c r="C248" s="75"/>
+      <c r="D248" s="75"/>
       <c r="E248" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F248" s="102">
+      <c r="F248" s="77">
         <f>H248*$M$2</f>
-        <v>875044.70243923436</v>
-      </c>
-      <c r="G248" s="103"/>
-      <c r="H248" s="70">
+        <v>875045.45367423457</v>
+      </c>
+      <c r="G248" s="78"/>
+      <c r="H248" s="80">
         <f>C428</f>
-        <v>67.597118767032399</v>
-      </c>
-      <c r="I248" s="71"/>
-    </row>
-    <row r="251" spans="1:12">
-      <c r="B251" s="74" t="s">
+        <v>67.597176799863618</v>
+      </c>
+      <c r="I248" s="81"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B251" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="C251" s="74"/>
-      <c r="D251" s="74"/>
-      <c r="E251" s="74"/>
-      <c r="F251" s="74"/>
-      <c r="G251" s="74"/>
-      <c r="H251" s="74"/>
-      <c r="I251" s="74"/>
-      <c r="J251" s="74"/>
-      <c r="K251" s="74"/>
-      <c r="L251" s="74"/>
-    </row>
-    <row r="253" spans="1:12">
-      <c r="B253" s="74" t="s">
+      <c r="C251" s="79"/>
+      <c r="D251" s="79"/>
+      <c r="E251" s="79"/>
+      <c r="F251" s="79"/>
+      <c r="G251" s="79"/>
+      <c r="H251" s="79"/>
+      <c r="I251" s="79"/>
+      <c r="J251" s="79"/>
+      <c r="K251" s="79"/>
+      <c r="L251" s="79"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B253" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="C253" s="74"/>
-      <c r="D253" s="74"/>
-      <c r="E253" s="74"/>
-    </row>
-    <row r="255" spans="1:12" ht="46.5" customHeight="1">
-      <c r="A255" s="98" t="s">
+      <c r="C253" s="79"/>
+      <c r="D253" s="79"/>
+      <c r="E253" s="79"/>
+    </row>
+    <row r="255" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="B255" s="98"/>
+      <c r="B255" s="82"/>
       <c r="C255" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D255" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E255" s="98" t="s">
+      <c r="E255" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="F255" s="98"/>
-      <c r="G255" s="98" t="s">
+      <c r="F255" s="82"/>
+      <c r="G255" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="H255" s="98"/>
-      <c r="I255" s="98" t="s">
+      <c r="H255" s="82"/>
+      <c r="I255" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="J255" s="98"/>
-    </row>
-    <row r="256" spans="1:12">
-      <c r="A256" s="108" t="str">
+      <c r="J255" s="82"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A256" s="72" t="str">
         <f t="shared" ref="A256:A261" si="3">L7</f>
         <v>Провод</v>
       </c>
-      <c r="B256" s="108"/>
+      <c r="B256" s="72"/>
       <c r="C256" s="4" t="str">
         <f>M7</f>
         <v>НВ-020-61</v>
@@ -6492,28 +6499,28 @@
       <c r="D256" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E256" s="75">
+      <c r="E256" s="73">
         <f t="shared" ref="E256:E261" si="4">N7</f>
         <v>0.5</v>
       </c>
-      <c r="F256" s="76"/>
-      <c r="G256" s="75">
+      <c r="F256" s="74"/>
+      <c r="G256" s="73">
         <f t="shared" ref="G256:G261" si="5">O7</f>
         <v>1.4550000000000001</v>
       </c>
-      <c r="H256" s="76"/>
-      <c r="I256" s="70">
+      <c r="H256" s="74"/>
+      <c r="I256" s="80">
         <f t="array" ref="I256">E256*G256</f>
         <v>0.72750000000000004</v>
       </c>
-      <c r="J256" s="71"/>
-    </row>
-    <row r="257" spans="1:12">
-      <c r="A257" s="108" t="str">
+      <c r="J256" s="81"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A257" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Флюс</v>
       </c>
-      <c r="B257" s="108"/>
+      <c r="B257" s="72"/>
       <c r="C257" s="4" t="str">
         <f>M8</f>
         <v>ФКСН</v>
@@ -6521,28 +6528,28 @@
       <c r="D257" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E257" s="75">
+      <c r="E257" s="73">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F257" s="76"/>
-      <c r="G257" s="75">
+      <c r="F257" s="74"/>
+      <c r="G257" s="73">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="H257" s="76"/>
-      <c r="I257" s="70">
+      <c r="H257" s="74"/>
+      <c r="I257" s="80">
         <f t="array" ref="I257">E257*G257</f>
         <v>3.5E-4</v>
       </c>
-      <c r="J257" s="71"/>
-    </row>
-    <row r="258" spans="1:12">
-      <c r="A258" s="108" t="str">
+      <c r="J257" s="81"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A258" s="72" t="str">
         <f t="shared" si="3"/>
         <v>олово</v>
       </c>
-      <c r="B258" s="108"/>
+      <c r="B258" s="72"/>
       <c r="C258" s="4" t="str">
         <f>M9</f>
         <v>-</v>
@@ -6550,28 +6557,28 @@
       <c r="D258" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E258" s="75">
+      <c r="E258" s="73">
         <f t="shared" si="4"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F258" s="76"/>
-      <c r="G258" s="75">
+      <c r="F258" s="74"/>
+      <c r="G258" s="73">
         <f t="shared" si="5"/>
         <v>4.45</v>
       </c>
-      <c r="H258" s="76"/>
-      <c r="I258" s="70">
+      <c r="H258" s="74"/>
+      <c r="I258" s="80">
         <f t="array" ref="I258">E258*G258</f>
         <v>1.3350000000000001E-2</v>
       </c>
-      <c r="J258" s="71"/>
-    </row>
-    <row r="259" spans="1:12">
-      <c r="A259" s="108" t="str">
+      <c r="J258" s="81"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A259" s="72" t="str">
         <f t="shared" si="3"/>
         <v>припой</v>
       </c>
-      <c r="B259" s="108"/>
+      <c r="B259" s="72"/>
       <c r="C259" s="4" t="str">
         <f>M10</f>
         <v>ПОС-61</v>
@@ -6579,28 +6586,28 @@
       <c r="D259" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E259" s="75">
+      <c r="E259" s="73">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="F259" s="76"/>
-      <c r="G259" s="75">
+      <c r="F259" s="74"/>
+      <c r="G259" s="73">
         <f t="shared" si="5"/>
         <v>1.3620000000000001</v>
       </c>
-      <c r="H259" s="76"/>
-      <c r="I259" s="70">
+      <c r="H259" s="74"/>
+      <c r="I259" s="80">
         <f t="array" ref="I259">E259*G259</f>
         <v>0.10896000000000002</v>
       </c>
-      <c r="J259" s="71"/>
-    </row>
-    <row r="260" spans="1:12">
-      <c r="A260" s="108" t="str">
+      <c r="J259" s="81"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A260" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Спирт этиловый</v>
       </c>
-      <c r="B260" s="108"/>
+      <c r="B260" s="72"/>
       <c r="C260" s="4" t="str">
         <f>M11</f>
         <v>ГОСТ 18300-72</v>
@@ -6608,178 +6615,178 @@
       <c r="D260" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E260" s="75">
+      <c r="E260" s="73">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F260" s="76"/>
-      <c r="G260" s="75">
+      <c r="F260" s="74"/>
+      <c r="G260" s="73">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="H260" s="76"/>
-      <c r="I260" s="70">
+      <c r="H260" s="74"/>
+      <c r="I260" s="80">
         <f t="array" ref="I260">E260*G260</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J260" s="71"/>
-    </row>
-    <row r="261" spans="1:12">
-      <c r="A261" s="108">
+      <c r="J260" s="81"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A261" s="72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B261" s="108"/>
+      <c r="B261" s="72"/>
       <c r="C261" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E261" s="75">
+      <c r="E261" s="73">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F261" s="76"/>
-      <c r="G261" s="75">
+      <c r="F261" s="74"/>
+      <c r="G261" s="73">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H261" s="76"/>
-      <c r="I261" s="70">
+      <c r="H261" s="74"/>
+      <c r="I261" s="80">
         <f t="array" ref="I261">E261*G261</f>
         <v>0</v>
       </c>
-      <c r="J261" s="71"/>
-    </row>
-    <row r="262" spans="1:12">
-      <c r="A262" s="126" t="s">
+      <c r="J261" s="81"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A262" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B262" s="126"/>
+      <c r="B262" s="95"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
       <c r="E262" s="35"/>
       <c r="F262" s="36"/>
       <c r="G262" s="35"/>
       <c r="H262" s="36"/>
-      <c r="I262" s="72">
+      <c r="I262" s="129">
         <f>SUM(I256:I261)</f>
         <v>0.85136000000000001</v>
       </c>
-      <c r="J262" s="73"/>
-    </row>
-    <row r="263" spans="1:12">
-      <c r="A263" s="99" t="s">
+      <c r="J262" s="130"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A263" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="B263" s="99"/>
+      <c r="B263" s="75"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="37"/>
       <c r="F263" s="38"/>
       <c r="G263" s="37"/>
       <c r="H263" s="38"/>
-      <c r="I263" s="70">
+      <c r="I263" s="80">
         <f>0.05*I262</f>
         <v>4.2568000000000002E-2</v>
       </c>
-      <c r="J263" s="71"/>
-    </row>
-    <row r="264" spans="1:12">
-      <c r="A264" s="126" t="s">
+      <c r="J263" s="81"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A264" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="B264" s="126"/>
+      <c r="B264" s="95"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
       <c r="E264" s="35"/>
       <c r="F264" s="36"/>
       <c r="G264" s="35"/>
       <c r="H264" s="36"/>
-      <c r="I264" s="72">
+      <c r="I264" s="129">
         <f>SUM(I262:I263)</f>
         <v>0.89392800000000006</v>
       </c>
-      <c r="J264" s="73"/>
-    </row>
-    <row r="265" spans="1:12">
-      <c r="A265" s="99" t="s">
+      <c r="J264" s="130"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A265" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="B265" s="99"/>
+      <c r="B265" s="75"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="37"/>
       <c r="F265" s="38"/>
       <c r="G265" s="37"/>
       <c r="H265" s="38"/>
-      <c r="I265" s="70">
+      <c r="I265" s="80">
         <f>0.01*I264</f>
         <v>8.9392800000000008E-3</v>
       </c>
-      <c r="J265" s="71"/>
-    </row>
-    <row r="266" spans="1:12">
-      <c r="A266" s="141" t="s">
+      <c r="J265" s="81"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A266" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="B266" s="141"/>
+      <c r="B266" s="76"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
       <c r="E266" s="35"/>
       <c r="F266" s="36"/>
       <c r="G266" s="35"/>
       <c r="H266" s="36"/>
-      <c r="I266" s="72">
+      <c r="I266" s="129">
         <f t="array" ref="I266">I264-I265</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="J266" s="73"/>
-    </row>
-    <row r="269" spans="1:12">
-      <c r="B269" s="74" t="s">
+      <c r="J266" s="130"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B269" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="C269" s="74"/>
-      <c r="D269" s="74"/>
-      <c r="E269" s="74"/>
-      <c r="F269" s="74"/>
-      <c r="G269" s="74"/>
-      <c r="H269" s="74"/>
-      <c r="I269" s="74"/>
-      <c r="J269" s="74"/>
-      <c r="K269" s="74"/>
-      <c r="L269" s="74"/>
-    </row>
-    <row r="271" spans="1:12" ht="45" customHeight="1">
-      <c r="A271" s="98" t="s">
+      <c r="C269" s="79"/>
+      <c r="D269" s="79"/>
+      <c r="E269" s="79"/>
+      <c r="F269" s="79"/>
+      <c r="G269" s="79"/>
+      <c r="H269" s="79"/>
+      <c r="I269" s="79"/>
+      <c r="J269" s="79"/>
+      <c r="K269" s="79"/>
+      <c r="L269" s="79"/>
+    </row>
+    <row r="271" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="B271" s="98"/>
-      <c r="C271" s="98"/>
+      <c r="B271" s="82"/>
+      <c r="C271" s="82"/>
       <c r="D271" s="14" t="s">
         <v>221</v>
       </c>
       <c r="E271" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F271" s="98" t="s">
+      <c r="F271" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="G271" s="98"/>
+      <c r="G271" s="82"/>
       <c r="H271" s="14" t="s">
         <v>234</v>
       </c>
       <c r="I271" s="39"/>
     </row>
-    <row r="272" spans="1:12">
-      <c r="A272" s="108" t="str">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A272" s="72" t="str">
         <f>R7</f>
         <v>Трансформатор</v>
       </c>
-      <c r="B272" s="108"/>
-      <c r="C272" s="108"/>
+      <c r="B272" s="72"/>
+      <c r="C272" s="72"/>
       <c r="D272" s="4" t="s">
         <v>235</v>
       </c>
@@ -6797,13 +6804,13 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="108" t="str">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="72" t="str">
         <f t="shared" ref="A273:A281" si="6">R8</f>
         <v>Реле</v>
       </c>
-      <c r="B273" s="108"/>
-      <c r="C273" s="108"/>
+      <c r="B273" s="72"/>
+      <c r="C273" s="72"/>
       <c r="D273" s="4" t="s">
         <v>235</v>
       </c>
@@ -6821,13 +6828,13 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="108" t="str">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" s="72" t="str">
         <f t="shared" si="6"/>
         <v>Вилка</v>
       </c>
-      <c r="B274" s="108"/>
-      <c r="C274" s="108"/>
+      <c r="B274" s="72"/>
+      <c r="C274" s="72"/>
       <c r="D274" s="4" t="s">
         <v>235</v>
       </c>
@@ -6845,13 +6852,13 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="108" t="str">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" s="72" t="str">
         <f t="shared" si="6"/>
         <v>Транзистор</v>
       </c>
-      <c r="B275" s="108"/>
-      <c r="C275" s="108"/>
+      <c r="B275" s="72"/>
+      <c r="C275" s="72"/>
       <c r="D275" s="4" t="s">
         <v>235</v>
       </c>
@@ -6869,13 +6876,13 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="108" t="str">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" s="72" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B276" s="108"/>
-      <c r="C276" s="108"/>
+      <c r="B276" s="72"/>
+      <c r="C276" s="72"/>
       <c r="D276" s="4" t="s">
         <v>235</v>
       </c>
@@ -6893,13 +6900,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="108" t="str">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="72" t="str">
         <f t="shared" si="6"/>
         <v>Печатная плата</v>
       </c>
-      <c r="B277" s="108"/>
-      <c r="C277" s="108"/>
+      <c r="B277" s="72"/>
+      <c r="C277" s="72"/>
       <c r="D277" s="4" t="s">
         <v>235</v>
       </c>
@@ -6917,13 +6924,13 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="108" t="str">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" s="72" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B278" s="108"/>
-      <c r="C278" s="108"/>
+      <c r="B278" s="72"/>
+      <c r="C278" s="72"/>
       <c r="D278" s="4" t="s">
         <v>235</v>
       </c>
@@ -6941,13 +6948,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="108" t="str">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" s="72" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B279" s="108"/>
-      <c r="C279" s="108"/>
+      <c r="B279" s="72"/>
+      <c r="C279" s="72"/>
       <c r="D279" s="4" t="s">
         <v>235</v>
       </c>
@@ -6965,13 +6972,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="108" t="str">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" s="72" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B280" s="108"/>
-      <c r="C280" s="108"/>
+      <c r="B280" s="72"/>
+      <c r="C280" s="72"/>
       <c r="D280" s="4" t="s">
         <v>235</v>
       </c>
@@ -6989,13 +6996,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
-      <c r="A281" s="108" t="str">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="72" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B281" s="108"/>
-      <c r="C281" s="108"/>
+      <c r="B281" s="72"/>
+      <c r="C281" s="72"/>
       <c r="D281" s="4" t="s">
         <v>235</v>
       </c>
@@ -7013,13 +7020,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="108" t="str">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" s="72" t="str">
         <f t="shared" ref="A282:A289" si="9">R17</f>
         <v>Радиолампа</v>
       </c>
-      <c r="B282" s="108"/>
-      <c r="C282" s="108"/>
+      <c r="B282" s="72"/>
+      <c r="C282" s="72"/>
       <c r="D282" s="4" t="s">
         <v>235</v>
       </c>
@@ -7037,13 +7044,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
-      <c r="A283" s="108" t="str">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" s="72" t="str">
         <f t="shared" si="9"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B283" s="108"/>
-      <c r="C283" s="108"/>
+      <c r="B283" s="72"/>
+      <c r="C283" s="72"/>
       <c r="D283" s="4" t="s">
         <v>235</v>
       </c>
@@ -7061,13 +7068,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
-      <c r="A284" s="108" t="str">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" s="72" t="str">
         <f t="shared" si="9"/>
         <v>Дриод</v>
       </c>
-      <c r="B284" s="108"/>
-      <c r="C284" s="108"/>
+      <c r="B284" s="72"/>
+      <c r="C284" s="72"/>
       <c r="D284" s="4" t="s">
         <v>235</v>
       </c>
@@ -7085,13 +7092,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
-      <c r="A285" s="108" t="str">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" s="72" t="str">
         <f t="shared" si="9"/>
         <v>Дроссель</v>
       </c>
-      <c r="B285" s="108"/>
-      <c r="C285" s="108"/>
+      <c r="B285" s="72"/>
+      <c r="C285" s="72"/>
       <c r="D285" s="4" t="s">
         <v>235</v>
       </c>
@@ -7109,13 +7116,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
-      <c r="A286" s="108" t="str">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" s="72" t="str">
         <f t="shared" si="9"/>
         <v>Фильтр</v>
       </c>
-      <c r="B286" s="108"/>
-      <c r="C286" s="108"/>
+      <c r="B286" s="72"/>
+      <c r="C286" s="72"/>
       <c r="D286" s="4" t="s">
         <v>235</v>
       </c>
@@ -7133,13 +7140,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
-      <c r="A287" s="108" t="str">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" s="72" t="str">
         <f t="shared" si="9"/>
         <v>Панель ламповая</v>
       </c>
-      <c r="B287" s="108"/>
-      <c r="C287" s="108"/>
+      <c r="B287" s="72"/>
+      <c r="C287" s="72"/>
       <c r="D287" s="4" t="s">
         <v>235</v>
       </c>
@@ -7157,13 +7164,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
-      <c r="A288" s="108" t="str">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" s="72" t="str">
         <f t="shared" si="9"/>
         <v>заклепка гетинаксовая</v>
       </c>
-      <c r="B288" s="108"/>
-      <c r="C288" s="108"/>
+      <c r="B288" s="72"/>
+      <c r="C288" s="72"/>
       <c r="D288" s="4" t="s">
         <v>235</v>
       </c>
@@ -7181,13 +7188,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
-      <c r="A289" s="108" t="str">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" s="72" t="str">
         <f t="shared" si="9"/>
         <v>Плата</v>
       </c>
-      <c r="B289" s="108"/>
-      <c r="C289" s="108"/>
+      <c r="B289" s="72"/>
+      <c r="C289" s="72"/>
       <c r="D289" s="4" t="s">
         <v>235</v>
       </c>
@@ -7205,12 +7212,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
-      <c r="A290" s="126" t="s">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B290" s="126"/>
-      <c r="C290" s="126"/>
+      <c r="B290" s="95"/>
+      <c r="C290" s="95"/>
       <c r="D290" s="20"/>
       <c r="E290" s="20"/>
       <c r="F290" s="35"/>
@@ -7220,12 +7227,12 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
-      <c r="A291" s="99" t="s">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A291" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="B291" s="99"/>
-      <c r="C291" s="99"/>
+      <c r="B291" s="75"/>
+      <c r="C291" s="75"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="37"/>
@@ -7235,12 +7242,12 @@
         <v>1.5650000000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
-      <c r="A292" s="126" t="s">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A292" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="B292" s="126"/>
-      <c r="C292" s="126"/>
+      <c r="B292" s="95"/>
+      <c r="C292" s="95"/>
       <c r="D292" s="20"/>
       <c r="E292" s="20"/>
       <c r="F292" s="35"/>
@@ -7251,46 +7258,46 @@
       </c>
       <c r="I292" s="40"/>
     </row>
-    <row r="295" spans="1:10">
-      <c r="B295" s="74" t="s">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B295" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="C295" s="74"/>
-      <c r="D295" s="74"/>
-      <c r="E295" s="74"/>
-      <c r="F295" s="74"/>
-      <c r="G295" s="74"/>
-      <c r="H295" s="74"/>
-      <c r="I295" s="74"/>
-      <c r="J295" s="74"/>
-    </row>
-    <row r="297" spans="1:10">
-      <c r="A297" s="98" t="s">
+      <c r="C295" s="79"/>
+      <c r="D295" s="79"/>
+      <c r="E295" s="79"/>
+      <c r="F295" s="79"/>
+      <c r="G295" s="79"/>
+      <c r="H295" s="79"/>
+      <c r="I295" s="79"/>
+      <c r="J295" s="79"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A297" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="B297" s="98"/>
-      <c r="C297" s="98"/>
+      <c r="B297" s="82"/>
+      <c r="C297" s="82"/>
       <c r="D297" s="14" t="s">
         <v>239</v>
       </c>
       <c r="E297" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F297" s="98" t="s">
+      <c r="F297" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="G297" s="98"/>
-      <c r="H297" s="98" t="s">
+      <c r="G297" s="82"/>
+      <c r="H297" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="I297" s="98"/>
-    </row>
-    <row r="298" spans="1:10">
-      <c r="A298" s="87">
+      <c r="I297" s="82"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A298" s="101">
         <v>1</v>
       </c>
-      <c r="B298" s="87"/>
-      <c r="C298" s="87"/>
+      <c r="B298" s="101"/>
+      <c r="C298" s="101"/>
       <c r="D298" s="4">
         <v>3</v>
       </c>
@@ -7298,306 +7305,306 @@
         <f>B25</f>
         <v>1.55</v>
       </c>
-      <c r="F298" s="110">
+      <c r="F298" s="131">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G298" s="111"/>
-      <c r="H298" s="70">
-        <f>E298*F298/60</f>
+      <c r="G298" s="132"/>
+      <c r="H298" s="80">
+        <f t="shared" ref="H298:H305" si="10">E298*F298/60</f>
         <v>2.1544999999999998E-2</v>
       </c>
-      <c r="I298" s="71"/>
+      <c r="I298" s="81"/>
       <c r="J298" s="2">
         <f>H298*12945</f>
         <v>278.90002499999997</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
-      <c r="A299" s="87">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A299" s="101">
         <v>2</v>
       </c>
-      <c r="B299" s="87"/>
-      <c r="C299" s="87"/>
+      <c r="B299" s="101"/>
+      <c r="C299" s="101"/>
       <c r="D299" s="4">
         <v>3</v>
       </c>
       <c r="E299" s="66">
-        <f t="shared" ref="E299:E306" si="10">B26</f>
+        <f t="shared" ref="E299:E306" si="11">B26</f>
         <v>6.23</v>
       </c>
-      <c r="F299" s="110">
+      <c r="F299" s="131">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G299" s="111"/>
-      <c r="H299" s="70">
-        <f>E299*F299/60</f>
+      <c r="G299" s="132"/>
+      <c r="H299" s="80">
+        <f t="shared" si="10"/>
         <v>8.6597000000000007E-2</v>
       </c>
-      <c r="I299" s="71"/>
+      <c r="I299" s="81"/>
       <c r="J299" s="2">
-        <f t="shared" ref="J299:J305" si="11">H299*12945</f>
+        <f t="shared" ref="J299:J305" si="12">H299*12945</f>
         <v>1120.9981650000002</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
-      <c r="A300" s="87">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A300" s="101">
         <v>3</v>
       </c>
-      <c r="B300" s="87"/>
-      <c r="C300" s="87"/>
+      <c r="B300" s="101"/>
+      <c r="C300" s="101"/>
       <c r="D300" s="4">
         <v>3</v>
       </c>
       <c r="E300" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.52</v>
       </c>
       <c r="F300" s="67">
         <v>0.83399999999999996</v>
       </c>
       <c r="G300" s="68"/>
-      <c r="H300" s="70">
-        <f>E300*F300/60</f>
+      <c r="H300" s="80">
+        <f t="shared" si="10"/>
         <v>2.1127999999999997E-2</v>
       </c>
-      <c r="I300" s="71"/>
+      <c r="I300" s="81"/>
       <c r="J300" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>273.50195999999994</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
-      <c r="A301" s="87">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A301" s="101">
         <v>4</v>
       </c>
-      <c r="B301" s="87"/>
-      <c r="C301" s="87"/>
+      <c r="B301" s="101"/>
+      <c r="C301" s="101"/>
       <c r="D301" s="4">
         <v>3</v>
       </c>
       <c r="E301" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.6500000000000004</v>
       </c>
       <c r="F301" s="67">
         <v>0.83399999999999996</v>
       </c>
       <c r="G301" s="68"/>
-      <c r="H301" s="70">
-        <f>E301*F301/60</f>
+      <c r="H301" s="80">
+        <f t="shared" si="10"/>
         <v>6.4635000000000012E-2</v>
       </c>
-      <c r="I301" s="71"/>
+      <c r="I301" s="81"/>
       <c r="J301" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>836.7000750000002</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
-      <c r="A302" s="87">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A302" s="101">
         <v>5</v>
       </c>
-      <c r="B302" s="87"/>
-      <c r="C302" s="87"/>
+      <c r="B302" s="101"/>
+      <c r="C302" s="101"/>
       <c r="D302" s="4">
         <v>3</v>
       </c>
       <c r="E302" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="F302" s="67">
         <v>0.83399999999999996</v>
       </c>
       <c r="G302" s="68"/>
-      <c r="H302" s="70">
-        <f>E302*F302/60</f>
+      <c r="H302" s="80">
+        <f t="shared" si="10"/>
         <v>4.1699999999999994E-2</v>
       </c>
-      <c r="I302" s="71"/>
+      <c r="I302" s="81"/>
       <c r="J302" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>539.80649999999991</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
-      <c r="A303" s="87">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A303" s="101">
         <v>6</v>
       </c>
-      <c r="B303" s="87"/>
-      <c r="C303" s="87"/>
+      <c r="B303" s="101"/>
+      <c r="C303" s="101"/>
       <c r="D303" s="4">
         <v>3</v>
       </c>
       <c r="E303" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.52</v>
       </c>
       <c r="F303" s="67">
         <v>0.83399999999999996</v>
       </c>
       <c r="G303" s="68"/>
-      <c r="H303" s="70">
-        <f>E303*F303/60</f>
+      <c r="H303" s="80">
+        <f t="shared" si="10"/>
         <v>2.1127999999999997E-2</v>
       </c>
-      <c r="I303" s="71"/>
+      <c r="I303" s="81"/>
       <c r="J303" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>273.50195999999994</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
-      <c r="A304" s="87">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A304" s="101">
         <v>7</v>
       </c>
-      <c r="B304" s="87"/>
-      <c r="C304" s="87"/>
+      <c r="B304" s="101"/>
+      <c r="C304" s="101"/>
       <c r="D304" s="4">
         <v>3</v>
       </c>
       <c r="E304" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.68</v>
       </c>
       <c r="F304" s="67">
         <v>0.83399999999999996</v>
       </c>
       <c r="G304" s="68"/>
-      <c r="H304" s="70">
-        <f>E304*F304/60</f>
+      <c r="H304" s="80">
+        <f t="shared" si="10"/>
         <v>6.5051999999999985E-2</v>
       </c>
-      <c r="I304" s="71"/>
+      <c r="I304" s="81"/>
       <c r="J304" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>842.09813999999983</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
-      <c r="A305" s="87">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305" s="101">
         <v>8</v>
       </c>
-      <c r="B305" s="87"/>
-      <c r="C305" s="87"/>
+      <c r="B305" s="101"/>
+      <c r="C305" s="101"/>
       <c r="D305" s="4">
         <v>3</v>
       </c>
       <c r="E305" s="66">
+        <f t="shared" si="11"/>
+        <v>1.65</v>
+      </c>
+      <c r="F305" s="131">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G305" s="132"/>
+      <c r="H305" s="80">
         <f t="shared" si="10"/>
-        <v>1.65</v>
-      </c>
-      <c r="F305" s="110">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="G305" s="111"/>
-      <c r="H305" s="70">
-        <f>E305*F305/60</f>
         <v>2.2934999999999997E-2</v>
       </c>
-      <c r="I305" s="71"/>
+      <c r="I305" s="81"/>
       <c r="J305" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>296.89357499999994</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
-      <c r="A306" s="120">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306" s="91">
         <v>9</v>
       </c>
-      <c r="B306" s="121"/>
-      <c r="C306" s="122"/>
+      <c r="B306" s="124"/>
+      <c r="C306" s="92"/>
       <c r="D306" s="4">
         <v>3</v>
       </c>
       <c r="E306" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F306" s="75">
+      <c r="F306" s="73">
         <v>0</v>
       </c>
-      <c r="G306" s="76"/>
-      <c r="H306" s="70">
+      <c r="G306" s="74"/>
+      <c r="H306" s="80">
         <f t="array" ref="H306">E306*F306/60</f>
         <v>0</v>
       </c>
-      <c r="I306" s="71"/>
-    </row>
-    <row r="307" spans="1:10">
-      <c r="A307" s="119" t="s">
+      <c r="I306" s="81"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="B307" s="119"/>
-      <c r="C307" s="119"/>
+      <c r="B307" s="123"/>
+      <c r="C307" s="123"/>
       <c r="D307" s="20"/>
       <c r="E307" s="20"/>
       <c r="F307" s="35"/>
       <c r="G307" s="36"/>
-      <c r="H307" s="72">
+      <c r="H307" s="129">
         <f>SUM(H298:H306)</f>
         <v>0.34471999999999997</v>
       </c>
-      <c r="I307" s="73"/>
+      <c r="I307" s="130"/>
       <c r="J307" s="2">
         <f>H307*12945</f>
         <v>4462.4003999999995</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
-      <c r="A308" s="99" t="s">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="B308" s="99"/>
-      <c r="C308" s="99"/>
+      <c r="B308" s="75"/>
+      <c r="C308" s="75"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="37"/>
       <c r="G308" s="38"/>
-      <c r="H308" s="70">
+      <c r="H308" s="80">
         <f>0.4*H307</f>
         <v>0.13788799999999998</v>
       </c>
-      <c r="I308" s="71"/>
+      <c r="I308" s="81"/>
       <c r="J308" s="2">
         <f>H308*12945</f>
         <v>1784.9601599999999</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
-      <c r="A309" s="119" t="s">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309" s="123" t="s">
         <v>244</v>
       </c>
-      <c r="B309" s="119"/>
-      <c r="C309" s="119"/>
+      <c r="B309" s="123"/>
+      <c r="C309" s="123"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="37"/>
       <c r="G309" s="38"/>
-      <c r="H309" s="72">
+      <c r="H309" s="129">
         <f t="array" ref="H309">SUM(H307:H308)</f>
         <v>0.48260799999999993</v>
       </c>
-      <c r="I309" s="73"/>
+      <c r="I309" s="130"/>
       <c r="J309" s="2">
         <f>H309*12945</f>
         <v>6247.3605599999992</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
-      <c r="B313" s="74" t="s">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B313" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="C313" s="74"/>
-      <c r="D313" s="74"/>
-      <c r="E313" s="74"/>
-      <c r="F313" s="74"/>
-      <c r="G313" s="74"/>
-      <c r="H313" s="74"/>
-      <c r="I313" s="74"/>
-      <c r="J313" s="74"/>
-    </row>
-    <row r="315" spans="1:10">
+      <c r="C313" s="79"/>
+      <c r="D313" s="79"/>
+      <c r="E313" s="79"/>
+      <c r="F313" s="79"/>
+      <c r="G313" s="79"/>
+      <c r="H313" s="79"/>
+      <c r="I313" s="79"/>
+      <c r="J313" s="79"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C315" s="2" t="s">
         <v>199</v>
       </c>
@@ -7616,25 +7623,25 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
-      <c r="B318" s="74" t="s">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B318" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="C318" s="74"/>
-      <c r="D318" s="74"/>
-      <c r="E318" s="74"/>
-      <c r="F318" s="74"/>
-      <c r="G318" s="74"/>
-      <c r="H318" s="74"/>
-      <c r="I318" s="74"/>
-      <c r="J318" s="74"/>
-    </row>
-    <row r="320" spans="1:10">
+      <c r="C318" s="79"/>
+      <c r="D318" s="79"/>
+      <c r="E318" s="79"/>
+      <c r="F318" s="79"/>
+      <c r="G318" s="79"/>
+      <c r="H318" s="79"/>
+      <c r="I318" s="79"/>
+      <c r="J318" s="79"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B320" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="322" spans="3:16">
+    <row r="322" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C322" s="2" t="s">
         <v>250</v>
       </c>
@@ -7669,7 +7676,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="323" spans="3:16">
+    <row r="323" spans="3:16" x14ac:dyDescent="0.3">
       <c r="K323" s="4" t="s">
         <v>365</v>
       </c>
@@ -7689,7 +7696,7 @@
         <v>0.754</v>
       </c>
     </row>
-    <row r="324" spans="3:16">
+    <row r="324" spans="3:16" x14ac:dyDescent="0.3">
       <c r="K324" s="4" t="s">
         <v>366</v>
       </c>
@@ -7709,7 +7716,7 @@
         <v>1.6679999999999999</v>
       </c>
     </row>
-    <row r="325" spans="3:16">
+    <row r="325" spans="3:16" x14ac:dyDescent="0.3">
       <c r="K325" s="4" t="s">
         <v>367</v>
       </c>
@@ -7729,7 +7736,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="326" spans="3:16">
+    <row r="326" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D326" s="41"/>
       <c r="K326" s="4"/>
       <c r="L326" s="4"/>
@@ -7741,29 +7748,29 @@
         <v>4.6760000000000002</v>
       </c>
     </row>
-    <row r="336" spans="3:16">
+    <row r="336" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D336" s="41"/>
     </row>
-    <row r="340" spans="2:10">
+    <row r="340" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D340" s="11"/>
     </row>
-    <row r="344" spans="2:10">
+    <row r="344" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D344" s="11"/>
     </row>
-    <row r="347" spans="2:10">
-      <c r="B347" s="74" t="s">
+    <row r="347" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B347" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="C347" s="74"/>
-      <c r="D347" s="74"/>
-      <c r="E347" s="74"/>
-      <c r="F347" s="74"/>
-      <c r="G347" s="74"/>
-      <c r="H347" s="74"/>
-      <c r="I347" s="74"/>
-      <c r="J347" s="74"/>
-    </row>
-    <row r="349" spans="2:10">
+      <c r="C347" s="79"/>
+      <c r="D347" s="79"/>
+      <c r="E347" s="79"/>
+      <c r="F347" s="79"/>
+      <c r="G347" s="79"/>
+      <c r="H347" s="79"/>
+      <c r="I347" s="79"/>
+      <c r="J347" s="79"/>
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B349" s="2" t="s">
         <v>258</v>
       </c>
@@ -7785,20 +7792,20 @@
         <v>260</v>
       </c>
     </row>
-    <row r="352" spans="2:10">
-      <c r="B352" s="74" t="s">
+    <row r="352" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B352" s="79" t="s">
         <v>436</v>
       </c>
-      <c r="C352" s="74"/>
-      <c r="D352" s="74"/>
-      <c r="E352" s="74"/>
-      <c r="F352" s="74"/>
-      <c r="G352" s="74"/>
-      <c r="H352" s="74"/>
-      <c r="I352" s="74"/>
-      <c r="J352" s="74"/>
-    </row>
-    <row r="354" spans="2:10">
+      <c r="C352" s="79"/>
+      <c r="D352" s="79"/>
+      <c r="E352" s="79"/>
+      <c r="F352" s="79"/>
+      <c r="G352" s="79"/>
+      <c r="H352" s="79"/>
+      <c r="I352" s="79"/>
+      <c r="J352" s="79"/>
+    </row>
+    <row r="354" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B354" s="2" t="s">
         <v>435</v>
       </c>
@@ -7820,26 +7827,26 @@
         <v>260</v>
       </c>
     </row>
-    <row r="357" spans="2:10">
-      <c r="B357" s="74" t="s">
+    <row r="357" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B357" s="79" t="s">
         <v>262</v>
       </c>
-      <c r="C357" s="74"/>
-      <c r="D357" s="74"/>
-      <c r="E357" s="74"/>
-      <c r="F357" s="74"/>
-      <c r="G357" s="74"/>
-      <c r="H357" s="74"/>
-      <c r="I357" s="74"/>
-      <c r="J357" s="74"/>
-    </row>
-    <row r="359" spans="2:10">
+      <c r="C357" s="79"/>
+      <c r="D357" s="79"/>
+      <c r="E357" s="79"/>
+      <c r="F357" s="79"/>
+      <c r="G357" s="79"/>
+      <c r="H357" s="79"/>
+      <c r="I357" s="79"/>
+      <c r="J357" s="79"/>
+    </row>
+    <row r="359" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B359" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C359" s="41">
         <f>F132*G359*G360*K2*G361*G362*G363*G364/(G365)</f>
-        <v>6.9746159662903446</v>
+        <v>7.1901078753528429</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>9</v>
@@ -7852,7 +7859,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="360" spans="2:10">
+    <row r="360" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F360" s="2" t="s">
         <v>263</v>
       </c>
@@ -7863,7 +7870,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="361" spans="2:10">
+    <row r="361" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F361" s="2" t="s">
         <v>264</v>
       </c>
@@ -7874,7 +7881,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="362" spans="2:10">
+    <row r="362" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F362" s="2" t="s">
         <v>265</v>
       </c>
@@ -7885,7 +7892,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="363" spans="2:10">
+    <row r="363" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F363" s="2" t="s">
         <v>266</v>
       </c>
@@ -7894,7 +7901,7 @@
         <v>0.97001033634334421</v>
       </c>
     </row>
-    <row r="364" spans="2:10">
+    <row r="364" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F364" s="2" t="s">
         <v>267</v>
       </c>
@@ -7902,7 +7909,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="365" spans="2:10">
+    <row r="365" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F365" s="2" t="s">
         <v>268</v>
       </c>
@@ -7910,20 +7917,20 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="368" spans="2:10">
-      <c r="B368" s="74" t="s">
+    <row r="368" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B368" s="79" t="s">
         <v>269</v>
       </c>
-      <c r="C368" s="74"/>
-      <c r="D368" s="74"/>
-      <c r="E368" s="74"/>
-      <c r="F368" s="74"/>
-      <c r="G368" s="74"/>
-      <c r="H368" s="74"/>
-      <c r="I368" s="74"/>
-      <c r="J368" s="74"/>
-    </row>
-    <row r="370" spans="2:12">
+      <c r="C368" s="79"/>
+      <c r="D368" s="79"/>
+      <c r="E368" s="79"/>
+      <c r="F368" s="79"/>
+      <c r="G368" s="79"/>
+      <c r="H368" s="79"/>
+      <c r="I368" s="79"/>
+      <c r="J368" s="79"/>
+    </row>
+    <row r="370" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B370" s="2" t="s">
         <v>271</v>
       </c>
@@ -7941,20 +7948,20 @@
         <v>260</v>
       </c>
     </row>
-    <row r="373" spans="2:12">
-      <c r="B373" s="74" t="s">
+    <row r="373" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B373" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="C373" s="74"/>
-      <c r="D373" s="74"/>
-      <c r="E373" s="74"/>
-      <c r="F373" s="74"/>
-      <c r="G373" s="74"/>
-      <c r="H373" s="74"/>
-      <c r="I373" s="74"/>
-      <c r="J373" s="74"/>
-    </row>
-    <row r="375" spans="2:12">
+      <c r="C373" s="79"/>
+      <c r="D373" s="79"/>
+      <c r="E373" s="79"/>
+      <c r="F373" s="79"/>
+      <c r="G373" s="79"/>
+      <c r="H373" s="79"/>
+      <c r="I373" s="79"/>
+      <c r="J373" s="79"/>
+    </row>
+    <row r="375" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B375" s="2" t="s">
         <v>274</v>
       </c>
@@ -7979,51 +7986,51 @@
         <v>458</v>
       </c>
     </row>
-    <row r="378" spans="2:12">
-      <c r="B378" s="74" t="s">
+    <row r="378" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B378" s="79" t="s">
         <v>438</v>
       </c>
-      <c r="C378" s="74"/>
-      <c r="D378" s="74"/>
-      <c r="E378" s="74"/>
-      <c r="F378" s="74"/>
-      <c r="G378" s="74"/>
-      <c r="H378" s="74"/>
-      <c r="I378" s="74"/>
-      <c r="J378" s="74"/>
-    </row>
-    <row r="379" spans="2:12">
+      <c r="C378" s="79"/>
+      <c r="D378" s="79"/>
+      <c r="E378" s="79"/>
+      <c r="F378" s="79"/>
+      <c r="G378" s="79"/>
+      <c r="H378" s="79"/>
+      <c r="I378" s="79"/>
+      <c r="J378" s="79"/>
+    </row>
+    <row r="379" spans="2:12" x14ac:dyDescent="0.3">
       <c r="L379" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="380" spans="2:12">
+    <row r="380" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B380" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C380" s="41">
         <f>H166/$M$2</f>
-        <v>0.11427518819172164</v>
+        <v>0.11428944079890588</v>
       </c>
       <c r="D380" s="2">
         <f>$M$2</f>
         <v>12945</v>
       </c>
     </row>
-    <row r="382" spans="2:12">
-      <c r="B382" s="74" t="s">
+    <row r="382" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B382" s="79" t="s">
         <v>275</v>
       </c>
-      <c r="C382" s="74"/>
-      <c r="D382" s="74"/>
-      <c r="E382" s="74"/>
-      <c r="F382" s="74"/>
-      <c r="G382" s="74"/>
-      <c r="H382" s="74"/>
-      <c r="I382" s="74"/>
-      <c r="J382" s="74"/>
-    </row>
-    <row r="384" spans="2:12">
+      <c r="C382" s="79"/>
+      <c r="D382" s="79"/>
+      <c r="E382" s="79"/>
+      <c r="F382" s="79"/>
+      <c r="G382" s="79"/>
+      <c r="H382" s="79"/>
+      <c r="I382" s="79"/>
+      <c r="J382" s="79"/>
+    </row>
+    <row r="384" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B384" s="2" t="s">
         <v>207</v>
       </c>
@@ -8048,20 +8055,20 @@
         <v>455</v>
       </c>
     </row>
-    <row r="387" spans="2:12">
-      <c r="B387" s="74" t="s">
+    <row r="387" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B387" s="79" t="s">
         <v>277</v>
       </c>
-      <c r="C387" s="74"/>
-      <c r="D387" s="74"/>
-      <c r="E387" s="74"/>
-      <c r="F387" s="74"/>
-      <c r="G387" s="74"/>
-      <c r="H387" s="74"/>
-      <c r="I387" s="74"/>
-      <c r="J387" s="74"/>
-    </row>
-    <row r="389" spans="2:12">
+      <c r="C387" s="79"/>
+      <c r="D387" s="79"/>
+      <c r="E387" s="79"/>
+      <c r="F387" s="79"/>
+      <c r="G387" s="79"/>
+      <c r="H387" s="79"/>
+      <c r="I387" s="79"/>
+      <c r="J387" s="79"/>
+    </row>
+    <row r="389" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B389" s="2" t="s">
         <v>208</v>
       </c>
@@ -8086,30 +8093,30 @@
         <v>454</v>
       </c>
     </row>
-    <row r="392" spans="2:12">
-      <c r="B392" s="74" t="s">
+    <row r="392" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B392" s="79" t="s">
         <v>368</v>
       </c>
-      <c r="C392" s="74"/>
-      <c r="D392" s="74"/>
-      <c r="E392" s="74"/>
-      <c r="F392" s="74"/>
-      <c r="G392" s="74"/>
-      <c r="H392" s="74"/>
-      <c r="I392" s="74"/>
-      <c r="J392" s="74"/>
-    </row>
-    <row r="394" spans="2:12">
+      <c r="C392" s="79"/>
+      <c r="D392" s="79"/>
+      <c r="E392" s="79"/>
+      <c r="F392" s="79"/>
+      <c r="G392" s="79"/>
+      <c r="H392" s="79"/>
+      <c r="I392" s="79"/>
+      <c r="J392" s="79"/>
+    </row>
+    <row r="394" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B394" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C394" s="41">
         <f>SUM(H225:H237)*G394/100</f>
-        <v>0.25194260654501138</v>
+        <v>0.25194282284036584</v>
       </c>
       <c r="D394" s="41">
         <f>SUM(H225:H237)</f>
-        <v>35.991800935001628</v>
+        <v>35.99183183433798</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>283</v>
@@ -8121,31 +8128,31 @@
         <v>453</v>
       </c>
     </row>
-    <row r="395" spans="2:12">
+    <row r="395" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C395" s="2">
         <f>C394*12945</f>
-        <v>3261.3970417251721</v>
-      </c>
-      <c r="D395" s="155">
+        <v>3261.3998416685358</v>
+      </c>
+      <c r="D395" s="70">
         <f>F239*0.01</f>
-        <v>4691.7526014532141</v>
+        <v>4691.7566293717373</v>
       </c>
       <c r="G395" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="2:12">
-      <c r="B396" s="74" t="s">
+    <row r="396" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B396" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="C396" s="74"/>
-      <c r="D396" s="74"/>
-      <c r="E396" s="74"/>
-      <c r="F396" s="74"/>
-      <c r="G396" s="74"/>
-      <c r="H396" s="74"/>
-      <c r="I396" s="74"/>
-      <c r="J396" s="74"/>
+      <c r="C396" s="79"/>
+      <c r="D396" s="79"/>
+      <c r="E396" s="79"/>
+      <c r="F396" s="79"/>
+      <c r="G396" s="79"/>
+      <c r="H396" s="79"/>
+      <c r="I396" s="79"/>
+      <c r="J396" s="79"/>
       <c r="K396" s="2" t="s">
         <v>492</v>
       </c>
@@ -8153,17 +8160,17 @@
         <v>497560.31</v>
       </c>
     </row>
-    <row r="398" spans="2:12">
+    <row r="398" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B398" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C398" s="41">
         <f>H239*G398/100</f>
-        <v>0.36243743541546641</v>
+        <v>0.3624377465717834</v>
       </c>
       <c r="D398" s="59">
         <f>F239*G398/100</f>
-        <v>4691.7526014532141</v>
+        <v>4691.7566293717373</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>286</v>
@@ -8178,34 +8185,34 @@
         <v>452</v>
       </c>
     </row>
-    <row r="400" spans="2:12">
-      <c r="B400" s="74" t="s">
+    <row r="400" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B400" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="C400" s="74"/>
-      <c r="D400" s="74"/>
-      <c r="E400" s="74"/>
-      <c r="F400" s="74"/>
-      <c r="G400" s="74"/>
-      <c r="H400" s="74"/>
-      <c r="I400" s="74"/>
-      <c r="J400" s="74"/>
-    </row>
-    <row r="402" spans="2:10">
+      <c r="C400" s="79"/>
+      <c r="D400" s="79"/>
+      <c r="E400" s="79"/>
+      <c r="F400" s="79"/>
+      <c r="G400" s="79"/>
+      <c r="H400" s="79"/>
+      <c r="I400" s="79"/>
+      <c r="J400" s="79"/>
+    </row>
+    <row r="402" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B402" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C402" s="41">
         <f>(H241+C398)*G402/100</f>
-        <v>18.484309206188787</v>
-      </c>
-      <c r="D402" s="156">
+        <v>18.484325075160957</v>
+      </c>
+      <c r="D402" s="71">
         <f>F241*0.5</f>
-        <v>236933.5063733873</v>
+        <v>236933.70978327273</v>
       </c>
       <c r="E402" s="41">
         <f>F241</f>
-        <v>473867.01274677459</v>
+        <v>473867.41956654546</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>287</v>
@@ -8220,26 +8227,26 @@
         <v>451</v>
       </c>
     </row>
-    <row r="404" spans="2:10">
-      <c r="B404" s="74" t="s">
+    <row r="404" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B404" s="79" t="s">
         <v>415</v>
       </c>
-      <c r="C404" s="74"/>
-      <c r="D404" s="74"/>
-      <c r="E404" s="74"/>
-      <c r="F404" s="74"/>
-      <c r="G404" s="74"/>
-      <c r="H404" s="74"/>
-      <c r="I404" s="74"/>
-      <c r="J404" s="74"/>
-    </row>
-    <row r="406" spans="2:10">
+      <c r="C404" s="79"/>
+      <c r="D404" s="79"/>
+      <c r="E404" s="79"/>
+      <c r="F404" s="79"/>
+      <c r="G404" s="79"/>
+      <c r="H404" s="79"/>
+      <c r="I404" s="79"/>
+      <c r="J404" s="79"/>
+    </row>
+    <row r="406" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B406" s="2" t="s">
         <v>416</v>
       </c>
       <c r="C406" s="41">
         <f>(C414*G406)/(100-G406)</f>
-        <v>1.4218699389375991</v>
+        <v>1.421871159627766</v>
       </c>
       <c r="E406" s="59">
         <f>L396*2.5/97.5</f>
@@ -8255,26 +8262,26 @@
         <v>260</v>
       </c>
     </row>
-    <row r="408" spans="2:10">
-      <c r="B408" s="74" t="s">
+    <row r="408" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B408" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="C408" s="74"/>
-      <c r="D408" s="74"/>
-      <c r="E408" s="74"/>
-      <c r="F408" s="74"/>
-      <c r="G408" s="74"/>
-      <c r="H408" s="74"/>
-      <c r="I408" s="74"/>
-      <c r="J408" s="74"/>
-    </row>
-    <row r="410" spans="2:10">
+      <c r="C408" s="79"/>
+      <c r="D408" s="79"/>
+      <c r="E408" s="79"/>
+      <c r="F408" s="79"/>
+      <c r="G408" s="79"/>
+      <c r="H408" s="79"/>
+      <c r="I408" s="79"/>
+      <c r="J408" s="79"/>
+    </row>
+    <row r="410" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B410" s="2" t="s">
         <v>413</v>
       </c>
       <c r="C410" s="41">
         <f>((C414+C406)*G410)/(100-G410)</f>
-        <v>1.1607101542347746</v>
+        <v>1.1607111507165435</v>
       </c>
       <c r="E410" s="59">
         <f>(L396+E406)*2/98</f>
@@ -8290,74 +8297,74 @@
         <v>260</v>
       </c>
     </row>
-    <row r="412" spans="2:10" s="17" customFormat="1">
-      <c r="B412" s="123" t="s">
+    <row r="412" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="C412" s="123"/>
-      <c r="D412" s="123"/>
-      <c r="E412" s="123"/>
-      <c r="F412" s="123"/>
-      <c r="G412" s="123"/>
-      <c r="H412" s="123"/>
-      <c r="I412" s="123"/>
-      <c r="J412" s="123"/>
-    </row>
-    <row r="414" spans="2:10">
+      <c r="C412" s="122"/>
+      <c r="D412" s="122"/>
+      <c r="E412" s="122"/>
+      <c r="F412" s="122"/>
+      <c r="G412" s="122"/>
+      <c r="H412" s="122"/>
+      <c r="I412" s="122"/>
+      <c r="J412" s="122"/>
+    </row>
+    <row r="414" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B414" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C414" s="41">
         <f>(H241+C398)+C402</f>
-        <v>55.452927618566363</v>
-      </c>
-    </row>
-    <row r="417" spans="1:10">
-      <c r="B417" s="115" t="s">
+        <v>55.452975225482874</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B417" s="125" t="s">
         <v>440</v>
       </c>
-      <c r="C417" s="115"/>
-      <c r="D417" s="115"/>
-      <c r="E417" s="115"/>
-      <c r="F417" s="115"/>
-      <c r="G417" s="115"/>
-      <c r="H417" s="115"/>
-      <c r="I417" s="115"/>
-      <c r="J417" s="115"/>
-    </row>
-    <row r="419" spans="1:10">
+      <c r="C417" s="125"/>
+      <c r="D417" s="125"/>
+      <c r="E417" s="125"/>
+      <c r="F417" s="125"/>
+      <c r="G417" s="125"/>
+      <c r="H417" s="125"/>
+      <c r="I417" s="125"/>
+      <c r="J417" s="125"/>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B419" s="2" t="s">
         <v>441</v>
       </c>
       <c r="C419" s="41">
         <f>F243+C406+C410</f>
-        <v>713148.97800098162</v>
+        <v>713149.5902468143</v>
       </c>
       <c r="E419" s="59">
         <f>L396+E406+E410</f>
         <v>520732.92517006805</v>
       </c>
     </row>
-    <row r="421" spans="1:10">
-      <c r="B421" s="74" t="s">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B421" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="C421" s="74"/>
-      <c r="D421" s="74"/>
-      <c r="E421" s="74"/>
-      <c r="F421" s="74"/>
-      <c r="G421" s="74"/>
-      <c r="H421" s="74"/>
-      <c r="I421" s="74"/>
-      <c r="J421" s="74"/>
-    </row>
-    <row r="423" spans="1:10">
+      <c r="C421" s="79"/>
+      <c r="D421" s="79"/>
+      <c r="E421" s="79"/>
+      <c r="F421" s="79"/>
+      <c r="G421" s="79"/>
+      <c r="H421" s="79"/>
+      <c r="I421" s="79"/>
+      <c r="J421" s="79"/>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B423" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C423" s="41">
         <f>C414*G423/100</f>
-        <v>9.9815269713419461</v>
+        <v>9.9815355405869166</v>
       </c>
       <c r="E423" s="59">
         <f>E419*0.2</f>
@@ -8373,13 +8380,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B425" s="2" t="s">
         <v>491</v>
       </c>
       <c r="C425" s="2">
         <f>C414*G425/100</f>
-        <v>2.1626641771240882</v>
+        <v>2.1626660337938319</v>
       </c>
       <c r="G425" s="2">
         <v>3.9</v>
@@ -8388,20 +8395,20 @@
         <v>260</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
-      <c r="B426" s="74" t="s">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B426" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="C426" s="74"/>
-      <c r="D426" s="74"/>
-      <c r="E426" s="74"/>
-      <c r="F426" s="74"/>
-      <c r="G426" s="74"/>
-      <c r="H426" s="74"/>
-      <c r="I426" s="74"/>
-      <c r="J426" s="74"/>
-    </row>
-    <row r="427" spans="1:10">
+      <c r="C426" s="79"/>
+      <c r="D426" s="79"/>
+      <c r="E426" s="79"/>
+      <c r="F426" s="79"/>
+      <c r="G426" s="79"/>
+      <c r="H426" s="79"/>
+      <c r="I426" s="79"/>
+      <c r="J426" s="79"/>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -8412,154 +8419,154 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B428" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C428" s="41">
         <f>C414+C423+C425</f>
-        <v>67.597118767032399</v>
+        <v>67.597176799863618</v>
       </c>
       <c r="E428" s="59">
         <f>E419+E423</f>
         <v>624879.51020408166</v>
       </c>
     </row>
-    <row r="430" spans="1:10">
-      <c r="A430" s="74" t="s">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A430" s="79" t="s">
         <v>292</v>
       </c>
-      <c r="B430" s="74"/>
-      <c r="C430" s="74"/>
-      <c r="D430" s="74"/>
-      <c r="E430" s="74"/>
-      <c r="F430" s="74"/>
-      <c r="G430" s="74"/>
-      <c r="H430" s="74"/>
-      <c r="I430" s="74"/>
-    </row>
-    <row r="432" spans="1:10">
-      <c r="B432" s="124" t="s">
+      <c r="B430" s="79"/>
+      <c r="C430" s="79"/>
+      <c r="D430" s="79"/>
+      <c r="E430" s="79"/>
+      <c r="F430" s="79"/>
+      <c r="G430" s="79"/>
+      <c r="H430" s="79"/>
+      <c r="I430" s="79"/>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B432" s="110" t="s">
         <v>409</v>
       </c>
-      <c r="C432" s="74"/>
-      <c r="D432" s="74"/>
-      <c r="E432" s="74"/>
-      <c r="F432" s="74"/>
-      <c r="G432" s="74"/>
-      <c r="H432" s="74"/>
-      <c r="I432" s="74"/>
-      <c r="J432" s="74"/>
-    </row>
-    <row r="433" spans="2:10">
+      <c r="C432" s="79"/>
+      <c r="D432" s="79"/>
+      <c r="E432" s="79"/>
+      <c r="F432" s="79"/>
+      <c r="G432" s="79"/>
+      <c r="H432" s="79"/>
+      <c r="I432" s="79"/>
+      <c r="J432" s="79"/>
+    </row>
+    <row r="433" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B433" s="44"/>
       <c r="C433" s="44"/>
       <c r="D433" s="44"/>
       <c r="E433" s="44"/>
     </row>
-    <row r="434" spans="2:10">
+    <row r="434" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D434" s="2" t="s">
         <v>323</v>
       </c>
       <c r="E434" s="41">
         <f>0.5*E166</f>
-        <v>16087.340775255103</v>
-      </c>
-    </row>
-    <row r="436" spans="2:10">
-      <c r="B436" s="74" t="s">
+        <v>16088.465775255103</v>
+      </c>
+    </row>
+    <row r="436" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B436" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="C436" s="74"/>
-      <c r="D436" s="74"/>
-      <c r="E436" s="74"/>
-      <c r="F436" s="74"/>
-      <c r="G436" s="74"/>
-      <c r="H436" s="74"/>
-      <c r="I436" s="74"/>
-      <c r="J436" s="74"/>
-    </row>
-    <row r="438" spans="2:10">
+      <c r="C436" s="79"/>
+      <c r="D436" s="79"/>
+      <c r="E436" s="79"/>
+      <c r="F436" s="79"/>
+      <c r="G436" s="79"/>
+      <c r="H436" s="79"/>
+      <c r="I436" s="79"/>
+      <c r="J436" s="79"/>
+    </row>
+    <row r="438" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C438" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D438" s="41">
         <f>H241*M2</f>
-        <v>473867.01274677448</v>
+        <v>473867.4195665454</v>
       </c>
       <c r="E438" s="11"/>
       <c r="J438" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="440" spans="2:10">
-      <c r="B440" s="74" t="s">
+    <row r="440" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B440" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="C440" s="74"/>
-      <c r="D440" s="74"/>
-      <c r="E440" s="74"/>
-      <c r="F440" s="74"/>
-      <c r="G440" s="74"/>
-      <c r="H440" s="74"/>
-      <c r="I440" s="74"/>
-      <c r="J440" s="74"/>
-    </row>
-    <row r="442" spans="2:10">
+      <c r="C440" s="79"/>
+      <c r="D440" s="79"/>
+      <c r="E440" s="79"/>
+      <c r="F440" s="79"/>
+      <c r="G440" s="79"/>
+      <c r="H440" s="79"/>
+      <c r="I440" s="79"/>
+      <c r="J440" s="79"/>
+    </row>
+    <row r="442" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C442" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D442" s="41">
         <f>H248*M2</f>
-        <v>875044.70243923436</v>
+        <v>875045.45367423457</v>
       </c>
       <c r="E442" s="11">
         <f>H248</f>
-        <v>67.597118767032399</v>
-      </c>
-    </row>
-    <row r="444" spans="2:10">
-      <c r="B444" s="74" t="s">
+        <v>67.597176799863618</v>
+      </c>
+    </row>
+    <row r="444" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B444" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="C444" s="74"/>
-      <c r="D444" s="74"/>
-      <c r="E444" s="74"/>
-      <c r="F444" s="74"/>
-      <c r="G444" s="74"/>
-      <c r="H444" s="74"/>
-      <c r="I444" s="74"/>
-      <c r="J444" s="74"/>
-    </row>
-    <row r="446" spans="2:10">
+      <c r="C444" s="79"/>
+      <c r="D444" s="79"/>
+      <c r="E444" s="79"/>
+      <c r="F444" s="79"/>
+      <c r="G444" s="79"/>
+      <c r="H444" s="79"/>
+      <c r="I444" s="79"/>
+      <c r="J444" s="79"/>
+    </row>
+    <row r="446" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C446" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D446" s="41">
         <f t="array" ref="D446">D438/D442</f>
-        <v>0.54153463408880098</v>
-      </c>
-    </row>
-    <row r="448" spans="2:10">
-      <c r="B448" s="74" t="s">
+        <v>0.54153463408880087</v>
+      </c>
+    </row>
+    <row r="448" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B448" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="C448" s="74"/>
-      <c r="D448" s="74"/>
-      <c r="E448" s="74"/>
-      <c r="F448" s="74"/>
-      <c r="G448" s="74"/>
-      <c r="H448" s="74"/>
-      <c r="I448" s="74"/>
-      <c r="J448" s="74"/>
-    </row>
-    <row r="450" spans="2:10">
+      <c r="C448" s="79"/>
+      <c r="D448" s="79"/>
+      <c r="E448" s="79"/>
+      <c r="F448" s="79"/>
+      <c r="G448" s="79"/>
+      <c r="H448" s="79"/>
+      <c r="I448" s="79"/>
+      <c r="J448" s="79"/>
+    </row>
+    <row r="450" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C450" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D450" s="41">
         <f>D442-D438-C423*M2-C425*M2</f>
-        <v>243971.1352755671</v>
+        <v>243971.34472733038</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>411</v>
@@ -8569,66 +8576,66 @@
       </c>
       <c r="I450" s="41">
         <f>C410</f>
-        <v>1.1607101542347746</v>
-      </c>
-    </row>
-    <row r="451" spans="2:10">
+        <v>1.1607111507165435</v>
+      </c>
+    </row>
+    <row r="451" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H451" s="2" t="s">
         <v>414</v>
       </c>
       <c r="I451" s="41">
         <f>C406</f>
-        <v>1.4218699389375991</v>
-      </c>
-    </row>
-    <row r="452" spans="2:10">
+        <v>1.421871159627766</v>
+      </c>
+    </row>
+    <row r="452" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C452" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="454" spans="2:10">
+    <row r="454" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C454" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D454" s="41">
         <f t="array" ref="D454">0.15*D450</f>
-        <v>36595.67029133506</v>
-      </c>
-    </row>
-    <row r="456" spans="2:10">
+        <v>36595.701709099558</v>
+      </c>
+    </row>
+    <row r="456" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C456" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="458" spans="2:10">
+    <row r="458" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C458" s="2" t="s">
         <v>303</v>
       </c>
       <c r="D458" s="41">
         <f>D450+D454</f>
-        <v>280566.80556690216</v>
-      </c>
-    </row>
-    <row r="461" spans="2:10">
-      <c r="B461" s="74" t="s">
+        <v>280567.04643642996</v>
+      </c>
+    </row>
+    <row r="461" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B461" s="79" t="s">
         <v>450</v>
       </c>
-      <c r="C461" s="74"/>
-      <c r="D461" s="74"/>
-      <c r="E461" s="74"/>
-      <c r="F461" s="74"/>
-      <c r="G461" s="74"/>
-      <c r="H461" s="74"/>
-      <c r="I461" s="74"/>
-      <c r="J461" s="74"/>
-    </row>
-    <row r="463" spans="2:10">
+      <c r="C461" s="79"/>
+      <c r="D461" s="79"/>
+      <c r="E461" s="79"/>
+      <c r="F461" s="79"/>
+      <c r="G461" s="79"/>
+      <c r="H461" s="79"/>
+      <c r="I461" s="79"/>
+      <c r="J461" s="79"/>
+    </row>
+    <row r="463" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C463" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D463" s="41">
         <f>D458</f>
-        <v>280566.80556690216</v>
+        <v>280567.04643642996</v>
       </c>
       <c r="G463" s="2" t="s">
         <v>304</v>
@@ -8637,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="2:10">
+    <row r="464" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G464" s="2" t="s">
         <v>305</v>
       </c>
@@ -8645,39 +8652,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="2:10">
-      <c r="B466" s="74" t="s">
+    <row r="466" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B466" s="79" t="s">
         <v>307</v>
       </c>
-      <c r="C466" s="74"/>
-      <c r="D466" s="74"/>
-      <c r="E466" s="74"/>
-      <c r="F466" s="74"/>
-      <c r="G466" s="74"/>
-      <c r="H466" s="74"/>
-      <c r="I466" s="74"/>
-      <c r="J466" s="74"/>
-    </row>
-    <row r="468" spans="2:10">
+      <c r="C466" s="79"/>
+      <c r="D466" s="79"/>
+      <c r="E466" s="79"/>
+      <c r="F466" s="79"/>
+      <c r="G466" s="79"/>
+      <c r="H466" s="79"/>
+      <c r="I466" s="79"/>
+      <c r="J466" s="79"/>
+    </row>
+    <row r="468" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C468" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D468" s="41">
         <f>E166-H166</f>
-        <v>30695.389239368371</v>
+        <v>30697.454739368368</v>
       </c>
       <c r="E468" s="8">
         <f>H166</f>
-        <v>1479.2923111418365</v>
-      </c>
-    </row>
-    <row r="470" spans="2:10">
+        <v>1479.4768111418366</v>
+      </c>
+    </row>
+    <row r="470" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C470" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D470" s="41">
         <f>(D468*H470)/(12*100)</f>
-        <v>25.579491032806974</v>
+        <v>25.581212282806973</v>
       </c>
       <c r="G470" s="2" t="s">
         <v>309</v>
@@ -8689,20 +8696,20 @@
         <v>260</v>
       </c>
     </row>
-    <row r="472" spans="2:10">
-      <c r="B472" s="74" t="s">
+    <row r="472" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B472" s="79" t="s">
         <v>369</v>
       </c>
-      <c r="C472" s="74"/>
-      <c r="D472" s="74"/>
-      <c r="E472" s="74"/>
-      <c r="F472" s="74"/>
-      <c r="G472" s="74"/>
-      <c r="H472" s="74"/>
-      <c r="I472" s="74"/>
-      <c r="J472" s="74"/>
-    </row>
-    <row r="473" spans="2:10">
+      <c r="C472" s="79"/>
+      <c r="D472" s="79"/>
+      <c r="E472" s="79"/>
+      <c r="F472" s="79"/>
+      <c r="G472" s="79"/>
+      <c r="H472" s="79"/>
+      <c r="I472" s="79"/>
+      <c r="J472" s="79"/>
+    </row>
+    <row r="473" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -8713,57 +8720,57 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="2:10">
+    <row r="474" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C474" s="2" t="s">
         <v>370</v>
       </c>
       <c r="D474" s="41">
         <f>E434*H470/(1200)</f>
-        <v>13.406117312712587</v>
-      </c>
-    </row>
-    <row r="476" spans="2:10">
-      <c r="B476" s="74" t="s">
+        <v>13.407054812712586</v>
+      </c>
+    </row>
+    <row r="476" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B476" s="79" t="s">
         <v>371</v>
       </c>
-      <c r="C476" s="74"/>
-      <c r="D476" s="74"/>
-      <c r="E476" s="74"/>
-      <c r="F476" s="74"/>
-      <c r="G476" s="74"/>
-      <c r="H476" s="74"/>
-      <c r="I476" s="74"/>
-      <c r="J476" s="74"/>
-    </row>
-    <row r="478" spans="2:10">
+      <c r="C476" s="79"/>
+      <c r="D476" s="79"/>
+      <c r="E476" s="79"/>
+      <c r="F476" s="79"/>
+      <c r="G476" s="79"/>
+      <c r="H476" s="79"/>
+      <c r="I476" s="79"/>
+      <c r="J476" s="79"/>
+    </row>
+    <row r="478" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C478" s="2" t="s">
         <v>372</v>
       </c>
       <c r="D478" s="41">
         <f>D474+D470</f>
-        <v>38.985608345519559</v>
-      </c>
-    </row>
-    <row r="480" spans="2:10">
-      <c r="B480" s="74" t="s">
+        <v>38.988267095519561</v>
+      </c>
+    </row>
+    <row r="480" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B480" s="79" t="s">
         <v>311</v>
       </c>
-      <c r="C480" s="74"/>
-      <c r="D480" s="74"/>
-      <c r="E480" s="74"/>
-      <c r="F480" s="74"/>
-      <c r="G480" s="74"/>
-      <c r="H480" s="74"/>
-      <c r="I480" s="74"/>
-      <c r="J480" s="74"/>
-    </row>
-    <row r="482" spans="2:10">
+      <c r="C480" s="79"/>
+      <c r="D480" s="79"/>
+      <c r="E480" s="79"/>
+      <c r="F480" s="79"/>
+      <c r="G480" s="79"/>
+      <c r="H480" s="79"/>
+      <c r="I480" s="79"/>
+      <c r="J480" s="79"/>
+    </row>
+    <row r="482" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C482" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D482" s="41">
         <f>D463-D470-H482-H483</f>
-        <v>280541.22607586934</v>
+        <v>280541.46522414713</v>
       </c>
       <c r="G482" s="2" t="s">
         <v>312</v>
@@ -8772,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="2:10">
+    <row r="483" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G483" s="2" t="s">
         <v>412</v>
       </c>
@@ -8780,26 +8787,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="2:10">
-      <c r="B486" s="74" t="s">
+    <row r="486" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B486" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="C486" s="74"/>
-      <c r="D486" s="74"/>
-      <c r="E486" s="74"/>
-      <c r="F486" s="74"/>
-      <c r="G486" s="74"/>
-      <c r="H486" s="74"/>
-      <c r="I486" s="74"/>
-      <c r="J486" s="74"/>
-    </row>
-    <row r="488" spans="2:10">
+      <c r="C486" s="79"/>
+      <c r="D486" s="79"/>
+      <c r="E486" s="79"/>
+      <c r="F486" s="79"/>
+      <c r="G486" s="79"/>
+      <c r="H486" s="79"/>
+      <c r="I486" s="79"/>
+      <c r="J486" s="79"/>
+    </row>
+    <row r="488" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C488" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D488" s="41">
         <f>D482*H488/100</f>
-        <v>67329.894258208646</v>
+        <v>67329.951653795317</v>
       </c>
       <c r="G488" s="2" t="s">
         <v>283</v>
@@ -8811,26 +8818,26 @@
         <v>260</v>
       </c>
     </row>
-    <row r="491" spans="2:10">
-      <c r="B491" s="74" t="s">
+    <row r="491" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B491" s="79" t="s">
         <v>315</v>
       </c>
-      <c r="C491" s="74"/>
-      <c r="D491" s="74"/>
-      <c r="E491" s="74"/>
-      <c r="F491" s="74"/>
-      <c r="G491" s="74"/>
-      <c r="H491" s="74"/>
-      <c r="I491" s="74"/>
-      <c r="J491" s="74"/>
-    </row>
-    <row r="493" spans="2:10">
+      <c r="C491" s="79"/>
+      <c r="D491" s="79"/>
+      <c r="E491" s="79"/>
+      <c r="F491" s="79"/>
+      <c r="G491" s="79"/>
+      <c r="H491" s="79"/>
+      <c r="I491" s="79"/>
+      <c r="J491" s="79"/>
+    </row>
+    <row r="493" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C493" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D493" s="41">
         <f>(D463-D478-D488-H482-H483)*H493/100</f>
-        <v>10659.896285017398</v>
+        <v>10659.905325776956</v>
       </c>
       <c r="G493" s="2" t="s">
         <v>317</v>
@@ -8842,42 +8849,42 @@
         <v>260</v>
       </c>
     </row>
-    <row r="496" spans="2:10">
-      <c r="B496" s="74" t="s">
+    <row r="496" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B496" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="C496" s="74"/>
-      <c r="D496" s="74"/>
-      <c r="E496" s="74"/>
-      <c r="F496" s="74"/>
-      <c r="G496" s="74"/>
-      <c r="H496" s="74"/>
-      <c r="I496" s="74"/>
-      <c r="J496" s="74"/>
-    </row>
-    <row r="498" spans="2:10">
+      <c r="C496" s="79"/>
+      <c r="D496" s="79"/>
+      <c r="E496" s="79"/>
+      <c r="F496" s="79"/>
+      <c r="G496" s="79"/>
+      <c r="H496" s="79"/>
+      <c r="I496" s="79"/>
+      <c r="J496" s="79"/>
+    </row>
+    <row r="498" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C498" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D498" s="41">
         <f>D463-D478-D488-D493</f>
-        <v>202538.02941533059</v>
-      </c>
-    </row>
-    <row r="500" spans="2:10">
-      <c r="B500" s="74" t="s">
+        <v>202538.20118976216</v>
+      </c>
+    </row>
+    <row r="500" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B500" s="79" t="s">
         <v>322</v>
       </c>
-      <c r="C500" s="74"/>
-      <c r="D500" s="74"/>
-      <c r="E500" s="74"/>
-      <c r="F500" s="74"/>
-      <c r="G500" s="74"/>
-      <c r="H500" s="74"/>
-      <c r="I500" s="74"/>
-      <c r="J500" s="74"/>
-    </row>
-    <row r="502" spans="2:10">
+      <c r="C500" s="79"/>
+      <c r="D500" s="79"/>
+      <c r="E500" s="79"/>
+      <c r="F500" s="79"/>
+      <c r="G500" s="79"/>
+      <c r="H500" s="79"/>
+      <c r="I500" s="79"/>
+      <c r="J500" s="79"/>
+    </row>
+    <row r="502" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C502" s="2" t="s">
         <v>320</v>
       </c>
@@ -8887,61 +8894,61 @@
       </c>
       <c r="E502" s="41"/>
     </row>
-    <row r="504" spans="2:10">
-      <c r="B504" s="74" t="s">
+    <row r="504" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B504" s="79" t="s">
         <v>321</v>
       </c>
-      <c r="C504" s="74"/>
-      <c r="D504" s="74"/>
-      <c r="E504" s="74"/>
-      <c r="F504" s="74"/>
-      <c r="G504" s="74"/>
-      <c r="H504" s="74"/>
-      <c r="I504" s="74"/>
-      <c r="J504" s="74"/>
-    </row>
-    <row r="506" spans="2:10">
+      <c r="C504" s="79"/>
+      <c r="D504" s="79"/>
+      <c r="E504" s="79"/>
+      <c r="F504" s="79"/>
+      <c r="G504" s="79"/>
+      <c r="H504" s="79"/>
+      <c r="I504" s="79"/>
+      <c r="J504" s="79"/>
+    </row>
+    <row r="506" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C506" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D506" s="41">
         <f>D498*100/(E166+E434)</f>
-        <v>419.66337019243184</v>
-      </c>
-    </row>
-    <row r="509" spans="2:10">
-      <c r="B509" s="74" t="s">
+        <v>419.63438076089773</v>
+      </c>
+    </row>
+    <row r="509" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B509" s="79" t="s">
         <v>325</v>
       </c>
-      <c r="C509" s="74"/>
-      <c r="D509" s="74"/>
-      <c r="E509" s="74"/>
-      <c r="F509" s="74"/>
-      <c r="G509" s="74"/>
-      <c r="H509" s="74"/>
-      <c r="I509" s="74"/>
-      <c r="J509" s="74"/>
-    </row>
-    <row r="511" spans="2:10">
+      <c r="C509" s="79"/>
+      <c r="D509" s="79"/>
+      <c r="E509" s="79"/>
+      <c r="F509" s="79"/>
+      <c r="G509" s="79"/>
+      <c r="H509" s="79"/>
+      <c r="I509" s="79"/>
+      <c r="J509" s="79"/>
+    </row>
+    <row r="511" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C511" s="2" t="s">
         <v>326</v>
       </c>
       <c r="D511" s="41">
         <f>D442/E166</f>
-        <v>27.196685725250276</v>
+        <v>27.194807320288426</v>
       </c>
       <c r="E511" s="41">
         <f>D442</f>
-        <v>875044.70243923436</v>
-      </c>
-    </row>
-    <row r="514" spans="1:6">
-      <c r="A514" s="99" t="s">
+        <v>875045.45367423457</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A514" s="75" t="s">
         <v>327</v>
       </c>
-      <c r="B514" s="99"/>
-      <c r="C514" s="99"/>
-      <c r="D514" s="99"/>
+      <c r="B514" s="75"/>
+      <c r="C514" s="75"/>
+      <c r="D514" s="75"/>
       <c r="E514" s="26" t="s">
         <v>221</v>
       </c>
@@ -8949,13 +8956,13 @@
         <v>328</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
-      <c r="A515" s="108" t="s">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A515" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="B515" s="108"/>
-      <c r="C515" s="108"/>
-      <c r="D515" s="108"/>
+      <c r="B515" s="72"/>
+      <c r="C515" s="72"/>
+      <c r="D515" s="72"/>
       <c r="E515" s="4" t="s">
         <v>235</v>
       </c>
@@ -8964,148 +8971,148 @@
         <v>12945</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
-      <c r="A516" s="108" t="s">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A516" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="B516" s="108"/>
-      <c r="C516" s="108"/>
-      <c r="D516" s="108"/>
+      <c r="B516" s="72"/>
+      <c r="C516" s="72"/>
+      <c r="D516" s="72"/>
       <c r="E516" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F516" s="57">
         <f>D442</f>
-        <v>875044.70243923436</v>
-      </c>
-    </row>
-    <row r="517" spans="1:6">
-      <c r="A517" s="99" t="s">
+        <v>875045.45367423457</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A517" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="B517" s="99"/>
-      <c r="C517" s="99"/>
-      <c r="D517" s="99"/>
+      <c r="B517" s="75"/>
+      <c r="C517" s="75"/>
+      <c r="D517" s="75"/>
       <c r="E517" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F517" s="57">
         <f t="array" ref="F517">F241</f>
-        <v>473867.01274677459</v>
-      </c>
-    </row>
-    <row r="518" spans="1:6">
-      <c r="A518" s="99" t="s">
+        <v>473867.41956654546</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A518" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="B518" s="99"/>
-      <c r="C518" s="99"/>
-      <c r="D518" s="99"/>
+      <c r="B518" s="75"/>
+      <c r="C518" s="75"/>
+      <c r="D518" s="75"/>
       <c r="E518" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F518" s="57">
         <f t="array" ref="F518">D446</f>
-        <v>0.54153463408880098</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6">
-      <c r="A519" s="99" t="s">
+        <v>0.54153463408880087</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A519" s="75" t="s">
         <v>333</v>
       </c>
-      <c r="B519" s="99"/>
-      <c r="C519" s="99"/>
-      <c r="D519" s="99"/>
+      <c r="B519" s="75"/>
+      <c r="C519" s="75"/>
+      <c r="D519" s="75"/>
       <c r="E519" s="4" t="s">
         <v>350</v>
       </c>
       <c r="F519" s="57">
         <f t="array" ref="F519">H241</f>
-        <v>36.606180976962108</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6">
-      <c r="A520" s="99" t="s">
+        <v>36.606212403750128</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A520" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="B520" s="99"/>
-      <c r="C520" s="99"/>
-      <c r="D520" s="99"/>
+      <c r="B520" s="75"/>
+      <c r="C520" s="75"/>
+      <c r="D520" s="75"/>
       <c r="E520" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F520" s="57">
         <f t="array" ref="F520">H243</f>
-        <v>55.090490183150891</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6">
-      <c r="A521" s="99" t="s">
+        <v>55.090537478911088</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A521" s="75" t="s">
         <v>335</v>
       </c>
-      <c r="B521" s="99"/>
-      <c r="C521" s="99"/>
-      <c r="D521" s="99"/>
+      <c r="B521" s="75"/>
+      <c r="C521" s="75"/>
+      <c r="D521" s="75"/>
       <c r="E521" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F521" s="57">
         <f t="array" ref="F521">H248</f>
-        <v>67.597118767032399</v>
-      </c>
-    </row>
-    <row r="522" spans="1:6">
-      <c r="A522" s="99" t="s">
+        <v>67.597176799863618</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A522" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="B522" s="99"/>
-      <c r="C522" s="99"/>
-      <c r="D522" s="99"/>
+      <c r="B522" s="75"/>
+      <c r="C522" s="75"/>
+      <c r="D522" s="75"/>
       <c r="E522" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F522" s="57">
         <f t="array" ref="F522">D458</f>
-        <v>280566.80556690216</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6">
-      <c r="A523" s="99" t="s">
+        <v>280567.04643642996</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A523" s="75" t="s">
         <v>336</v>
       </c>
-      <c r="B523" s="99"/>
-      <c r="C523" s="99"/>
-      <c r="D523" s="99"/>
+      <c r="B523" s="75"/>
+      <c r="C523" s="75"/>
+      <c r="D523" s="75"/>
       <c r="E523" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F523" s="57">
         <f t="array" ref="F523">D498</f>
-        <v>202538.02941533059</v>
-      </c>
-    </row>
-    <row r="524" spans="1:6">
-      <c r="A524" s="99" t="s">
+        <v>202538.20118976216</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A524" s="75" t="s">
         <v>337</v>
       </c>
-      <c r="B524" s="99"/>
-      <c r="C524" s="99"/>
-      <c r="D524" s="99"/>
+      <c r="B524" s="75"/>
+      <c r="C524" s="75"/>
+      <c r="D524" s="75"/>
       <c r="E524" s="4" t="s">
         <v>260</v>
       </c>
       <c r="F524" s="57">
         <f>D506</f>
-        <v>419.66337019243184</v>
-      </c>
-    </row>
-    <row r="525" spans="1:6">
-      <c r="A525" s="99" t="s">
+        <v>419.63438076089773</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A525" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="B525" s="99"/>
-      <c r="C525" s="99"/>
-      <c r="D525" s="99"/>
+      <c r="B525" s="75"/>
+      <c r="C525" s="75"/>
+      <c r="D525" s="75"/>
       <c r="E525" s="4" t="s">
         <v>260</v>
       </c>
@@ -9114,28 +9121,28 @@
         <v>50.495049504950487</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
-      <c r="A526" s="99" t="s">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A526" s="75" t="s">
         <v>339</v>
       </c>
-      <c r="B526" s="99"/>
-      <c r="C526" s="99"/>
-      <c r="D526" s="99"/>
+      <c r="B526" s="75"/>
+      <c r="C526" s="75"/>
+      <c r="D526" s="75"/>
       <c r="E526" s="4" t="s">
         <v>351</v>
       </c>
       <c r="F526" s="57">
         <f t="array" ref="F526">D511</f>
-        <v>27.196685725250276</v>
-      </c>
-    </row>
-    <row r="527" spans="1:6">
-      <c r="A527" s="99" t="s">
+        <v>27.194807320288426</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A527" s="75" t="s">
         <v>465</v>
       </c>
-      <c r="B527" s="99"/>
-      <c r="C527" s="99"/>
-      <c r="D527" s="99"/>
+      <c r="B527" s="75"/>
+      <c r="C527" s="75"/>
+      <c r="D527" s="75"/>
       <c r="E527" s="4" t="s">
         <v>352</v>
       </c>
@@ -9144,13 +9151,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
-      <c r="A528" s="99" t="s">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A528" s="75" t="s">
         <v>464</v>
       </c>
-      <c r="B528" s="99"/>
-      <c r="C528" s="99"/>
-      <c r="D528" s="99"/>
+      <c r="B528" s="75"/>
+      <c r="C528" s="75"/>
+      <c r="D528" s="75"/>
       <c r="E528" s="4" t="s">
         <v>352</v>
       </c>
@@ -9159,43 +9166,43 @@
         <v>34</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
-      <c r="A529" s="99" t="s">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A529" s="75" t="s">
         <v>353</v>
       </c>
-      <c r="B529" s="99"/>
-      <c r="C529" s="99"/>
-      <c r="D529" s="99"/>
+      <c r="B529" s="75"/>
+      <c r="C529" s="75"/>
+      <c r="D529" s="75"/>
       <c r="E529" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F529" s="57">
         <f t="array" ref="F529">F516/F528</f>
-        <v>25736.608895271598</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6">
-      <c r="A530" s="99" t="s">
+        <v>25736.630990418664</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A530" s="75" t="s">
         <v>340</v>
       </c>
-      <c r="B530" s="99"/>
-      <c r="C530" s="99"/>
-      <c r="D530" s="99"/>
+      <c r="B530" s="75"/>
+      <c r="C530" s="75"/>
+      <c r="D530" s="75"/>
       <c r="E530" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F530" s="57">
         <f t="array" ref="F530">F516/F527</f>
-        <v>20349.876800912429</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6">
-      <c r="A531" s="99" t="s">
+        <v>20349.894271493828</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A531" s="75" t="s">
         <v>341</v>
       </c>
-      <c r="B531" s="99"/>
-      <c r="C531" s="99"/>
-      <c r="D531" s="99"/>
+      <c r="B531" s="75"/>
+      <c r="C531" s="75"/>
+      <c r="D531" s="75"/>
       <c r="E531" s="4" t="s">
         <v>62</v>
       </c>
@@ -9204,13 +9211,13 @@
         <v>4306.4618180219995</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
-      <c r="A532" s="99" t="s">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A532" s="75" t="s">
         <v>342</v>
       </c>
-      <c r="B532" s="99"/>
-      <c r="C532" s="99"/>
-      <c r="D532" s="99"/>
+      <c r="B532" s="75"/>
+      <c r="C532" s="75"/>
+      <c r="D532" s="75"/>
       <c r="E532" s="4" t="s">
         <v>62</v>
       </c>
@@ -9219,88 +9226,88 @@
         <v>615.20883114599997</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
-      <c r="A533" s="99" t="s">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A533" s="75" t="s">
         <v>343</v>
       </c>
-      <c r="B533" s="99"/>
-      <c r="C533" s="99"/>
-      <c r="D533" s="99"/>
+      <c r="B533" s="75"/>
+      <c r="C533" s="75"/>
+      <c r="D533" s="75"/>
       <c r="E533" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F533" s="57">
         <f t="array" ref="F533">C423</f>
-        <v>9.9815269713419461</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6">
-      <c r="A534" s="99" t="s">
+        <v>9.9815355405869166</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A534" s="75" t="s">
         <v>344</v>
       </c>
-      <c r="B534" s="99"/>
-      <c r="C534" s="99"/>
-      <c r="D534" s="99"/>
+      <c r="B534" s="75"/>
+      <c r="C534" s="75"/>
+      <c r="D534" s="75"/>
       <c r="E534" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F534" s="57">
         <f t="array" ref="F534">D488</f>
-        <v>67329.894258208646</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6">
-      <c r="A535" s="99" t="s">
+        <v>67329.951653795317</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A535" s="75" t="s">
         <v>345</v>
       </c>
-      <c r="B535" s="99"/>
-      <c r="C535" s="99"/>
-      <c r="D535" s="99"/>
+      <c r="B535" s="75"/>
+      <c r="C535" s="75"/>
+      <c r="D535" s="75"/>
       <c r="E535" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F535" s="57">
         <f t="array" ref="F535">D470</f>
-        <v>25.579491032806974</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6">
-      <c r="A536" s="99" t="s">
+        <v>25.581212282806973</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A536" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="B536" s="99"/>
-      <c r="C536" s="99"/>
-      <c r="D536" s="99"/>
+      <c r="B536" s="75"/>
+      <c r="C536" s="75"/>
+      <c r="D536" s="75"/>
       <c r="E536" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F536" s="57">
         <f t="array" ref="F536">E166</f>
-        <v>32174.681550510206</v>
-      </c>
-    </row>
-    <row r="537" spans="1:6">
-      <c r="A537" s="99" t="s">
+        <v>32176.931550510206</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A537" s="75" t="s">
         <v>347</v>
       </c>
-      <c r="B537" s="99"/>
-      <c r="C537" s="99"/>
-      <c r="D537" s="99"/>
+      <c r="B537" s="75"/>
+      <c r="C537" s="75"/>
+      <c r="D537" s="75"/>
       <c r="E537" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F537" s="57">
         <f t="array" ref="F537">E434</f>
-        <v>16087.340775255103</v>
-      </c>
-    </row>
-    <row r="538" spans="1:6">
-      <c r="A538" s="99" t="s">
+        <v>16088.465775255103</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A538" s="75" t="s">
         <v>348</v>
       </c>
-      <c r="B538" s="99"/>
-      <c r="C538" s="99"/>
-      <c r="D538" s="99"/>
+      <c r="B538" s="75"/>
+      <c r="C538" s="75"/>
+      <c r="D538" s="75"/>
       <c r="E538" s="4" t="s">
         <v>62</v>
       </c>
@@ -9309,13 +9316,13 @@
         <v>8121.5687279999984</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
-      <c r="A539" s="99" t="s">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A539" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="B539" s="99"/>
-      <c r="C539" s="99"/>
-      <c r="D539" s="99"/>
+      <c r="B539" s="75"/>
+      <c r="C539" s="75"/>
+      <c r="D539" s="75"/>
       <c r="E539" s="4" t="s">
         <v>62</v>
       </c>
@@ -9327,34 +9334,421 @@
   </sheetData>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
-      <selection activeCell="F217" sqref="F217:G217"/>
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
+      <selection activeCell="C359" sqref="C359"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
-      <selection activeCell="C359" sqref="C359"/>
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
+      <selection activeCell="F217" sqref="F217:G217"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="443">
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="C183:H183"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="H302:I302"/>
+    <mergeCell ref="H303:I303"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="H306:I306"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="I259:J259"/>
+    <mergeCell ref="I260:J260"/>
+    <mergeCell ref="I261:J261"/>
+    <mergeCell ref="I262:J262"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="M181:M208"/>
+    <mergeCell ref="B181:J181"/>
+    <mergeCell ref="B171:J171"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="F248:G248"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B137:I137"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A539:D539"/>
+    <mergeCell ref="A530:D530"/>
+    <mergeCell ref="A531:D531"/>
+    <mergeCell ref="A532:D532"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A534:D534"/>
+    <mergeCell ref="A535:D535"/>
+    <mergeCell ref="A536:D536"/>
+    <mergeCell ref="A537:D537"/>
+    <mergeCell ref="A538:D538"/>
+    <mergeCell ref="A524:D524"/>
+    <mergeCell ref="A525:D525"/>
+    <mergeCell ref="A526:D526"/>
+    <mergeCell ref="A527:D527"/>
+    <mergeCell ref="A528:D528"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A515:D515"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I266:J266"/>
+    <mergeCell ref="I263:J263"/>
+    <mergeCell ref="I265:J265"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="A520:D520"/>
+    <mergeCell ref="A521:D521"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A523:D523"/>
+    <mergeCell ref="B480:J480"/>
+    <mergeCell ref="B486:J486"/>
+    <mergeCell ref="B491:J491"/>
+    <mergeCell ref="B496:J496"/>
+    <mergeCell ref="B500:J500"/>
+    <mergeCell ref="B504:J504"/>
+    <mergeCell ref="B509:J509"/>
+    <mergeCell ref="A514:D514"/>
+    <mergeCell ref="A517:D517"/>
+    <mergeCell ref="A518:D518"/>
+    <mergeCell ref="A519:D519"/>
+    <mergeCell ref="B357:J357"/>
+    <mergeCell ref="B368:J368"/>
+    <mergeCell ref="B373:J373"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="H308:I308"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="H309:I309"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="B313:J313"/>
+    <mergeCell ref="B318:J318"/>
+    <mergeCell ref="B347:J347"/>
+    <mergeCell ref="B352:J352"/>
+    <mergeCell ref="B476:J476"/>
+    <mergeCell ref="A516:D516"/>
+    <mergeCell ref="B448:J448"/>
+    <mergeCell ref="B461:J461"/>
+    <mergeCell ref="B466:J466"/>
+    <mergeCell ref="B378:J378"/>
+    <mergeCell ref="B382:J382"/>
+    <mergeCell ref="B387:J387"/>
+    <mergeCell ref="B392:J392"/>
+    <mergeCell ref="B396:J396"/>
+    <mergeCell ref="B400:J400"/>
+    <mergeCell ref="B412:J412"/>
+    <mergeCell ref="B421:J421"/>
+    <mergeCell ref="A430:I430"/>
+    <mergeCell ref="B432:J432"/>
+    <mergeCell ref="B404:J404"/>
+    <mergeCell ref="B408:J408"/>
+    <mergeCell ref="B436:J436"/>
+    <mergeCell ref="B440:J440"/>
+    <mergeCell ref="B444:J444"/>
+    <mergeCell ref="B426:J426"/>
+    <mergeCell ref="B417:J417"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="B472:J472"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="F231:G231"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="H297:I297"/>
+    <mergeCell ref="G261:H261"/>
+    <mergeCell ref="I256:J256"/>
+    <mergeCell ref="I257:J257"/>
+    <mergeCell ref="I258:J258"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="F241:G241"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="B251:L251"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="B295:J295"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="G258:H258"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="G260:H260"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="L147:M148"/>
+    <mergeCell ref="N147:O148"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B145:I145"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="A147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:E148"/>
+    <mergeCell ref="H147:I148"/>
+    <mergeCell ref="J147:K148"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A169:J169"/>
+    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="C195:H195"/>
+    <mergeCell ref="C200:H201"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A222:I222"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="F234:G234"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="A125:B126"/>
+    <mergeCell ref="C125:C126"/>
     <mergeCell ref="A240:D240"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="A242:D242"/>
@@ -9379,409 +9773,22 @@
     <mergeCell ref="F243:G243"/>
     <mergeCell ref="B253:E253"/>
     <mergeCell ref="H248:I248"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="A125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="C195:H195"/>
-    <mergeCell ref="C200:H201"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A222:I222"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="F234:G234"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A169:J169"/>
-    <mergeCell ref="B173:E173"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="L147:M148"/>
-    <mergeCell ref="N147:O148"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B145:I145"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="A147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:E148"/>
-    <mergeCell ref="H147:I148"/>
-    <mergeCell ref="J147:K148"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B104:H104"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="F246:G246"/>
-    <mergeCell ref="F241:G241"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="B251:L251"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="B295:J295"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="G258:H258"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="G260:H260"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="B472:J472"/>
-    <mergeCell ref="B476:J476"/>
-    <mergeCell ref="A516:D516"/>
-    <mergeCell ref="B448:J448"/>
-    <mergeCell ref="B461:J461"/>
-    <mergeCell ref="B466:J466"/>
-    <mergeCell ref="B378:J378"/>
-    <mergeCell ref="B382:J382"/>
-    <mergeCell ref="B387:J387"/>
-    <mergeCell ref="B392:J392"/>
-    <mergeCell ref="B396:J396"/>
-    <mergeCell ref="B400:J400"/>
-    <mergeCell ref="B412:J412"/>
-    <mergeCell ref="B421:J421"/>
-    <mergeCell ref="A430:I430"/>
-    <mergeCell ref="B432:J432"/>
-    <mergeCell ref="B404:J404"/>
-    <mergeCell ref="B408:J408"/>
-    <mergeCell ref="B436:J436"/>
-    <mergeCell ref="B440:J440"/>
-    <mergeCell ref="B444:J444"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="F231:G231"/>
-    <mergeCell ref="F232:G232"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="H297:I297"/>
-    <mergeCell ref="G261:H261"/>
-    <mergeCell ref="I256:J256"/>
-    <mergeCell ref="I257:J257"/>
-    <mergeCell ref="I258:J258"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="B313:J313"/>
-    <mergeCell ref="B318:J318"/>
-    <mergeCell ref="B347:J347"/>
-    <mergeCell ref="B352:J352"/>
-    <mergeCell ref="B357:J357"/>
-    <mergeCell ref="B368:J368"/>
-    <mergeCell ref="B373:J373"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A520:D520"/>
-    <mergeCell ref="A521:D521"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A523:D523"/>
-    <mergeCell ref="B480:J480"/>
-    <mergeCell ref="B486:J486"/>
-    <mergeCell ref="B491:J491"/>
-    <mergeCell ref="B496:J496"/>
-    <mergeCell ref="B500:J500"/>
-    <mergeCell ref="B504:J504"/>
-    <mergeCell ref="B509:J509"/>
-    <mergeCell ref="A514:D514"/>
-    <mergeCell ref="A517:D517"/>
-    <mergeCell ref="A518:D518"/>
-    <mergeCell ref="A519:D519"/>
-    <mergeCell ref="B426:J426"/>
-    <mergeCell ref="B417:J417"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A539:D539"/>
-    <mergeCell ref="A530:D530"/>
-    <mergeCell ref="A531:D531"/>
-    <mergeCell ref="A532:D532"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A534:D534"/>
-    <mergeCell ref="A535:D535"/>
-    <mergeCell ref="A536:D536"/>
-    <mergeCell ref="A537:D537"/>
-    <mergeCell ref="A538:D538"/>
-    <mergeCell ref="A524:D524"/>
-    <mergeCell ref="A525:D525"/>
-    <mergeCell ref="A526:D526"/>
-    <mergeCell ref="A527:D527"/>
-    <mergeCell ref="A528:D528"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A515:D515"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I266:J266"/>
-    <mergeCell ref="I263:J263"/>
-    <mergeCell ref="I265:J265"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B137:I137"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="M181:M208"/>
-    <mergeCell ref="B181:J181"/>
-    <mergeCell ref="B171:J171"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="H308:I308"/>
-    <mergeCell ref="H307:I307"/>
-    <mergeCell ref="H309:I309"/>
-    <mergeCell ref="C183:H183"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="H300:I300"/>
-    <mergeCell ref="H301:I301"/>
-    <mergeCell ref="H302:I302"/>
-    <mergeCell ref="H303:I303"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="H306:I306"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="H246:I246"/>
-    <mergeCell ref="I259:J259"/>
-    <mergeCell ref="I260:J260"/>
-    <mergeCell ref="I261:J261"/>
-    <mergeCell ref="I262:J262"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A274:C274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId3"/>
@@ -9792,21 +9799,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9816,18 +9823,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/OPiUP_kursovoy_mine.xlsx
+++ b/OPiUP_kursovoy_mine.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSITY-9-Sem\Economics\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="18960" windowHeight="7935"/>
   </bookViews>
@@ -16,16 +11,16 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="Michael Pozhigan - Личное представление" guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
     <customWorkbookView name="Siarhei_Kutsankou - Личное представление" guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="670" activeSheetId="1"/>
-    <customWorkbookView name="Michael Pozhigan - Личное представление" guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="512">
   <si>
     <t>Нормы времени на технологический процесс, мин</t>
   </si>
@@ -1578,11 +1573,81 @@
   <si>
     <t>Ц п</t>
   </si>
+  <si>
+    <t>Категория рабочих</t>
+  </si>
+  <si>
+    <t>Кол-во рабо-чих</t>
+  </si>
+  <si>
+    <t>Разряд рабо-чих</t>
+  </si>
+  <si>
+    <t>Эф. фонд</t>
+  </si>
+  <si>
+    <t>Час. став-ка</t>
+  </si>
+  <si>
+    <t>Контролеры</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>167.2</t>
+  </si>
+  <si>
+    <t>Кладовщики</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Комплектовщики</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Уборщики</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Подсобные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма с учетом </t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>прем</t>
+    </r>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>Рзc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1591,7 +1656,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1658,8 +1723,16 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1672,8 +1745,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2062,12 +2147,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2214,35 +2323,211 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2255,9 +2540,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2268,189 +2550,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2466,9 +2605,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2506,9 +2645,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2540,10 +2679,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2575,10 +2713,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2751,14 +2888,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V539"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D322" sqref="D322"/>
+    <sheetView tabSelected="1" topLeftCell="A378" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E420" sqref="E420"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
@@ -2785,18 +2922,18 @@
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
@@ -2807,7 +2944,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2851,7 +2988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="19.5" thickBot="1">
       <c r="A3" s="60">
         <v>1.55</v>
       </c>
@@ -2892,19 +3029,19 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:22">
+      <c r="A5" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-    </row>
-    <row r="6" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+    </row>
+    <row r="6" spans="1:22" ht="19.5" thickBot="1">
       <c r="L6" s="2" t="s">
         <v>57</v>
       </c>
@@ -2936,7 +3073,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="19.5" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2973,7 +3110,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="19.5" thickBot="1">
       <c r="L8" s="2" t="s">
         <v>476</v>
       </c>
@@ -3007,7 +3144,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="19.5" thickBot="1">
       <c r="L9" s="2" t="s">
         <v>478</v>
       </c>
@@ -3041,7 +3178,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="20.25" thickTop="1" thickBot="1">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -3085,7 +3222,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="19.5" thickBot="1">
       <c r="L11" s="2" t="s">
         <v>375</v>
       </c>
@@ -3119,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="32.25" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -3140,7 +3277,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="19.5" thickTop="1">
       <c r="P13" s="2">
         <f>SUM(P7:P12)</f>
         <v>0.85136000000000001</v>
@@ -3162,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="R14" s="2" t="s">
         <v>61</v>
       </c>
@@ -3180,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -3208,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="E16" s="2" t="s">
         <v>407</v>
       </c>
@@ -3229,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3260,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22">
       <c r="R18" s="2" t="s">
         <v>377</v>
       </c>
@@ -3278,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22">
       <c r="A19" s="2" t="s">
         <v>405</v>
       </c>
@@ -3309,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22">
       <c r="R20" s="2" t="s">
         <v>379</v>
       </c>
@@ -3327,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
       <c r="R21" s="2" t="s">
         <v>380</v>
       </c>
@@ -3345,17 +3482,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="79" t="s">
+    <row r="22" spans="1:22">
+      <c r="A22" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
       <c r="R22" s="2" t="s">
         <v>381</v>
       </c>
@@ -3373,27 +3510,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83" t="s">
+    <row r="23" spans="1:22" ht="45" customHeight="1">
+      <c r="A23" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="85" t="s">
+      <c r="G23" s="76"/>
+      <c r="H23" s="149" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -3413,35 +3550,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
+    <row r="24" spans="1:22" ht="15" customHeight="1">
+      <c r="A24" s="148"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
       <c r="F24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="86"/>
-      <c r="K24" s="104" t="s">
+      <c r="H24" s="150"/>
+      <c r="K24" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="103" t="s">
+      <c r="L24" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="103" t="s">
+      <c r="M24" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="N24" s="103" t="s">
+      <c r="N24" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="103" t="s">
+      <c r="O24" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="104"/>
+      <c r="P24" s="131"/>
       <c r="R24" s="2" t="s">
         <v>383</v>
       </c>
@@ -3459,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -3489,18 +3626,18 @@
         <f>F25/G25</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K25" s="104"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
       <c r="V25" s="2">
         <f>SUM(V7:V24)</f>
         <v>31.3</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -3530,10 +3667,10 @@
         <f t="array" ref="H26">F26/G26</f>
         <v>0.97411475243506507</v>
       </c>
-      <c r="K26" s="105">
+      <c r="K26" s="132">
         <v>1</v>
       </c>
-      <c r="L26" s="105">
+      <c r="L26" s="132">
         <v>2</v>
       </c>
       <c r="M26" s="64">
@@ -3543,12 +3680,12 @@
         <f t="array" ref="N26">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O26" s="104" t="s">
+      <c r="O26" s="131" t="s">
         <v>398</v>
       </c>
-      <c r="P26" s="104"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P26" s="131"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -3578,8 +3715,8 @@
         <f t="array" ref="H27">F27/G27</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
       <c r="M27" s="64">
         <v>2</v>
       </c>
@@ -3587,12 +3724,12 @@
         <f t="array" ref="N27">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O27" s="104" t="s">
+      <c r="O27" s="131" t="s">
         <v>399</v>
       </c>
-      <c r="P27" s="104"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P27" s="131"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="4">
         <v>4</v>
       </c>
@@ -3635,12 +3772,12 @@
         <f t="array" ref="N28">$C$46/L28</f>
         <v>12</v>
       </c>
-      <c r="O28" s="104" t="s">
+      <c r="O28" s="131" t="s">
         <v>400</v>
       </c>
-      <c r="P28" s="104"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P28" s="131"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="4">
         <v>5</v>
       </c>
@@ -3683,12 +3820,12 @@
         <f t="array" ref="N29">$C$46/L29</f>
         <v>12</v>
       </c>
-      <c r="O29" s="104" t="s">
+      <c r="O29" s="131" t="s">
         <v>400</v>
       </c>
-      <c r="P29" s="104"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P29" s="131"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="4">
         <v>6</v>
       </c>
@@ -3718,10 +3855,10 @@
         <f t="array" ref="H30">F30/G30</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K30" s="105">
+      <c r="K30" s="132">
         <v>4</v>
       </c>
-      <c r="L30" s="105">
+      <c r="L30" s="132">
         <v>3</v>
       </c>
       <c r="M30" s="65">
@@ -3731,12 +3868,12 @@
         <f>$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O30" s="107">
+      <c r="O30" s="142">
         <v>1.4</v>
       </c>
-      <c r="P30" s="107"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P30" s="142"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="4">
         <v>7</v>
       </c>
@@ -3766,8 +3903,8 @@
         <f t="array" ref="H31">F31/G31</f>
         <v>0.97567833951762528</v>
       </c>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="143"/>
       <c r="M31" s="64">
         <v>6</v>
       </c>
@@ -3775,12 +3912,12 @@
         <f t="array" ref="N31">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O31" s="104">
+      <c r="O31" s="131">
         <v>2.5</v>
       </c>
-      <c r="P31" s="104"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P31" s="131"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="4">
         <v>8</v>
       </c>
@@ -3810,8 +3947,8 @@
         <f t="array" ref="H32">F32/G32</f>
         <v>1.031967474489796</v>
       </c>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
       <c r="M32" s="64">
         <v>7</v>
       </c>
@@ -3819,12 +3956,12 @@
         <f t="array" ref="N32">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O32" s="104">
+      <c r="O32" s="131">
         <v>3.6</v>
       </c>
-      <c r="P32" s="104"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P32" s="131"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="4">
         <v>9</v>
       </c>
@@ -3867,12 +4004,12 @@
         <f t="array" ref="N33">$C$46/L33</f>
         <v>12</v>
       </c>
-      <c r="O33" s="104" t="s">
+      <c r="O33" s="131" t="s">
         <v>400</v>
       </c>
-      <c r="P33" s="104"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P33" s="131"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -3905,16 +4042,16 @@
         <f t="array" ref="N34">$C$46/L34</f>
         <v>12</v>
       </c>
-      <c r="O34" s="104" t="s">
+      <c r="O34" s="131" t="s">
         <v>400</v>
       </c>
-      <c r="P34" s="104"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K35" s="105">
+      <c r="P34" s="131"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="K35" s="132">
         <v>7</v>
       </c>
-      <c r="L35" s="105">
+      <c r="L35" s="132">
         <v>2</v>
       </c>
       <c r="M35" s="64">
@@ -3924,17 +4061,17 @@
         <f t="array" ref="N35">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O35" s="104" t="s">
+      <c r="O35" s="131" t="s">
         <v>398</v>
       </c>
-      <c r="P35" s="104"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P35" s="131"/>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="133"/>
       <c r="M36" s="64">
         <v>11</v>
       </c>
@@ -3942,16 +4079,16 @@
         <f t="array" ref="N36">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O36" s="104" t="s">
+      <c r="O36" s="131" t="s">
         <v>399</v>
       </c>
-      <c r="P36" s="104"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K37" s="105">
+      <c r="P36" s="131"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="K37" s="132">
         <v>8</v>
       </c>
-      <c r="L37" s="105">
+      <c r="L37" s="132">
         <v>2</v>
       </c>
       <c r="M37" s="64">
@@ -3961,12 +4098,12 @@
         <f t="array" ref="N37">$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O37" s="104" t="s">
+      <c r="O37" s="131" t="s">
         <v>398</v>
       </c>
-      <c r="P37" s="104"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P37" s="131"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
@@ -3974,8 +4111,8 @@
         <f>F34/G34</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
       <c r="M38" s="64">
         <v>13</v>
       </c>
@@ -3983,12 +4120,12 @@
         <f>$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O38" s="104" t="s">
+      <c r="O38" s="131" t="s">
         <v>399</v>
       </c>
-      <c r="P38" s="104"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P38" s="131"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="K39" s="64">
         <v>9</v>
       </c>
@@ -4002,17 +4139,17 @@
         <f>$C$46/L39</f>
         <v>12</v>
       </c>
-      <c r="O39" s="104" t="s">
+      <c r="O39" s="131" t="s">
         <v>400</v>
       </c>
-      <c r="P39" s="104"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P39" s="131"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="B42" s="2" t="s">
         <v>25</v>
       </c>
@@ -4030,12 +4167,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="B46" s="2" t="s">
         <v>29</v>
       </c>
@@ -4044,12 +4181,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="B50" s="2" t="s">
         <v>31</v>
       </c>
@@ -4061,12 +4198,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="B54" s="2" t="s">
         <v>33</v>
       </c>
@@ -4087,7 +4224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="B55" s="2" t="s">
         <v>88</v>
       </c>
@@ -4099,7 +4236,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
@@ -4114,12 +4251,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="B61" s="2" t="s">
         <v>38</v>
       </c>
@@ -4135,12 +4272,12 @@
         <v>24.782757821552721</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="B65" s="2" t="s">
         <v>40</v>
       </c>
@@ -4152,12 +4289,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="B69" s="2" t="s">
         <v>42</v>
       </c>
@@ -4169,12 +4306,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="B73" s="2" t="s">
         <v>44</v>
       </c>
@@ -4197,12 +4334,12 @@
         <v>294.20454545454544</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="B77" s="2" t="s">
         <v>46</v>
       </c>
@@ -4218,12 +4355,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="B81" s="2" t="s">
         <v>48</v>
       </c>
@@ -4235,18 +4372,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="B85" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C85" s="12">
         <f>E77*0.85*H239</f>
-        <v>1232.2883383440637</v>
+        <v>1228.1985579281566</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>62</v>
@@ -4255,12 +4392,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="B89" s="2" t="s">
         <v>64</v>
       </c>
@@ -4272,12 +4409,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="B93" s="2" t="s">
         <v>67</v>
       </c>
@@ -4298,12 +4435,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="B97" s="2" t="s">
         <v>72</v>
       </c>
@@ -4315,7 +4452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="B99" s="2" t="s">
         <v>73</v>
       </c>
@@ -4336,75 +4473,75 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" s="79" t="s">
+    <row r="102" spans="1:13">
+      <c r="A102" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B102" s="79"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="79"/>
-      <c r="H102" s="79"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B104" s="119" t="s">
+      <c r="B102" s="72"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="B104" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="119"/>
-      <c r="D104" s="119"/>
-      <c r="E104" s="119"/>
-      <c r="F104" s="119"/>
-      <c r="G104" s="119"/>
-      <c r="H104" s="119"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="105"/>
+      <c r="G104" s="105"/>
+      <c r="H104" s="105"/>
       <c r="J104" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="82" t="s">
+    <row r="106" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A106" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="82"/>
+      <c r="B106" s="102"/>
       <c r="C106" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="82" t="s">
+      <c r="D106" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82" t="s">
+      <c r="E106" s="102"/>
+      <c r="F106" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="G106" s="82"/>
-      <c r="H106" s="82" t="s">
+      <c r="G106" s="102"/>
+      <c r="H106" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="I106" s="82"/>
-      <c r="J106" s="82" t="s">
+      <c r="I106" s="102"/>
+      <c r="J106" s="102" t="s">
         <v>459</v>
       </c>
-      <c r="K106" s="82"/>
-    </row>
-    <row r="107" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="87"/>
-      <c r="B107" s="87"/>
+      <c r="K106" s="102"/>
+    </row>
+    <row r="107" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A107" s="92"/>
+      <c r="B107" s="92"/>
       <c r="C107" s="46"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="118"/>
-      <c r="G107" s="118"/>
-      <c r="H107" s="118"/>
-      <c r="I107" s="118"/>
-      <c r="J107" s="118"/>
-      <c r="K107" s="118"/>
-    </row>
-    <row r="108" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="101" t="s">
+      <c r="F107" s="114"/>
+      <c r="G107" s="114"/>
+      <c r="H107" s="114"/>
+      <c r="I107" s="114"/>
+      <c r="J107" s="114"/>
+      <c r="K107" s="114"/>
+    </row>
+    <row r="108" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A108" s="91" t="s">
         <v>469</v>
       </c>
-      <c r="B108" s="101"/>
+      <c r="B108" s="91"/>
       <c r="C108" s="47" t="s">
         <v>471</v>
       </c>
@@ -4414,25 +4551,25 @@
       <c r="E108" s="1">
         <v>700</v>
       </c>
-      <c r="F108" s="118">
+      <c r="F108" s="114">
         <v>1</v>
       </c>
-      <c r="G108" s="118"/>
-      <c r="H108" s="118">
+      <c r="G108" s="114"/>
+      <c r="H108" s="114">
         <v>4</v>
       </c>
-      <c r="I108" s="118"/>
-      <c r="J108" s="118">
+      <c r="I108" s="114"/>
+      <c r="J108" s="114">
         <f>D108*E108*F108*H108/1000000</f>
         <v>3.36</v>
       </c>
-      <c r="K108" s="118"/>
-    </row>
-    <row r="109" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="101" t="s">
+      <c r="K108" s="114"/>
+    </row>
+    <row r="109" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
+      <c r="A109" s="91" t="s">
         <v>470</v>
       </c>
-      <c r="B109" s="101"/>
+      <c r="B109" s="91"/>
       <c r="C109" s="15"/>
       <c r="D109" s="63">
         <v>23970</v>
@@ -4440,21 +4577,21 @@
       <c r="E109" s="1">
         <v>600</v>
       </c>
-      <c r="F109" s="118">
+      <c r="F109" s="114">
         <v>1</v>
       </c>
-      <c r="G109" s="118"/>
-      <c r="H109" s="135">
+      <c r="G109" s="114"/>
+      <c r="H109" s="115">
         <v>2.5</v>
       </c>
-      <c r="I109" s="135"/>
-      <c r="J109" s="118">
+      <c r="I109" s="115"/>
+      <c r="J109" s="114">
         <f>D109*E109*F109*H109/1000000</f>
         <v>35.954999999999998</v>
       </c>
-      <c r="K109" s="118"/>
-    </row>
-    <row r="110" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K109" s="114"/>
+    </row>
+    <row r="110" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
       <c r="A110" s="45" t="s">
         <v>468</v>
       </c>
@@ -4476,52 +4613,52 @@
         <v>4</v>
       </c>
       <c r="I110" s="63"/>
-      <c r="J110" s="131">
+      <c r="J110" s="73">
         <f>D110*E110*F110*H110/1000000</f>
         <v>53.76</v>
       </c>
-      <c r="K110" s="132"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111" s="101"/>
-      <c r="B111" s="101"/>
+      <c r="K110" s="74"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="91"/>
+      <c r="B111" s="91"/>
       <c r="C111" s="15"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="118"/>
-      <c r="G111" s="118"/>
-      <c r="H111" s="136"/>
-      <c r="I111" s="136"/>
-      <c r="J111" s="118">
+      <c r="F111" s="114"/>
+      <c r="G111" s="114"/>
+      <c r="H111" s="116"/>
+      <c r="I111" s="116"/>
+      <c r="J111" s="114">
         <f>D111*E111*F111*H111/1000000</f>
         <v>0</v>
       </c>
-      <c r="K111" s="118"/>
-    </row>
-    <row r="112" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="88" t="s">
+      <c r="K111" s="114"/>
+    </row>
+    <row r="112" spans="1:13" s="17" customFormat="1">
+      <c r="A112" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="89"/>
+      <c r="B112" s="152"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
-      <c r="F112" s="117">
+      <c r="F112" s="130">
         <v>18</v>
       </c>
-      <c r="G112" s="117"/>
-      <c r="H112" s="117"/>
-      <c r="I112" s="117"/>
-      <c r="J112" s="117">
+      <c r="G112" s="130"/>
+      <c r="H112" s="130"/>
+      <c r="I112" s="130"/>
+      <c r="J112" s="130">
         <f t="array" ref="J112">SUM(J108:J111)</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="K112" s="117"/>
+      <c r="K112" s="130"/>
       <c r="M112" s="17" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
       <c r="C113" s="16"/>
@@ -4534,112 +4671,112 @@
       <c r="J113" s="16"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12">
       <c r="L114" s="8"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B115" s="119" t="s">
+    <row r="115" spans="1:12">
+      <c r="B115" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="119"/>
-      <c r="D115" s="119"/>
-      <c r="E115" s="119"/>
-      <c r="F115" s="119"/>
-      <c r="G115" s="119"/>
-      <c r="H115" s="119"/>
-    </row>
-    <row r="117" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="82" t="s">
+      <c r="C115" s="105"/>
+      <c r="D115" s="105"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="105"/>
+      <c r="G115" s="105"/>
+      <c r="H115" s="105"/>
+    </row>
+    <row r="117" spans="1:12" ht="30.75" customHeight="1">
+      <c r="A117" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="B117" s="82"/>
-      <c r="C117" s="82" t="s">
+      <c r="B117" s="102"/>
+      <c r="C117" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="D117" s="82"/>
-      <c r="E117" s="82" t="s">
+      <c r="D117" s="102"/>
+      <c r="E117" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="F117" s="82"/>
+      <c r="F117" s="102"/>
       <c r="L117" s="16"/>
     </row>
-    <row r="118" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="82" t="s">
+    <row r="118" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A118" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="82"/>
-      <c r="C118" s="82" t="s">
+      <c r="B118" s="102"/>
+      <c r="C118" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="D118" s="82"/>
-      <c r="E118" s="73">
+      <c r="D118" s="102"/>
+      <c r="E118" s="75">
         <f>J112</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="F118" s="74"/>
-    </row>
-    <row r="119" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="82" t="s">
+      <c r="F118" s="76"/>
+    </row>
+    <row r="119" spans="1:12" ht="30" customHeight="1">
+      <c r="A119" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="82"/>
-      <c r="C119" s="82" t="s">
+      <c r="B119" s="102"/>
+      <c r="C119" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="D119" s="82"/>
-      <c r="E119" s="73">
+      <c r="D119" s="102"/>
+      <c r="E119" s="75">
         <f t="array" ref="E119">0.3*E118</f>
         <v>27.922499999999996</v>
       </c>
-      <c r="F119" s="74"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="90" t="s">
+      <c r="F119" s="76"/>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="82"/>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="73">
+      <c r="B120" s="102"/>
+      <c r="C120" s="102"/>
+      <c r="D120" s="102"/>
+      <c r="E120" s="75">
         <f t="array" ref="E120">SUM(E118:F119)</f>
         <v>120.99749999999999</v>
       </c>
-      <c r="F120" s="74"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="116" t="s">
+      <c r="F120" s="76"/>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="B123" s="79"/>
-      <c r="C123" s="79"/>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="79"/>
-      <c r="I123" s="79"/>
-    </row>
-    <row r="125" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="82" t="s">
+      <c r="B123" s="72"/>
+      <c r="C123" s="72"/>
+      <c r="D123" s="72"/>
+      <c r="E123" s="72"/>
+      <c r="F123" s="72"/>
+      <c r="G123" s="72"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="72"/>
+    </row>
+    <row r="125" spans="1:12" ht="32.25" customHeight="1">
+      <c r="A125" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="B125" s="82"/>
-      <c r="C125" s="82" t="s">
+      <c r="B125" s="102"/>
+      <c r="C125" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="D125" s="82" t="s">
+      <c r="D125" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="E125" s="82" t="s">
+      <c r="E125" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="F125" s="82"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="82"/>
-      <c r="B126" s="82"/>
-      <c r="C126" s="82"/>
-      <c r="D126" s="82"/>
+      <c r="F125" s="102"/>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="102"/>
+      <c r="B126" s="102"/>
+      <c r="C126" s="102"/>
+      <c r="D126" s="102"/>
       <c r="E126" s="1" t="s">
         <v>108</v>
       </c>
@@ -4647,11 +4784,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="72" t="s">
+    <row r="127" spans="1:12">
+      <c r="A127" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="B127" s="72"/>
+      <c r="B127" s="112"/>
       <c r="C127" s="15" t="s">
         <v>356</v>
       </c>
@@ -4667,11 +4804,11 @@
         <v>1.6183011224489796</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="72" t="s">
+    <row r="128" spans="1:12">
+      <c r="A128" s="112" t="s">
         <v>401</v>
       </c>
-      <c r="B128" s="72"/>
+      <c r="B128" s="112"/>
       <c r="C128" s="15" t="s">
         <v>402</v>
       </c>
@@ -4686,11 +4823,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="91" t="s">
+    <row r="129" spans="1:12">
+      <c r="A129" s="120" t="s">
         <v>403</v>
       </c>
-      <c r="B129" s="92"/>
+      <c r="B129" s="122"/>
       <c r="C129" s="15" t="s">
         <v>404</v>
       </c>
@@ -4705,11 +4842,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="93" t="s">
+    <row r="130" spans="1:12">
+      <c r="A130" s="154" t="s">
         <v>425</v>
       </c>
-      <c r="B130" s="94"/>
+      <c r="B130" s="155"/>
       <c r="C130" s="15" t="s">
         <v>426</v>
       </c>
@@ -4724,11 +4861,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="93" t="s">
+    <row r="131" spans="1:12">
+      <c r="A131" s="154" t="s">
         <v>423</v>
       </c>
-      <c r="B131" s="94"/>
+      <c r="B131" s="155"/>
       <c r="C131" s="15" t="s">
         <v>424</v>
       </c>
@@ -4743,11 +4880,11 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="95" t="s">
+    <row r="132" spans="1:12">
+      <c r="A132" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="96"/>
+      <c r="B132" s="156"/>
       <c r="C132" s="4"/>
       <c r="D132" s="20">
         <f>SUM(D127:D131)</f>
@@ -4759,220 +4896,220 @@
         <v>1.6683011224489797</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="79" t="s">
+    <row r="135" spans="1:12">
+      <c r="A135" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B135" s="79"/>
-      <c r="C135" s="79"/>
-      <c r="D135" s="79"/>
-      <c r="E135" s="79"/>
-      <c r="F135" s="79"/>
-      <c r="G135" s="79"/>
-      <c r="H135" s="79"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B137" s="79" t="s">
+      <c r="B135" s="72"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="72"/>
+      <c r="G135" s="72"/>
+      <c r="H135" s="72"/>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="B137" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C137" s="79"/>
-      <c r="D137" s="79"/>
-      <c r="E137" s="79"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="79"/>
-      <c r="H137" s="79"/>
-      <c r="I137" s="79"/>
-    </row>
-    <row r="139" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="82" t="s">
+      <c r="C137" s="72"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="72"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="72"/>
+      <c r="H137" s="72"/>
+      <c r="I137" s="72"/>
+    </row>
+    <row r="139" spans="1:12" ht="45" customHeight="1">
+      <c r="A139" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="B139" s="82"/>
-      <c r="C139" s="82" t="s">
+      <c r="B139" s="102"/>
+      <c r="C139" s="102" t="s">
         <v>461</v>
       </c>
-      <c r="D139" s="82"/>
-      <c r="E139" s="82" t="s">
+      <c r="D139" s="102"/>
+      <c r="E139" s="102" t="s">
         <v>462</v>
       </c>
-      <c r="F139" s="82"/>
-      <c r="G139" s="82" t="s">
+      <c r="F139" s="102"/>
+      <c r="G139" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="H139" s="82"/>
-      <c r="I139" s="82" t="s">
+      <c r="H139" s="102"/>
+      <c r="I139" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="J139" s="82"/>
-      <c r="K139" s="82" t="s">
+      <c r="J139" s="102"/>
+      <c r="K139" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="L139" s="82"/>
-    </row>
-    <row r="140" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="101" t="s">
+      <c r="L139" s="102"/>
+    </row>
+    <row r="140" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A140" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="B140" s="101"/>
-      <c r="C140" s="87">
+      <c r="B140" s="91"/>
+      <c r="C140" s="92">
         <v>170</v>
       </c>
-      <c r="D140" s="87"/>
-      <c r="E140" s="98">
+      <c r="D140" s="92"/>
+      <c r="E140" s="93">
         <f t="array" ref="E140">E118</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="F140" s="99"/>
-      <c r="G140" s="98">
+      <c r="F140" s="94"/>
+      <c r="G140" s="93">
         <f t="array" ref="G140">C140*E140</f>
         <v>15822.749999999998</v>
       </c>
-      <c r="H140" s="99"/>
-      <c r="I140" s="98">
+      <c r="H140" s="94"/>
+      <c r="I140" s="93">
         <v>2.7</v>
       </c>
-      <c r="J140" s="99"/>
-      <c r="K140" s="98">
+      <c r="J140" s="94"/>
+      <c r="K140" s="93">
         <f>G140*I140/(100)</f>
         <v>427.21424999999994</v>
       </c>
-      <c r="L140" s="99"/>
-    </row>
-    <row r="141" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="101" t="s">
+      <c r="L140" s="94"/>
+    </row>
+    <row r="141" spans="1:12" ht="30" customHeight="1">
+      <c r="A141" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B141" s="101"/>
-      <c r="C141" s="87">
+      <c r="B141" s="91"/>
+      <c r="C141" s="92">
         <v>250</v>
       </c>
-      <c r="D141" s="87"/>
-      <c r="E141" s="98">
+      <c r="D141" s="92"/>
+      <c r="E141" s="93">
         <f t="array" ref="E141">E119</f>
         <v>27.922499999999996</v>
       </c>
-      <c r="F141" s="99"/>
-      <c r="G141" s="98">
+      <c r="F141" s="94"/>
+      <c r="G141" s="93">
         <f t="array" ref="G141">C141*E141</f>
         <v>6980.6249999999991</v>
       </c>
-      <c r="H141" s="99"/>
-      <c r="I141" s="98">
+      <c r="H141" s="94"/>
+      <c r="I141" s="93">
         <v>3.1</v>
       </c>
-      <c r="J141" s="99"/>
-      <c r="K141" s="98">
+      <c r="J141" s="94"/>
+      <c r="K141" s="93">
         <f>G141*I141/(100)</f>
         <v>216.39937499999996</v>
       </c>
-      <c r="L141" s="99"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="115" t="s">
+      <c r="L141" s="94"/>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="B142" s="87"/>
-      <c r="C142" s="73"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="137">
+      <c r="B142" s="92"/>
+      <c r="C142" s="75"/>
+      <c r="D142" s="76"/>
+      <c r="E142" s="95">
         <f t="array" ref="E142">SUM(E140:E141)</f>
         <v>120.99749999999999</v>
       </c>
-      <c r="F142" s="138"/>
-      <c r="G142" s="139">
+      <c r="F142" s="96"/>
+      <c r="G142" s="108">
         <f>SUM(G140:G141)</f>
         <v>22803.374999999996</v>
       </c>
-      <c r="H142" s="140"/>
+      <c r="H142" s="109"/>
       <c r="I142" s="22"/>
       <c r="J142" s="23"/>
-      <c r="K142" s="137">
+      <c r="K142" s="95">
         <f t="array" ref="K142">SUM(K140:K141)</f>
         <v>643.61362499999996</v>
       </c>
-      <c r="L142" s="138"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B145" s="79" t="s">
+      <c r="L142" s="96"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="B145" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="C145" s="79"/>
-      <c r="D145" s="79"/>
-      <c r="E145" s="79"/>
-      <c r="F145" s="79"/>
-      <c r="G145" s="79"/>
-      <c r="H145" s="79"/>
-      <c r="I145" s="79"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="72"/>
+      <c r="H145" s="72"/>
+      <c r="I145" s="72"/>
       <c r="K145" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="82" t="s">
+    <row r="147" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A147" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="B147" s="82"/>
-      <c r="C147" s="82" t="s">
+      <c r="B147" s="102"/>
+      <c r="C147" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="D147" s="82" t="s">
+      <c r="D147" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="E147" s="82"/>
-      <c r="F147" s="82" t="s">
+      <c r="E147" s="102"/>
+      <c r="F147" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="G147" s="82"/>
-      <c r="H147" s="111" t="s">
+      <c r="G147" s="102"/>
+      <c r="H147" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="I147" s="112"/>
-      <c r="J147" s="82" t="s">
+      <c r="I147" s="136"/>
+      <c r="J147" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="K147" s="82"/>
-      <c r="L147" s="111" t="s">
+      <c r="K147" s="102"/>
+      <c r="L147" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="M147" s="112"/>
-      <c r="N147" s="82" t="s">
+      <c r="M147" s="136"/>
+      <c r="N147" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="O147" s="82"/>
-    </row>
-    <row r="148" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A148" s="82"/>
-      <c r="B148" s="82"/>
-      <c r="C148" s="82"/>
-      <c r="D148" s="82"/>
-      <c r="E148" s="82"/>
+      <c r="O147" s="102"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="102"/>
+      <c r="B148" s="102"/>
+      <c r="C148" s="102"/>
+      <c r="D148" s="102"/>
+      <c r="E148" s="102"/>
       <c r="F148" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G148" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H148" s="113"/>
-      <c r="I148" s="114"/>
-      <c r="J148" s="82"/>
-      <c r="K148" s="82"/>
-      <c r="L148" s="113"/>
-      <c r="M148" s="114"/>
-      <c r="N148" s="82"/>
-      <c r="O148" s="82"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A149" s="87" t="s">
+      <c r="H148" s="137"/>
+      <c r="I148" s="138"/>
+      <c r="J148" s="102"/>
+      <c r="K148" s="102"/>
+      <c r="L148" s="137"/>
+      <c r="M148" s="138"/>
+      <c r="N148" s="102"/>
+      <c r="O148" s="102"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="92" t="s">
         <v>472</v>
       </c>
-      <c r="B149" s="87"/>
+      <c r="B149" s="92"/>
       <c r="C149" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="D149" s="87">
+      <c r="D149" s="92">
         <v>16</v>
       </c>
-      <c r="E149" s="87"/>
+      <c r="E149" s="92"/>
       <c r="F149" s="14">
         <v>360</v>
       </c>
@@ -4980,38 +5117,38 @@
         <f>D149*F149</f>
         <v>5760</v>
       </c>
-      <c r="H149" s="133">
+      <c r="H149" s="89">
         <f>0.1*G149</f>
         <v>576</v>
       </c>
-      <c r="I149" s="134"/>
-      <c r="J149" s="133">
+      <c r="I149" s="90"/>
+      <c r="J149" s="89">
         <f>G149+H149</f>
         <v>6336</v>
       </c>
-      <c r="K149" s="134"/>
-      <c r="L149" s="133">
+      <c r="K149" s="90"/>
+      <c r="L149" s="89">
         <v>7.7</v>
       </c>
-      <c r="M149" s="134"/>
-      <c r="N149" s="153">
+      <c r="M149" s="90"/>
+      <c r="N149" s="87">
         <f>L149*J149/(100)</f>
         <v>487.87200000000007</v>
       </c>
-      <c r="O149" s="154"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A150" s="101" t="s">
+      <c r="O149" s="88"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="91" t="s">
         <v>473</v>
       </c>
-      <c r="B150" s="101"/>
+      <c r="B150" s="91"/>
       <c r="C150" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D150" s="87">
+      <c r="D150" s="92">
         <v>1</v>
       </c>
-      <c r="E150" s="87"/>
+      <c r="E150" s="92"/>
       <c r="F150" s="14">
         <v>360</v>
       </c>
@@ -5019,38 +5156,38 @@
         <f>D150*F150</f>
         <v>360</v>
       </c>
-      <c r="H150" s="133">
+      <c r="H150" s="89">
         <f>0.1*G150</f>
         <v>36</v>
       </c>
-      <c r="I150" s="134"/>
-      <c r="J150" s="133">
+      <c r="I150" s="90"/>
+      <c r="J150" s="89">
         <f>G150+H150</f>
         <v>396</v>
       </c>
-      <c r="K150" s="134"/>
-      <c r="L150" s="133">
+      <c r="K150" s="90"/>
+      <c r="L150" s="89">
         <v>7.7</v>
       </c>
-      <c r="M150" s="134"/>
-      <c r="N150" s="153">
+      <c r="M150" s="90"/>
+      <c r="N150" s="87">
         <f>L150*J150/(100)</f>
         <v>30.492000000000004</v>
       </c>
-      <c r="O150" s="154"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A151" s="101" t="s">
+      <c r="O150" s="88"/>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="91" t="s">
         <v>420</v>
       </c>
-      <c r="B151" s="101"/>
+      <c r="B151" s="91"/>
       <c r="C151" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D151" s="87">
+      <c r="D151" s="92">
         <v>0</v>
       </c>
-      <c r="E151" s="87"/>
+      <c r="E151" s="92"/>
       <c r="F151" s="14">
         <v>0</v>
       </c>
@@ -5058,38 +5195,38 @@
         <f>D151*F151</f>
         <v>0</v>
       </c>
-      <c r="H151" s="133">
+      <c r="H151" s="89">
         <f>0.1*G151</f>
         <v>0</v>
       </c>
-      <c r="I151" s="134"/>
-      <c r="J151" s="133">
+      <c r="I151" s="90"/>
+      <c r="J151" s="89">
         <f>G151+H151</f>
         <v>0</v>
       </c>
-      <c r="K151" s="134"/>
-      <c r="L151" s="133">
+      <c r="K151" s="90"/>
+      <c r="L151" s="89">
         <v>0</v>
       </c>
-      <c r="M151" s="134"/>
-      <c r="N151" s="153">
+      <c r="M151" s="90"/>
+      <c r="N151" s="87">
         <f>L151*J151/(100)</f>
         <v>0</v>
       </c>
-      <c r="O151" s="154"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A152" s="101" t="s">
+      <c r="O151" s="88"/>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="91" t="s">
         <v>420</v>
       </c>
-      <c r="B152" s="101"/>
+      <c r="B152" s="91"/>
       <c r="C152" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D152" s="87">
+      <c r="D152" s="92">
         <v>0</v>
       </c>
-      <c r="E152" s="87"/>
+      <c r="E152" s="92"/>
       <c r="F152" s="14">
         <v>0</v>
       </c>
@@ -5097,38 +5234,38 @@
         <f>D152*F152</f>
         <v>0</v>
       </c>
-      <c r="H152" s="133">
+      <c r="H152" s="89">
         <f>0.1*G152</f>
         <v>0</v>
       </c>
-      <c r="I152" s="134"/>
-      <c r="J152" s="133">
+      <c r="I152" s="90"/>
+      <c r="J152" s="89">
         <f>G152+H152</f>
         <v>0</v>
       </c>
-      <c r="K152" s="134"/>
-      <c r="L152" s="133">
+      <c r="K152" s="90"/>
+      <c r="L152" s="89">
         <v>0</v>
       </c>
-      <c r="M152" s="134"/>
-      <c r="N152" s="153">
+      <c r="M152" s="90"/>
+      <c r="N152" s="87">
         <f>L152*J152/(100)</f>
         <v>0</v>
       </c>
-      <c r="O152" s="154"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A153" s="101" t="s">
+      <c r="O152" s="88"/>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="B153" s="101"/>
+      <c r="B153" s="91"/>
       <c r="C153" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D153" s="87">
+      <c r="D153" s="92">
         <v>1</v>
       </c>
-      <c r="E153" s="87"/>
+      <c r="E153" s="92"/>
       <c r="F153" s="69">
         <v>1142</v>
       </c>
@@ -5136,294 +5273,294 @@
         <f>D153*F153</f>
         <v>1142</v>
       </c>
-      <c r="H153" s="133">
+      <c r="H153" s="89">
         <f>0.1*G153</f>
         <v>114.2</v>
       </c>
-      <c r="I153" s="134"/>
-      <c r="J153" s="133">
+      <c r="I153" s="90"/>
+      <c r="J153" s="89">
         <f>G153+H153</f>
         <v>1256.2</v>
       </c>
-      <c r="K153" s="134"/>
-      <c r="L153" s="133">
+      <c r="K153" s="90"/>
+      <c r="L153" s="89">
         <v>15.2</v>
       </c>
-      <c r="M153" s="134"/>
-      <c r="N153" s="153">
+      <c r="M153" s="90"/>
+      <c r="N153" s="87">
         <f>L153*J153/(100)</f>
         <v>190.94240000000002</v>
       </c>
-      <c r="O153" s="154"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A154" s="102" t="s">
+      <c r="O153" s="88"/>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="102"/>
+      <c r="B154" s="144"/>
       <c r="C154" s="24"/>
-      <c r="D154" s="141">
+      <c r="D154" s="110">
         <f>SUM(D149:E153)</f>
         <v>18</v>
       </c>
-      <c r="E154" s="142"/>
+      <c r="E154" s="111"/>
       <c r="F154" s="24"/>
       <c r="G154" s="25">
         <f>SUM(G149:G153)</f>
         <v>7262</v>
       </c>
-      <c r="H154" s="143">
+      <c r="H154" s="98">
         <f>SUM(H149:I153)</f>
         <v>726.2</v>
       </c>
-      <c r="I154" s="144"/>
-      <c r="J154" s="143">
+      <c r="I154" s="99"/>
+      <c r="J154" s="98">
         <f>SUM(J149:K153)</f>
         <v>7988.2</v>
       </c>
-      <c r="K154" s="144"/>
-      <c r="L154" s="147"/>
-      <c r="M154" s="148"/>
-      <c r="N154" s="143">
+      <c r="K154" s="99"/>
+      <c r="L154" s="100"/>
+      <c r="M154" s="101"/>
+      <c r="N154" s="98">
         <f>SUM(N149:O153)</f>
         <v>709.30640000000005</v>
       </c>
-      <c r="O154" s="144"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O154" s="99"/>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B157" s="79" t="s">
+    <row r="157" spans="1:15">
+      <c r="B157" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="C157" s="79"/>
-      <c r="D157" s="79"/>
-      <c r="E157" s="79"/>
-      <c r="F157" s="79"/>
-      <c r="G157" s="79"/>
-      <c r="H157" s="79"/>
-      <c r="I157" s="79"/>
-      <c r="J157" s="79"/>
+      <c r="C157" s="72"/>
+      <c r="D157" s="72"/>
+      <c r="E157" s="72"/>
+      <c r="F157" s="72"/>
+      <c r="G157" s="72"/>
+      <c r="H157" s="72"/>
+      <c r="I157" s="72"/>
+      <c r="J157" s="72"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A159" s="75" t="s">
+    <row r="159" spans="1:15" ht="37.5">
+      <c r="A159" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="B159" s="75"/>
-      <c r="C159" s="75"/>
+      <c r="B159" s="103"/>
+      <c r="C159" s="103"/>
       <c r="D159" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E159" s="75" t="s">
+      <c r="E159" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="F159" s="75"/>
+      <c r="F159" s="103"/>
       <c r="G159" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="H159" s="75" t="s">
+      <c r="H159" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="I159" s="75"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A160" s="75" t="s">
+      <c r="I159" s="103"/>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="B160" s="75"/>
-      <c r="C160" s="75"/>
+      <c r="B160" s="103"/>
+      <c r="C160" s="103"/>
       <c r="D160" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E160" s="98">
+      <c r="E160" s="93">
         <f t="array" ref="E160">G142</f>
         <v>22803.374999999996</v>
       </c>
-      <c r="F160" s="99"/>
+      <c r="F160" s="94"/>
       <c r="G160" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="H160" s="98">
+      <c r="H160" s="93">
         <f>K142</f>
         <v>643.61362499999996</v>
       </c>
-      <c r="I160" s="99"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" s="75" t="s">
+      <c r="I160" s="94"/>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="B161" s="75"/>
-      <c r="C161" s="75"/>
+      <c r="B161" s="103"/>
+      <c r="C161" s="103"/>
       <c r="D161" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E161" s="98">
+      <c r="E161" s="93">
         <f t="array" ref="E161">J154</f>
         <v>7988.2</v>
       </c>
-      <c r="F161" s="99"/>
+      <c r="F161" s="94"/>
       <c r="G161" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="H161" s="98">
+      <c r="H161" s="93">
         <f>N154</f>
         <v>709.30640000000005</v>
       </c>
-      <c r="I161" s="99"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" s="75" t="s">
+      <c r="I161" s="94"/>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="B162" s="75"/>
-      <c r="C162" s="75"/>
+      <c r="B162" s="103"/>
+      <c r="C162" s="103"/>
       <c r="D162" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E162" s="98">
+      <c r="E162" s="93">
         <f>45*F132</f>
         <v>75.073550510204086</v>
       </c>
-      <c r="F162" s="99"/>
+      <c r="F162" s="94"/>
       <c r="G162" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H162" s="98">
+      <c r="H162" s="93">
         <f>E162*G162/(100)</f>
         <v>6.1560311418367348</v>
       </c>
-      <c r="I162" s="99"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A163" s="150" t="s">
+      <c r="I162" s="94"/>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="79" t="s">
         <v>357</v>
       </c>
-      <c r="B163" s="151"/>
-      <c r="C163" s="152"/>
+      <c r="B163" s="80"/>
+      <c r="C163" s="81"/>
       <c r="D163" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E163" s="98">
+      <c r="E163" s="93">
         <f t="array" ref="E163">J154*0.1</f>
         <v>798.82</v>
       </c>
-      <c r="F163" s="99"/>
+      <c r="F163" s="94"/>
       <c r="G163" s="4">
         <v>4.5</v>
       </c>
-      <c r="H163" s="98">
+      <c r="H163" s="93">
         <f>E163*G163/(100)</f>
         <v>35.946899999999999</v>
       </c>
-      <c r="I163" s="99"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" s="150" t="s">
+      <c r="I163" s="94"/>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="79" t="s">
         <v>359</v>
       </c>
-      <c r="B164" s="151"/>
-      <c r="C164" s="152"/>
+      <c r="B164" s="80"/>
+      <c r="C164" s="81"/>
       <c r="D164" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E164" s="98">
+      <c r="E164" s="93">
         <f t="array" ref="E164">0.02*G154</f>
         <v>145.24</v>
       </c>
-      <c r="F164" s="99"/>
+      <c r="F164" s="94"/>
       <c r="G164" s="4">
         <v>11.5</v>
       </c>
-      <c r="H164" s="98">
+      <c r="H164" s="93">
         <f>E164*G164/(100)</f>
         <v>16.702600000000004</v>
       </c>
-      <c r="I164" s="99"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" s="75" t="s">
+      <c r="I164" s="94"/>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="75"/>
-      <c r="C165" s="75"/>
+      <c r="B165" s="103"/>
+      <c r="C165" s="103"/>
       <c r="D165" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E165" s="98">
+      <c r="E165" s="93">
         <f t="array" ref="E165">1.5*E161/100+15.4*G34</f>
         <v>366.22300000000001</v>
       </c>
-      <c r="F165" s="99"/>
+      <c r="F165" s="94"/>
       <c r="G165" s="4">
         <f>18.5</f>
         <v>18.5</v>
       </c>
-      <c r="H165" s="98">
+      <c r="H165" s="93">
         <f>E165*G165/(100)</f>
         <v>67.751255</v>
       </c>
-      <c r="I165" s="99"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="95" t="s">
+      <c r="I165" s="94"/>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B166" s="72"/>
-      <c r="C166" s="72"/>
+      <c r="B166" s="112"/>
+      <c r="C166" s="112"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="137">
+      <c r="E166" s="95">
         <f t="array" ref="E166">SUM(E160:E165)</f>
         <v>32176.931550510206</v>
       </c>
-      <c r="F166" s="138"/>
+      <c r="F166" s="96"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="137">
+      <c r="H166" s="95">
         <f t="array" ref="H166">SUM(H160:H165)</f>
         <v>1479.4768111418366</v>
       </c>
-      <c r="I166" s="138"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" s="79" t="s">
+      <c r="I166" s="96"/>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="79"/>
-      <c r="C169" s="79"/>
-      <c r="D169" s="79"/>
-      <c r="E169" s="79"/>
-      <c r="F169" s="79"/>
-      <c r="G169" s="79"/>
-      <c r="H169" s="79"/>
-      <c r="I169" s="79"/>
-      <c r="J169" s="79"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B171" s="79" t="s">
+      <c r="B169" s="72"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="72"/>
+      <c r="E169" s="72"/>
+      <c r="F169" s="72"/>
+      <c r="G169" s="72"/>
+      <c r="H169" s="72"/>
+      <c r="I169" s="72"/>
+      <c r="J169" s="72"/>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="B171" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="C171" s="79"/>
-      <c r="D171" s="79"/>
-      <c r="E171" s="79"/>
-      <c r="F171" s="79"/>
-      <c r="G171" s="79"/>
-      <c r="H171" s="79"/>
-      <c r="I171" s="79"/>
-      <c r="J171" s="79"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B173" s="79" t="s">
+      <c r="C171" s="72"/>
+      <c r="D171" s="72"/>
+      <c r="E171" s="72"/>
+      <c r="F171" s="72"/>
+      <c r="G171" s="72"/>
+      <c r="H171" s="72"/>
+      <c r="I171" s="72"/>
+      <c r="J171" s="72"/>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="B173" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="C173" s="79"/>
-      <c r="D173" s="79"/>
-      <c r="E173" s="79"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C173" s="72"/>
+      <c r="D173" s="72"/>
+      <c r="E173" s="72"/>
+    </row>
+    <row r="175" spans="1:10">
       <c r="C175" s="2" t="s">
         <v>144</v>
       </c>
@@ -5432,14 +5569,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B177" s="79" t="s">
+    <row r="177" spans="2:13">
+      <c r="B177" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C177" s="79"/>
-      <c r="D177" s="79"/>
-    </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C177" s="72"/>
+      <c r="D177" s="72"/>
+    </row>
+    <row r="179" spans="2:13">
       <c r="C179" s="2" t="s">
         <v>142</v>
       </c>
@@ -5457,40 +5594,40 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B181" s="79" t="s">
+    <row r="181" spans="2:13">
+      <c r="B181" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="C181" s="79"/>
-      <c r="D181" s="79"/>
-      <c r="E181" s="79"/>
-      <c r="F181" s="79"/>
-      <c r="G181" s="79"/>
-      <c r="H181" s="79"/>
-      <c r="I181" s="79"/>
-      <c r="J181" s="79"/>
-      <c r="M181" s="119" t="s">
+      <c r="C181" s="72"/>
+      <c r="D181" s="72"/>
+      <c r="E181" s="72"/>
+      <c r="F181" s="72"/>
+      <c r="G181" s="72"/>
+      <c r="H181" s="72"/>
+      <c r="I181" s="72"/>
+      <c r="J181" s="72"/>
+      <c r="M181" s="105" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M182" s="119"/>
-    </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C183" s="79" t="s">
+    <row r="182" spans="2:13">
+      <c r="M182" s="105"/>
+    </row>
+    <row r="183" spans="2:13">
+      <c r="C183" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D183" s="79"/>
-      <c r="E183" s="79"/>
-      <c r="F183" s="79"/>
-      <c r="G183" s="79"/>
-      <c r="H183" s="79"/>
-      <c r="M183" s="119"/>
-    </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M184" s="119"/>
-    </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D183" s="72"/>
+      <c r="E183" s="72"/>
+      <c r="F183" s="72"/>
+      <c r="G183" s="72"/>
+      <c r="H183" s="72"/>
+      <c r="M183" s="105"/>
+    </row>
+    <row r="184" spans="2:13">
+      <c r="M184" s="105"/>
+    </row>
+    <row r="185" spans="2:13">
       <c r="D185" s="2" t="s">
         <v>463</v>
       </c>
@@ -5504,12 +5641,12 @@
       <c r="H185" s="2">
         <v>1</v>
       </c>
-      <c r="M185" s="119"/>
-    </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M186" s="119"/>
-    </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M185" s="105"/>
+    </row>
+    <row r="186" spans="2:13">
+      <c r="M186" s="105"/>
+    </row>
+    <row r="187" spans="2:13">
       <c r="D187" s="2" t="s">
         <v>147</v>
       </c>
@@ -5526,29 +5663,29 @@
       <c r="I187" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M187" s="119"/>
-    </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M188" s="119"/>
-    </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C189" s="79" t="s">
+      <c r="M187" s="105"/>
+    </row>
+    <row r="188" spans="2:13">
+      <c r="M188" s="105"/>
+    </row>
+    <row r="189" spans="2:13">
+      <c r="C189" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="D189" s="79"/>
-      <c r="E189" s="79"/>
-      <c r="F189" s="79"/>
-      <c r="G189" s="79"/>
-      <c r="H189" s="79"/>
+      <c r="D189" s="72"/>
+      <c r="E189" s="72"/>
+      <c r="F189" s="72"/>
+      <c r="G189" s="72"/>
+      <c r="H189" s="72"/>
       <c r="K189" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="M189" s="119"/>
-    </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M190" s="119"/>
-    </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M189" s="105"/>
+    </row>
+    <row r="190" spans="2:13">
+      <c r="M190" s="105"/>
+    </row>
+    <row r="191" spans="2:13">
       <c r="D191" s="2" t="s">
         <v>154</v>
       </c>
@@ -5571,18 +5708,18 @@
       <c r="K191" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M191" s="119"/>
-    </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M191" s="105"/>
+    </row>
+    <row r="192" spans="2:13">
       <c r="G192" s="2" t="s">
         <v>150</v>
       </c>
       <c r="H192" s="2">
         <v>8</v>
       </c>
-      <c r="M192" s="119"/>
-    </row>
-    <row r="193" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M192" s="105"/>
+    </row>
+    <row r="193" spans="3:13">
       <c r="G193" s="2" t="s">
         <v>151</v>
       </c>
@@ -5599,32 +5736,32 @@
       <c r="K193" s="2">
         <v>0.9</v>
       </c>
-      <c r="M193" s="119"/>
-    </row>
-    <row r="194" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M193" s="105"/>
+    </row>
+    <row r="194" spans="3:13">
       <c r="G194" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H194" s="2">
         <v>1</v>
       </c>
-      <c r="M194" s="119"/>
-    </row>
-    <row r="195" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C195" s="79" t="s">
+      <c r="M194" s="105"/>
+    </row>
+    <row r="195" spans="3:13">
+      <c r="C195" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="D195" s="79"/>
-      <c r="E195" s="79"/>
-      <c r="F195" s="79"/>
-      <c r="G195" s="79"/>
-      <c r="H195" s="79"/>
-      <c r="M195" s="119"/>
-    </row>
-    <row r="196" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="M196" s="119"/>
-    </row>
-    <row r="197" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D195" s="72"/>
+      <c r="E195" s="72"/>
+      <c r="F195" s="72"/>
+      <c r="G195" s="72"/>
+      <c r="H195" s="72"/>
+      <c r="M195" s="105"/>
+    </row>
+    <row r="196" spans="3:13">
+      <c r="M196" s="105"/>
+    </row>
+    <row r="197" spans="3:13">
       <c r="D197" s="2" t="s">
         <v>157</v>
       </c>
@@ -5647,50 +5784,50 @@
       <c r="K197" s="2">
         <v>3</v>
       </c>
-      <c r="M197" s="119"/>
-    </row>
-    <row r="198" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M197" s="105"/>
+    </row>
+    <row r="198" spans="3:13">
       <c r="G198" s="2" t="s">
         <v>156</v>
       </c>
       <c r="H198" s="2">
         <v>2</v>
       </c>
-      <c r="M198" s="119"/>
-    </row>
-    <row r="199" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="M199" s="119"/>
-    </row>
-    <row r="200" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C200" s="97" t="s">
+      <c r="M198" s="105"/>
+    </row>
+    <row r="199" spans="3:13">
+      <c r="M199" s="105"/>
+    </row>
+    <row r="200" spans="3:13">
+      <c r="C200" s="145" t="s">
         <v>158</v>
       </c>
-      <c r="D200" s="97"/>
-      <c r="E200" s="97"/>
-      <c r="F200" s="97"/>
-      <c r="G200" s="97"/>
-      <c r="H200" s="97"/>
-      <c r="M200" s="119"/>
-    </row>
-    <row r="201" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C201" s="97"/>
-      <c r="D201" s="97"/>
-      <c r="E201" s="97"/>
-      <c r="F201" s="97"/>
-      <c r="G201" s="97"/>
-      <c r="H201" s="97"/>
-      <c r="M201" s="119"/>
-    </row>
-    <row r="202" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="M202" s="119"/>
-    </row>
-    <row r="203" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D200" s="145"/>
+      <c r="E200" s="145"/>
+      <c r="F200" s="145"/>
+      <c r="G200" s="145"/>
+      <c r="H200" s="145"/>
+      <c r="M200" s="105"/>
+    </row>
+    <row r="201" spans="3:13">
+      <c r="C201" s="145"/>
+      <c r="D201" s="145"/>
+      <c r="E201" s="145"/>
+      <c r="F201" s="145"/>
+      <c r="G201" s="145"/>
+      <c r="H201" s="145"/>
+      <c r="M201" s="105"/>
+    </row>
+    <row r="202" spans="3:13">
+      <c r="M202" s="105"/>
+    </row>
+    <row r="203" spans="3:13">
       <c r="G203" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M203" s="119"/>
-    </row>
-    <row r="204" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M203" s="105"/>
+    </row>
+    <row r="204" spans="3:13">
       <c r="D204" s="2" t="s">
         <v>159</v>
       </c>
@@ -5700,9 +5837,9 @@
       <c r="K204" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M204" s="119"/>
-    </row>
-    <row r="205" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M204" s="105"/>
+    </row>
+    <row r="205" spans="3:13">
       <c r="D205" s="2" t="s">
         <v>160</v>
       </c>
@@ -5712,9 +5849,9 @@
       <c r="K205" s="2">
         <v>2</v>
       </c>
-      <c r="M205" s="119"/>
-    </row>
-    <row r="206" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M205" s="105"/>
+    </row>
+    <row r="206" spans="3:13">
       <c r="D206" s="2" t="s">
         <v>161</v>
       </c>
@@ -5724,9 +5861,9 @@
       <c r="K206" s="2">
         <v>2</v>
       </c>
-      <c r="M206" s="119"/>
-    </row>
-    <row r="207" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M206" s="105"/>
+    </row>
+    <row r="207" spans="3:13">
       <c r="D207" s="2" t="s">
         <v>162</v>
       </c>
@@ -5739,9 +5876,9 @@
       <c r="K207" s="2">
         <v>2</v>
       </c>
-      <c r="M207" s="119"/>
-    </row>
-    <row r="208" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M207" s="105"/>
+    </row>
+    <row r="208" spans="3:13">
       <c r="D208" s="2" t="s">
         <v>164</v>
       </c>
@@ -5751,747 +5888,745 @@
       <c r="G208" s="2">
         <v>1</v>
       </c>
-      <c r="M208" s="119"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B210" s="79" t="s">
+      <c r="M208" s="105"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="B210" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="C210" s="79"/>
-      <c r="D210" s="79"/>
-      <c r="E210" s="79"/>
-      <c r="F210" s="79"/>
-      <c r="G210" s="79"/>
-      <c r="H210" s="79"/>
-      <c r="I210" s="79"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="149" t="s">
+      <c r="C210" s="72"/>
+      <c r="D210" s="72"/>
+      <c r="E210" s="72"/>
+      <c r="F210" s="72"/>
+      <c r="G210" s="72"/>
+      <c r="H210" s="72"/>
+      <c r="I210" s="72"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="B212" s="149"/>
-      <c r="C212" s="149"/>
-      <c r="D212" s="149"/>
+      <c r="B212" s="104"/>
+      <c r="C212" s="104"/>
+      <c r="D212" s="104"/>
       <c r="E212" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F212" s="82" t="s">
+      <c r="F212" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="G212" s="82"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="72" t="s">
+      <c r="G212" s="102"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="B213" s="72"/>
-      <c r="C213" s="72"/>
-      <c r="D213" s="72"/>
+      <c r="B213" s="112"/>
+      <c r="C213" s="112"/>
+      <c r="D213" s="112"/>
       <c r="E213" s="4">
         <f t="array" ref="E213">E179</f>
         <v>34</v>
       </c>
-      <c r="F213" s="98">
+      <c r="F213" s="93">
         <f>100*E213/E219</f>
         <v>79.069767441860463</v>
       </c>
-      <c r="G213" s="99"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="145" t="s">
+      <c r="G213" s="94"/>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="B214" s="145"/>
-      <c r="C214" s="145"/>
-      <c r="D214" s="145"/>
+      <c r="B214" s="113"/>
+      <c r="C214" s="113"/>
+      <c r="D214" s="113"/>
       <c r="E214" s="29"/>
       <c r="F214" s="30"/>
       <c r="G214" s="31"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="146" t="s">
+    <row r="215" spans="1:9">
+      <c r="A215" s="97" t="s">
         <v>172</v>
       </c>
-      <c r="B215" s="146"/>
-      <c r="C215" s="146"/>
-      <c r="D215" s="146"/>
+      <c r="B215" s="97"/>
+      <c r="C215" s="97"/>
+      <c r="D215" s="97"/>
       <c r="E215" s="32"/>
       <c r="F215" s="33"/>
       <c r="G215" s="34"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="72" t="s">
+    <row r="216" spans="1:9">
+      <c r="A216" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="B216" s="72"/>
-      <c r="C216" s="72"/>
-      <c r="D216" s="72"/>
+      <c r="B216" s="112"/>
+      <c r="C216" s="112"/>
+      <c r="D216" s="112"/>
       <c r="E216" s="4">
         <v>2</v>
       </c>
-      <c r="F216" s="98">
+      <c r="F216" s="93">
         <f t="array" ref="F216">E216*$F$219/$E$219</f>
         <v>4.6511627906976747</v>
       </c>
-      <c r="G216" s="99"/>
+      <c r="G216" s="94"/>
       <c r="H216" s="8">
         <f>F216+F217</f>
         <v>18.604651162790699</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="72" t="s">
+    <row r="217" spans="1:9">
+      <c r="A217" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="B217" s="72"/>
-      <c r="C217" s="72"/>
-      <c r="D217" s="72"/>
+      <c r="B217" s="112"/>
+      <c r="C217" s="112"/>
+      <c r="D217" s="112"/>
       <c r="E217" s="4">
         <v>6</v>
       </c>
-      <c r="F217" s="98">
+      <c r="F217" s="93">
         <f t="array" ref="F217">E217*$F$219/$E$219</f>
         <v>13.953488372093023</v>
       </c>
-      <c r="G217" s="99"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" s="72" t="s">
+      <c r="G217" s="94"/>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="B218" s="72"/>
-      <c r="C218" s="72"/>
-      <c r="D218" s="72"/>
+      <c r="B218" s="112"/>
+      <c r="C218" s="112"/>
+      <c r="D218" s="112"/>
       <c r="E218" s="4">
         <v>1</v>
       </c>
-      <c r="F218" s="98">
+      <c r="F218" s="93">
         <f t="array" ref="F218">E218*$F$219/$E$219</f>
         <v>2.3255813953488373</v>
       </c>
-      <c r="G218" s="99"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="100" t="s">
+      <c r="G218" s="94"/>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="B219" s="100"/>
-      <c r="C219" s="100"/>
-      <c r="D219" s="100"/>
+      <c r="B219" s="146"/>
+      <c r="C219" s="146"/>
+      <c r="D219" s="146"/>
       <c r="E219" s="4">
         <f t="array" ref="E219">E213+SUM(E216:E218)</f>
         <v>43</v>
       </c>
-      <c r="F219" s="98">
+      <c r="F219" s="93">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="G219" s="99"/>
+      <c r="G219" s="94"/>
       <c r="I219" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="79" t="s">
+    <row r="222" spans="1:9">
+      <c r="A222" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="79"/>
-      <c r="C222" s="79"/>
-      <c r="D222" s="79"/>
-      <c r="E222" s="79"/>
-      <c r="F222" s="79"/>
-      <c r="G222" s="79"/>
-      <c r="H222" s="79"/>
-      <c r="I222" s="79"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="82" t="s">
+      <c r="B222" s="72"/>
+      <c r="C222" s="72"/>
+      <c r="D222" s="72"/>
+      <c r="E222" s="72"/>
+      <c r="F222" s="72"/>
+      <c r="G222" s="72"/>
+      <c r="H222" s="72"/>
+      <c r="I222" s="72"/>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="B224" s="82"/>
-      <c r="C224" s="82"/>
-      <c r="D224" s="82"/>
+      <c r="B224" s="102"/>
+      <c r="C224" s="102"/>
+      <c r="D224" s="102"/>
       <c r="E224" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F224" s="82" t="s">
+      <c r="F224" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="G224" s="82"/>
-      <c r="H224" s="82" t="s">
+      <c r="G224" s="102"/>
+      <c r="H224" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="I224" s="82"/>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A225" s="75" t="s">
+      <c r="I224" s="102"/>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="B225" s="75"/>
-      <c r="C225" s="75"/>
-      <c r="D225" s="75"/>
+      <c r="B225" s="103"/>
+      <c r="C225" s="103"/>
+      <c r="D225" s="103"/>
       <c r="E225" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F225" s="77">
+      <c r="F225" s="106">
         <f>H225*$M$2</f>
         <v>11456.1789804</v>
       </c>
-      <c r="G225" s="78"/>
-      <c r="H225" s="80">
+      <c r="G225" s="107"/>
+      <c r="H225" s="77">
         <f>I266</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="I225" s="81"/>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A226" s="75" t="s">
+      <c r="I225" s="78"/>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="B226" s="75"/>
-      <c r="C226" s="75"/>
-      <c r="D226" s="75"/>
+      <c r="B226" s="103"/>
+      <c r="C226" s="103"/>
+      <c r="D226" s="103"/>
       <c r="E226" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F226" s="77">
+      <c r="F226" s="106">
         <f t="array" ref="F226">H226*$M$2</f>
         <v>425437.42500000005</v>
       </c>
-      <c r="G226" s="78"/>
-      <c r="H226" s="80">
+      <c r="G226" s="107"/>
+      <c r="H226" s="77">
         <f>H292</f>
         <v>32.865000000000002</v>
       </c>
-      <c r="I226" s="81"/>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A227" s="75" t="s">
+      <c r="I226" s="78"/>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="B227" s="75"/>
-      <c r="C227" s="75"/>
-      <c r="D227" s="75"/>
+      <c r="B227" s="103"/>
+      <c r="C227" s="103"/>
+      <c r="D227" s="103"/>
       <c r="E227" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F227" s="77">
+      <c r="F227" s="106">
         <f t="array" ref="F227">H227*$M$2</f>
         <v>6247.3605599999992</v>
       </c>
-      <c r="G227" s="78"/>
-      <c r="H227" s="80">
+      <c r="G227" s="107"/>
+      <c r="H227" s="77">
         <f>H309</f>
         <v>0.48260799999999993</v>
       </c>
-      <c r="I227" s="81"/>
+      <c r="I227" s="78"/>
       <c r="M227" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A228" s="75" t="s">
+    <row r="228" spans="1:14">
+      <c r="A228" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="B228" s="75"/>
-      <c r="C228" s="75"/>
-      <c r="D228" s="75"/>
+      <c r="B228" s="103"/>
+      <c r="C228" s="103"/>
+      <c r="D228" s="103"/>
       <c r="E228" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F228" s="77">
+      <c r="F228" s="106">
         <f t="array" ref="F228">H228*$M$2</f>
         <v>1874.2081679999997</v>
       </c>
-      <c r="G228" s="78"/>
-      <c r="H228" s="80">
+      <c r="G228" s="107"/>
+      <c r="H228" s="77">
         <f t="array" ref="H228">D315</f>
         <v>0.14478239999999998</v>
       </c>
-      <c r="I228" s="81"/>
+      <c r="I228" s="78"/>
       <c r="N228" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A229" s="75" t="s">
+    <row r="229" spans="1:14">
+      <c r="A229" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="B229" s="75"/>
-      <c r="C229" s="75"/>
-      <c r="D229" s="75"/>
+      <c r="B229" s="103"/>
+      <c r="C229" s="103"/>
+      <c r="D229" s="103"/>
       <c r="E229" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F229" s="77">
+      <c r="F229" s="106">
         <f>H229*$M$2</f>
-        <v>4182.60789492</v>
-      </c>
-      <c r="G229" s="78"/>
-      <c r="H229" s="80">
+        <v>3037.97</v>
+      </c>
+      <c r="G229" s="107"/>
+      <c r="H229" s="77">
         <f>D322</f>
-        <v>0.32310605599999997</v>
-      </c>
-      <c r="I229" s="81"/>
+        <v>0.23468288914638855</v>
+      </c>
+      <c r="I229" s="78"/>
       <c r="N229" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A230" s="75" t="s">
+    <row r="230" spans="1:14">
+      <c r="A230" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="B230" s="75"/>
-      <c r="C230" s="75"/>
-      <c r="D230" s="75"/>
+      <c r="B230" s="103"/>
+      <c r="C230" s="103"/>
+      <c r="D230" s="103"/>
       <c r="E230" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F230" s="77">
+      <c r="F230" s="106">
         <f>H230*$M$2</f>
-        <v>4306.4618180219995</v>
-      </c>
-      <c r="G230" s="78"/>
-      <c r="H230" s="80">
-        <f>C349</f>
-        <v>0.33267375959999995</v>
-      </c>
-      <c r="I230" s="81"/>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A231" s="75" t="s">
+        <v>3905.8389999999995</v>
+      </c>
+      <c r="G230" s="107"/>
+      <c r="H230" s="77">
+        <f>J350</f>
+        <v>0.30172568559289298</v>
+      </c>
+      <c r="I230" s="78"/>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231" s="103" t="s">
         <v>437</v>
       </c>
-      <c r="B231" s="75"/>
-      <c r="C231" s="75"/>
-      <c r="D231" s="75"/>
+      <c r="B231" s="103"/>
+      <c r="C231" s="103"/>
+      <c r="D231" s="103"/>
       <c r="E231" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F231" s="77">
+      <c r="F231" s="106">
         <f t="shared" ref="F231:F238" si="2">H231*$M$2</f>
-        <v>615.20883114599997</v>
-      </c>
-      <c r="G231" s="78"/>
-      <c r="H231" s="80">
-        <f>C354</f>
-        <v>4.7524822799999998E-2</v>
-      </c>
-      <c r="I231" s="81"/>
+        <v>614.88750000000005</v>
+      </c>
+      <c r="G231" s="107"/>
+      <c r="H231" s="77">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="I231" s="78"/>
       <c r="N231" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A232" s="75" t="s">
+    <row r="232" spans="1:14">
+      <c r="A232" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="B232" s="75"/>
-      <c r="C232" s="75"/>
-      <c r="D232" s="75"/>
+      <c r="B232" s="103"/>
+      <c r="C232" s="103"/>
+      <c r="D232" s="103"/>
       <c r="E232" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F232" s="77">
-        <f>C359</f>
-        <v>7.1901078753528429</v>
-      </c>
-      <c r="G232" s="78"/>
-      <c r="H232" s="80">
-        <f>F232/$M$2</f>
-        <v>5.5543513907708325E-4</v>
-      </c>
-      <c r="I232" s="81"/>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A233" s="75" t="s">
+      <c r="F232" s="106">
+        <f>6.97</f>
+        <v>6.97</v>
+      </c>
+      <c r="G232" s="107"/>
+      <c r="H232" s="77">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I232" s="78"/>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="B233" s="75"/>
-      <c r="C233" s="75"/>
-      <c r="D233" s="75"/>
+      <c r="B233" s="103"/>
+      <c r="C233" s="103"/>
+      <c r="D233" s="103"/>
       <c r="E233" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F233" s="77">
+      <c r="F233" s="106">
         <f t="shared" si="2"/>
         <v>624.73605599999985</v>
       </c>
-      <c r="G233" s="78"/>
-      <c r="H233" s="80">
+      <c r="G233" s="107"/>
+      <c r="H233" s="77">
         <f>C370</f>
         <v>4.8260799999999993E-2</v>
       </c>
-      <c r="I233" s="81"/>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A234" s="75" t="s">
+      <c r="I233" s="78"/>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="A234" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="B234" s="75"/>
-      <c r="C234" s="75"/>
-      <c r="D234" s="75"/>
+      <c r="B234" s="103"/>
+      <c r="C234" s="103"/>
+      <c r="D234" s="103"/>
       <c r="E234" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F234" s="77">
+      <c r="F234" s="106">
         <f t="shared" si="2"/>
         <v>937.10408399999983</v>
       </c>
-      <c r="G234" s="78"/>
-      <c r="H234" s="80">
+      <c r="G234" s="107"/>
+      <c r="H234" s="77">
         <f>C375</f>
         <v>7.2391199999999989E-2</v>
       </c>
-      <c r="I234" s="81"/>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A235" s="75" t="s">
+      <c r="I234" s="78"/>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="B235" s="75"/>
-      <c r="C235" s="75"/>
-      <c r="D235" s="75"/>
+      <c r="B235" s="103"/>
+      <c r="C235" s="103"/>
+      <c r="D235" s="103"/>
       <c r="E235" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F235" s="77">
+      <c r="F235" s="106">
         <f t="shared" si="2"/>
         <v>1479.4768111418366</v>
       </c>
-      <c r="G235" s="78"/>
-      <c r="H235" s="80">
+      <c r="G235" s="107"/>
+      <c r="H235" s="77">
         <f>C380</f>
         <v>0.11428944079890588</v>
       </c>
-      <c r="I235" s="81"/>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A236" s="75" t="s">
+      <c r="I235" s="78"/>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="B236" s="75"/>
-      <c r="C236" s="75"/>
-      <c r="D236" s="75"/>
+      <c r="B236" s="103"/>
+      <c r="C236" s="103"/>
+      <c r="D236" s="103"/>
       <c r="E236" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F236" s="77">
+      <c r="F236" s="106">
         <f t="shared" si="2"/>
         <v>4997.8884479999988</v>
       </c>
-      <c r="G236" s="78"/>
-      <c r="H236" s="80">
+      <c r="G236" s="107"/>
+      <c r="H236" s="77">
         <f>C384</f>
         <v>0.38608639999999994</v>
       </c>
-      <c r="I236" s="81"/>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A237" s="75" t="s">
+      <c r="I236" s="78"/>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="A237" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="B237" s="75"/>
-      <c r="C237" s="75"/>
-      <c r="D237" s="75"/>
+      <c r="B237" s="103"/>
+      <c r="C237" s="103"/>
+      <c r="D237" s="103"/>
       <c r="E237" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F237" s="77">
+      <c r="F237" s="106">
         <f t="shared" si="2"/>
         <v>3748.4163359999993</v>
       </c>
-      <c r="G237" s="78"/>
-      <c r="H237" s="80">
+      <c r="G237" s="107"/>
+      <c r="H237" s="77">
         <f>C389</f>
         <v>0.28956479999999996</v>
       </c>
-      <c r="I237" s="81"/>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A238" s="75" t="s">
+      <c r="I237" s="78"/>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238" s="103" t="s">
         <v>279</v>
       </c>
-      <c r="B238" s="75"/>
-      <c r="C238" s="75"/>
-      <c r="D238" s="75"/>
+      <c r="B238" s="103"/>
+      <c r="C238" s="103"/>
+      <c r="D238" s="103"/>
       <c r="E238" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F238" s="77">
+      <c r="F238" s="106">
         <f t="shared" si="2"/>
-        <v>3261.3998416685358</v>
-      </c>
-      <c r="G238" s="78"/>
-      <c r="H238" s="80">
+        <v>3250.5757441047931</v>
+      </c>
+      <c r="G238" s="107"/>
+      <c r="H238" s="77">
         <f>C394</f>
-        <v>0.25194282284036584</v>
-      </c>
-      <c r="I238" s="81"/>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A239" s="76" t="s">
+        <v>0.25110666234876733</v>
+      </c>
+      <c r="I238" s="78"/>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="B239" s="76"/>
-      <c r="C239" s="76"/>
-      <c r="D239" s="76"/>
+      <c r="B239" s="129"/>
+      <c r="C239" s="129"/>
+      <c r="D239" s="129"/>
       <c r="E239" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F239" s="77">
+      <c r="F239" s="106">
         <f>SUM(F225:F238)</f>
-        <v>469175.66293717374</v>
-      </c>
-      <c r="G239" s="78"/>
-      <c r="H239" s="80">
+        <v>467619.03668764659</v>
+      </c>
+      <c r="G239" s="107"/>
+      <c r="H239" s="77">
         <f t="array" ref="H239">SUM(H225:H238)</f>
-        <v>36.243774657178342</v>
-      </c>
-      <c r="I239" s="81"/>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A240" s="75" t="s">
+        <v>36.123486997886957</v>
+      </c>
+      <c r="I239" s="78"/>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="A240" s="103" t="s">
         <v>280</v>
       </c>
-      <c r="B240" s="75"/>
-      <c r="C240" s="75"/>
-      <c r="D240" s="75"/>
+      <c r="B240" s="103"/>
+      <c r="C240" s="103"/>
+      <c r="D240" s="103"/>
       <c r="E240" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F240" s="77">
+      <c r="F240" s="106">
         <f>C398*$M$2</f>
-        <v>4691.7566293717364</v>
-      </c>
-      <c r="G240" s="78"/>
-      <c r="H240" s="80">
+        <v>4676.1853918764664</v>
+      </c>
+      <c r="G240" s="107"/>
+      <c r="H240" s="77">
         <f>C398</f>
-        <v>0.3624377465717834</v>
-      </c>
-      <c r="I240" s="81"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A241" s="76" t="s">
+        <v>0.36123486997886955</v>
+      </c>
+      <c r="I240" s="78"/>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="A241" s="129" t="s">
         <v>195</v>
       </c>
-      <c r="B241" s="76"/>
-      <c r="C241" s="76"/>
-      <c r="D241" s="76"/>
+      <c r="B241" s="129"/>
+      <c r="C241" s="129"/>
+      <c r="D241" s="129"/>
       <c r="E241" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F241" s="77">
+      <c r="F241" s="106">
         <f>SUM(F239:F240)</f>
-        <v>473867.41956654546</v>
-      </c>
-      <c r="G241" s="78"/>
-      <c r="H241" s="80">
+        <v>472295.22207952302</v>
+      </c>
+      <c r="G241" s="107"/>
+      <c r="H241" s="77">
         <f>SUM(H239:H240)</f>
-        <v>36.606212403750128</v>
-      </c>
-      <c r="I241" s="81"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A242" s="75" t="s">
+        <v>36.484721867865829</v>
+      </c>
+      <c r="I241" s="78"/>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="A242" s="103" t="s">
         <v>281</v>
       </c>
-      <c r="B242" s="75"/>
-      <c r="C242" s="75"/>
-      <c r="D242" s="75"/>
+      <c r="B242" s="103"/>
+      <c r="C242" s="103"/>
+      <c r="D242" s="103"/>
       <c r="E242" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F242" s="77">
+      <c r="F242" s="106">
         <f>H242*M2</f>
-        <v>239279.58809795859</v>
-      </c>
-      <c r="G242" s="78"/>
-      <c r="H242" s="80">
+        <v>238485.45498569982</v>
+      </c>
+      <c r="G242" s="107"/>
+      <c r="H242" s="77">
         <f>C402</f>
-        <v>18.484325075160957</v>
-      </c>
-      <c r="I242" s="81"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A243" s="75" t="s">
+        <v>18.422978368922351</v>
+      </c>
+      <c r="I242" s="78"/>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="A243" s="103" t="s">
         <v>282</v>
       </c>
-      <c r="B243" s="75"/>
-      <c r="C243" s="75"/>
-      <c r="D243" s="75"/>
+      <c r="B243" s="103"/>
+      <c r="C243" s="103"/>
+      <c r="D243" s="103"/>
       <c r="E243" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F243" s="77">
+      <c r="F243" s="106">
         <f>SUM(F241:F242)</f>
-        <v>713147.007664504</v>
-      </c>
-      <c r="G243" s="78"/>
-      <c r="H243" s="80">
+        <v>710780.67706522287</v>
+      </c>
+      <c r="G243" s="107"/>
+      <c r="H243" s="77">
         <f>SUM(H241:H242)</f>
-        <v>55.090537478911088</v>
-      </c>
-      <c r="I243" s="81"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A244" s="150" t="s">
+        <v>54.90770023678818</v>
+      </c>
+      <c r="I243" s="78"/>
+    </row>
+    <row r="244" spans="1:12">
+      <c r="A244" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="B244" s="151"/>
-      <c r="C244" s="151"/>
-      <c r="D244" s="152"/>
+      <c r="B244" s="80"/>
+      <c r="C244" s="80"/>
+      <c r="D244" s="81"/>
       <c r="E244" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F244" s="77">
+      <c r="F244" s="106">
         <f>H244*M2</f>
-        <v>18406.12216138143</v>
-      </c>
-      <c r="G244" s="78"/>
-      <c r="H244" s="80">
+        <v>18165.200849212426</v>
+      </c>
+      <c r="G244" s="107"/>
+      <c r="H244" s="77">
         <f>C406</f>
-        <v>1.421871159627766</v>
-      </c>
-      <c r="I244" s="81"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A245" s="155" t="s">
+        <v>1.4032600115266454</v>
+      </c>
+      <c r="I244" s="78"/>
+    </row>
+    <row r="245" spans="1:12">
+      <c r="A245" s="82" t="s">
         <v>443</v>
       </c>
-      <c r="B245" s="120"/>
-      <c r="C245" s="120"/>
-      <c r="D245" s="156"/>
+      <c r="B245" s="83"/>
+      <c r="C245" s="83"/>
+      <c r="D245" s="84"/>
       <c r="E245" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F245" s="77">
+      <c r="F245" s="106">
         <f>H245*M2</f>
-        <v>15025.405846025657</v>
-      </c>
-      <c r="G245" s="78"/>
-      <c r="H245" s="80">
+        <v>14971.868689924733</v>
+      </c>
+      <c r="G245" s="107"/>
+      <c r="H245" s="77">
         <f>C410</f>
-        <v>1.1607111507165435</v>
-      </c>
-      <c r="I245" s="81"/>
-    </row>
-    <row r="246" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="120" t="s">
+        <v>1.1565754105774224</v>
+      </c>
+      <c r="I245" s="78"/>
+    </row>
+    <row r="246" spans="1:12" s="17" customFormat="1">
+      <c r="A246" s="83" t="s">
         <v>446</v>
       </c>
-      <c r="B246" s="120"/>
-      <c r="C246" s="120"/>
-      <c r="D246" s="120"/>
+      <c r="B246" s="83"/>
+      <c r="C246" s="83"/>
+      <c r="D246" s="83"/>
       <c r="E246" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F246" s="121">
+      <c r="F246" s="127">
         <f>C419</f>
-        <v>713149.5902468143</v>
-      </c>
-      <c r="G246" s="121"/>
-      <c r="H246" s="80">
+        <v>710783.23690064508</v>
+      </c>
+      <c r="G246" s="127"/>
+      <c r="H246" s="77">
         <f>F246/$M$2</f>
-        <v>55.090736983145177</v>
-      </c>
-      <c r="I246" s="81"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A247" s="75" t="s">
+        <v>54.907936415654312</v>
+      </c>
+      <c r="I246" s="78"/>
+    </row>
+    <row r="247" spans="1:12">
+      <c r="A247" s="103" t="s">
         <v>447</v>
       </c>
-      <c r="B247" s="75"/>
-      <c r="C247" s="75"/>
-      <c r="D247" s="75"/>
+      <c r="B247" s="103"/>
+      <c r="C247" s="103"/>
+      <c r="D247" s="103"/>
       <c r="E247" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F247" s="77">
+      <c r="F247" s="106">
         <f>H247*$M$2</f>
-        <v>129210.97757289764</v>
-      </c>
-      <c r="G247" s="78"/>
-      <c r="H247" s="80">
+        <v>143091.27299141989</v>
+      </c>
+      <c r="G247" s="107"/>
+      <c r="H247" s="77">
         <f>C423</f>
-        <v>9.9815355405869166</v>
-      </c>
-      <c r="I247" s="81"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A248" s="75" t="s">
+        <v>11.05378702135341</v>
+      </c>
+      <c r="I247" s="78"/>
+    </row>
+    <row r="248" spans="1:12">
+      <c r="A248" s="103" t="s">
         <v>448</v>
       </c>
-      <c r="B248" s="75"/>
-      <c r="C248" s="75"/>
-      <c r="D248" s="75"/>
+      <c r="B248" s="103"/>
+      <c r="C248" s="103"/>
+      <c r="D248" s="103"/>
       <c r="E248" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F248" s="77">
+      <c r="F248" s="106">
         <f>H248*$M$2</f>
-        <v>875045.45367423457</v>
-      </c>
-      <c r="G248" s="78"/>
-      <c r="H248" s="80">
+        <v>886450.43618184619</v>
+      </c>
+      <c r="G248" s="107"/>
+      <c r="H248" s="77">
         <f>C428</f>
-        <v>67.597176799863618</v>
-      </c>
-      <c r="I248" s="81"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B251" s="79" t="s">
+        <v>68.478210597284374</v>
+      </c>
+      <c r="I248" s="78"/>
+    </row>
+    <row r="251" spans="1:12">
+      <c r="B251" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="C251" s="79"/>
-      <c r="D251" s="79"/>
-      <c r="E251" s="79"/>
-      <c r="F251" s="79"/>
-      <c r="G251" s="79"/>
-      <c r="H251" s="79"/>
-      <c r="I251" s="79"/>
-      <c r="J251" s="79"/>
-      <c r="K251" s="79"/>
-      <c r="L251" s="79"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B253" s="79" t="s">
+      <c r="C251" s="72"/>
+      <c r="D251" s="72"/>
+      <c r="E251" s="72"/>
+      <c r="F251" s="72"/>
+      <c r="G251" s="72"/>
+      <c r="H251" s="72"/>
+      <c r="I251" s="72"/>
+      <c r="J251" s="72"/>
+      <c r="K251" s="72"/>
+      <c r="L251" s="72"/>
+    </row>
+    <row r="253" spans="1:12">
+      <c r="B253" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="C253" s="79"/>
-      <c r="D253" s="79"/>
-      <c r="E253" s="79"/>
-    </row>
-    <row r="255" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="82" t="s">
+      <c r="C253" s="72"/>
+      <c r="D253" s="72"/>
+      <c r="E253" s="72"/>
+    </row>
+    <row r="255" spans="1:12" ht="46.5" customHeight="1">
+      <c r="A255" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="B255" s="82"/>
+      <c r="B255" s="102"/>
       <c r="C255" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D255" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E255" s="82" t="s">
+      <c r="E255" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="F255" s="82"/>
-      <c r="G255" s="82" t="s">
+      <c r="F255" s="102"/>
+      <c r="G255" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="H255" s="82"/>
-      <c r="I255" s="82" t="s">
+      <c r="H255" s="102"/>
+      <c r="I255" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="J255" s="82"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A256" s="72" t="str">
+      <c r="J255" s="102"/>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="A256" s="112" t="str">
         <f t="shared" ref="A256:A261" si="3">L7</f>
         <v>Провод</v>
       </c>
-      <c r="B256" s="72"/>
+      <c r="B256" s="112"/>
       <c r="C256" s="4" t="str">
         <f>M7</f>
         <v>НВ-020-61</v>
@@ -6499,28 +6634,28 @@
       <c r="D256" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E256" s="73">
+      <c r="E256" s="75">
         <f t="shared" ref="E256:E261" si="4">N7</f>
         <v>0.5</v>
       </c>
-      <c r="F256" s="74"/>
-      <c r="G256" s="73">
+      <c r="F256" s="76"/>
+      <c r="G256" s="75">
         <f t="shared" ref="G256:G261" si="5">O7</f>
         <v>1.4550000000000001</v>
       </c>
-      <c r="H256" s="74"/>
-      <c r="I256" s="80">
+      <c r="H256" s="76"/>
+      <c r="I256" s="77">
         <f t="array" ref="I256">E256*G256</f>
         <v>0.72750000000000004</v>
       </c>
-      <c r="J256" s="81"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A257" s="72" t="str">
+      <c r="J256" s="78"/>
+    </row>
+    <row r="257" spans="1:12">
+      <c r="A257" s="112" t="str">
         <f t="shared" si="3"/>
         <v>Флюс</v>
       </c>
-      <c r="B257" s="72"/>
+      <c r="B257" s="112"/>
       <c r="C257" s="4" t="str">
         <f>M8</f>
         <v>ФКСН</v>
@@ -6528,28 +6663,28 @@
       <c r="D257" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E257" s="73">
+      <c r="E257" s="75">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F257" s="74"/>
-      <c r="G257" s="73">
+      <c r="F257" s="76"/>
+      <c r="G257" s="75">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="H257" s="74"/>
-      <c r="I257" s="80">
+      <c r="H257" s="76"/>
+      <c r="I257" s="77">
         <f t="array" ref="I257">E257*G257</f>
         <v>3.5E-4</v>
       </c>
-      <c r="J257" s="81"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A258" s="72" t="str">
+      <c r="J257" s="78"/>
+    </row>
+    <row r="258" spans="1:12">
+      <c r="A258" s="112" t="str">
         <f t="shared" si="3"/>
         <v>олово</v>
       </c>
-      <c r="B258" s="72"/>
+      <c r="B258" s="112"/>
       <c r="C258" s="4" t="str">
         <f>M9</f>
         <v>-</v>
@@ -6557,28 +6692,28 @@
       <c r="D258" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E258" s="73">
+      <c r="E258" s="75">
         <f t="shared" si="4"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F258" s="74"/>
-      <c r="G258" s="73">
+      <c r="F258" s="76"/>
+      <c r="G258" s="75">
         <f t="shared" si="5"/>
         <v>4.45</v>
       </c>
-      <c r="H258" s="74"/>
-      <c r="I258" s="80">
+      <c r="H258" s="76"/>
+      <c r="I258" s="77">
         <f t="array" ref="I258">E258*G258</f>
         <v>1.3350000000000001E-2</v>
       </c>
-      <c r="J258" s="81"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A259" s="72" t="str">
+      <c r="J258" s="78"/>
+    </row>
+    <row r="259" spans="1:12">
+      <c r="A259" s="112" t="str">
         <f t="shared" si="3"/>
         <v>припой</v>
       </c>
-      <c r="B259" s="72"/>
+      <c r="B259" s="112"/>
       <c r="C259" s="4" t="str">
         <f>M10</f>
         <v>ПОС-61</v>
@@ -6586,28 +6721,28 @@
       <c r="D259" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E259" s="73">
+      <c r="E259" s="75">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="F259" s="74"/>
-      <c r="G259" s="73">
+      <c r="F259" s="76"/>
+      <c r="G259" s="75">
         <f t="shared" si="5"/>
         <v>1.3620000000000001</v>
       </c>
-      <c r="H259" s="74"/>
-      <c r="I259" s="80">
+      <c r="H259" s="76"/>
+      <c r="I259" s="77">
         <f t="array" ref="I259">E259*G259</f>
         <v>0.10896000000000002</v>
       </c>
-      <c r="J259" s="81"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A260" s="72" t="str">
+      <c r="J259" s="78"/>
+    </row>
+    <row r="260" spans="1:12">
+      <c r="A260" s="112" t="str">
         <f t="shared" si="3"/>
         <v>Спирт этиловый</v>
       </c>
-      <c r="B260" s="72"/>
+      <c r="B260" s="112"/>
       <c r="C260" s="4" t="str">
         <f>M11</f>
         <v>ГОСТ 18300-72</v>
@@ -6615,178 +6750,178 @@
       <c r="D260" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E260" s="73">
+      <c r="E260" s="75">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F260" s="74"/>
-      <c r="G260" s="73">
+      <c r="F260" s="76"/>
+      <c r="G260" s="75">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="H260" s="74"/>
-      <c r="I260" s="80">
+      <c r="H260" s="76"/>
+      <c r="I260" s="77">
         <f t="array" ref="I260">E260*G260</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J260" s="81"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A261" s="72">
+      <c r="J260" s="78"/>
+    </row>
+    <row r="261" spans="1:12">
+      <c r="A261" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B261" s="72"/>
+      <c r="B261" s="112"/>
       <c r="C261" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E261" s="73">
+      <c r="E261" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F261" s="74"/>
-      <c r="G261" s="73">
+      <c r="F261" s="76"/>
+      <c r="G261" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H261" s="74"/>
-      <c r="I261" s="80">
+      <c r="H261" s="76"/>
+      <c r="I261" s="77">
         <f t="array" ref="I261">E261*G261</f>
         <v>0</v>
       </c>
-      <c r="J261" s="81"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A262" s="95" t="s">
+      <c r="J261" s="78"/>
+    </row>
+    <row r="262" spans="1:12">
+      <c r="A262" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B262" s="95"/>
+      <c r="B262" s="128"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
       <c r="E262" s="35"/>
       <c r="F262" s="36"/>
       <c r="G262" s="35"/>
       <c r="H262" s="36"/>
-      <c r="I262" s="129">
+      <c r="I262" s="85">
         <f>SUM(I256:I261)</f>
         <v>0.85136000000000001</v>
       </c>
-      <c r="J262" s="130"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A263" s="75" t="s">
+      <c r="J262" s="86"/>
+    </row>
+    <row r="263" spans="1:12">
+      <c r="A263" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="B263" s="75"/>
+      <c r="B263" s="103"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="37"/>
       <c r="F263" s="38"/>
       <c r="G263" s="37"/>
       <c r="H263" s="38"/>
-      <c r="I263" s="80">
+      <c r="I263" s="77">
         <f>0.05*I262</f>
         <v>4.2568000000000002E-2</v>
       </c>
-      <c r="J263" s="81"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A264" s="95" t="s">
+      <c r="J263" s="78"/>
+    </row>
+    <row r="264" spans="1:12">
+      <c r="A264" s="128" t="s">
         <v>229</v>
       </c>
-      <c r="B264" s="95"/>
+      <c r="B264" s="128"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
       <c r="E264" s="35"/>
       <c r="F264" s="36"/>
       <c r="G264" s="35"/>
       <c r="H264" s="36"/>
-      <c r="I264" s="129">
+      <c r="I264" s="85">
         <f>SUM(I262:I263)</f>
         <v>0.89392800000000006</v>
       </c>
-      <c r="J264" s="130"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A265" s="75" t="s">
+      <c r="J264" s="86"/>
+    </row>
+    <row r="265" spans="1:12">
+      <c r="A265" s="103" t="s">
         <v>230</v>
       </c>
-      <c r="B265" s="75"/>
+      <c r="B265" s="103"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="37"/>
       <c r="F265" s="38"/>
       <c r="G265" s="37"/>
       <c r="H265" s="38"/>
-      <c r="I265" s="80">
+      <c r="I265" s="77">
         <f>0.01*I264</f>
         <v>8.9392800000000008E-3</v>
       </c>
-      <c r="J265" s="81"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A266" s="76" t="s">
+      <c r="J265" s="78"/>
+    </row>
+    <row r="266" spans="1:12">
+      <c r="A266" s="129" t="s">
         <v>397</v>
       </c>
-      <c r="B266" s="76"/>
+      <c r="B266" s="129"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
       <c r="E266" s="35"/>
       <c r="F266" s="36"/>
       <c r="G266" s="35"/>
       <c r="H266" s="36"/>
-      <c r="I266" s="129">
+      <c r="I266" s="85">
         <f t="array" ref="I266">I264-I265</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="J266" s="130"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B269" s="79" t="s">
+      <c r="J266" s="86"/>
+    </row>
+    <row r="269" spans="1:12">
+      <c r="B269" s="72" t="s">
         <v>433</v>
       </c>
-      <c r="C269" s="79"/>
-      <c r="D269" s="79"/>
-      <c r="E269" s="79"/>
-      <c r="F269" s="79"/>
-      <c r="G269" s="79"/>
-      <c r="H269" s="79"/>
-      <c r="I269" s="79"/>
-      <c r="J269" s="79"/>
-      <c r="K269" s="79"/>
-      <c r="L269" s="79"/>
-    </row>
-    <row r="271" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="82" t="s">
+      <c r="C269" s="72"/>
+      <c r="D269" s="72"/>
+      <c r="E269" s="72"/>
+      <c r="F269" s="72"/>
+      <c r="G269" s="72"/>
+      <c r="H269" s="72"/>
+      <c r="I269" s="72"/>
+      <c r="J269" s="72"/>
+      <c r="K269" s="72"/>
+      <c r="L269" s="72"/>
+    </row>
+    <row r="271" spans="1:12" ht="45" customHeight="1">
+      <c r="A271" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="B271" s="82"/>
-      <c r="C271" s="82"/>
+      <c r="B271" s="102"/>
+      <c r="C271" s="102"/>
       <c r="D271" s="14" t="s">
         <v>221</v>
       </c>
       <c r="E271" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F271" s="82" t="s">
+      <c r="F271" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="G271" s="82"/>
+      <c r="G271" s="102"/>
       <c r="H271" s="14" t="s">
         <v>234</v>
       </c>
       <c r="I271" s="39"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A272" s="72" t="str">
+    <row r="272" spans="1:12">
+      <c r="A272" s="112" t="str">
         <f>R7</f>
         <v>Трансформатор</v>
       </c>
-      <c r="B272" s="72"/>
-      <c r="C272" s="72"/>
+      <c r="B272" s="112"/>
+      <c r="C272" s="112"/>
       <c r="D272" s="4" t="s">
         <v>235</v>
       </c>
@@ -6804,13 +6939,13 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A273" s="72" t="str">
+    <row r="273" spans="1:8">
+      <c r="A273" s="112" t="str">
         <f t="shared" ref="A273:A281" si="6">R8</f>
         <v>Реле</v>
       </c>
-      <c r="B273" s="72"/>
-      <c r="C273" s="72"/>
+      <c r="B273" s="112"/>
+      <c r="C273" s="112"/>
       <c r="D273" s="4" t="s">
         <v>235</v>
       </c>
@@ -6828,13 +6963,13 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A274" s="72" t="str">
+    <row r="274" spans="1:8">
+      <c r="A274" s="112" t="str">
         <f t="shared" si="6"/>
         <v>Вилка</v>
       </c>
-      <c r="B274" s="72"/>
-      <c r="C274" s="72"/>
+      <c r="B274" s="112"/>
+      <c r="C274" s="112"/>
       <c r="D274" s="4" t="s">
         <v>235</v>
       </c>
@@ -6852,13 +6987,13 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A275" s="72" t="str">
+    <row r="275" spans="1:8">
+      <c r="A275" s="112" t="str">
         <f t="shared" si="6"/>
         <v>Транзистор</v>
       </c>
-      <c r="B275" s="72"/>
-      <c r="C275" s="72"/>
+      <c r="B275" s="112"/>
+      <c r="C275" s="112"/>
       <c r="D275" s="4" t="s">
         <v>235</v>
       </c>
@@ -6876,13 +7011,13 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A276" s="72" t="str">
+    <row r="276" spans="1:8">
+      <c r="A276" s="112" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B276" s="72"/>
-      <c r="C276" s="72"/>
+      <c r="B276" s="112"/>
+      <c r="C276" s="112"/>
       <c r="D276" s="4" t="s">
         <v>235</v>
       </c>
@@ -6900,13 +7035,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A277" s="72" t="str">
+    <row r="277" spans="1:8">
+      <c r="A277" s="112" t="str">
         <f t="shared" si="6"/>
         <v>Печатная плата</v>
       </c>
-      <c r="B277" s="72"/>
-      <c r="C277" s="72"/>
+      <c r="B277" s="112"/>
+      <c r="C277" s="112"/>
       <c r="D277" s="4" t="s">
         <v>235</v>
       </c>
@@ -6924,13 +7059,13 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A278" s="72" t="str">
+    <row r="278" spans="1:8">
+      <c r="A278" s="112" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B278" s="72"/>
-      <c r="C278" s="72"/>
+      <c r="B278" s="112"/>
+      <c r="C278" s="112"/>
       <c r="D278" s="4" t="s">
         <v>235</v>
       </c>
@@ -6948,13 +7083,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A279" s="72" t="str">
+    <row r="279" spans="1:8">
+      <c r="A279" s="112" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B279" s="72"/>
-      <c r="C279" s="72"/>
+      <c r="B279" s="112"/>
+      <c r="C279" s="112"/>
       <c r="D279" s="4" t="s">
         <v>235</v>
       </c>
@@ -6972,13 +7107,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A280" s="72" t="str">
+    <row r="280" spans="1:8">
+      <c r="A280" s="112" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B280" s="72"/>
-      <c r="C280" s="72"/>
+      <c r="B280" s="112"/>
+      <c r="C280" s="112"/>
       <c r="D280" s="4" t="s">
         <v>235</v>
       </c>
@@ -6996,13 +7131,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A281" s="72" t="str">
+    <row r="281" spans="1:8">
+      <c r="A281" s="112" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B281" s="72"/>
-      <c r="C281" s="72"/>
+      <c r="B281" s="112"/>
+      <c r="C281" s="112"/>
       <c r="D281" s="4" t="s">
         <v>235</v>
       </c>
@@ -7020,13 +7155,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A282" s="72" t="str">
+    <row r="282" spans="1:8">
+      <c r="A282" s="112" t="str">
         <f t="shared" ref="A282:A289" si="9">R17</f>
         <v>Радиолампа</v>
       </c>
-      <c r="B282" s="72"/>
-      <c r="C282" s="72"/>
+      <c r="B282" s="112"/>
+      <c r="C282" s="112"/>
       <c r="D282" s="4" t="s">
         <v>235</v>
       </c>
@@ -7044,13 +7179,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A283" s="72" t="str">
+    <row r="283" spans="1:8">
+      <c r="A283" s="112" t="str">
         <f t="shared" si="9"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B283" s="72"/>
-      <c r="C283" s="72"/>
+      <c r="B283" s="112"/>
+      <c r="C283" s="112"/>
       <c r="D283" s="4" t="s">
         <v>235</v>
       </c>
@@ -7068,13 +7203,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A284" s="72" t="str">
+    <row r="284" spans="1:8">
+      <c r="A284" s="112" t="str">
         <f t="shared" si="9"/>
         <v>Дриод</v>
       </c>
-      <c r="B284" s="72"/>
-      <c r="C284" s="72"/>
+      <c r="B284" s="112"/>
+      <c r="C284" s="112"/>
       <c r="D284" s="4" t="s">
         <v>235</v>
       </c>
@@ -7092,13 +7227,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A285" s="72" t="str">
+    <row r="285" spans="1:8">
+      <c r="A285" s="112" t="str">
         <f t="shared" si="9"/>
         <v>Дроссель</v>
       </c>
-      <c r="B285" s="72"/>
-      <c r="C285" s="72"/>
+      <c r="B285" s="112"/>
+      <c r="C285" s="112"/>
       <c r="D285" s="4" t="s">
         <v>235</v>
       </c>
@@ -7116,13 +7251,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A286" s="72" t="str">
+    <row r="286" spans="1:8">
+      <c r="A286" s="112" t="str">
         <f t="shared" si="9"/>
         <v>Фильтр</v>
       </c>
-      <c r="B286" s="72"/>
-      <c r="C286" s="72"/>
+      <c r="B286" s="112"/>
+      <c r="C286" s="112"/>
       <c r="D286" s="4" t="s">
         <v>235</v>
       </c>
@@ -7140,13 +7275,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A287" s="72" t="str">
+    <row r="287" spans="1:8">
+      <c r="A287" s="112" t="str">
         <f t="shared" si="9"/>
         <v>Панель ламповая</v>
       </c>
-      <c r="B287" s="72"/>
-      <c r="C287" s="72"/>
+      <c r="B287" s="112"/>
+      <c r="C287" s="112"/>
       <c r="D287" s="4" t="s">
         <v>235</v>
       </c>
@@ -7164,13 +7299,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A288" s="72" t="str">
+    <row r="288" spans="1:8">
+      <c r="A288" s="112" t="str">
         <f t="shared" si="9"/>
         <v>заклепка гетинаксовая</v>
       </c>
-      <c r="B288" s="72"/>
-      <c r="C288" s="72"/>
+      <c r="B288" s="112"/>
+      <c r="C288" s="112"/>
       <c r="D288" s="4" t="s">
         <v>235</v>
       </c>
@@ -7188,13 +7323,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A289" s="72" t="str">
+    <row r="289" spans="1:10">
+      <c r="A289" s="112" t="str">
         <f t="shared" si="9"/>
         <v>Плата</v>
       </c>
-      <c r="B289" s="72"/>
-      <c r="C289" s="72"/>
+      <c r="B289" s="112"/>
+      <c r="C289" s="112"/>
       <c r="D289" s="4" t="s">
         <v>235</v>
       </c>
@@ -7212,12 +7347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A290" s="95" t="s">
+    <row r="290" spans="1:10">
+      <c r="A290" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="B290" s="95"/>
-      <c r="C290" s="95"/>
+      <c r="B290" s="128"/>
+      <c r="C290" s="128"/>
       <c r="D290" s="20"/>
       <c r="E290" s="20"/>
       <c r="F290" s="35"/>
@@ -7227,12 +7362,12 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A291" s="75" t="s">
+    <row r="291" spans="1:10">
+      <c r="A291" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="B291" s="75"/>
-      <c r="C291" s="75"/>
+      <c r="B291" s="103"/>
+      <c r="C291" s="103"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="37"/>
@@ -7242,12 +7377,12 @@
         <v>1.5650000000000002</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A292" s="95" t="s">
+    <row r="292" spans="1:10">
+      <c r="A292" s="128" t="s">
         <v>229</v>
       </c>
-      <c r="B292" s="95"/>
-      <c r="C292" s="95"/>
+      <c r="B292" s="128"/>
+      <c r="C292" s="128"/>
       <c r="D292" s="20"/>
       <c r="E292" s="20"/>
       <c r="F292" s="35"/>
@@ -7258,46 +7393,46 @@
       </c>
       <c r="I292" s="40"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B295" s="79" t="s">
+    <row r="295" spans="1:10">
+      <c r="B295" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="C295" s="79"/>
-      <c r="D295" s="79"/>
-      <c r="E295" s="79"/>
-      <c r="F295" s="79"/>
-      <c r="G295" s="79"/>
-      <c r="H295" s="79"/>
-      <c r="I295" s="79"/>
-      <c r="J295" s="79"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A297" s="82" t="s">
+      <c r="C295" s="72"/>
+      <c r="D295" s="72"/>
+      <c r="E295" s="72"/>
+      <c r="F295" s="72"/>
+      <c r="G295" s="72"/>
+      <c r="H295" s="72"/>
+      <c r="I295" s="72"/>
+      <c r="J295" s="72"/>
+    </row>
+    <row r="297" spans="1:10">
+      <c r="A297" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="B297" s="82"/>
-      <c r="C297" s="82"/>
+      <c r="B297" s="102"/>
+      <c r="C297" s="102"/>
       <c r="D297" s="14" t="s">
         <v>239</v>
       </c>
       <c r="E297" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F297" s="82" t="s">
+      <c r="F297" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="G297" s="82"/>
-      <c r="H297" s="82" t="s">
+      <c r="G297" s="102"/>
+      <c r="H297" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="I297" s="82"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A298" s="101">
+      <c r="I297" s="102"/>
+    </row>
+    <row r="298" spans="1:10">
+      <c r="A298" s="91">
         <v>1</v>
       </c>
-      <c r="B298" s="101"/>
-      <c r="C298" s="101"/>
+      <c r="B298" s="91"/>
+      <c r="C298" s="91"/>
       <c r="D298" s="4">
         <v>3</v>
       </c>
@@ -7305,26 +7440,26 @@
         <f>B25</f>
         <v>1.55</v>
       </c>
-      <c r="F298" s="131">
+      <c r="F298" s="73">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G298" s="132"/>
-      <c r="H298" s="80">
+      <c r="G298" s="74"/>
+      <c r="H298" s="77">
         <f t="shared" ref="H298:H305" si="10">E298*F298/60</f>
         <v>2.1544999999999998E-2</v>
       </c>
-      <c r="I298" s="81"/>
+      <c r="I298" s="78"/>
       <c r="J298" s="2">
         <f>H298*12945</f>
         <v>278.90002499999997</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A299" s="101">
+    <row r="299" spans="1:10">
+      <c r="A299" s="91">
         <v>2</v>
       </c>
-      <c r="B299" s="101"/>
-      <c r="C299" s="101"/>
+      <c r="B299" s="91"/>
+      <c r="C299" s="91"/>
       <c r="D299" s="4">
         <v>3</v>
       </c>
@@ -7332,26 +7467,26 @@
         <f t="shared" ref="E299:E306" si="11">B26</f>
         <v>6.23</v>
       </c>
-      <c r="F299" s="131">
+      <c r="F299" s="73">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G299" s="132"/>
-      <c r="H299" s="80">
+      <c r="G299" s="74"/>
+      <c r="H299" s="77">
         <f t="shared" si="10"/>
         <v>8.6597000000000007E-2</v>
       </c>
-      <c r="I299" s="81"/>
+      <c r="I299" s="78"/>
       <c r="J299" s="2">
         <f t="shared" ref="J299:J305" si="12">H299*12945</f>
         <v>1120.9981650000002</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A300" s="101">
+    <row r="300" spans="1:10">
+      <c r="A300" s="91">
         <v>3</v>
       </c>
-      <c r="B300" s="101"/>
-      <c r="C300" s="101"/>
+      <c r="B300" s="91"/>
+      <c r="C300" s="91"/>
       <c r="D300" s="4">
         <v>3</v>
       </c>
@@ -7363,22 +7498,22 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="G300" s="68"/>
-      <c r="H300" s="80">
+      <c r="H300" s="77">
         <f t="shared" si="10"/>
         <v>2.1127999999999997E-2</v>
       </c>
-      <c r="I300" s="81"/>
+      <c r="I300" s="78"/>
       <c r="J300" s="2">
         <f t="shared" si="12"/>
         <v>273.50195999999994</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A301" s="101">
+    <row r="301" spans="1:10">
+      <c r="A301" s="91">
         <v>4</v>
       </c>
-      <c r="B301" s="101"/>
-      <c r="C301" s="101"/>
+      <c r="B301" s="91"/>
+      <c r="C301" s="91"/>
       <c r="D301" s="4">
         <v>3</v>
       </c>
@@ -7390,22 +7525,22 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="G301" s="68"/>
-      <c r="H301" s="80">
+      <c r="H301" s="77">
         <f t="shared" si="10"/>
         <v>6.4635000000000012E-2</v>
       </c>
-      <c r="I301" s="81"/>
+      <c r="I301" s="78"/>
       <c r="J301" s="2">
         <f t="shared" si="12"/>
         <v>836.7000750000002</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A302" s="101">
+    <row r="302" spans="1:10">
+      <c r="A302" s="91">
         <v>5</v>
       </c>
-      <c r="B302" s="101"/>
-      <c r="C302" s="101"/>
+      <c r="B302" s="91"/>
+      <c r="C302" s="91"/>
       <c r="D302" s="4">
         <v>3</v>
       </c>
@@ -7417,22 +7552,22 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="G302" s="68"/>
-      <c r="H302" s="80">
+      <c r="H302" s="77">
         <f t="shared" si="10"/>
         <v>4.1699999999999994E-2</v>
       </c>
-      <c r="I302" s="81"/>
+      <c r="I302" s="78"/>
       <c r="J302" s="2">
         <f t="shared" si="12"/>
         <v>539.80649999999991</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A303" s="101">
+    <row r="303" spans="1:10">
+      <c r="A303" s="91">
         <v>6</v>
       </c>
-      <c r="B303" s="101"/>
-      <c r="C303" s="101"/>
+      <c r="B303" s="91"/>
+      <c r="C303" s="91"/>
       <c r="D303" s="4">
         <v>3</v>
       </c>
@@ -7444,22 +7579,22 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="G303" s="68"/>
-      <c r="H303" s="80">
+      <c r="H303" s="77">
         <f t="shared" si="10"/>
         <v>2.1127999999999997E-2</v>
       </c>
-      <c r="I303" s="81"/>
+      <c r="I303" s="78"/>
       <c r="J303" s="2">
         <f t="shared" si="12"/>
         <v>273.50195999999994</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A304" s="101">
+    <row r="304" spans="1:10">
+      <c r="A304" s="91">
         <v>7</v>
       </c>
-      <c r="B304" s="101"/>
-      <c r="C304" s="101"/>
+      <c r="B304" s="91"/>
+      <c r="C304" s="91"/>
       <c r="D304" s="4">
         <v>3</v>
       </c>
@@ -7471,22 +7606,22 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="G304" s="68"/>
-      <c r="H304" s="80">
+      <c r="H304" s="77">
         <f t="shared" si="10"/>
         <v>6.5051999999999985E-2</v>
       </c>
-      <c r="I304" s="81"/>
+      <c r="I304" s="78"/>
       <c r="J304" s="2">
         <f t="shared" si="12"/>
         <v>842.09813999999983</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A305" s="101">
+    <row r="305" spans="1:10">
+      <c r="A305" s="91">
         <v>8</v>
       </c>
-      <c r="B305" s="101"/>
-      <c r="C305" s="101"/>
+      <c r="B305" s="91"/>
+      <c r="C305" s="91"/>
       <c r="D305" s="4">
         <v>3</v>
       </c>
@@ -7494,26 +7629,26 @@
         <f t="shared" si="11"/>
         <v>1.65</v>
       </c>
-      <c r="F305" s="131">
+      <c r="F305" s="73">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G305" s="132"/>
-      <c r="H305" s="80">
+      <c r="G305" s="74"/>
+      <c r="H305" s="77">
         <f t="shared" si="10"/>
         <v>2.2934999999999997E-2</v>
       </c>
-      <c r="I305" s="81"/>
+      <c r="I305" s="78"/>
       <c r="J305" s="2">
         <f t="shared" si="12"/>
         <v>296.89357499999994</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A306" s="91">
+    <row r="306" spans="1:10">
+      <c r="A306" s="120">
         <v>9</v>
       </c>
-      <c r="B306" s="124"/>
-      <c r="C306" s="92"/>
+      <c r="B306" s="121"/>
+      <c r="C306" s="122"/>
       <c r="D306" s="4">
         <v>3</v>
       </c>
@@ -7521,17 +7656,17 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F306" s="73">
+      <c r="F306" s="75">
         <v>0</v>
       </c>
-      <c r="G306" s="74"/>
-      <c r="H306" s="80">
+      <c r="G306" s="76"/>
+      <c r="H306" s="77">
         <f t="array" ref="H306">E306*F306/60</f>
         <v>0</v>
       </c>
-      <c r="I306" s="81"/>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I306" s="78"/>
+    </row>
+    <row r="307" spans="1:10">
       <c r="A307" s="123" t="s">
         <v>243</v>
       </c>
@@ -7541,37 +7676,37 @@
       <c r="E307" s="20"/>
       <c r="F307" s="35"/>
       <c r="G307" s="36"/>
-      <c r="H307" s="129">
+      <c r="H307" s="85">
         <f>SUM(H298:H306)</f>
         <v>0.34471999999999997</v>
       </c>
-      <c r="I307" s="130"/>
+      <c r="I307" s="86"/>
       <c r="J307" s="2">
         <f>H307*12945</f>
         <v>4462.4003999999995</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A308" s="75" t="s">
+    <row r="308" spans="1:10">
+      <c r="A308" s="103" t="s">
         <v>434</v>
       </c>
-      <c r="B308" s="75"/>
-      <c r="C308" s="75"/>
+      <c r="B308" s="103"/>
+      <c r="C308" s="103"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="37"/>
       <c r="G308" s="38"/>
-      <c r="H308" s="80">
+      <c r="H308" s="77">
         <f>0.4*H307</f>
         <v>0.13788799999999998</v>
       </c>
-      <c r="I308" s="81"/>
+      <c r="I308" s="78"/>
       <c r="J308" s="2">
         <f>H308*12945</f>
         <v>1784.9601599999999</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10">
       <c r="A309" s="123" t="s">
         <v>244</v>
       </c>
@@ -7581,30 +7716,30 @@
       <c r="E309" s="4"/>
       <c r="F309" s="37"/>
       <c r="G309" s="38"/>
-      <c r="H309" s="129">
+      <c r="H309" s="85">
         <f t="array" ref="H309">SUM(H307:H308)</f>
         <v>0.48260799999999993</v>
       </c>
-      <c r="I309" s="130"/>
+      <c r="I309" s="86"/>
       <c r="J309" s="2">
         <f>H309*12945</f>
         <v>6247.3605599999992</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B313" s="79" t="s">
+    <row r="313" spans="1:10">
+      <c r="B313" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="C313" s="79"/>
-      <c r="D313" s="79"/>
-      <c r="E313" s="79"/>
-      <c r="F313" s="79"/>
-      <c r="G313" s="79"/>
-      <c r="H313" s="79"/>
-      <c r="I313" s="79"/>
-      <c r="J313" s="79"/>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C313" s="72"/>
+      <c r="D313" s="72"/>
+      <c r="E313" s="72"/>
+      <c r="F313" s="72"/>
+      <c r="G313" s="72"/>
+      <c r="H313" s="72"/>
+      <c r="I313" s="72"/>
+      <c r="J313" s="72"/>
+    </row>
+    <row r="315" spans="1:10">
       <c r="C315" s="2" t="s">
         <v>199</v>
       </c>
@@ -7623,42 +7758,52 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B318" s="79" t="s">
+    <row r="318" spans="1:10">
+      <c r="B318" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="C318" s="79"/>
-      <c r="D318" s="79"/>
-      <c r="E318" s="79"/>
-      <c r="F318" s="79"/>
-      <c r="G318" s="79"/>
-      <c r="H318" s="79"/>
-      <c r="I318" s="79"/>
-      <c r="J318" s="79"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C318" s="72"/>
+      <c r="D318" s="72"/>
+      <c r="E318" s="72"/>
+      <c r="F318" s="72"/>
+      <c r="G318" s="72"/>
+      <c r="H318" s="72"/>
+      <c r="I318" s="72"/>
+      <c r="J318" s="72"/>
+    </row>
+    <row r="320" spans="1:10">
       <c r="B320" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="322" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:23" ht="19.5" thickBot="1">
+      <c r="I321" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J321" s="59">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="322" spans="3:23" ht="75">
       <c r="C322" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D322" s="11">
-        <f>(H309+D315)*H322</f>
-        <v>0.32310605599999997</v>
+        <f>(W329+J321)/M2</f>
+        <v>0.23468288914638855</v>
       </c>
       <c r="E322" s="2">
         <f>D322*12945</f>
-        <v>4182.60789492</v>
+        <v>3037.97</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>251</v>
       </c>
       <c r="H322" s="59">
-        <v>0.51500000000000001</v>
-      </c>
+        <f>E322/J309</f>
+        <v>0.48628056133837105</v>
+      </c>
+      <c r="I322" s="166"/>
       <c r="K322" s="4" t="s">
         <v>364</v>
       </c>
@@ -7675,8 +7820,26 @@
       <c r="P322" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="323" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R322" s="157" t="s">
+        <v>493</v>
+      </c>
+      <c r="S322" s="157" t="s">
+        <v>494</v>
+      </c>
+      <c r="T322" s="157" t="s">
+        <v>495</v>
+      </c>
+      <c r="U322" s="157" t="s">
+        <v>496</v>
+      </c>
+      <c r="V322" s="157" t="s">
+        <v>497</v>
+      </c>
+      <c r="W322" s="158" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="323" spans="3:23" ht="21" thickBot="1">
       <c r="K323" s="4" t="s">
         <v>365</v>
       </c>
@@ -7695,8 +7858,16 @@
         <f t="array" ref="P323">M323*N323</f>
         <v>0.754</v>
       </c>
-    </row>
-    <row r="324" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R323" s="159"/>
+      <c r="S323" s="159"/>
+      <c r="T323" s="159"/>
+      <c r="U323" s="159"/>
+      <c r="V323" s="159"/>
+      <c r="W323" s="160" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="324" spans="3:23" ht="19.5" thickBot="1">
       <c r="K324" s="4" t="s">
         <v>366</v>
       </c>
@@ -7715,8 +7886,26 @@
         <f t="array" ref="P324">M324*N324</f>
         <v>1.6679999999999999</v>
       </c>
-    </row>
-    <row r="325" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R324" s="161" t="s">
+        <v>498</v>
+      </c>
+      <c r="S324" s="162">
+        <v>4</v>
+      </c>
+      <c r="T324" s="162" t="s">
+        <v>499</v>
+      </c>
+      <c r="U324" s="162" t="s">
+        <v>500</v>
+      </c>
+      <c r="V324" s="162">
+        <v>1.127</v>
+      </c>
+      <c r="W324" s="163">
+        <v>1055.23</v>
+      </c>
+    </row>
+    <row r="325" spans="3:23" ht="19.5" thickBot="1">
       <c r="K325" s="4" t="s">
         <v>367</v>
       </c>
@@ -7735,8 +7924,26 @@
         <f t="array" ref="P325">M325*N325</f>
         <v>2.254</v>
       </c>
-    </row>
-    <row r="326" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R325" s="161" t="s">
+        <v>501</v>
+      </c>
+      <c r="S325" s="162">
+        <v>2</v>
+      </c>
+      <c r="T325" s="162" t="s">
+        <v>502</v>
+      </c>
+      <c r="U325" s="164" t="s">
+        <v>500</v>
+      </c>
+      <c r="V325" s="162">
+        <v>0.754</v>
+      </c>
+      <c r="W325" s="163">
+        <v>352.99</v>
+      </c>
+    </row>
+    <row r="326" spans="3:23" ht="19.5" thickBot="1">
       <c r="D326" s="41"/>
       <c r="K326" s="4"/>
       <c r="L326" s="4"/>
@@ -7747,40 +7954,112 @@
         <f t="array" ref="P326">SUM(P323:P325)</f>
         <v>4.6760000000000002</v>
       </c>
-    </row>
-    <row r="336" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="R326" s="161" t="s">
+        <v>503</v>
+      </c>
+      <c r="S326" s="162">
+        <v>2</v>
+      </c>
+      <c r="T326" s="162" t="s">
+        <v>504</v>
+      </c>
+      <c r="U326" s="164" t="s">
+        <v>500</v>
+      </c>
+      <c r="V326" s="162">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="W326" s="163">
+        <v>390.45</v>
+      </c>
+    </row>
+    <row r="327" spans="3:23" ht="19.5" thickBot="1">
+      <c r="R327" s="161" t="s">
+        <v>505</v>
+      </c>
+      <c r="S327" s="162">
+        <v>2</v>
+      </c>
+      <c r="T327" s="162" t="s">
+        <v>506</v>
+      </c>
+      <c r="U327" s="164" t="s">
+        <v>500</v>
+      </c>
+      <c r="V327" s="162">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="W327" s="163">
+        <v>326.3</v>
+      </c>
+    </row>
+    <row r="328" spans="3:23" ht="19.5" thickBot="1">
+      <c r="R328" s="161" t="s">
+        <v>507</v>
+      </c>
+      <c r="S328" s="162">
+        <v>2</v>
+      </c>
+      <c r="T328" s="162" t="s">
+        <v>502</v>
+      </c>
+      <c r="U328" s="164" t="s">
+        <v>500</v>
+      </c>
+      <c r="V328" s="162">
+        <v>0.754</v>
+      </c>
+      <c r="W328" s="163">
+        <v>352.99</v>
+      </c>
+    </row>
+    <row r="329" spans="3:23" ht="19.5" thickBot="1">
+      <c r="R329" s="161" t="s">
+        <v>510</v>
+      </c>
+      <c r="S329" s="162">
+        <v>12</v>
+      </c>
+      <c r="T329" s="162"/>
+      <c r="U329" s="162"/>
+      <c r="V329" s="162"/>
+      <c r="W329" s="165">
+        <v>2477.9699999999998</v>
+      </c>
+    </row>
+    <row r="336" spans="3:23">
       <c r="D336" s="41"/>
     </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:10">
       <c r="D340" s="11"/>
     </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:10">
       <c r="D344" s="11"/>
     </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B347" s="79" t="s">
+    <row r="347" spans="2:10">
+      <c r="B347" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="C347" s="79"/>
-      <c r="D347" s="79"/>
-      <c r="E347" s="79"/>
-      <c r="F347" s="79"/>
-      <c r="G347" s="79"/>
-      <c r="H347" s="79"/>
-      <c r="I347" s="79"/>
-      <c r="J347" s="79"/>
-    </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C347" s="72"/>
+      <c r="D347" s="72"/>
+      <c r="E347" s="72"/>
+      <c r="F347" s="72"/>
+      <c r="G347" s="72"/>
+      <c r="H347" s="72"/>
+      <c r="I347" s="72"/>
+      <c r="J347" s="72"/>
+    </row>
+    <row r="349" spans="2:10">
       <c r="B349" s="2" t="s">
         <v>258</v>
       </c>
       <c r="C349" s="41">
         <f>SUM(H227:H229)*G349/100</f>
-        <v>0.33267375959999995</v>
+        <v>0.30172565120123596</v>
       </c>
       <c r="D349" s="2">
         <f>C349*12945</f>
-        <v>4306.4618180219995</v>
+        <v>3905.8385547999997</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>259</v>
@@ -7791,31 +8070,42 @@
       <c r="H349" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B352" s="79" t="s">
+      <c r="I349" s="59"/>
+    </row>
+    <row r="350" spans="2:10">
+      <c r="I350" s="59">
+        <f>(6247.36+1874.21+3037.97)*0.35</f>
+        <v>3905.8389999999995</v>
+      </c>
+      <c r="J350" s="59">
+        <f>I350/M2</f>
+        <v>0.30172568559289298</v>
+      </c>
+    </row>
+    <row r="352" spans="2:10">
+      <c r="B352" s="72" t="s">
         <v>436</v>
       </c>
-      <c r="C352" s="79"/>
-      <c r="D352" s="79"/>
-      <c r="E352" s="79"/>
-      <c r="F352" s="79"/>
-      <c r="G352" s="79"/>
-      <c r="H352" s="79"/>
-      <c r="I352" s="79"/>
-      <c r="J352" s="79"/>
-    </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C352" s="72"/>
+      <c r="D352" s="72"/>
+      <c r="E352" s="72"/>
+      <c r="F352" s="72"/>
+      <c r="G352" s="72"/>
+      <c r="H352" s="72"/>
+      <c r="I352" s="72"/>
+      <c r="J352" s="72"/>
+    </row>
+    <row r="354" spans="2:10">
       <c r="B354" s="2" t="s">
         <v>435</v>
       </c>
       <c r="C354" s="41">
         <f>SUM(H227:H229)*G354/100</f>
-        <v>4.7524822799999998E-2</v>
+        <v>4.3103664457319418E-2</v>
       </c>
       <c r="D354" s="2">
         <f>C354*12945</f>
-        <v>615.20883114599997</v>
+        <v>557.97693639999989</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>261</v>
@@ -7826,21 +8116,23 @@
       <c r="H354" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B357" s="79" t="s">
+      <c r="I354" s="59"/>
+      <c r="J354" s="59"/>
+    </row>
+    <row r="357" spans="2:10">
+      <c r="B357" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="C357" s="79"/>
-      <c r="D357" s="79"/>
-      <c r="E357" s="79"/>
-      <c r="F357" s="79"/>
-      <c r="G357" s="79"/>
-      <c r="H357" s="79"/>
-      <c r="I357" s="79"/>
-      <c r="J357" s="79"/>
-    </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C357" s="72"/>
+      <c r="D357" s="72"/>
+      <c r="E357" s="72"/>
+      <c r="F357" s="72"/>
+      <c r="G357" s="72"/>
+      <c r="H357" s="72"/>
+      <c r="I357" s="72"/>
+      <c r="J357" s="72"/>
+    </row>
+    <row r="359" spans="2:10">
       <c r="B359" s="2" t="s">
         <v>203</v>
       </c>
@@ -7859,7 +8151,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:10">
       <c r="F360" s="2" t="s">
         <v>263</v>
       </c>
@@ -7870,7 +8162,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:10">
       <c r="F361" s="2" t="s">
         <v>264</v>
       </c>
@@ -7881,7 +8173,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:10">
       <c r="F362" s="2" t="s">
         <v>265</v>
       </c>
@@ -7892,7 +8184,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:10">
       <c r="F363" s="2" t="s">
         <v>266</v>
       </c>
@@ -7901,7 +8193,7 @@
         <v>0.97001033634334421</v>
       </c>
     </row>
-    <row r="364" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:10">
       <c r="F364" s="2" t="s">
         <v>267</v>
       </c>
@@ -7909,7 +8201,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="365" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:10">
       <c r="F365" s="2" t="s">
         <v>268</v>
       </c>
@@ -7917,20 +8209,20 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B368" s="79" t="s">
+    <row r="368" spans="2:10">
+      <c r="B368" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="C368" s="79"/>
-      <c r="D368" s="79"/>
-      <c r="E368" s="79"/>
-      <c r="F368" s="79"/>
-      <c r="G368" s="79"/>
-      <c r="H368" s="79"/>
-      <c r="I368" s="79"/>
-      <c r="J368" s="79"/>
-    </row>
-    <row r="370" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C368" s="72"/>
+      <c r="D368" s="72"/>
+      <c r="E368" s="72"/>
+      <c r="F368" s="72"/>
+      <c r="G368" s="72"/>
+      <c r="H368" s="72"/>
+      <c r="I368" s="72"/>
+      <c r="J368" s="72"/>
+    </row>
+    <row r="370" spans="2:12">
       <c r="B370" s="2" t="s">
         <v>271</v>
       </c>
@@ -7948,20 +8240,20 @@
         <v>260</v>
       </c>
     </row>
-    <row r="373" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B373" s="79" t="s">
+    <row r="373" spans="2:12">
+      <c r="B373" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="C373" s="79"/>
-      <c r="D373" s="79"/>
-      <c r="E373" s="79"/>
-      <c r="F373" s="79"/>
-      <c r="G373" s="79"/>
-      <c r="H373" s="79"/>
-      <c r="I373" s="79"/>
-      <c r="J373" s="79"/>
-    </row>
-    <row r="375" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C373" s="72"/>
+      <c r="D373" s="72"/>
+      <c r="E373" s="72"/>
+      <c r="F373" s="72"/>
+      <c r="G373" s="72"/>
+      <c r="H373" s="72"/>
+      <c r="I373" s="72"/>
+      <c r="J373" s="72"/>
+    </row>
+    <row r="375" spans="2:12">
       <c r="B375" s="2" t="s">
         <v>274</v>
       </c>
@@ -7986,25 +8278,35 @@
         <v>458</v>
       </c>
     </row>
-    <row r="378" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B378" s="79" t="s">
+    <row r="376" spans="2:12">
+      <c r="C376" s="59">
+        <f>J309*0.15</f>
+        <v>937.10408399999983</v>
+      </c>
+      <c r="D376" s="59">
+        <f>C376/M2</f>
+        <v>7.2391199999999989E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="2:12">
+      <c r="B378" s="72" t="s">
         <v>438</v>
       </c>
-      <c r="C378" s="79"/>
-      <c r="D378" s="79"/>
-      <c r="E378" s="79"/>
-      <c r="F378" s="79"/>
-      <c r="G378" s="79"/>
-      <c r="H378" s="79"/>
-      <c r="I378" s="79"/>
-      <c r="J378" s="79"/>
-    </row>
-    <row r="379" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C378" s="72"/>
+      <c r="D378" s="72"/>
+      <c r="E378" s="72"/>
+      <c r="F378" s="72"/>
+      <c r="G378" s="72"/>
+      <c r="H378" s="72"/>
+      <c r="I378" s="72"/>
+      <c r="J378" s="72"/>
+    </row>
+    <row r="379" spans="2:12">
       <c r="L379" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="380" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:12">
       <c r="B380" s="2" t="s">
         <v>206</v>
       </c>
@@ -8013,24 +8315,32 @@
         <v>0.11428944079890588</v>
       </c>
       <c r="D380" s="2">
-        <f>$M$2</f>
+        <f>M2</f>
         <v>12945</v>
       </c>
-    </row>
-    <row r="382" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B382" s="79" t="s">
+      <c r="E380" s="59">
+        <f>H166/12</f>
+        <v>123.28973426181972</v>
+      </c>
+      <c r="F380" s="2">
+        <f>E380/M2</f>
+        <v>9.5241200665754904E-3</v>
+      </c>
+    </row>
+    <row r="382" spans="2:12">
+      <c r="B382" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="C382" s="79"/>
-      <c r="D382" s="79"/>
-      <c r="E382" s="79"/>
-      <c r="F382" s="79"/>
-      <c r="G382" s="79"/>
-      <c r="H382" s="79"/>
-      <c r="I382" s="79"/>
-      <c r="J382" s="79"/>
-    </row>
-    <row r="384" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C382" s="72"/>
+      <c r="D382" s="72"/>
+      <c r="E382" s="72"/>
+      <c r="F382" s="72"/>
+      <c r="G382" s="72"/>
+      <c r="H382" s="72"/>
+      <c r="I382" s="72"/>
+      <c r="J382" s="72"/>
+    </row>
+    <row r="384" spans="2:12">
       <c r="B384" s="2" t="s">
         <v>207</v>
       </c>
@@ -8055,20 +8365,20 @@
         <v>455</v>
       </c>
     </row>
-    <row r="387" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B387" s="79" t="s">
+    <row r="387" spans="2:12">
+      <c r="B387" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="C387" s="79"/>
-      <c r="D387" s="79"/>
-      <c r="E387" s="79"/>
-      <c r="F387" s="79"/>
-      <c r="G387" s="79"/>
-      <c r="H387" s="79"/>
-      <c r="I387" s="79"/>
-      <c r="J387" s="79"/>
-    </row>
-    <row r="389" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C387" s="72"/>
+      <c r="D387" s="72"/>
+      <c r="E387" s="72"/>
+      <c r="F387" s="72"/>
+      <c r="G387" s="72"/>
+      <c r="H387" s="72"/>
+      <c r="I387" s="72"/>
+      <c r="J387" s="72"/>
+    </row>
+    <row r="389" spans="2:12">
       <c r="B389" s="2" t="s">
         <v>208</v>
       </c>
@@ -8093,30 +8403,34 @@
         <v>454</v>
       </c>
     </row>
-    <row r="392" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B392" s="79" t="s">
+    <row r="392" spans="2:12">
+      <c r="B392" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="C392" s="79"/>
-      <c r="D392" s="79"/>
-      <c r="E392" s="79"/>
-      <c r="F392" s="79"/>
-      <c r="G392" s="79"/>
-      <c r="H392" s="79"/>
-      <c r="I392" s="79"/>
-      <c r="J392" s="79"/>
-    </row>
-    <row r="394" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C392" s="72"/>
+      <c r="D392" s="72"/>
+      <c r="E392" s="72"/>
+      <c r="F392" s="72"/>
+      <c r="G392" s="72"/>
+      <c r="H392" s="72"/>
+      <c r="I392" s="72"/>
+      <c r="J392" s="72"/>
+    </row>
+    <row r="394" spans="2:12">
       <c r="B394" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C394" s="41">
         <f>SUM(H225:H237)*G394/100</f>
-        <v>0.25194282284036584</v>
+        <v>0.25110666234876733</v>
       </c>
       <c r="D394" s="41">
         <f>SUM(H225:H237)</f>
-        <v>35.99183183433798</v>
+        <v>35.872380335538189</v>
+      </c>
+      <c r="E394" s="2">
+        <f>D394*M2</f>
+        <v>464367.96344354184</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>283</v>
@@ -8128,31 +8442,31 @@
         <v>453</v>
       </c>
     </row>
-    <row r="395" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C395" s="2">
+    <row r="395" spans="2:12">
+      <c r="C395" s="167">
         <f>C394*12945</f>
-        <v>3261.3998416685358</v>
+        <v>3250.5757441047931</v>
       </c>
       <c r="D395" s="70">
         <f>F239*0.01</f>
-        <v>4691.7566293717373</v>
+        <v>4676.1903668764662</v>
       </c>
       <c r="G395" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B396" s="79" t="s">
+    <row r="396" spans="2:12">
+      <c r="B396" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="C396" s="79"/>
-      <c r="D396" s="79"/>
-      <c r="E396" s="79"/>
-      <c r="F396" s="79"/>
-      <c r="G396" s="79"/>
-      <c r="H396" s="79"/>
-      <c r="I396" s="79"/>
-      <c r="J396" s="79"/>
+      <c r="C396" s="72"/>
+      <c r="D396" s="72"/>
+      <c r="E396" s="72"/>
+      <c r="F396" s="72"/>
+      <c r="G396" s="72"/>
+      <c r="H396" s="72"/>
+      <c r="I396" s="72"/>
+      <c r="J396" s="72"/>
       <c r="K396" s="2" t="s">
         <v>492</v>
       </c>
@@ -8160,17 +8474,21 @@
         <v>497560.31</v>
       </c>
     </row>
-    <row r="398" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:12">
       <c r="B398" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C398" s="41">
         <f>H239*G398/100</f>
-        <v>0.3624377465717834</v>
+        <v>0.36123486997886955</v>
       </c>
       <c r="D398" s="59">
         <f>F239*G398/100</f>
-        <v>4691.7566293717373</v>
+        <v>4676.1903668764662</v>
+      </c>
+      <c r="E398" s="2">
+        <f>D398/M2</f>
+        <v>0.36123525429713915</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>286</v>
@@ -8185,34 +8503,34 @@
         <v>452</v>
       </c>
     </row>
-    <row r="400" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B400" s="79" t="s">
+    <row r="400" spans="2:12">
+      <c r="B400" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="C400" s="79"/>
-      <c r="D400" s="79"/>
-      <c r="E400" s="79"/>
-      <c r="F400" s="79"/>
-      <c r="G400" s="79"/>
-      <c r="H400" s="79"/>
-      <c r="I400" s="79"/>
-      <c r="J400" s="79"/>
-    </row>
-    <row r="402" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C400" s="72"/>
+      <c r="D400" s="72"/>
+      <c r="E400" s="72"/>
+      <c r="F400" s="72"/>
+      <c r="G400" s="72"/>
+      <c r="H400" s="72"/>
+      <c r="I400" s="72"/>
+      <c r="J400" s="72"/>
+    </row>
+    <row r="402" spans="2:13">
       <c r="B402" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C402" s="41">
         <f>(H241+C398)*G402/100</f>
-        <v>18.484325075160957</v>
+        <v>18.422978368922351</v>
       </c>
       <c r="D402" s="71">
         <f>F241*0.5</f>
-        <v>236933.70978327273</v>
+        <v>236147.61103976151</v>
       </c>
       <c r="E402" s="41">
         <f>F241</f>
-        <v>473867.41956654546</v>
+        <v>472295.22207952302</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>287</v>
@@ -8226,31 +8544,42 @@
       <c r="I402" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="404" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B404" s="79" t="s">
+      <c r="K402" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L402" s="168">
+        <f>D402+F241</f>
+        <v>708442.83311928459</v>
+      </c>
+      <c r="M402" s="2">
+        <f>L402/M2</f>
+        <v>54.727140449539171</v>
+      </c>
+    </row>
+    <row r="404" spans="2:13">
+      <c r="B404" s="72" t="s">
         <v>415</v>
       </c>
-      <c r="C404" s="79"/>
-      <c r="D404" s="79"/>
-      <c r="E404" s="79"/>
-      <c r="F404" s="79"/>
-      <c r="G404" s="79"/>
-      <c r="H404" s="79"/>
-      <c r="I404" s="79"/>
-      <c r="J404" s="79"/>
-    </row>
-    <row r="406" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C404" s="72"/>
+      <c r="D404" s="72"/>
+      <c r="E404" s="72"/>
+      <c r="F404" s="72"/>
+      <c r="G404" s="72"/>
+      <c r="H404" s="72"/>
+      <c r="I404" s="72"/>
+      <c r="J404" s="72"/>
+    </row>
+    <row r="406" spans="2:13">
       <c r="B406" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C406" s="41">
-        <f>(C414*G406)/(100-G406)</f>
-        <v>1.421871159627766</v>
+      <c r="C406" s="70">
+        <f>(M402*G406)/(100-G406)</f>
+        <v>1.4032600115266454</v>
       </c>
       <c r="E406" s="59">
-        <f>L396*2.5/97.5</f>
-        <v>12757.956666666665</v>
+        <f>M402*2.5/97.5</f>
+        <v>1.4032600115266454</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>417</v>
@@ -8262,30 +8591,36 @@
         <v>260</v>
       </c>
     </row>
-    <row r="408" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B408" s="79" t="s">
+    <row r="407" spans="2:13">
+      <c r="E407" s="2">
+        <f>E406*M2</f>
+        <v>18165.200849212426</v>
+      </c>
+    </row>
+    <row r="408" spans="2:13">
+      <c r="B408" s="72" t="s">
         <v>418</v>
       </c>
-      <c r="C408" s="79"/>
-      <c r="D408" s="79"/>
-      <c r="E408" s="79"/>
-      <c r="F408" s="79"/>
-      <c r="G408" s="79"/>
-      <c r="H408" s="79"/>
-      <c r="I408" s="79"/>
-      <c r="J408" s="79"/>
-    </row>
-    <row r="410" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C408" s="72"/>
+      <c r="D408" s="72"/>
+      <c r="E408" s="72"/>
+      <c r="F408" s="72"/>
+      <c r="G408" s="72"/>
+      <c r="H408" s="72"/>
+      <c r="I408" s="72"/>
+      <c r="J408" s="72"/>
+    </row>
+    <row r="410" spans="2:13">
       <c r="B410" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C410" s="41">
+      <c r="C410" s="70">
         <f>((C414+C406)*G410)/(100-G410)</f>
-        <v>1.1607111507165435</v>
+        <v>1.1565754105774224</v>
       </c>
       <c r="E410" s="59">
-        <f>(L396+E406)*2/98</f>
-        <v>10414.658503401361</v>
+        <f>(M402+E406)*2/98</f>
+        <v>1.1455183767564452</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>419</v>
@@ -8297,96 +8632,114 @@
         <v>260</v>
       </c>
     </row>
-    <row r="412" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B412" s="122" t="s">
+    <row r="411" spans="2:13">
+      <c r="E411" s="2">
+        <f>E410*M2</f>
+        <v>14828.735387112183</v>
+      </c>
+    </row>
+    <row r="412" spans="2:13" s="17" customFormat="1">
+      <c r="B412" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="C412" s="122"/>
-      <c r="D412" s="122"/>
-      <c r="E412" s="122"/>
-      <c r="F412" s="122"/>
-      <c r="G412" s="122"/>
-      <c r="H412" s="122"/>
-      <c r="I412" s="122"/>
-      <c r="J412" s="122"/>
-    </row>
-    <row r="414" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C412" s="124"/>
+      <c r="D412" s="124"/>
+      <c r="E412" s="124"/>
+      <c r="F412" s="124"/>
+      <c r="G412" s="124"/>
+      <c r="H412" s="124"/>
+      <c r="I412" s="124"/>
+      <c r="J412" s="124"/>
+    </row>
+    <row r="414" spans="2:13">
       <c r="B414" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C414" s="41">
         <f>(H241+C398)+C402</f>
-        <v>55.452975225482874</v>
-      </c>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B417" s="125" t="s">
+        <v>55.268935106767053</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10">
+      <c r="B417" s="126" t="s">
         <v>440</v>
       </c>
-      <c r="C417" s="125"/>
-      <c r="D417" s="125"/>
-      <c r="E417" s="125"/>
-      <c r="F417" s="125"/>
-      <c r="G417" s="125"/>
-      <c r="H417" s="125"/>
-      <c r="I417" s="125"/>
-      <c r="J417" s="125"/>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C417" s="126"/>
+      <c r="D417" s="126"/>
+      <c r="E417" s="126"/>
+      <c r="F417" s="126"/>
+      <c r="G417" s="126"/>
+      <c r="H417" s="126"/>
+      <c r="I417" s="126"/>
+      <c r="J417" s="126"/>
+    </row>
+    <row r="419" spans="1:10">
       <c r="B419" s="2" t="s">
         <v>441</v>
       </c>
       <c r="C419" s="41">
         <f>F243+C406+C410</f>
-        <v>713149.5902468143</v>
-      </c>
-      <c r="E419" s="59">
-        <f>L396+E406+E410</f>
-        <v>520732.92517006805</v>
-      </c>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B421" s="79" t="s">
+        <v>710783.23690064508</v>
+      </c>
+      <c r="E419" s="70">
+        <f>L402+E407+E411</f>
+        <v>741436.7693556092</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10">
+      <c r="E420" s="2">
+        <f>E419/M2</f>
+        <v>57.27591883782226</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10">
+      <c r="B421" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="C421" s="79"/>
-      <c r="D421" s="79"/>
-      <c r="E421" s="79"/>
-      <c r="F421" s="79"/>
-      <c r="G421" s="79"/>
-      <c r="H421" s="79"/>
-      <c r="I421" s="79"/>
-      <c r="J421" s="79"/>
-    </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C421" s="72"/>
+      <c r="D421" s="72"/>
+      <c r="E421" s="72"/>
+      <c r="F421" s="72"/>
+      <c r="G421" s="72"/>
+      <c r="H421" s="72"/>
+      <c r="I421" s="72"/>
+      <c r="J421" s="72"/>
+    </row>
+    <row r="423" spans="1:10">
       <c r="B423" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C423" s="41">
         <f>C414*G423/100</f>
-        <v>9.9815355405869166</v>
+        <v>11.05378702135341</v>
       </c>
       <c r="E423" s="59">
         <f>E419*0.2</f>
-        <v>104146.58503401361</v>
+        <v>148287.35387112186</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G423" s="2">
-        <v>18</v>
+      <c r="G423" s="59">
+        <v>20</v>
       </c>
       <c r="H423" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10">
+      <c r="E424" s="2">
+        <f>E423/M2</f>
+        <v>11.455183767564455</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10">
       <c r="B425" s="2" t="s">
         <v>491</v>
       </c>
       <c r="C425" s="2">
         <f>C414*G425/100</f>
-        <v>2.1626660337938319</v>
+        <v>2.1554884691639149</v>
       </c>
       <c r="G425" s="2">
         <v>3.9</v>
@@ -8395,20 +8748,20 @@
         <v>260</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B426" s="79" t="s">
+    <row r="426" spans="1:10">
+      <c r="B426" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="C426" s="79"/>
-      <c r="D426" s="79"/>
-      <c r="E426" s="79"/>
-      <c r="F426" s="79"/>
-      <c r="G426" s="79"/>
-      <c r="H426" s="79"/>
-      <c r="I426" s="79"/>
-      <c r="J426" s="79"/>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C426" s="72"/>
+      <c r="D426" s="72"/>
+      <c r="E426" s="72"/>
+      <c r="F426" s="72"/>
+      <c r="G426" s="72"/>
+      <c r="H426" s="72"/>
+      <c r="I426" s="72"/>
+      <c r="J426" s="72"/>
+    </row>
+    <row r="427" spans="1:10">
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -8419,52 +8772,56 @@
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10">
       <c r="B428" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C428" s="41">
         <f>C414+C423+C425</f>
-        <v>67.597176799863618</v>
+        <v>68.478210597284374</v>
       </c>
       <c r="E428" s="59">
         <f>E419+E423</f>
-        <v>624879.51020408166</v>
-      </c>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A430" s="79" t="s">
+        <v>889724.12322673108</v>
+      </c>
+      <c r="F428" s="2">
+        <f>E428/M2</f>
+        <v>68.731102605386724</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10">
+      <c r="A430" s="72" t="s">
         <v>292</v>
       </c>
-      <c r="B430" s="79"/>
-      <c r="C430" s="79"/>
-      <c r="D430" s="79"/>
-      <c r="E430" s="79"/>
-      <c r="F430" s="79"/>
-      <c r="G430" s="79"/>
-      <c r="H430" s="79"/>
-      <c r="I430" s="79"/>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B432" s="110" t="s">
+      <c r="B430" s="72"/>
+      <c r="C430" s="72"/>
+      <c r="D430" s="72"/>
+      <c r="E430" s="72"/>
+      <c r="F430" s="72"/>
+      <c r="G430" s="72"/>
+      <c r="H430" s="72"/>
+      <c r="I430" s="72"/>
+    </row>
+    <row r="432" spans="1:10">
+      <c r="B432" s="125" t="s">
         <v>409</v>
       </c>
-      <c r="C432" s="79"/>
-      <c r="D432" s="79"/>
-      <c r="E432" s="79"/>
-      <c r="F432" s="79"/>
-      <c r="G432" s="79"/>
-      <c r="H432" s="79"/>
-      <c r="I432" s="79"/>
-      <c r="J432" s="79"/>
-    </row>
-    <row r="433" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C432" s="72"/>
+      <c r="D432" s="72"/>
+      <c r="E432" s="72"/>
+      <c r="F432" s="72"/>
+      <c r="G432" s="72"/>
+      <c r="H432" s="72"/>
+      <c r="I432" s="72"/>
+      <c r="J432" s="72"/>
+    </row>
+    <row r="433" spans="2:10">
       <c r="B433" s="44"/>
       <c r="C433" s="44"/>
       <c r="D433" s="44"/>
       <c r="E433" s="44"/>
     </row>
-    <row r="434" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:10">
       <c r="D434" s="2" t="s">
         <v>323</v>
       </c>
@@ -8473,100 +8830,100 @@
         <v>16088.465775255103</v>
       </c>
     </row>
-    <row r="436" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B436" s="79" t="s">
+    <row r="436" spans="2:10">
+      <c r="B436" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="C436" s="79"/>
-      <c r="D436" s="79"/>
-      <c r="E436" s="79"/>
-      <c r="F436" s="79"/>
-      <c r="G436" s="79"/>
-      <c r="H436" s="79"/>
-      <c r="I436" s="79"/>
-      <c r="J436" s="79"/>
-    </row>
-    <row r="438" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C436" s="72"/>
+      <c r="D436" s="72"/>
+      <c r="E436" s="72"/>
+      <c r="F436" s="72"/>
+      <c r="G436" s="72"/>
+      <c r="H436" s="72"/>
+      <c r="I436" s="72"/>
+      <c r="J436" s="72"/>
+    </row>
+    <row r="438" spans="2:10">
       <c r="C438" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D438" s="41">
         <f>H241*M2</f>
-        <v>473867.4195665454</v>
+        <v>472294.72457952314</v>
       </c>
       <c r="E438" s="11"/>
       <c r="J438" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="440" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B440" s="79" t="s">
+    <row r="440" spans="2:10">
+      <c r="B440" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="C440" s="79"/>
-      <c r="D440" s="79"/>
-      <c r="E440" s="79"/>
-      <c r="F440" s="79"/>
-      <c r="G440" s="79"/>
-      <c r="H440" s="79"/>
-      <c r="I440" s="79"/>
-      <c r="J440" s="79"/>
-    </row>
-    <row r="442" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C440" s="72"/>
+      <c r="D440" s="72"/>
+      <c r="E440" s="72"/>
+      <c r="F440" s="72"/>
+      <c r="G440" s="72"/>
+      <c r="H440" s="72"/>
+      <c r="I440" s="72"/>
+      <c r="J440" s="72"/>
+    </row>
+    <row r="442" spans="2:10">
       <c r="C442" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D442" s="41">
         <f>H248*M2</f>
-        <v>875045.45367423457</v>
+        <v>886450.43618184619</v>
       </c>
       <c r="E442" s="11">
         <f>H248</f>
-        <v>67.597176799863618</v>
-      </c>
-    </row>
-    <row r="444" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B444" s="79" t="s">
+        <v>68.478210597284374</v>
+      </c>
+    </row>
+    <row r="444" spans="2:10">
+      <c r="B444" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="C444" s="79"/>
-      <c r="D444" s="79"/>
-      <c r="E444" s="79"/>
-      <c r="F444" s="79"/>
-      <c r="G444" s="79"/>
-      <c r="H444" s="79"/>
-      <c r="I444" s="79"/>
-      <c r="J444" s="79"/>
-    </row>
-    <row r="446" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C444" s="72"/>
+      <c r="D444" s="72"/>
+      <c r="E444" s="72"/>
+      <c r="F444" s="72"/>
+      <c r="G444" s="72"/>
+      <c r="H444" s="72"/>
+      <c r="I444" s="72"/>
+      <c r="J444" s="72"/>
+    </row>
+    <row r="446" spans="2:10">
       <c r="C446" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D446" s="41">
         <f t="array" ref="D446">D438/D442</f>
-        <v>0.54153463408880087</v>
-      </c>
-    </row>
-    <row r="448" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B448" s="79" t="s">
+        <v>0.53279315492675416</v>
+      </c>
+    </row>
+    <row r="448" spans="2:10">
+      <c r="B448" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="C448" s="79"/>
-      <c r="D448" s="79"/>
-      <c r="E448" s="79"/>
-      <c r="F448" s="79"/>
-      <c r="G448" s="79"/>
-      <c r="H448" s="79"/>
-      <c r="I448" s="79"/>
-      <c r="J448" s="79"/>
-    </row>
-    <row r="450" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C448" s="72"/>
+      <c r="D448" s="72"/>
+      <c r="E448" s="72"/>
+      <c r="F448" s="72"/>
+      <c r="G448" s="72"/>
+      <c r="H448" s="72"/>
+      <c r="I448" s="72"/>
+      <c r="J448" s="72"/>
+    </row>
+    <row r="450" spans="2:10">
       <c r="C450" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D450" s="41">
         <f>D442-D438-C423*M2-C425*M2</f>
-        <v>243971.34472733038</v>
+        <v>243161.64037757629</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>411</v>
@@ -8576,66 +8933,66 @@
       </c>
       <c r="I450" s="41">
         <f>C410</f>
-        <v>1.1607111507165435</v>
-      </c>
-    </row>
-    <row r="451" spans="2:10" x14ac:dyDescent="0.3">
+        <v>1.1565754105774224</v>
+      </c>
+    </row>
+    <row r="451" spans="2:10">
       <c r="H451" s="2" t="s">
         <v>414</v>
       </c>
       <c r="I451" s="41">
         <f>C406</f>
-        <v>1.421871159627766</v>
-      </c>
-    </row>
-    <row r="452" spans="2:10" x14ac:dyDescent="0.3">
+        <v>1.4032600115266454</v>
+      </c>
+    </row>
+    <row r="452" spans="2:10">
       <c r="C452" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="454" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:10">
       <c r="C454" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D454" s="41">
         <f t="array" ref="D454">0.15*D450</f>
-        <v>36595.701709099558</v>
-      </c>
-    </row>
-    <row r="456" spans="2:10" x14ac:dyDescent="0.3">
+        <v>36474.246056636439</v>
+      </c>
+    </row>
+    <row r="456" spans="2:10">
       <c r="C456" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="458" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:10">
       <c r="C458" s="2" t="s">
         <v>303</v>
       </c>
       <c r="D458" s="41">
         <f>D450+D454</f>
-        <v>280567.04643642996</v>
-      </c>
-    </row>
-    <row r="461" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B461" s="79" t="s">
+        <v>279635.88643421273</v>
+      </c>
+    </row>
+    <row r="461" spans="2:10">
+      <c r="B461" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="C461" s="79"/>
-      <c r="D461" s="79"/>
-      <c r="E461" s="79"/>
-      <c r="F461" s="79"/>
-      <c r="G461" s="79"/>
-      <c r="H461" s="79"/>
-      <c r="I461" s="79"/>
-      <c r="J461" s="79"/>
-    </row>
-    <row r="463" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C461" s="72"/>
+      <c r="D461" s="72"/>
+      <c r="E461" s="72"/>
+      <c r="F461" s="72"/>
+      <c r="G461" s="72"/>
+      <c r="H461" s="72"/>
+      <c r="I461" s="72"/>
+      <c r="J461" s="72"/>
+    </row>
+    <row r="463" spans="2:10">
       <c r="C463" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D463" s="41">
         <f>D458</f>
-        <v>280567.04643642996</v>
+        <v>279635.88643421273</v>
       </c>
       <c r="G463" s="2" t="s">
         <v>304</v>
@@ -8644,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:10">
       <c r="G464" s="2" t="s">
         <v>305</v>
       </c>
@@ -8652,20 +9009,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B466" s="79" t="s">
+    <row r="466" spans="2:10">
+      <c r="B466" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="C466" s="79"/>
-      <c r="D466" s="79"/>
-      <c r="E466" s="79"/>
-      <c r="F466" s="79"/>
-      <c r="G466" s="79"/>
-      <c r="H466" s="79"/>
-      <c r="I466" s="79"/>
-      <c r="J466" s="79"/>
-    </row>
-    <row r="468" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C466" s="72"/>
+      <c r="D466" s="72"/>
+      <c r="E466" s="72"/>
+      <c r="F466" s="72"/>
+      <c r="G466" s="72"/>
+      <c r="H466" s="72"/>
+      <c r="I466" s="72"/>
+      <c r="J466" s="72"/>
+    </row>
+    <row r="468" spans="2:10">
       <c r="C468" s="2" t="s">
         <v>308</v>
       </c>
@@ -8678,7 +9035,7 @@
         <v>1479.4768111418366</v>
       </c>
     </row>
-    <row r="470" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:10">
       <c r="C470" s="2" t="s">
         <v>310</v>
       </c>
@@ -8696,20 +9053,20 @@
         <v>260</v>
       </c>
     </row>
-    <row r="472" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B472" s="79" t="s">
+    <row r="472" spans="2:10">
+      <c r="B472" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="C472" s="79"/>
-      <c r="D472" s="79"/>
-      <c r="E472" s="79"/>
-      <c r="F472" s="79"/>
-      <c r="G472" s="79"/>
-      <c r="H472" s="79"/>
-      <c r="I472" s="79"/>
-      <c r="J472" s="79"/>
-    </row>
-    <row r="473" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C472" s="72"/>
+      <c r="D472" s="72"/>
+      <c r="E472" s="72"/>
+      <c r="F472" s="72"/>
+      <c r="G472" s="72"/>
+      <c r="H472" s="72"/>
+      <c r="I472" s="72"/>
+      <c r="J472" s="72"/>
+    </row>
+    <row r="473" spans="2:10">
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -8720,7 +9077,7 @@
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
     </row>
-    <row r="474" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:10">
       <c r="C474" s="2" t="s">
         <v>370</v>
       </c>
@@ -8729,20 +9086,20 @@
         <v>13.407054812712586</v>
       </c>
     </row>
-    <row r="476" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B476" s="79" t="s">
+    <row r="476" spans="2:10">
+      <c r="B476" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="C476" s="79"/>
-      <c r="D476" s="79"/>
-      <c r="E476" s="79"/>
-      <c r="F476" s="79"/>
-      <c r="G476" s="79"/>
-      <c r="H476" s="79"/>
-      <c r="I476" s="79"/>
-      <c r="J476" s="79"/>
-    </row>
-    <row r="478" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C476" s="72"/>
+      <c r="D476" s="72"/>
+      <c r="E476" s="72"/>
+      <c r="F476" s="72"/>
+      <c r="G476" s="72"/>
+      <c r="H476" s="72"/>
+      <c r="I476" s="72"/>
+      <c r="J476" s="72"/>
+    </row>
+    <row r="478" spans="2:10">
       <c r="C478" s="2" t="s">
         <v>372</v>
       </c>
@@ -8751,26 +9108,26 @@
         <v>38.988267095519561</v>
       </c>
     </row>
-    <row r="480" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B480" s="79" t="s">
+    <row r="480" spans="2:10">
+      <c r="B480" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="C480" s="79"/>
-      <c r="D480" s="79"/>
-      <c r="E480" s="79"/>
-      <c r="F480" s="79"/>
-      <c r="G480" s="79"/>
-      <c r="H480" s="79"/>
-      <c r="I480" s="79"/>
-      <c r="J480" s="79"/>
-    </row>
-    <row r="482" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C480" s="72"/>
+      <c r="D480" s="72"/>
+      <c r="E480" s="72"/>
+      <c r="F480" s="72"/>
+      <c r="G480" s="72"/>
+      <c r="H480" s="72"/>
+      <c r="I480" s="72"/>
+      <c r="J480" s="72"/>
+    </row>
+    <row r="482" spans="2:10">
       <c r="C482" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D482" s="41">
         <f>D463-D470-H482-H483</f>
-        <v>280541.46522414713</v>
+        <v>279610.30522192991</v>
       </c>
       <c r="G482" s="2" t="s">
         <v>312</v>
@@ -8779,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:10">
       <c r="G483" s="2" t="s">
         <v>412</v>
       </c>
@@ -8787,26 +9144,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B486" s="79" t="s">
+    <row r="486" spans="2:10">
+      <c r="B486" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="C486" s="79"/>
-      <c r="D486" s="79"/>
-      <c r="E486" s="79"/>
-      <c r="F486" s="79"/>
-      <c r="G486" s="79"/>
-      <c r="H486" s="79"/>
-      <c r="I486" s="79"/>
-      <c r="J486" s="79"/>
-    </row>
-    <row r="488" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C486" s="72"/>
+      <c r="D486" s="72"/>
+      <c r="E486" s="72"/>
+      <c r="F486" s="72"/>
+      <c r="G486" s="72"/>
+      <c r="H486" s="72"/>
+      <c r="I486" s="72"/>
+      <c r="J486" s="72"/>
+    </row>
+    <row r="488" spans="2:10">
       <c r="C488" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D488" s="41">
         <f>D482*H488/100</f>
-        <v>67329.951653795317</v>
+        <v>67106.473253263175</v>
       </c>
       <c r="G488" s="2" t="s">
         <v>283</v>
@@ -8818,26 +9175,26 @@
         <v>260</v>
       </c>
     </row>
-    <row r="491" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B491" s="79" t="s">
+    <row r="491" spans="2:10">
+      <c r="B491" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="C491" s="79"/>
-      <c r="D491" s="79"/>
-      <c r="E491" s="79"/>
-      <c r="F491" s="79"/>
-      <c r="G491" s="79"/>
-      <c r="H491" s="79"/>
-      <c r="I491" s="79"/>
-      <c r="J491" s="79"/>
-    </row>
-    <row r="493" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C491" s="72"/>
+      <c r="D491" s="72"/>
+      <c r="E491" s="72"/>
+      <c r="F491" s="72"/>
+      <c r="G491" s="72"/>
+      <c r="H491" s="72"/>
+      <c r="I491" s="72"/>
+      <c r="J491" s="72"/>
+    </row>
+    <row r="493" spans="2:10">
       <c r="C493" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D493" s="41">
         <f>(D463-D478-D488-H482-H483)*H493/100</f>
-        <v>10659.905325776956</v>
+        <v>10624.521245692704</v>
       </c>
       <c r="G493" s="2" t="s">
         <v>317</v>
@@ -8849,106 +9206,106 @@
         <v>260</v>
       </c>
     </row>
-    <row r="496" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B496" s="79" t="s">
+    <row r="496" spans="2:10">
+      <c r="B496" s="72" t="s">
         <v>318</v>
       </c>
-      <c r="C496" s="79"/>
-      <c r="D496" s="79"/>
-      <c r="E496" s="79"/>
-      <c r="F496" s="79"/>
-      <c r="G496" s="79"/>
-      <c r="H496" s="79"/>
-      <c r="I496" s="79"/>
-      <c r="J496" s="79"/>
-    </row>
-    <row r="498" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C496" s="72"/>
+      <c r="D496" s="72"/>
+      <c r="E496" s="72"/>
+      <c r="F496" s="72"/>
+      <c r="G496" s="72"/>
+      <c r="H496" s="72"/>
+      <c r="I496" s="72"/>
+      <c r="J496" s="72"/>
+    </row>
+    <row r="498" spans="2:10">
       <c r="C498" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D498" s="41">
         <f>D463-D478-D488-D493</f>
-        <v>202538.20118976216</v>
-      </c>
-    </row>
-    <row r="500" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B500" s="79" t="s">
+        <v>201865.90366816134</v>
+      </c>
+    </row>
+    <row r="500" spans="2:10">
+      <c r="B500" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="C500" s="79"/>
-      <c r="D500" s="79"/>
-      <c r="E500" s="79"/>
-      <c r="F500" s="79"/>
-      <c r="G500" s="79"/>
-      <c r="H500" s="79"/>
-      <c r="I500" s="79"/>
-      <c r="J500" s="79"/>
-    </row>
-    <row r="502" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C500" s="72"/>
+      <c r="D500" s="72"/>
+      <c r="E500" s="72"/>
+      <c r="F500" s="72"/>
+      <c r="G500" s="72"/>
+      <c r="H500" s="72"/>
+      <c r="I500" s="72"/>
+      <c r="J500" s="72"/>
+    </row>
+    <row r="502" spans="2:10">
       <c r="C502" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D502" s="2">
         <f>((F243-F241)/F241)*100</f>
-        <v>50.495049504950487</v>
+        <v>50.494996315153216</v>
       </c>
       <c r="E502" s="41"/>
     </row>
-    <row r="504" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B504" s="79" t="s">
+    <row r="504" spans="2:10">
+      <c r="B504" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="C504" s="79"/>
-      <c r="D504" s="79"/>
-      <c r="E504" s="79"/>
-      <c r="F504" s="79"/>
-      <c r="G504" s="79"/>
-      <c r="H504" s="79"/>
-      <c r="I504" s="79"/>
-      <c r="J504" s="79"/>
-    </row>
-    <row r="506" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C504" s="72"/>
+      <c r="D504" s="72"/>
+      <c r="E504" s="72"/>
+      <c r="F504" s="72"/>
+      <c r="G504" s="72"/>
+      <c r="H504" s="72"/>
+      <c r="I504" s="72"/>
+      <c r="J504" s="72"/>
+    </row>
+    <row r="506" spans="2:10">
       <c r="C506" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D506" s="41">
         <f>D498*100/(E166+E434)</f>
-        <v>419.63438076089773</v>
-      </c>
-    </row>
-    <row r="509" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B509" s="79" t="s">
+        <v>418.24146252371179</v>
+      </c>
+    </row>
+    <row r="509" spans="2:10">
+      <c r="B509" s="72" t="s">
         <v>325</v>
       </c>
-      <c r="C509" s="79"/>
-      <c r="D509" s="79"/>
-      <c r="E509" s="79"/>
-      <c r="F509" s="79"/>
-      <c r="G509" s="79"/>
-      <c r="H509" s="79"/>
-      <c r="I509" s="79"/>
-      <c r="J509" s="79"/>
-    </row>
-    <row r="511" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C509" s="72"/>
+      <c r="D509" s="72"/>
+      <c r="E509" s="72"/>
+      <c r="F509" s="72"/>
+      <c r="G509" s="72"/>
+      <c r="H509" s="72"/>
+      <c r="I509" s="72"/>
+      <c r="J509" s="72"/>
+    </row>
+    <row r="511" spans="2:10">
       <c r="C511" s="2" t="s">
         <v>326</v>
       </c>
       <c r="D511" s="41">
         <f>D442/E166</f>
-        <v>27.194807320288426</v>
+        <v>27.549253252763638</v>
       </c>
       <c r="E511" s="41">
         <f>D442</f>
-        <v>875045.45367423457</v>
-      </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A514" s="75" t="s">
+        <v>886450.43618184619</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="B514" s="75"/>
-      <c r="C514" s="75"/>
-      <c r="D514" s="75"/>
+      <c r="B514" s="103"/>
+      <c r="C514" s="103"/>
+      <c r="D514" s="103"/>
       <c r="E514" s="26" t="s">
         <v>221</v>
       </c>
@@ -8956,13 +9313,13 @@
         <v>328</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A515" s="72" t="s">
+    <row r="515" spans="1:6">
+      <c r="A515" s="112" t="s">
         <v>329</v>
       </c>
-      <c r="B515" s="72"/>
-      <c r="C515" s="72"/>
-      <c r="D515" s="72"/>
+      <c r="B515" s="112"/>
+      <c r="C515" s="112"/>
+      <c r="D515" s="112"/>
       <c r="E515" s="4" t="s">
         <v>235</v>
       </c>
@@ -8971,178 +9328,178 @@
         <v>12945</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A516" s="72" t="s">
+    <row r="516" spans="1:6">
+      <c r="A516" s="112" t="s">
         <v>330</v>
       </c>
-      <c r="B516" s="72"/>
-      <c r="C516" s="72"/>
-      <c r="D516" s="72"/>
+      <c r="B516" s="112"/>
+      <c r="C516" s="112"/>
+      <c r="D516" s="112"/>
       <c r="E516" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F516" s="57">
         <f>D442</f>
-        <v>875045.45367423457</v>
-      </c>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A517" s="75" t="s">
+        <v>886450.43618184619</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="B517" s="75"/>
-      <c r="C517" s="75"/>
-      <c r="D517" s="75"/>
+      <c r="B517" s="103"/>
+      <c r="C517" s="103"/>
+      <c r="D517" s="103"/>
       <c r="E517" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F517" s="57">
         <f t="array" ref="F517">F241</f>
-        <v>473867.41956654546</v>
-      </c>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A518" s="75" t="s">
+        <v>472295.22207952302</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="B518" s="75"/>
-      <c r="C518" s="75"/>
-      <c r="D518" s="75"/>
+      <c r="B518" s="103"/>
+      <c r="C518" s="103"/>
+      <c r="D518" s="103"/>
       <c r="E518" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F518" s="57">
         <f t="array" ref="F518">D446</f>
-        <v>0.54153463408880087</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A519" s="75" t="s">
+        <v>0.53279315492675416</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="B519" s="75"/>
-      <c r="C519" s="75"/>
-      <c r="D519" s="75"/>
+      <c r="B519" s="103"/>
+      <c r="C519" s="103"/>
+      <c r="D519" s="103"/>
       <c r="E519" s="4" t="s">
         <v>350</v>
       </c>
       <c r="F519" s="57">
         <f t="array" ref="F519">H241</f>
-        <v>36.606212403750128</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A520" s="75" t="s">
+        <v>36.484721867865829</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="B520" s="75"/>
-      <c r="C520" s="75"/>
-      <c r="D520" s="75"/>
+      <c r="B520" s="103"/>
+      <c r="C520" s="103"/>
+      <c r="D520" s="103"/>
       <c r="E520" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F520" s="57">
         <f t="array" ref="F520">H243</f>
-        <v>55.090537478911088</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A521" s="75" t="s">
+        <v>54.90770023678818</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="A521" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="B521" s="75"/>
-      <c r="C521" s="75"/>
-      <c r="D521" s="75"/>
+      <c r="B521" s="103"/>
+      <c r="C521" s="103"/>
+      <c r="D521" s="103"/>
       <c r="E521" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F521" s="57">
         <f t="array" ref="F521">H248</f>
-        <v>67.597176799863618</v>
-      </c>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A522" s="75" t="s">
+        <v>68.478210597284374</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522" s="103" t="s">
         <v>355</v>
       </c>
-      <c r="B522" s="75"/>
-      <c r="C522" s="75"/>
-      <c r="D522" s="75"/>
+      <c r="B522" s="103"/>
+      <c r="C522" s="103"/>
+      <c r="D522" s="103"/>
       <c r="E522" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F522" s="57">
         <f t="array" ref="F522">D458</f>
-        <v>280567.04643642996</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A523" s="75" t="s">
+        <v>279635.88643421273</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="A523" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="B523" s="75"/>
-      <c r="C523" s="75"/>
-      <c r="D523" s="75"/>
+      <c r="B523" s="103"/>
+      <c r="C523" s="103"/>
+      <c r="D523" s="103"/>
       <c r="E523" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F523" s="57">
         <f t="array" ref="F523">D498</f>
-        <v>202538.20118976216</v>
-      </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A524" s="75" t="s">
+        <v>201865.90366816134</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
+      <c r="A524" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="B524" s="75"/>
-      <c r="C524" s="75"/>
-      <c r="D524" s="75"/>
+      <c r="B524" s="103"/>
+      <c r="C524" s="103"/>
+      <c r="D524" s="103"/>
       <c r="E524" s="4" t="s">
         <v>260</v>
       </c>
       <c r="F524" s="57">
         <f>D506</f>
-        <v>419.63438076089773</v>
-      </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A525" s="75" t="s">
+        <v>418.24146252371179</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="B525" s="75"/>
-      <c r="C525" s="75"/>
-      <c r="D525" s="75"/>
+      <c r="B525" s="103"/>
+      <c r="C525" s="103"/>
+      <c r="D525" s="103"/>
       <c r="E525" s="4" t="s">
         <v>260</v>
       </c>
       <c r="F525" s="57">
         <f t="array" ref="F525">D502</f>
-        <v>50.495049504950487</v>
-      </c>
-    </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A526" s="75" t="s">
+        <v>50.494996315153216</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="B526" s="75"/>
-      <c r="C526" s="75"/>
-      <c r="D526" s="75"/>
+      <c r="B526" s="103"/>
+      <c r="C526" s="103"/>
+      <c r="D526" s="103"/>
       <c r="E526" s="4" t="s">
         <v>351</v>
       </c>
       <c r="F526" s="57">
         <f t="array" ref="F526">D511</f>
-        <v>27.194807320288426</v>
-      </c>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A527" s="75" t="s">
+        <v>27.549253252763638</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527" s="103" t="s">
         <v>465</v>
       </c>
-      <c r="B527" s="75"/>
-      <c r="C527" s="75"/>
-      <c r="D527" s="75"/>
+      <c r="B527" s="103"/>
+      <c r="C527" s="103"/>
+      <c r="D527" s="103"/>
       <c r="E527" s="4" t="s">
         <v>352</v>
       </c>
@@ -9151,13 +9508,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A528" s="75" t="s">
+    <row r="528" spans="1:6">
+      <c r="A528" s="103" t="s">
         <v>464</v>
       </c>
-      <c r="B528" s="75"/>
-      <c r="C528" s="75"/>
-      <c r="D528" s="75"/>
+      <c r="B528" s="103"/>
+      <c r="C528" s="103"/>
+      <c r="D528" s="103"/>
       <c r="E528" s="4" t="s">
         <v>352</v>
       </c>
@@ -9166,103 +9523,103 @@
         <v>34</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A529" s="75" t="s">
+    <row r="529" spans="1:6">
+      <c r="A529" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="B529" s="75"/>
-      <c r="C529" s="75"/>
-      <c r="D529" s="75"/>
+      <c r="B529" s="103"/>
+      <c r="C529" s="103"/>
+      <c r="D529" s="103"/>
       <c r="E529" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F529" s="57">
         <f t="array" ref="F529">F516/F528</f>
-        <v>25736.630990418664</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A530" s="75" t="s">
+        <v>26072.071652407241</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="A530" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="B530" s="75"/>
-      <c r="C530" s="75"/>
-      <c r="D530" s="75"/>
+      <c r="B530" s="103"/>
+      <c r="C530" s="103"/>
+      <c r="D530" s="103"/>
       <c r="E530" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F530" s="57">
         <f t="array" ref="F530">F516/F527</f>
-        <v>20349.894271493828</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A531" s="75" t="s">
+        <v>20615.126422833633</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="A531" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="B531" s="75"/>
-      <c r="C531" s="75"/>
-      <c r="D531" s="75"/>
+      <c r="B531" s="103"/>
+      <c r="C531" s="103"/>
+      <c r="D531" s="103"/>
       <c r="E531" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F531" s="57">
         <f t="array" ref="F531">F230</f>
-        <v>4306.4618180219995</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A532" s="75" t="s">
+        <v>3905.8389999999995</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="A532" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="B532" s="75"/>
-      <c r="C532" s="75"/>
-      <c r="D532" s="75"/>
+      <c r="B532" s="103"/>
+      <c r="C532" s="103"/>
+      <c r="D532" s="103"/>
       <c r="E532" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F532" s="57">
         <f t="array" ref="F532">F231</f>
-        <v>615.20883114599997</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A533" s="75" t="s">
+        <v>614.88750000000005</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="B533" s="75"/>
-      <c r="C533" s="75"/>
-      <c r="D533" s="75"/>
+      <c r="B533" s="103"/>
+      <c r="C533" s="103"/>
+      <c r="D533" s="103"/>
       <c r="E533" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F533" s="57">
         <f t="array" ref="F533">C423</f>
-        <v>9.9815355405869166</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A534" s="75" t="s">
+        <v>11.05378702135341</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="B534" s="75"/>
-      <c r="C534" s="75"/>
-      <c r="D534" s="75"/>
+      <c r="B534" s="103"/>
+      <c r="C534" s="103"/>
+      <c r="D534" s="103"/>
       <c r="E534" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F534" s="57">
         <f t="array" ref="F534">D488</f>
-        <v>67329.951653795317</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A535" s="75" t="s">
+        <v>67106.473253263175</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="A535" s="103" t="s">
         <v>345</v>
       </c>
-      <c r="B535" s="75"/>
-      <c r="C535" s="75"/>
-      <c r="D535" s="75"/>
+      <c r="B535" s="103"/>
+      <c r="C535" s="103"/>
+      <c r="D535" s="103"/>
       <c r="E535" s="4" t="s">
         <v>62</v>
       </c>
@@ -9271,13 +9628,13 @@
         <v>25.581212282806973</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A536" s="75" t="s">
+    <row r="536" spans="1:6">
+      <c r="A536" s="103" t="s">
         <v>346</v>
       </c>
-      <c r="B536" s="75"/>
-      <c r="C536" s="75"/>
-      <c r="D536" s="75"/>
+      <c r="B536" s="103"/>
+      <c r="C536" s="103"/>
+      <c r="D536" s="103"/>
       <c r="E536" s="4" t="s">
         <v>62</v>
       </c>
@@ -9286,13 +9643,13 @@
         <v>32176.931550510206</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A537" s="75" t="s">
+    <row r="537" spans="1:6">
+      <c r="A537" s="103" t="s">
         <v>347</v>
       </c>
-      <c r="B537" s="75"/>
-      <c r="C537" s="75"/>
-      <c r="D537" s="75"/>
+      <c r="B537" s="103"/>
+      <c r="C537" s="103"/>
+      <c r="D537" s="103"/>
       <c r="E537" s="4" t="s">
         <v>62</v>
       </c>
@@ -9301,13 +9658,13 @@
         <v>16088.465775255103</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A538" s="75" t="s">
+    <row r="538" spans="1:6">
+      <c r="A538" s="103" t="s">
         <v>348</v>
       </c>
-      <c r="B538" s="75"/>
-      <c r="C538" s="75"/>
-      <c r="D538" s="75"/>
+      <c r="B538" s="103"/>
+      <c r="C538" s="103"/>
+      <c r="D538" s="103"/>
       <c r="E538" s="4" t="s">
         <v>62</v>
       </c>
@@ -9316,13 +9673,13 @@
         <v>8121.5687279999984</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A539" s="75" t="s">
+    <row r="539" spans="1:6">
+      <c r="A539" s="103" t="s">
         <v>349</v>
       </c>
-      <c r="B539" s="75"/>
-      <c r="C539" s="75"/>
-      <c r="D539" s="75"/>
+      <c r="B539" s="103"/>
+      <c r="C539" s="103"/>
+      <c r="D539" s="103"/>
       <c r="E539" s="4" t="s">
         <v>62</v>
       </c>
@@ -9334,97 +9691,360 @@
   </sheetData>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
-      <selection activeCell="C359" sqref="C359"/>
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
+      <selection activeCell="F217" sqref="F217:G217"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
-      <selection activeCell="F217" sqref="F217:G217"/>
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
+      <selection activeCell="C359" sqref="C359"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="443">
-    <mergeCell ref="C183:H183"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="H300:I300"/>
-    <mergeCell ref="H301:I301"/>
-    <mergeCell ref="H302:I302"/>
-    <mergeCell ref="H303:I303"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="H306:I306"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="H246:I246"/>
-    <mergeCell ref="I259:J259"/>
-    <mergeCell ref="I260:J260"/>
-    <mergeCell ref="I261:J261"/>
-    <mergeCell ref="I262:J262"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="M181:M208"/>
-    <mergeCell ref="B181:J181"/>
-    <mergeCell ref="B171:J171"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A165:C165"/>
+  <mergeCells count="448">
+    <mergeCell ref="R322:R323"/>
+    <mergeCell ref="S322:S323"/>
+    <mergeCell ref="T322:T323"/>
+    <mergeCell ref="U322:U323"/>
+    <mergeCell ref="V322:V323"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="B269:L269"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="G255:H255"/>
+    <mergeCell ref="I255:J255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="G256:H256"/>
+    <mergeCell ref="G257:H257"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="F247:G247"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="B253:E253"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="A125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="F234:G234"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A238:D238"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C195:H195"/>
+    <mergeCell ref="C200:H201"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="A224:D224"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A222:I222"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="L147:M148"/>
+    <mergeCell ref="N147:O148"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B145:I145"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="A147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:E148"/>
+    <mergeCell ref="H147:I148"/>
+    <mergeCell ref="J147:K148"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="F241:G241"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="B251:L251"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="B295:J295"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="G258:H258"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="G260:H260"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="B472:J472"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="F231:G231"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="H297:I297"/>
+    <mergeCell ref="G261:H261"/>
+    <mergeCell ref="I256:J256"/>
+    <mergeCell ref="I257:J257"/>
+    <mergeCell ref="I258:J258"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="B476:J476"/>
+    <mergeCell ref="A516:D516"/>
+    <mergeCell ref="B448:J448"/>
+    <mergeCell ref="B461:J461"/>
+    <mergeCell ref="B466:J466"/>
+    <mergeCell ref="B378:J378"/>
+    <mergeCell ref="B382:J382"/>
+    <mergeCell ref="B387:J387"/>
+    <mergeCell ref="B392:J392"/>
+    <mergeCell ref="B396:J396"/>
+    <mergeCell ref="B400:J400"/>
+    <mergeCell ref="B412:J412"/>
+    <mergeCell ref="B421:J421"/>
+    <mergeCell ref="A430:I430"/>
+    <mergeCell ref="B432:J432"/>
+    <mergeCell ref="B404:J404"/>
+    <mergeCell ref="B408:J408"/>
+    <mergeCell ref="B436:J436"/>
+    <mergeCell ref="B440:J440"/>
+    <mergeCell ref="B444:J444"/>
+    <mergeCell ref="B426:J426"/>
+    <mergeCell ref="B417:J417"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="B313:J313"/>
+    <mergeCell ref="B318:J318"/>
+    <mergeCell ref="B347:J347"/>
+    <mergeCell ref="B352:J352"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="B357:J357"/>
+    <mergeCell ref="B368:J368"/>
+    <mergeCell ref="B373:J373"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="H308:I308"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="H309:I309"/>
+    <mergeCell ref="A520:D520"/>
+    <mergeCell ref="A521:D521"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A523:D523"/>
+    <mergeCell ref="B480:J480"/>
+    <mergeCell ref="B486:J486"/>
+    <mergeCell ref="B491:J491"/>
+    <mergeCell ref="B496:J496"/>
+    <mergeCell ref="B500:J500"/>
+    <mergeCell ref="B504:J504"/>
+    <mergeCell ref="B509:J509"/>
+    <mergeCell ref="A514:D514"/>
+    <mergeCell ref="A517:D517"/>
+    <mergeCell ref="A518:D518"/>
+    <mergeCell ref="A519:D519"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A539:D539"/>
+    <mergeCell ref="A530:D530"/>
+    <mergeCell ref="A531:D531"/>
+    <mergeCell ref="A532:D532"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A534:D534"/>
+    <mergeCell ref="A535:D535"/>
+    <mergeCell ref="A536:D536"/>
+    <mergeCell ref="A537:D537"/>
+    <mergeCell ref="A538:D538"/>
+    <mergeCell ref="A524:D524"/>
+    <mergeCell ref="A525:D525"/>
+    <mergeCell ref="A526:D526"/>
+    <mergeCell ref="A527:D527"/>
+    <mergeCell ref="A528:D528"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A515:D515"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I266:J266"/>
+    <mergeCell ref="I263:J263"/>
+    <mergeCell ref="I265:J265"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B137:I137"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="A141:B141"/>
     <mergeCell ref="F248:G248"/>
     <mergeCell ref="A229:D229"/>
     <mergeCell ref="K140:L140"/>
@@ -9449,346 +10069,88 @@
     <mergeCell ref="C141:D141"/>
     <mergeCell ref="A213:D213"/>
     <mergeCell ref="A214:D214"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B137:I137"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A539:D539"/>
-    <mergeCell ref="A530:D530"/>
-    <mergeCell ref="A531:D531"/>
-    <mergeCell ref="A532:D532"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A534:D534"/>
-    <mergeCell ref="A535:D535"/>
-    <mergeCell ref="A536:D536"/>
-    <mergeCell ref="A537:D537"/>
-    <mergeCell ref="A538:D538"/>
-    <mergeCell ref="A524:D524"/>
-    <mergeCell ref="A525:D525"/>
-    <mergeCell ref="A526:D526"/>
-    <mergeCell ref="A527:D527"/>
-    <mergeCell ref="A528:D528"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A515:D515"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I266:J266"/>
-    <mergeCell ref="I263:J263"/>
-    <mergeCell ref="I265:J265"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="A520:D520"/>
-    <mergeCell ref="A521:D521"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A523:D523"/>
-    <mergeCell ref="B480:J480"/>
-    <mergeCell ref="B486:J486"/>
-    <mergeCell ref="B491:J491"/>
-    <mergeCell ref="B496:J496"/>
-    <mergeCell ref="B500:J500"/>
-    <mergeCell ref="B504:J504"/>
-    <mergeCell ref="B509:J509"/>
-    <mergeCell ref="A514:D514"/>
-    <mergeCell ref="A517:D517"/>
-    <mergeCell ref="A518:D518"/>
-    <mergeCell ref="A519:D519"/>
-    <mergeCell ref="B357:J357"/>
-    <mergeCell ref="B368:J368"/>
-    <mergeCell ref="B373:J373"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="H308:I308"/>
-    <mergeCell ref="H307:I307"/>
-    <mergeCell ref="H309:I309"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="B313:J313"/>
-    <mergeCell ref="B318:J318"/>
-    <mergeCell ref="B347:J347"/>
-    <mergeCell ref="B352:J352"/>
-    <mergeCell ref="B476:J476"/>
-    <mergeCell ref="A516:D516"/>
-    <mergeCell ref="B448:J448"/>
-    <mergeCell ref="B461:J461"/>
-    <mergeCell ref="B466:J466"/>
-    <mergeCell ref="B378:J378"/>
-    <mergeCell ref="B382:J382"/>
-    <mergeCell ref="B387:J387"/>
-    <mergeCell ref="B392:J392"/>
-    <mergeCell ref="B396:J396"/>
-    <mergeCell ref="B400:J400"/>
-    <mergeCell ref="B412:J412"/>
-    <mergeCell ref="B421:J421"/>
-    <mergeCell ref="A430:I430"/>
-    <mergeCell ref="B432:J432"/>
-    <mergeCell ref="B404:J404"/>
-    <mergeCell ref="B408:J408"/>
-    <mergeCell ref="B436:J436"/>
-    <mergeCell ref="B440:J440"/>
-    <mergeCell ref="B444:J444"/>
-    <mergeCell ref="B426:J426"/>
-    <mergeCell ref="B417:J417"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="B472:J472"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="F231:G231"/>
-    <mergeCell ref="F232:G232"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="H297:I297"/>
-    <mergeCell ref="G261:H261"/>
-    <mergeCell ref="I256:J256"/>
-    <mergeCell ref="I257:J257"/>
-    <mergeCell ref="I258:J258"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="F246:G246"/>
-    <mergeCell ref="F241:G241"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="B251:L251"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="B295:J295"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="G258:H258"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="G260:H260"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B104:H104"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="L147:M148"/>
-    <mergeCell ref="N147:O148"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B145:I145"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="A147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:E148"/>
-    <mergeCell ref="H147:I148"/>
-    <mergeCell ref="J147:K148"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="M181:M208"/>
+    <mergeCell ref="B181:J181"/>
+    <mergeCell ref="B171:J171"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A165:C165"/>
     <mergeCell ref="A166:C166"/>
     <mergeCell ref="A169:J169"/>
     <mergeCell ref="B173:E173"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="C195:H195"/>
-    <mergeCell ref="C200:H201"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="A224:D224"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A222:I222"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="F234:G234"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A238:D238"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="A125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A242:D242"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A248:D248"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="B269:L269"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="G255:H255"/>
-    <mergeCell ref="I255:J255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="G256:H256"/>
-    <mergeCell ref="G257:H257"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="F242:G242"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="B253:E253"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="C183:H183"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="H302:I302"/>
+    <mergeCell ref="H303:I303"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="H306:I306"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="I259:J259"/>
+    <mergeCell ref="I260:J260"/>
+    <mergeCell ref="I261:J261"/>
+    <mergeCell ref="I262:J262"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="H298:I298"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId3"/>
@@ -9799,21 +10161,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9823,18 +10185,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/OPiUP_kursovoy_mine.xlsx
+++ b/OPiUP_kursovoy_mine.xlsx
@@ -13,8 +13,8 @@
   </sheets>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="Siarhei_Kutsankou - Личное представление" guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="670" activeSheetId="1"/>
     <customWorkbookView name="Michael Pozhigan - Личное представление" guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" mergeInterval="0" personalView="1" windowWidth="960" windowHeight="1040" activeSheetId="1"/>
-    <customWorkbookView name="Siarhei_Kutsankou - Личное представление" guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1440" windowHeight="670" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2323,246 +2323,7 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2586,6 +2347,245 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2891,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E420" sqref="E420"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153:E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2923,17 +2923,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="142"/>
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
@@ -3030,16 +3030,16 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
     </row>
     <row r="6" spans="1:22" ht="19.5" thickBot="1">
       <c r="L6" s="2" t="s">
@@ -3483,16 +3483,16 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
       <c r="R22" s="2" t="s">
         <v>381</v>
       </c>
@@ -3511,26 +3511,26 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="45" customHeight="1">
-      <c r="A23" s="147" t="s">
+      <c r="A23" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="149" t="s">
+      <c r="C23" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="149" t="s">
+      <c r="D23" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="149" t="s">
+      <c r="E23" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="149" t="s">
+      <c r="G23" s="85"/>
+      <c r="H23" s="95" t="s">
         <v>21</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -3551,34 +3551,34 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1">
-      <c r="A24" s="148"/>
-      <c r="B24" s="150"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
       <c r="F24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="150"/>
-      <c r="K24" s="131" t="s">
+      <c r="H24" s="96"/>
+      <c r="K24" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="141" t="s">
+      <c r="L24" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="141" t="s">
+      <c r="M24" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="N24" s="141" t="s">
+      <c r="N24" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="141" t="s">
+      <c r="O24" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="131"/>
+      <c r="P24" s="115"/>
       <c r="R24" s="2" t="s">
         <v>383</v>
       </c>
@@ -3626,12 +3626,12 @@
         <f>F25/G25</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K25" s="131"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
       <c r="V25" s="2">
         <f>SUM(V7:V24)</f>
         <v>31.3</v>
@@ -3667,10 +3667,10 @@
         <f t="array" ref="H26">F26/G26</f>
         <v>0.97411475243506507</v>
       </c>
-      <c r="K26" s="132">
+      <c r="K26" s="116">
         <v>1</v>
       </c>
-      <c r="L26" s="132">
+      <c r="L26" s="116">
         <v>2</v>
       </c>
       <c r="M26" s="64">
@@ -3680,10 +3680,10 @@
         <f t="array" ref="N26">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O26" s="131" t="s">
+      <c r="O26" s="115" t="s">
         <v>398</v>
       </c>
-      <c r="P26" s="131"/>
+      <c r="P26" s="115"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="4">
@@ -3715,8 +3715,8 @@
         <f t="array" ref="H27">F27/G27</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
       <c r="M27" s="64">
         <v>2</v>
       </c>
@@ -3724,10 +3724,10 @@
         <f t="array" ref="N27">$C$46/L26</f>
         <v>6</v>
       </c>
-      <c r="O27" s="131" t="s">
+      <c r="O27" s="115" t="s">
         <v>399</v>
       </c>
-      <c r="P27" s="131"/>
+      <c r="P27" s="115"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="4">
@@ -3772,10 +3772,10 @@
         <f t="array" ref="N28">$C$46/L28</f>
         <v>12</v>
       </c>
-      <c r="O28" s="131" t="s">
+      <c r="O28" s="115" t="s">
         <v>400</v>
       </c>
-      <c r="P28" s="131"/>
+      <c r="P28" s="115"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="4">
@@ -3820,10 +3820,10 @@
         <f t="array" ref="N29">$C$46/L29</f>
         <v>12</v>
       </c>
-      <c r="O29" s="131" t="s">
+      <c r="O29" s="115" t="s">
         <v>400</v>
       </c>
-      <c r="P29" s="131"/>
+      <c r="P29" s="115"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="4">
@@ -3855,10 +3855,10 @@
         <f t="array" ref="H30">F30/G30</f>
         <v>0.95066094619666053</v>
       </c>
-      <c r="K30" s="132">
+      <c r="K30" s="116">
         <v>4</v>
       </c>
-      <c r="L30" s="132">
+      <c r="L30" s="116">
         <v>3</v>
       </c>
       <c r="M30" s="65">
@@ -3868,10 +3868,10 @@
         <f>$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O30" s="142">
+      <c r="O30" s="118">
         <v>1.4</v>
       </c>
-      <c r="P30" s="142"/>
+      <c r="P30" s="118"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="4">
@@ -3903,8 +3903,8 @@
         <f t="array" ref="H31">F31/G31</f>
         <v>0.97567833951762528</v>
       </c>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
+      <c r="K31" s="119"/>
+      <c r="L31" s="119"/>
       <c r="M31" s="64">
         <v>6</v>
       </c>
@@ -3912,10 +3912,10 @@
         <f t="array" ref="N31">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O31" s="131">
+      <c r="O31" s="115">
         <v>2.5</v>
       </c>
-      <c r="P31" s="131"/>
+      <c r="P31" s="115"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="4">
@@ -3947,8 +3947,8 @@
         <f t="array" ref="H32">F32/G32</f>
         <v>1.031967474489796</v>
       </c>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
       <c r="M32" s="64">
         <v>7</v>
       </c>
@@ -3956,10 +3956,10 @@
         <f t="array" ref="N32">$C$46/L30</f>
         <v>4</v>
       </c>
-      <c r="O32" s="131">
+      <c r="O32" s="115">
         <v>3.6</v>
       </c>
-      <c r="P32" s="131"/>
+      <c r="P32" s="115"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="4">
@@ -4004,10 +4004,10 @@
         <f t="array" ref="N33">$C$46/L33</f>
         <v>12</v>
       </c>
-      <c r="O33" s="131" t="s">
+      <c r="O33" s="115" t="s">
         <v>400</v>
       </c>
-      <c r="P33" s="131"/>
+      <c r="P33" s="115"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
@@ -4042,16 +4042,16 @@
         <f t="array" ref="N34">$C$46/L34</f>
         <v>12</v>
       </c>
-      <c r="O34" s="131" t="s">
+      <c r="O34" s="115" t="s">
         <v>400</v>
       </c>
-      <c r="P34" s="131"/>
+      <c r="P34" s="115"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="K35" s="132">
+      <c r="K35" s="116">
         <v>7</v>
       </c>
-      <c r="L35" s="132">
+      <c r="L35" s="116">
         <v>2</v>
       </c>
       <c r="M35" s="64">
@@ -4061,17 +4061,17 @@
         <f t="array" ref="N35">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O35" s="131" t="s">
+      <c r="O35" s="115" t="s">
         <v>398</v>
       </c>
-      <c r="P35" s="131"/>
+      <c r="P35" s="115"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="133"/>
-      <c r="L36" s="133"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
       <c r="M36" s="64">
         <v>11</v>
       </c>
@@ -4079,16 +4079,16 @@
         <f t="array" ref="N36">$C$46/L35</f>
         <v>6</v>
       </c>
-      <c r="O36" s="131" t="s">
+      <c r="O36" s="115" t="s">
         <v>399</v>
       </c>
-      <c r="P36" s="131"/>
+      <c r="P36" s="115"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="K37" s="132">
+      <c r="K37" s="116">
         <v>8</v>
       </c>
-      <c r="L37" s="132">
+      <c r="L37" s="116">
         <v>2</v>
       </c>
       <c r="M37" s="64">
@@ -4098,10 +4098,10 @@
         <f t="array" ref="N37">$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O37" s="131" t="s">
+      <c r="O37" s="115" t="s">
         <v>398</v>
       </c>
-      <c r="P37" s="131"/>
+      <c r="P37" s="115"/>
     </row>
     <row r="38" spans="1:16">
       <c r="B38" s="2" t="s">
@@ -4111,8 +4111,8 @@
         <f>F34/G34</f>
         <v>0.96942399118738409</v>
       </c>
-      <c r="K38" s="133"/>
-      <c r="L38" s="133"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
       <c r="M38" s="64">
         <v>13</v>
       </c>
@@ -4120,10 +4120,10 @@
         <f>$C$46/L37</f>
         <v>6</v>
       </c>
-      <c r="O38" s="131" t="s">
+      <c r="O38" s="115" t="s">
         <v>399</v>
       </c>
-      <c r="P38" s="131"/>
+      <c r="P38" s="115"/>
     </row>
     <row r="39" spans="1:16">
       <c r="K39" s="64">
@@ -4139,10 +4139,10 @@
         <f>$C$46/L39</f>
         <v>12</v>
       </c>
-      <c r="O39" s="131" t="s">
+      <c r="O39" s="115" t="s">
         <v>400</v>
       </c>
-      <c r="P39" s="131"/>
+      <c r="P39" s="115"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
@@ -4474,74 +4474,74 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="72" t="s">
+      <c r="A102" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="B102" s="72"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
+      <c r="B102" s="91"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="91"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="91"/>
+      <c r="H102" s="91"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="B104" s="105" t="s">
+      <c r="B104" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="105"/>
-      <c r="D104" s="105"/>
-      <c r="E104" s="105"/>
-      <c r="F104" s="105"/>
-      <c r="G104" s="105"/>
-      <c r="H104" s="105"/>
+      <c r="C104" s="131"/>
+      <c r="D104" s="131"/>
+      <c r="E104" s="131"/>
+      <c r="F104" s="131"/>
+      <c r="G104" s="131"/>
+      <c r="H104" s="131"/>
       <c r="J104" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A106" s="102" t="s">
+      <c r="A106" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="102"/>
+      <c r="B106" s="94"/>
       <c r="C106" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="102" t="s">
+      <c r="D106" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="102"/>
-      <c r="F106" s="102" t="s">
+      <c r="E106" s="94"/>
+      <c r="F106" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="G106" s="102"/>
-      <c r="H106" s="102" t="s">
+      <c r="G106" s="94"/>
+      <c r="H106" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="I106" s="102"/>
-      <c r="J106" s="102" t="s">
+      <c r="I106" s="94"/>
+      <c r="J106" s="94" t="s">
         <v>459</v>
       </c>
-      <c r="K106" s="102"/>
+      <c r="K106" s="94"/>
     </row>
     <row r="107" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A107" s="92"/>
-      <c r="B107" s="92"/>
+      <c r="A107" s="97"/>
+      <c r="B107" s="97"/>
       <c r="C107" s="46"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="114"/>
-      <c r="G107" s="114"/>
-      <c r="H107" s="114"/>
-      <c r="I107" s="114"/>
-      <c r="J107" s="114"/>
-      <c r="K107" s="114"/>
+      <c r="F107" s="130"/>
+      <c r="G107" s="130"/>
+      <c r="H107" s="130"/>
+      <c r="I107" s="130"/>
+      <c r="J107" s="130"/>
+      <c r="K107" s="130"/>
     </row>
     <row r="108" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A108" s="91" t="s">
+      <c r="A108" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="B108" s="91"/>
+      <c r="B108" s="128"/>
       <c r="C108" s="47" t="s">
         <v>471</v>
       </c>
@@ -4551,25 +4551,25 @@
       <c r="E108" s="1">
         <v>700</v>
       </c>
-      <c r="F108" s="114">
+      <c r="F108" s="130">
         <v>1</v>
       </c>
-      <c r="G108" s="114"/>
-      <c r="H108" s="114">
+      <c r="G108" s="130"/>
+      <c r="H108" s="130">
         <v>4</v>
       </c>
-      <c r="I108" s="114"/>
-      <c r="J108" s="114">
+      <c r="I108" s="130"/>
+      <c r="J108" s="130">
         <f>D108*E108*F108*H108/1000000</f>
         <v>3.36</v>
       </c>
-      <c r="K108" s="114"/>
+      <c r="K108" s="130"/>
     </row>
     <row r="109" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A109" s="91" t="s">
+      <c r="A109" s="128" t="s">
         <v>470</v>
       </c>
-      <c r="B109" s="91"/>
+      <c r="B109" s="128"/>
       <c r="C109" s="15"/>
       <c r="D109" s="63">
         <v>23970</v>
@@ -4577,19 +4577,19 @@
       <c r="E109" s="1">
         <v>600</v>
       </c>
-      <c r="F109" s="114">
+      <c r="F109" s="130">
         <v>1</v>
       </c>
-      <c r="G109" s="114"/>
-      <c r="H109" s="115">
+      <c r="G109" s="130"/>
+      <c r="H109" s="147">
         <v>2.5</v>
       </c>
-      <c r="I109" s="115"/>
-      <c r="J109" s="114">
+      <c r="I109" s="147"/>
+      <c r="J109" s="130">
         <f>D109*E109*F109*H109/1000000</f>
         <v>35.954999999999998</v>
       </c>
-      <c r="K109" s="114"/>
+      <c r="K109" s="130"/>
     </row>
     <row r="110" spans="1:13" ht="20.25" thickTop="1" thickBot="1">
       <c r="A110" s="45" t="s">
@@ -4613,47 +4613,47 @@
         <v>4</v>
       </c>
       <c r="I110" s="63"/>
-      <c r="J110" s="73">
+      <c r="J110" s="143">
         <f>D110*E110*F110*H110/1000000</f>
         <v>53.76</v>
       </c>
-      <c r="K110" s="74"/>
+      <c r="K110" s="144"/>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="91"/>
-      <c r="B111" s="91"/>
+      <c r="A111" s="128"/>
+      <c r="B111" s="128"/>
       <c r="C111" s="15"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="114"/>
-      <c r="G111" s="114"/>
-      <c r="H111" s="116"/>
-      <c r="I111" s="116"/>
-      <c r="J111" s="114">
+      <c r="F111" s="130"/>
+      <c r="G111" s="130"/>
+      <c r="H111" s="148"/>
+      <c r="I111" s="148"/>
+      <c r="J111" s="130">
         <f>D111*E111*F111*H111/1000000</f>
         <v>0</v>
       </c>
-      <c r="K111" s="114"/>
+      <c r="K111" s="130"/>
     </row>
     <row r="112" spans="1:13" s="17" customFormat="1">
-      <c r="A112" s="151" t="s">
+      <c r="A112" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="152"/>
+      <c r="B112" s="99"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
-      <c r="F112" s="130">
+      <c r="F112" s="129">
         <v>18</v>
       </c>
-      <c r="G112" s="130"/>
-      <c r="H112" s="130"/>
-      <c r="I112" s="130"/>
-      <c r="J112" s="130">
+      <c r="G112" s="129"/>
+      <c r="H112" s="129"/>
+      <c r="I112" s="129"/>
+      <c r="J112" s="129">
         <f t="array" ref="J112">SUM(J108:J111)</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="K112" s="130"/>
+      <c r="K112" s="129"/>
       <c r="M112" s="17" t="s">
         <v>422</v>
       </c>
@@ -4675,108 +4675,108 @@
       <c r="L114" s="8"/>
     </row>
     <row r="115" spans="1:12">
-      <c r="B115" s="105" t="s">
+      <c r="B115" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="105"/>
-      <c r="D115" s="105"/>
-      <c r="E115" s="105"/>
-      <c r="F115" s="105"/>
-      <c r="G115" s="105"/>
-      <c r="H115" s="105"/>
+      <c r="C115" s="131"/>
+      <c r="D115" s="131"/>
+      <c r="E115" s="131"/>
+      <c r="F115" s="131"/>
+      <c r="G115" s="131"/>
+      <c r="H115" s="131"/>
     </row>
     <row r="117" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A117" s="102" t="s">
+      <c r="A117" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="B117" s="102"/>
-      <c r="C117" s="102" t="s">
+      <c r="B117" s="94"/>
+      <c r="C117" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="D117" s="102"/>
-      <c r="E117" s="102" t="s">
+      <c r="D117" s="94"/>
+      <c r="E117" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="F117" s="102"/>
+      <c r="F117" s="94"/>
       <c r="L117" s="16"/>
     </row>
     <row r="118" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A118" s="102" t="s">
+      <c r="A118" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="102"/>
-      <c r="C118" s="102" t="s">
+      <c r="B118" s="94"/>
+      <c r="C118" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="D118" s="102"/>
-      <c r="E118" s="75">
+      <c r="D118" s="94"/>
+      <c r="E118" s="84">
         <f>J112</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="F118" s="76"/>
+      <c r="F118" s="85"/>
     </row>
     <row r="119" spans="1:12" ht="30" customHeight="1">
-      <c r="A119" s="102" t="s">
+      <c r="A119" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="B119" s="102"/>
-      <c r="C119" s="102" t="s">
+      <c r="B119" s="94"/>
+      <c r="C119" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="D119" s="102"/>
-      <c r="E119" s="75">
+      <c r="D119" s="94"/>
+      <c r="E119" s="84">
         <f t="array" ref="E119">0.3*E118</f>
         <v>27.922499999999996</v>
       </c>
-      <c r="F119" s="76"/>
+      <c r="F119" s="85"/>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="153" t="s">
+      <c r="A120" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="102"/>
-      <c r="C120" s="102"/>
-      <c r="D120" s="102"/>
-      <c r="E120" s="75">
+      <c r="B120" s="94"/>
+      <c r="C120" s="94"/>
+      <c r="D120" s="94"/>
+      <c r="E120" s="84">
         <f t="array" ref="E120">SUM(E118:F119)</f>
         <v>120.99749999999999</v>
       </c>
-      <c r="F120" s="76"/>
+      <c r="F120" s="85"/>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="140" t="s">
+      <c r="A123" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="B123" s="72"/>
-      <c r="C123" s="72"/>
-      <c r="D123" s="72"/>
-      <c r="E123" s="72"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="72"/>
-      <c r="H123" s="72"/>
-      <c r="I123" s="72"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="91"/>
+      <c r="D123" s="91"/>
+      <c r="E123" s="91"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="91"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="91"/>
     </row>
     <row r="125" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A125" s="102" t="s">
+      <c r="A125" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="B125" s="102"/>
-      <c r="C125" s="102" t="s">
+      <c r="B125" s="94"/>
+      <c r="C125" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="D125" s="102" t="s">
+      <c r="D125" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="E125" s="102" t="s">
+      <c r="E125" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="F125" s="102"/>
+      <c r="F125" s="94"/>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="102"/>
-      <c r="B126" s="102"/>
-      <c r="C126" s="102"/>
-      <c r="D126" s="102"/>
+      <c r="A126" s="94"/>
+      <c r="B126" s="94"/>
+      <c r="C126" s="94"/>
+      <c r="D126" s="94"/>
       <c r="E126" s="1" t="s">
         <v>108</v>
       </c>
@@ -4785,10 +4785,10 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="112" t="s">
+      <c r="A127" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="B127" s="112"/>
+      <c r="B127" s="86"/>
       <c r="C127" s="15" t="s">
         <v>356</v>
       </c>
@@ -4805,10 +4805,10 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="112" t="s">
+      <c r="A128" s="86" t="s">
         <v>401</v>
       </c>
-      <c r="B128" s="112"/>
+      <c r="B128" s="86"/>
       <c r="C128" s="15" t="s">
         <v>402</v>
       </c>
@@ -4824,10 +4824,10 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="120" t="s">
+      <c r="A129" s="101" t="s">
         <v>403</v>
       </c>
-      <c r="B129" s="122"/>
+      <c r="B129" s="102"/>
       <c r="C129" s="15" t="s">
         <v>404</v>
       </c>
@@ -4843,10 +4843,10 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="154" t="s">
+      <c r="A130" s="103" t="s">
         <v>425</v>
       </c>
-      <c r="B130" s="155"/>
+      <c r="B130" s="104"/>
       <c r="C130" s="15" t="s">
         <v>426</v>
       </c>
@@ -4862,10 +4862,10 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="154" t="s">
+      <c r="A131" s="103" t="s">
         <v>423</v>
       </c>
-      <c r="B131" s="155"/>
+      <c r="B131" s="104"/>
       <c r="C131" s="15" t="s">
         <v>424</v>
       </c>
@@ -4881,10 +4881,10 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="128" t="s">
+      <c r="A132" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="156"/>
+      <c r="B132" s="106"/>
       <c r="C132" s="4"/>
       <c r="D132" s="20">
         <f>SUM(D127:D131)</f>
@@ -4897,219 +4897,219 @@
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="72" t="s">
+      <c r="A135" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B135" s="72"/>
-      <c r="C135" s="72"/>
-      <c r="D135" s="72"/>
-      <c r="E135" s="72"/>
-      <c r="F135" s="72"/>
-      <c r="G135" s="72"/>
-      <c r="H135" s="72"/>
+      <c r="B135" s="91"/>
+      <c r="C135" s="91"/>
+      <c r="D135" s="91"/>
+      <c r="E135" s="91"/>
+      <c r="F135" s="91"/>
+      <c r="G135" s="91"/>
+      <c r="H135" s="91"/>
     </row>
     <row r="137" spans="1:12">
-      <c r="B137" s="72" t="s">
+      <c r="B137" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C137" s="72"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="72"/>
-      <c r="F137" s="72"/>
-      <c r="G137" s="72"/>
-      <c r="H137" s="72"/>
-      <c r="I137" s="72"/>
+      <c r="C137" s="91"/>
+      <c r="D137" s="91"/>
+      <c r="E137" s="91"/>
+      <c r="F137" s="91"/>
+      <c r="G137" s="91"/>
+      <c r="H137" s="91"/>
+      <c r="I137" s="91"/>
     </row>
     <row r="139" spans="1:12" ht="45" customHeight="1">
-      <c r="A139" s="102" t="s">
+      <c r="A139" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="B139" s="102"/>
-      <c r="C139" s="102" t="s">
+      <c r="B139" s="94"/>
+      <c r="C139" s="94" t="s">
         <v>461</v>
       </c>
-      <c r="D139" s="102"/>
-      <c r="E139" s="102" t="s">
+      <c r="D139" s="94"/>
+      <c r="E139" s="94" t="s">
         <v>462</v>
       </c>
-      <c r="F139" s="102"/>
-      <c r="G139" s="102" t="s">
+      <c r="F139" s="94"/>
+      <c r="G139" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="H139" s="102"/>
-      <c r="I139" s="102" t="s">
+      <c r="H139" s="94"/>
+      <c r="I139" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="J139" s="102"/>
-      <c r="K139" s="102" t="s">
+      <c r="J139" s="94"/>
+      <c r="K139" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="L139" s="102"/>
+      <c r="L139" s="94"/>
     </row>
     <row r="140" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A140" s="91" t="s">
+      <c r="A140" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B140" s="91"/>
-      <c r="C140" s="92">
+      <c r="B140" s="128"/>
+      <c r="C140" s="97">
         <v>170</v>
       </c>
-      <c r="D140" s="92"/>
-      <c r="E140" s="93">
+      <c r="D140" s="97"/>
+      <c r="E140" s="110">
         <f t="array" ref="E140">E118</f>
         <v>93.074999999999989</v>
       </c>
-      <c r="F140" s="94"/>
-      <c r="G140" s="93">
+      <c r="F140" s="111"/>
+      <c r="G140" s="110">
         <f t="array" ref="G140">C140*E140</f>
         <v>15822.749999999998</v>
       </c>
-      <c r="H140" s="94"/>
-      <c r="I140" s="93">
+      <c r="H140" s="111"/>
+      <c r="I140" s="110">
         <v>2.7</v>
       </c>
-      <c r="J140" s="94"/>
-      <c r="K140" s="93">
+      <c r="J140" s="111"/>
+      <c r="K140" s="110">
         <f>G140*I140/(100)</f>
         <v>427.21424999999994</v>
       </c>
-      <c r="L140" s="94"/>
+      <c r="L140" s="111"/>
     </row>
     <row r="141" spans="1:12" ht="30" customHeight="1">
-      <c r="A141" s="91" t="s">
+      <c r="A141" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="B141" s="91"/>
-      <c r="C141" s="92">
+      <c r="B141" s="128"/>
+      <c r="C141" s="97">
         <v>250</v>
       </c>
-      <c r="D141" s="92"/>
-      <c r="E141" s="93">
+      <c r="D141" s="97"/>
+      <c r="E141" s="110">
         <f t="array" ref="E141">E119</f>
         <v>27.922499999999996</v>
       </c>
-      <c r="F141" s="94"/>
-      <c r="G141" s="93">
+      <c r="F141" s="111"/>
+      <c r="G141" s="110">
         <f t="array" ref="G141">C141*E141</f>
         <v>6980.6249999999991</v>
       </c>
-      <c r="H141" s="94"/>
-      <c r="I141" s="93">
+      <c r="H141" s="111"/>
+      <c r="I141" s="110">
         <v>3.1</v>
       </c>
-      <c r="J141" s="94"/>
-      <c r="K141" s="93">
+      <c r="J141" s="111"/>
+      <c r="K141" s="110">
         <f>G141*I141/(100)</f>
         <v>216.39937499999996</v>
       </c>
-      <c r="L141" s="94"/>
+      <c r="L141" s="111"/>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="139" t="s">
+      <c r="A142" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="B142" s="92"/>
-      <c r="C142" s="75"/>
-      <c r="D142" s="76"/>
-      <c r="E142" s="95">
+      <c r="B142" s="97"/>
+      <c r="C142" s="84"/>
+      <c r="D142" s="85"/>
+      <c r="E142" s="149">
         <f t="array" ref="E142">SUM(E140:E141)</f>
         <v>120.99749999999999</v>
       </c>
-      <c r="F142" s="96"/>
-      <c r="G142" s="108">
+      <c r="F142" s="150"/>
+      <c r="G142" s="151">
         <f>SUM(G140:G141)</f>
         <v>22803.374999999996</v>
       </c>
-      <c r="H142" s="109"/>
+      <c r="H142" s="152"/>
       <c r="I142" s="22"/>
       <c r="J142" s="23"/>
-      <c r="K142" s="95">
+      <c r="K142" s="149">
         <f t="array" ref="K142">SUM(K140:K141)</f>
         <v>643.61362499999996</v>
       </c>
-      <c r="L142" s="96"/>
+      <c r="L142" s="150"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="B145" s="72" t="s">
+      <c r="B145" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="C145" s="72"/>
-      <c r="D145" s="72"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
-      <c r="I145" s="72"/>
+      <c r="C145" s="91"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="91"/>
+      <c r="F145" s="91"/>
+      <c r="G145" s="91"/>
+      <c r="H145" s="91"/>
+      <c r="I145" s="91"/>
       <c r="K145" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A147" s="102" t="s">
+      <c r="A147" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="B147" s="102"/>
-      <c r="C147" s="102" t="s">
+      <c r="B147" s="94"/>
+      <c r="C147" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="D147" s="102" t="s">
+      <c r="D147" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="E147" s="102"/>
-      <c r="F147" s="102" t="s">
+      <c r="E147" s="94"/>
+      <c r="F147" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="G147" s="102"/>
-      <c r="H147" s="135" t="s">
+      <c r="G147" s="94"/>
+      <c r="H147" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="I147" s="136"/>
-      <c r="J147" s="102" t="s">
+      <c r="I147" s="123"/>
+      <c r="J147" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="K147" s="102"/>
-      <c r="L147" s="135" t="s">
+      <c r="K147" s="94"/>
+      <c r="L147" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="M147" s="136"/>
-      <c r="N147" s="102" t="s">
+      <c r="M147" s="123"/>
+      <c r="N147" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="O147" s="102"/>
+      <c r="O147" s="94"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="102"/>
-      <c r="B148" s="102"/>
-      <c r="C148" s="102"/>
-      <c r="D148" s="102"/>
-      <c r="E148" s="102"/>
+      <c r="A148" s="94"/>
+      <c r="B148" s="94"/>
+      <c r="C148" s="94"/>
+      <c r="D148" s="94"/>
+      <c r="E148" s="94"/>
       <c r="F148" s="14" t="s">
         <v>119</v>
       </c>
       <c r="G148" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H148" s="137"/>
-      <c r="I148" s="138"/>
-      <c r="J148" s="102"/>
-      <c r="K148" s="102"/>
-      <c r="L148" s="137"/>
-      <c r="M148" s="138"/>
-      <c r="N148" s="102"/>
-      <c r="O148" s="102"/>
+      <c r="H148" s="124"/>
+      <c r="I148" s="125"/>
+      <c r="J148" s="94"/>
+      <c r="K148" s="94"/>
+      <c r="L148" s="124"/>
+      <c r="M148" s="125"/>
+      <c r="N148" s="94"/>
+      <c r="O148" s="94"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="92" t="s">
+      <c r="A149" s="97" t="s">
         <v>472</v>
       </c>
-      <c r="B149" s="92"/>
+      <c r="B149" s="97"/>
       <c r="C149" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="D149" s="92">
+      <c r="D149" s="97">
         <v>16</v>
       </c>
-      <c r="E149" s="92"/>
+      <c r="E149" s="97"/>
       <c r="F149" s="14">
         <v>360</v>
       </c>
@@ -5117,38 +5117,38 @@
         <f>D149*F149</f>
         <v>5760</v>
       </c>
-      <c r="H149" s="89">
+      <c r="H149" s="145">
         <f>0.1*G149</f>
         <v>576</v>
       </c>
-      <c r="I149" s="90"/>
-      <c r="J149" s="89">
+      <c r="I149" s="146"/>
+      <c r="J149" s="145">
         <f>G149+H149</f>
         <v>6336</v>
       </c>
-      <c r="K149" s="90"/>
-      <c r="L149" s="89">
+      <c r="K149" s="146"/>
+      <c r="L149" s="145">
         <v>7.7</v>
       </c>
-      <c r="M149" s="90"/>
-      <c r="N149" s="87">
+      <c r="M149" s="146"/>
+      <c r="N149" s="164">
         <f>L149*J149/(100)</f>
         <v>487.87200000000007</v>
       </c>
-      <c r="O149" s="88"/>
+      <c r="O149" s="165"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="91" t="s">
+      <c r="A150" s="128" t="s">
         <v>473</v>
       </c>
-      <c r="B150" s="91"/>
+      <c r="B150" s="128"/>
       <c r="C150" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D150" s="92">
+      <c r="D150" s="97">
         <v>1</v>
       </c>
-      <c r="E150" s="92"/>
+      <c r="E150" s="97"/>
       <c r="F150" s="14">
         <v>360</v>
       </c>
@@ -5156,38 +5156,38 @@
         <f>D150*F150</f>
         <v>360</v>
       </c>
-      <c r="H150" s="89">
+      <c r="H150" s="145">
         <f>0.1*G150</f>
         <v>36</v>
       </c>
-      <c r="I150" s="90"/>
-      <c r="J150" s="89">
+      <c r="I150" s="146"/>
+      <c r="J150" s="145">
         <f>G150+H150</f>
         <v>396</v>
       </c>
-      <c r="K150" s="90"/>
-      <c r="L150" s="89">
+      <c r="K150" s="146"/>
+      <c r="L150" s="145">
         <v>7.7</v>
       </c>
-      <c r="M150" s="90"/>
-      <c r="N150" s="87">
+      <c r="M150" s="146"/>
+      <c r="N150" s="164">
         <f>L150*J150/(100)</f>
         <v>30.492000000000004</v>
       </c>
-      <c r="O150" s="88"/>
+      <c r="O150" s="165"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="91" t="s">
+      <c r="A151" s="128" t="s">
         <v>420</v>
       </c>
-      <c r="B151" s="91"/>
+      <c r="B151" s="128"/>
       <c r="C151" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D151" s="92">
+      <c r="D151" s="97">
         <v>0</v>
       </c>
-      <c r="E151" s="92"/>
+      <c r="E151" s="97"/>
       <c r="F151" s="14">
         <v>0</v>
       </c>
@@ -5195,38 +5195,38 @@
         <f>D151*F151</f>
         <v>0</v>
       </c>
-      <c r="H151" s="89">
+      <c r="H151" s="145">
         <f>0.1*G151</f>
         <v>0</v>
       </c>
-      <c r="I151" s="90"/>
-      <c r="J151" s="89">
+      <c r="I151" s="146"/>
+      <c r="J151" s="145">
         <f>G151+H151</f>
         <v>0</v>
       </c>
-      <c r="K151" s="90"/>
-      <c r="L151" s="89">
+      <c r="K151" s="146"/>
+      <c r="L151" s="145">
         <v>0</v>
       </c>
-      <c r="M151" s="90"/>
-      <c r="N151" s="87">
+      <c r="M151" s="146"/>
+      <c r="N151" s="164">
         <f>L151*J151/(100)</f>
         <v>0</v>
       </c>
-      <c r="O151" s="88"/>
+      <c r="O151" s="165"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="91" t="s">
+      <c r="A152" s="128" t="s">
         <v>420</v>
       </c>
-      <c r="B152" s="91"/>
+      <c r="B152" s="128"/>
       <c r="C152" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="D152" s="92">
+      <c r="D152" s="97">
         <v>0</v>
       </c>
-      <c r="E152" s="92"/>
+      <c r="E152" s="97"/>
       <c r="F152" s="14">
         <v>0</v>
       </c>
@@ -5234,38 +5234,38 @@
         <f>D152*F152</f>
         <v>0</v>
       </c>
-      <c r="H152" s="89">
+      <c r="H152" s="145">
         <f>0.1*G152</f>
         <v>0</v>
       </c>
-      <c r="I152" s="90"/>
-      <c r="J152" s="89">
+      <c r="I152" s="146"/>
+      <c r="J152" s="145">
         <f>G152+H152</f>
         <v>0</v>
       </c>
-      <c r="K152" s="90"/>
-      <c r="L152" s="89">
+      <c r="K152" s="146"/>
+      <c r="L152" s="145">
         <v>0</v>
       </c>
-      <c r="M152" s="90"/>
-      <c r="N152" s="87">
+      <c r="M152" s="146"/>
+      <c r="N152" s="164">
         <f>L152*J152/(100)</f>
         <v>0</v>
       </c>
-      <c r="O152" s="88"/>
+      <c r="O152" s="165"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="91" t="s">
+      <c r="A153" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="B153" s="91"/>
+      <c r="B153" s="128"/>
       <c r="C153" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D153" s="92">
+      <c r="D153" s="97">
         <v>1</v>
       </c>
-      <c r="E153" s="92"/>
+      <c r="E153" s="97"/>
       <c r="F153" s="69">
         <v>1142</v>
       </c>
@@ -5273,59 +5273,59 @@
         <f>D153*F153</f>
         <v>1142</v>
       </c>
-      <c r="H153" s="89">
+      <c r="H153" s="145">
         <f>0.1*G153</f>
         <v>114.2</v>
       </c>
-      <c r="I153" s="90"/>
-      <c r="J153" s="89">
+      <c r="I153" s="146"/>
+      <c r="J153" s="145">
         <f>G153+H153</f>
         <v>1256.2</v>
       </c>
-      <c r="K153" s="90"/>
-      <c r="L153" s="89">
+      <c r="K153" s="146"/>
+      <c r="L153" s="145">
         <v>15.2</v>
       </c>
-      <c r="M153" s="90"/>
-      <c r="N153" s="87">
+      <c r="M153" s="146"/>
+      <c r="N153" s="164">
         <f>L153*J153/(100)</f>
         <v>190.94240000000002</v>
       </c>
-      <c r="O153" s="88"/>
+      <c r="O153" s="165"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="144" t="s">
+      <c r="A154" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B154" s="144"/>
+      <c r="B154" s="113"/>
       <c r="C154" s="24"/>
-      <c r="D154" s="110">
+      <c r="D154" s="153">
         <f>SUM(D149:E153)</f>
         <v>18</v>
       </c>
-      <c r="E154" s="111"/>
+      <c r="E154" s="154"/>
       <c r="F154" s="24"/>
       <c r="G154" s="25">
         <f>SUM(G149:G153)</f>
         <v>7262</v>
       </c>
-      <c r="H154" s="98">
+      <c r="H154" s="155">
         <f>SUM(H149:I153)</f>
         <v>726.2</v>
       </c>
-      <c r="I154" s="99"/>
-      <c r="J154" s="98">
+      <c r="I154" s="156"/>
+      <c r="J154" s="155">
         <f>SUM(J149:K153)</f>
         <v>7988.2</v>
       </c>
-      <c r="K154" s="99"/>
-      <c r="L154" s="100"/>
-      <c r="M154" s="101"/>
-      <c r="N154" s="98">
+      <c r="K154" s="156"/>
+      <c r="L154" s="158"/>
+      <c r="M154" s="159"/>
+      <c r="N154" s="155">
         <f>SUM(N149:O153)</f>
         <v>709.30640000000005</v>
       </c>
-      <c r="O154" s="99"/>
+      <c r="O154" s="156"/>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="3"/>
@@ -5333,232 +5333,232 @@
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="B157" s="72" t="s">
+      <c r="B157" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="C157" s="72"/>
-      <c r="D157" s="72"/>
-      <c r="E157" s="72"/>
-      <c r="F157" s="72"/>
-      <c r="G157" s="72"/>
-      <c r="H157" s="72"/>
-      <c r="I157" s="72"/>
-      <c r="J157" s="72"/>
+      <c r="C157" s="91"/>
+      <c r="D157" s="91"/>
+      <c r="E157" s="91"/>
+      <c r="F157" s="91"/>
+      <c r="G157" s="91"/>
+      <c r="H157" s="91"/>
+      <c r="I157" s="91"/>
+      <c r="J157" s="91"/>
       <c r="K157" s="3"/>
     </row>
     <row r="159" spans="1:15" ht="37.5">
-      <c r="A159" s="103" t="s">
+      <c r="A159" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="B159" s="103"/>
-      <c r="C159" s="103"/>
+      <c r="B159" s="87"/>
+      <c r="C159" s="87"/>
       <c r="D159" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E159" s="103" t="s">
+      <c r="E159" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="F159" s="103"/>
+      <c r="F159" s="87"/>
       <c r="G159" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="H159" s="103" t="s">
+      <c r="H159" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="I159" s="103"/>
+      <c r="I159" s="87"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="103" t="s">
+      <c r="A160" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B160" s="103"/>
-      <c r="C160" s="103"/>
+      <c r="B160" s="87"/>
+      <c r="C160" s="87"/>
       <c r="D160" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E160" s="93">
+      <c r="E160" s="110">
         <f t="array" ref="E160">G142</f>
         <v>22803.374999999996</v>
       </c>
-      <c r="F160" s="94"/>
+      <c r="F160" s="111"/>
       <c r="G160" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="H160" s="93">
+      <c r="H160" s="110">
         <f>K142</f>
         <v>643.61362499999996</v>
       </c>
-      <c r="I160" s="94"/>
+      <c r="I160" s="111"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="103" t="s">
+      <c r="A161" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="B161" s="103"/>
-      <c r="C161" s="103"/>
+      <c r="B161" s="87"/>
+      <c r="C161" s="87"/>
       <c r="D161" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E161" s="93">
+      <c r="E161" s="110">
         <f t="array" ref="E161">J154</f>
         <v>7988.2</v>
       </c>
-      <c r="F161" s="94"/>
+      <c r="F161" s="111"/>
       <c r="G161" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="H161" s="93">
+      <c r="H161" s="110">
         <f>N154</f>
         <v>709.30640000000005</v>
       </c>
-      <c r="I161" s="94"/>
+      <c r="I161" s="111"/>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="103" t="s">
+      <c r="A162" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="B162" s="103"/>
-      <c r="C162" s="103"/>
+      <c r="B162" s="87"/>
+      <c r="C162" s="87"/>
       <c r="D162" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E162" s="93">
+      <c r="E162" s="110">
         <f>45*F132</f>
         <v>75.073550510204086</v>
       </c>
-      <c r="F162" s="94"/>
+      <c r="F162" s="111"/>
       <c r="G162" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H162" s="93">
+      <c r="H162" s="110">
         <f>E162*G162/(100)</f>
         <v>6.1560311418367348</v>
       </c>
-      <c r="I162" s="94"/>
+      <c r="I162" s="111"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="79" t="s">
+      <c r="A163" s="161" t="s">
         <v>357</v>
       </c>
-      <c r="B163" s="80"/>
-      <c r="C163" s="81"/>
+      <c r="B163" s="162"/>
+      <c r="C163" s="163"/>
       <c r="D163" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E163" s="93">
+      <c r="E163" s="110">
         <f t="array" ref="E163">J154*0.1</f>
         <v>798.82</v>
       </c>
-      <c r="F163" s="94"/>
+      <c r="F163" s="111"/>
       <c r="G163" s="4">
         <v>4.5</v>
       </c>
-      <c r="H163" s="93">
+      <c r="H163" s="110">
         <f>E163*G163/(100)</f>
         <v>35.946899999999999</v>
       </c>
-      <c r="I163" s="94"/>
+      <c r="I163" s="111"/>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="79" t="s">
+      <c r="A164" s="161" t="s">
         <v>359</v>
       </c>
-      <c r="B164" s="80"/>
-      <c r="C164" s="81"/>
+      <c r="B164" s="162"/>
+      <c r="C164" s="163"/>
       <c r="D164" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E164" s="93">
+      <c r="E164" s="110">
         <f t="array" ref="E164">0.02*G154</f>
         <v>145.24</v>
       </c>
-      <c r="F164" s="94"/>
+      <c r="F164" s="111"/>
       <c r="G164" s="4">
         <v>11.5</v>
       </c>
-      <c r="H164" s="93">
+      <c r="H164" s="110">
         <f>E164*G164/(100)</f>
         <v>16.702600000000004</v>
       </c>
-      <c r="I164" s="94"/>
+      <c r="I164" s="111"/>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="103" t="s">
+      <c r="A165" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="103"/>
-      <c r="C165" s="103"/>
+      <c r="B165" s="87"/>
+      <c r="C165" s="87"/>
       <c r="D165" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E165" s="93">
+      <c r="E165" s="110">
         <f t="array" ref="E165">1.5*E161/100+15.4*G34</f>
         <v>366.22300000000001</v>
       </c>
-      <c r="F165" s="94"/>
+      <c r="F165" s="111"/>
       <c r="G165" s="4">
         <f>18.5</f>
         <v>18.5</v>
       </c>
-      <c r="H165" s="93">
+      <c r="H165" s="110">
         <f>E165*G165/(100)</f>
         <v>67.751255</v>
       </c>
-      <c r="I165" s="94"/>
+      <c r="I165" s="111"/>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="128" t="s">
+      <c r="A166" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B166" s="112"/>
-      <c r="C166" s="112"/>
+      <c r="B166" s="86"/>
+      <c r="C166" s="86"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="95">
+      <c r="E166" s="149">
         <f t="array" ref="E166">SUM(E160:E165)</f>
         <v>32176.931550510206</v>
       </c>
-      <c r="F166" s="96"/>
+      <c r="F166" s="150"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="95">
+      <c r="H166" s="149">
         <f t="array" ref="H166">SUM(H160:H165)</f>
         <v>1479.4768111418366</v>
       </c>
-      <c r="I166" s="96"/>
+      <c r="I166" s="150"/>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="72" t="s">
+      <c r="A169" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="72"/>
-      <c r="C169" s="72"/>
-      <c r="D169" s="72"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="72"/>
-      <c r="G169" s="72"/>
-      <c r="H169" s="72"/>
-      <c r="I169" s="72"/>
-      <c r="J169" s="72"/>
+      <c r="B169" s="91"/>
+      <c r="C169" s="91"/>
+      <c r="D169" s="91"/>
+      <c r="E169" s="91"/>
+      <c r="F169" s="91"/>
+      <c r="G169" s="91"/>
+      <c r="H169" s="91"/>
+      <c r="I169" s="91"/>
+      <c r="J169" s="91"/>
     </row>
     <row r="171" spans="1:10">
-      <c r="B171" s="72" t="s">
+      <c r="B171" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="C171" s="72"/>
-      <c r="D171" s="72"/>
-      <c r="E171" s="72"/>
-      <c r="F171" s="72"/>
-      <c r="G171" s="72"/>
-      <c r="H171" s="72"/>
-      <c r="I171" s="72"/>
-      <c r="J171" s="72"/>
+      <c r="C171" s="91"/>
+      <c r="D171" s="91"/>
+      <c r="E171" s="91"/>
+      <c r="F171" s="91"/>
+      <c r="G171" s="91"/>
+      <c r="H171" s="91"/>
+      <c r="I171" s="91"/>
+      <c r="J171" s="91"/>
     </row>
     <row r="173" spans="1:10">
-      <c r="B173" s="72" t="s">
+      <c r="B173" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="C173" s="72"/>
-      <c r="D173" s="72"/>
-      <c r="E173" s="72"/>
+      <c r="C173" s="91"/>
+      <c r="D173" s="91"/>
+      <c r="E173" s="91"/>
     </row>
     <row r="175" spans="1:10">
       <c r="C175" s="2" t="s">
@@ -5570,11 +5570,11 @@
       </c>
     </row>
     <row r="177" spans="2:13">
-      <c r="B177" s="72" t="s">
+      <c r="B177" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C177" s="72"/>
-      <c r="D177" s="72"/>
+      <c r="C177" s="91"/>
+      <c r="D177" s="91"/>
     </row>
     <row r="179" spans="2:13">
       <c r="C179" s="2" t="s">
@@ -5595,37 +5595,37 @@
       </c>
     </row>
     <row r="181" spans="2:13">
-      <c r="B181" s="72" t="s">
+      <c r="B181" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="C181" s="72"/>
-      <c r="D181" s="72"/>
-      <c r="E181" s="72"/>
-      <c r="F181" s="72"/>
-      <c r="G181" s="72"/>
-      <c r="H181" s="72"/>
-      <c r="I181" s="72"/>
-      <c r="J181" s="72"/>
-      <c r="M181" s="105" t="s">
+      <c r="C181" s="91"/>
+      <c r="D181" s="91"/>
+      <c r="E181" s="91"/>
+      <c r="F181" s="91"/>
+      <c r="G181" s="91"/>
+      <c r="H181" s="91"/>
+      <c r="I181" s="91"/>
+      <c r="J181" s="91"/>
+      <c r="M181" s="131" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="182" spans="2:13">
-      <c r="M182" s="105"/>
+      <c r="M182" s="131"/>
     </row>
     <row r="183" spans="2:13">
-      <c r="C183" s="72" t="s">
+      <c r="C183" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="D183" s="72"/>
-      <c r="E183" s="72"/>
-      <c r="F183" s="72"/>
-      <c r="G183" s="72"/>
-      <c r="H183" s="72"/>
-      <c r="M183" s="105"/>
+      <c r="D183" s="91"/>
+      <c r="E183" s="91"/>
+      <c r="F183" s="91"/>
+      <c r="G183" s="91"/>
+      <c r="H183" s="91"/>
+      <c r="M183" s="131"/>
     </row>
     <row r="184" spans="2:13">
-      <c r="M184" s="105"/>
+      <c r="M184" s="131"/>
     </row>
     <row r="185" spans="2:13">
       <c r="D185" s="2" t="s">
@@ -5641,10 +5641,10 @@
       <c r="H185" s="2">
         <v>1</v>
       </c>
-      <c r="M185" s="105"/>
+      <c r="M185" s="131"/>
     </row>
     <row r="186" spans="2:13">
-      <c r="M186" s="105"/>
+      <c r="M186" s="131"/>
     </row>
     <row r="187" spans="2:13">
       <c r="D187" s="2" t="s">
@@ -5663,27 +5663,27 @@
       <c r="I187" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M187" s="105"/>
+      <c r="M187" s="131"/>
     </row>
     <row r="188" spans="2:13">
-      <c r="M188" s="105"/>
+      <c r="M188" s="131"/>
     </row>
     <row r="189" spans="2:13">
-      <c r="C189" s="72" t="s">
+      <c r="C189" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="D189" s="72"/>
-      <c r="E189" s="72"/>
-      <c r="F189" s="72"/>
-      <c r="G189" s="72"/>
-      <c r="H189" s="72"/>
+      <c r="D189" s="91"/>
+      <c r="E189" s="91"/>
+      <c r="F189" s="91"/>
+      <c r="G189" s="91"/>
+      <c r="H189" s="91"/>
       <c r="K189" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="M189" s="105"/>
+      <c r="M189" s="131"/>
     </row>
     <row r="190" spans="2:13">
-      <c r="M190" s="105"/>
+      <c r="M190" s="131"/>
     </row>
     <row r="191" spans="2:13">
       <c r="D191" s="2" t="s">
@@ -5708,7 +5708,7 @@
       <c r="K191" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M191" s="105"/>
+      <c r="M191" s="131"/>
     </row>
     <row r="192" spans="2:13">
       <c r="G192" s="2" t="s">
@@ -5717,7 +5717,7 @@
       <c r="H192" s="2">
         <v>8</v>
       </c>
-      <c r="M192" s="105"/>
+      <c r="M192" s="131"/>
     </row>
     <row r="193" spans="3:13">
       <c r="G193" s="2" t="s">
@@ -5736,7 +5736,7 @@
       <c r="K193" s="2">
         <v>0.9</v>
       </c>
-      <c r="M193" s="105"/>
+      <c r="M193" s="131"/>
     </row>
     <row r="194" spans="3:13">
       <c r="G194" s="2" t="s">
@@ -5745,21 +5745,21 @@
       <c r="H194" s="2">
         <v>1</v>
       </c>
-      <c r="M194" s="105"/>
+      <c r="M194" s="131"/>
     </row>
     <row r="195" spans="3:13">
-      <c r="C195" s="72" t="s">
+      <c r="C195" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="D195" s="72"/>
-      <c r="E195" s="72"/>
-      <c r="F195" s="72"/>
-      <c r="G195" s="72"/>
-      <c r="H195" s="72"/>
-      <c r="M195" s="105"/>
+      <c r="D195" s="91"/>
+      <c r="E195" s="91"/>
+      <c r="F195" s="91"/>
+      <c r="G195" s="91"/>
+      <c r="H195" s="91"/>
+      <c r="M195" s="131"/>
     </row>
     <row r="196" spans="3:13">
-      <c r="M196" s="105"/>
+      <c r="M196" s="131"/>
     </row>
     <row r="197" spans="3:13">
       <c r="D197" s="2" t="s">
@@ -5784,7 +5784,7 @@
       <c r="K197" s="2">
         <v>3</v>
       </c>
-      <c r="M197" s="105"/>
+      <c r="M197" s="131"/>
     </row>
     <row r="198" spans="3:13">
       <c r="G198" s="2" t="s">
@@ -5793,39 +5793,39 @@
       <c r="H198" s="2">
         <v>2</v>
       </c>
-      <c r="M198" s="105"/>
+      <c r="M198" s="131"/>
     </row>
     <row r="199" spans="3:13">
-      <c r="M199" s="105"/>
+      <c r="M199" s="131"/>
     </row>
     <row r="200" spans="3:13">
-      <c r="C200" s="145" t="s">
+      <c r="C200" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="D200" s="145"/>
-      <c r="E200" s="145"/>
-      <c r="F200" s="145"/>
-      <c r="G200" s="145"/>
-      <c r="H200" s="145"/>
-      <c r="M200" s="105"/>
+      <c r="D200" s="109"/>
+      <c r="E200" s="109"/>
+      <c r="F200" s="109"/>
+      <c r="G200" s="109"/>
+      <c r="H200" s="109"/>
+      <c r="M200" s="131"/>
     </row>
     <row r="201" spans="3:13">
-      <c r="C201" s="145"/>
-      <c r="D201" s="145"/>
-      <c r="E201" s="145"/>
-      <c r="F201" s="145"/>
-      <c r="G201" s="145"/>
-      <c r="H201" s="145"/>
-      <c r="M201" s="105"/>
+      <c r="C201" s="109"/>
+      <c r="D201" s="109"/>
+      <c r="E201" s="109"/>
+      <c r="F201" s="109"/>
+      <c r="G201" s="109"/>
+      <c r="H201" s="109"/>
+      <c r="M201" s="131"/>
     </row>
     <row r="202" spans="3:13">
-      <c r="M202" s="105"/>
+      <c r="M202" s="131"/>
     </row>
     <row r="203" spans="3:13">
       <c r="G203" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M203" s="105"/>
+      <c r="M203" s="131"/>
     </row>
     <row r="204" spans="3:13">
       <c r="D204" s="2" t="s">
@@ -5837,7 +5837,7 @@
       <c r="K204" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="M204" s="105"/>
+      <c r="M204" s="131"/>
     </row>
     <row r="205" spans="3:13">
       <c r="D205" s="2" t="s">
@@ -5849,7 +5849,7 @@
       <c r="K205" s="2">
         <v>2</v>
       </c>
-      <c r="M205" s="105"/>
+      <c r="M205" s="131"/>
     </row>
     <row r="206" spans="3:13">
       <c r="D206" s="2" t="s">
@@ -5861,7 +5861,7 @@
       <c r="K206" s="2">
         <v>2</v>
       </c>
-      <c r="M206" s="105"/>
+      <c r="M206" s="131"/>
     </row>
     <row r="207" spans="3:13">
       <c r="D207" s="2" t="s">
@@ -5876,7 +5876,7 @@
       <c r="K207" s="2">
         <v>2</v>
       </c>
-      <c r="M207" s="105"/>
+      <c r="M207" s="131"/>
     </row>
     <row r="208" spans="3:13">
       <c r="D208" s="2" t="s">
@@ -5888,745 +5888,745 @@
       <c r="G208" s="2">
         <v>1</v>
       </c>
-      <c r="M208" s="105"/>
+      <c r="M208" s="131"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="B210" s="72" t="s">
+      <c r="B210" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="C210" s="72"/>
-      <c r="D210" s="72"/>
-      <c r="E210" s="72"/>
-      <c r="F210" s="72"/>
-      <c r="G210" s="72"/>
-      <c r="H210" s="72"/>
-      <c r="I210" s="72"/>
+      <c r="C210" s="91"/>
+      <c r="D210" s="91"/>
+      <c r="E210" s="91"/>
+      <c r="F210" s="91"/>
+      <c r="G210" s="91"/>
+      <c r="H210" s="91"/>
+      <c r="I210" s="91"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="104" t="s">
+      <c r="A212" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="B212" s="104"/>
-      <c r="C212" s="104"/>
-      <c r="D212" s="104"/>
+      <c r="B212" s="160"/>
+      <c r="C212" s="160"/>
+      <c r="D212" s="160"/>
       <c r="E212" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F212" s="102" t="s">
+      <c r="F212" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="G212" s="102"/>
+      <c r="G212" s="94"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="112" t="s">
+      <c r="A213" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="B213" s="112"/>
-      <c r="C213" s="112"/>
-      <c r="D213" s="112"/>
+      <c r="B213" s="86"/>
+      <c r="C213" s="86"/>
+      <c r="D213" s="86"/>
       <c r="E213" s="4">
         <f t="array" ref="E213">E179</f>
         <v>34</v>
       </c>
-      <c r="F213" s="93">
+      <c r="F213" s="110">
         <f>100*E213/E219</f>
         <v>79.069767441860463</v>
       </c>
-      <c r="G213" s="94"/>
+      <c r="G213" s="111"/>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="113" t="s">
+      <c r="A214" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="B214" s="113"/>
-      <c r="C214" s="113"/>
-      <c r="D214" s="113"/>
+      <c r="B214" s="157"/>
+      <c r="C214" s="157"/>
+      <c r="D214" s="157"/>
       <c r="E214" s="29"/>
       <c r="F214" s="30"/>
       <c r="G214" s="31"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="97" t="s">
+      <c r="A215" s="168" t="s">
         <v>172</v>
       </c>
-      <c r="B215" s="97"/>
-      <c r="C215" s="97"/>
-      <c r="D215" s="97"/>
+      <c r="B215" s="168"/>
+      <c r="C215" s="168"/>
+      <c r="D215" s="168"/>
       <c r="E215" s="32"/>
       <c r="F215" s="33"/>
       <c r="G215" s="34"/>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="112" t="s">
+      <c r="A216" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="B216" s="112"/>
-      <c r="C216" s="112"/>
-      <c r="D216" s="112"/>
+      <c r="B216" s="86"/>
+      <c r="C216" s="86"/>
+      <c r="D216" s="86"/>
       <c r="E216" s="4">
         <v>2</v>
       </c>
-      <c r="F216" s="93">
+      <c r="F216" s="110">
         <f t="array" ref="F216">E216*$F$219/$E$219</f>
         <v>4.6511627906976747</v>
       </c>
-      <c r="G216" s="94"/>
+      <c r="G216" s="111"/>
       <c r="H216" s="8">
         <f>F216+F217</f>
         <v>18.604651162790699</v>
       </c>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="112" t="s">
+      <c r="A217" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="B217" s="112"/>
-      <c r="C217" s="112"/>
-      <c r="D217" s="112"/>
+      <c r="B217" s="86"/>
+      <c r="C217" s="86"/>
+      <c r="D217" s="86"/>
       <c r="E217" s="4">
         <v>6</v>
       </c>
-      <c r="F217" s="93">
+      <c r="F217" s="110">
         <f t="array" ref="F217">E217*$F$219/$E$219</f>
         <v>13.953488372093023</v>
       </c>
-      <c r="G217" s="94"/>
+      <c r="G217" s="111"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="112" t="s">
+      <c r="A218" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="B218" s="112"/>
-      <c r="C218" s="112"/>
-      <c r="D218" s="112"/>
+      <c r="B218" s="86"/>
+      <c r="C218" s="86"/>
+      <c r="D218" s="86"/>
       <c r="E218" s="4">
         <v>1</v>
       </c>
-      <c r="F218" s="93">
+      <c r="F218" s="110">
         <f t="array" ref="F218">E218*$F$219/$E$219</f>
         <v>2.3255813953488373</v>
       </c>
-      <c r="G218" s="94"/>
+      <c r="G218" s="111"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="146" t="s">
+      <c r="A219" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B219" s="146"/>
-      <c r="C219" s="146"/>
-      <c r="D219" s="146"/>
+      <c r="B219" s="112"/>
+      <c r="C219" s="112"/>
+      <c r="D219" s="112"/>
       <c r="E219" s="4">
         <f t="array" ref="E219">E213+SUM(E216:E218)</f>
         <v>43</v>
       </c>
-      <c r="F219" s="93">
+      <c r="F219" s="110">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="G219" s="94"/>
+      <c r="G219" s="111"/>
       <c r="I219" s="2" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="72" t="s">
+      <c r="A222" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="72"/>
-      <c r="C222" s="72"/>
-      <c r="D222" s="72"/>
-      <c r="E222" s="72"/>
-      <c r="F222" s="72"/>
-      <c r="G222" s="72"/>
-      <c r="H222" s="72"/>
-      <c r="I222" s="72"/>
+      <c r="B222" s="91"/>
+      <c r="C222" s="91"/>
+      <c r="D222" s="91"/>
+      <c r="E222" s="91"/>
+      <c r="F222" s="91"/>
+      <c r="G222" s="91"/>
+      <c r="H222" s="91"/>
+      <c r="I222" s="91"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="102" t="s">
+      <c r="A224" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="B224" s="102"/>
-      <c r="C224" s="102"/>
-      <c r="D224" s="102"/>
+      <c r="B224" s="94"/>
+      <c r="C224" s="94"/>
+      <c r="D224" s="94"/>
       <c r="E224" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F224" s="102" t="s">
+      <c r="F224" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="G224" s="102"/>
-      <c r="H224" s="102" t="s">
+      <c r="G224" s="94"/>
+      <c r="H224" s="94" t="s">
         <v>181</v>
       </c>
-      <c r="I224" s="102"/>
+      <c r="I224" s="94"/>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="103" t="s">
+      <c r="A225" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="B225" s="103"/>
-      <c r="C225" s="103"/>
-      <c r="D225" s="103"/>
+      <c r="B225" s="87"/>
+      <c r="C225" s="87"/>
+      <c r="D225" s="87"/>
       <c r="E225" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F225" s="106">
+      <c r="F225" s="89">
         <f>H225*$M$2</f>
         <v>11456.1789804</v>
       </c>
-      <c r="G225" s="107"/>
-      <c r="H225" s="77">
+      <c r="G225" s="90"/>
+      <c r="H225" s="92">
         <f>I266</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="I225" s="78"/>
+      <c r="I225" s="93"/>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="103" t="s">
+      <c r="A226" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="B226" s="103"/>
-      <c r="C226" s="103"/>
-      <c r="D226" s="103"/>
+      <c r="B226" s="87"/>
+      <c r="C226" s="87"/>
+      <c r="D226" s="87"/>
       <c r="E226" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F226" s="106">
+      <c r="F226" s="89">
         <f t="array" ref="F226">H226*$M$2</f>
         <v>425437.42500000005</v>
       </c>
-      <c r="G226" s="107"/>
-      <c r="H226" s="77">
+      <c r="G226" s="90"/>
+      <c r="H226" s="92">
         <f>H292</f>
         <v>32.865000000000002</v>
       </c>
-      <c r="I226" s="78"/>
+      <c r="I226" s="93"/>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="103" t="s">
+      <c r="A227" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="B227" s="103"/>
-      <c r="C227" s="103"/>
-      <c r="D227" s="103"/>
+      <c r="B227" s="87"/>
+      <c r="C227" s="87"/>
+      <c r="D227" s="87"/>
       <c r="E227" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F227" s="106">
+      <c r="F227" s="89">
         <f t="array" ref="F227">H227*$M$2</f>
         <v>6247.3605599999992</v>
       </c>
-      <c r="G227" s="107"/>
-      <c r="H227" s="77">
+      <c r="G227" s="90"/>
+      <c r="H227" s="92">
         <f>H309</f>
         <v>0.48260799999999993</v>
       </c>
-      <c r="I227" s="78"/>
+      <c r="I227" s="93"/>
       <c r="M227" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="103" t="s">
+      <c r="A228" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="B228" s="103"/>
-      <c r="C228" s="103"/>
-      <c r="D228" s="103"/>
+      <c r="B228" s="87"/>
+      <c r="C228" s="87"/>
+      <c r="D228" s="87"/>
       <c r="E228" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F228" s="106">
+      <c r="F228" s="89">
         <f t="array" ref="F228">H228*$M$2</f>
         <v>1874.2081679999997</v>
       </c>
-      <c r="G228" s="107"/>
-      <c r="H228" s="77">
+      <c r="G228" s="90"/>
+      <c r="H228" s="92">
         <f t="array" ref="H228">D315</f>
         <v>0.14478239999999998</v>
       </c>
-      <c r="I228" s="78"/>
+      <c r="I228" s="93"/>
       <c r="N228" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="103" t="s">
+      <c r="A229" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="B229" s="103"/>
-      <c r="C229" s="103"/>
-      <c r="D229" s="103"/>
+      <c r="B229" s="87"/>
+      <c r="C229" s="87"/>
+      <c r="D229" s="87"/>
       <c r="E229" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F229" s="106">
+      <c r="F229" s="89">
         <f>H229*$M$2</f>
         <v>3037.97</v>
       </c>
-      <c r="G229" s="107"/>
-      <c r="H229" s="77">
+      <c r="G229" s="90"/>
+      <c r="H229" s="92">
         <f>D322</f>
         <v>0.23468288914638855</v>
       </c>
-      <c r="I229" s="78"/>
+      <c r="I229" s="93"/>
       <c r="N229" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="103" t="s">
+      <c r="A230" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="B230" s="103"/>
-      <c r="C230" s="103"/>
-      <c r="D230" s="103"/>
+      <c r="B230" s="87"/>
+      <c r="C230" s="87"/>
+      <c r="D230" s="87"/>
       <c r="E230" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F230" s="106">
+      <c r="F230" s="89">
         <f>H230*$M$2</f>
         <v>3905.8389999999995</v>
       </c>
-      <c r="G230" s="107"/>
-      <c r="H230" s="77">
+      <c r="G230" s="90"/>
+      <c r="H230" s="92">
         <f>J350</f>
         <v>0.30172568559289298</v>
       </c>
-      <c r="I230" s="78"/>
+      <c r="I230" s="93"/>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="103" t="s">
+      <c r="A231" s="87" t="s">
         <v>437</v>
       </c>
-      <c r="B231" s="103"/>
-      <c r="C231" s="103"/>
-      <c r="D231" s="103"/>
+      <c r="B231" s="87"/>
+      <c r="C231" s="87"/>
+      <c r="D231" s="87"/>
       <c r="E231" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F231" s="106">
+      <c r="F231" s="89">
         <f t="shared" ref="F231:F238" si="2">H231*$M$2</f>
         <v>614.88750000000005</v>
       </c>
-      <c r="G231" s="107"/>
-      <c r="H231" s="77">
+      <c r="G231" s="90"/>
+      <c r="H231" s="92">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="I231" s="78"/>
+      <c r="I231" s="93"/>
       <c r="N231" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="103" t="s">
+      <c r="A232" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="B232" s="103"/>
-      <c r="C232" s="103"/>
-      <c r="D232" s="103"/>
+      <c r="B232" s="87"/>
+      <c r="C232" s="87"/>
+      <c r="D232" s="87"/>
       <c r="E232" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F232" s="106">
+      <c r="F232" s="89">
         <f>6.97</f>
         <v>6.97</v>
       </c>
-      <c r="G232" s="107"/>
-      <c r="H232" s="77">
+      <c r="G232" s="90"/>
+      <c r="H232" s="92">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I232" s="78"/>
+      <c r="I232" s="93"/>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="103" t="s">
+      <c r="A233" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="B233" s="103"/>
-      <c r="C233" s="103"/>
-      <c r="D233" s="103"/>
+      <c r="B233" s="87"/>
+      <c r="C233" s="87"/>
+      <c r="D233" s="87"/>
       <c r="E233" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F233" s="106">
+      <c r="F233" s="89">
         <f t="shared" si="2"/>
         <v>624.73605599999985</v>
       </c>
-      <c r="G233" s="107"/>
-      <c r="H233" s="77">
+      <c r="G233" s="90"/>
+      <c r="H233" s="92">
         <f>C370</f>
         <v>4.8260799999999993E-2</v>
       </c>
-      <c r="I233" s="78"/>
+      <c r="I233" s="93"/>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="103" t="s">
+      <c r="A234" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="B234" s="103"/>
-      <c r="C234" s="103"/>
-      <c r="D234" s="103"/>
+      <c r="B234" s="87"/>
+      <c r="C234" s="87"/>
+      <c r="D234" s="87"/>
       <c r="E234" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F234" s="106">
+      <c r="F234" s="89">
         <f t="shared" si="2"/>
         <v>937.10408399999983</v>
       </c>
-      <c r="G234" s="107"/>
-      <c r="H234" s="77">
+      <c r="G234" s="90"/>
+      <c r="H234" s="92">
         <f>C375</f>
         <v>7.2391199999999989E-2</v>
       </c>
-      <c r="I234" s="78"/>
+      <c r="I234" s="93"/>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="103" t="s">
+      <c r="A235" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="B235" s="103"/>
-      <c r="C235" s="103"/>
-      <c r="D235" s="103"/>
+      <c r="B235" s="87"/>
+      <c r="C235" s="87"/>
+      <c r="D235" s="87"/>
       <c r="E235" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F235" s="106">
+      <c r="F235" s="89">
         <f t="shared" si="2"/>
         <v>1479.4768111418366</v>
       </c>
-      <c r="G235" s="107"/>
-      <c r="H235" s="77">
+      <c r="G235" s="90"/>
+      <c r="H235" s="92">
         <f>C380</f>
         <v>0.11428944079890588</v>
       </c>
-      <c r="I235" s="78"/>
+      <c r="I235" s="93"/>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="103" t="s">
+      <c r="A236" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="B236" s="103"/>
-      <c r="C236" s="103"/>
-      <c r="D236" s="103"/>
+      <c r="B236" s="87"/>
+      <c r="C236" s="87"/>
+      <c r="D236" s="87"/>
       <c r="E236" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F236" s="106">
+      <c r="F236" s="89">
         <f t="shared" si="2"/>
         <v>4997.8884479999988</v>
       </c>
-      <c r="G236" s="107"/>
-      <c r="H236" s="77">
+      <c r="G236" s="90"/>
+      <c r="H236" s="92">
         <f>C384</f>
         <v>0.38608639999999994</v>
       </c>
-      <c r="I236" s="78"/>
+      <c r="I236" s="93"/>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="103" t="s">
+      <c r="A237" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="B237" s="103"/>
-      <c r="C237" s="103"/>
-      <c r="D237" s="103"/>
+      <c r="B237" s="87"/>
+      <c r="C237" s="87"/>
+      <c r="D237" s="87"/>
       <c r="E237" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F237" s="106">
+      <c r="F237" s="89">
         <f t="shared" si="2"/>
         <v>3748.4163359999993</v>
       </c>
-      <c r="G237" s="107"/>
-      <c r="H237" s="77">
+      <c r="G237" s="90"/>
+      <c r="H237" s="92">
         <f>C389</f>
         <v>0.28956479999999996</v>
       </c>
-      <c r="I237" s="78"/>
+      <c r="I237" s="93"/>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="103" t="s">
+      <c r="A238" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="B238" s="103"/>
-      <c r="C238" s="103"/>
-      <c r="D238" s="103"/>
+      <c r="B238" s="87"/>
+      <c r="C238" s="87"/>
+      <c r="D238" s="87"/>
       <c r="E238" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F238" s="106">
+      <c r="F238" s="89">
         <f t="shared" si="2"/>
         <v>3250.5757441047931</v>
       </c>
-      <c r="G238" s="107"/>
-      <c r="H238" s="77">
+      <c r="G238" s="90"/>
+      <c r="H238" s="92">
         <f>C394</f>
         <v>0.25110666234876733</v>
       </c>
-      <c r="I238" s="78"/>
+      <c r="I238" s="93"/>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="129" t="s">
+      <c r="A239" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="B239" s="129"/>
-      <c r="C239" s="129"/>
-      <c r="D239" s="129"/>
+      <c r="B239" s="88"/>
+      <c r="C239" s="88"/>
+      <c r="D239" s="88"/>
       <c r="E239" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F239" s="106">
+      <c r="F239" s="89">
         <f>SUM(F225:F238)</f>
         <v>467619.03668764659</v>
       </c>
-      <c r="G239" s="107"/>
-      <c r="H239" s="77">
+      <c r="G239" s="90"/>
+      <c r="H239" s="92">
         <f t="array" ref="H239">SUM(H225:H238)</f>
         <v>36.123486997886957</v>
       </c>
-      <c r="I239" s="78"/>
+      <c r="I239" s="93"/>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="103" t="s">
+      <c r="A240" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="B240" s="103"/>
-      <c r="C240" s="103"/>
-      <c r="D240" s="103"/>
+      <c r="B240" s="87"/>
+      <c r="C240" s="87"/>
+      <c r="D240" s="87"/>
       <c r="E240" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F240" s="106">
+      <c r="F240" s="89">
         <f>C398*$M$2</f>
         <v>4676.1853918764664</v>
       </c>
-      <c r="G240" s="107"/>
-      <c r="H240" s="77">
+      <c r="G240" s="90"/>
+      <c r="H240" s="92">
         <f>C398</f>
         <v>0.36123486997886955</v>
       </c>
-      <c r="I240" s="78"/>
+      <c r="I240" s="93"/>
     </row>
     <row r="241" spans="1:12">
-      <c r="A241" s="129" t="s">
+      <c r="A241" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="B241" s="129"/>
-      <c r="C241" s="129"/>
-      <c r="D241" s="129"/>
+      <c r="B241" s="88"/>
+      <c r="C241" s="88"/>
+      <c r="D241" s="88"/>
       <c r="E241" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F241" s="106">
+      <c r="F241" s="89">
         <f>SUM(F239:F240)</f>
         <v>472295.22207952302</v>
       </c>
-      <c r="G241" s="107"/>
-      <c r="H241" s="77">
+      <c r="G241" s="90"/>
+      <c r="H241" s="92">
         <f>SUM(H239:H240)</f>
         <v>36.484721867865829</v>
       </c>
-      <c r="I241" s="78"/>
+      <c r="I241" s="93"/>
     </row>
     <row r="242" spans="1:12">
-      <c r="A242" s="103" t="s">
+      <c r="A242" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="B242" s="103"/>
-      <c r="C242" s="103"/>
-      <c r="D242" s="103"/>
+      <c r="B242" s="87"/>
+      <c r="C242" s="87"/>
+      <c r="D242" s="87"/>
       <c r="E242" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F242" s="106">
+      <c r="F242" s="89">
         <f>H242*M2</f>
         <v>238485.45498569982</v>
       </c>
-      <c r="G242" s="107"/>
-      <c r="H242" s="77">
+      <c r="G242" s="90"/>
+      <c r="H242" s="92">
         <f>C402</f>
         <v>18.422978368922351</v>
       </c>
-      <c r="I242" s="78"/>
+      <c r="I242" s="93"/>
     </row>
     <row r="243" spans="1:12">
-      <c r="A243" s="103" t="s">
+      <c r="A243" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="B243" s="103"/>
-      <c r="C243" s="103"/>
-      <c r="D243" s="103"/>
+      <c r="B243" s="87"/>
+      <c r="C243" s="87"/>
+      <c r="D243" s="87"/>
       <c r="E243" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F243" s="106">
+      <c r="F243" s="89">
         <f>SUM(F241:F242)</f>
         <v>710780.67706522287</v>
       </c>
-      <c r="G243" s="107"/>
-      <c r="H243" s="77">
+      <c r="G243" s="90"/>
+      <c r="H243" s="92">
         <f>SUM(H241:H242)</f>
         <v>54.90770023678818</v>
       </c>
-      <c r="I243" s="78"/>
+      <c r="I243" s="93"/>
     </row>
     <row r="244" spans="1:12">
-      <c r="A244" s="79" t="s">
+      <c r="A244" s="161" t="s">
         <v>442</v>
       </c>
-      <c r="B244" s="80"/>
-      <c r="C244" s="80"/>
-      <c r="D244" s="81"/>
+      <c r="B244" s="162"/>
+      <c r="C244" s="162"/>
+      <c r="D244" s="163"/>
       <c r="E244" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F244" s="106">
+      <c r="F244" s="89">
         <f>H244*M2</f>
         <v>18165.200849212426</v>
       </c>
-      <c r="G244" s="107"/>
-      <c r="H244" s="77">
+      <c r="G244" s="90"/>
+      <c r="H244" s="92">
         <f>C406</f>
         <v>1.4032600115266454</v>
       </c>
-      <c r="I244" s="78"/>
+      <c r="I244" s="93"/>
     </row>
     <row r="245" spans="1:12">
-      <c r="A245" s="82" t="s">
+      <c r="A245" s="166" t="s">
         <v>443</v>
       </c>
-      <c r="B245" s="83"/>
-      <c r="C245" s="83"/>
-      <c r="D245" s="84"/>
+      <c r="B245" s="132"/>
+      <c r="C245" s="132"/>
+      <c r="D245" s="167"/>
       <c r="E245" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F245" s="106">
+      <c r="F245" s="89">
         <f>H245*M2</f>
         <v>14971.868689924733</v>
       </c>
-      <c r="G245" s="107"/>
-      <c r="H245" s="77">
+      <c r="G245" s="90"/>
+      <c r="H245" s="92">
         <f>C410</f>
         <v>1.1565754105774224</v>
       </c>
-      <c r="I245" s="78"/>
+      <c r="I245" s="93"/>
     </row>
     <row r="246" spans="1:12" s="17" customFormat="1">
-      <c r="A246" s="83" t="s">
+      <c r="A246" s="132" t="s">
         <v>446</v>
       </c>
-      <c r="B246" s="83"/>
-      <c r="C246" s="83"/>
-      <c r="D246" s="83"/>
+      <c r="B246" s="132"/>
+      <c r="C246" s="132"/>
+      <c r="D246" s="132"/>
       <c r="E246" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F246" s="127">
+      <c r="F246" s="133">
         <f>C419</f>
         <v>710783.23690064508</v>
       </c>
-      <c r="G246" s="127"/>
-      <c r="H246" s="77">
+      <c r="G246" s="133"/>
+      <c r="H246" s="92">
         <f>F246/$M$2</f>
         <v>54.907936415654312</v>
       </c>
-      <c r="I246" s="78"/>
+      <c r="I246" s="93"/>
     </row>
     <row r="247" spans="1:12">
-      <c r="A247" s="103" t="s">
+      <c r="A247" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="B247" s="103"/>
-      <c r="C247" s="103"/>
-      <c r="D247" s="103"/>
+      <c r="B247" s="87"/>
+      <c r="C247" s="87"/>
+      <c r="D247" s="87"/>
       <c r="E247" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F247" s="106">
+      <c r="F247" s="89">
         <f>H247*$M$2</f>
         <v>143091.27299141989</v>
       </c>
-      <c r="G247" s="107"/>
-      <c r="H247" s="77">
+      <c r="G247" s="90"/>
+      <c r="H247" s="92">
         <f>C423</f>
         <v>11.05378702135341</v>
       </c>
-      <c r="I247" s="78"/>
+      <c r="I247" s="93"/>
     </row>
     <row r="248" spans="1:12">
-      <c r="A248" s="103" t="s">
+      <c r="A248" s="87" t="s">
         <v>448</v>
       </c>
-      <c r="B248" s="103"/>
-      <c r="C248" s="103"/>
-      <c r="D248" s="103"/>
+      <c r="B248" s="87"/>
+      <c r="C248" s="87"/>
+      <c r="D248" s="87"/>
       <c r="E248" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F248" s="106">
+      <c r="F248" s="89">
         <f>H248*$M$2</f>
         <v>886450.43618184619</v>
       </c>
-      <c r="G248" s="107"/>
-      <c r="H248" s="77">
+      <c r="G248" s="90"/>
+      <c r="H248" s="92">
         <f>C428</f>
         <v>68.478210597284374</v>
       </c>
-      <c r="I248" s="78"/>
+      <c r="I248" s="93"/>
     </row>
     <row r="251" spans="1:12">
-      <c r="B251" s="72" t="s">
+      <c r="B251" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="C251" s="72"/>
-      <c r="D251" s="72"/>
-      <c r="E251" s="72"/>
-      <c r="F251" s="72"/>
-      <c r="G251" s="72"/>
-      <c r="H251" s="72"/>
-      <c r="I251" s="72"/>
-      <c r="J251" s="72"/>
-      <c r="K251" s="72"/>
-      <c r="L251" s="72"/>
+      <c r="C251" s="91"/>
+      <c r="D251" s="91"/>
+      <c r="E251" s="91"/>
+      <c r="F251" s="91"/>
+      <c r="G251" s="91"/>
+      <c r="H251" s="91"/>
+      <c r="I251" s="91"/>
+      <c r="J251" s="91"/>
+      <c r="K251" s="91"/>
+      <c r="L251" s="91"/>
     </row>
     <row r="253" spans="1:12">
-      <c r="B253" s="72" t="s">
+      <c r="B253" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="C253" s="72"/>
-      <c r="D253" s="72"/>
-      <c r="E253" s="72"/>
+      <c r="C253" s="91"/>
+      <c r="D253" s="91"/>
+      <c r="E253" s="91"/>
     </row>
     <row r="255" spans="1:12" ht="46.5" customHeight="1">
-      <c r="A255" s="102" t="s">
+      <c r="A255" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="B255" s="102"/>
+      <c r="B255" s="94"/>
       <c r="C255" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D255" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E255" s="102" t="s">
+      <c r="E255" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="F255" s="102"/>
-      <c r="G255" s="102" t="s">
+      <c r="F255" s="94"/>
+      <c r="G255" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="H255" s="102"/>
-      <c r="I255" s="102" t="s">
+      <c r="H255" s="94"/>
+      <c r="I255" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="J255" s="102"/>
+      <c r="J255" s="94"/>
     </row>
     <row r="256" spans="1:12">
-      <c r="A256" s="112" t="str">
+      <c r="A256" s="86" t="str">
         <f t="shared" ref="A256:A261" si="3">L7</f>
         <v>Провод</v>
       </c>
-      <c r="B256" s="112"/>
+      <c r="B256" s="86"/>
       <c r="C256" s="4" t="str">
         <f>M7</f>
         <v>НВ-020-61</v>
@@ -6634,28 +6634,28 @@
       <c r="D256" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E256" s="75">
+      <c r="E256" s="84">
         <f t="shared" ref="E256:E261" si="4">N7</f>
         <v>0.5</v>
       </c>
-      <c r="F256" s="76"/>
-      <c r="G256" s="75">
+      <c r="F256" s="85"/>
+      <c r="G256" s="84">
         <f t="shared" ref="G256:G261" si="5">O7</f>
         <v>1.4550000000000001</v>
       </c>
-      <c r="H256" s="76"/>
-      <c r="I256" s="77">
+      <c r="H256" s="85"/>
+      <c r="I256" s="92">
         <f t="array" ref="I256">E256*G256</f>
         <v>0.72750000000000004</v>
       </c>
-      <c r="J256" s="78"/>
+      <c r="J256" s="93"/>
     </row>
     <row r="257" spans="1:12">
-      <c r="A257" s="112" t="str">
+      <c r="A257" s="86" t="str">
         <f t="shared" si="3"/>
         <v>Флюс</v>
       </c>
-      <c r="B257" s="112"/>
+      <c r="B257" s="86"/>
       <c r="C257" s="4" t="str">
         <f>M8</f>
         <v>ФКСН</v>
@@ -6663,28 +6663,28 @@
       <c r="D257" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E257" s="75">
+      <c r="E257" s="84">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F257" s="76"/>
-      <c r="G257" s="75">
+      <c r="F257" s="85"/>
+      <c r="G257" s="84">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="H257" s="76"/>
-      <c r="I257" s="77">
+      <c r="H257" s="85"/>
+      <c r="I257" s="92">
         <f t="array" ref="I257">E257*G257</f>
         <v>3.5E-4</v>
       </c>
-      <c r="J257" s="78"/>
+      <c r="J257" s="93"/>
     </row>
     <row r="258" spans="1:12">
-      <c r="A258" s="112" t="str">
+      <c r="A258" s="86" t="str">
         <f t="shared" si="3"/>
         <v>олово</v>
       </c>
-      <c r="B258" s="112"/>
+      <c r="B258" s="86"/>
       <c r="C258" s="4" t="str">
         <f>M9</f>
         <v>-</v>
@@ -6692,28 +6692,28 @@
       <c r="D258" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E258" s="75">
+      <c r="E258" s="84">
         <f t="shared" si="4"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F258" s="76"/>
-      <c r="G258" s="75">
+      <c r="F258" s="85"/>
+      <c r="G258" s="84">
         <f t="shared" si="5"/>
         <v>4.45</v>
       </c>
-      <c r="H258" s="76"/>
-      <c r="I258" s="77">
+      <c r="H258" s="85"/>
+      <c r="I258" s="92">
         <f t="array" ref="I258">E258*G258</f>
         <v>1.3350000000000001E-2</v>
       </c>
-      <c r="J258" s="78"/>
+      <c r="J258" s="93"/>
     </row>
     <row r="259" spans="1:12">
-      <c r="A259" s="112" t="str">
+      <c r="A259" s="86" t="str">
         <f t="shared" si="3"/>
         <v>припой</v>
       </c>
-      <c r="B259" s="112"/>
+      <c r="B259" s="86"/>
       <c r="C259" s="4" t="str">
         <f>M10</f>
         <v>ПОС-61</v>
@@ -6721,28 +6721,28 @@
       <c r="D259" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E259" s="75">
+      <c r="E259" s="84">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="F259" s="76"/>
-      <c r="G259" s="75">
+      <c r="F259" s="85"/>
+      <c r="G259" s="84">
         <f t="shared" si="5"/>
         <v>1.3620000000000001</v>
       </c>
-      <c r="H259" s="76"/>
-      <c r="I259" s="77">
+      <c r="H259" s="85"/>
+      <c r="I259" s="92">
         <f t="array" ref="I259">E259*G259</f>
         <v>0.10896000000000002</v>
       </c>
-      <c r="J259" s="78"/>
+      <c r="J259" s="93"/>
     </row>
     <row r="260" spans="1:12">
-      <c r="A260" s="112" t="str">
+      <c r="A260" s="86" t="str">
         <f t="shared" si="3"/>
         <v>Спирт этиловый</v>
       </c>
-      <c r="B260" s="112"/>
+      <c r="B260" s="86"/>
       <c r="C260" s="4" t="str">
         <f>M11</f>
         <v>ГОСТ 18300-72</v>
@@ -6750,178 +6750,178 @@
       <c r="D260" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E260" s="75">
+      <c r="E260" s="84">
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="F260" s="76"/>
-      <c r="G260" s="75">
+      <c r="F260" s="85"/>
+      <c r="G260" s="84">
         <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
-      <c r="H260" s="76"/>
-      <c r="I260" s="77">
+      <c r="H260" s="85"/>
+      <c r="I260" s="92">
         <f t="array" ref="I260">E260*G260</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J260" s="78"/>
+      <c r="J260" s="93"/>
     </row>
     <row r="261" spans="1:12">
-      <c r="A261" s="112">
+      <c r="A261" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B261" s="112"/>
+      <c r="B261" s="86"/>
       <c r="C261" s="4" t="s">
         <v>374</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E261" s="75">
+      <c r="E261" s="84">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F261" s="76"/>
-      <c r="G261" s="75">
+      <c r="F261" s="85"/>
+      <c r="G261" s="84">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H261" s="76"/>
-      <c r="I261" s="77">
+      <c r="H261" s="85"/>
+      <c r="I261" s="92">
         <f t="array" ref="I261">E261*G261</f>
         <v>0</v>
       </c>
-      <c r="J261" s="78"/>
+      <c r="J261" s="93"/>
     </row>
     <row r="262" spans="1:12">
-      <c r="A262" s="128" t="s">
+      <c r="A262" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B262" s="128"/>
+      <c r="B262" s="105"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
       <c r="E262" s="35"/>
       <c r="F262" s="36"/>
       <c r="G262" s="35"/>
       <c r="H262" s="36"/>
-      <c r="I262" s="85">
+      <c r="I262" s="138">
         <f>SUM(I256:I261)</f>
         <v>0.85136000000000001</v>
       </c>
-      <c r="J262" s="86"/>
+      <c r="J262" s="139"/>
     </row>
     <row r="263" spans="1:12">
-      <c r="A263" s="103" t="s">
+      <c r="A263" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="B263" s="103"/>
+      <c r="B263" s="87"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="37"/>
       <c r="F263" s="38"/>
       <c r="G263" s="37"/>
       <c r="H263" s="38"/>
-      <c r="I263" s="77">
+      <c r="I263" s="92">
         <f>0.05*I262</f>
         <v>4.2568000000000002E-2</v>
       </c>
-      <c r="J263" s="78"/>
+      <c r="J263" s="93"/>
     </row>
     <row r="264" spans="1:12">
-      <c r="A264" s="128" t="s">
+      <c r="A264" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="B264" s="128"/>
+      <c r="B264" s="105"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
       <c r="E264" s="35"/>
       <c r="F264" s="36"/>
       <c r="G264" s="35"/>
       <c r="H264" s="36"/>
-      <c r="I264" s="85">
+      <c r="I264" s="138">
         <f>SUM(I262:I263)</f>
         <v>0.89392800000000006</v>
       </c>
-      <c r="J264" s="86"/>
+      <c r="J264" s="139"/>
     </row>
     <row r="265" spans="1:12">
-      <c r="A265" s="103" t="s">
+      <c r="A265" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="B265" s="103"/>
+      <c r="B265" s="87"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="37"/>
       <c r="F265" s="38"/>
       <c r="G265" s="37"/>
       <c r="H265" s="38"/>
-      <c r="I265" s="77">
+      <c r="I265" s="92">
         <f>0.01*I264</f>
         <v>8.9392800000000008E-3</v>
       </c>
-      <c r="J265" s="78"/>
+      <c r="J265" s="93"/>
     </row>
     <row r="266" spans="1:12">
-      <c r="A266" s="129" t="s">
+      <c r="A266" s="88" t="s">
         <v>397</v>
       </c>
-      <c r="B266" s="129"/>
+      <c r="B266" s="88"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
       <c r="E266" s="35"/>
       <c r="F266" s="36"/>
       <c r="G266" s="35"/>
       <c r="H266" s="36"/>
-      <c r="I266" s="85">
+      <c r="I266" s="138">
         <f t="array" ref="I266">I264-I265</f>
         <v>0.88498872000000006</v>
       </c>
-      <c r="J266" s="86"/>
+      <c r="J266" s="139"/>
     </row>
     <row r="269" spans="1:12">
-      <c r="B269" s="72" t="s">
+      <c r="B269" s="91" t="s">
         <v>433</v>
       </c>
-      <c r="C269" s="72"/>
-      <c r="D269" s="72"/>
-      <c r="E269" s="72"/>
-      <c r="F269" s="72"/>
-      <c r="G269" s="72"/>
-      <c r="H269" s="72"/>
-      <c r="I269" s="72"/>
-      <c r="J269" s="72"/>
-      <c r="K269" s="72"/>
-      <c r="L269" s="72"/>
+      <c r="C269" s="91"/>
+      <c r="D269" s="91"/>
+      <c r="E269" s="91"/>
+      <c r="F269" s="91"/>
+      <c r="G269" s="91"/>
+      <c r="H269" s="91"/>
+      <c r="I269" s="91"/>
+      <c r="J269" s="91"/>
+      <c r="K269" s="91"/>
+      <c r="L269" s="91"/>
     </row>
     <row r="271" spans="1:12" ht="45" customHeight="1">
-      <c r="A271" s="102" t="s">
+      <c r="A271" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="B271" s="102"/>
-      <c r="C271" s="102"/>
+      <c r="B271" s="94"/>
+      <c r="C271" s="94"/>
       <c r="D271" s="14" t="s">
         <v>221</v>
       </c>
       <c r="E271" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F271" s="102" t="s">
+      <c r="F271" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="G271" s="102"/>
+      <c r="G271" s="94"/>
       <c r="H271" s="14" t="s">
         <v>234</v>
       </c>
       <c r="I271" s="39"/>
     </row>
     <row r="272" spans="1:12">
-      <c r="A272" s="112" t="str">
+      <c r="A272" s="86" t="str">
         <f>R7</f>
         <v>Трансформатор</v>
       </c>
-      <c r="B272" s="112"/>
-      <c r="C272" s="112"/>
+      <c r="B272" s="86"/>
+      <c r="C272" s="86"/>
       <c r="D272" s="4" t="s">
         <v>235</v>
       </c>
@@ -6940,12 +6940,12 @@
       </c>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="112" t="str">
+      <c r="A273" s="86" t="str">
         <f t="shared" ref="A273:A281" si="6">R8</f>
         <v>Реле</v>
       </c>
-      <c r="B273" s="112"/>
-      <c r="C273" s="112"/>
+      <c r="B273" s="86"/>
+      <c r="C273" s="86"/>
       <c r="D273" s="4" t="s">
         <v>235</v>
       </c>
@@ -6964,12 +6964,12 @@
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="112" t="str">
+      <c r="A274" s="86" t="str">
         <f t="shared" si="6"/>
         <v>Вилка</v>
       </c>
-      <c r="B274" s="112"/>
-      <c r="C274" s="112"/>
+      <c r="B274" s="86"/>
+      <c r="C274" s="86"/>
       <c r="D274" s="4" t="s">
         <v>235</v>
       </c>
@@ -6988,12 +6988,12 @@
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="112" t="str">
+      <c r="A275" s="86" t="str">
         <f t="shared" si="6"/>
         <v>Транзистор</v>
       </c>
-      <c r="B275" s="112"/>
-      <c r="C275" s="112"/>
+      <c r="B275" s="86"/>
+      <c r="C275" s="86"/>
       <c r="D275" s="4" t="s">
         <v>235</v>
       </c>
@@ -7012,12 +7012,12 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="112" t="str">
+      <c r="A276" s="86" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B276" s="112"/>
-      <c r="C276" s="112"/>
+      <c r="B276" s="86"/>
+      <c r="C276" s="86"/>
       <c r="D276" s="4" t="s">
         <v>235</v>
       </c>
@@ -7036,12 +7036,12 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="112" t="str">
+      <c r="A277" s="86" t="str">
         <f t="shared" si="6"/>
         <v>Печатная плата</v>
       </c>
-      <c r="B277" s="112"/>
-      <c r="C277" s="112"/>
+      <c r="B277" s="86"/>
+      <c r="C277" s="86"/>
       <c r="D277" s="4" t="s">
         <v>235</v>
       </c>
@@ -7060,12 +7060,12 @@
       </c>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="112" t="str">
+      <c r="A278" s="86" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B278" s="112"/>
-      <c r="C278" s="112"/>
+      <c r="B278" s="86"/>
+      <c r="C278" s="86"/>
       <c r="D278" s="4" t="s">
         <v>235</v>
       </c>
@@ -7084,12 +7084,12 @@
       </c>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="112" t="str">
+      <c r="A279" s="86" t="str">
         <f t="shared" si="6"/>
         <v>Конденсатор</v>
       </c>
-      <c r="B279" s="112"/>
-      <c r="C279" s="112"/>
+      <c r="B279" s="86"/>
+      <c r="C279" s="86"/>
       <c r="D279" s="4" t="s">
         <v>235</v>
       </c>
@@ -7108,12 +7108,12 @@
       </c>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="112" t="str">
+      <c r="A280" s="86" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B280" s="112"/>
-      <c r="C280" s="112"/>
+      <c r="B280" s="86"/>
+      <c r="C280" s="86"/>
       <c r="D280" s="4" t="s">
         <v>235</v>
       </c>
@@ -7132,12 +7132,12 @@
       </c>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="112" t="str">
+      <c r="A281" s="86" t="str">
         <f t="shared" si="6"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B281" s="112"/>
-      <c r="C281" s="112"/>
+      <c r="B281" s="86"/>
+      <c r="C281" s="86"/>
       <c r="D281" s="4" t="s">
         <v>235</v>
       </c>
@@ -7156,12 +7156,12 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="112" t="str">
+      <c r="A282" s="86" t="str">
         <f t="shared" ref="A282:A289" si="9">R17</f>
         <v>Радиолампа</v>
       </c>
-      <c r="B282" s="112"/>
-      <c r="C282" s="112"/>
+      <c r="B282" s="86"/>
+      <c r="C282" s="86"/>
       <c r="D282" s="4" t="s">
         <v>235</v>
       </c>
@@ -7180,12 +7180,12 @@
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="112" t="str">
+      <c r="A283" s="86" t="str">
         <f t="shared" si="9"/>
         <v>Радиолампа</v>
       </c>
-      <c r="B283" s="112"/>
-      <c r="C283" s="112"/>
+      <c r="B283" s="86"/>
+      <c r="C283" s="86"/>
       <c r="D283" s="4" t="s">
         <v>235</v>
       </c>
@@ -7204,12 +7204,12 @@
       </c>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="112" t="str">
+      <c r="A284" s="86" t="str">
         <f t="shared" si="9"/>
         <v>Дриод</v>
       </c>
-      <c r="B284" s="112"/>
-      <c r="C284" s="112"/>
+      <c r="B284" s="86"/>
+      <c r="C284" s="86"/>
       <c r="D284" s="4" t="s">
         <v>235</v>
       </c>
@@ -7228,12 +7228,12 @@
       </c>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="112" t="str">
+      <c r="A285" s="86" t="str">
         <f t="shared" si="9"/>
         <v>Дроссель</v>
       </c>
-      <c r="B285" s="112"/>
-      <c r="C285" s="112"/>
+      <c r="B285" s="86"/>
+      <c r="C285" s="86"/>
       <c r="D285" s="4" t="s">
         <v>235</v>
       </c>
@@ -7252,12 +7252,12 @@
       </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" s="112" t="str">
+      <c r="A286" s="86" t="str">
         <f t="shared" si="9"/>
         <v>Фильтр</v>
       </c>
-      <c r="B286" s="112"/>
-      <c r="C286" s="112"/>
+      <c r="B286" s="86"/>
+      <c r="C286" s="86"/>
       <c r="D286" s="4" t="s">
         <v>235</v>
       </c>
@@ -7276,12 +7276,12 @@
       </c>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287" s="112" t="str">
+      <c r="A287" s="86" t="str">
         <f t="shared" si="9"/>
         <v>Панель ламповая</v>
       </c>
-      <c r="B287" s="112"/>
-      <c r="C287" s="112"/>
+      <c r="B287" s="86"/>
+      <c r="C287" s="86"/>
       <c r="D287" s="4" t="s">
         <v>235</v>
       </c>
@@ -7300,12 +7300,12 @@
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="112" t="str">
+      <c r="A288" s="86" t="str">
         <f t="shared" si="9"/>
         <v>заклепка гетинаксовая</v>
       </c>
-      <c r="B288" s="112"/>
-      <c r="C288" s="112"/>
+      <c r="B288" s="86"/>
+      <c r="C288" s="86"/>
       <c r="D288" s="4" t="s">
         <v>235</v>
       </c>
@@ -7324,12 +7324,12 @@
       </c>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="112" t="str">
+      <c r="A289" s="86" t="str">
         <f t="shared" si="9"/>
         <v>Плата</v>
       </c>
-      <c r="B289" s="112"/>
-      <c r="C289" s="112"/>
+      <c r="B289" s="86"/>
+      <c r="C289" s="86"/>
       <c r="D289" s="4" t="s">
         <v>235</v>
       </c>
@@ -7348,11 +7348,11 @@
       </c>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="128" t="s">
+      <c r="A290" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B290" s="128"/>
-      <c r="C290" s="128"/>
+      <c r="B290" s="105"/>
+      <c r="C290" s="105"/>
       <c r="D290" s="20"/>
       <c r="E290" s="20"/>
       <c r="F290" s="35"/>
@@ -7363,11 +7363,11 @@
       </c>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="103" t="s">
+      <c r="A291" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="B291" s="103"/>
-      <c r="C291" s="103"/>
+      <c r="B291" s="87"/>
+      <c r="C291" s="87"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="37"/>
@@ -7378,11 +7378,11 @@
       </c>
     </row>
     <row r="292" spans="1:10">
-      <c r="A292" s="128" t="s">
+      <c r="A292" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="B292" s="128"/>
-      <c r="C292" s="128"/>
+      <c r="B292" s="105"/>
+      <c r="C292" s="105"/>
       <c r="D292" s="20"/>
       <c r="E292" s="20"/>
       <c r="F292" s="35"/>
@@ -7394,45 +7394,45 @@
       <c r="I292" s="40"/>
     </row>
     <row r="295" spans="1:10">
-      <c r="B295" s="72" t="s">
+      <c r="B295" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="C295" s="72"/>
-      <c r="D295" s="72"/>
-      <c r="E295" s="72"/>
-      <c r="F295" s="72"/>
-      <c r="G295" s="72"/>
-      <c r="H295" s="72"/>
-      <c r="I295" s="72"/>
-      <c r="J295" s="72"/>
+      <c r="C295" s="91"/>
+      <c r="D295" s="91"/>
+      <c r="E295" s="91"/>
+      <c r="F295" s="91"/>
+      <c r="G295" s="91"/>
+      <c r="H295" s="91"/>
+      <c r="I295" s="91"/>
+      <c r="J295" s="91"/>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="102" t="s">
+      <c r="A297" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="B297" s="102"/>
-      <c r="C297" s="102"/>
+      <c r="B297" s="94"/>
+      <c r="C297" s="94"/>
       <c r="D297" s="14" t="s">
         <v>239</v>
       </c>
       <c r="E297" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F297" s="102" t="s">
+      <c r="F297" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="G297" s="102"/>
-      <c r="H297" s="102" t="s">
+      <c r="G297" s="94"/>
+      <c r="H297" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="I297" s="102"/>
+      <c r="I297" s="94"/>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="91">
+      <c r="A298" s="128">
         <v>1</v>
       </c>
-      <c r="B298" s="91"/>
-      <c r="C298" s="91"/>
+      <c r="B298" s="128"/>
+      <c r="C298" s="128"/>
       <c r="D298" s="4">
         <v>3</v>
       </c>
@@ -7440,26 +7440,26 @@
         <f>B25</f>
         <v>1.55</v>
       </c>
-      <c r="F298" s="73">
+      <c r="F298" s="143">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G298" s="74"/>
-      <c r="H298" s="77">
+      <c r="G298" s="144"/>
+      <c r="H298" s="92">
         <f t="shared" ref="H298:H305" si="10">E298*F298/60</f>
         <v>2.1544999999999998E-2</v>
       </c>
-      <c r="I298" s="78"/>
+      <c r="I298" s="93"/>
       <c r="J298" s="2">
         <f>H298*12945</f>
         <v>278.90002499999997</v>
       </c>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="91">
+      <c r="A299" s="128">
         <v>2</v>
       </c>
-      <c r="B299" s="91"/>
-      <c r="C299" s="91"/>
+      <c r="B299" s="128"/>
+      <c r="C299" s="128"/>
       <c r="D299" s="4">
         <v>3</v>
       </c>
@@ -7467,26 +7467,26 @@
         <f t="shared" ref="E299:E306" si="11">B26</f>
         <v>6.23</v>
       </c>
-      <c r="F299" s="73">
+      <c r="F299" s="143">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G299" s="74"/>
-      <c r="H299" s="77">
+      <c r="G299" s="144"/>
+      <c r="H299" s="92">
         <f t="shared" si="10"/>
         <v>8.6597000000000007E-2</v>
       </c>
-      <c r="I299" s="78"/>
+      <c r="I299" s="93"/>
       <c r="J299" s="2">
         <f t="shared" ref="J299:J305" si="12">H299*12945</f>
         <v>1120.9981650000002</v>
       </c>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="91">
+      <c r="A300" s="128">
         <v>3</v>
       </c>
-      <c r="B300" s="91"/>
-      <c r="C300" s="91"/>
+      <c r="B300" s="128"/>
+      <c r="C300" s="128"/>
       <c r="D300" s="4">
         <v>3</v>
       </c>
@@ -7498,22 +7498,22 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="G300" s="68"/>
-      <c r="H300" s="77">
+      <c r="H300" s="92">
         <f t="shared" si="10"/>
         <v>2.1127999999999997E-2</v>
       </c>
-      <c r="I300" s="78"/>
+      <c r="I300" s="93"/>
       <c r="J300" s="2">
         <f t="shared" si="12"/>
         <v>273.50195999999994</v>
       </c>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="91">
+      <c r="A301" s="128">
         <v>4</v>
       </c>
-      <c r="B301" s="91"/>
-      <c r="C301" s="91"/>
+      <c r="B301" s="128"/>
+      <c r="C301" s="128"/>
       <c r="D301" s="4">
         <v>3</v>
       </c>
@@ -7525,22 +7525,22 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="G301" s="68"/>
-      <c r="H301" s="77">
+      <c r="H301" s="92">
         <f t="shared" si="10"/>
         <v>6.4635000000000012E-2</v>
       </c>
-      <c r="I301" s="78"/>
+      <c r="I301" s="93"/>
       <c r="J301" s="2">
         <f t="shared" si="12"/>
         <v>836.7000750000002</v>
       </c>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="91">
+      <c r="A302" s="128">
         <v>5</v>
       </c>
-      <c r="B302" s="91"/>
-      <c r="C302" s="91"/>
+      <c r="B302" s="128"/>
+      <c r="C302" s="128"/>
       <c r="D302" s="4">
         <v>3</v>
       </c>
@@ -7552,22 +7552,22 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="G302" s="68"/>
-      <c r="H302" s="77">
+      <c r="H302" s="92">
         <f t="shared" si="10"/>
         <v>4.1699999999999994E-2</v>
       </c>
-      <c r="I302" s="78"/>
+      <c r="I302" s="93"/>
       <c r="J302" s="2">
         <f t="shared" si="12"/>
         <v>539.80649999999991</v>
       </c>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="91">
+      <c r="A303" s="128">
         <v>6</v>
       </c>
-      <c r="B303" s="91"/>
-      <c r="C303" s="91"/>
+      <c r="B303" s="128"/>
+      <c r="C303" s="128"/>
       <c r="D303" s="4">
         <v>3</v>
       </c>
@@ -7579,22 +7579,22 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="G303" s="68"/>
-      <c r="H303" s="77">
+      <c r="H303" s="92">
         <f t="shared" si="10"/>
         <v>2.1127999999999997E-2</v>
       </c>
-      <c r="I303" s="78"/>
+      <c r="I303" s="93"/>
       <c r="J303" s="2">
         <f t="shared" si="12"/>
         <v>273.50195999999994</v>
       </c>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="91">
+      <c r="A304" s="128">
         <v>7</v>
       </c>
-      <c r="B304" s="91"/>
-      <c r="C304" s="91"/>
+      <c r="B304" s="128"/>
+      <c r="C304" s="128"/>
       <c r="D304" s="4">
         <v>3</v>
       </c>
@@ -7606,22 +7606,22 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="G304" s="68"/>
-      <c r="H304" s="77">
+      <c r="H304" s="92">
         <f t="shared" si="10"/>
         <v>6.5051999999999985E-2</v>
       </c>
-      <c r="I304" s="78"/>
+      <c r="I304" s="93"/>
       <c r="J304" s="2">
         <f t="shared" si="12"/>
         <v>842.09813999999983</v>
       </c>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="91">
+      <c r="A305" s="128">
         <v>8</v>
       </c>
-      <c r="B305" s="91"/>
-      <c r="C305" s="91"/>
+      <c r="B305" s="128"/>
+      <c r="C305" s="128"/>
       <c r="D305" s="4">
         <v>3</v>
       </c>
@@ -7629,26 +7629,26 @@
         <f t="shared" si="11"/>
         <v>1.65</v>
       </c>
-      <c r="F305" s="73">
+      <c r="F305" s="143">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G305" s="74"/>
-      <c r="H305" s="77">
+      <c r="G305" s="144"/>
+      <c r="H305" s="92">
         <f t="shared" si="10"/>
         <v>2.2934999999999997E-2</v>
       </c>
-      <c r="I305" s="78"/>
+      <c r="I305" s="93"/>
       <c r="J305" s="2">
         <f t="shared" si="12"/>
         <v>296.89357499999994</v>
       </c>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="120">
+      <c r="A306" s="101">
         <v>9</v>
       </c>
-      <c r="B306" s="121"/>
-      <c r="C306" s="122"/>
+      <c r="B306" s="137"/>
+      <c r="C306" s="102"/>
       <c r="D306" s="4">
         <v>3</v>
       </c>
@@ -7656,88 +7656,88 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F306" s="75">
+      <c r="F306" s="84">
         <v>0</v>
       </c>
-      <c r="G306" s="76"/>
-      <c r="H306" s="77">
+      <c r="G306" s="85"/>
+      <c r="H306" s="92">
         <f t="array" ref="H306">E306*F306/60</f>
         <v>0</v>
       </c>
-      <c r="I306" s="78"/>
+      <c r="I306" s="93"/>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="123" t="s">
+      <c r="A307" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="B307" s="123"/>
-      <c r="C307" s="123"/>
+      <c r="B307" s="136"/>
+      <c r="C307" s="136"/>
       <c r="D307" s="20"/>
       <c r="E307" s="20"/>
       <c r="F307" s="35"/>
       <c r="G307" s="36"/>
-      <c r="H307" s="85">
+      <c r="H307" s="138">
         <f>SUM(H298:H306)</f>
         <v>0.34471999999999997</v>
       </c>
-      <c r="I307" s="86"/>
+      <c r="I307" s="139"/>
       <c r="J307" s="2">
         <f>H307*12945</f>
         <v>4462.4003999999995</v>
       </c>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="103" t="s">
+      <c r="A308" s="87" t="s">
         <v>434</v>
       </c>
-      <c r="B308" s="103"/>
-      <c r="C308" s="103"/>
+      <c r="B308" s="87"/>
+      <c r="C308" s="87"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="37"/>
       <c r="G308" s="38"/>
-      <c r="H308" s="77">
+      <c r="H308" s="92">
         <f>0.4*H307</f>
         <v>0.13788799999999998</v>
       </c>
-      <c r="I308" s="78"/>
+      <c r="I308" s="93"/>
       <c r="J308" s="2">
         <f>H308*12945</f>
         <v>1784.9601599999999</v>
       </c>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="123" t="s">
+      <c r="A309" s="136" t="s">
         <v>244</v>
       </c>
-      <c r="B309" s="123"/>
-      <c r="C309" s="123"/>
+      <c r="B309" s="136"/>
+      <c r="C309" s="136"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="37"/>
       <c r="G309" s="38"/>
-      <c r="H309" s="85">
+      <c r="H309" s="138">
         <f t="array" ref="H309">SUM(H307:H308)</f>
         <v>0.48260799999999993</v>
       </c>
-      <c r="I309" s="86"/>
+      <c r="I309" s="139"/>
       <c r="J309" s="2">
         <f>H309*12945</f>
         <v>6247.3605599999992</v>
       </c>
     </row>
     <row r="313" spans="1:10">
-      <c r="B313" s="72" t="s">
+      <c r="B313" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="C313" s="72"/>
-      <c r="D313" s="72"/>
-      <c r="E313" s="72"/>
-      <c r="F313" s="72"/>
-      <c r="G313" s="72"/>
-      <c r="H313" s="72"/>
-      <c r="I313" s="72"/>
-      <c r="J313" s="72"/>
+      <c r="C313" s="91"/>
+      <c r="D313" s="91"/>
+      <c r="E313" s="91"/>
+      <c r="F313" s="91"/>
+      <c r="G313" s="91"/>
+      <c r="H313" s="91"/>
+      <c r="I313" s="91"/>
+      <c r="J313" s="91"/>
     </row>
     <row r="315" spans="1:10">
       <c r="C315" s="2" t="s">
@@ -7759,17 +7759,17 @@
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="B318" s="72" t="s">
+      <c r="B318" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="C318" s="72"/>
-      <c r="D318" s="72"/>
-      <c r="E318" s="72"/>
-      <c r="F318" s="72"/>
-      <c r="G318" s="72"/>
-      <c r="H318" s="72"/>
-      <c r="I318" s="72"/>
-      <c r="J318" s="72"/>
+      <c r="C318" s="91"/>
+      <c r="D318" s="91"/>
+      <c r="E318" s="91"/>
+      <c r="F318" s="91"/>
+      <c r="G318" s="91"/>
+      <c r="H318" s="91"/>
+      <c r="I318" s="91"/>
+      <c r="J318" s="91"/>
     </row>
     <row r="320" spans="1:10">
       <c r="B320" s="2" t="s">
@@ -7803,7 +7803,7 @@
         <f>E322/J309</f>
         <v>0.48628056133837105</v>
       </c>
-      <c r="I322" s="166"/>
+      <c r="I322" s="79"/>
       <c r="K322" s="4" t="s">
         <v>364</v>
       </c>
@@ -7820,22 +7820,22 @@
       <c r="P322" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="R322" s="157" t="s">
+      <c r="R322" s="82" t="s">
         <v>493</v>
       </c>
-      <c r="S322" s="157" t="s">
+      <c r="S322" s="82" t="s">
         <v>494</v>
       </c>
-      <c r="T322" s="157" t="s">
+      <c r="T322" s="82" t="s">
         <v>495</v>
       </c>
-      <c r="U322" s="157" t="s">
+      <c r="U322" s="82" t="s">
         <v>496</v>
       </c>
-      <c r="V322" s="157" t="s">
+      <c r="V322" s="82" t="s">
         <v>497</v>
       </c>
-      <c r="W322" s="158" t="s">
+      <c r="W322" s="72" t="s">
         <v>508</v>
       </c>
     </row>
@@ -7858,12 +7858,12 @@
         <f t="array" ref="P323">M323*N323</f>
         <v>0.754</v>
       </c>
-      <c r="R323" s="159"/>
-      <c r="S323" s="159"/>
-      <c r="T323" s="159"/>
-      <c r="U323" s="159"/>
-      <c r="V323" s="159"/>
-      <c r="W323" s="160" t="s">
+      <c r="R323" s="83"/>
+      <c r="S323" s="83"/>
+      <c r="T323" s="83"/>
+      <c r="U323" s="83"/>
+      <c r="V323" s="83"/>
+      <c r="W323" s="73" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7886,22 +7886,22 @@
         <f t="array" ref="P324">M324*N324</f>
         <v>1.6679999999999999</v>
       </c>
-      <c r="R324" s="161" t="s">
+      <c r="R324" s="74" t="s">
         <v>498</v>
       </c>
-      <c r="S324" s="162">
+      <c r="S324" s="75">
         <v>4</v>
       </c>
-      <c r="T324" s="162" t="s">
+      <c r="T324" s="75" t="s">
         <v>499</v>
       </c>
-      <c r="U324" s="162" t="s">
+      <c r="U324" s="75" t="s">
         <v>500</v>
       </c>
-      <c r="V324" s="162">
+      <c r="V324" s="75">
         <v>1.127</v>
       </c>
-      <c r="W324" s="163">
+      <c r="W324" s="76">
         <v>1055.23</v>
       </c>
     </row>
@@ -7924,22 +7924,22 @@
         <f t="array" ref="P325">M325*N325</f>
         <v>2.254</v>
       </c>
-      <c r="R325" s="161" t="s">
+      <c r="R325" s="74" t="s">
         <v>501</v>
       </c>
-      <c r="S325" s="162">
+      <c r="S325" s="75">
         <v>2</v>
       </c>
-      <c r="T325" s="162" t="s">
+      <c r="T325" s="75" t="s">
         <v>502</v>
       </c>
-      <c r="U325" s="164" t="s">
+      <c r="U325" s="77" t="s">
         <v>500</v>
       </c>
-      <c r="V325" s="162">
+      <c r="V325" s="75">
         <v>0.754</v>
       </c>
-      <c r="W325" s="163">
+      <c r="W325" s="76">
         <v>352.99</v>
       </c>
     </row>
@@ -7954,76 +7954,76 @@
         <f t="array" ref="P326">SUM(P323:P325)</f>
         <v>4.6760000000000002</v>
       </c>
-      <c r="R326" s="161" t="s">
+      <c r="R326" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="S326" s="162">
+      <c r="S326" s="75">
         <v>2</v>
       </c>
-      <c r="T326" s="162" t="s">
+      <c r="T326" s="75" t="s">
         <v>504</v>
       </c>
-      <c r="U326" s="164" t="s">
+      <c r="U326" s="77" t="s">
         <v>500</v>
       </c>
-      <c r="V326" s="162">
+      <c r="V326" s="75">
         <v>0.83399999999999996</v>
       </c>
-      <c r="W326" s="163">
+      <c r="W326" s="76">
         <v>390.45</v>
       </c>
     </row>
     <row r="327" spans="3:23" ht="19.5" thickBot="1">
-      <c r="R327" s="161" t="s">
+      <c r="R327" s="74" t="s">
         <v>505</v>
       </c>
-      <c r="S327" s="162">
+      <c r="S327" s="75">
         <v>2</v>
       </c>
-      <c r="T327" s="162" t="s">
+      <c r="T327" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="U327" s="164" t="s">
+      <c r="U327" s="77" t="s">
         <v>500</v>
       </c>
-      <c r="V327" s="162">
+      <c r="V327" s="75">
         <v>0.69699999999999995</v>
       </c>
-      <c r="W327" s="163">
+      <c r="W327" s="76">
         <v>326.3</v>
       </c>
     </row>
     <row r="328" spans="3:23" ht="19.5" thickBot="1">
-      <c r="R328" s="161" t="s">
+      <c r="R328" s="74" t="s">
         <v>507</v>
       </c>
-      <c r="S328" s="162">
+      <c r="S328" s="75">
         <v>2</v>
       </c>
-      <c r="T328" s="162" t="s">
+      <c r="T328" s="75" t="s">
         <v>502</v>
       </c>
-      <c r="U328" s="164" t="s">
+      <c r="U328" s="77" t="s">
         <v>500</v>
       </c>
-      <c r="V328" s="162">
+      <c r="V328" s="75">
         <v>0.754</v>
       </c>
-      <c r="W328" s="163">
+      <c r="W328" s="76">
         <v>352.99</v>
       </c>
     </row>
     <row r="329" spans="3:23" ht="19.5" thickBot="1">
-      <c r="R329" s="161" t="s">
+      <c r="R329" s="74" t="s">
         <v>510</v>
       </c>
-      <c r="S329" s="162">
+      <c r="S329" s="75">
         <v>12</v>
       </c>
-      <c r="T329" s="162"/>
-      <c r="U329" s="162"/>
-      <c r="V329" s="162"/>
-      <c r="W329" s="165">
+      <c r="T329" s="75"/>
+      <c r="U329" s="75"/>
+      <c r="V329" s="75"/>
+      <c r="W329" s="78">
         <v>2477.9699999999998</v>
       </c>
     </row>
@@ -8037,17 +8037,17 @@
       <c r="D344" s="11"/>
     </row>
     <row r="347" spans="2:10">
-      <c r="B347" s="72" t="s">
+      <c r="B347" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="C347" s="72"/>
-      <c r="D347" s="72"/>
-      <c r="E347" s="72"/>
-      <c r="F347" s="72"/>
-      <c r="G347" s="72"/>
-      <c r="H347" s="72"/>
-      <c r="I347" s="72"/>
-      <c r="J347" s="72"/>
+      <c r="C347" s="91"/>
+      <c r="D347" s="91"/>
+      <c r="E347" s="91"/>
+      <c r="F347" s="91"/>
+      <c r="G347" s="91"/>
+      <c r="H347" s="91"/>
+      <c r="I347" s="91"/>
+      <c r="J347" s="91"/>
     </row>
     <row r="349" spans="2:10">
       <c r="B349" s="2" t="s">
@@ -8083,17 +8083,17 @@
       </c>
     </row>
     <row r="352" spans="2:10">
-      <c r="B352" s="72" t="s">
+      <c r="B352" s="91" t="s">
         <v>436</v>
       </c>
-      <c r="C352" s="72"/>
-      <c r="D352" s="72"/>
-      <c r="E352" s="72"/>
-      <c r="F352" s="72"/>
-      <c r="G352" s="72"/>
-      <c r="H352" s="72"/>
-      <c r="I352" s="72"/>
-      <c r="J352" s="72"/>
+      <c r="C352" s="91"/>
+      <c r="D352" s="91"/>
+      <c r="E352" s="91"/>
+      <c r="F352" s="91"/>
+      <c r="G352" s="91"/>
+      <c r="H352" s="91"/>
+      <c r="I352" s="91"/>
+      <c r="J352" s="91"/>
     </row>
     <row r="354" spans="2:10">
       <c r="B354" s="2" t="s">
@@ -8120,17 +8120,17 @@
       <c r="J354" s="59"/>
     </row>
     <row r="357" spans="2:10">
-      <c r="B357" s="72" t="s">
+      <c r="B357" s="91" t="s">
         <v>262</v>
       </c>
-      <c r="C357" s="72"/>
-      <c r="D357" s="72"/>
-      <c r="E357" s="72"/>
-      <c r="F357" s="72"/>
-      <c r="G357" s="72"/>
-      <c r="H357" s="72"/>
-      <c r="I357" s="72"/>
-      <c r="J357" s="72"/>
+      <c r="C357" s="91"/>
+      <c r="D357" s="91"/>
+      <c r="E357" s="91"/>
+      <c r="F357" s="91"/>
+      <c r="G357" s="91"/>
+      <c r="H357" s="91"/>
+      <c r="I357" s="91"/>
+      <c r="J357" s="91"/>
     </row>
     <row r="359" spans="2:10">
       <c r="B359" s="2" t="s">
@@ -8210,17 +8210,17 @@
       </c>
     </row>
     <row r="368" spans="2:10">
-      <c r="B368" s="72" t="s">
+      <c r="B368" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="C368" s="72"/>
-      <c r="D368" s="72"/>
-      <c r="E368" s="72"/>
-      <c r="F368" s="72"/>
-      <c r="G368" s="72"/>
-      <c r="H368" s="72"/>
-      <c r="I368" s="72"/>
-      <c r="J368" s="72"/>
+      <c r="C368" s="91"/>
+      <c r="D368" s="91"/>
+      <c r="E368" s="91"/>
+      <c r="F368" s="91"/>
+      <c r="G368" s="91"/>
+      <c r="H368" s="91"/>
+      <c r="I368" s="91"/>
+      <c r="J368" s="91"/>
     </row>
     <row r="370" spans="2:12">
       <c r="B370" s="2" t="s">
@@ -8241,17 +8241,17 @@
       </c>
     </row>
     <row r="373" spans="2:12">
-      <c r="B373" s="72" t="s">
+      <c r="B373" s="91" t="s">
         <v>272</v>
       </c>
-      <c r="C373" s="72"/>
-      <c r="D373" s="72"/>
-      <c r="E373" s="72"/>
-      <c r="F373" s="72"/>
-      <c r="G373" s="72"/>
-      <c r="H373" s="72"/>
-      <c r="I373" s="72"/>
-      <c r="J373" s="72"/>
+      <c r="C373" s="91"/>
+      <c r="D373" s="91"/>
+      <c r="E373" s="91"/>
+      <c r="F373" s="91"/>
+      <c r="G373" s="91"/>
+      <c r="H373" s="91"/>
+      <c r="I373" s="91"/>
+      <c r="J373" s="91"/>
     </row>
     <row r="375" spans="2:12">
       <c r="B375" s="2" t="s">
@@ -8289,17 +8289,17 @@
       </c>
     </row>
     <row r="378" spans="2:12">
-      <c r="B378" s="72" t="s">
+      <c r="B378" s="91" t="s">
         <v>438</v>
       </c>
-      <c r="C378" s="72"/>
-      <c r="D378" s="72"/>
-      <c r="E378" s="72"/>
-      <c r="F378" s="72"/>
-      <c r="G378" s="72"/>
-      <c r="H378" s="72"/>
-      <c r="I378" s="72"/>
-      <c r="J378" s="72"/>
+      <c r="C378" s="91"/>
+      <c r="D378" s="91"/>
+      <c r="E378" s="91"/>
+      <c r="F378" s="91"/>
+      <c r="G378" s="91"/>
+      <c r="H378" s="91"/>
+      <c r="I378" s="91"/>
+      <c r="J378" s="91"/>
     </row>
     <row r="379" spans="2:12">
       <c r="L379" s="2" t="s">
@@ -8328,17 +8328,17 @@
       </c>
     </row>
     <row r="382" spans="2:12">
-      <c r="B382" s="72" t="s">
+      <c r="B382" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="C382" s="72"/>
-      <c r="D382" s="72"/>
-      <c r="E382" s="72"/>
-      <c r="F382" s="72"/>
-      <c r="G382" s="72"/>
-      <c r="H382" s="72"/>
-      <c r="I382" s="72"/>
-      <c r="J382" s="72"/>
+      <c r="C382" s="91"/>
+      <c r="D382" s="91"/>
+      <c r="E382" s="91"/>
+      <c r="F382" s="91"/>
+      <c r="G382" s="91"/>
+      <c r="H382" s="91"/>
+      <c r="I382" s="91"/>
+      <c r="J382" s="91"/>
     </row>
     <row r="384" spans="2:12">
       <c r="B384" s="2" t="s">
@@ -8366,17 +8366,17 @@
       </c>
     </row>
     <row r="387" spans="2:12">
-      <c r="B387" s="72" t="s">
+      <c r="B387" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="C387" s="72"/>
-      <c r="D387" s="72"/>
-      <c r="E387" s="72"/>
-      <c r="F387" s="72"/>
-      <c r="G387" s="72"/>
-      <c r="H387" s="72"/>
-      <c r="I387" s="72"/>
-      <c r="J387" s="72"/>
+      <c r="C387" s="91"/>
+      <c r="D387" s="91"/>
+      <c r="E387" s="91"/>
+      <c r="F387" s="91"/>
+      <c r="G387" s="91"/>
+      <c r="H387" s="91"/>
+      <c r="I387" s="91"/>
+      <c r="J387" s="91"/>
     </row>
     <row r="389" spans="2:12">
       <c r="B389" s="2" t="s">
@@ -8404,17 +8404,17 @@
       </c>
     </row>
     <row r="392" spans="2:12">
-      <c r="B392" s="72" t="s">
+      <c r="B392" s="91" t="s">
         <v>368</v>
       </c>
-      <c r="C392" s="72"/>
-      <c r="D392" s="72"/>
-      <c r="E392" s="72"/>
-      <c r="F392" s="72"/>
-      <c r="G392" s="72"/>
-      <c r="H392" s="72"/>
-      <c r="I392" s="72"/>
-      <c r="J392" s="72"/>
+      <c r="C392" s="91"/>
+      <c r="D392" s="91"/>
+      <c r="E392" s="91"/>
+      <c r="F392" s="91"/>
+      <c r="G392" s="91"/>
+      <c r="H392" s="91"/>
+      <c r="I392" s="91"/>
+      <c r="J392" s="91"/>
     </row>
     <row r="394" spans="2:12">
       <c r="B394" s="2" t="s">
@@ -8443,7 +8443,7 @@
       </c>
     </row>
     <row r="395" spans="2:12">
-      <c r="C395" s="167">
+      <c r="C395" s="80">
         <f>C394*12945</f>
         <v>3250.5757441047931</v>
       </c>
@@ -8456,17 +8456,17 @@
       </c>
     </row>
     <row r="396" spans="2:12">
-      <c r="B396" s="72" t="s">
+      <c r="B396" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="C396" s="72"/>
-      <c r="D396" s="72"/>
-      <c r="E396" s="72"/>
-      <c r="F396" s="72"/>
-      <c r="G396" s="72"/>
-      <c r="H396" s="72"/>
-      <c r="I396" s="72"/>
-      <c r="J396" s="72"/>
+      <c r="C396" s="91"/>
+      <c r="D396" s="91"/>
+      <c r="E396" s="91"/>
+      <c r="F396" s="91"/>
+      <c r="G396" s="91"/>
+      <c r="H396" s="91"/>
+      <c r="I396" s="91"/>
+      <c r="J396" s="91"/>
       <c r="K396" s="2" t="s">
         <v>492</v>
       </c>
@@ -8504,17 +8504,17 @@
       </c>
     </row>
     <row r="400" spans="2:12">
-      <c r="B400" s="72" t="s">
+      <c r="B400" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="C400" s="72"/>
-      <c r="D400" s="72"/>
-      <c r="E400" s="72"/>
-      <c r="F400" s="72"/>
-      <c r="G400" s="72"/>
-      <c r="H400" s="72"/>
-      <c r="I400" s="72"/>
-      <c r="J400" s="72"/>
+      <c r="C400" s="91"/>
+      <c r="D400" s="91"/>
+      <c r="E400" s="91"/>
+      <c r="F400" s="91"/>
+      <c r="G400" s="91"/>
+      <c r="H400" s="91"/>
+      <c r="I400" s="91"/>
+      <c r="J400" s="91"/>
     </row>
     <row r="402" spans="2:13">
       <c r="B402" s="2" t="s">
@@ -8547,7 +8547,7 @@
       <c r="K402" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="L402" s="168">
+      <c r="L402" s="81">
         <f>D402+F241</f>
         <v>708442.83311928459</v>
       </c>
@@ -8557,17 +8557,17 @@
       </c>
     </row>
     <row r="404" spans="2:13">
-      <c r="B404" s="72" t="s">
+      <c r="B404" s="91" t="s">
         <v>415</v>
       </c>
-      <c r="C404" s="72"/>
-      <c r="D404" s="72"/>
-      <c r="E404" s="72"/>
-      <c r="F404" s="72"/>
-      <c r="G404" s="72"/>
-      <c r="H404" s="72"/>
-      <c r="I404" s="72"/>
-      <c r="J404" s="72"/>
+      <c r="C404" s="91"/>
+      <c r="D404" s="91"/>
+      <c r="E404" s="91"/>
+      <c r="F404" s="91"/>
+      <c r="G404" s="91"/>
+      <c r="H404" s="91"/>
+      <c r="I404" s="91"/>
+      <c r="J404" s="91"/>
     </row>
     <row r="406" spans="2:13">
       <c r="B406" s="2" t="s">
@@ -8598,17 +8598,17 @@
       </c>
     </row>
     <row r="408" spans="2:13">
-      <c r="B408" s="72" t="s">
+      <c r="B408" s="91" t="s">
         <v>418</v>
       </c>
-      <c r="C408" s="72"/>
-      <c r="D408" s="72"/>
-      <c r="E408" s="72"/>
-      <c r="F408" s="72"/>
-      <c r="G408" s="72"/>
-      <c r="H408" s="72"/>
-      <c r="I408" s="72"/>
-      <c r="J408" s="72"/>
+      <c r="C408" s="91"/>
+      <c r="D408" s="91"/>
+      <c r="E408" s="91"/>
+      <c r="F408" s="91"/>
+      <c r="G408" s="91"/>
+      <c r="H408" s="91"/>
+      <c r="I408" s="91"/>
+      <c r="J408" s="91"/>
     </row>
     <row r="410" spans="2:13">
       <c r="B410" s="2" t="s">
@@ -8639,17 +8639,17 @@
       </c>
     </row>
     <row r="412" spans="2:13" s="17" customFormat="1">
-      <c r="B412" s="124" t="s">
+      <c r="B412" s="134" t="s">
         <v>289</v>
       </c>
-      <c r="C412" s="124"/>
-      <c r="D412" s="124"/>
-      <c r="E412" s="124"/>
-      <c r="F412" s="124"/>
-      <c r="G412" s="124"/>
-      <c r="H412" s="124"/>
-      <c r="I412" s="124"/>
-      <c r="J412" s="124"/>
+      <c r="C412" s="134"/>
+      <c r="D412" s="134"/>
+      <c r="E412" s="134"/>
+      <c r="F412" s="134"/>
+      <c r="G412" s="134"/>
+      <c r="H412" s="134"/>
+      <c r="I412" s="134"/>
+      <c r="J412" s="134"/>
     </row>
     <row r="414" spans="2:13">
       <c r="B414" s="2" t="s">
@@ -8661,17 +8661,17 @@
       </c>
     </row>
     <row r="417" spans="1:10">
-      <c r="B417" s="126" t="s">
+      <c r="B417" s="135" t="s">
         <v>440</v>
       </c>
-      <c r="C417" s="126"/>
-      <c r="D417" s="126"/>
-      <c r="E417" s="126"/>
-      <c r="F417" s="126"/>
-      <c r="G417" s="126"/>
-      <c r="H417" s="126"/>
-      <c r="I417" s="126"/>
-      <c r="J417" s="126"/>
+      <c r="C417" s="135"/>
+      <c r="D417" s="135"/>
+      <c r="E417" s="135"/>
+      <c r="F417" s="135"/>
+      <c r="G417" s="135"/>
+      <c r="H417" s="135"/>
+      <c r="I417" s="135"/>
+      <c r="J417" s="135"/>
     </row>
     <row r="419" spans="1:10">
       <c r="B419" s="2" t="s">
@@ -8693,17 +8693,17 @@
       </c>
     </row>
     <row r="421" spans="1:10">
-      <c r="B421" s="72" t="s">
+      <c r="B421" s="91" t="s">
         <v>291</v>
       </c>
-      <c r="C421" s="72"/>
-      <c r="D421" s="72"/>
-      <c r="E421" s="72"/>
-      <c r="F421" s="72"/>
-      <c r="G421" s="72"/>
-      <c r="H421" s="72"/>
-      <c r="I421" s="72"/>
-      <c r="J421" s="72"/>
+      <c r="C421" s="91"/>
+      <c r="D421" s="91"/>
+      <c r="E421" s="91"/>
+      <c r="F421" s="91"/>
+      <c r="G421" s="91"/>
+      <c r="H421" s="91"/>
+      <c r="I421" s="91"/>
+      <c r="J421" s="91"/>
     </row>
     <row r="423" spans="1:10">
       <c r="B423" s="2" t="s">
@@ -8749,17 +8749,17 @@
       </c>
     </row>
     <row r="426" spans="1:10">
-      <c r="B426" s="72" t="s">
+      <c r="B426" s="91" t="s">
         <v>449</v>
       </c>
-      <c r="C426" s="72"/>
-      <c r="D426" s="72"/>
-      <c r="E426" s="72"/>
-      <c r="F426" s="72"/>
-      <c r="G426" s="72"/>
-      <c r="H426" s="72"/>
-      <c r="I426" s="72"/>
-      <c r="J426" s="72"/>
+      <c r="C426" s="91"/>
+      <c r="D426" s="91"/>
+      <c r="E426" s="91"/>
+      <c r="F426" s="91"/>
+      <c r="G426" s="91"/>
+      <c r="H426" s="91"/>
+      <c r="I426" s="91"/>
+      <c r="J426" s="91"/>
     </row>
     <row r="427" spans="1:10">
       <c r="B427" s="3"/>
@@ -8790,30 +8790,30 @@
       </c>
     </row>
     <row r="430" spans="1:10">
-      <c r="A430" s="72" t="s">
+      <c r="A430" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="B430" s="72"/>
-      <c r="C430" s="72"/>
-      <c r="D430" s="72"/>
-      <c r="E430" s="72"/>
-      <c r="F430" s="72"/>
-      <c r="G430" s="72"/>
-      <c r="H430" s="72"/>
-      <c r="I430" s="72"/>
+      <c r="B430" s="91"/>
+      <c r="C430" s="91"/>
+      <c r="D430" s="91"/>
+      <c r="E430" s="91"/>
+      <c r="F430" s="91"/>
+      <c r="G430" s="91"/>
+      <c r="H430" s="91"/>
+      <c r="I430" s="91"/>
     </row>
     <row r="432" spans="1:10">
-      <c r="B432" s="125" t="s">
+      <c r="B432" s="121" t="s">
         <v>409</v>
       </c>
-      <c r="C432" s="72"/>
-      <c r="D432" s="72"/>
-      <c r="E432" s="72"/>
-      <c r="F432" s="72"/>
-      <c r="G432" s="72"/>
-      <c r="H432" s="72"/>
-      <c r="I432" s="72"/>
-      <c r="J432" s="72"/>
+      <c r="C432" s="91"/>
+      <c r="D432" s="91"/>
+      <c r="E432" s="91"/>
+      <c r="F432" s="91"/>
+      <c r="G432" s="91"/>
+      <c r="H432" s="91"/>
+      <c r="I432" s="91"/>
+      <c r="J432" s="91"/>
     </row>
     <row r="433" spans="2:10">
       <c r="B433" s="44"/>
@@ -8831,17 +8831,17 @@
       </c>
     </row>
     <row r="436" spans="2:10">
-      <c r="B436" s="72" t="s">
+      <c r="B436" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="C436" s="72"/>
-      <c r="D436" s="72"/>
-      <c r="E436" s="72"/>
-      <c r="F436" s="72"/>
-      <c r="G436" s="72"/>
-      <c r="H436" s="72"/>
-      <c r="I436" s="72"/>
-      <c r="J436" s="72"/>
+      <c r="C436" s="91"/>
+      <c r="D436" s="91"/>
+      <c r="E436" s="91"/>
+      <c r="F436" s="91"/>
+      <c r="G436" s="91"/>
+      <c r="H436" s="91"/>
+      <c r="I436" s="91"/>
+      <c r="J436" s="91"/>
     </row>
     <row r="438" spans="2:10">
       <c r="C438" s="2" t="s">
@@ -8857,17 +8857,17 @@
       </c>
     </row>
     <row r="440" spans="2:10">
-      <c r="B440" s="72" t="s">
+      <c r="B440" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="C440" s="72"/>
-      <c r="D440" s="72"/>
-      <c r="E440" s="72"/>
-      <c r="F440" s="72"/>
-      <c r="G440" s="72"/>
-      <c r="H440" s="72"/>
-      <c r="I440" s="72"/>
-      <c r="J440" s="72"/>
+      <c r="C440" s="91"/>
+      <c r="D440" s="91"/>
+      <c r="E440" s="91"/>
+      <c r="F440" s="91"/>
+      <c r="G440" s="91"/>
+      <c r="H440" s="91"/>
+      <c r="I440" s="91"/>
+      <c r="J440" s="91"/>
     </row>
     <row r="442" spans="2:10">
       <c r="C442" s="2" t="s">
@@ -8883,17 +8883,17 @@
       </c>
     </row>
     <row r="444" spans="2:10">
-      <c r="B444" s="72" t="s">
+      <c r="B444" s="91" t="s">
         <v>296</v>
       </c>
-      <c r="C444" s="72"/>
-      <c r="D444" s="72"/>
-      <c r="E444" s="72"/>
-      <c r="F444" s="72"/>
-      <c r="G444" s="72"/>
-      <c r="H444" s="72"/>
-      <c r="I444" s="72"/>
-      <c r="J444" s="72"/>
+      <c r="C444" s="91"/>
+      <c r="D444" s="91"/>
+      <c r="E444" s="91"/>
+      <c r="F444" s="91"/>
+      <c r="G444" s="91"/>
+      <c r="H444" s="91"/>
+      <c r="I444" s="91"/>
+      <c r="J444" s="91"/>
     </row>
     <row r="446" spans="2:10">
       <c r="C446" s="2" t="s">
@@ -8905,25 +8905,25 @@
       </c>
     </row>
     <row r="448" spans="2:10">
-      <c r="B448" s="72" t="s">
+      <c r="B448" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="C448" s="72"/>
-      <c r="D448" s="72"/>
-      <c r="E448" s="72"/>
-      <c r="F448" s="72"/>
-      <c r="G448" s="72"/>
-      <c r="H448" s="72"/>
-      <c r="I448" s="72"/>
-      <c r="J448" s="72"/>
+      <c r="C448" s="91"/>
+      <c r="D448" s="91"/>
+      <c r="E448" s="91"/>
+      <c r="F448" s="91"/>
+      <c r="G448" s="91"/>
+      <c r="H448" s="91"/>
+      <c r="I448" s="91"/>
+      <c r="J448" s="91"/>
     </row>
     <row r="450" spans="2:10">
       <c r="C450" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D450" s="41">
-        <f>D442-D438-C423*M2-C425*M2</f>
-        <v>243161.64037757629</v>
+        <f>D442-D438-E423-I450*M2-I451*M2</f>
+        <v>232874.42149487662</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>411</v>
@@ -8932,8 +8932,12 @@
         <v>413</v>
       </c>
       <c r="I450" s="41">
-        <f>C410</f>
-        <v>1.1565754105774224</v>
+        <f>E410</f>
+        <v>1.1455183767564452</v>
+      </c>
+      <c r="J450" s="2">
+        <f>I450*M2</f>
+        <v>14828.735387112183</v>
       </c>
     </row>
     <row r="451" spans="2:10">
@@ -8941,8 +8945,12 @@
         <v>414</v>
       </c>
       <c r="I451" s="41">
-        <f>C406</f>
+        <f>E406</f>
         <v>1.4032600115266454</v>
+      </c>
+      <c r="J451" s="2">
+        <f>I451*M2</f>
+        <v>18165.200849212426</v>
       </c>
     </row>
     <row r="452" spans="2:10">
@@ -8956,7 +8964,7 @@
       </c>
       <c r="D454" s="41">
         <f t="array" ref="D454">0.15*D450</f>
-        <v>36474.246056636439</v>
+        <v>34931.163224231488</v>
       </c>
     </row>
     <row r="456" spans="2:10">
@@ -8970,21 +8978,21 @@
       </c>
       <c r="D458" s="41">
         <f>D450+D454</f>
-        <v>279635.88643421273</v>
+        <v>267805.58471910813</v>
       </c>
     </row>
     <row r="461" spans="2:10">
-      <c r="B461" s="72" t="s">
+      <c r="B461" s="91" t="s">
         <v>450</v>
       </c>
-      <c r="C461" s="72"/>
-      <c r="D461" s="72"/>
-      <c r="E461" s="72"/>
-      <c r="F461" s="72"/>
-      <c r="G461" s="72"/>
-      <c r="H461" s="72"/>
-      <c r="I461" s="72"/>
-      <c r="J461" s="72"/>
+      <c r="C461" s="91"/>
+      <c r="D461" s="91"/>
+      <c r="E461" s="91"/>
+      <c r="F461" s="91"/>
+      <c r="G461" s="91"/>
+      <c r="H461" s="91"/>
+      <c r="I461" s="91"/>
+      <c r="J461" s="91"/>
     </row>
     <row r="463" spans="2:10">
       <c r="C463" s="2" t="s">
@@ -8992,7 +9000,7 @@
       </c>
       <c r="D463" s="41">
         <f>D458</f>
-        <v>279635.88643421273</v>
+        <v>267805.58471910813</v>
       </c>
       <c r="G463" s="2" t="s">
         <v>304</v>
@@ -9010,25 +9018,25 @@
       </c>
     </row>
     <row r="466" spans="2:10">
-      <c r="B466" s="72" t="s">
+      <c r="B466" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="C466" s="72"/>
-      <c r="D466" s="72"/>
-      <c r="E466" s="72"/>
-      <c r="F466" s="72"/>
-      <c r="G466" s="72"/>
-      <c r="H466" s="72"/>
-      <c r="I466" s="72"/>
-      <c r="J466" s="72"/>
+      <c r="C466" s="91"/>
+      <c r="D466" s="91"/>
+      <c r="E466" s="91"/>
+      <c r="F466" s="91"/>
+      <c r="G466" s="91"/>
+      <c r="H466" s="91"/>
+      <c r="I466" s="91"/>
+      <c r="J466" s="91"/>
     </row>
     <row r="468" spans="2:10">
       <c r="C468" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D468" s="41">
-        <f>E166-H166</f>
-        <v>30697.454739368368</v>
+        <f>E166-H166/12</f>
+        <v>32053.641816248386</v>
       </c>
       <c r="E468" s="8">
         <f>H166</f>
@@ -9041,7 +9049,7 @@
       </c>
       <c r="D470" s="41">
         <f>(D468*H470)/(12*100)</f>
-        <v>25.581212282806973</v>
+        <v>26.711368180206989</v>
       </c>
       <c r="G470" s="2" t="s">
         <v>309</v>
@@ -9054,17 +9062,17 @@
       </c>
     </row>
     <row r="472" spans="2:10">
-      <c r="B472" s="72" t="s">
+      <c r="B472" s="91" t="s">
         <v>369</v>
       </c>
-      <c r="C472" s="72"/>
-      <c r="D472" s="72"/>
-      <c r="E472" s="72"/>
-      <c r="F472" s="72"/>
-      <c r="G472" s="72"/>
-      <c r="H472" s="72"/>
-      <c r="I472" s="72"/>
-      <c r="J472" s="72"/>
+      <c r="C472" s="91"/>
+      <c r="D472" s="91"/>
+      <c r="E472" s="91"/>
+      <c r="F472" s="91"/>
+      <c r="G472" s="91"/>
+      <c r="H472" s="91"/>
+      <c r="I472" s="91"/>
+      <c r="J472" s="91"/>
     </row>
     <row r="473" spans="2:10">
       <c r="B473" s="3"/>
@@ -9087,17 +9095,17 @@
       </c>
     </row>
     <row r="476" spans="2:10">
-      <c r="B476" s="72" t="s">
+      <c r="B476" s="91" t="s">
         <v>371</v>
       </c>
-      <c r="C476" s="72"/>
-      <c r="D476" s="72"/>
-      <c r="E476" s="72"/>
-      <c r="F476" s="72"/>
-      <c r="G476" s="72"/>
-      <c r="H476" s="72"/>
-      <c r="I476" s="72"/>
-      <c r="J476" s="72"/>
+      <c r="C476" s="91"/>
+      <c r="D476" s="91"/>
+      <c r="E476" s="91"/>
+      <c r="F476" s="91"/>
+      <c r="G476" s="91"/>
+      <c r="H476" s="91"/>
+      <c r="I476" s="91"/>
+      <c r="J476" s="91"/>
     </row>
     <row r="478" spans="2:10">
       <c r="C478" s="2" t="s">
@@ -9105,21 +9113,21 @@
       </c>
       <c r="D478" s="41">
         <f>D474+D470</f>
-        <v>38.988267095519561</v>
+        <v>40.118422992919577</v>
       </c>
     </row>
     <row r="480" spans="2:10">
-      <c r="B480" s="72" t="s">
+      <c r="B480" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="C480" s="72"/>
-      <c r="D480" s="72"/>
-      <c r="E480" s="72"/>
-      <c r="F480" s="72"/>
-      <c r="G480" s="72"/>
-      <c r="H480" s="72"/>
-      <c r="I480" s="72"/>
-      <c r="J480" s="72"/>
+      <c r="C480" s="91"/>
+      <c r="D480" s="91"/>
+      <c r="E480" s="91"/>
+      <c r="F480" s="91"/>
+      <c r="G480" s="91"/>
+      <c r="H480" s="91"/>
+      <c r="I480" s="91"/>
+      <c r="J480" s="91"/>
     </row>
     <row r="482" spans="2:10">
       <c r="C482" s="2" t="s">
@@ -9127,7 +9135,7 @@
       </c>
       <c r="D482" s="41">
         <f>D463-D470-H482-H483</f>
-        <v>279610.30522192991</v>
+        <v>267778.8733509279</v>
       </c>
       <c r="G482" s="2" t="s">
         <v>312</v>
@@ -9145,17 +9153,17 @@
       </c>
     </row>
     <row r="486" spans="2:10">
-      <c r="B486" s="72" t="s">
+      <c r="B486" s="91" t="s">
         <v>314</v>
       </c>
-      <c r="C486" s="72"/>
-      <c r="D486" s="72"/>
-      <c r="E486" s="72"/>
-      <c r="F486" s="72"/>
-      <c r="G486" s="72"/>
-      <c r="H486" s="72"/>
-      <c r="I486" s="72"/>
-      <c r="J486" s="72"/>
+      <c r="C486" s="91"/>
+      <c r="D486" s="91"/>
+      <c r="E486" s="91"/>
+      <c r="F486" s="91"/>
+      <c r="G486" s="91"/>
+      <c r="H486" s="91"/>
+      <c r="I486" s="91"/>
+      <c r="J486" s="91"/>
     </row>
     <row r="488" spans="2:10">
       <c r="C488" s="2" t="s">
@@ -9163,7 +9171,7 @@
       </c>
       <c r="D488" s="41">
         <f>D482*H488/100</f>
-        <v>67106.473253263175</v>
+        <v>64266.9296042227</v>
       </c>
       <c r="G488" s="2" t="s">
         <v>283</v>
@@ -9176,17 +9184,17 @@
       </c>
     </row>
     <row r="491" spans="2:10">
-      <c r="B491" s="72" t="s">
+      <c r="B491" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="C491" s="72"/>
-      <c r="D491" s="72"/>
-      <c r="E491" s="72"/>
-      <c r="F491" s="72"/>
-      <c r="G491" s="72"/>
-      <c r="H491" s="72"/>
-      <c r="I491" s="72"/>
-      <c r="J491" s="72"/>
+      <c r="C491" s="91"/>
+      <c r="D491" s="91"/>
+      <c r="E491" s="91"/>
+      <c r="F491" s="91"/>
+      <c r="G491" s="91"/>
+      <c r="H491" s="91"/>
+      <c r="I491" s="91"/>
+      <c r="J491" s="91"/>
     </row>
     <row r="493" spans="2:10">
       <c r="C493" s="2" t="s">
@@ -9194,7 +9202,7 @@
       </c>
       <c r="D493" s="41">
         <f>(D463-D478-D488-H482-H483)*H493/100</f>
-        <v>10624.521245692704</v>
+        <v>10174.926834594624</v>
       </c>
       <c r="G493" s="2" t="s">
         <v>317</v>
@@ -9207,17 +9215,17 @@
       </c>
     </row>
     <row r="496" spans="2:10">
-      <c r="B496" s="72" t="s">
+      <c r="B496" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="C496" s="72"/>
-      <c r="D496" s="72"/>
-      <c r="E496" s="72"/>
-      <c r="F496" s="72"/>
-      <c r="G496" s="72"/>
-      <c r="H496" s="72"/>
-      <c r="I496" s="72"/>
-      <c r="J496" s="72"/>
+      <c r="C496" s="91"/>
+      <c r="D496" s="91"/>
+      <c r="E496" s="91"/>
+      <c r="F496" s="91"/>
+      <c r="G496" s="91"/>
+      <c r="H496" s="91"/>
+      <c r="I496" s="91"/>
+      <c r="J496" s="91"/>
     </row>
     <row r="498" spans="2:10">
       <c r="C498" s="2" t="s">
@@ -9225,21 +9233,21 @@
       </c>
       <c r="D498" s="41">
         <f>D463-D478-D488-D493</f>
-        <v>201865.90366816134</v>
+        <v>193323.60985729785</v>
       </c>
     </row>
     <row r="500" spans="2:10">
-      <c r="B500" s="72" t="s">
+      <c r="B500" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="C500" s="72"/>
-      <c r="D500" s="72"/>
-      <c r="E500" s="72"/>
-      <c r="F500" s="72"/>
-      <c r="G500" s="72"/>
-      <c r="H500" s="72"/>
-      <c r="I500" s="72"/>
-      <c r="J500" s="72"/>
+      <c r="C500" s="91"/>
+      <c r="D500" s="91"/>
+      <c r="E500" s="91"/>
+      <c r="F500" s="91"/>
+      <c r="G500" s="91"/>
+      <c r="H500" s="91"/>
+      <c r="I500" s="91"/>
+      <c r="J500" s="91"/>
     </row>
     <row r="502" spans="2:10">
       <c r="C502" s="2" t="s">
@@ -9252,17 +9260,17 @@
       <c r="E502" s="41"/>
     </row>
     <row r="504" spans="2:10">
-      <c r="B504" s="72" t="s">
+      <c r="B504" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="C504" s="72"/>
-      <c r="D504" s="72"/>
-      <c r="E504" s="72"/>
-      <c r="F504" s="72"/>
-      <c r="G504" s="72"/>
-      <c r="H504" s="72"/>
-      <c r="I504" s="72"/>
-      <c r="J504" s="72"/>
+      <c r="C504" s="91"/>
+      <c r="D504" s="91"/>
+      <c r="E504" s="91"/>
+      <c r="F504" s="91"/>
+      <c r="G504" s="91"/>
+      <c r="H504" s="91"/>
+      <c r="I504" s="91"/>
+      <c r="J504" s="91"/>
     </row>
     <row r="506" spans="2:10">
       <c r="C506" s="2" t="s">
@@ -9270,21 +9278,21 @@
       </c>
       <c r="D506" s="41">
         <f>D498*100/(E166+E434)</f>
-        <v>418.24146252371179</v>
+        <v>400.54287454108811</v>
       </c>
     </row>
     <row r="509" spans="2:10">
-      <c r="B509" s="72" t="s">
+      <c r="B509" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="C509" s="72"/>
-      <c r="D509" s="72"/>
-      <c r="E509" s="72"/>
-      <c r="F509" s="72"/>
-      <c r="G509" s="72"/>
-      <c r="H509" s="72"/>
-      <c r="I509" s="72"/>
-      <c r="J509" s="72"/>
+      <c r="C509" s="91"/>
+      <c r="D509" s="91"/>
+      <c r="E509" s="91"/>
+      <c r="F509" s="91"/>
+      <c r="G509" s="91"/>
+      <c r="H509" s="91"/>
+      <c r="I509" s="91"/>
+      <c r="J509" s="91"/>
     </row>
     <row r="511" spans="2:10">
       <c r="C511" s="2" t="s">
@@ -9300,12 +9308,12 @@
       </c>
     </row>
     <row r="514" spans="1:6">
-      <c r="A514" s="103" t="s">
+      <c r="A514" s="87" t="s">
         <v>327</v>
       </c>
-      <c r="B514" s="103"/>
-      <c r="C514" s="103"/>
-      <c r="D514" s="103"/>
+      <c r="B514" s="87"/>
+      <c r="C514" s="87"/>
+      <c r="D514" s="87"/>
       <c r="E514" s="26" t="s">
         <v>221</v>
       </c>
@@ -9314,12 +9322,12 @@
       </c>
     </row>
     <row r="515" spans="1:6">
-      <c r="A515" s="112" t="s">
+      <c r="A515" s="86" t="s">
         <v>329</v>
       </c>
-      <c r="B515" s="112"/>
-      <c r="C515" s="112"/>
-      <c r="D515" s="112"/>
+      <c r="B515" s="86"/>
+      <c r="C515" s="86"/>
+      <c r="D515" s="86"/>
       <c r="E515" s="4" t="s">
         <v>235</v>
       </c>
@@ -9329,12 +9337,12 @@
       </c>
     </row>
     <row r="516" spans="1:6">
-      <c r="A516" s="112" t="s">
+      <c r="A516" s="86" t="s">
         <v>330</v>
       </c>
-      <c r="B516" s="112"/>
-      <c r="C516" s="112"/>
-      <c r="D516" s="112"/>
+      <c r="B516" s="86"/>
+      <c r="C516" s="86"/>
+      <c r="D516" s="86"/>
       <c r="E516" s="4" t="s">
         <v>62</v>
       </c>
@@ -9344,12 +9352,12 @@
       </c>
     </row>
     <row r="517" spans="1:6">
-      <c r="A517" s="103" t="s">
+      <c r="A517" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="B517" s="103"/>
-      <c r="C517" s="103"/>
-      <c r="D517" s="103"/>
+      <c r="B517" s="87"/>
+      <c r="C517" s="87"/>
+      <c r="D517" s="87"/>
       <c r="E517" s="4" t="s">
         <v>62</v>
       </c>
@@ -9359,12 +9367,12 @@
       </c>
     </row>
     <row r="518" spans="1:6">
-      <c r="A518" s="103" t="s">
+      <c r="A518" s="87" t="s">
         <v>332</v>
       </c>
-      <c r="B518" s="103"/>
-      <c r="C518" s="103"/>
-      <c r="D518" s="103"/>
+      <c r="B518" s="87"/>
+      <c r="C518" s="87"/>
+      <c r="D518" s="87"/>
       <c r="E518" s="4" t="s">
         <v>62</v>
       </c>
@@ -9374,12 +9382,12 @@
       </c>
     </row>
     <row r="519" spans="1:6">
-      <c r="A519" s="103" t="s">
+      <c r="A519" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="B519" s="103"/>
-      <c r="C519" s="103"/>
-      <c r="D519" s="103"/>
+      <c r="B519" s="87"/>
+      <c r="C519" s="87"/>
+      <c r="D519" s="87"/>
       <c r="E519" s="4" t="s">
         <v>350</v>
       </c>
@@ -9389,12 +9397,12 @@
       </c>
     </row>
     <row r="520" spans="1:6">
-      <c r="A520" s="103" t="s">
+      <c r="A520" s="87" t="s">
         <v>334</v>
       </c>
-      <c r="B520" s="103"/>
-      <c r="C520" s="103"/>
-      <c r="D520" s="103"/>
+      <c r="B520" s="87"/>
+      <c r="C520" s="87"/>
+      <c r="D520" s="87"/>
       <c r="E520" s="4" t="s">
         <v>62</v>
       </c>
@@ -9404,12 +9412,12 @@
       </c>
     </row>
     <row r="521" spans="1:6">
-      <c r="A521" s="103" t="s">
+      <c r="A521" s="87" t="s">
         <v>335</v>
       </c>
-      <c r="B521" s="103"/>
-      <c r="C521" s="103"/>
-      <c r="D521" s="103"/>
+      <c r="B521" s="87"/>
+      <c r="C521" s="87"/>
+      <c r="D521" s="87"/>
       <c r="E521" s="4" t="s">
         <v>62</v>
       </c>
@@ -9419,57 +9427,57 @@
       </c>
     </row>
     <row r="522" spans="1:6">
-      <c r="A522" s="103" t="s">
+      <c r="A522" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="B522" s="103"/>
-      <c r="C522" s="103"/>
-      <c r="D522" s="103"/>
+      <c r="B522" s="87"/>
+      <c r="C522" s="87"/>
+      <c r="D522" s="87"/>
       <c r="E522" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F522" s="57">
         <f t="array" ref="F522">D458</f>
-        <v>279635.88643421273</v>
+        <v>267805.58471910813</v>
       </c>
     </row>
     <row r="523" spans="1:6">
-      <c r="A523" s="103" t="s">
+      <c r="A523" s="87" t="s">
         <v>336</v>
       </c>
-      <c r="B523" s="103"/>
-      <c r="C523" s="103"/>
-      <c r="D523" s="103"/>
+      <c r="B523" s="87"/>
+      <c r="C523" s="87"/>
+      <c r="D523" s="87"/>
       <c r="E523" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F523" s="57">
         <f t="array" ref="F523">D498</f>
-        <v>201865.90366816134</v>
+        <v>193323.60985729785</v>
       </c>
     </row>
     <row r="524" spans="1:6">
-      <c r="A524" s="103" t="s">
+      <c r="A524" s="87" t="s">
         <v>337</v>
       </c>
-      <c r="B524" s="103"/>
-      <c r="C524" s="103"/>
-      <c r="D524" s="103"/>
+      <c r="B524" s="87"/>
+      <c r="C524" s="87"/>
+      <c r="D524" s="87"/>
       <c r="E524" s="4" t="s">
         <v>260</v>
       </c>
       <c r="F524" s="57">
         <f>D506</f>
-        <v>418.24146252371179</v>
+        <v>400.54287454108811</v>
       </c>
     </row>
     <row r="525" spans="1:6">
-      <c r="A525" s="103" t="s">
+      <c r="A525" s="87" t="s">
         <v>338</v>
       </c>
-      <c r="B525" s="103"/>
-      <c r="C525" s="103"/>
-      <c r="D525" s="103"/>
+      <c r="B525" s="87"/>
+      <c r="C525" s="87"/>
+      <c r="D525" s="87"/>
       <c r="E525" s="4" t="s">
         <v>260</v>
       </c>
@@ -9479,12 +9487,12 @@
       </c>
     </row>
     <row r="526" spans="1:6">
-      <c r="A526" s="103" t="s">
+      <c r="A526" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="B526" s="103"/>
-      <c r="C526" s="103"/>
-      <c r="D526" s="103"/>
+      <c r="B526" s="87"/>
+      <c r="C526" s="87"/>
+      <c r="D526" s="87"/>
       <c r="E526" s="4" t="s">
         <v>351</v>
       </c>
@@ -9494,12 +9502,12 @@
       </c>
     </row>
     <row r="527" spans="1:6">
-      <c r="A527" s="103" t="s">
+      <c r="A527" s="87" t="s">
         <v>465</v>
       </c>
-      <c r="B527" s="103"/>
-      <c r="C527" s="103"/>
-      <c r="D527" s="103"/>
+      <c r="B527" s="87"/>
+      <c r="C527" s="87"/>
+      <c r="D527" s="87"/>
       <c r="E527" s="4" t="s">
         <v>352</v>
       </c>
@@ -9509,12 +9517,12 @@
       </c>
     </row>
     <row r="528" spans="1:6">
-      <c r="A528" s="103" t="s">
+      <c r="A528" s="87" t="s">
         <v>464</v>
       </c>
-      <c r="B528" s="103"/>
-      <c r="C528" s="103"/>
-      <c r="D528" s="103"/>
+      <c r="B528" s="87"/>
+      <c r="C528" s="87"/>
+      <c r="D528" s="87"/>
       <c r="E528" s="4" t="s">
         <v>352</v>
       </c>
@@ -9524,12 +9532,12 @@
       </c>
     </row>
     <row r="529" spans="1:6">
-      <c r="A529" s="103" t="s">
+      <c r="A529" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="B529" s="103"/>
-      <c r="C529" s="103"/>
-      <c r="D529" s="103"/>
+      <c r="B529" s="87"/>
+      <c r="C529" s="87"/>
+      <c r="D529" s="87"/>
       <c r="E529" s="4" t="s">
         <v>354</v>
       </c>
@@ -9539,12 +9547,12 @@
       </c>
     </row>
     <row r="530" spans="1:6">
-      <c r="A530" s="103" t="s">
+      <c r="A530" s="87" t="s">
         <v>340</v>
       </c>
-      <c r="B530" s="103"/>
-      <c r="C530" s="103"/>
-      <c r="D530" s="103"/>
+      <c r="B530" s="87"/>
+      <c r="C530" s="87"/>
+      <c r="D530" s="87"/>
       <c r="E530" s="4" t="s">
         <v>354</v>
       </c>
@@ -9554,12 +9562,12 @@
       </c>
     </row>
     <row r="531" spans="1:6">
-      <c r="A531" s="103" t="s">
+      <c r="A531" s="87" t="s">
         <v>341</v>
       </c>
-      <c r="B531" s="103"/>
-      <c r="C531" s="103"/>
-      <c r="D531" s="103"/>
+      <c r="B531" s="87"/>
+      <c r="C531" s="87"/>
+      <c r="D531" s="87"/>
       <c r="E531" s="4" t="s">
         <v>62</v>
       </c>
@@ -9569,12 +9577,12 @@
       </c>
     </row>
     <row r="532" spans="1:6">
-      <c r="A532" s="103" t="s">
+      <c r="A532" s="87" t="s">
         <v>342</v>
       </c>
-      <c r="B532" s="103"/>
-      <c r="C532" s="103"/>
-      <c r="D532" s="103"/>
+      <c r="B532" s="87"/>
+      <c r="C532" s="87"/>
+      <c r="D532" s="87"/>
       <c r="E532" s="4" t="s">
         <v>62</v>
       </c>
@@ -9584,12 +9592,12 @@
       </c>
     </row>
     <row r="533" spans="1:6">
-      <c r="A533" s="103" t="s">
+      <c r="A533" s="87" t="s">
         <v>343</v>
       </c>
-      <c r="B533" s="103"/>
-      <c r="C533" s="103"/>
-      <c r="D533" s="103"/>
+      <c r="B533" s="87"/>
+      <c r="C533" s="87"/>
+      <c r="D533" s="87"/>
       <c r="E533" s="4" t="s">
         <v>62</v>
       </c>
@@ -9599,42 +9607,42 @@
       </c>
     </row>
     <row r="534" spans="1:6">
-      <c r="A534" s="103" t="s">
+      <c r="A534" s="87" t="s">
         <v>344</v>
       </c>
-      <c r="B534" s="103"/>
-      <c r="C534" s="103"/>
-      <c r="D534" s="103"/>
+      <c r="B534" s="87"/>
+      <c r="C534" s="87"/>
+      <c r="D534" s="87"/>
       <c r="E534" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F534" s="57">
         <f t="array" ref="F534">D488</f>
-        <v>67106.473253263175</v>
+        <v>64266.9296042227</v>
       </c>
     </row>
     <row r="535" spans="1:6">
-      <c r="A535" s="103" t="s">
+      <c r="A535" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="B535" s="103"/>
-      <c r="C535" s="103"/>
-      <c r="D535" s="103"/>
+      <c r="B535" s="87"/>
+      <c r="C535" s="87"/>
+      <c r="D535" s="87"/>
       <c r="E535" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F535" s="57">
         <f t="array" ref="F535">D470</f>
-        <v>25.581212282806973</v>
+        <v>26.711368180206989</v>
       </c>
     </row>
     <row r="536" spans="1:6">
-      <c r="A536" s="103" t="s">
+      <c r="A536" s="87" t="s">
         <v>346</v>
       </c>
-      <c r="B536" s="103"/>
-      <c r="C536" s="103"/>
-      <c r="D536" s="103"/>
+      <c r="B536" s="87"/>
+      <c r="C536" s="87"/>
+      <c r="D536" s="87"/>
       <c r="E536" s="4" t="s">
         <v>62</v>
       </c>
@@ -9644,12 +9652,12 @@
       </c>
     </row>
     <row r="537" spans="1:6">
-      <c r="A537" s="103" t="s">
+      <c r="A537" s="87" t="s">
         <v>347</v>
       </c>
-      <c r="B537" s="103"/>
-      <c r="C537" s="103"/>
-      <c r="D537" s="103"/>
+      <c r="B537" s="87"/>
+      <c r="C537" s="87"/>
+      <c r="D537" s="87"/>
       <c r="E537" s="4" t="s">
         <v>62</v>
       </c>
@@ -9659,12 +9667,12 @@
       </c>
     </row>
     <row r="538" spans="1:6">
-      <c r="A538" s="103" t="s">
+      <c r="A538" s="87" t="s">
         <v>348</v>
       </c>
-      <c r="B538" s="103"/>
-      <c r="C538" s="103"/>
-      <c r="D538" s="103"/>
+      <c r="B538" s="87"/>
+      <c r="C538" s="87"/>
+      <c r="D538" s="87"/>
       <c r="E538" s="4" t="s">
         <v>62</v>
       </c>
@@ -9674,12 +9682,12 @@
       </c>
     </row>
     <row r="539" spans="1:6">
-      <c r="A539" s="103" t="s">
+      <c r="A539" s="87" t="s">
         <v>349</v>
       </c>
-      <c r="B539" s="103"/>
-      <c r="C539" s="103"/>
-      <c r="D539" s="103"/>
+      <c r="B539" s="87"/>
+      <c r="C539" s="87"/>
+      <c r="D539" s="87"/>
       <c r="E539" s="4" t="s">
         <v>62</v>
       </c>
@@ -9691,76 +9699,374 @@
   </sheetData>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
-      <selection activeCell="F217" sqref="F217:G217"/>
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
+      <selection activeCell="C359" sqref="C359"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}" scale="60">
-      <selection activeCell="C359" sqref="C359"/>
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}" scale="60" topLeftCell="A167">
+      <selection activeCell="F217" sqref="F217:G217"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="448">
-    <mergeCell ref="R322:R323"/>
-    <mergeCell ref="S322:S323"/>
-    <mergeCell ref="T322:T323"/>
-    <mergeCell ref="U322:U323"/>
-    <mergeCell ref="V322:V323"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A242:D242"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A248:D248"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="B269:L269"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="G255:H255"/>
-    <mergeCell ref="I255:J255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="G256:H256"/>
-    <mergeCell ref="G257:H257"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="F242:G242"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="B253:E253"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="A125:B126"/>
-    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C183:H183"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="H302:I302"/>
+    <mergeCell ref="H303:I303"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="H306:I306"/>
+    <mergeCell ref="A244:D244"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="I259:J259"/>
+    <mergeCell ref="I260:J260"/>
+    <mergeCell ref="I261:J261"/>
+    <mergeCell ref="I262:J262"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="M181:M208"/>
+    <mergeCell ref="B181:J181"/>
+    <mergeCell ref="B171:J171"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A169:J169"/>
+    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B137:I137"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A539:D539"/>
+    <mergeCell ref="A530:D530"/>
+    <mergeCell ref="A531:D531"/>
+    <mergeCell ref="A532:D532"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A534:D534"/>
+    <mergeCell ref="A535:D535"/>
+    <mergeCell ref="A536:D536"/>
+    <mergeCell ref="A537:D537"/>
+    <mergeCell ref="A538:D538"/>
+    <mergeCell ref="A524:D524"/>
+    <mergeCell ref="A525:D525"/>
+    <mergeCell ref="A526:D526"/>
+    <mergeCell ref="A527:D527"/>
+    <mergeCell ref="A528:D528"/>
+    <mergeCell ref="A529:D529"/>
+    <mergeCell ref="A515:D515"/>
+    <mergeCell ref="I264:J264"/>
+    <mergeCell ref="I266:J266"/>
+    <mergeCell ref="I263:J263"/>
+    <mergeCell ref="I265:J265"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="A520:D520"/>
+    <mergeCell ref="A521:D521"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A523:D523"/>
+    <mergeCell ref="B480:J480"/>
+    <mergeCell ref="B486:J486"/>
+    <mergeCell ref="B491:J491"/>
+    <mergeCell ref="B496:J496"/>
+    <mergeCell ref="B500:J500"/>
+    <mergeCell ref="B504:J504"/>
+    <mergeCell ref="B509:J509"/>
+    <mergeCell ref="A514:D514"/>
+    <mergeCell ref="A517:D517"/>
+    <mergeCell ref="A518:D518"/>
+    <mergeCell ref="A519:D519"/>
+    <mergeCell ref="B352:J352"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="B357:J357"/>
+    <mergeCell ref="B368:J368"/>
+    <mergeCell ref="B373:J373"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="H308:I308"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="H309:I309"/>
+    <mergeCell ref="B476:J476"/>
+    <mergeCell ref="A516:D516"/>
+    <mergeCell ref="B448:J448"/>
+    <mergeCell ref="B461:J461"/>
+    <mergeCell ref="B466:J466"/>
+    <mergeCell ref="B378:J378"/>
+    <mergeCell ref="B382:J382"/>
+    <mergeCell ref="B387:J387"/>
+    <mergeCell ref="B392:J392"/>
+    <mergeCell ref="B396:J396"/>
+    <mergeCell ref="B400:J400"/>
+    <mergeCell ref="B412:J412"/>
+    <mergeCell ref="B421:J421"/>
+    <mergeCell ref="A430:I430"/>
+    <mergeCell ref="B432:J432"/>
+    <mergeCell ref="B404:J404"/>
+    <mergeCell ref="B408:J408"/>
+    <mergeCell ref="B436:J436"/>
+    <mergeCell ref="B440:J440"/>
+    <mergeCell ref="B444:J444"/>
+    <mergeCell ref="B426:J426"/>
+    <mergeCell ref="B417:J417"/>
+    <mergeCell ref="B472:J472"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="F231:G231"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="H297:I297"/>
+    <mergeCell ref="G261:H261"/>
+    <mergeCell ref="I256:J256"/>
+    <mergeCell ref="I257:J257"/>
+    <mergeCell ref="I258:J258"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="B313:J313"/>
+    <mergeCell ref="B318:J318"/>
+    <mergeCell ref="B347:J347"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="B251:L251"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="B295:J295"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="G258:H258"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="G260:H260"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="L147:M148"/>
+    <mergeCell ref="N147:O148"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="B145:I145"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="A147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:E148"/>
+    <mergeCell ref="H147:I148"/>
+    <mergeCell ref="J147:K148"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="C189:H189"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="A230:D230"/>
+    <mergeCell ref="A226:D226"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A234:D234"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A222:I222"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="A239:D239"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="F238:G238"/>
     <mergeCell ref="F233:G233"/>
     <mergeCell ref="F234:G234"/>
     <mergeCell ref="F229:G229"/>
@@ -9785,372 +10091,74 @@
     <mergeCell ref="A216:D216"/>
     <mergeCell ref="A217:D217"/>
     <mergeCell ref="A218:D218"/>
-    <mergeCell ref="A219:D219"/>
-    <mergeCell ref="A222:I222"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="A239:D239"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="C189:H189"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="A230:D230"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="L147:M148"/>
-    <mergeCell ref="N147:O148"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="B145:I145"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="A147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:E148"/>
-    <mergeCell ref="H147:I148"/>
-    <mergeCell ref="J147:K148"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="A125:B126"/>
+    <mergeCell ref="C125:C126"/>
     <mergeCell ref="F112:G112"/>
     <mergeCell ref="H112:I112"/>
     <mergeCell ref="A102:H102"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="D106:E106"/>
     <mergeCell ref="F106:G106"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B104:H104"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="B269:L269"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="G255:H255"/>
+    <mergeCell ref="I255:J255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="G256:H256"/>
+    <mergeCell ref="G257:H257"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="F247:G247"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="B253:E253"/>
+    <mergeCell ref="H248:I248"/>
     <mergeCell ref="A246:D246"/>
     <mergeCell ref="F246:G246"/>
     <mergeCell ref="F241:G241"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="B251:L251"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="B295:J295"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="G258:H258"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="G260:H260"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A226:D226"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A234:D234"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="B472:J472"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="F231:G231"/>
-    <mergeCell ref="F232:G232"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="H297:I297"/>
-    <mergeCell ref="G261:H261"/>
-    <mergeCell ref="I256:J256"/>
-    <mergeCell ref="I257:J257"/>
-    <mergeCell ref="I258:J258"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="B476:J476"/>
-    <mergeCell ref="A516:D516"/>
-    <mergeCell ref="B448:J448"/>
-    <mergeCell ref="B461:J461"/>
-    <mergeCell ref="B466:J466"/>
-    <mergeCell ref="B378:J378"/>
-    <mergeCell ref="B382:J382"/>
-    <mergeCell ref="B387:J387"/>
-    <mergeCell ref="B392:J392"/>
-    <mergeCell ref="B396:J396"/>
-    <mergeCell ref="B400:J400"/>
-    <mergeCell ref="B412:J412"/>
-    <mergeCell ref="B421:J421"/>
-    <mergeCell ref="A430:I430"/>
-    <mergeCell ref="B432:J432"/>
-    <mergeCell ref="B404:J404"/>
-    <mergeCell ref="B408:J408"/>
-    <mergeCell ref="B436:J436"/>
-    <mergeCell ref="B440:J440"/>
-    <mergeCell ref="B444:J444"/>
-    <mergeCell ref="B426:J426"/>
-    <mergeCell ref="B417:J417"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="B313:J313"/>
-    <mergeCell ref="B318:J318"/>
-    <mergeCell ref="B347:J347"/>
-    <mergeCell ref="B352:J352"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="B357:J357"/>
-    <mergeCell ref="B368:J368"/>
-    <mergeCell ref="B373:J373"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="H308:I308"/>
-    <mergeCell ref="H307:I307"/>
-    <mergeCell ref="H309:I309"/>
-    <mergeCell ref="A520:D520"/>
-    <mergeCell ref="A521:D521"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A523:D523"/>
-    <mergeCell ref="B480:J480"/>
-    <mergeCell ref="B486:J486"/>
-    <mergeCell ref="B491:J491"/>
-    <mergeCell ref="B496:J496"/>
-    <mergeCell ref="B500:J500"/>
-    <mergeCell ref="B504:J504"/>
-    <mergeCell ref="B509:J509"/>
-    <mergeCell ref="A514:D514"/>
-    <mergeCell ref="A517:D517"/>
-    <mergeCell ref="A518:D518"/>
-    <mergeCell ref="A519:D519"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A539:D539"/>
-    <mergeCell ref="A530:D530"/>
-    <mergeCell ref="A531:D531"/>
-    <mergeCell ref="A532:D532"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A534:D534"/>
-    <mergeCell ref="A535:D535"/>
-    <mergeCell ref="A536:D536"/>
-    <mergeCell ref="A537:D537"/>
-    <mergeCell ref="A538:D538"/>
-    <mergeCell ref="A524:D524"/>
-    <mergeCell ref="A525:D525"/>
-    <mergeCell ref="A526:D526"/>
-    <mergeCell ref="A527:D527"/>
-    <mergeCell ref="A528:D528"/>
-    <mergeCell ref="A529:D529"/>
-    <mergeCell ref="A515:D515"/>
-    <mergeCell ref="I264:J264"/>
-    <mergeCell ref="I266:J266"/>
-    <mergeCell ref="I263:J263"/>
-    <mergeCell ref="I265:J265"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B137:I137"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="A141:B141"/>
     <mergeCell ref="F248:G248"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="M181:M208"/>
-    <mergeCell ref="B181:J181"/>
-    <mergeCell ref="B171:J171"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A169:J169"/>
-    <mergeCell ref="B173:E173"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="L149:M149"/>
-    <mergeCell ref="C183:H183"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="H300:I300"/>
-    <mergeCell ref="H301:I301"/>
-    <mergeCell ref="H302:I302"/>
-    <mergeCell ref="H303:I303"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="H306:I306"/>
-    <mergeCell ref="A244:D244"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="H246:I246"/>
-    <mergeCell ref="I259:J259"/>
-    <mergeCell ref="I260:J260"/>
-    <mergeCell ref="I261:J261"/>
-    <mergeCell ref="I262:J262"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A240:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A242:D242"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A248:D248"/>
+    <mergeCell ref="R322:R323"/>
+    <mergeCell ref="S322:S323"/>
+    <mergeCell ref="T322:T323"/>
+    <mergeCell ref="U322:U323"/>
+    <mergeCell ref="V322:V323"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" blackAndWhite="1" r:id="rId3"/>
@@ -10171,11 +10179,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <selection activeCell="C26" sqref="C26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -10193,10 +10201,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
+    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4FC9B848-A432-420E-96A3-650FD7E100EA}">
+    <customSheetView guid="{C13EF904-9CC0-49BE-89FD-1217A85283D6}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
